--- a/template/template.xlsx
+++ b/template/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrmau\Documents\Cevin\SysBill\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532A3FBE-73DC-4FFA-8A9C-30946AD0A65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC26272C-3D04-4EE8-B586-AD6918F73B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2670" yWindow="-16200" windowWidth="22140" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -577,7 +577,7 @@
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="266">
+  <cellXfs count="254">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
@@ -759,22 +759,115 @@
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
     </xf>
@@ -788,412 +881,374 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="170" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="173" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
@@ -1212,99 +1267,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1963,146 +1933,146 @@
     <row r="1" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:38" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="76"/>
-      <c r="T2" s="76"/>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
-      <c r="X2" s="76"/>
-      <c r="Y2" s="76"/>
-      <c r="Z2" s="76"/>
-      <c r="AA2" s="76"/>
-      <c r="AB2" s="76"/>
-      <c r="AC2" s="76"/>
-      <c r="AD2" s="76"/>
-      <c r="AE2" s="76"/>
-      <c r="AF2" s="76"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="107"/>
+      <c r="V2" s="107"/>
+      <c r="W2" s="107"/>
+      <c r="X2" s="107"/>
+      <c r="Y2" s="107"/>
+      <c r="Z2" s="107"/>
+      <c r="AA2" s="107"/>
+      <c r="AB2" s="107"/>
+      <c r="AC2" s="107"/>
+      <c r="AD2" s="107"/>
+      <c r="AE2" s="107"/>
+      <c r="AF2" s="107"/>
     </row>
     <row r="3" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="76"/>
-      <c r="W3" s="76"/>
-      <c r="X3" s="76"/>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="76"/>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="76"/>
-      <c r="AC3" s="76"/>
-      <c r="AD3" s="76"/>
-      <c r="AE3" s="76"/>
-      <c r="AF3" s="76"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
+      <c r="U3" s="107"/>
+      <c r="V3" s="107"/>
+      <c r="W3" s="107"/>
+      <c r="X3" s="107"/>
+      <c r="Y3" s="107"/>
+      <c r="Z3" s="107"/>
+      <c r="AA3" s="107"/>
+      <c r="AB3" s="107"/>
+      <c r="AC3" s="107"/>
+      <c r="AD3" s="107"/>
+      <c r="AE3" s="107"/>
+      <c r="AF3" s="107"/>
     </row>
     <row r="4" spans="1:38" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="151" t="s">
+      <c r="B4" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="76"/>
-      <c r="V4" s="76"/>
-      <c r="W4" s="76"/>
-      <c r="X4" s="76"/>
-      <c r="Y4" s="76"/>
-      <c r="Z4" s="76"/>
-      <c r="AA4" s="76"/>
-      <c r="AB4" s="76"/>
-      <c r="AC4" s="76"/>
-      <c r="AD4" s="76"/>
-      <c r="AE4" s="76"/>
-      <c r="AF4" s="76"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="107"/>
+      <c r="R4" s="107"/>
+      <c r="S4" s="107"/>
+      <c r="T4" s="107"/>
+      <c r="U4" s="107"/>
+      <c r="V4" s="107"/>
+      <c r="W4" s="107"/>
+      <c r="X4" s="107"/>
+      <c r="Y4" s="107"/>
+      <c r="Z4" s="107"/>
+      <c r="AA4" s="107"/>
+      <c r="AB4" s="107"/>
+      <c r="AC4" s="107"/>
+      <c r="AD4" s="107"/>
+      <c r="AE4" s="107"/>
+      <c r="AF4" s="107"/>
     </row>
     <row r="5" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="173" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
-      <c r="X5" s="76"/>
-      <c r="Y5" s="76"/>
-      <c r="Z5" s="76"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="179"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="107"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="107"/>
+      <c r="T5" s="107"/>
+      <c r="U5" s="107"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
+      <c r="X5" s="107"/>
+      <c r="Y5" s="107"/>
+      <c r="Z5" s="107"/>
       <c r="AA5" s="7"/>
-      <c r="AB5" s="97" t="s">
+      <c r="AB5" s="172" t="s">
         <v>2</v>
       </c>
-      <c r="AC5" s="76"/>
-      <c r="AD5" s="76"/>
-      <c r="AE5" s="76"/>
+      <c r="AC5" s="107"/>
+      <c r="AD5" s="107"/>
+      <c r="AE5" s="107"/>
       <c r="AF5" s="63" t="e">
         <f>VLOOKUP(E11,[1]!UT_Billings[#Data],5,FALSE)</f>
         <v>#REF!</v>
@@ -2116,15 +2086,15 @@
     </row>
     <row r="6" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="148" t="s">
+      <c r="B6" s="128" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -2134,22 +2104,22 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
-      <c r="R6" s="139"/>
-      <c r="S6" s="76"/>
-      <c r="T6" s="76"/>
-      <c r="U6" s="76"/>
-      <c r="V6" s="76"/>
-      <c r="W6" s="76"/>
-      <c r="X6" s="104"/>
-      <c r="Y6" s="76"/>
+      <c r="R6" s="115"/>
+      <c r="S6" s="107"/>
+      <c r="T6" s="107"/>
+      <c r="U6" s="107"/>
+      <c r="V6" s="107"/>
+      <c r="W6" s="107"/>
+      <c r="X6" s="176"/>
+      <c r="Y6" s="107"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="7"/>
-      <c r="AB6" s="97" t="s">
+      <c r="AB6" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="AC6" s="76"/>
-      <c r="AD6" s="76"/>
-      <c r="AE6" s="76"/>
+      <c r="AC6" s="107"/>
+      <c r="AD6" s="107"/>
+      <c r="AE6" s="107"/>
       <c r="AF6" s="62" t="e">
         <f>AF5+19</f>
         <v>#REF!</v>
@@ -2157,13 +2127,13 @@
     </row>
     <row r="7" spans="1:38" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -2191,13 +2161,13 @@
     </row>
     <row r="8" spans="1:38" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -2206,38 +2176,38 @@
       <c r="N8" s="9"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
-      <c r="Q8" s="107" t="s">
+      <c r="Q8" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="R8" s="101"/>
-      <c r="S8" s="101"/>
-      <c r="T8" s="101"/>
-      <c r="U8" s="101"/>
-      <c r="V8" s="101"/>
-      <c r="W8" s="101"/>
-      <c r="X8" s="102"/>
-      <c r="Y8" s="107" t="s">
+      <c r="R8" s="134"/>
+      <c r="S8" s="134"/>
+      <c r="T8" s="134"/>
+      <c r="U8" s="134"/>
+      <c r="V8" s="134"/>
+      <c r="W8" s="134"/>
+      <c r="X8" s="135"/>
+      <c r="Y8" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="Z8" s="101"/>
-      <c r="AA8" s="101"/>
-      <c r="AB8" s="101"/>
-      <c r="AC8" s="102"/>
-      <c r="AD8" s="107" t="s">
+      <c r="Z8" s="134"/>
+      <c r="AA8" s="134"/>
+      <c r="AB8" s="134"/>
+      <c r="AC8" s="135"/>
+      <c r="AD8" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="AE8" s="101"/>
-      <c r="AF8" s="102"/>
+      <c r="AE8" s="134"/>
+      <c r="AF8" s="135"/>
     </row>
     <row r="9" spans="1:38" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -2246,22 +2216,22 @@
       <c r="N9" s="9"/>
       <c r="O9" s="6"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="108"/>
-      <c r="R9" s="109"/>
-      <c r="S9" s="109"/>
-      <c r="T9" s="109"/>
-      <c r="U9" s="109"/>
-      <c r="V9" s="109"/>
-      <c r="W9" s="109"/>
-      <c r="X9" s="110"/>
-      <c r="Y9" s="108"/>
-      <c r="Z9" s="109"/>
-      <c r="AA9" s="109"/>
-      <c r="AB9" s="109"/>
-      <c r="AC9" s="110"/>
-      <c r="AD9" s="108"/>
-      <c r="AE9" s="109"/>
-      <c r="AF9" s="110"/>
+      <c r="Q9" s="136"/>
+      <c r="R9" s="137"/>
+      <c r="S9" s="137"/>
+      <c r="T9" s="137"/>
+      <c r="U9" s="137"/>
+      <c r="V9" s="137"/>
+      <c r="W9" s="137"/>
+      <c r="X9" s="138"/>
+      <c r="Y9" s="136"/>
+      <c r="Z9" s="137"/>
+      <c r="AA9" s="137"/>
+      <c r="AB9" s="137"/>
+      <c r="AC9" s="138"/>
+      <c r="AD9" s="136"/>
+      <c r="AE9" s="137"/>
+      <c r="AF9" s="138"/>
     </row>
     <row r="10" spans="1:38" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -2280,44 +2250,44 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="117">
+      <c r="Q10" s="157">
         <v>44986</v>
       </c>
-      <c r="R10" s="101"/>
-      <c r="S10" s="101"/>
-      <c r="T10" s="101"/>
-      <c r="U10" s="101"/>
-      <c r="V10" s="101"/>
-      <c r="W10" s="101"/>
-      <c r="X10" s="102"/>
-      <c r="Y10" s="127">
+      <c r="R10" s="134"/>
+      <c r="S10" s="134"/>
+      <c r="T10" s="134"/>
+      <c r="U10" s="134"/>
+      <c r="V10" s="134"/>
+      <c r="W10" s="134"/>
+      <c r="X10" s="135"/>
+      <c r="Y10" s="160">
         <v>231662</v>
       </c>
-      <c r="Z10" s="101"/>
-      <c r="AA10" s="101"/>
-      <c r="AB10" s="101"/>
-      <c r="AC10" s="102"/>
-      <c r="AD10" s="153" t="s">
+      <c r="Z10" s="134"/>
+      <c r="AA10" s="134"/>
+      <c r="AB10" s="134"/>
+      <c r="AC10" s="135"/>
+      <c r="AD10" s="139" t="s">
         <v>47</v>
       </c>
-      <c r="AE10" s="101"/>
-      <c r="AF10" s="102"/>
+      <c r="AE10" s="134"/>
+      <c r="AF10" s="135"/>
     </row>
     <row r="11" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="99" t="s">
+      <c r="B11" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="76"/>
+      <c r="C11" s="107"/>
       <c r="D11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="99" t="s">
+      <c r="E11" s="173" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -2326,22 +2296,22 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="108"/>
-      <c r="R11" s="109"/>
-      <c r="S11" s="109"/>
-      <c r="T11" s="109"/>
-      <c r="U11" s="109"/>
-      <c r="V11" s="109"/>
-      <c r="W11" s="109"/>
-      <c r="X11" s="110"/>
-      <c r="Y11" s="108"/>
-      <c r="Z11" s="109"/>
-      <c r="AA11" s="109"/>
-      <c r="AB11" s="109"/>
-      <c r="AC11" s="110"/>
-      <c r="AD11" s="108"/>
-      <c r="AE11" s="109"/>
-      <c r="AF11" s="110"/>
+      <c r="Q11" s="136"/>
+      <c r="R11" s="137"/>
+      <c r="S11" s="137"/>
+      <c r="T11" s="137"/>
+      <c r="U11" s="137"/>
+      <c r="V11" s="137"/>
+      <c r="W11" s="137"/>
+      <c r="X11" s="138"/>
+      <c r="Y11" s="136"/>
+      <c r="Z11" s="137"/>
+      <c r="AA11" s="137"/>
+      <c r="AB11" s="137"/>
+      <c r="AC11" s="138"/>
+      <c r="AD11" s="136"/>
+      <c r="AE11" s="137"/>
+      <c r="AF11" s="138"/>
     </row>
     <row r="12" spans="1:38" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -2379,77 +2349,77 @@
     </row>
     <row r="13" spans="1:38" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="114" t="s">
+      <c r="B13" s="154" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="114"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="114"/>
-      <c r="L13" s="114"/>
-      <c r="M13" s="114"/>
-      <c r="N13" s="114"/>
-      <c r="O13" s="114"/>
-      <c r="P13" s="114"/>
-      <c r="Q13" s="114"/>
-      <c r="R13" s="114"/>
-      <c r="S13" s="114"/>
-      <c r="T13" s="114"/>
-      <c r="U13" s="114"/>
-      <c r="V13" s="114"/>
-      <c r="W13" s="114"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="154"/>
+      <c r="F13" s="154"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="154"/>
+      <c r="I13" s="154"/>
+      <c r="J13" s="154"/>
+      <c r="K13" s="154"/>
+      <c r="L13" s="154"/>
+      <c r="M13" s="154"/>
+      <c r="N13" s="154"/>
+      <c r="O13" s="154"/>
+      <c r="P13" s="154"/>
+      <c r="Q13" s="154"/>
+      <c r="R13" s="154"/>
+      <c r="S13" s="154"/>
+      <c r="T13" s="154"/>
+      <c r="U13" s="154"/>
+      <c r="V13" s="154"/>
+      <c r="W13" s="154"/>
       <c r="X13" s="46"/>
       <c r="Y13" s="46"/>
       <c r="Z13" s="46"/>
-      <c r="AA13" s="114" t="s">
+      <c r="AA13" s="154" t="s">
         <v>42</v>
       </c>
-      <c r="AB13" s="114"/>
-      <c r="AC13" s="114"/>
-      <c r="AD13" s="118" t="s">
+      <c r="AB13" s="154"/>
+      <c r="AC13" s="154"/>
+      <c r="AD13" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="AE13" s="101"/>
-      <c r="AF13" s="101"/>
+      <c r="AE13" s="134"/>
+      <c r="AF13" s="134"/>
     </row>
     <row r="14" spans="1:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="115"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="115"/>
-      <c r="K14" s="115"/>
-      <c r="L14" s="115"/>
-      <c r="M14" s="115"/>
-      <c r="N14" s="115"/>
-      <c r="O14" s="115"/>
-      <c r="P14" s="115"/>
-      <c r="Q14" s="115"/>
-      <c r="R14" s="115"/>
-      <c r="S14" s="115"/>
-      <c r="T14" s="115"/>
-      <c r="U14" s="115"/>
-      <c r="V14" s="115"/>
-      <c r="W14" s="115"/>
+      <c r="B14" s="155"/>
+      <c r="C14" s="155"/>
+      <c r="D14" s="155"/>
+      <c r="E14" s="155"/>
+      <c r="F14" s="155"/>
+      <c r="G14" s="155"/>
+      <c r="H14" s="155"/>
+      <c r="I14" s="155"/>
+      <c r="J14" s="155"/>
+      <c r="K14" s="155"/>
+      <c r="L14" s="155"/>
+      <c r="M14" s="155"/>
+      <c r="N14" s="155"/>
+      <c r="O14" s="155"/>
+      <c r="P14" s="155"/>
+      <c r="Q14" s="155"/>
+      <c r="R14" s="155"/>
+      <c r="S14" s="155"/>
+      <c r="T14" s="155"/>
+      <c r="U14" s="155"/>
+      <c r="V14" s="155"/>
+      <c r="W14" s="155"/>
       <c r="X14" s="45"/>
       <c r="Y14" s="45"/>
       <c r="Z14" s="45"/>
-      <c r="AA14" s="115"/>
-      <c r="AB14" s="115"/>
-      <c r="AC14" s="115"/>
-      <c r="AD14" s="109"/>
-      <c r="AE14" s="109"/>
-      <c r="AF14" s="109"/>
+      <c r="AA14" s="155"/>
+      <c r="AB14" s="155"/>
+      <c r="AC14" s="155"/>
+      <c r="AD14" s="137"/>
+      <c r="AE14" s="137"/>
+      <c r="AF14" s="137"/>
     </row>
     <row r="15" spans="1:38" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -2486,121 +2456,121 @@
       <c r="AF15" s="14"/>
     </row>
     <row r="16" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="75"/>
-      <c r="B16" s="149" t="s">
+      <c r="A16" s="106"/>
+      <c r="B16" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="88"/>
-      <c r="D16" s="84" t="s">
+      <c r="C16" s="117"/>
+      <c r="D16" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="79"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="110"/>
       <c r="K16" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="L16" s="98">
+      <c r="L16" s="125">
         <v>44946</v>
       </c>
-      <c r="M16" s="83"/>
-      <c r="N16" s="83"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="105" t="s">
+      <c r="M16" s="126"/>
+      <c r="N16" s="126"/>
+      <c r="O16" s="127"/>
+      <c r="P16" s="177" t="s">
         <v>15</v>
       </c>
-      <c r="Q16" s="103" t="s">
+      <c r="Q16" s="175" t="s">
         <v>16</v>
       </c>
-      <c r="R16" s="74"/>
-      <c r="S16" s="98">
+      <c r="R16" s="127"/>
+      <c r="S16" s="125">
         <v>44977</v>
       </c>
-      <c r="T16" s="83"/>
-      <c r="U16" s="83"/>
-      <c r="V16" s="83"/>
-      <c r="W16" s="74"/>
+      <c r="T16" s="126"/>
+      <c r="U16" s="126"/>
+      <c r="V16" s="126"/>
+      <c r="W16" s="127"/>
       <c r="X16" s="44"/>
       <c r="Y16" s="44"/>
       <c r="Z16" s="44"/>
-      <c r="AA16" s="137"/>
-      <c r="AB16" s="137"/>
+      <c r="AA16" s="113"/>
+      <c r="AB16" s="113"/>
       <c r="AC16" s="44"/>
       <c r="AD16" s="49"/>
-      <c r="AE16" s="111"/>
-      <c r="AF16" s="112"/>
+      <c r="AE16" s="161"/>
+      <c r="AF16" s="102"/>
     </row>
     <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="76"/>
-      <c r="B17" s="141"/>
-      <c r="C17" s="142"/>
-      <c r="D17" s="84" t="s">
+      <c r="A17" s="107"/>
+      <c r="B17" s="118"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="156" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="100">
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="174">
         <v>1269.0999999999999</v>
       </c>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="102"/>
-      <c r="P17" s="106"/>
-      <c r="Q17" s="119">
+      <c r="L17" s="134"/>
+      <c r="M17" s="134"/>
+      <c r="N17" s="134"/>
+      <c r="O17" s="135"/>
+      <c r="P17" s="178"/>
+      <c r="Q17" s="159">
         <v>1269.0999999999999</v>
       </c>
-      <c r="R17" s="101"/>
-      <c r="S17" s="101"/>
-      <c r="T17" s="101"/>
-      <c r="U17" s="101"/>
-      <c r="V17" s="101"/>
-      <c r="W17" s="102"/>
+      <c r="R17" s="134"/>
+      <c r="S17" s="134"/>
+      <c r="T17" s="134"/>
+      <c r="U17" s="134"/>
+      <c r="V17" s="134"/>
+      <c r="W17" s="135"/>
       <c r="X17" s="44"/>
       <c r="Y17" s="44"/>
       <c r="Z17" s="44"/>
-      <c r="AA17" s="137"/>
-      <c r="AB17" s="137"/>
+      <c r="AA17" s="113"/>
+      <c r="AB17" s="113"/>
       <c r="AC17" s="44"/>
       <c r="AD17" s="49"/>
-      <c r="AE17" s="111"/>
-      <c r="AF17" s="112"/>
+      <c r="AE17" s="161"/>
+      <c r="AF17" s="102"/>
     </row>
     <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="141"/>
-      <c r="C18" s="142"/>
-      <c r="D18" s="84" t="s">
+      <c r="B18" s="118"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="85">
+      <c r="E18" s="109"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="109"/>
+      <c r="I18" s="109"/>
+      <c r="J18" s="110"/>
+      <c r="K18" s="183">
         <v>1</v>
       </c>
-      <c r="L18" s="85"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="85"/>
-      <c r="O18" s="85"/>
-      <c r="P18" s="85"/>
-      <c r="Q18" s="85"/>
-      <c r="R18" s="85"/>
-      <c r="S18" s="85"/>
-      <c r="T18" s="85"/>
-      <c r="U18" s="85"/>
-      <c r="V18" s="85"/>
-      <c r="W18" s="85"/>
+      <c r="L18" s="183"/>
+      <c r="M18" s="183"/>
+      <c r="N18" s="183"/>
+      <c r="O18" s="183"/>
+      <c r="P18" s="183"/>
+      <c r="Q18" s="183"/>
+      <c r="R18" s="183"/>
+      <c r="S18" s="183"/>
+      <c r="T18" s="183"/>
+      <c r="U18" s="183"/>
+      <c r="V18" s="183"/>
+      <c r="W18" s="183"/>
       <c r="X18" s="47"/>
       <c r="Y18" s="47"/>
       <c r="Z18" s="47"/>
@@ -2613,165 +2583,165 @@
     </row>
     <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="141"/>
-      <c r="C19" s="142"/>
-      <c r="D19" s="86" t="s">
+      <c r="B19" s="118"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="184" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="145">
+      <c r="E19" s="185"/>
+      <c r="F19" s="185"/>
+      <c r="G19" s="185"/>
+      <c r="H19" s="185"/>
+      <c r="I19" s="185"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="122">
         <f>(Q17-K17)*K18</f>
         <v>0</v>
       </c>
-      <c r="L19" s="146"/>
-      <c r="M19" s="146"/>
-      <c r="N19" s="146"/>
-      <c r="O19" s="146"/>
-      <c r="P19" s="146"/>
-      <c r="Q19" s="146"/>
-      <c r="R19" s="146"/>
-      <c r="S19" s="146"/>
-      <c r="T19" s="146"/>
-      <c r="U19" s="146"/>
-      <c r="V19" s="146"/>
-      <c r="W19" s="147"/>
-      <c r="X19" s="69" t="s">
+      <c r="L19" s="123"/>
+      <c r="M19" s="123"/>
+      <c r="N19" s="123"/>
+      <c r="O19" s="123"/>
+      <c r="P19" s="123"/>
+      <c r="Q19" s="123"/>
+      <c r="R19" s="123"/>
+      <c r="S19" s="123"/>
+      <c r="T19" s="123"/>
+      <c r="U19" s="123"/>
+      <c r="V19" s="123"/>
+      <c r="W19" s="124"/>
+      <c r="X19" s="163" t="s">
         <v>38</v>
       </c>
-      <c r="Y19" s="70"/>
-      <c r="Z19" s="70"/>
-      <c r="AA19" s="135">
+      <c r="Y19" s="103"/>
+      <c r="Z19" s="103"/>
+      <c r="AA19" s="98">
         <v>1800</v>
       </c>
-      <c r="AB19" s="135"/>
-      <c r="AC19" s="135"/>
+      <c r="AB19" s="98"/>
+      <c r="AC19" s="98"/>
       <c r="AD19" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="AE19" s="116">
+      <c r="AE19" s="100">
         <v>0</v>
       </c>
-      <c r="AF19" s="116"/>
+      <c r="AF19" s="100"/>
     </row>
     <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="141"/>
-      <c r="C20" s="150"/>
-      <c r="D20" s="89" t="s">
+      <c r="B20" s="118"/>
+      <c r="C20" s="130"/>
+      <c r="D20" s="186" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90" t="s">
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="111" t="s">
         <v>59</v>
       </c>
-      <c r="I20" s="90"/>
-      <c r="J20" s="221"/>
-      <c r="K20" s="91" t="s">
+      <c r="I20" s="111"/>
+      <c r="J20" s="112"/>
+      <c r="K20" s="166" t="s">
         <v>49</v>
       </c>
-      <c r="L20" s="92"/>
-      <c r="M20" s="92"/>
-      <c r="N20" s="92"/>
-      <c r="O20" s="92"/>
-      <c r="P20" s="92"/>
-      <c r="Q20" s="92"/>
-      <c r="R20" s="92"/>
-      <c r="S20" s="92"/>
-      <c r="T20" s="92"/>
-      <c r="U20" s="92"/>
-      <c r="V20" s="92"/>
-      <c r="W20" s="93"/>
-      <c r="X20" s="69" t="s">
+      <c r="L20" s="167"/>
+      <c r="M20" s="167"/>
+      <c r="N20" s="167"/>
+      <c r="O20" s="167"/>
+      <c r="P20" s="167"/>
+      <c r="Q20" s="167"/>
+      <c r="R20" s="167"/>
+      <c r="S20" s="167"/>
+      <c r="T20" s="167"/>
+      <c r="U20" s="167"/>
+      <c r="V20" s="167"/>
+      <c r="W20" s="168"/>
+      <c r="X20" s="163" t="s">
         <v>38</v>
       </c>
-      <c r="Y20" s="70"/>
-      <c r="Z20" s="70"/>
-      <c r="AA20" s="135">
+      <c r="Y20" s="103"/>
+      <c r="Z20" s="103"/>
+      <c r="AA20" s="98">
         <v>1800</v>
       </c>
-      <c r="AB20" s="135"/>
-      <c r="AC20" s="135"/>
-      <c r="AD20" s="161" t="s">
+      <c r="AB20" s="98"/>
+      <c r="AC20" s="98"/>
+      <c r="AD20" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="AE20" s="116" t="s">
+      <c r="AE20" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="AF20" s="116"/>
+      <c r="AF20" s="100"/>
     </row>
     <row r="21" spans="1:35" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="141"/>
-      <c r="C21" s="142"/>
-      <c r="D21" s="157" t="s">
+      <c r="B21" s="118"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="158"/>
-      <c r="F21" s="158"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
       <c r="G21" s="64"/>
-      <c r="H21" s="158" t="s">
+      <c r="H21" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="I21" s="158"/>
-      <c r="J21" s="222"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="95"/>
-      <c r="Q21" s="95"/>
-      <c r="R21" s="95"/>
-      <c r="S21" s="95"/>
-      <c r="T21" s="95"/>
-      <c r="U21" s="95"/>
-      <c r="V21" s="95"/>
-      <c r="W21" s="96"/>
-      <c r="X21" s="69"/>
-      <c r="Y21" s="70"/>
-      <c r="Z21" s="70"/>
-      <c r="AA21" s="135"/>
-      <c r="AB21" s="135"/>
-      <c r="AC21" s="135"/>
-      <c r="AD21" s="161"/>
-      <c r="AE21" s="116"/>
-      <c r="AF21" s="116"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="169"/>
+      <c r="L21" s="170"/>
+      <c r="M21" s="170"/>
+      <c r="N21" s="170"/>
+      <c r="O21" s="170"/>
+      <c r="P21" s="170"/>
+      <c r="Q21" s="170"/>
+      <c r="R21" s="170"/>
+      <c r="S21" s="170"/>
+      <c r="T21" s="170"/>
+      <c r="U21" s="170"/>
+      <c r="V21" s="170"/>
+      <c r="W21" s="171"/>
+      <c r="X21" s="163"/>
+      <c r="Y21" s="103"/>
+      <c r="Z21" s="103"/>
+      <c r="AA21" s="98"/>
+      <c r="AB21" s="98"/>
+      <c r="AC21" s="98"/>
+      <c r="AD21" s="99"/>
+      <c r="AE21" s="100"/>
+      <c r="AF21" s="100"/>
     </row>
     <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="141"/>
-      <c r="C22" s="144"/>
-      <c r="D22" s="152" t="s">
+      <c r="B22" s="118"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="154">
+      <c r="E22" s="109"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="109"/>
+      <c r="I22" s="109"/>
+      <c r="J22" s="110"/>
+      <c r="K22" s="92">
         <v>0.03</v>
       </c>
-      <c r="L22" s="155"/>
-      <c r="M22" s="155"/>
-      <c r="N22" s="155"/>
-      <c r="O22" s="155"/>
-      <c r="P22" s="155"/>
-      <c r="Q22" s="155"/>
-      <c r="R22" s="155"/>
-      <c r="S22" s="155"/>
-      <c r="T22" s="155"/>
-      <c r="U22" s="155"/>
-      <c r="V22" s="155"/>
-      <c r="W22" s="156"/>
+      <c r="L22" s="93"/>
+      <c r="M22" s="93"/>
+      <c r="N22" s="93"/>
+      <c r="O22" s="93"/>
+      <c r="P22" s="93"/>
+      <c r="Q22" s="93"/>
+      <c r="R22" s="93"/>
+      <c r="S22" s="93"/>
+      <c r="T22" s="93"/>
+      <c r="U22" s="93"/>
+      <c r="V22" s="93"/>
+      <c r="W22" s="94"/>
       <c r="X22" s="14"/>
       <c r="Y22" s="14"/>
       <c r="Z22" s="14"/>
@@ -2781,10 +2751,10 @@
       <c r="AD22" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="AE22" s="132" t="s">
+      <c r="AE22" s="164" t="s">
         <v>52</v>
       </c>
-      <c r="AF22" s="133"/>
+      <c r="AF22" s="165"/>
     </row>
     <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
@@ -2819,92 +2789,92 @@
       <c r="AD23" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="AE23" s="122" t="s">
+      <c r="AE23" s="142" t="s">
         <v>53</v>
       </c>
-      <c r="AF23" s="112"/>
+      <c r="AF23" s="102"/>
       <c r="AI23" s="19"/>
     </row>
     <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="140" t="s">
+      <c r="B24" s="116" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="88"/>
-      <c r="D24" s="77" t="s">
+      <c r="C24" s="117"/>
+      <c r="D24" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="79"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="109"/>
+      <c r="G24" s="109"/>
+      <c r="H24" s="109"/>
+      <c r="I24" s="109"/>
+      <c r="J24" s="110"/>
       <c r="K24" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="98">
+      <c r="L24" s="125">
         <v>44946</v>
       </c>
-      <c r="M24" s="83"/>
-      <c r="N24" s="83"/>
-      <c r="O24" s="74"/>
-      <c r="P24" s="80" t="s">
+      <c r="M24" s="126"/>
+      <c r="N24" s="126"/>
+      <c r="O24" s="127"/>
+      <c r="P24" s="181" t="s">
         <v>15</v>
       </c>
-      <c r="Q24" s="73" t="s">
+      <c r="Q24" s="180" t="s">
         <v>16</v>
       </c>
-      <c r="R24" s="74"/>
-      <c r="S24" s="98">
+      <c r="R24" s="127"/>
+      <c r="S24" s="125">
         <v>44977</v>
       </c>
-      <c r="T24" s="83"/>
-      <c r="U24" s="83"/>
-      <c r="V24" s="83"/>
-      <c r="W24" s="74"/>
+      <c r="T24" s="126"/>
+      <c r="U24" s="126"/>
+      <c r="V24" s="126"/>
+      <c r="W24" s="127"/>
       <c r="X24" s="20"/>
       <c r="Y24" s="20"/>
       <c r="Z24" s="20"/>
-      <c r="AA24" s="137"/>
-      <c r="AB24" s="137"/>
+      <c r="AA24" s="113"/>
+      <c r="AB24" s="113"/>
       <c r="AC24" s="20"/>
       <c r="AD24" s="49"/>
-      <c r="AE24" s="162"/>
-      <c r="AF24" s="112"/>
+      <c r="AE24" s="101"/>
+      <c r="AF24" s="102"/>
     </row>
     <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="141"/>
-      <c r="C25" s="142"/>
-      <c r="D25" s="77" t="s">
+      <c r="B25" s="118"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="78"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="78"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="82" t="e">
+      <c r="E25" s="109"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="109"/>
+      <c r="I25" s="109"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="132" t="e">
         <f>VLOOKUP(E11,[1]!UT_Billings[#Data],13,FALSE)</f>
         <v>#REF!</v>
       </c>
-      <c r="L25" s="83"/>
-      <c r="M25" s="83"/>
-      <c r="N25" s="83"/>
-      <c r="O25" s="74"/>
-      <c r="P25" s="81"/>
-      <c r="Q25" s="82" t="e">
+      <c r="L25" s="126"/>
+      <c r="M25" s="126"/>
+      <c r="N25" s="126"/>
+      <c r="O25" s="127"/>
+      <c r="P25" s="182"/>
+      <c r="Q25" s="132" t="e">
         <f>VLOOKUP(E11,[1]!UT_Billings[#Data],14,FALSE)</f>
         <v>#REF!</v>
       </c>
-      <c r="R25" s="83"/>
-      <c r="S25" s="83"/>
-      <c r="T25" s="83"/>
-      <c r="U25" s="83"/>
-      <c r="V25" s="83"/>
-      <c r="W25" s="74"/>
+      <c r="R25" s="126"/>
+      <c r="S25" s="126"/>
+      <c r="T25" s="126"/>
+      <c r="U25" s="126"/>
+      <c r="V25" s="126"/>
+      <c r="W25" s="127"/>
       <c r="X25" s="22"/>
       <c r="Y25" s="22"/>
       <c r="Z25" s="22"/>
@@ -2912,87 +2882,87 @@
       <c r="AB25" s="23"/>
       <c r="AC25" s="20"/>
       <c r="AD25" s="49"/>
-      <c r="AE25" s="129"/>
-      <c r="AF25" s="112"/>
+      <c r="AE25" s="162"/>
+      <c r="AF25" s="102"/>
     </row>
     <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="141"/>
-      <c r="C26" s="142"/>
-      <c r="D26" s="123" t="s">
+      <c r="B26" s="118"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="79"/>
-      <c r="K26" s="82" t="e">
+      <c r="E26" s="109"/>
+      <c r="F26" s="109"/>
+      <c r="G26" s="109"/>
+      <c r="H26" s="109"/>
+      <c r="I26" s="109"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="132" t="e">
         <f>Q25-K25</f>
         <v>#REF!</v>
       </c>
-      <c r="L26" s="83"/>
-      <c r="M26" s="83"/>
-      <c r="N26" s="83"/>
-      <c r="O26" s="83"/>
-      <c r="P26" s="83"/>
-      <c r="Q26" s="83"/>
-      <c r="R26" s="83"/>
-      <c r="S26" s="83"/>
-      <c r="T26" s="83"/>
-      <c r="U26" s="83"/>
-      <c r="V26" s="83"/>
-      <c r="W26" s="74"/>
-      <c r="X26" s="70" t="s">
+      <c r="L26" s="126"/>
+      <c r="M26" s="126"/>
+      <c r="N26" s="126"/>
+      <c r="O26" s="126"/>
+      <c r="P26" s="126"/>
+      <c r="Q26" s="126"/>
+      <c r="R26" s="126"/>
+      <c r="S26" s="126"/>
+      <c r="T26" s="126"/>
+      <c r="U26" s="126"/>
+      <c r="V26" s="126"/>
+      <c r="W26" s="127"/>
+      <c r="X26" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="Y26" s="112"/>
-      <c r="Z26" s="112"/>
-      <c r="AA26" s="136" t="e">
+      <c r="Y26" s="102"/>
+      <c r="Z26" s="102"/>
+      <c r="AA26" s="153" t="e">
         <f>VLOOKUP(E11,[1]!UT_Billings[#Data],12,FALSE)</f>
         <v>#REF!</v>
       </c>
-      <c r="AB26" s="136"/>
-      <c r="AC26" s="136"/>
+      <c r="AB26" s="153"/>
+      <c r="AC26" s="153"/>
       <c r="AD26" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="AE26" s="122" t="e">
+      <c r="AE26" s="142" t="e">
         <f>K26*AA26</f>
         <v>#REF!</v>
       </c>
-      <c r="AF26" s="112"/>
+      <c r="AF26" s="102"/>
     </row>
     <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="75"/>
-      <c r="B27" s="141"/>
-      <c r="C27" s="142"/>
-      <c r="D27" s="77" t="s">
+      <c r="A27" s="106"/>
+      <c r="B27" s="118"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="82" t="e">
+      <c r="E27" s="109"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="109"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="132" t="e">
         <f>VLOOKUP(E11,[1]!UT_Billings[#Data],15,FALSE)</f>
         <v>#REF!</v>
       </c>
-      <c r="L27" s="83"/>
-      <c r="M27" s="83"/>
-      <c r="N27" s="83"/>
-      <c r="O27" s="83"/>
-      <c r="P27" s="83"/>
-      <c r="Q27" s="83"/>
-      <c r="R27" s="83"/>
-      <c r="S27" s="83"/>
-      <c r="T27" s="83"/>
-      <c r="U27" s="83"/>
-      <c r="V27" s="83"/>
-      <c r="W27" s="74"/>
+      <c r="L27" s="126"/>
+      <c r="M27" s="126"/>
+      <c r="N27" s="126"/>
+      <c r="O27" s="126"/>
+      <c r="P27" s="126"/>
+      <c r="Q27" s="126"/>
+      <c r="R27" s="126"/>
+      <c r="S27" s="126"/>
+      <c r="T27" s="126"/>
+      <c r="U27" s="126"/>
+      <c r="V27" s="126"/>
+      <c r="W27" s="127"/>
       <c r="X27" s="24"/>
       <c r="Y27" s="25"/>
       <c r="Z27" s="25"/>
@@ -3002,41 +2972,41 @@
       <c r="AD27" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="AE27" s="116" t="e">
+      <c r="AE27" s="100" t="e">
         <f>K27</f>
         <v>#REF!</v>
       </c>
-      <c r="AF27" s="112"/>
+      <c r="AF27" s="102"/>
     </row>
     <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="76"/>
-      <c r="B28" s="143"/>
-      <c r="C28" s="144"/>
-      <c r="D28" s="124" t="s">
+      <c r="A28" s="107"/>
+      <c r="B28" s="120"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="78"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="78"/>
-      <c r="I28" s="78"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="121" t="e">
+      <c r="E28" s="109"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="109"/>
+      <c r="H28" s="109"/>
+      <c r="I28" s="109"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="141" t="e">
         <f>VLOOKUP(E11,[1]!UT_Billings[#Data],16,FALSE)</f>
         <v>#REF!</v>
       </c>
-      <c r="L28" s="83"/>
-      <c r="M28" s="83"/>
-      <c r="N28" s="83"/>
-      <c r="O28" s="83"/>
-      <c r="P28" s="83"/>
-      <c r="Q28" s="83"/>
-      <c r="R28" s="83"/>
-      <c r="S28" s="83"/>
-      <c r="T28" s="83"/>
-      <c r="U28" s="83"/>
-      <c r="V28" s="83"/>
-      <c r="W28" s="74"/>
+      <c r="L28" s="126"/>
+      <c r="M28" s="126"/>
+      <c r="N28" s="126"/>
+      <c r="O28" s="126"/>
+      <c r="P28" s="126"/>
+      <c r="Q28" s="126"/>
+      <c r="R28" s="126"/>
+      <c r="S28" s="126"/>
+      <c r="T28" s="126"/>
+      <c r="U28" s="126"/>
+      <c r="V28" s="126"/>
+      <c r="W28" s="127"/>
       <c r="X28" s="27"/>
       <c r="Y28" s="28"/>
       <c r="Z28" s="28"/>
@@ -3046,14 +3016,14 @@
       <c r="AD28" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="AE28" s="125" t="e">
+      <c r="AE28" s="146" t="e">
         <f>K28</f>
         <v>#REF!</v>
       </c>
-      <c r="AF28" s="126"/>
+      <c r="AF28" s="147"/>
     </row>
     <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="76"/>
+      <c r="A29" s="107"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="X29" s="28"/>
@@ -3065,14 +3035,14 @@
       <c r="AD29" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="AE29" s="122" t="e">
+      <c r="AE29" s="142" t="e">
         <f>AE26+AE27+AE28</f>
         <v>#REF!</v>
       </c>
-      <c r="AF29" s="112"/>
+      <c r="AF29" s="102"/>
     </row>
     <row r="30" spans="1:35" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="76"/>
+      <c r="A30" s="107"/>
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
       <c r="D30" s="30"/>
@@ -3106,34 +3076,34 @@
       <c r="AF30" s="55"/>
     </row>
     <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="76"/>
+      <c r="A31" s="107"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="I31" s="28"/>
       <c r="J31" s="28"/>
-      <c r="T31" s="128" t="s">
+      <c r="T31" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="U31" s="112"/>
-      <c r="V31" s="112"/>
-      <c r="W31" s="112"/>
-      <c r="X31" s="112"/>
-      <c r="Y31" s="112"/>
-      <c r="Z31" s="112"/>
-      <c r="AA31" s="112"/>
-      <c r="AB31" s="112"/>
+      <c r="U31" s="102"/>
+      <c r="V31" s="102"/>
+      <c r="W31" s="102"/>
+      <c r="X31" s="102"/>
+      <c r="Y31" s="102"/>
+      <c r="Z31" s="102"/>
+      <c r="AA31" s="102"/>
+      <c r="AB31" s="102"/>
       <c r="AC31" s="52"/>
       <c r="AD31" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="AE31" s="116" t="e">
+      <c r="AE31" s="100" t="e">
         <f>VLOOKUP(E11,[1]!UT_Billings[#Data],17,FALSE)</f>
         <v>#REF!</v>
       </c>
-      <c r="AF31" s="134"/>
+      <c r="AF31" s="152"/>
     </row>
     <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="76"/>
+      <c r="A32" s="107"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -3152,174 +3122,174 @@
       <c r="Q32" s="56"/>
       <c r="R32" s="56"/>
       <c r="S32" s="56"/>
-      <c r="T32" s="120" t="s">
+      <c r="T32" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="U32" s="112"/>
-      <c r="V32" s="112"/>
-      <c r="W32" s="112"/>
-      <c r="X32" s="112"/>
-      <c r="Y32" s="112"/>
-      <c r="Z32" s="112"/>
-      <c r="AA32" s="112"/>
-      <c r="AB32" s="112"/>
+      <c r="U32" s="102"/>
+      <c r="V32" s="102"/>
+      <c r="W32" s="102"/>
+      <c r="X32" s="102"/>
+      <c r="Y32" s="102"/>
+      <c r="Z32" s="102"/>
+      <c r="AA32" s="102"/>
+      <c r="AB32" s="102"/>
       <c r="AC32" s="57"/>
       <c r="AD32" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="AE32" s="130" t="e">
+      <c r="AE32" s="150" t="e">
         <f>VLOOKUP(E11,[1]!UT_Billings[#Data],18,FALSE)</f>
         <v>#REF!</v>
       </c>
-      <c r="AF32" s="131"/>
+      <c r="AF32" s="151"/>
     </row>
     <row r="33" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
-      <c r="B33" s="239"/>
-      <c r="C33" s="239"/>
-      <c r="D33" s="239"/>
-      <c r="E33" s="239"/>
-      <c r="F33" s="239"/>
-      <c r="G33" s="239"/>
-      <c r="H33" s="239"/>
-      <c r="I33" s="239"/>
-      <c r="J33" s="239"/>
-      <c r="K33" s="240"/>
-      <c r="L33" s="240"/>
-      <c r="M33" s="240"/>
-      <c r="N33" s="240"/>
-      <c r="O33" s="240"/>
-      <c r="P33" s="240"/>
-      <c r="Q33" s="240"/>
-      <c r="R33" s="240"/>
-      <c r="S33" s="240"/>
-      <c r="T33" s="262" t="s">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="77"/>
+      <c r="L33" s="77"/>
+      <c r="M33" s="77"/>
+      <c r="N33" s="77"/>
+      <c r="O33" s="77"/>
+      <c r="P33" s="77"/>
+      <c r="Q33" s="77"/>
+      <c r="R33" s="77"/>
+      <c r="S33" s="77"/>
+      <c r="T33" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="U33" s="263"/>
-      <c r="V33" s="263"/>
-      <c r="W33" s="263"/>
-      <c r="X33" s="263"/>
-      <c r="Y33" s="263"/>
-      <c r="Z33" s="263"/>
-      <c r="AA33" s="263"/>
-      <c r="AB33" s="263"/>
-      <c r="AC33" s="240"/>
-      <c r="AD33" s="243" t="s">
+      <c r="U33" s="102"/>
+      <c r="V33" s="102"/>
+      <c r="W33" s="102"/>
+      <c r="X33" s="102"/>
+      <c r="Y33" s="102"/>
+      <c r="Z33" s="102"/>
+      <c r="AA33" s="102"/>
+      <c r="AB33" s="102"/>
+      <c r="AC33" s="77"/>
+      <c r="AD33" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="AE33" s="264" t="e">
+      <c r="AE33" s="144" t="e">
         <f>AE23+AE29+AE31+AE32</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AF33" s="264"/>
+      <c r="AF33" s="144"/>
     </row>
     <row r="34" spans="1:32" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
-      <c r="B34" s="239"/>
-      <c r="C34" s="239"/>
-      <c r="D34" s="239"/>
-      <c r="E34" s="239"/>
-      <c r="F34" s="239"/>
-      <c r="G34" s="239"/>
-      <c r="H34" s="239"/>
-      <c r="I34" s="239"/>
-      <c r="J34" s="239"/>
-      <c r="K34" s="240"/>
-      <c r="L34" s="240"/>
-      <c r="M34" s="240"/>
-      <c r="N34" s="240"/>
-      <c r="O34" s="240"/>
-      <c r="P34" s="240"/>
-      <c r="Q34" s="240"/>
-      <c r="R34" s="240"/>
-      <c r="S34" s="240"/>
-      <c r="T34" s="241"/>
-      <c r="U34" s="242"/>
-      <c r="V34" s="242"/>
-      <c r="W34" s="242"/>
-      <c r="X34" s="242"/>
-      <c r="Y34" s="242"/>
-      <c r="Z34" s="242"/>
-      <c r="AA34" s="242"/>
-      <c r="AB34" s="242"/>
-      <c r="AC34" s="240"/>
-      <c r="AD34" s="243"/>
-      <c r="AE34" s="244"/>
-      <c r="AF34" s="244"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="77"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="77"/>
+      <c r="N34" s="77"/>
+      <c r="O34" s="77"/>
+      <c r="P34" s="77"/>
+      <c r="Q34" s="77"/>
+      <c r="R34" s="77"/>
+      <c r="S34" s="77"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="47"/>
+      <c r="V34" s="47"/>
+      <c r="W34" s="47"/>
+      <c r="X34" s="47"/>
+      <c r="Y34" s="47"/>
+      <c r="Z34" s="47"/>
+      <c r="AA34" s="47"/>
+      <c r="AB34" s="47"/>
+      <c r="AC34" s="77"/>
+      <c r="AD34" s="49"/>
+      <c r="AE34" s="67"/>
+      <c r="AF34" s="67"/>
     </row>
     <row r="35" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
-      <c r="B35" s="233"/>
-      <c r="C35" s="233"/>
-      <c r="D35" s="233"/>
-      <c r="E35" s="233"/>
-      <c r="F35" s="233"/>
-      <c r="G35" s="233"/>
-      <c r="H35" s="233"/>
-      <c r="I35" s="233"/>
-      <c r="J35" s="233"/>
-      <c r="K35" s="233"/>
-      <c r="L35" s="233"/>
-      <c r="M35" s="233"/>
-      <c r="N35" s="233"/>
-      <c r="O35" s="233"/>
-      <c r="P35" s="233"/>
-      <c r="Q35" s="233"/>
-      <c r="R35" s="233"/>
-      <c r="S35" s="233"/>
-      <c r="T35" s="234"/>
-      <c r="U35" s="234"/>
-      <c r="V35" s="234"/>
-      <c r="W35" s="234"/>
-      <c r="X35" s="234"/>
-      <c r="Y35" s="234"/>
-      <c r="Z35" s="234"/>
-      <c r="AA35" s="234"/>
-      <c r="AB35" s="234"/>
-      <c r="AC35" s="233"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="74"/>
+      <c r="M35" s="74"/>
+      <c r="N35" s="74"/>
+      <c r="O35" s="74"/>
+      <c r="P35" s="74"/>
+      <c r="Q35" s="74"/>
+      <c r="R35" s="74"/>
+      <c r="S35" s="74"/>
+      <c r="T35" s="75"/>
+      <c r="U35" s="75"/>
+      <c r="V35" s="75"/>
+      <c r="W35" s="75"/>
+      <c r="X35" s="75"/>
+      <c r="Y35" s="75"/>
+      <c r="Z35" s="75"/>
+      <c r="AA35" s="75"/>
+      <c r="AB35" s="75"/>
+      <c r="AC35" s="74"/>
       <c r="AD35" s="31"/>
-      <c r="AE35" s="233"/>
-      <c r="AF35" s="235"/>
+      <c r="AE35" s="74"/>
+      <c r="AF35" s="76"/>
     </row>
     <row r="36" spans="1:32" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="71" t="s">
+      <c r="B36" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="72" t="e">
+      <c r="C36" s="90"/>
+      <c r="D36" s="90"/>
+      <c r="E36" s="90"/>
+      <c r="F36" s="90"/>
+      <c r="G36" s="91" t="e">
         <f ca="1">_xlfn.CONCAT([2]!terbilang(AE33),"Rupiah")</f>
         <v>#NAME?</v>
       </c>
-      <c r="H36" s="72"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="72"/>
-      <c r="K36" s="72"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="72"/>
-      <c r="N36" s="72"/>
-      <c r="O36" s="72"/>
-      <c r="P36" s="72"/>
-      <c r="Q36" s="72"/>
-      <c r="R36" s="72"/>
-      <c r="S36" s="72"/>
-      <c r="T36" s="72"/>
-      <c r="U36" s="72"/>
-      <c r="V36" s="72"/>
-      <c r="W36" s="72"/>
-      <c r="X36" s="72"/>
-      <c r="Y36" s="72"/>
-      <c r="Z36" s="72"/>
-      <c r="AA36" s="72"/>
-      <c r="AB36" s="72"/>
-      <c r="AC36" s="72"/>
-      <c r="AD36" s="72"/>
-      <c r="AE36" s="72"/>
-      <c r="AF36" s="72"/>
+      <c r="H36" s="91"/>
+      <c r="I36" s="91"/>
+      <c r="J36" s="91"/>
+      <c r="K36" s="91"/>
+      <c r="L36" s="91"/>
+      <c r="M36" s="91"/>
+      <c r="N36" s="91"/>
+      <c r="O36" s="91"/>
+      <c r="P36" s="91"/>
+      <c r="Q36" s="91"/>
+      <c r="R36" s="91"/>
+      <c r="S36" s="91"/>
+      <c r="T36" s="91"/>
+      <c r="U36" s="91"/>
+      <c r="V36" s="91"/>
+      <c r="W36" s="91"/>
+      <c r="X36" s="91"/>
+      <c r="Y36" s="91"/>
+      <c r="Z36" s="91"/>
+      <c r="AA36" s="91"/>
+      <c r="AB36" s="91"/>
+      <c r="AC36" s="91"/>
+      <c r="AD36" s="91"/>
+      <c r="AE36" s="91"/>
+      <c r="AF36" s="91"/>
     </row>
     <row r="37" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
@@ -3451,37 +3421,37 @@
       <c r="Y40" s="65"/>
       <c r="Z40" s="65"/>
       <c r="AA40" s="65"/>
-      <c r="AB40" s="151" t="s">
+      <c r="AB40" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="AC40" s="151"/>
-      <c r="AD40" s="151"/>
-      <c r="AE40" s="151"/>
-      <c r="AF40" s="151"/>
+      <c r="AC40" s="104"/>
+      <c r="AD40" s="104"/>
+      <c r="AE40" s="104"/>
+      <c r="AF40" s="104"/>
     </row>
     <row r="41" spans="1:32" ht="5.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
-      <c r="B41" s="254" t="s">
+      <c r="B41" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="255"/>
-      <c r="D41" s="255"/>
-      <c r="E41" s="255"/>
-      <c r="F41" s="255"/>
-      <c r="G41" s="255"/>
-      <c r="H41" s="255"/>
-      <c r="I41" s="255"/>
-      <c r="J41" s="255"/>
-      <c r="K41" s="255"/>
-      <c r="L41" s="255"/>
-      <c r="M41" s="255"/>
-      <c r="N41" s="255"/>
-      <c r="O41" s="255"/>
-      <c r="P41" s="255"/>
-      <c r="Q41" s="255"/>
-      <c r="R41" s="255"/>
-      <c r="S41" s="255"/>
-      <c r="T41" s="256"/>
+      <c r="C41" s="82"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="82"/>
+      <c r="F41" s="82"/>
+      <c r="G41" s="82"/>
+      <c r="H41" s="82"/>
+      <c r="I41" s="82"/>
+      <c r="J41" s="82"/>
+      <c r="K41" s="82"/>
+      <c r="L41" s="82"/>
+      <c r="M41" s="82"/>
+      <c r="N41" s="82"/>
+      <c r="O41" s="82"/>
+      <c r="P41" s="82"/>
+      <c r="Q41" s="82"/>
+      <c r="R41" s="82"/>
+      <c r="S41" s="82"/>
+      <c r="T41" s="83"/>
       <c r="U41" s="34"/>
       <c r="V41" s="6"/>
       <c r="W41" s="6"/>
@@ -3489,33 +3459,33 @@
       <c r="Y41" s="65"/>
       <c r="Z41" s="65"/>
       <c r="AA41" s="65"/>
-      <c r="AB41" s="151"/>
-      <c r="AC41" s="151"/>
-      <c r="AD41" s="151"/>
-      <c r="AE41" s="151"/>
-      <c r="AF41" s="151"/>
+      <c r="AB41" s="104"/>
+      <c r="AC41" s="104"/>
+      <c r="AD41" s="104"/>
+      <c r="AE41" s="104"/>
+      <c r="AF41" s="104"/>
     </row>
     <row r="42" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
-      <c r="B42" s="257"/>
-      <c r="C42" s="258"/>
-      <c r="D42" s="258"/>
-      <c r="E42" s="258"/>
-      <c r="F42" s="258"/>
-      <c r="G42" s="258"/>
-      <c r="H42" s="258"/>
-      <c r="I42" s="258"/>
-      <c r="J42" s="258"/>
-      <c r="K42" s="258"/>
-      <c r="L42" s="258"/>
-      <c r="M42" s="258"/>
-      <c r="N42" s="258"/>
-      <c r="O42" s="258"/>
-      <c r="P42" s="258"/>
-      <c r="Q42" s="258"/>
-      <c r="R42" s="258"/>
-      <c r="S42" s="258"/>
-      <c r="T42" s="259"/>
+      <c r="B42" s="84"/>
+      <c r="C42" s="85"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="85"/>
+      <c r="G42" s="85"/>
+      <c r="H42" s="85"/>
+      <c r="I42" s="85"/>
+      <c r="J42" s="85"/>
+      <c r="K42" s="85"/>
+      <c r="L42" s="85"/>
+      <c r="M42" s="85"/>
+      <c r="N42" s="85"/>
+      <c r="O42" s="85"/>
+      <c r="P42" s="85"/>
+      <c r="Q42" s="85"/>
+      <c r="R42" s="85"/>
+      <c r="S42" s="85"/>
+      <c r="T42" s="86"/>
       <c r="U42" s="34"/>
       <c r="V42" s="6"/>
       <c r="W42" s="6"/>
@@ -3523,33 +3493,33 @@
       <c r="Y42" s="65"/>
       <c r="Z42" s="65"/>
       <c r="AA42" s="65"/>
-      <c r="AB42" s="151"/>
-      <c r="AC42" s="151"/>
-      <c r="AD42" s="151"/>
-      <c r="AE42" s="151"/>
-      <c r="AF42" s="151"/>
+      <c r="AB42" s="104"/>
+      <c r="AC42" s="104"/>
+      <c r="AD42" s="104"/>
+      <c r="AE42" s="104"/>
+      <c r="AF42" s="104"/>
     </row>
     <row r="43" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
-      <c r="B43" s="257"/>
-      <c r="C43" s="258"/>
-      <c r="D43" s="258"/>
-      <c r="E43" s="258"/>
-      <c r="F43" s="258"/>
-      <c r="G43" s="258"/>
-      <c r="H43" s="258"/>
-      <c r="I43" s="258"/>
-      <c r="J43" s="258"/>
-      <c r="K43" s="258"/>
-      <c r="L43" s="258"/>
-      <c r="M43" s="258"/>
-      <c r="N43" s="258"/>
-      <c r="O43" s="258"/>
-      <c r="P43" s="258"/>
-      <c r="Q43" s="258"/>
-      <c r="R43" s="258"/>
-      <c r="S43" s="258"/>
-      <c r="T43" s="259"/>
+      <c r="B43" s="84"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="85"/>
+      <c r="E43" s="85"/>
+      <c r="F43" s="85"/>
+      <c r="G43" s="85"/>
+      <c r="H43" s="85"/>
+      <c r="I43" s="85"/>
+      <c r="J43" s="85"/>
+      <c r="K43" s="85"/>
+      <c r="L43" s="85"/>
+      <c r="M43" s="85"/>
+      <c r="N43" s="85"/>
+      <c r="O43" s="85"/>
+      <c r="P43" s="85"/>
+      <c r="Q43" s="85"/>
+      <c r="R43" s="85"/>
+      <c r="S43" s="85"/>
+      <c r="T43" s="86"/>
       <c r="U43" s="34"/>
       <c r="V43" s="6"/>
       <c r="W43" s="6"/>
@@ -3565,25 +3535,25 @@
     </row>
     <row r="44" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
-      <c r="B44" s="257"/>
-      <c r="C44" s="258"/>
-      <c r="D44" s="258"/>
-      <c r="E44" s="258"/>
-      <c r="F44" s="258"/>
-      <c r="G44" s="258"/>
-      <c r="H44" s="258"/>
-      <c r="I44" s="258"/>
-      <c r="J44" s="258"/>
-      <c r="K44" s="258"/>
-      <c r="L44" s="258"/>
-      <c r="M44" s="258"/>
-      <c r="N44" s="258"/>
-      <c r="O44" s="258"/>
-      <c r="P44" s="258"/>
-      <c r="Q44" s="258"/>
-      <c r="R44" s="258"/>
-      <c r="S44" s="258"/>
-      <c r="T44" s="259"/>
+      <c r="B44" s="84"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="85"/>
+      <c r="F44" s="85"/>
+      <c r="G44" s="85"/>
+      <c r="H44" s="85"/>
+      <c r="I44" s="85"/>
+      <c r="J44" s="85"/>
+      <c r="K44" s="85"/>
+      <c r="L44" s="85"/>
+      <c r="M44" s="85"/>
+      <c r="N44" s="85"/>
+      <c r="O44" s="85"/>
+      <c r="P44" s="85"/>
+      <c r="Q44" s="85"/>
+      <c r="R44" s="85"/>
+      <c r="S44" s="85"/>
+      <c r="T44" s="86"/>
       <c r="U44" s="34"/>
       <c r="V44" s="6"/>
       <c r="W44" s="6"/>
@@ -3599,25 +3569,25 @@
     </row>
     <row r="45" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
-      <c r="B45" s="257"/>
-      <c r="C45" s="258"/>
-      <c r="D45" s="258"/>
-      <c r="E45" s="258"/>
-      <c r="F45" s="258"/>
-      <c r="G45" s="258"/>
-      <c r="H45" s="258"/>
-      <c r="I45" s="258"/>
-      <c r="J45" s="258"/>
-      <c r="K45" s="258"/>
-      <c r="L45" s="258"/>
-      <c r="M45" s="258"/>
-      <c r="N45" s="258"/>
-      <c r="O45" s="258"/>
-      <c r="P45" s="258"/>
-      <c r="Q45" s="258"/>
-      <c r="R45" s="258"/>
-      <c r="S45" s="258"/>
-      <c r="T45" s="259"/>
+      <c r="B45" s="84"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="85"/>
+      <c r="F45" s="85"/>
+      <c r="G45" s="85"/>
+      <c r="H45" s="85"/>
+      <c r="I45" s="85"/>
+      <c r="J45" s="85"/>
+      <c r="K45" s="85"/>
+      <c r="L45" s="85"/>
+      <c r="M45" s="85"/>
+      <c r="N45" s="85"/>
+      <c r="O45" s="85"/>
+      <c r="P45" s="85"/>
+      <c r="Q45" s="85"/>
+      <c r="R45" s="85"/>
+      <c r="S45" s="85"/>
+      <c r="T45" s="86"/>
       <c r="U45" s="34"/>
       <c r="V45" s="6"/>
       <c r="W45" s="6"/>
@@ -3633,25 +3603,25 @@
     </row>
     <row r="46" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
-      <c r="B46" s="257"/>
-      <c r="C46" s="258"/>
-      <c r="D46" s="258"/>
-      <c r="E46" s="258"/>
-      <c r="F46" s="258"/>
-      <c r="G46" s="258"/>
-      <c r="H46" s="258"/>
-      <c r="I46" s="258"/>
-      <c r="J46" s="258"/>
-      <c r="K46" s="258"/>
-      <c r="L46" s="258"/>
-      <c r="M46" s="258"/>
-      <c r="N46" s="258"/>
-      <c r="O46" s="258"/>
-      <c r="P46" s="258"/>
-      <c r="Q46" s="258"/>
-      <c r="R46" s="258"/>
-      <c r="S46" s="258"/>
-      <c r="T46" s="259"/>
+      <c r="B46" s="84"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="85"/>
+      <c r="G46" s="85"/>
+      <c r="H46" s="85"/>
+      <c r="I46" s="85"/>
+      <c r="J46" s="85"/>
+      <c r="K46" s="85"/>
+      <c r="L46" s="85"/>
+      <c r="M46" s="85"/>
+      <c r="N46" s="85"/>
+      <c r="O46" s="85"/>
+      <c r="P46" s="85"/>
+      <c r="Q46" s="85"/>
+      <c r="R46" s="85"/>
+      <c r="S46" s="85"/>
+      <c r="T46" s="86"/>
       <c r="U46" s="34"/>
       <c r="V46" s="6"/>
       <c r="W46" s="6"/>
@@ -3667,25 +3637,25 @@
     </row>
     <row r="47" spans="1:32" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
-      <c r="B47" s="260"/>
-      <c r="C47" s="163"/>
-      <c r="D47" s="163"/>
-      <c r="E47" s="163"/>
-      <c r="F47" s="163"/>
-      <c r="G47" s="163"/>
-      <c r="H47" s="163"/>
-      <c r="I47" s="163"/>
-      <c r="J47" s="163"/>
-      <c r="K47" s="163"/>
-      <c r="L47" s="163"/>
-      <c r="M47" s="163"/>
-      <c r="N47" s="163"/>
-      <c r="O47" s="163"/>
-      <c r="P47" s="163"/>
-      <c r="Q47" s="163"/>
-      <c r="R47" s="163"/>
-      <c r="S47" s="163"/>
-      <c r="T47" s="261"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="88"/>
+      <c r="D47" s="88"/>
+      <c r="E47" s="88"/>
+      <c r="F47" s="88"/>
+      <c r="G47" s="88"/>
+      <c r="H47" s="88"/>
+      <c r="I47" s="88"/>
+      <c r="J47" s="88"/>
+      <c r="K47" s="88"/>
+      <c r="L47" s="88"/>
+      <c r="M47" s="88"/>
+      <c r="N47" s="88"/>
+      <c r="O47" s="88"/>
+      <c r="P47" s="88"/>
+      <c r="Q47" s="88"/>
+      <c r="R47" s="88"/>
+      <c r="S47" s="88"/>
+      <c r="T47" s="89"/>
       <c r="U47" s="34"/>
       <c r="V47" s="6"/>
       <c r="W47" s="6"/>
@@ -3693,13 +3663,13 @@
       <c r="Y47" s="66"/>
       <c r="Z47" s="66"/>
       <c r="AA47" s="66"/>
-      <c r="AB47" s="164" t="s">
+      <c r="AB47" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="AC47" s="164"/>
-      <c r="AD47" s="164"/>
-      <c r="AE47" s="164"/>
-      <c r="AF47" s="164"/>
+      <c r="AC47" s="105"/>
+      <c r="AD47" s="105"/>
+      <c r="AE47" s="105"/>
+      <c r="AF47" s="105"/>
     </row>
     <row r="48" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
@@ -3729,11 +3699,11 @@
       <c r="Y48" s="65"/>
       <c r="Z48" s="65"/>
       <c r="AA48" s="65"/>
-      <c r="AB48" s="251"/>
-      <c r="AC48" s="251"/>
-      <c r="AD48" s="251"/>
-      <c r="AE48" s="251"/>
-      <c r="AF48" s="251"/>
+      <c r="AB48" s="78"/>
+      <c r="AC48" s="78"/>
+      <c r="AD48" s="78"/>
+      <c r="AE48" s="78"/>
+      <c r="AF48" s="78"/>
     </row>
     <row r="49" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
@@ -3763,11 +3733,11 @@
       <c r="Y49" s="65"/>
       <c r="Z49" s="65"/>
       <c r="AA49" s="65"/>
-      <c r="AB49" s="249"/>
-      <c r="AC49" s="249"/>
-      <c r="AD49" s="249"/>
-      <c r="AE49" s="249"/>
-      <c r="AF49" s="249"/>
+      <c r="AB49" s="65"/>
+      <c r="AC49" s="65"/>
+      <c r="AD49" s="65"/>
+      <c r="AE49" s="65"/>
+      <c r="AF49" s="65"/>
     </row>
     <row r="50" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
@@ -3815,137 +3785,163 @@
     </row>
     <row r="61" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="62" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="159" t="s">
+      <c r="A62" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="B62" s="159"/>
-      <c r="C62" s="159"/>
-      <c r="D62" s="159"/>
-      <c r="E62" s="159"/>
-      <c r="F62" s="159"/>
-      <c r="G62" s="159"/>
-      <c r="H62" s="159"/>
-      <c r="I62" s="159"/>
-      <c r="J62" s="159"/>
-      <c r="K62" s="159"/>
-      <c r="L62" s="159"/>
-      <c r="M62" s="159"/>
-      <c r="N62" s="159"/>
-      <c r="O62" s="159"/>
-      <c r="P62" s="159"/>
-      <c r="Q62" s="159"/>
-      <c r="R62" s="159"/>
-      <c r="S62" s="159"/>
-      <c r="T62" s="159"/>
-      <c r="U62" s="159"/>
-      <c r="V62" s="159"/>
-      <c r="W62" s="159"/>
-      <c r="X62" s="159"/>
-      <c r="Y62" s="159"/>
-      <c r="Z62" s="159"/>
-      <c r="AA62" s="159"/>
-      <c r="AB62" s="159"/>
-      <c r="AC62" s="159"/>
-      <c r="AD62" s="159"/>
-      <c r="AE62" s="159"/>
-      <c r="AF62" s="159"/>
-      <c r="AG62" s="159"/>
+      <c r="B62" s="96"/>
+      <c r="C62" s="96"/>
+      <c r="D62" s="96"/>
+      <c r="E62" s="96"/>
+      <c r="F62" s="96"/>
+      <c r="G62" s="96"/>
+      <c r="H62" s="96"/>
+      <c r="I62" s="96"/>
+      <c r="J62" s="96"/>
+      <c r="K62" s="96"/>
+      <c r="L62" s="96"/>
+      <c r="M62" s="96"/>
+      <c r="N62" s="96"/>
+      <c r="O62" s="96"/>
+      <c r="P62" s="96"/>
+      <c r="Q62" s="96"/>
+      <c r="R62" s="96"/>
+      <c r="S62" s="96"/>
+      <c r="T62" s="96"/>
+      <c r="U62" s="96"/>
+      <c r="V62" s="96"/>
+      <c r="W62" s="96"/>
+      <c r="X62" s="96"/>
+      <c r="Y62" s="96"/>
+      <c r="Z62" s="96"/>
+      <c r="AA62" s="96"/>
+      <c r="AB62" s="96"/>
+      <c r="AC62" s="96"/>
+      <c r="AD62" s="96"/>
+      <c r="AE62" s="96"/>
+      <c r="AF62" s="96"/>
+      <c r="AG62" s="96"/>
     </row>
     <row r="63" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="160" t="s">
+      <c r="A63" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="B63" s="160"/>
-      <c r="C63" s="160"/>
-      <c r="D63" s="160"/>
-      <c r="E63" s="160"/>
-      <c r="F63" s="160"/>
-      <c r="G63" s="160"/>
-      <c r="H63" s="160"/>
-      <c r="I63" s="160"/>
-      <c r="J63" s="160"/>
-      <c r="K63" s="160"/>
-      <c r="L63" s="160"/>
-      <c r="M63" s="160"/>
-      <c r="N63" s="160"/>
-      <c r="O63" s="160"/>
-      <c r="P63" s="160"/>
-      <c r="Q63" s="160"/>
-      <c r="R63" s="160"/>
-      <c r="S63" s="160"/>
-      <c r="T63" s="160"/>
-      <c r="U63" s="160"/>
-      <c r="V63" s="160"/>
-      <c r="W63" s="160"/>
-      <c r="X63" s="160"/>
-      <c r="Y63" s="160"/>
-      <c r="Z63" s="160"/>
-      <c r="AA63" s="160"/>
-      <c r="AB63" s="160"/>
-      <c r="AC63" s="160"/>
-      <c r="AD63" s="160"/>
-      <c r="AE63" s="160"/>
-      <c r="AF63" s="160"/>
-      <c r="AG63" s="160"/>
+      <c r="B63" s="97"/>
+      <c r="C63" s="97"/>
+      <c r="D63" s="97"/>
+      <c r="E63" s="97"/>
+      <c r="F63" s="97"/>
+      <c r="G63" s="97"/>
+      <c r="H63" s="97"/>
+      <c r="I63" s="97"/>
+      <c r="J63" s="97"/>
+      <c r="K63" s="97"/>
+      <c r="L63" s="97"/>
+      <c r="M63" s="97"/>
+      <c r="N63" s="97"/>
+      <c r="O63" s="97"/>
+      <c r="P63" s="97"/>
+      <c r="Q63" s="97"/>
+      <c r="R63" s="97"/>
+      <c r="S63" s="97"/>
+      <c r="T63" s="97"/>
+      <c r="U63" s="97"/>
+      <c r="V63" s="97"/>
+      <c r="W63" s="97"/>
+      <c r="X63" s="97"/>
+      <c r="Y63" s="97"/>
+      <c r="Z63" s="97"/>
+      <c r="AA63" s="97"/>
+      <c r="AB63" s="97"/>
+      <c r="AC63" s="97"/>
+      <c r="AD63" s="97"/>
+      <c r="AE63" s="97"/>
+      <c r="AF63" s="97"/>
+      <c r="AG63" s="97"/>
     </row>
     <row r="64" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="160" t="s">
+      <c r="A64" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="B64" s="160"/>
-      <c r="C64" s="160"/>
-      <c r="D64" s="160"/>
-      <c r="E64" s="160"/>
-      <c r="F64" s="160"/>
-      <c r="G64" s="160"/>
-      <c r="H64" s="160"/>
-      <c r="I64" s="160"/>
-      <c r="J64" s="160"/>
-      <c r="K64" s="160"/>
-      <c r="L64" s="160"/>
-      <c r="M64" s="160"/>
-      <c r="N64" s="160"/>
-      <c r="O64" s="160"/>
-      <c r="P64" s="160"/>
-      <c r="Q64" s="160"/>
-      <c r="R64" s="160"/>
-      <c r="S64" s="160"/>
-      <c r="T64" s="160"/>
-      <c r="U64" s="160"/>
-      <c r="V64" s="160"/>
-      <c r="W64" s="160"/>
-      <c r="X64" s="160"/>
-      <c r="Y64" s="160"/>
-      <c r="Z64" s="160"/>
-      <c r="AA64" s="160"/>
-      <c r="AB64" s="160"/>
-      <c r="AC64" s="160"/>
-      <c r="AD64" s="160"/>
-      <c r="AE64" s="160"/>
-      <c r="AF64" s="160"/>
-      <c r="AG64" s="160"/>
+      <c r="B64" s="97"/>
+      <c r="C64" s="97"/>
+      <c r="D64" s="97"/>
+      <c r="E64" s="97"/>
+      <c r="F64" s="97"/>
+      <c r="G64" s="97"/>
+      <c r="H64" s="97"/>
+      <c r="I64" s="97"/>
+      <c r="J64" s="97"/>
+      <c r="K64" s="97"/>
+      <c r="L64" s="97"/>
+      <c r="M64" s="97"/>
+      <c r="N64" s="97"/>
+      <c r="O64" s="97"/>
+      <c r="P64" s="97"/>
+      <c r="Q64" s="97"/>
+      <c r="R64" s="97"/>
+      <c r="S64" s="97"/>
+      <c r="T64" s="97"/>
+      <c r="U64" s="97"/>
+      <c r="V64" s="97"/>
+      <c r="W64" s="97"/>
+      <c r="X64" s="97"/>
+      <c r="Y64" s="97"/>
+      <c r="Z64" s="97"/>
+      <c r="AA64" s="97"/>
+      <c r="AB64" s="97"/>
+      <c r="AC64" s="97"/>
+      <c r="AD64" s="97"/>
+      <c r="AE64" s="97"/>
+      <c r="AF64" s="97"/>
+      <c r="AG64" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="B41:T47"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="G36:AF36"/>
-    <mergeCell ref="K22:W22"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="A62:AG62"/>
-    <mergeCell ref="A63:AG63"/>
-    <mergeCell ref="A64:AG64"/>
-    <mergeCell ref="AA20:AC21"/>
-    <mergeCell ref="AD20:AD21"/>
-    <mergeCell ref="AE20:AF21"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="X26:Z26"/>
-    <mergeCell ref="AB40:AF42"/>
-    <mergeCell ref="AB47:AF47"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="K25:O25"/>
+    <mergeCell ref="Q25:W25"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="K18:W18"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="X20:Z21"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="AA19:AC19"/>
+    <mergeCell ref="K20:W21"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="S16:W16"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="AD8:AF9"/>
+    <mergeCell ref="Y8:AC9"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="I5:Z5"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="B13:W14"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="Q10:X11"/>
+    <mergeCell ref="AD13:AF14"/>
+    <mergeCell ref="Q17:W17"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="Y10:AC11"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="S24:W24"/>
+    <mergeCell ref="AA13:AC14"/>
     <mergeCell ref="AA17:AB17"/>
     <mergeCell ref="AA16:AB16"/>
     <mergeCell ref="AA24:AB24"/>
@@ -3962,9 +3958,28 @@
     <mergeCell ref="K26:W26"/>
     <mergeCell ref="Q8:X9"/>
     <mergeCell ref="AD10:AF11"/>
+    <mergeCell ref="A62:AG62"/>
+    <mergeCell ref="A63:AG63"/>
+    <mergeCell ref="A64:AG64"/>
+    <mergeCell ref="AA20:AC21"/>
+    <mergeCell ref="AD20:AD21"/>
+    <mergeCell ref="AE20:AF21"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="X26:Z26"/>
+    <mergeCell ref="AB40:AF42"/>
+    <mergeCell ref="AB47:AF47"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="H20:J20"/>
     <mergeCell ref="T32:AB32"/>
     <mergeCell ref="K28:W28"/>
     <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="B41:T47"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="G36:AF36"/>
+    <mergeCell ref="K22:W22"/>
+    <mergeCell ref="D21:F21"/>
     <mergeCell ref="D26:J26"/>
     <mergeCell ref="AE33:AF33"/>
     <mergeCell ref="D28:J28"/>
@@ -3975,51 +3990,6 @@
     <mergeCell ref="AE32:AF32"/>
     <mergeCell ref="AE31:AF31"/>
     <mergeCell ref="AA26:AC26"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="B13:W14"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="Q10:X11"/>
-    <mergeCell ref="AD13:AF14"/>
-    <mergeCell ref="Q17:W17"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="Y10:AC11"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="X19:Z19"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="S24:W24"/>
-    <mergeCell ref="AA13:AC14"/>
-    <mergeCell ref="AA19:AC19"/>
-    <mergeCell ref="K20:W21"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="S16:W16"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="AD8:AF9"/>
-    <mergeCell ref="Y8:AC9"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="I5:Z5"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="X20:Z21"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="K25:O25"/>
-    <mergeCell ref="Q25:W25"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="K18:W18"/>
-    <mergeCell ref="D19:J19"/>
-    <mergeCell ref="D20:G20"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E11:H11" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
@@ -4039,7 +4009,7 @@
   <dimension ref="A1:AG64"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA42" sqref="AA42"/>
+      <selection activeCell="K24" sqref="K24:AB24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4077,77 +4047,77 @@
     <row r="1" spans="1:32" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:32" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="168"/>
-      <c r="R2" s="168"/>
-      <c r="S2" s="168"/>
-      <c r="T2" s="168"/>
-      <c r="U2" s="168"/>
-      <c r="V2" s="168"/>
-      <c r="W2" s="168"/>
-      <c r="X2" s="168"/>
-      <c r="Y2" s="168"/>
-      <c r="Z2" s="168"/>
-      <c r="AA2" s="168"/>
-      <c r="AB2" s="168"/>
-      <c r="AC2" s="168"/>
-      <c r="AD2" s="168"/>
-      <c r="AE2" s="168"/>
-      <c r="AF2" s="168"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="197"/>
+      <c r="K2" s="197"/>
+      <c r="L2" s="197"/>
+      <c r="M2" s="197"/>
+      <c r="N2" s="197"/>
+      <c r="O2" s="197"/>
+      <c r="P2" s="197"/>
+      <c r="Q2" s="197"/>
+      <c r="R2" s="197"/>
+      <c r="S2" s="197"/>
+      <c r="T2" s="197"/>
+      <c r="U2" s="197"/>
+      <c r="V2" s="197"/>
+      <c r="W2" s="197"/>
+      <c r="X2" s="197"/>
+      <c r="Y2" s="197"/>
+      <c r="Z2" s="197"/>
+      <c r="AA2" s="197"/>
+      <c r="AB2" s="197"/>
+      <c r="AC2" s="197"/>
+      <c r="AD2" s="197"/>
+      <c r="AE2" s="197"/>
+      <c r="AF2" s="197"/>
     </row>
     <row r="3" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="168"/>
-      <c r="K3" s="168"/>
-      <c r="L3" s="168"/>
-      <c r="M3" s="168"/>
-      <c r="N3" s="168"/>
-      <c r="O3" s="168"/>
-      <c r="P3" s="168"/>
-      <c r="Q3" s="168"/>
-      <c r="R3" s="168"/>
-      <c r="S3" s="168"/>
-      <c r="T3" s="168"/>
-      <c r="U3" s="168"/>
-      <c r="V3" s="168"/>
-      <c r="W3" s="168"/>
-      <c r="X3" s="168"/>
-      <c r="Y3" s="168"/>
-      <c r="Z3" s="168"/>
-      <c r="AA3" s="168"/>
-      <c r="AB3" s="168"/>
-      <c r="AC3" s="168"/>
-      <c r="AD3" s="168"/>
-      <c r="AE3" s="168"/>
-      <c r="AF3" s="168"/>
+      <c r="B3" s="197"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="197"/>
+      <c r="G3" s="197"/>
+      <c r="H3" s="197"/>
+      <c r="I3" s="197"/>
+      <c r="J3" s="197"/>
+      <c r="K3" s="197"/>
+      <c r="L3" s="197"/>
+      <c r="M3" s="197"/>
+      <c r="N3" s="197"/>
+      <c r="O3" s="197"/>
+      <c r="P3" s="197"/>
+      <c r="Q3" s="197"/>
+      <c r="R3" s="197"/>
+      <c r="S3" s="197"/>
+      <c r="T3" s="197"/>
+      <c r="U3" s="197"/>
+      <c r="V3" s="197"/>
+      <c r="W3" s="197"/>
+      <c r="X3" s="197"/>
+      <c r="Y3" s="197"/>
+      <c r="Z3" s="197"/>
+      <c r="AA3" s="197"/>
+      <c r="AB3" s="197"/>
+      <c r="AC3" s="197"/>
+      <c r="AD3" s="197"/>
+      <c r="AE3" s="197"/>
+      <c r="AF3" s="197"/>
     </row>
     <row r="4" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="151" t="e">
+      <c r="B4" s="104" t="e">
         <f>_xlfn.CONCAT(
 "INV/",VLOOKUP(E11,[1]!SCSF_Billings[#Data],4,FALSE),
 "/DRK/",
@@ -4156,75 +4126,75 @@
 TEXT(VLOOKUP(E11,[1]!SCSF_Billings[#Data],11,FALSE),"0000"))</f>
         <v>#REF!</v>
       </c>
-      <c r="C4" s="168"/>
-      <c r="D4" s="168"/>
-      <c r="E4" s="168"/>
-      <c r="F4" s="168"/>
-      <c r="G4" s="168"/>
-      <c r="H4" s="168"/>
-      <c r="I4" s="168"/>
-      <c r="J4" s="168"/>
-      <c r="K4" s="168"/>
-      <c r="L4" s="168"/>
-      <c r="M4" s="168"/>
-      <c r="N4" s="168"/>
-      <c r="O4" s="168"/>
-      <c r="P4" s="168"/>
-      <c r="Q4" s="168"/>
-      <c r="R4" s="168"/>
-      <c r="S4" s="168"/>
-      <c r="T4" s="168"/>
-      <c r="U4" s="168"/>
-      <c r="V4" s="168"/>
-      <c r="W4" s="168"/>
-      <c r="X4" s="168"/>
-      <c r="Y4" s="168"/>
-      <c r="Z4" s="168"/>
-      <c r="AA4" s="168"/>
-      <c r="AB4" s="168"/>
-      <c r="AC4" s="168"/>
-      <c r="AD4" s="168"/>
-      <c r="AE4" s="168"/>
-      <c r="AF4" s="168"/>
+      <c r="C4" s="197"/>
+      <c r="D4" s="197"/>
+      <c r="E4" s="197"/>
+      <c r="F4" s="197"/>
+      <c r="G4" s="197"/>
+      <c r="H4" s="197"/>
+      <c r="I4" s="197"/>
+      <c r="J4" s="197"/>
+      <c r="K4" s="197"/>
+      <c r="L4" s="197"/>
+      <c r="M4" s="197"/>
+      <c r="N4" s="197"/>
+      <c r="O4" s="197"/>
+      <c r="P4" s="197"/>
+      <c r="Q4" s="197"/>
+      <c r="R4" s="197"/>
+      <c r="S4" s="197"/>
+      <c r="T4" s="197"/>
+      <c r="U4" s="197"/>
+      <c r="V4" s="197"/>
+      <c r="W4" s="197"/>
+      <c r="X4" s="197"/>
+      <c r="Y4" s="197"/>
+      <c r="Z4" s="197"/>
+      <c r="AA4" s="197"/>
+      <c r="AB4" s="197"/>
+      <c r="AC4" s="197"/>
+      <c r="AD4" s="197"/>
+      <c r="AE4" s="197"/>
+      <c r="AF4" s="197"/>
     </row>
     <row r="5" spans="1:32" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="168"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
-      <c r="G5" s="168"/>
-      <c r="H5" s="168"/>
-      <c r="I5" s="113" t="s">
+      <c r="C5" s="197"/>
+      <c r="D5" s="197"/>
+      <c r="E5" s="197"/>
+      <c r="F5" s="197"/>
+      <c r="G5" s="197"/>
+      <c r="H5" s="197"/>
+      <c r="I5" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="168"/>
-      <c r="K5" s="168"/>
-      <c r="L5" s="168"/>
-      <c r="M5" s="168"/>
-      <c r="N5" s="168"/>
-      <c r="O5" s="168"/>
-      <c r="P5" s="168"/>
-      <c r="Q5" s="168"/>
-      <c r="R5" s="168"/>
-      <c r="S5" s="168"/>
-      <c r="T5" s="168"/>
-      <c r="U5" s="168"/>
-      <c r="V5" s="168"/>
-      <c r="W5" s="168"/>
-      <c r="X5" s="168"/>
-      <c r="Y5" s="168"/>
-      <c r="Z5" s="168"/>
+      <c r="J5" s="197"/>
+      <c r="K5" s="197"/>
+      <c r="L5" s="197"/>
+      <c r="M5" s="197"/>
+      <c r="N5" s="197"/>
+      <c r="O5" s="197"/>
+      <c r="P5" s="197"/>
+      <c r="Q5" s="197"/>
+      <c r="R5" s="197"/>
+      <c r="S5" s="197"/>
+      <c r="T5" s="197"/>
+      <c r="U5" s="197"/>
+      <c r="V5" s="197"/>
+      <c r="W5" s="197"/>
+      <c r="X5" s="197"/>
+      <c r="Y5" s="197"/>
+      <c r="Z5" s="197"/>
       <c r="AA5" s="7"/>
-      <c r="AB5" s="177" t="s">
+      <c r="AB5" s="228" t="s">
         <v>2</v>
       </c>
-      <c r="AC5" s="111"/>
-      <c r="AD5" s="111"/>
-      <c r="AE5" s="111"/>
+      <c r="AC5" s="161"/>
+      <c r="AD5" s="161"/>
+      <c r="AE5" s="161"/>
       <c r="AF5" s="62" t="e">
         <f>VLOOKUP(E11,[1]!SCSF_Billings[#Data],5,FALSE)</f>
         <v>#REF!</v>
@@ -4232,15 +4202,15 @@
     </row>
     <row r="6" spans="1:32" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="148" t="s">
+      <c r="B6" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="168"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
-      <c r="G6" s="168"/>
-      <c r="H6" s="168"/>
+      <c r="C6" s="197"/>
+      <c r="D6" s="197"/>
+      <c r="E6" s="197"/>
+      <c r="F6" s="197"/>
+      <c r="G6" s="197"/>
+      <c r="H6" s="197"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -4250,22 +4220,22 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
-      <c r="R6" s="139"/>
-      <c r="S6" s="168"/>
-      <c r="T6" s="168"/>
-      <c r="U6" s="168"/>
-      <c r="V6" s="168"/>
-      <c r="W6" s="168"/>
-      <c r="X6" s="104"/>
-      <c r="Y6" s="168"/>
+      <c r="R6" s="115"/>
+      <c r="S6" s="197"/>
+      <c r="T6" s="197"/>
+      <c r="U6" s="197"/>
+      <c r="V6" s="197"/>
+      <c r="W6" s="197"/>
+      <c r="X6" s="176"/>
+      <c r="Y6" s="197"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="7"/>
-      <c r="AB6" s="97" t="s">
+      <c r="AB6" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="AC6" s="168"/>
-      <c r="AD6" s="168"/>
-      <c r="AE6" s="168"/>
+      <c r="AC6" s="197"/>
+      <c r="AD6" s="197"/>
+      <c r="AE6" s="197"/>
       <c r="AF6" s="62" t="e">
         <f>AF5+19</f>
         <v>#REF!</v>
@@ -4273,13 +4243,13 @@
     </row>
     <row r="7" spans="1:32" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="168"/>
-      <c r="C7" s="168"/>
-      <c r="D7" s="168"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="168"/>
-      <c r="G7" s="168"/>
-      <c r="H7" s="168"/>
+      <c r="B7" s="197"/>
+      <c r="C7" s="197"/>
+      <c r="D7" s="197"/>
+      <c r="E7" s="197"/>
+      <c r="F7" s="197"/>
+      <c r="G7" s="197"/>
+      <c r="H7" s="197"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -4307,13 +4277,13 @@
     </row>
     <row r="8" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="168"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="168"/>
-      <c r="H8" s="168"/>
+      <c r="B8" s="197"/>
+      <c r="C8" s="197"/>
+      <c r="D8" s="197"/>
+      <c r="E8" s="197"/>
+      <c r="F8" s="197"/>
+      <c r="G8" s="197"/>
+      <c r="H8" s="197"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -4322,38 +4292,38 @@
       <c r="N8" s="9"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
-      <c r="Q8" s="107" t="s">
+      <c r="Q8" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="R8" s="169"/>
-      <c r="S8" s="169"/>
-      <c r="T8" s="169"/>
-      <c r="U8" s="169"/>
-      <c r="V8" s="169"/>
-      <c r="W8" s="169"/>
-      <c r="X8" s="170"/>
-      <c r="Y8" s="107" t="s">
+      <c r="R8" s="198"/>
+      <c r="S8" s="198"/>
+      <c r="T8" s="198"/>
+      <c r="U8" s="198"/>
+      <c r="V8" s="198"/>
+      <c r="W8" s="198"/>
+      <c r="X8" s="199"/>
+      <c r="Y8" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="Z8" s="169"/>
-      <c r="AA8" s="169"/>
-      <c r="AB8" s="169"/>
-      <c r="AC8" s="170"/>
-      <c r="AD8" s="107" t="s">
+      <c r="Z8" s="198"/>
+      <c r="AA8" s="198"/>
+      <c r="AB8" s="198"/>
+      <c r="AC8" s="199"/>
+      <c r="AD8" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="AE8" s="169"/>
-      <c r="AF8" s="170"/>
+      <c r="AE8" s="198"/>
+      <c r="AF8" s="199"/>
     </row>
     <row r="9" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="168"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
-      <c r="G9" s="168"/>
-      <c r="H9" s="168"/>
+      <c r="B9" s="197"/>
+      <c r="C9" s="197"/>
+      <c r="D9" s="197"/>
+      <c r="E9" s="197"/>
+      <c r="F9" s="197"/>
+      <c r="G9" s="197"/>
+      <c r="H9" s="197"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -4362,22 +4332,22 @@
       <c r="N9" s="9"/>
       <c r="O9" s="6"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="171"/>
-      <c r="R9" s="166"/>
-      <c r="S9" s="166"/>
-      <c r="T9" s="166"/>
-      <c r="U9" s="166"/>
-      <c r="V9" s="166"/>
-      <c r="W9" s="166"/>
-      <c r="X9" s="172"/>
-      <c r="Y9" s="171"/>
-      <c r="Z9" s="166"/>
-      <c r="AA9" s="166"/>
-      <c r="AB9" s="166"/>
-      <c r="AC9" s="172"/>
-      <c r="AD9" s="171"/>
-      <c r="AE9" s="166"/>
-      <c r="AF9" s="172"/>
+      <c r="Q9" s="204"/>
+      <c r="R9" s="205"/>
+      <c r="S9" s="205"/>
+      <c r="T9" s="205"/>
+      <c r="U9" s="205"/>
+      <c r="V9" s="205"/>
+      <c r="W9" s="205"/>
+      <c r="X9" s="206"/>
+      <c r="Y9" s="204"/>
+      <c r="Z9" s="205"/>
+      <c r="AA9" s="205"/>
+      <c r="AB9" s="205"/>
+      <c r="AC9" s="206"/>
+      <c r="AD9" s="204"/>
+      <c r="AE9" s="205"/>
+      <c r="AF9" s="206"/>
     </row>
     <row r="10" spans="1:32" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -4396,47 +4366,47 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="117" t="e">
+      <c r="Q10" s="157" t="e">
         <f>AF5</f>
         <v>#REF!</v>
       </c>
-      <c r="R10" s="169"/>
-      <c r="S10" s="169"/>
-      <c r="T10" s="169"/>
-      <c r="U10" s="169"/>
-      <c r="V10" s="169"/>
-      <c r="W10" s="169"/>
-      <c r="X10" s="170"/>
-      <c r="Y10" s="127" t="e">
+      <c r="R10" s="198"/>
+      <c r="S10" s="198"/>
+      <c r="T10" s="198"/>
+      <c r="U10" s="198"/>
+      <c r="V10" s="198"/>
+      <c r="W10" s="198"/>
+      <c r="X10" s="199"/>
+      <c r="Y10" s="160" t="e">
         <f>AE29</f>
         <v>#REF!</v>
       </c>
-      <c r="Z10" s="169"/>
-      <c r="AA10" s="169"/>
-      <c r="AB10" s="169"/>
-      <c r="AC10" s="170"/>
-      <c r="AD10" s="153" t="e">
+      <c r="Z10" s="198"/>
+      <c r="AA10" s="198"/>
+      <c r="AB10" s="198"/>
+      <c r="AC10" s="199"/>
+      <c r="AD10" s="139" t="e">
         <f>VLOOKUP(E11,[1]!SCSF_Billings[#Data],10,FALSE)</f>
         <v>#REF!</v>
       </c>
-      <c r="AE10" s="169"/>
-      <c r="AF10" s="170"/>
+      <c r="AE10" s="198"/>
+      <c r="AF10" s="199"/>
     </row>
     <row r="11" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="99" t="s">
+      <c r="B11" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="168"/>
+      <c r="C11" s="197"/>
       <c r="D11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="99" t="s">
+      <c r="E11" s="173" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="168"/>
-      <c r="G11" s="168"/>
-      <c r="H11" s="168"/>
+      <c r="F11" s="197"/>
+      <c r="G11" s="197"/>
+      <c r="H11" s="197"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -4445,22 +4415,22 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="171"/>
-      <c r="R11" s="166"/>
-      <c r="S11" s="166"/>
-      <c r="T11" s="166"/>
-      <c r="U11" s="166"/>
-      <c r="V11" s="166"/>
-      <c r="W11" s="166"/>
-      <c r="X11" s="172"/>
-      <c r="Y11" s="171"/>
-      <c r="Z11" s="166"/>
-      <c r="AA11" s="166"/>
-      <c r="AB11" s="166"/>
-      <c r="AC11" s="172"/>
-      <c r="AD11" s="171"/>
-      <c r="AE11" s="166"/>
-      <c r="AF11" s="172"/>
+      <c r="Q11" s="204"/>
+      <c r="R11" s="205"/>
+      <c r="S11" s="205"/>
+      <c r="T11" s="205"/>
+      <c r="U11" s="205"/>
+      <c r="V11" s="205"/>
+      <c r="W11" s="205"/>
+      <c r="X11" s="206"/>
+      <c r="Y11" s="204"/>
+      <c r="Z11" s="205"/>
+      <c r="AA11" s="205"/>
+      <c r="AB11" s="205"/>
+      <c r="AC11" s="206"/>
+      <c r="AD11" s="204"/>
+      <c r="AE11" s="205"/>
+      <c r="AF11" s="206"/>
     </row>
     <row r="12" spans="1:32" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -4498,75 +4468,75 @@
     </row>
     <row r="13" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="118" t="s">
+      <c r="B13" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="169"/>
-      <c r="D13" s="169"/>
-      <c r="E13" s="169"/>
-      <c r="F13" s="169"/>
-      <c r="G13" s="169"/>
-      <c r="H13" s="169"/>
-      <c r="I13" s="169"/>
-      <c r="J13" s="169"/>
-      <c r="K13" s="169"/>
-      <c r="L13" s="169"/>
-      <c r="M13" s="169"/>
-      <c r="N13" s="169"/>
-      <c r="O13" s="169"/>
-      <c r="P13" s="169"/>
-      <c r="Q13" s="169"/>
-      <c r="R13" s="169"/>
-      <c r="S13" s="169"/>
-      <c r="T13" s="169"/>
-      <c r="U13" s="169"/>
-      <c r="V13" s="169"/>
-      <c r="W13" s="169"/>
-      <c r="X13" s="169"/>
-      <c r="Y13" s="169"/>
-      <c r="Z13" s="169"/>
-      <c r="AA13" s="169"/>
-      <c r="AB13" s="169"/>
+      <c r="C13" s="198"/>
+      <c r="D13" s="198"/>
+      <c r="E13" s="198"/>
+      <c r="F13" s="198"/>
+      <c r="G13" s="198"/>
+      <c r="H13" s="198"/>
+      <c r="I13" s="198"/>
+      <c r="J13" s="198"/>
+      <c r="K13" s="198"/>
+      <c r="L13" s="198"/>
+      <c r="M13" s="198"/>
+      <c r="N13" s="198"/>
+      <c r="O13" s="198"/>
+      <c r="P13" s="198"/>
+      <c r="Q13" s="198"/>
+      <c r="R13" s="198"/>
+      <c r="S13" s="198"/>
+      <c r="T13" s="198"/>
+      <c r="U13" s="198"/>
+      <c r="V13" s="198"/>
+      <c r="W13" s="198"/>
+      <c r="X13" s="198"/>
+      <c r="Y13" s="198"/>
+      <c r="Z13" s="198"/>
+      <c r="AA13" s="198"/>
+      <c r="AB13" s="198"/>
       <c r="AC13" s="37"/>
-      <c r="AD13" s="118" t="s">
+      <c r="AD13" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="AE13" s="169"/>
-      <c r="AF13" s="169"/>
+      <c r="AE13" s="198"/>
+      <c r="AF13" s="198"/>
     </row>
     <row r="14" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="B14" s="166"/>
-      <c r="C14" s="166"/>
-      <c r="D14" s="166"/>
-      <c r="E14" s="166"/>
-      <c r="F14" s="166"/>
-      <c r="G14" s="166"/>
-      <c r="H14" s="166"/>
-      <c r="I14" s="166"/>
-      <c r="J14" s="166"/>
-      <c r="K14" s="166"/>
-      <c r="L14" s="166"/>
-      <c r="M14" s="166"/>
-      <c r="N14" s="166"/>
-      <c r="O14" s="166"/>
-      <c r="P14" s="166"/>
-      <c r="Q14" s="166"/>
-      <c r="R14" s="166"/>
-      <c r="S14" s="166"/>
-      <c r="T14" s="166"/>
-      <c r="U14" s="166"/>
-      <c r="V14" s="166"/>
-      <c r="W14" s="166"/>
-      <c r="X14" s="166"/>
-      <c r="Y14" s="166"/>
-      <c r="Z14" s="166"/>
-      <c r="AA14" s="166"/>
-      <c r="AB14" s="166"/>
+      <c r="B14" s="205"/>
+      <c r="C14" s="205"/>
+      <c r="D14" s="205"/>
+      <c r="E14" s="205"/>
+      <c r="F14" s="205"/>
+      <c r="G14" s="205"/>
+      <c r="H14" s="205"/>
+      <c r="I14" s="205"/>
+      <c r="J14" s="205"/>
+      <c r="K14" s="205"/>
+      <c r="L14" s="205"/>
+      <c r="M14" s="205"/>
+      <c r="N14" s="205"/>
+      <c r="O14" s="205"/>
+      <c r="P14" s="205"/>
+      <c r="Q14" s="205"/>
+      <c r="R14" s="205"/>
+      <c r="S14" s="205"/>
+      <c r="T14" s="205"/>
+      <c r="U14" s="205"/>
+      <c r="V14" s="205"/>
+      <c r="W14" s="205"/>
+      <c r="X14" s="205"/>
+      <c r="Y14" s="205"/>
+      <c r="Z14" s="205"/>
+      <c r="AA14" s="205"/>
+      <c r="AB14" s="205"/>
       <c r="AC14" s="38"/>
-      <c r="AD14" s="166"/>
-      <c r="AE14" s="166"/>
-      <c r="AF14" s="166"/>
+      <c r="AD14" s="205"/>
+      <c r="AE14" s="205"/>
+      <c r="AF14" s="205"/>
     </row>
     <row r="15" spans="1:32" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -4603,402 +4573,402 @@
       <c r="AF15" s="14"/>
     </row>
     <row r="16" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="75"/>
-      <c r="B16" s="149" t="s">
+      <c r="A16" s="106"/>
+      <c r="B16" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="169"/>
-      <c r="D16" s="169"/>
-      <c r="E16" s="170"/>
-      <c r="F16" s="204" t="s">
+      <c r="C16" s="198"/>
+      <c r="D16" s="198"/>
+      <c r="E16" s="199"/>
+      <c r="F16" s="243" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="205"/>
-      <c r="H16" s="205"/>
-      <c r="I16" s="205"/>
-      <c r="J16" s="206"/>
-      <c r="K16" s="207" t="s">
+      <c r="G16" s="195"/>
+      <c r="H16" s="195"/>
+      <c r="I16" s="195"/>
+      <c r="J16" s="196"/>
+      <c r="K16" s="194" t="s">
         <v>56</v>
       </c>
-      <c r="L16" s="205"/>
-      <c r="M16" s="205"/>
-      <c r="N16" s="205"/>
-      <c r="O16" s="205"/>
-      <c r="P16" s="205"/>
-      <c r="Q16" s="205"/>
-      <c r="R16" s="205"/>
-      <c r="S16" s="205"/>
-      <c r="T16" s="205"/>
-      <c r="U16" s="205"/>
-      <c r="V16" s="205"/>
-      <c r="W16" s="205"/>
-      <c r="X16" s="205"/>
-      <c r="Y16" s="205"/>
-      <c r="Z16" s="205"/>
-      <c r="AA16" s="205"/>
-      <c r="AB16" s="206"/>
+      <c r="L16" s="195"/>
+      <c r="M16" s="195"/>
+      <c r="N16" s="195"/>
+      <c r="O16" s="195"/>
+      <c r="P16" s="195"/>
+      <c r="Q16" s="195"/>
+      <c r="R16" s="195"/>
+      <c r="S16" s="195"/>
+      <c r="T16" s="195"/>
+      <c r="U16" s="195"/>
+      <c r="V16" s="195"/>
+      <c r="W16" s="195"/>
+      <c r="X16" s="195"/>
+      <c r="Y16" s="195"/>
+      <c r="Z16" s="195"/>
+      <c r="AA16" s="195"/>
+      <c r="AB16" s="196"/>
       <c r="AC16" s="6"/>
       <c r="AD16" s="17"/>
-      <c r="AE16" s="176"/>
-      <c r="AF16" s="168"/>
+      <c r="AE16" s="239"/>
+      <c r="AF16" s="197"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="75"/>
-      <c r="B17" s="215"/>
-      <c r="C17" s="216"/>
-      <c r="D17" s="216"/>
-      <c r="E17" s="175"/>
-      <c r="F17" s="209" t="s">
+      <c r="A17" s="106"/>
+      <c r="B17" s="237"/>
+      <c r="C17" s="201"/>
+      <c r="D17" s="201"/>
+      <c r="E17" s="202"/>
+      <c r="F17" s="218" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="210"/>
-      <c r="H17" s="210"/>
-      <c r="I17" s="210"/>
-      <c r="J17" s="211"/>
-      <c r="K17" s="217" t="s">
+      <c r="G17" s="219"/>
+      <c r="H17" s="219"/>
+      <c r="I17" s="219"/>
+      <c r="J17" s="220"/>
+      <c r="K17" s="224" t="s">
         <v>57</v>
       </c>
-      <c r="L17" s="218"/>
-      <c r="M17" s="218"/>
-      <c r="N17" s="218"/>
-      <c r="O17" s="218"/>
-      <c r="P17" s="218"/>
-      <c r="Q17" s="218"/>
-      <c r="R17" s="224"/>
-      <c r="S17" s="219" t="s">
+      <c r="L17" s="225"/>
+      <c r="M17" s="225"/>
+      <c r="N17" s="225"/>
+      <c r="O17" s="225"/>
+      <c r="P17" s="225"/>
+      <c r="Q17" s="225"/>
+      <c r="R17" s="73"/>
+      <c r="S17" s="226" t="s">
         <v>58</v>
       </c>
-      <c r="T17" s="219"/>
-      <c r="U17" s="219"/>
-      <c r="V17" s="219"/>
-      <c r="W17" s="219"/>
-      <c r="X17" s="219"/>
-      <c r="Y17" s="219"/>
-      <c r="Z17" s="219"/>
-      <c r="AA17" s="219"/>
-      <c r="AB17" s="220"/>
+      <c r="T17" s="226"/>
+      <c r="U17" s="226"/>
+      <c r="V17" s="226"/>
+      <c r="W17" s="226"/>
+      <c r="X17" s="226"/>
+      <c r="Y17" s="226"/>
+      <c r="Z17" s="226"/>
+      <c r="AA17" s="226"/>
+      <c r="AB17" s="227"/>
       <c r="AC17" s="6"/>
       <c r="AD17" s="17"/>
       <c r="AE17" s="6"/>
     </row>
     <row r="18" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="168"/>
-      <c r="B18" s="174"/>
-      <c r="C18" s="168"/>
-      <c r="D18" s="168"/>
-      <c r="E18" s="175"/>
-      <c r="F18" s="212"/>
-      <c r="G18" s="213"/>
-      <c r="H18" s="213"/>
-      <c r="I18" s="213"/>
-      <c r="J18" s="214"/>
-      <c r="K18" s="195" t="e">
+      <c r="A18" s="197"/>
+      <c r="B18" s="203"/>
+      <c r="C18" s="197"/>
+      <c r="D18" s="197"/>
+      <c r="E18" s="202"/>
+      <c r="F18" s="221"/>
+      <c r="G18" s="222"/>
+      <c r="H18" s="222"/>
+      <c r="I18" s="222"/>
+      <c r="J18" s="223"/>
+      <c r="K18" s="230" t="e">
         <f>IF(VLOOKUP(E11,[1]!SCSF_Billings[#Data],4,FALSE)="SC-SF",VLOOKUP(E11,[1]!SCSF_Billings[#Data],6,FALSE),0)</f>
         <v>#REF!</v>
       </c>
-      <c r="L18" s="188"/>
-      <c r="M18" s="188"/>
-      <c r="N18" s="188"/>
-      <c r="O18" s="188"/>
-      <c r="P18" s="188"/>
-      <c r="Q18" s="194"/>
-      <c r="R18" s="223" t="s">
+      <c r="L18" s="216"/>
+      <c r="M18" s="216"/>
+      <c r="N18" s="216"/>
+      <c r="O18" s="216"/>
+      <c r="P18" s="216"/>
+      <c r="Q18" s="217"/>
+      <c r="R18" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="S18" s="193" t="e">
+      <c r="S18" s="215" t="e">
         <f>VLOOKUP(E11,[1]!SCSF_Billings[#Data],7,FALSE)</f>
         <v>#REF!</v>
       </c>
-      <c r="T18" s="188"/>
-      <c r="U18" s="188"/>
-      <c r="V18" s="188"/>
-      <c r="W18" s="188"/>
-      <c r="X18" s="188"/>
-      <c r="Y18" s="188"/>
-      <c r="Z18" s="188"/>
-      <c r="AA18" s="188"/>
-      <c r="AB18" s="194"/>
+      <c r="T18" s="216"/>
+      <c r="U18" s="216"/>
+      <c r="V18" s="216"/>
+      <c r="W18" s="216"/>
+      <c r="X18" s="216"/>
+      <c r="Y18" s="216"/>
+      <c r="Z18" s="216"/>
+      <c r="AA18" s="216"/>
+      <c r="AB18" s="217"/>
       <c r="AC18" s="6"/>
       <c r="AD18" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="AE18" s="183" t="e">
+      <c r="AE18" s="233" t="e">
         <f>K18*S18</f>
         <v>#REF!</v>
       </c>
-      <c r="AF18" s="184"/>
+      <c r="AF18" s="234"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="171"/>
-      <c r="C19" s="166"/>
-      <c r="D19" s="166"/>
-      <c r="E19" s="172"/>
-      <c r="F19" s="84" t="s">
+      <c r="B19" s="204"/>
+      <c r="C19" s="205"/>
+      <c r="D19" s="205"/>
+      <c r="E19" s="206"/>
+      <c r="F19" s="156" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="191"/>
-      <c r="H19" s="191"/>
-      <c r="I19" s="191"/>
-      <c r="J19" s="192"/>
-      <c r="K19" s="179" t="e">
+      <c r="G19" s="207"/>
+      <c r="H19" s="207"/>
+      <c r="I19" s="207"/>
+      <c r="J19" s="208"/>
+      <c r="K19" s="212" t="e">
         <f>ROUND(AE18*11%,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="L19" s="191"/>
-      <c r="M19" s="191"/>
-      <c r="N19" s="191"/>
-      <c r="O19" s="191"/>
-      <c r="P19" s="191"/>
-      <c r="Q19" s="191"/>
-      <c r="R19" s="191"/>
-      <c r="S19" s="191"/>
-      <c r="T19" s="191"/>
-      <c r="U19" s="191"/>
-      <c r="V19" s="191"/>
-      <c r="W19" s="191"/>
-      <c r="X19" s="191"/>
-      <c r="Y19" s="191"/>
-      <c r="Z19" s="191"/>
-      <c r="AA19" s="191"/>
-      <c r="AB19" s="192"/>
+      <c r="L19" s="207"/>
+      <c r="M19" s="207"/>
+      <c r="N19" s="207"/>
+      <c r="O19" s="207"/>
+      <c r="P19" s="207"/>
+      <c r="Q19" s="207"/>
+      <c r="R19" s="207"/>
+      <c r="S19" s="207"/>
+      <c r="T19" s="207"/>
+      <c r="U19" s="207"/>
+      <c r="V19" s="207"/>
+      <c r="W19" s="207"/>
+      <c r="X19" s="207"/>
+      <c r="Y19" s="207"/>
+      <c r="Z19" s="207"/>
+      <c r="AA19" s="207"/>
+      <c r="AB19" s="208"/>
       <c r="AC19" s="6"/>
       <c r="AD19" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="AE19" s="185" t="e">
+      <c r="AE19" s="213" t="e">
         <f>K19</f>
         <v>#REF!</v>
       </c>
-      <c r="AF19" s="186"/>
+      <c r="AF19" s="214"/>
     </row>
     <row r="20" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="C20" s="10"/>
       <c r="D20" s="39"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="198"/>
-      <c r="G20" s="199"/>
-      <c r="H20" s="199"/>
-      <c r="I20" s="199"/>
-      <c r="J20" s="200"/>
-      <c r="K20" s="180"/>
-      <c r="L20" s="168"/>
-      <c r="M20" s="168"/>
-      <c r="N20" s="168"/>
-      <c r="O20" s="173"/>
-      <c r="P20" s="168"/>
-      <c r="Q20" s="167"/>
-      <c r="R20" s="168"/>
-      <c r="S20" s="168"/>
-      <c r="T20" s="168"/>
-      <c r="U20" s="168"/>
-      <c r="V20" s="168"/>
-      <c r="W20" s="168"/>
+      <c r="F20" s="211"/>
+      <c r="G20" s="210"/>
+      <c r="H20" s="210"/>
+      <c r="I20" s="210"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="244"/>
+      <c r="L20" s="197"/>
+      <c r="M20" s="197"/>
+      <c r="N20" s="197"/>
+      <c r="O20" s="189"/>
+      <c r="P20" s="197"/>
+      <c r="Q20" s="242"/>
+      <c r="R20" s="197"/>
+      <c r="S20" s="197"/>
+      <c r="T20" s="197"/>
+      <c r="U20" s="197"/>
+      <c r="V20" s="197"/>
+      <c r="W20" s="197"/>
       <c r="AC20" s="6"/>
       <c r="AD20" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="AE20" s="187" t="e">
+      <c r="AE20" s="240" t="e">
         <f>AE18+AE19</f>
         <v>#REF!</v>
       </c>
-      <c r="AF20" s="188"/>
+      <c r="AF20" s="216"/>
     </row>
     <row r="21" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="140" t="s">
+      <c r="B21" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="169"/>
-      <c r="D21" s="169"/>
-      <c r="E21" s="170"/>
-      <c r="F21" s="208" t="s">
+      <c r="C21" s="198"/>
+      <c r="D21" s="198"/>
+      <c r="E21" s="199"/>
+      <c r="F21" s="235" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="205"/>
-      <c r="H21" s="205"/>
-      <c r="I21" s="205"/>
-      <c r="J21" s="206"/>
-      <c r="K21" s="207" t="s">
+      <c r="G21" s="195"/>
+      <c r="H21" s="195"/>
+      <c r="I21" s="195"/>
+      <c r="J21" s="196"/>
+      <c r="K21" s="194" t="s">
         <v>56</v>
       </c>
-      <c r="L21" s="205"/>
-      <c r="M21" s="205"/>
-      <c r="N21" s="205"/>
-      <c r="O21" s="205"/>
-      <c r="P21" s="205"/>
-      <c r="Q21" s="205"/>
-      <c r="R21" s="205"/>
-      <c r="S21" s="205"/>
-      <c r="T21" s="205"/>
-      <c r="U21" s="205"/>
-      <c r="V21" s="205"/>
-      <c r="W21" s="205"/>
-      <c r="X21" s="205"/>
-      <c r="Y21" s="205"/>
-      <c r="Z21" s="205"/>
-      <c r="AA21" s="205"/>
-      <c r="AB21" s="206"/>
+      <c r="L21" s="195"/>
+      <c r="M21" s="195"/>
+      <c r="N21" s="195"/>
+      <c r="O21" s="195"/>
+      <c r="P21" s="195"/>
+      <c r="Q21" s="195"/>
+      <c r="R21" s="195"/>
+      <c r="S21" s="195"/>
+      <c r="T21" s="195"/>
+      <c r="U21" s="195"/>
+      <c r="V21" s="195"/>
+      <c r="W21" s="195"/>
+      <c r="X21" s="195"/>
+      <c r="Y21" s="195"/>
+      <c r="Z21" s="195"/>
+      <c r="AA21" s="195"/>
+      <c r="AB21" s="196"/>
       <c r="AC21" s="20"/>
       <c r="AD21" s="49"/>
-      <c r="AE21" s="162"/>
-      <c r="AF21" s="168"/>
+      <c r="AE21" s="101"/>
+      <c r="AF21" s="197"/>
     </row>
     <row r="22" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="225"/>
-      <c r="C22" s="216"/>
-      <c r="D22" s="216"/>
-      <c r="E22" s="175"/>
-      <c r="F22" s="226" t="s">
+      <c r="B22" s="200"/>
+      <c r="C22" s="201"/>
+      <c r="D22" s="201"/>
+      <c r="E22" s="202"/>
+      <c r="F22" s="245" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="227"/>
-      <c r="H22" s="227"/>
-      <c r="I22" s="227"/>
-      <c r="J22" s="228"/>
-      <c r="K22" s="217" t="s">
+      <c r="G22" s="246"/>
+      <c r="H22" s="246"/>
+      <c r="I22" s="246"/>
+      <c r="J22" s="247"/>
+      <c r="K22" s="224" t="s">
         <v>57</v>
       </c>
-      <c r="L22" s="218"/>
-      <c r="M22" s="218"/>
-      <c r="N22" s="218"/>
-      <c r="O22" s="218"/>
-      <c r="P22" s="218"/>
-      <c r="Q22" s="218"/>
-      <c r="R22" s="224"/>
-      <c r="S22" s="219" t="s">
+      <c r="L22" s="225"/>
+      <c r="M22" s="225"/>
+      <c r="N22" s="225"/>
+      <c r="O22" s="225"/>
+      <c r="P22" s="225"/>
+      <c r="Q22" s="225"/>
+      <c r="R22" s="73"/>
+      <c r="S22" s="226" t="s">
         <v>58</v>
       </c>
-      <c r="T22" s="219"/>
-      <c r="U22" s="219"/>
-      <c r="V22" s="219"/>
-      <c r="W22" s="219"/>
-      <c r="X22" s="219"/>
-      <c r="Y22" s="219"/>
-      <c r="Z22" s="219"/>
-      <c r="AA22" s="219"/>
-      <c r="AB22" s="220"/>
+      <c r="T22" s="226"/>
+      <c r="U22" s="226"/>
+      <c r="V22" s="226"/>
+      <c r="W22" s="226"/>
+      <c r="X22" s="226"/>
+      <c r="Y22" s="226"/>
+      <c r="Z22" s="226"/>
+      <c r="AA22" s="226"/>
+      <c r="AB22" s="227"/>
       <c r="AC22" s="20"/>
       <c r="AD22" s="49"/>
       <c r="AE22" s="21"/>
     </row>
     <row r="23" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="174"/>
-      <c r="C23" s="168"/>
-      <c r="D23" s="168"/>
-      <c r="E23" s="175"/>
-      <c r="F23" s="229"/>
-      <c r="G23" s="230"/>
-      <c r="H23" s="230"/>
-      <c r="I23" s="230"/>
-      <c r="J23" s="231"/>
-      <c r="K23" s="196" t="e">
+      <c r="B23" s="203"/>
+      <c r="C23" s="197"/>
+      <c r="D23" s="197"/>
+      <c r="E23" s="202"/>
+      <c r="F23" s="248"/>
+      <c r="G23" s="249"/>
+      <c r="H23" s="249"/>
+      <c r="I23" s="249"/>
+      <c r="J23" s="250"/>
+      <c r="K23" s="229" t="e">
         <f>IF(K18&lt;&gt;0,K18*10%,VLOOKUP(E11,[1]!SCSF_Billings[#Data],6,FALSE))</f>
         <v>#REF!</v>
       </c>
-      <c r="L23" s="191"/>
-      <c r="M23" s="191"/>
-      <c r="N23" s="191"/>
-      <c r="O23" s="191"/>
-      <c r="P23" s="191"/>
-      <c r="Q23" s="192"/>
-      <c r="R23" s="223" t="s">
+      <c r="L23" s="207"/>
+      <c r="M23" s="207"/>
+      <c r="N23" s="207"/>
+      <c r="O23" s="207"/>
+      <c r="P23" s="207"/>
+      <c r="Q23" s="208"/>
+      <c r="R23" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="S23" s="190" t="e">
+      <c r="S23" s="238" t="e">
         <f>S18</f>
         <v>#REF!</v>
       </c>
-      <c r="T23" s="191"/>
-      <c r="U23" s="191"/>
-      <c r="V23" s="191"/>
-      <c r="W23" s="191"/>
-      <c r="X23" s="191"/>
-      <c r="Y23" s="191"/>
-      <c r="Z23" s="191"/>
-      <c r="AA23" s="191"/>
-      <c r="AB23" s="192"/>
+      <c r="T23" s="207"/>
+      <c r="U23" s="207"/>
+      <c r="V23" s="207"/>
+      <c r="W23" s="207"/>
+      <c r="X23" s="207"/>
+      <c r="Y23" s="207"/>
+      <c r="Z23" s="207"/>
+      <c r="AA23" s="207"/>
+      <c r="AB23" s="208"/>
       <c r="AC23" s="20"/>
       <c r="AD23" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="AE23" s="125" t="e">
+      <c r="AE23" s="146" t="e">
         <f>K23*S23</f>
         <v>#REF!</v>
       </c>
-      <c r="AF23" s="166"/>
+      <c r="AF23" s="205"/>
     </row>
     <row r="24" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="171"/>
-      <c r="C24" s="166"/>
-      <c r="D24" s="166"/>
-      <c r="E24" s="172"/>
-      <c r="F24" s="178" t="s">
+      <c r="B24" s="204"/>
+      <c r="C24" s="205"/>
+      <c r="D24" s="205"/>
+      <c r="E24" s="206"/>
+      <c r="F24" s="231" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="191"/>
-      <c r="H24" s="191"/>
-      <c r="I24" s="191"/>
-      <c r="J24" s="192"/>
-      <c r="K24" s="197" t="e">
+      <c r="G24" s="207"/>
+      <c r="H24" s="207"/>
+      <c r="I24" s="207"/>
+      <c r="J24" s="208"/>
+      <c r="K24" s="212" t="e">
         <f>ROUND(AE23*11%,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="L24" s="191"/>
-      <c r="M24" s="191"/>
-      <c r="N24" s="191"/>
-      <c r="O24" s="191"/>
-      <c r="P24" s="191"/>
-      <c r="Q24" s="191"/>
-      <c r="R24" s="191"/>
-      <c r="S24" s="191"/>
-      <c r="T24" s="191"/>
-      <c r="U24" s="191"/>
-      <c r="V24" s="191"/>
-      <c r="W24" s="191"/>
-      <c r="X24" s="191"/>
-      <c r="Y24" s="191"/>
-      <c r="Z24" s="191"/>
-      <c r="AA24" s="191"/>
-      <c r="AB24" s="192"/>
+      <c r="L24" s="252"/>
+      <c r="M24" s="252"/>
+      <c r="N24" s="252"/>
+      <c r="O24" s="252"/>
+      <c r="P24" s="252"/>
+      <c r="Q24" s="252"/>
+      <c r="R24" s="252"/>
+      <c r="S24" s="252"/>
+      <c r="T24" s="252"/>
+      <c r="U24" s="252"/>
+      <c r="V24" s="252"/>
+      <c r="W24" s="252"/>
+      <c r="X24" s="252"/>
+      <c r="Y24" s="252"/>
+      <c r="Z24" s="252"/>
+      <c r="AA24" s="252"/>
+      <c r="AB24" s="253"/>
       <c r="AC24" s="20"/>
       <c r="AD24" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="AE24" s="125" t="e">
+      <c r="AE24" s="146" t="e">
         <f>K24</f>
         <v>#REF!</v>
       </c>
-      <c r="AF24" s="166"/>
+      <c r="AF24" s="205"/>
     </row>
     <row r="25" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="75"/>
+      <c r="A25" s="106"/>
       <c r="B25" s="40"/>
       <c r="C25" s="40"/>
       <c r="D25" s="40"/>
       <c r="E25" s="40"/>
-      <c r="F25" s="181"/>
-      <c r="G25" s="166"/>
-      <c r="H25" s="166"/>
-      <c r="I25" s="166"/>
+      <c r="F25" s="209"/>
+      <c r="G25" s="205"/>
+      <c r="H25" s="205"/>
+      <c r="I25" s="205"/>
       <c r="J25" s="43"/>
-      <c r="K25" s="165"/>
-      <c r="L25" s="166"/>
-      <c r="M25" s="166"/>
-      <c r="N25" s="166"/>
-      <c r="O25" s="166"/>
-      <c r="P25" s="166"/>
-      <c r="Q25" s="166"/>
-      <c r="R25" s="166"/>
-      <c r="S25" s="166"/>
-      <c r="T25" s="166"/>
-      <c r="U25" s="166"/>
-      <c r="V25" s="166"/>
-      <c r="W25" s="166"/>
+      <c r="K25" s="241"/>
+      <c r="L25" s="205"/>
+      <c r="M25" s="205"/>
+      <c r="N25" s="205"/>
+      <c r="O25" s="205"/>
+      <c r="P25" s="205"/>
+      <c r="Q25" s="205"/>
+      <c r="R25" s="205"/>
+      <c r="S25" s="205"/>
+      <c r="T25" s="205"/>
+      <c r="U25" s="205"/>
+      <c r="V25" s="205"/>
+      <c r="W25" s="205"/>
       <c r="X25" s="41"/>
       <c r="Y25" s="41"/>
       <c r="Z25" s="41"/>
@@ -5008,14 +4978,14 @@
       <c r="AD25" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="AE25" s="185" t="e">
+      <c r="AE25" s="213" t="e">
         <f>AE23+AE24</f>
         <v>#REF!</v>
       </c>
-      <c r="AF25" s="189"/>
+      <c r="AF25" s="236"/>
     </row>
     <row r="26" spans="1:32" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="168"/>
+      <c r="A26" s="197"/>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
@@ -5048,34 +5018,34 @@
       <c r="AF26" s="26"/>
     </row>
     <row r="27" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="168"/>
+      <c r="A27" s="197"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="I27" s="28"/>
       <c r="J27" s="28"/>
-      <c r="T27" s="128" t="s">
+      <c r="T27" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="U27" s="199"/>
-      <c r="V27" s="199"/>
-      <c r="W27" s="199"/>
-      <c r="X27" s="199"/>
-      <c r="Y27" s="199"/>
-      <c r="Z27" s="199"/>
-      <c r="AA27" s="199"/>
-      <c r="AB27" s="199"/>
+      <c r="U27" s="210"/>
+      <c r="V27" s="210"/>
+      <c r="W27" s="210"/>
+      <c r="X27" s="210"/>
+      <c r="Y27" s="210"/>
+      <c r="Z27" s="210"/>
+      <c r="AA27" s="210"/>
+      <c r="AB27" s="210"/>
       <c r="AC27" s="20"/>
       <c r="AD27" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="AE27" s="201" t="e">
+      <c r="AE27" s="192" t="e">
         <f>VLOOKUP(E11,[1]!SCSF_Billings[#Data],8,FALSE)</f>
         <v>#REF!</v>
       </c>
-      <c r="AF27" s="182"/>
+      <c r="AF27" s="193"/>
     </row>
     <row r="28" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="168"/>
+      <c r="A28" s="197"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -5094,26 +5064,26 @@
       <c r="Q28" s="9"/>
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
-      <c r="T28" s="120" t="s">
+      <c r="T28" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="U28" s="199"/>
-      <c r="V28" s="199"/>
-      <c r="W28" s="199"/>
-      <c r="X28" s="199"/>
-      <c r="Y28" s="199"/>
-      <c r="Z28" s="199"/>
-      <c r="AA28" s="199"/>
-      <c r="AB28" s="199"/>
+      <c r="U28" s="210"/>
+      <c r="V28" s="210"/>
+      <c r="W28" s="210"/>
+      <c r="X28" s="210"/>
+      <c r="Y28" s="210"/>
+      <c r="Z28" s="210"/>
+      <c r="AA28" s="210"/>
+      <c r="AB28" s="210"/>
       <c r="AC28" s="32"/>
       <c r="AD28" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="AE28" s="202" t="e">
+      <c r="AE28" s="232" t="e">
         <f>VLOOKUP(E11,[1]!SCSF_Billings[#Data],9,FALSE)</f>
         <v>#REF!</v>
       </c>
-      <c r="AF28" s="182"/>
+      <c r="AF28" s="193"/>
     </row>
     <row r="29" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
@@ -5135,26 +5105,26 @@
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
-      <c r="T29" s="203" t="s">
+      <c r="T29" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="U29" s="199"/>
-      <c r="V29" s="199"/>
-      <c r="W29" s="199"/>
-      <c r="X29" s="199"/>
-      <c r="Y29" s="199"/>
-      <c r="Z29" s="199"/>
-      <c r="AA29" s="199"/>
-      <c r="AB29" s="199"/>
+      <c r="U29" s="210"/>
+      <c r="V29" s="210"/>
+      <c r="W29" s="210"/>
+      <c r="X29" s="210"/>
+      <c r="Y29" s="210"/>
+      <c r="Z29" s="210"/>
+      <c r="AA29" s="210"/>
+      <c r="AB29" s="210"/>
       <c r="AC29" s="3"/>
       <c r="AD29" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="AE29" s="122" t="e">
+      <c r="AE29" s="142" t="e">
         <f>AE20+AE25+AE27+AE28</f>
         <v>#REF!</v>
       </c>
-      <c r="AF29" s="199"/>
+      <c r="AF29" s="210"/>
     </row>
     <row r="30" spans="1:32" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
@@ -5176,126 +5146,126 @@
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
-      <c r="T30" s="238"/>
-      <c r="U30" s="200"/>
-      <c r="V30" s="200"/>
-      <c r="W30" s="200"/>
-      <c r="X30" s="200"/>
-      <c r="Y30" s="200"/>
-      <c r="Z30" s="200"/>
-      <c r="AA30" s="200"/>
-      <c r="AB30" s="200"/>
+      <c r="T30" s="70"/>
+      <c r="U30" s="69"/>
+      <c r="V30" s="69"/>
+      <c r="W30" s="69"/>
+      <c r="X30" s="69"/>
+      <c r="Y30" s="69"/>
+      <c r="Z30" s="69"/>
+      <c r="AA30" s="69"/>
+      <c r="AB30" s="69"/>
       <c r="AC30" s="3"/>
       <c r="AD30" s="49"/>
       <c r="AE30" s="67"/>
-      <c r="AF30" s="200"/>
+      <c r="AF30" s="69"/>
     </row>
     <row r="31" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
-      <c r="B31" s="233"/>
-      <c r="C31" s="233"/>
-      <c r="D31" s="233"/>
-      <c r="E31" s="233"/>
-      <c r="F31" s="233"/>
-      <c r="G31" s="233"/>
-      <c r="H31" s="233"/>
-      <c r="I31" s="233"/>
-      <c r="J31" s="233"/>
-      <c r="K31" s="233"/>
-      <c r="L31" s="233"/>
-      <c r="M31" s="233"/>
-      <c r="N31" s="233"/>
-      <c r="O31" s="233"/>
-      <c r="P31" s="233"/>
-      <c r="Q31" s="233"/>
-      <c r="R31" s="233"/>
-      <c r="S31" s="233"/>
-      <c r="T31" s="234"/>
-      <c r="U31" s="234"/>
-      <c r="V31" s="234"/>
-      <c r="W31" s="234"/>
-      <c r="X31" s="234"/>
-      <c r="Y31" s="234"/>
-      <c r="Z31" s="234"/>
-      <c r="AA31" s="234"/>
-      <c r="AB31" s="234"/>
-      <c r="AC31" s="233"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="74"/>
+      <c r="N31" s="74"/>
+      <c r="O31" s="74"/>
+      <c r="P31" s="74"/>
+      <c r="Q31" s="74"/>
+      <c r="R31" s="74"/>
+      <c r="S31" s="74"/>
+      <c r="T31" s="75"/>
+      <c r="U31" s="75"/>
+      <c r="V31" s="75"/>
+      <c r="W31" s="75"/>
+      <c r="X31" s="75"/>
+      <c r="Y31" s="75"/>
+      <c r="Z31" s="75"/>
+      <c r="AA31" s="75"/>
+      <c r="AB31" s="75"/>
+      <c r="AC31" s="74"/>
       <c r="AD31" s="31"/>
-      <c r="AE31" s="233"/>
-      <c r="AF31" s="235"/>
+      <c r="AE31" s="74"/>
+      <c r="AF31" s="76"/>
     </row>
     <row r="32" spans="1:32" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="232" t="s">
+      <c r="B32" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="232"/>
-      <c r="D32" s="232"/>
-      <c r="E32" s="232"/>
-      <c r="F32" s="232"/>
-      <c r="G32" s="265" t="e">
+      <c r="C32" s="90"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="191" t="e">
         <f ca="1">_xlfn.CONCAT([2]!terbilang(AE29),"Rupiah")</f>
         <v>#NAME?</v>
       </c>
-      <c r="H32" s="265"/>
-      <c r="I32" s="265"/>
-      <c r="J32" s="265"/>
-      <c r="K32" s="265"/>
-      <c r="L32" s="265"/>
-      <c r="M32" s="265"/>
-      <c r="N32" s="265"/>
-      <c r="O32" s="265"/>
-      <c r="P32" s="265"/>
-      <c r="Q32" s="265"/>
-      <c r="R32" s="265"/>
-      <c r="S32" s="265"/>
-      <c r="T32" s="265"/>
-      <c r="U32" s="265"/>
-      <c r="V32" s="265"/>
-      <c r="W32" s="265"/>
-      <c r="X32" s="265"/>
-      <c r="Y32" s="265"/>
-      <c r="Z32" s="265"/>
-      <c r="AA32" s="265"/>
-      <c r="AB32" s="265"/>
-      <c r="AC32" s="265"/>
-      <c r="AD32" s="265"/>
-      <c r="AE32" s="265"/>
-      <c r="AF32" s="265"/>
+      <c r="H32" s="191"/>
+      <c r="I32" s="191"/>
+      <c r="J32" s="191"/>
+      <c r="K32" s="191"/>
+      <c r="L32" s="191"/>
+      <c r="M32" s="191"/>
+      <c r="N32" s="191"/>
+      <c r="O32" s="191"/>
+      <c r="P32" s="191"/>
+      <c r="Q32" s="191"/>
+      <c r="R32" s="191"/>
+      <c r="S32" s="191"/>
+      <c r="T32" s="191"/>
+      <c r="U32" s="191"/>
+      <c r="V32" s="191"/>
+      <c r="W32" s="191"/>
+      <c r="X32" s="191"/>
+      <c r="Y32" s="191"/>
+      <c r="Z32" s="191"/>
+      <c r="AA32" s="191"/>
+      <c r="AB32" s="191"/>
+      <c r="AC32" s="191"/>
+      <c r="AD32" s="191"/>
+      <c r="AE32" s="191"/>
+      <c r="AF32" s="191"/>
     </row>
     <row r="33" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
-      <c r="B33" s="237"/>
-      <c r="C33" s="237"/>
-      <c r="D33" s="237"/>
-      <c r="E33" s="237"/>
-      <c r="F33" s="237"/>
-      <c r="G33" s="237"/>
-      <c r="H33" s="237"/>
-      <c r="I33" s="237"/>
-      <c r="J33" s="237"/>
-      <c r="K33" s="237"/>
-      <c r="L33" s="237"/>
-      <c r="M33" s="237"/>
-      <c r="N33" s="237"/>
-      <c r="O33" s="237"/>
-      <c r="P33" s="237"/>
-      <c r="Q33" s="237"/>
-      <c r="R33" s="237"/>
-      <c r="S33" s="237"/>
-      <c r="T33" s="237"/>
-      <c r="U33" s="237"/>
-      <c r="V33" s="237"/>
-      <c r="W33" s="237"/>
-      <c r="X33" s="237"/>
-      <c r="Y33" s="237"/>
-      <c r="Z33" s="237"/>
-      <c r="AA33" s="237"/>
-      <c r="AB33" s="237"/>
-      <c r="AC33" s="237"/>
-      <c r="AD33" s="237"/>
-      <c r="AE33" s="237"/>
-      <c r="AF33" s="237"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="43"/>
+      <c r="T33" s="43"/>
+      <c r="U33" s="43"/>
+      <c r="V33" s="43"/>
+      <c r="W33" s="43"/>
+      <c r="X33" s="43"/>
+      <c r="Y33" s="43"/>
+      <c r="Z33" s="43"/>
+      <c r="AA33" s="43"/>
+      <c r="AB33" s="43"/>
+      <c r="AC33" s="43"/>
+      <c r="AD33" s="43"/>
+      <c r="AE33" s="43"/>
+      <c r="AF33" s="43"/>
     </row>
     <row r="34" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
@@ -5389,252 +5359,201 @@
       <c r="U36" s="6"/>
       <c r="V36" s="6"/>
       <c r="W36" s="6"/>
-      <c r="X36" s="250"/>
-      <c r="Y36" s="236"/>
-      <c r="Z36" s="236"/>
-      <c r="AA36" s="236"/>
-      <c r="AB36" s="246" t="s">
+      <c r="X36" s="65"/>
+      <c r="AB36" s="251" t="s">
         <v>54</v>
       </c>
-      <c r="AC36" s="246"/>
-      <c r="AD36" s="246"/>
-      <c r="AE36" s="246"/>
-      <c r="AF36" s="246"/>
+      <c r="AC36" s="251"/>
+      <c r="AD36" s="251"/>
+      <c r="AE36" s="251"/>
+      <c r="AF36" s="251"/>
     </row>
     <row r="37" spans="1:32" ht="5.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
-      <c r="B37" s="254" t="s">
+      <c r="B37" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="255"/>
-      <c r="D37" s="255"/>
-      <c r="E37" s="255"/>
-      <c r="F37" s="255"/>
-      <c r="G37" s="255"/>
-      <c r="H37" s="255"/>
-      <c r="I37" s="255"/>
-      <c r="J37" s="255"/>
-      <c r="K37" s="255"/>
-      <c r="L37" s="255"/>
-      <c r="M37" s="255"/>
-      <c r="N37" s="255"/>
-      <c r="O37" s="255"/>
-      <c r="P37" s="255"/>
-      <c r="Q37" s="255"/>
-      <c r="R37" s="255"/>
-      <c r="S37" s="255"/>
-      <c r="T37" s="256"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="82"/>
+      <c r="H37" s="82"/>
+      <c r="I37" s="82"/>
+      <c r="J37" s="82"/>
+      <c r="K37" s="82"/>
+      <c r="L37" s="82"/>
+      <c r="M37" s="82"/>
+      <c r="N37" s="82"/>
+      <c r="O37" s="82"/>
+      <c r="P37" s="82"/>
+      <c r="Q37" s="82"/>
+      <c r="R37" s="82"/>
+      <c r="S37" s="82"/>
+      <c r="T37" s="83"/>
       <c r="V37" s="6"/>
       <c r="W37" s="6"/>
-      <c r="X37" s="247"/>
-      <c r="Y37" s="236"/>
-      <c r="Z37" s="236"/>
-      <c r="AA37" s="236"/>
-      <c r="AB37" s="246"/>
-      <c r="AC37" s="246"/>
-      <c r="AD37" s="246"/>
-      <c r="AE37" s="246"/>
-      <c r="AF37" s="246"/>
+      <c r="AB37" s="251"/>
+      <c r="AC37" s="251"/>
+      <c r="AD37" s="251"/>
+      <c r="AE37" s="251"/>
+      <c r="AF37" s="251"/>
     </row>
     <row r="38" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
-      <c r="B38" s="257"/>
-      <c r="C38" s="258"/>
-      <c r="D38" s="258"/>
-      <c r="E38" s="258"/>
-      <c r="F38" s="258"/>
-      <c r="G38" s="258"/>
-      <c r="H38" s="258"/>
-      <c r="I38" s="258"/>
-      <c r="J38" s="258"/>
-      <c r="K38" s="258"/>
-      <c r="L38" s="258"/>
-      <c r="M38" s="258"/>
-      <c r="N38" s="258"/>
-      <c r="O38" s="258"/>
-      <c r="P38" s="258"/>
-      <c r="Q38" s="258"/>
-      <c r="R38" s="258"/>
-      <c r="S38" s="258"/>
-      <c r="T38" s="259"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="85"/>
+      <c r="I38" s="85"/>
+      <c r="J38" s="85"/>
+      <c r="K38" s="85"/>
+      <c r="L38" s="85"/>
+      <c r="M38" s="85"/>
+      <c r="N38" s="85"/>
+      <c r="O38" s="85"/>
+      <c r="P38" s="85"/>
+      <c r="Q38" s="85"/>
+      <c r="R38" s="85"/>
+      <c r="S38" s="85"/>
+      <c r="T38" s="86"/>
       <c r="V38" s="6"/>
       <c r="W38" s="6"/>
-      <c r="X38" s="236"/>
-      <c r="Y38" s="236"/>
-      <c r="Z38" s="236"/>
-      <c r="AA38" s="236"/>
-      <c r="AB38" s="246"/>
-      <c r="AC38" s="246"/>
-      <c r="AD38" s="246"/>
-      <c r="AE38" s="246"/>
-      <c r="AF38" s="246"/>
+      <c r="AB38" s="251"/>
+      <c r="AC38" s="251"/>
+      <c r="AD38" s="251"/>
+      <c r="AE38" s="251"/>
+      <c r="AF38" s="251"/>
     </row>
     <row r="39" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
-      <c r="B39" s="257"/>
-      <c r="C39" s="258"/>
-      <c r="D39" s="258"/>
-      <c r="E39" s="258"/>
-      <c r="F39" s="258"/>
-      <c r="G39" s="258"/>
-      <c r="H39" s="258"/>
-      <c r="I39" s="258"/>
-      <c r="J39" s="258"/>
-      <c r="K39" s="258"/>
-      <c r="L39" s="258"/>
-      <c r="M39" s="258"/>
-      <c r="N39" s="258"/>
-      <c r="O39" s="258"/>
-      <c r="P39" s="258"/>
-      <c r="Q39" s="258"/>
-      <c r="R39" s="258"/>
-      <c r="S39" s="258"/>
-      <c r="T39" s="259"/>
+      <c r="B39" s="84"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="85"/>
+      <c r="H39" s="85"/>
+      <c r="I39" s="85"/>
+      <c r="J39" s="85"/>
+      <c r="K39" s="85"/>
+      <c r="L39" s="85"/>
+      <c r="M39" s="85"/>
+      <c r="N39" s="85"/>
+      <c r="O39" s="85"/>
+      <c r="P39" s="85"/>
+      <c r="Q39" s="85"/>
+      <c r="R39" s="85"/>
+      <c r="S39" s="85"/>
+      <c r="T39" s="86"/>
       <c r="V39" s="6"/>
       <c r="W39" s="6"/>
-      <c r="X39" s="236"/>
-      <c r="Y39" s="236"/>
-      <c r="Z39" s="236"/>
-      <c r="AA39" s="236"/>
-      <c r="AB39" s="236"/>
-      <c r="AC39" s="236"/>
-      <c r="AD39" s="236"/>
-      <c r="AE39" s="236"/>
-      <c r="AF39" s="236"/>
     </row>
     <row r="40" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
-      <c r="B40" s="257"/>
-      <c r="C40" s="258"/>
-      <c r="D40" s="258"/>
-      <c r="E40" s="258"/>
-      <c r="F40" s="258"/>
-      <c r="G40" s="258"/>
-      <c r="H40" s="258"/>
-      <c r="I40" s="258"/>
-      <c r="J40" s="258"/>
-      <c r="K40" s="258"/>
-      <c r="L40" s="258"/>
-      <c r="M40" s="258"/>
-      <c r="N40" s="258"/>
-      <c r="O40" s="258"/>
-      <c r="P40" s="258"/>
-      <c r="Q40" s="258"/>
-      <c r="R40" s="258"/>
-      <c r="S40" s="258"/>
-      <c r="T40" s="259"/>
+      <c r="B40" s="84"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="85"/>
+      <c r="I40" s="85"/>
+      <c r="J40" s="85"/>
+      <c r="K40" s="85"/>
+      <c r="L40" s="85"/>
+      <c r="M40" s="85"/>
+      <c r="N40" s="85"/>
+      <c r="O40" s="85"/>
+      <c r="P40" s="85"/>
+      <c r="Q40" s="85"/>
+      <c r="R40" s="85"/>
+      <c r="S40" s="85"/>
+      <c r="T40" s="86"/>
       <c r="V40" s="6"/>
       <c r="W40" s="6"/>
-      <c r="X40" s="236"/>
-      <c r="Y40" s="236"/>
-      <c r="Z40" s="236"/>
-      <c r="AA40" s="236"/>
-      <c r="AB40" s="236"/>
-      <c r="AC40" s="236"/>
-      <c r="AD40" s="236"/>
-      <c r="AE40" s="236"/>
-      <c r="AF40" s="236"/>
     </row>
     <row r="41" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
-      <c r="B41" s="257"/>
-      <c r="C41" s="258"/>
-      <c r="D41" s="258"/>
-      <c r="E41" s="258"/>
-      <c r="F41" s="258"/>
-      <c r="G41" s="258"/>
-      <c r="H41" s="258"/>
-      <c r="I41" s="258"/>
-      <c r="J41" s="258"/>
-      <c r="K41" s="258"/>
-      <c r="L41" s="258"/>
-      <c r="M41" s="258"/>
-      <c r="N41" s="258"/>
-      <c r="O41" s="258"/>
-      <c r="P41" s="258"/>
-      <c r="Q41" s="258"/>
-      <c r="R41" s="258"/>
-      <c r="S41" s="258"/>
-      <c r="T41" s="259"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="85"/>
+      <c r="G41" s="85"/>
+      <c r="H41" s="85"/>
+      <c r="I41" s="85"/>
+      <c r="J41" s="85"/>
+      <c r="K41" s="85"/>
+      <c r="L41" s="85"/>
+      <c r="M41" s="85"/>
+      <c r="N41" s="85"/>
+      <c r="O41" s="85"/>
+      <c r="P41" s="85"/>
+      <c r="Q41" s="85"/>
+      <c r="R41" s="85"/>
+      <c r="S41" s="85"/>
+      <c r="T41" s="86"/>
       <c r="V41" s="6"/>
       <c r="W41" s="6"/>
-      <c r="X41" s="236"/>
-      <c r="Y41" s="236"/>
-      <c r="Z41" s="236"/>
-      <c r="AA41" s="236"/>
-      <c r="AB41" s="236"/>
-      <c r="AC41" s="236"/>
-      <c r="AD41" s="236"/>
-      <c r="AE41" s="236"/>
-      <c r="AF41" s="236"/>
     </row>
     <row r="42" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
-      <c r="B42" s="257"/>
-      <c r="C42" s="258"/>
-      <c r="D42" s="258"/>
-      <c r="E42" s="258"/>
-      <c r="F42" s="258"/>
-      <c r="G42" s="258"/>
-      <c r="H42" s="258"/>
-      <c r="I42" s="258"/>
-      <c r="J42" s="258"/>
-      <c r="K42" s="258"/>
-      <c r="L42" s="258"/>
-      <c r="M42" s="258"/>
-      <c r="N42" s="258"/>
-      <c r="O42" s="258"/>
-      <c r="P42" s="258"/>
-      <c r="Q42" s="258"/>
-      <c r="R42" s="258"/>
-      <c r="S42" s="258"/>
-      <c r="T42" s="259"/>
+      <c r="B42" s="84"/>
+      <c r="C42" s="85"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="85"/>
+      <c r="G42" s="85"/>
+      <c r="H42" s="85"/>
+      <c r="I42" s="85"/>
+      <c r="J42" s="85"/>
+      <c r="K42" s="85"/>
+      <c r="L42" s="85"/>
+      <c r="M42" s="85"/>
+      <c r="N42" s="85"/>
+      <c r="O42" s="85"/>
+      <c r="P42" s="85"/>
+      <c r="Q42" s="85"/>
+      <c r="R42" s="85"/>
+      <c r="S42" s="85"/>
+      <c r="T42" s="86"/>
       <c r="V42" s="6"/>
       <c r="W42" s="6"/>
-      <c r="X42" s="236"/>
-      <c r="Y42" s="236"/>
-      <c r="Z42" s="236"/>
-      <c r="AA42" s="236"/>
-      <c r="AB42" s="236"/>
-      <c r="AC42" s="236"/>
-      <c r="AD42" s="236"/>
-      <c r="AE42" s="236"/>
-      <c r="AF42" s="236"/>
     </row>
     <row r="43" spans="1:32" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
-      <c r="B43" s="260"/>
-      <c r="C43" s="163"/>
-      <c r="D43" s="163"/>
-      <c r="E43" s="163"/>
-      <c r="F43" s="163"/>
-      <c r="G43" s="163"/>
-      <c r="H43" s="163"/>
-      <c r="I43" s="163"/>
-      <c r="J43" s="163"/>
-      <c r="K43" s="163"/>
-      <c r="L43" s="163"/>
-      <c r="M43" s="163"/>
-      <c r="N43" s="163"/>
-      <c r="O43" s="163"/>
-      <c r="P43" s="163"/>
-      <c r="Q43" s="163"/>
-      <c r="R43" s="163"/>
-      <c r="S43" s="163"/>
-      <c r="T43" s="261"/>
+      <c r="B43" s="87"/>
+      <c r="C43" s="88"/>
+      <c r="D43" s="88"/>
+      <c r="E43" s="88"/>
+      <c r="F43" s="88"/>
+      <c r="G43" s="88"/>
+      <c r="H43" s="88"/>
+      <c r="I43" s="88"/>
+      <c r="J43" s="88"/>
+      <c r="K43" s="88"/>
+      <c r="L43" s="88"/>
+      <c r="M43" s="88"/>
+      <c r="N43" s="88"/>
+      <c r="O43" s="88"/>
+      <c r="P43" s="88"/>
+      <c r="Q43" s="88"/>
+      <c r="R43" s="88"/>
+      <c r="S43" s="88"/>
+      <c r="T43" s="89"/>
       <c r="V43" s="6"/>
       <c r="W43" s="6"/>
-      <c r="X43" s="236"/>
-      <c r="Y43" s="236"/>
-      <c r="Z43" s="236"/>
-      <c r="AA43" s="236"/>
-      <c r="AB43" s="173" t="s">
+      <c r="AB43" s="189" t="s">
         <v>55</v>
       </c>
-      <c r="AC43" s="245"/>
-      <c r="AD43" s="245"/>
-      <c r="AE43" s="245"/>
-      <c r="AF43" s="245"/>
+      <c r="AC43" s="190"/>
+      <c r="AD43" s="190"/>
+      <c r="AE43" s="190"/>
+      <c r="AF43" s="190"/>
     </row>
     <row r="44" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
@@ -5660,15 +5579,11 @@
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
       <c r="W44" s="6"/>
-      <c r="X44" s="247"/>
-      <c r="Y44" s="247"/>
-      <c r="Z44" s="247"/>
-      <c r="AA44" s="247"/>
-      <c r="AB44" s="252"/>
-      <c r="AC44" s="253"/>
-      <c r="AD44" s="253"/>
-      <c r="AE44" s="253"/>
-      <c r="AF44" s="253"/>
+      <c r="AB44" s="187"/>
+      <c r="AC44" s="188"/>
+      <c r="AD44" s="188"/>
+      <c r="AE44" s="188"/>
+      <c r="AF44" s="188"/>
     </row>
     <row r="45" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
@@ -5694,15 +5609,15 @@
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
       <c r="W45" s="6"/>
-      <c r="X45" s="248"/>
-      <c r="Y45" s="248"/>
-      <c r="Z45" s="248"/>
-      <c r="AA45" s="248"/>
-      <c r="AB45" s="248"/>
-      <c r="AC45" s="248"/>
-      <c r="AD45" s="248"/>
-      <c r="AE45" s="248"/>
-      <c r="AF45" s="248"/>
+      <c r="X45" s="71"/>
+      <c r="Y45" s="71"/>
+      <c r="Z45" s="71"/>
+      <c r="AA45" s="71"/>
+      <c r="AB45" s="71"/>
+      <c r="AC45" s="71"/>
+      <c r="AD45" s="71"/>
+      <c r="AE45" s="71"/>
+      <c r="AF45" s="71"/>
     </row>
     <row r="46" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
@@ -5909,126 +5824,144 @@
       <c r="AF51" s="6"/>
     </row>
     <row r="62" spans="1:32" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B62" s="159" t="s">
+      <c r="B62" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="C62" s="168"/>
-      <c r="D62" s="168"/>
-      <c r="E62" s="168"/>
-      <c r="F62" s="168"/>
-      <c r="G62" s="168"/>
-      <c r="H62" s="168"/>
-      <c r="I62" s="168"/>
-      <c r="J62" s="168"/>
-      <c r="K62" s="168"/>
-      <c r="L62" s="168"/>
-      <c r="M62" s="168"/>
-      <c r="N62" s="168"/>
-      <c r="O62" s="168"/>
-      <c r="P62" s="168"/>
-      <c r="Q62" s="168"/>
-      <c r="R62" s="168"/>
-      <c r="S62" s="168"/>
-      <c r="T62" s="168"/>
-      <c r="U62" s="168"/>
-      <c r="V62" s="168"/>
-      <c r="W62" s="168"/>
-      <c r="X62" s="168"/>
-      <c r="Y62" s="168"/>
-      <c r="Z62" s="168"/>
-      <c r="AA62" s="168"/>
-      <c r="AB62" s="168"/>
-      <c r="AC62" s="168"/>
-      <c r="AD62" s="168"/>
-      <c r="AE62" s="168"/>
-      <c r="AF62" s="168"/>
+      <c r="C62" s="197"/>
+      <c r="D62" s="197"/>
+      <c r="E62" s="197"/>
+      <c r="F62" s="197"/>
+      <c r="G62" s="197"/>
+      <c r="H62" s="197"/>
+      <c r="I62" s="197"/>
+      <c r="J62" s="197"/>
+      <c r="K62" s="197"/>
+      <c r="L62" s="197"/>
+      <c r="M62" s="197"/>
+      <c r="N62" s="197"/>
+      <c r="O62" s="197"/>
+      <c r="P62" s="197"/>
+      <c r="Q62" s="197"/>
+      <c r="R62" s="197"/>
+      <c r="S62" s="197"/>
+      <c r="T62" s="197"/>
+      <c r="U62" s="197"/>
+      <c r="V62" s="197"/>
+      <c r="W62" s="197"/>
+      <c r="X62" s="197"/>
+      <c r="Y62" s="197"/>
+      <c r="Z62" s="197"/>
+      <c r="AA62" s="197"/>
+      <c r="AB62" s="197"/>
+      <c r="AC62" s="197"/>
+      <c r="AD62" s="197"/>
+      <c r="AE62" s="197"/>
+      <c r="AF62" s="197"/>
     </row>
     <row r="63" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="160" t="s">
+      <c r="B63" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="C63" s="168"/>
-      <c r="D63" s="168"/>
-      <c r="E63" s="168"/>
-      <c r="F63" s="168"/>
-      <c r="G63" s="168"/>
-      <c r="H63" s="168"/>
-      <c r="I63" s="168"/>
-      <c r="J63" s="168"/>
-      <c r="K63" s="168"/>
-      <c r="L63" s="168"/>
-      <c r="M63" s="168"/>
-      <c r="N63" s="168"/>
-      <c r="O63" s="168"/>
-      <c r="P63" s="168"/>
-      <c r="Q63" s="168"/>
-      <c r="R63" s="168"/>
-      <c r="S63" s="168"/>
-      <c r="T63" s="168"/>
-      <c r="U63" s="168"/>
-      <c r="V63" s="168"/>
-      <c r="W63" s="168"/>
-      <c r="X63" s="168"/>
-      <c r="Y63" s="168"/>
-      <c r="Z63" s="168"/>
-      <c r="AA63" s="168"/>
-      <c r="AB63" s="168"/>
-      <c r="AC63" s="168"/>
-      <c r="AD63" s="168"/>
-      <c r="AE63" s="168"/>
-      <c r="AF63" s="168"/>
+      <c r="C63" s="197"/>
+      <c r="D63" s="197"/>
+      <c r="E63" s="197"/>
+      <c r="F63" s="197"/>
+      <c r="G63" s="197"/>
+      <c r="H63" s="197"/>
+      <c r="I63" s="197"/>
+      <c r="J63" s="197"/>
+      <c r="K63" s="197"/>
+      <c r="L63" s="197"/>
+      <c r="M63" s="197"/>
+      <c r="N63" s="197"/>
+      <c r="O63" s="197"/>
+      <c r="P63" s="197"/>
+      <c r="Q63" s="197"/>
+      <c r="R63" s="197"/>
+      <c r="S63" s="197"/>
+      <c r="T63" s="197"/>
+      <c r="U63" s="197"/>
+      <c r="V63" s="197"/>
+      <c r="W63" s="197"/>
+      <c r="X63" s="197"/>
+      <c r="Y63" s="197"/>
+      <c r="Z63" s="197"/>
+      <c r="AA63" s="197"/>
+      <c r="AB63" s="197"/>
+      <c r="AC63" s="197"/>
+      <c r="AD63" s="197"/>
+      <c r="AE63" s="197"/>
+      <c r="AF63" s="197"/>
     </row>
     <row r="64" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="160" t="s">
+      <c r="B64" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="C64" s="168"/>
-      <c r="D64" s="168"/>
-      <c r="E64" s="168"/>
-      <c r="F64" s="168"/>
-      <c r="G64" s="168"/>
-      <c r="H64" s="168"/>
-      <c r="I64" s="168"/>
-      <c r="J64" s="168"/>
-      <c r="K64" s="168"/>
-      <c r="L64" s="168"/>
-      <c r="M64" s="168"/>
-      <c r="N64" s="168"/>
-      <c r="O64" s="168"/>
-      <c r="P64" s="168"/>
-      <c r="Q64" s="168"/>
-      <c r="R64" s="168"/>
-      <c r="S64" s="168"/>
-      <c r="T64" s="168"/>
-      <c r="U64" s="168"/>
-      <c r="V64" s="168"/>
-      <c r="W64" s="168"/>
-      <c r="X64" s="168"/>
-      <c r="Y64" s="168"/>
-      <c r="Z64" s="168"/>
-      <c r="AA64" s="168"/>
-      <c r="AB64" s="168"/>
-      <c r="AC64" s="168"/>
-      <c r="AD64" s="168"/>
-      <c r="AE64" s="168"/>
-      <c r="AF64" s="168"/>
+      <c r="C64" s="197"/>
+      <c r="D64" s="197"/>
+      <c r="E64" s="197"/>
+      <c r="F64" s="197"/>
+      <c r="G64" s="197"/>
+      <c r="H64" s="197"/>
+      <c r="I64" s="197"/>
+      <c r="J64" s="197"/>
+      <c r="K64" s="197"/>
+      <c r="L64" s="197"/>
+      <c r="M64" s="197"/>
+      <c r="N64" s="197"/>
+      <c r="O64" s="197"/>
+      <c r="P64" s="197"/>
+      <c r="Q64" s="197"/>
+      <c r="R64" s="197"/>
+      <c r="S64" s="197"/>
+      <c r="T64" s="197"/>
+      <c r="U64" s="197"/>
+      <c r="V64" s="197"/>
+      <c r="W64" s="197"/>
+      <c r="X64" s="197"/>
+      <c r="Y64" s="197"/>
+      <c r="Z64" s="197"/>
+      <c r="AA64" s="197"/>
+      <c r="AB64" s="197"/>
+      <c r="AC64" s="197"/>
+      <c r="AD64" s="197"/>
+      <c r="AE64" s="197"/>
+      <c r="AF64" s="197"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="AB44:AF44"/>
-    <mergeCell ref="B37:T43"/>
-    <mergeCell ref="AB43:AF43"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="G32:AF32"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="K16:AB16"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B21:E24"/>
-    <mergeCell ref="K24:AB24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="T27:AB27"/>
-    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="K25:W25"/>
+    <mergeCell ref="Q20:W20"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="S22:AB22"/>
+    <mergeCell ref="F22:J23"/>
+    <mergeCell ref="Y8:AC9"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="Q10:X11"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="AD10:AF11"/>
+    <mergeCell ref="B6:H9"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="B2:AF3"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="B64:AF64"/>
+    <mergeCell ref="K21:AB21"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="Y10:AC11"/>
+    <mergeCell ref="B62:AF62"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="B63:AF63"/>
+    <mergeCell ref="T29:AB29"/>
+    <mergeCell ref="F24:J24"/>
     <mergeCell ref="AE29:AF29"/>
     <mergeCell ref="T28:AB28"/>
     <mergeCell ref="AE23:AF23"/>
@@ -6045,45 +5978,27 @@
     <mergeCell ref="AD13:AF14"/>
     <mergeCell ref="Q8:X9"/>
     <mergeCell ref="S18:AB18"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="K16:AB16"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B21:E24"/>
+    <mergeCell ref="K24:AB24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="T27:AB27"/>
+    <mergeCell ref="F20:I20"/>
     <mergeCell ref="F17:J18"/>
     <mergeCell ref="K17:Q17"/>
     <mergeCell ref="S17:AB17"/>
-    <mergeCell ref="B2:AF3"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="B64:AF64"/>
-    <mergeCell ref="K21:AB21"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="K23:Q23"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="Y10:AC11"/>
-    <mergeCell ref="B62:AF62"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="K18:Q18"/>
-    <mergeCell ref="B63:AF63"/>
-    <mergeCell ref="T29:AB29"/>
-    <mergeCell ref="F24:J24"/>
     <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="Y8:AC9"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="Q10:X11"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="O20:P20"/>
     <mergeCell ref="AE25:AF25"/>
     <mergeCell ref="B16:E19"/>
     <mergeCell ref="S23:AB23"/>
-    <mergeCell ref="AD10:AF11"/>
-    <mergeCell ref="B6:H9"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="K25:W25"/>
-    <mergeCell ref="Q20:W20"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K22:Q22"/>
-    <mergeCell ref="S22:AB22"/>
-    <mergeCell ref="F22:J23"/>
+    <mergeCell ref="AB44:AF44"/>
+    <mergeCell ref="B37:T43"/>
+    <mergeCell ref="AB43:AF43"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="G32:AF32"/>
     <mergeCell ref="AB36:AF38"/>
   </mergeCells>
   <dataValidations count="1">

--- a/template/template.xlsx
+++ b/template/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrmau\Documents\Cevin\SysBill\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F88F271-3D6B-4458-9159-2B32F6EABB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC079B1-976E-4726-9913-1AFE572B23CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-16200" windowWidth="23895" windowHeight="15150" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UT" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'SC-SF'!$A$1:$AG$69</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'SC-SF'!$A$1:$AG$65</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">UT!$A$1:$AF$66</definedName>
     <definedName name="SCSF_DDowns" localSheetId="1">[1]!SCSF_Billings[Unit]</definedName>
     <definedName name="SCSF_DDowns">[1]!SCSF_Billings[Unit]</definedName>
@@ -247,8 +247,8 @@
     <numFmt numFmtId="168" formatCode="#,##0.00;[Red]#,##0.00"/>
     <numFmt numFmtId="169" formatCode="#&quot; m3&quot;"/>
     <numFmt numFmtId="170" formatCode="0.00;[Red]0.00"/>
-    <numFmt numFmtId="172" formatCode="#&quot; kVa&quot;"/>
-    <numFmt numFmtId="173" formatCode="#,##0;[Red]#,##0"/>
+    <numFmt numFmtId="171" formatCode="#&quot; kVa&quot;"/>
+    <numFmt numFmtId="172" formatCode="#,##0;[Red]#,##0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -549,7 +549,7 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="246">
+  <cellXfs count="252">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
@@ -659,9 +659,6 @@
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -712,259 +709,366 @@
     <xf numFmtId="168" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -972,6 +1076,69 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -984,261 +1151,112 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="168" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1273,7 +1291,7 @@
       <xdr:col>31</xdr:col>
       <xdr:colOff>609601</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>66253</xdr:rowOff>
+      <xdr:rowOff>66252</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1440,7 +1458,7 @@
       <xdr:col>31</xdr:col>
       <xdr:colOff>600077</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>75647</xdr:rowOff>
+      <xdr:rowOff>75648</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1837,8 +1855,8 @@
   </sheetPr>
   <dimension ref="A1:AL64"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A28" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="Z51" sqref="Z51"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A19" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="AJ28" sqref="AJ28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1878,147 +1896,147 @@
     <row r="1" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:38" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74"/>
-      <c r="U2" s="74"/>
-      <c r="V2" s="74"/>
-      <c r="W2" s="74"/>
-      <c r="X2" s="74"/>
-      <c r="Y2" s="74"/>
-      <c r="Z2" s="74"/>
-      <c r="AA2" s="74"/>
-      <c r="AB2" s="74"/>
-      <c r="AC2" s="74"/>
-      <c r="AD2" s="74"/>
-      <c r="AE2" s="74"/>
-      <c r="AF2" s="74"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
+      <c r="W2" s="112"/>
+      <c r="X2" s="112"/>
+      <c r="Y2" s="112"/>
+      <c r="Z2" s="112"/>
+      <c r="AA2" s="112"/>
+      <c r="AB2" s="112"/>
+      <c r="AC2" s="112"/>
+      <c r="AD2" s="112"/>
+      <c r="AE2" s="112"/>
+      <c r="AF2" s="112"/>
     </row>
     <row r="3" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="74"/>
-      <c r="T3" s="74"/>
-      <c r="U3" s="74"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="74"/>
-      <c r="X3" s="74"/>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="74"/>
-      <c r="AA3" s="74"/>
-      <c r="AB3" s="74"/>
-      <c r="AC3" s="74"/>
-      <c r="AD3" s="74"/>
-      <c r="AE3" s="74"/>
-      <c r="AF3" s="74"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="112"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="112"/>
+      <c r="P3" s="112"/>
+      <c r="Q3" s="112"/>
+      <c r="R3" s="112"/>
+      <c r="S3" s="112"/>
+      <c r="T3" s="112"/>
+      <c r="U3" s="112"/>
+      <c r="V3" s="112"/>
+      <c r="W3" s="112"/>
+      <c r="X3" s="112"/>
+      <c r="Y3" s="112"/>
+      <c r="Z3" s="112"/>
+      <c r="AA3" s="112"/>
+      <c r="AB3" s="112"/>
+      <c r="AC3" s="112"/>
+      <c r="AD3" s="112"/>
+      <c r="AE3" s="112"/>
+      <c r="AF3" s="112"/>
     </row>
     <row r="4" spans="1:38" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="113" t="s">
+      <c r="B4" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="74"/>
-      <c r="T4" s="74"/>
-      <c r="U4" s="74"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="74"/>
-      <c r="X4" s="74"/>
-      <c r="Y4" s="74"/>
-      <c r="Z4" s="74"/>
-      <c r="AA4" s="74"/>
-      <c r="AB4" s="74"/>
-      <c r="AC4" s="74"/>
-      <c r="AD4" s="74"/>
-      <c r="AE4" s="74"/>
-      <c r="AF4" s="74"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
+      <c r="M4" s="112"/>
+      <c r="N4" s="112"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
+      <c r="R4" s="112"/>
+      <c r="S4" s="112"/>
+      <c r="T4" s="112"/>
+      <c r="U4" s="112"/>
+      <c r="V4" s="112"/>
+      <c r="W4" s="112"/>
+      <c r="X4" s="112"/>
+      <c r="Y4" s="112"/>
+      <c r="Z4" s="112"/>
+      <c r="AA4" s="112"/>
+      <c r="AB4" s="112"/>
+      <c r="AC4" s="112"/>
+      <c r="AD4" s="112"/>
+      <c r="AE4" s="112"/>
+      <c r="AF4" s="112"/>
     </row>
     <row r="5" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="158" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="150"/>
-      <c r="D5" s="150"/>
-      <c r="E5" s="150"/>
-      <c r="F5" s="150"/>
-      <c r="G5" s="150"/>
-      <c r="H5" s="150"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="74"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74"/>
-      <c r="X5" s="74"/>
-      <c r="Y5" s="74"/>
-      <c r="Z5" s="74"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="164"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="112"/>
+      <c r="P5" s="112"/>
+      <c r="Q5" s="112"/>
+      <c r="R5" s="112"/>
+      <c r="S5" s="112"/>
+      <c r="T5" s="112"/>
+      <c r="U5" s="112"/>
+      <c r="V5" s="112"/>
+      <c r="W5" s="112"/>
+      <c r="X5" s="112"/>
+      <c r="Y5" s="112"/>
+      <c r="Z5" s="112"/>
       <c r="AA5" s="7"/>
-      <c r="AB5" s="73" t="s">
+      <c r="AB5" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="AC5" s="74"/>
-      <c r="AD5" s="74"/>
-      <c r="AE5" s="74"/>
-      <c r="AF5" s="47" t="s">
+      <c r="AC5" s="112"/>
+      <c r="AD5" s="112"/>
+      <c r="AE5" s="112"/>
+      <c r="AF5" s="46" t="s">
         <v>55</v>
       </c>
       <c r="AG5" s="8"/>
@@ -2030,15 +2048,15 @@
     </row>
     <row r="6" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="150"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="132"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -2048,35 +2066,35 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
-      <c r="R6" s="104"/>
-      <c r="S6" s="74"/>
-      <c r="T6" s="74"/>
-      <c r="U6" s="74"/>
-      <c r="V6" s="74"/>
-      <c r="W6" s="74"/>
-      <c r="X6" s="82"/>
-      <c r="Y6" s="74"/>
+      <c r="R6" s="120"/>
+      <c r="S6" s="112"/>
+      <c r="T6" s="112"/>
+      <c r="U6" s="112"/>
+      <c r="V6" s="112"/>
+      <c r="W6" s="112"/>
+      <c r="X6" s="161"/>
+      <c r="Y6" s="112"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="7"/>
-      <c r="AB6" s="73" t="s">
+      <c r="AB6" s="157" t="s">
         <v>2</v>
       </c>
-      <c r="AC6" s="74"/>
-      <c r="AD6" s="74"/>
-      <c r="AE6" s="74"/>
-      <c r="AF6" s="46" t="s">
+      <c r="AC6" s="112"/>
+      <c r="AD6" s="112"/>
+      <c r="AE6" s="112"/>
+      <c r="AF6" s="45" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="150"/>
-      <c r="C7" s="150"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -2104,13 +2122,13 @@
     </row>
     <row r="8" spans="1:38" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="150"/>
-      <c r="C8" s="150"/>
-      <c r="D8" s="150"/>
-      <c r="E8" s="150"/>
-      <c r="F8" s="150"/>
-      <c r="G8" s="150"/>
-      <c r="H8" s="150"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -2119,38 +2137,38 @@
       <c r="N8" s="9"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
-      <c r="Q8" s="85" t="s">
+      <c r="Q8" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="80"/>
-      <c r="S8" s="80"/>
-      <c r="T8" s="80"/>
-      <c r="U8" s="80"/>
-      <c r="V8" s="80"/>
-      <c r="W8" s="80"/>
-      <c r="X8" s="81"/>
-      <c r="Y8" s="85" t="s">
+      <c r="R8" s="137"/>
+      <c r="S8" s="137"/>
+      <c r="T8" s="137"/>
+      <c r="U8" s="137"/>
+      <c r="V8" s="137"/>
+      <c r="W8" s="137"/>
+      <c r="X8" s="138"/>
+      <c r="Y8" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="Z8" s="80"/>
-      <c r="AA8" s="80"/>
-      <c r="AB8" s="80"/>
-      <c r="AC8" s="81"/>
-      <c r="AD8" s="85" t="s">
+      <c r="Z8" s="137"/>
+      <c r="AA8" s="137"/>
+      <c r="AB8" s="137"/>
+      <c r="AC8" s="138"/>
+      <c r="AD8" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="AE8" s="80"/>
-      <c r="AF8" s="81"/>
+      <c r="AE8" s="137"/>
+      <c r="AF8" s="138"/>
     </row>
     <row r="9" spans="1:38" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="150"/>
-      <c r="C9" s="150"/>
-      <c r="D9" s="150"/>
-      <c r="E9" s="150"/>
-      <c r="F9" s="150"/>
-      <c r="G9" s="150"/>
-      <c r="H9" s="150"/>
+      <c r="B9" s="132"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="132"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -2159,22 +2177,22 @@
       <c r="N9" s="9"/>
       <c r="O9" s="6"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="86"/>
-      <c r="R9" s="87"/>
-      <c r="S9" s="87"/>
-      <c r="T9" s="87"/>
-      <c r="U9" s="87"/>
-      <c r="V9" s="87"/>
-      <c r="W9" s="87"/>
-      <c r="X9" s="88"/>
-      <c r="Y9" s="86"/>
-      <c r="Z9" s="87"/>
-      <c r="AA9" s="87"/>
-      <c r="AB9" s="87"/>
-      <c r="AC9" s="88"/>
-      <c r="AD9" s="86"/>
-      <c r="AE9" s="87"/>
-      <c r="AF9" s="88"/>
+      <c r="Q9" s="139"/>
+      <c r="R9" s="140"/>
+      <c r="S9" s="140"/>
+      <c r="T9" s="140"/>
+      <c r="U9" s="140"/>
+      <c r="V9" s="140"/>
+      <c r="W9" s="140"/>
+      <c r="X9" s="141"/>
+      <c r="Y9" s="139"/>
+      <c r="Z9" s="140"/>
+      <c r="AA9" s="140"/>
+      <c r="AB9" s="140"/>
+      <c r="AC9" s="141"/>
+      <c r="AD9" s="139"/>
+      <c r="AE9" s="140"/>
+      <c r="AF9" s="141"/>
     </row>
     <row r="10" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -2193,44 +2211,44 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="96">
+      <c r="Q10" s="147">
         <v>44986</v>
       </c>
-      <c r="R10" s="80"/>
-      <c r="S10" s="80"/>
-      <c r="T10" s="80"/>
-      <c r="U10" s="80"/>
-      <c r="V10" s="80"/>
-      <c r="W10" s="80"/>
-      <c r="X10" s="81"/>
-      <c r="Y10" s="98">
+      <c r="R10" s="137"/>
+      <c r="S10" s="137"/>
+      <c r="T10" s="137"/>
+      <c r="U10" s="137"/>
+      <c r="V10" s="137"/>
+      <c r="W10" s="137"/>
+      <c r="X10" s="138"/>
+      <c r="Y10" s="151">
         <v>0</v>
       </c>
-      <c r="Z10" s="80"/>
-      <c r="AA10" s="80"/>
-      <c r="AB10" s="80"/>
-      <c r="AC10" s="81"/>
-      <c r="AD10" s="115" t="s">
+      <c r="Z10" s="137"/>
+      <c r="AA10" s="137"/>
+      <c r="AB10" s="137"/>
+      <c r="AC10" s="138"/>
+      <c r="AD10" s="142" t="s">
         <v>47</v>
       </c>
-      <c r="AE10" s="80"/>
-      <c r="AF10" s="81"/>
+      <c r="AE10" s="137"/>
+      <c r="AF10" s="138"/>
     </row>
     <row r="11" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="150"/>
+      <c r="C11" s="132"/>
       <c r="D11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="79" t="s">
+      <c r="E11" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="150"/>
-      <c r="G11" s="150"/>
-      <c r="H11" s="150"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="132"/>
+      <c r="H11" s="132"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -2239,22 +2257,22 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="86"/>
-      <c r="R11" s="87"/>
-      <c r="S11" s="87"/>
-      <c r="T11" s="87"/>
-      <c r="U11" s="87"/>
-      <c r="V11" s="87"/>
-      <c r="W11" s="87"/>
-      <c r="X11" s="88"/>
-      <c r="Y11" s="86"/>
-      <c r="Z11" s="87"/>
-      <c r="AA11" s="87"/>
-      <c r="AB11" s="87"/>
-      <c r="AC11" s="88"/>
-      <c r="AD11" s="86"/>
-      <c r="AE11" s="87"/>
-      <c r="AF11" s="88"/>
+      <c r="Q11" s="139"/>
+      <c r="R11" s="140"/>
+      <c r="S11" s="140"/>
+      <c r="T11" s="140"/>
+      <c r="U11" s="140"/>
+      <c r="V11" s="140"/>
+      <c r="W11" s="140"/>
+      <c r="X11" s="141"/>
+      <c r="Y11" s="139"/>
+      <c r="Z11" s="140"/>
+      <c r="AA11" s="140"/>
+      <c r="AB11" s="140"/>
+      <c r="AC11" s="141"/>
+      <c r="AD11" s="139"/>
+      <c r="AE11" s="140"/>
+      <c r="AF11" s="141"/>
     </row>
     <row r="12" spans="1:38" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -2292,77 +2310,77 @@
     </row>
     <row r="13" spans="1:38" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="93" t="s">
+      <c r="B13" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="93"/>
-      <c r="N13" s="93"/>
-      <c r="O13" s="93"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="93"/>
-      <c r="S13" s="93"/>
-      <c r="T13" s="93"/>
-      <c r="U13" s="93"/>
-      <c r="V13" s="93"/>
-      <c r="W13" s="93"/>
+      <c r="C13" s="144"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="144"/>
+      <c r="G13" s="144"/>
+      <c r="H13" s="144"/>
+      <c r="I13" s="144"/>
+      <c r="J13" s="144"/>
+      <c r="K13" s="144"/>
+      <c r="L13" s="144"/>
+      <c r="M13" s="144"/>
+      <c r="N13" s="144"/>
+      <c r="O13" s="144"/>
+      <c r="P13" s="144"/>
+      <c r="Q13" s="144"/>
+      <c r="R13" s="144"/>
+      <c r="S13" s="144"/>
+      <c r="T13" s="144"/>
+      <c r="U13" s="144"/>
+      <c r="V13" s="144"/>
+      <c r="W13" s="144"/>
       <c r="X13" s="40"/>
       <c r="Y13" s="40"/>
       <c r="Z13" s="40"/>
-      <c r="AA13" s="93" t="s">
+      <c r="AA13" s="144" t="s">
         <v>39</v>
       </c>
-      <c r="AB13" s="93"/>
-      <c r="AC13" s="93"/>
-      <c r="AD13" s="97" t="s">
+      <c r="AB13" s="144"/>
+      <c r="AC13" s="144"/>
+      <c r="AD13" s="148" t="s">
         <v>9</v>
       </c>
-      <c r="AE13" s="80"/>
-      <c r="AF13" s="80"/>
+      <c r="AE13" s="137"/>
+      <c r="AF13" s="137"/>
     </row>
     <row r="14" spans="1:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="94"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="94"/>
-      <c r="N14" s="94"/>
-      <c r="O14" s="94"/>
-      <c r="P14" s="94"/>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="94"/>
-      <c r="S14" s="94"/>
-      <c r="T14" s="94"/>
-      <c r="U14" s="94"/>
-      <c r="V14" s="94"/>
-      <c r="W14" s="94"/>
+      <c r="B14" s="145"/>
+      <c r="C14" s="145"/>
+      <c r="D14" s="145"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="145"/>
+      <c r="H14" s="145"/>
+      <c r="I14" s="145"/>
+      <c r="J14" s="145"/>
+      <c r="K14" s="145"/>
+      <c r="L14" s="145"/>
+      <c r="M14" s="145"/>
+      <c r="N14" s="145"/>
+      <c r="O14" s="145"/>
+      <c r="P14" s="145"/>
+      <c r="Q14" s="145"/>
+      <c r="R14" s="145"/>
+      <c r="S14" s="145"/>
+      <c r="T14" s="145"/>
+      <c r="U14" s="145"/>
+      <c r="V14" s="145"/>
+      <c r="W14" s="145"/>
       <c r="X14" s="39"/>
       <c r="Y14" s="39"/>
       <c r="Z14" s="39"/>
-      <c r="AA14" s="94"/>
-      <c r="AB14" s="94"/>
-      <c r="AC14" s="94"/>
-      <c r="AD14" s="87"/>
-      <c r="AE14" s="87"/>
-      <c r="AF14" s="87"/>
+      <c r="AA14" s="145"/>
+      <c r="AB14" s="145"/>
+      <c r="AC14" s="145"/>
+      <c r="AD14" s="140"/>
+      <c r="AE14" s="140"/>
+      <c r="AF14" s="140"/>
     </row>
     <row r="15" spans="1:38" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -2399,121 +2417,121 @@
       <c r="AF15" s="14"/>
     </row>
     <row r="16" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="77"/>
-      <c r="B16" s="111" t="s">
+      <c r="A16" s="111"/>
+      <c r="B16" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="70"/>
-      <c r="D16" s="67" t="s">
+      <c r="C16" s="122"/>
+      <c r="D16" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="224" t="s">
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="225">
+      <c r="L16" s="130">
         <v>44946</v>
       </c>
-      <c r="M16" s="63"/>
-      <c r="N16" s="63"/>
-      <c r="O16" s="64"/>
-      <c r="P16" s="83" t="s">
+      <c r="M16" s="88"/>
+      <c r="N16" s="88"/>
+      <c r="O16" s="89"/>
+      <c r="P16" s="162" t="s">
         <v>13</v>
       </c>
-      <c r="Q16" s="226" t="s">
+      <c r="Q16" s="160" t="s">
         <v>14</v>
       </c>
-      <c r="R16" s="64"/>
-      <c r="S16" s="225">
+      <c r="R16" s="89"/>
+      <c r="S16" s="130">
         <v>44977</v>
       </c>
-      <c r="T16" s="63"/>
-      <c r="U16" s="63"/>
-      <c r="V16" s="63"/>
-      <c r="W16" s="64"/>
+      <c r="T16" s="88"/>
+      <c r="U16" s="88"/>
+      <c r="V16" s="88"/>
+      <c r="W16" s="89"/>
       <c r="X16" s="38"/>
       <c r="Y16" s="38"/>
       <c r="Z16" s="38"/>
-      <c r="AA16" s="102"/>
-      <c r="AB16" s="102"/>
+      <c r="AA16" s="165"/>
+      <c r="AB16" s="165"/>
       <c r="AC16" s="38"/>
       <c r="AD16" s="42"/>
-      <c r="AE16" s="89"/>
-      <c r="AF16" s="90"/>
+      <c r="AE16" s="152"/>
+      <c r="AF16" s="96"/>
     </row>
     <row r="17" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="74"/>
-      <c r="B17" s="106"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="67" t="s">
+      <c r="A17" s="112"/>
+      <c r="B17" s="123"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="146" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="179">
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="159">
         <v>1269.0999999999999</v>
       </c>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="84"/>
-      <c r="Q17" s="185">
+      <c r="L17" s="150"/>
+      <c r="M17" s="150"/>
+      <c r="N17" s="150"/>
+      <c r="O17" s="122"/>
+      <c r="P17" s="163"/>
+      <c r="Q17" s="149">
         <v>1269.0999999999999</v>
       </c>
-      <c r="R17" s="69"/>
-      <c r="S17" s="69"/>
-      <c r="T17" s="69"/>
-      <c r="U17" s="69"/>
-      <c r="V17" s="69"/>
-      <c r="W17" s="70"/>
+      <c r="R17" s="150"/>
+      <c r="S17" s="150"/>
+      <c r="T17" s="150"/>
+      <c r="U17" s="150"/>
+      <c r="V17" s="150"/>
+      <c r="W17" s="122"/>
       <c r="X17" s="38"/>
       <c r="Y17" s="38"/>
       <c r="Z17" s="38"/>
-      <c r="AA17" s="102"/>
-      <c r="AB17" s="102"/>
+      <c r="AA17" s="165"/>
+      <c r="AB17" s="165"/>
       <c r="AC17" s="38"/>
       <c r="AD17" s="42"/>
-      <c r="AE17" s="89"/>
-      <c r="AF17" s="90"/>
+      <c r="AE17" s="152"/>
+      <c r="AF17" s="96"/>
     </row>
     <row r="18" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="106"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="67" t="s">
+      <c r="B18" s="123"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="198">
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="174">
         <v>1</v>
       </c>
-      <c r="L18" s="198"/>
-      <c r="M18" s="198"/>
-      <c r="N18" s="198"/>
-      <c r="O18" s="198"/>
-      <c r="P18" s="198"/>
-      <c r="Q18" s="198"/>
-      <c r="R18" s="198"/>
-      <c r="S18" s="198"/>
-      <c r="T18" s="198"/>
-      <c r="U18" s="198"/>
-      <c r="V18" s="198"/>
-      <c r="W18" s="198"/>
+      <c r="L18" s="174"/>
+      <c r="M18" s="174"/>
+      <c r="N18" s="174"/>
+      <c r="O18" s="174"/>
+      <c r="P18" s="174"/>
+      <c r="Q18" s="174"/>
+      <c r="R18" s="174"/>
+      <c r="S18" s="174"/>
+      <c r="T18" s="174"/>
+      <c r="U18" s="174"/>
+      <c r="V18" s="174"/>
+      <c r="W18" s="174"/>
       <c r="X18" s="41"/>
       <c r="Y18" s="41"/>
       <c r="Z18" s="41"/>
@@ -2526,166 +2544,166 @@
     </row>
     <row r="19" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="106"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="68" t="s">
+      <c r="B19" s="123"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="175" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="221">
+      <c r="E19" s="150"/>
+      <c r="F19" s="150"/>
+      <c r="G19" s="150"/>
+      <c r="H19" s="150"/>
+      <c r="I19" s="150"/>
+      <c r="J19" s="122"/>
+      <c r="K19" s="127">
         <f>(Q17-K17)*K18</f>
         <v>0</v>
       </c>
-      <c r="L19" s="222"/>
-      <c r="M19" s="222"/>
-      <c r="N19" s="222"/>
-      <c r="O19" s="222"/>
-      <c r="P19" s="222"/>
-      <c r="Q19" s="222"/>
-      <c r="R19" s="222"/>
-      <c r="S19" s="222"/>
-      <c r="T19" s="222"/>
-      <c r="U19" s="222"/>
-      <c r="V19" s="222"/>
-      <c r="W19" s="223"/>
-      <c r="X19" s="75" t="s">
+      <c r="L19" s="128"/>
+      <c r="M19" s="128"/>
+      <c r="N19" s="128"/>
+      <c r="O19" s="128"/>
+      <c r="P19" s="128"/>
+      <c r="Q19" s="128"/>
+      <c r="R19" s="128"/>
+      <c r="S19" s="128"/>
+      <c r="T19" s="128"/>
+      <c r="U19" s="128"/>
+      <c r="V19" s="128"/>
+      <c r="W19" s="129"/>
+      <c r="X19" s="154" t="s">
         <v>35</v>
       </c>
-      <c r="Y19" s="76"/>
-      <c r="Z19" s="76"/>
-      <c r="AA19" s="78">
+      <c r="Y19" s="108"/>
+      <c r="Z19" s="108"/>
+      <c r="AA19" s="105">
         <v>1800</v>
       </c>
-      <c r="AB19" s="78"/>
-      <c r="AC19" s="78"/>
+      <c r="AB19" s="105"/>
+      <c r="AC19" s="105"/>
       <c r="AD19" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE19" s="95">
+      <c r="AE19" s="100">
         <v>0</v>
       </c>
-      <c r="AF19" s="95"/>
+      <c r="AF19" s="100"/>
     </row>
     <row r="20" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="106"/>
-      <c r="C20" s="112"/>
-      <c r="D20" s="71" t="s">
+      <c r="B20" s="123"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="176" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72" t="s">
+      <c r="E20" s="114"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="I20" s="72"/>
-      <c r="J20" s="121"/>
-      <c r="K20" s="204">
+      <c r="I20" s="114"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="167">
         <v>88</v>
       </c>
-      <c r="L20" s="205"/>
-      <c r="M20" s="205"/>
-      <c r="N20" s="205"/>
-      <c r="O20" s="205"/>
-      <c r="P20" s="205"/>
-      <c r="Q20" s="205"/>
-      <c r="R20" s="205"/>
-      <c r="S20" s="205"/>
-      <c r="T20" s="205"/>
-      <c r="U20" s="205"/>
-      <c r="V20" s="205"/>
-      <c r="W20" s="206"/>
-      <c r="X20" s="75" t="s">
+      <c r="L20" s="168"/>
+      <c r="M20" s="168"/>
+      <c r="N20" s="168"/>
+      <c r="O20" s="168"/>
+      <c r="P20" s="168"/>
+      <c r="Q20" s="168"/>
+      <c r="R20" s="168"/>
+      <c r="S20" s="168"/>
+      <c r="T20" s="168"/>
+      <c r="U20" s="168"/>
+      <c r="V20" s="168"/>
+      <c r="W20" s="169"/>
+      <c r="X20" s="154" t="s">
         <v>35</v>
       </c>
-      <c r="Y20" s="76"/>
-      <c r="Z20" s="76"/>
-      <c r="AA20" s="78">
+      <c r="Y20" s="108"/>
+      <c r="Z20" s="108"/>
+      <c r="AA20" s="105">
         <v>1800</v>
       </c>
-      <c r="AB20" s="78"/>
-      <c r="AC20" s="78"/>
-      <c r="AD20" s="118" t="s">
+      <c r="AB20" s="105"/>
+      <c r="AC20" s="105"/>
+      <c r="AD20" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="AE20" s="95">
+      <c r="AE20" s="100">
         <f>K20*AA20</f>
         <v>158400</v>
       </c>
-      <c r="AF20" s="95"/>
+      <c r="AF20" s="100"/>
     </row>
     <row r="21" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="106"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="136" t="s">
+      <c r="B21" s="123"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="123"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="123" t="s">
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="I21" s="123"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="207"/>
-      <c r="L21" s="208"/>
-      <c r="M21" s="208"/>
-      <c r="N21" s="208"/>
-      <c r="O21" s="208"/>
-      <c r="P21" s="208"/>
-      <c r="Q21" s="208"/>
-      <c r="R21" s="208"/>
-      <c r="S21" s="208"/>
-      <c r="T21" s="208"/>
-      <c r="U21" s="208"/>
-      <c r="V21" s="208"/>
-      <c r="W21" s="209"/>
-      <c r="X21" s="75"/>
-      <c r="Y21" s="76"/>
-      <c r="Z21" s="76"/>
-      <c r="AA21" s="78"/>
-      <c r="AB21" s="78"/>
-      <c r="AC21" s="78"/>
-      <c r="AD21" s="118"/>
-      <c r="AE21" s="95"/>
-      <c r="AF21" s="95"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="143"/>
+      <c r="K21" s="170"/>
+      <c r="L21" s="171"/>
+      <c r="M21" s="171"/>
+      <c r="N21" s="171"/>
+      <c r="O21" s="171"/>
+      <c r="P21" s="171"/>
+      <c r="Q21" s="171"/>
+      <c r="R21" s="171"/>
+      <c r="S21" s="171"/>
+      <c r="T21" s="171"/>
+      <c r="U21" s="171"/>
+      <c r="V21" s="171"/>
+      <c r="W21" s="172"/>
+      <c r="X21" s="154"/>
+      <c r="Y21" s="108"/>
+      <c r="Z21" s="108"/>
+      <c r="AA21" s="105"/>
+      <c r="AB21" s="105"/>
+      <c r="AC21" s="105"/>
+      <c r="AD21" s="106"/>
+      <c r="AE21" s="100"/>
+      <c r="AF21" s="100"/>
     </row>
     <row r="22" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="106"/>
-      <c r="C22" s="109"/>
-      <c r="D22" s="114" t="s">
+      <c r="B22" s="123"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="218">
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="82">
         <v>0.03</v>
       </c>
-      <c r="L22" s="219"/>
-      <c r="M22" s="219"/>
-      <c r="N22" s="219"/>
-      <c r="O22" s="219"/>
-      <c r="P22" s="219"/>
-      <c r="Q22" s="219"/>
-      <c r="R22" s="219"/>
-      <c r="S22" s="219"/>
-      <c r="T22" s="219"/>
-      <c r="U22" s="219"/>
-      <c r="V22" s="219"/>
-      <c r="W22" s="220"/>
+      <c r="L22" s="83"/>
+      <c r="M22" s="83"/>
+      <c r="N22" s="83"/>
+      <c r="O22" s="83"/>
+      <c r="P22" s="83"/>
+      <c r="Q22" s="83"/>
+      <c r="R22" s="83"/>
+      <c r="S22" s="83"/>
+      <c r="T22" s="83"/>
+      <c r="U22" s="83"/>
+      <c r="V22" s="83"/>
+      <c r="W22" s="84"/>
       <c r="X22" s="14"/>
       <c r="Y22" s="14"/>
       <c r="Z22" s="14"/>
@@ -2695,32 +2713,32 @@
       <c r="AD22" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE22" s="100">
+      <c r="AE22" s="155">
         <f>AE20*K22</f>
         <v>4752</v>
       </c>
-      <c r="AF22" s="101"/>
+      <c r="AF22" s="156"/>
     </row>
     <row r="23" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="45"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="14"/>
       <c r="D23" s="16"/>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
-      <c r="G23" s="44"/>
+      <c r="G23" s="43"/>
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
-      <c r="L23" s="227"/>
-      <c r="M23" s="227"/>
-      <c r="N23" s="227"/>
-      <c r="O23" s="227"/>
-      <c r="P23" s="227"/>
-      <c r="Q23" s="227"/>
-      <c r="R23" s="227"/>
-      <c r="S23" s="227"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="62"/>
+      <c r="S23" s="62"/>
       <c r="T23" s="14"/>
       <c r="U23" s="14"/>
       <c r="V23" s="14"/>
@@ -2734,91 +2752,91 @@
       <c r="AD23" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE23" s="92">
+      <c r="AE23" s="118">
         <f>AE20+AE22</f>
         <v>163152</v>
       </c>
-      <c r="AF23" s="90"/>
+      <c r="AF23" s="96"/>
       <c r="AI23" s="17"/>
     </row>
     <row r="24" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="105" t="s">
+      <c r="B24" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="70"/>
-      <c r="D24" s="62" t="s">
+      <c r="C24" s="122"/>
+      <c r="D24" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="228" t="s">
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="225">
+      <c r="L24" s="130">
         <v>44946</v>
       </c>
-      <c r="M24" s="63"/>
-      <c r="N24" s="63"/>
-      <c r="O24" s="64"/>
-      <c r="P24" s="65" t="s">
+      <c r="M24" s="88"/>
+      <c r="N24" s="88"/>
+      <c r="O24" s="89"/>
+      <c r="P24" s="166" t="s">
         <v>13</v>
       </c>
-      <c r="Q24" s="65" t="s">
+      <c r="Q24" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="R24" s="64"/>
-      <c r="S24" s="225">
+      <c r="R24" s="89"/>
+      <c r="S24" s="130">
         <v>44977</v>
       </c>
-      <c r="T24" s="63"/>
-      <c r="U24" s="63"/>
-      <c r="V24" s="63"/>
-      <c r="W24" s="64"/>
+      <c r="T24" s="88"/>
+      <c r="U24" s="88"/>
+      <c r="V24" s="88"/>
+      <c r="W24" s="89"/>
       <c r="X24" s="18"/>
       <c r="Y24" s="18"/>
       <c r="Z24" s="18"/>
-      <c r="AA24" s="102"/>
-      <c r="AB24" s="102"/>
+      <c r="AA24" s="165"/>
+      <c r="AB24" s="165"/>
       <c r="AC24" s="18"/>
       <c r="AD24" s="42"/>
-      <c r="AE24" s="119"/>
-      <c r="AF24" s="90"/>
+      <c r="AE24" s="107"/>
+      <c r="AF24" s="96"/>
     </row>
     <row r="25" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="106"/>
-      <c r="C25" s="107"/>
-      <c r="D25" s="62" t="s">
+      <c r="B25" s="123"/>
+      <c r="C25" s="124"/>
+      <c r="D25" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="179">
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="89"/>
+      <c r="K25" s="159">
         <v>1269.0999999999999</v>
       </c>
-      <c r="L25" s="69"/>
-      <c r="M25" s="69"/>
-      <c r="N25" s="69"/>
-      <c r="O25" s="70"/>
-      <c r="P25" s="66"/>
-      <c r="Q25" s="185">
+      <c r="L25" s="150"/>
+      <c r="M25" s="150"/>
+      <c r="N25" s="150"/>
+      <c r="O25" s="122"/>
+      <c r="P25" s="173"/>
+      <c r="Q25" s="149">
         <v>1269.0999999999999</v>
       </c>
-      <c r="R25" s="69"/>
-      <c r="S25" s="69"/>
-      <c r="T25" s="69"/>
-      <c r="U25" s="69"/>
-      <c r="V25" s="69"/>
-      <c r="W25" s="70"/>
+      <c r="R25" s="150"/>
+      <c r="S25" s="150"/>
+      <c r="T25" s="150"/>
+      <c r="U25" s="150"/>
+      <c r="V25" s="150"/>
+      <c r="W25" s="122"/>
       <c r="X25" s="20"/>
       <c r="Y25" s="20"/>
       <c r="Z25" s="20"/>
@@ -2826,85 +2844,85 @@
       <c r="AB25" s="21"/>
       <c r="AC25" s="18"/>
       <c r="AD25" s="42"/>
-      <c r="AE25" s="99"/>
-      <c r="AF25" s="90"/>
+      <c r="AE25" s="153"/>
+      <c r="AF25" s="96"/>
     </row>
     <row r="26" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="106"/>
-      <c r="C26" s="107"/>
-      <c r="D26" s="137" t="s">
+      <c r="B26" s="123"/>
+      <c r="C26" s="124"/>
+      <c r="D26" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="229">
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="88"/>
+      <c r="J26" s="89"/>
+      <c r="K26" s="94">
         <f>Q25-K25</f>
         <v>0</v>
       </c>
-      <c r="L26" s="63"/>
-      <c r="M26" s="63"/>
-      <c r="N26" s="63"/>
-      <c r="O26" s="63"/>
-      <c r="P26" s="63"/>
-      <c r="Q26" s="63"/>
-      <c r="R26" s="63"/>
-      <c r="S26" s="63"/>
-      <c r="T26" s="63"/>
-      <c r="U26" s="63"/>
-      <c r="V26" s="63"/>
-      <c r="W26" s="64"/>
-      <c r="X26" s="76" t="s">
+      <c r="L26" s="88"/>
+      <c r="M26" s="88"/>
+      <c r="N26" s="88"/>
+      <c r="O26" s="88"/>
+      <c r="P26" s="88"/>
+      <c r="Q26" s="88"/>
+      <c r="R26" s="88"/>
+      <c r="S26" s="88"/>
+      <c r="T26" s="88"/>
+      <c r="U26" s="88"/>
+      <c r="V26" s="88"/>
+      <c r="W26" s="89"/>
+      <c r="X26" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="Y26" s="90"/>
-      <c r="Z26" s="90"/>
-      <c r="AA26" s="147">
+      <c r="Y26" s="96"/>
+      <c r="Z26" s="96"/>
+      <c r="AA26" s="102">
         <v>1800</v>
       </c>
-      <c r="AB26" s="147"/>
-      <c r="AC26" s="147"/>
+      <c r="AB26" s="102"/>
+      <c r="AC26" s="102"/>
       <c r="AD26" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE26" s="92">
+      <c r="AE26" s="118">
         <f>K26*AA26</f>
         <v>0</v>
       </c>
-      <c r="AF26" s="90"/>
+      <c r="AF26" s="96"/>
     </row>
     <row r="27" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="77"/>
-      <c r="B27" s="106"/>
-      <c r="C27" s="107"/>
-      <c r="D27" s="62" t="s">
+      <c r="A27" s="111"/>
+      <c r="B27" s="123"/>
+      <c r="C27" s="124"/>
+      <c r="D27" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="229">
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="88"/>
+      <c r="J27" s="89"/>
+      <c r="K27" s="94">
         <v>1800</v>
       </c>
-      <c r="L27" s="63"/>
-      <c r="M27" s="63"/>
-      <c r="N27" s="63"/>
-      <c r="O27" s="63"/>
-      <c r="P27" s="63"/>
-      <c r="Q27" s="63"/>
-      <c r="R27" s="63"/>
-      <c r="S27" s="63"/>
-      <c r="T27" s="63"/>
-      <c r="U27" s="63"/>
-      <c r="V27" s="63"/>
-      <c r="W27" s="64"/>
+      <c r="L27" s="88"/>
+      <c r="M27" s="88"/>
+      <c r="N27" s="88"/>
+      <c r="O27" s="88"/>
+      <c r="P27" s="88"/>
+      <c r="Q27" s="88"/>
+      <c r="R27" s="88"/>
+      <c r="S27" s="88"/>
+      <c r="T27" s="88"/>
+      <c r="U27" s="88"/>
+      <c r="V27" s="88"/>
+      <c r="W27" s="89"/>
       <c r="X27" s="22"/>
       <c r="Y27" s="23"/>
       <c r="Z27" s="23"/>
@@ -2914,40 +2932,40 @@
       <c r="AD27" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE27" s="95">
+      <c r="AE27" s="100">
         <f>K27</f>
         <v>1800</v>
       </c>
-      <c r="AF27" s="90"/>
+      <c r="AF27" s="96"/>
     </row>
     <row r="28" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="74"/>
-      <c r="B28" s="108"/>
-      <c r="C28" s="109"/>
-      <c r="D28" s="139" t="s">
+      <c r="A28" s="112"/>
+      <c r="B28" s="125"/>
+      <c r="C28" s="126"/>
+      <c r="D28" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="230">
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="88"/>
+      <c r="J28" s="89"/>
+      <c r="K28" s="117">
         <v>1800</v>
       </c>
-      <c r="L28" s="63"/>
-      <c r="M28" s="63"/>
-      <c r="N28" s="63"/>
-      <c r="O28" s="63"/>
-      <c r="P28" s="63"/>
-      <c r="Q28" s="63"/>
-      <c r="R28" s="63"/>
-      <c r="S28" s="63"/>
-      <c r="T28" s="63"/>
-      <c r="U28" s="63"/>
-      <c r="V28" s="63"/>
-      <c r="W28" s="64"/>
+      <c r="L28" s="88"/>
+      <c r="M28" s="88"/>
+      <c r="N28" s="88"/>
+      <c r="O28" s="88"/>
+      <c r="P28" s="88"/>
+      <c r="Q28" s="88"/>
+      <c r="R28" s="88"/>
+      <c r="S28" s="88"/>
+      <c r="T28" s="88"/>
+      <c r="U28" s="88"/>
+      <c r="V28" s="88"/>
+      <c r="W28" s="89"/>
       <c r="X28" s="24"/>
       <c r="Y28" s="25"/>
       <c r="Z28" s="25"/>
@@ -2957,14 +2975,14 @@
       <c r="AD28" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE28" s="140">
+      <c r="AE28" s="92">
         <f>K28</f>
         <v>1800</v>
       </c>
-      <c r="AF28" s="141"/>
-    </row>
-    <row r="29" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="74"/>
+      <c r="AF28" s="93"/>
+    </row>
+    <row r="29" spans="1:35" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="112"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="41"/>
@@ -2993,51 +3011,51 @@
       <c r="AA29" s="25"/>
       <c r="AB29" s="25"/>
       <c r="AC29" s="18"/>
-      <c r="AD29" s="42" t="s">
+      <c r="AD29" s="249" t="s">
         <v>17</v>
       </c>
-      <c r="AE29" s="92">
+      <c r="AE29" s="250">
         <f>AE26+AE27+AE28</f>
         <v>3600</v>
       </c>
-      <c r="AF29" s="90"/>
+      <c r="AF29" s="251"/>
     </row>
     <row r="30" spans="1:35" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="74"/>
+      <c r="A30" s="112"/>
       <c r="B30" s="26"/>
       <c r="C30" s="26"/>
-      <c r="D30" s="231"/>
-      <c r="E30" s="231"/>
-      <c r="F30" s="231"/>
-      <c r="G30" s="231"/>
-      <c r="H30" s="231"/>
-      <c r="I30" s="231"/>
-      <c r="J30" s="231"/>
-      <c r="K30" s="231"/>
-      <c r="L30" s="231"/>
-      <c r="M30" s="231"/>
-      <c r="N30" s="231"/>
-      <c r="O30" s="231"/>
-      <c r="P30" s="231"/>
-      <c r="Q30" s="231"/>
-      <c r="R30" s="231"/>
-      <c r="S30" s="231"/>
-      <c r="T30" s="231"/>
-      <c r="U30" s="231"/>
-      <c r="V30" s="231"/>
-      <c r="W30" s="231"/>
-      <c r="X30" s="232"/>
-      <c r="Y30" s="232"/>
-      <c r="Z30" s="232"/>
-      <c r="AA30" s="232"/>
-      <c r="AB30" s="232"/>
-      <c r="AC30" s="233"/>
-      <c r="AD30" s="234"/>
-      <c r="AE30" s="61"/>
-      <c r="AF30" s="61"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="64"/>
+      <c r="P30" s="64"/>
+      <c r="Q30" s="64"/>
+      <c r="R30" s="64"/>
+      <c r="S30" s="64"/>
+      <c r="T30" s="64"/>
+      <c r="U30" s="64"/>
+      <c r="V30" s="64"/>
+      <c r="W30" s="64"/>
+      <c r="X30" s="65"/>
+      <c r="Y30" s="65"/>
+      <c r="Z30" s="65"/>
+      <c r="AA30" s="65"/>
+      <c r="AB30" s="65"/>
+      <c r="AC30" s="66"/>
+      <c r="AD30" s="67"/>
+      <c r="AE30" s="60"/>
+      <c r="AF30" s="60"/>
     </row>
     <row r="31" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="74"/>
+      <c r="A31" s="112"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="41"/>
@@ -3056,28 +3074,28 @@
       <c r="Q31" s="41"/>
       <c r="R31" s="41"/>
       <c r="S31" s="41"/>
-      <c r="T31" s="142" t="s">
+      <c r="T31" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="U31" s="90"/>
-      <c r="V31" s="90"/>
-      <c r="W31" s="90"/>
-      <c r="X31" s="90"/>
-      <c r="Y31" s="90"/>
-      <c r="Z31" s="90"/>
-      <c r="AA31" s="90"/>
-      <c r="AB31" s="90"/>
+      <c r="U31" s="96"/>
+      <c r="V31" s="96"/>
+      <c r="W31" s="96"/>
+      <c r="X31" s="96"/>
+      <c r="Y31" s="96"/>
+      <c r="Z31" s="96"/>
+      <c r="AA31" s="96"/>
+      <c r="AB31" s="96"/>
       <c r="AC31" s="18"/>
       <c r="AD31" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE31" s="95">
+      <c r="AE31" s="100">
         <v>1800</v>
       </c>
-      <c r="AF31" s="146"/>
+      <c r="AF31" s="101"/>
     </row>
     <row r="32" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="74"/>
+      <c r="A32" s="112"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -3096,25 +3114,25 @@
       <c r="Q32" s="9"/>
       <c r="R32" s="9"/>
       <c r="S32" s="9"/>
-      <c r="T32" s="122" t="s">
+      <c r="T32" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="U32" s="90"/>
-      <c r="V32" s="90"/>
-      <c r="W32" s="90"/>
-      <c r="X32" s="90"/>
-      <c r="Y32" s="90"/>
-      <c r="Z32" s="90"/>
-      <c r="AA32" s="90"/>
-      <c r="AB32" s="90"/>
+      <c r="U32" s="96"/>
+      <c r="V32" s="96"/>
+      <c r="W32" s="96"/>
+      <c r="X32" s="96"/>
+      <c r="Y32" s="96"/>
+      <c r="Z32" s="96"/>
+      <c r="AA32" s="96"/>
+      <c r="AB32" s="96"/>
       <c r="AC32" s="28"/>
       <c r="AD32" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE32" s="144">
+      <c r="AE32" s="98">
         <v>1800</v>
       </c>
-      <c r="AF32" s="145"/>
+      <c r="AF32" s="99"/>
     </row>
     <row r="33" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
@@ -3136,26 +3154,26 @@
       <c r="Q33" s="19"/>
       <c r="R33" s="19"/>
       <c r="S33" s="19"/>
-      <c r="T33" s="143" t="s">
+      <c r="T33" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="U33" s="90"/>
-      <c r="V33" s="90"/>
-      <c r="W33" s="90"/>
-      <c r="X33" s="90"/>
-      <c r="Y33" s="90"/>
-      <c r="Z33" s="90"/>
-      <c r="AA33" s="90"/>
-      <c r="AB33" s="90"/>
+      <c r="U33" s="96"/>
+      <c r="V33" s="96"/>
+      <c r="W33" s="96"/>
+      <c r="X33" s="96"/>
+      <c r="Y33" s="96"/>
+      <c r="Z33" s="96"/>
+      <c r="AA33" s="96"/>
+      <c r="AB33" s="96"/>
       <c r="AC33" s="19"/>
       <c r="AD33" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE33" s="138">
+      <c r="AE33" s="90">
         <f>AE23+AE29+AE31+AE32</f>
         <v>170352</v>
       </c>
-      <c r="AF33" s="138"/>
+      <c r="AF33" s="90"/>
     </row>
     <row r="34" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
@@ -3177,7 +3195,7 @@
       <c r="Q34" s="19"/>
       <c r="R34" s="19"/>
       <c r="S34" s="19"/>
-      <c r="T34" s="54"/>
+      <c r="T34" s="53"/>
       <c r="U34" s="41"/>
       <c r="V34" s="41"/>
       <c r="W34" s="41"/>
@@ -3188,114 +3206,114 @@
       <c r="AB34" s="41"/>
       <c r="AC34" s="19"/>
       <c r="AD34" s="42"/>
-      <c r="AE34" s="51"/>
-      <c r="AF34" s="51"/>
+      <c r="AE34" s="50"/>
+      <c r="AF34" s="50"/>
     </row>
     <row r="35" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="56"/>
-      <c r="O35" s="56"/>
-      <c r="P35" s="56"/>
-      <c r="Q35" s="56"/>
-      <c r="R35" s="56"/>
-      <c r="S35" s="56"/>
-      <c r="T35" s="57"/>
-      <c r="U35" s="57"/>
-      <c r="V35" s="57"/>
-      <c r="W35" s="57"/>
-      <c r="X35" s="57"/>
-      <c r="Y35" s="57"/>
-      <c r="Z35" s="57"/>
-      <c r="AA35" s="57"/>
-      <c r="AB35" s="57"/>
-      <c r="AC35" s="56"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="55"/>
+      <c r="O35" s="55"/>
+      <c r="P35" s="55"/>
+      <c r="Q35" s="55"/>
+      <c r="R35" s="55"/>
+      <c r="S35" s="55"/>
+      <c r="T35" s="56"/>
+      <c r="U35" s="56"/>
+      <c r="V35" s="56"/>
+      <c r="W35" s="56"/>
+      <c r="X35" s="56"/>
+      <c r="Y35" s="56"/>
+      <c r="Z35" s="56"/>
+      <c r="AA35" s="56"/>
+      <c r="AB35" s="56"/>
+      <c r="AC35" s="55"/>
       <c r="AD35" s="27"/>
-      <c r="AE35" s="56"/>
-      <c r="AF35" s="58"/>
+      <c r="AE35" s="55"/>
+      <c r="AF35" s="57"/>
     </row>
     <row r="36" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="134" t="s">
+      <c r="B36" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="134"/>
-      <c r="D36" s="134"/>
-      <c r="E36" s="134"/>
-      <c r="F36" s="134"/>
-      <c r="G36" s="135" t="s">
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="H36" s="135"/>
-      <c r="I36" s="135"/>
-      <c r="J36" s="135"/>
-      <c r="K36" s="135"/>
-      <c r="L36" s="135"/>
-      <c r="M36" s="135"/>
-      <c r="N36" s="135"/>
-      <c r="O36" s="135"/>
-      <c r="P36" s="135"/>
-      <c r="Q36" s="135"/>
-      <c r="R36" s="135"/>
-      <c r="S36" s="135"/>
-      <c r="T36" s="135"/>
-      <c r="U36" s="135"/>
-      <c r="V36" s="135"/>
-      <c r="W36" s="135"/>
-      <c r="X36" s="135"/>
-      <c r="Y36" s="135"/>
-      <c r="Z36" s="135"/>
-      <c r="AA36" s="135"/>
-      <c r="AB36" s="135"/>
-      <c r="AC36" s="135"/>
-      <c r="AD36" s="135"/>
-      <c r="AE36" s="135"/>
-      <c r="AF36" s="135"/>
+      <c r="H36" s="81"/>
+      <c r="I36" s="81"/>
+      <c r="J36" s="81"/>
+      <c r="K36" s="81"/>
+      <c r="L36" s="81"/>
+      <c r="M36" s="81"/>
+      <c r="N36" s="81"/>
+      <c r="O36" s="81"/>
+      <c r="P36" s="81"/>
+      <c r="Q36" s="81"/>
+      <c r="R36" s="81"/>
+      <c r="S36" s="81"/>
+      <c r="T36" s="81"/>
+      <c r="U36" s="81"/>
+      <c r="V36" s="81"/>
+      <c r="W36" s="81"/>
+      <c r="X36" s="81"/>
+      <c r="Y36" s="81"/>
+      <c r="Z36" s="81"/>
+      <c r="AA36" s="81"/>
+      <c r="AB36" s="81"/>
+      <c r="AC36" s="81"/>
+      <c r="AD36" s="81"/>
+      <c r="AE36" s="81"/>
+      <c r="AF36" s="81"/>
     </row>
     <row r="37" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="52"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="52"/>
-      <c r="L37" s="52"/>
-      <c r="M37" s="52"/>
-      <c r="N37" s="52"/>
-      <c r="O37" s="52"/>
-      <c r="P37" s="52"/>
-      <c r="Q37" s="52"/>
-      <c r="R37" s="52"/>
-      <c r="S37" s="52"/>
-      <c r="T37" s="52"/>
-      <c r="U37" s="52"/>
-      <c r="V37" s="52"/>
-      <c r="W37" s="52"/>
-      <c r="X37" s="52"/>
-      <c r="Y37" s="52"/>
-      <c r="Z37" s="52"/>
-      <c r="AA37" s="52"/>
-      <c r="AB37" s="52"/>
-      <c r="AC37" s="52"/>
-      <c r="AD37" s="52"/>
-      <c r="AE37" s="52"/>
-      <c r="AF37" s="52"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="51"/>
+      <c r="N37" s="51"/>
+      <c r="O37" s="51"/>
+      <c r="P37" s="51"/>
+      <c r="Q37" s="51"/>
+      <c r="R37" s="51"/>
+      <c r="S37" s="51"/>
+      <c r="T37" s="51"/>
+      <c r="U37" s="51"/>
+      <c r="V37" s="51"/>
+      <c r="W37" s="51"/>
+      <c r="X37" s="51"/>
+      <c r="Y37" s="51"/>
+      <c r="Z37" s="51"/>
+      <c r="AA37" s="51"/>
+      <c r="AB37" s="51"/>
+      <c r="AC37" s="51"/>
+      <c r="AD37" s="51"/>
+      <c r="AE37" s="51"/>
+      <c r="AF37" s="51"/>
     </row>
     <row r="38" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
@@ -3389,259 +3407,259 @@
       <c r="U40" s="6"/>
       <c r="V40" s="6"/>
       <c r="W40" s="6"/>
-      <c r="X40" s="49"/>
-      <c r="Y40" s="49"/>
-      <c r="Z40" s="49"/>
-      <c r="AA40" s="49"/>
-      <c r="AB40" s="113" t="s">
+      <c r="X40" s="48"/>
+      <c r="Y40" s="48"/>
+      <c r="Z40" s="48"/>
+      <c r="AA40" s="48"/>
+      <c r="AB40" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="AC40" s="113"/>
-      <c r="AD40" s="113"/>
-      <c r="AE40" s="113"/>
-      <c r="AF40" s="113"/>
+      <c r="AC40" s="109"/>
+      <c r="AD40" s="109"/>
+      <c r="AE40" s="109"/>
+      <c r="AF40" s="109"/>
     </row>
     <row r="41" spans="1:32" ht="5.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
-      <c r="B41" s="125" t="s">
+      <c r="B41" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="126"/>
-      <c r="D41" s="126"/>
-      <c r="E41" s="126"/>
-      <c r="F41" s="126"/>
-      <c r="G41" s="126"/>
-      <c r="H41" s="126"/>
-      <c r="I41" s="126"/>
-      <c r="J41" s="126"/>
-      <c r="K41" s="126"/>
-      <c r="L41" s="126"/>
-      <c r="M41" s="126"/>
-      <c r="N41" s="126"/>
-      <c r="O41" s="126"/>
-      <c r="P41" s="126"/>
-      <c r="Q41" s="126"/>
-      <c r="R41" s="126"/>
-      <c r="S41" s="126"/>
-      <c r="T41" s="127"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="72"/>
+      <c r="J41" s="72"/>
+      <c r="K41" s="72"/>
+      <c r="L41" s="72"/>
+      <c r="M41" s="72"/>
+      <c r="N41" s="72"/>
+      <c r="O41" s="72"/>
+      <c r="P41" s="72"/>
+      <c r="Q41" s="72"/>
+      <c r="R41" s="72"/>
+      <c r="S41" s="72"/>
+      <c r="T41" s="73"/>
       <c r="U41" s="30"/>
       <c r="V41" s="6"/>
       <c r="W41" s="6"/>
-      <c r="X41" s="49"/>
-      <c r="Y41" s="49"/>
-      <c r="Z41" s="49"/>
-      <c r="AA41" s="49"/>
-      <c r="AB41" s="113"/>
-      <c r="AC41" s="113"/>
-      <c r="AD41" s="113"/>
-      <c r="AE41" s="113"/>
-      <c r="AF41" s="113"/>
+      <c r="X41" s="48"/>
+      <c r="Y41" s="48"/>
+      <c r="Z41" s="48"/>
+      <c r="AA41" s="48"/>
+      <c r="AB41" s="109"/>
+      <c r="AC41" s="109"/>
+      <c r="AD41" s="109"/>
+      <c r="AE41" s="109"/>
+      <c r="AF41" s="109"/>
     </row>
     <row r="42" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
-      <c r="B42" s="128"/>
-      <c r="C42" s="129"/>
-      <c r="D42" s="129"/>
-      <c r="E42" s="129"/>
-      <c r="F42" s="129"/>
-      <c r="G42" s="129"/>
-      <c r="H42" s="129"/>
-      <c r="I42" s="129"/>
-      <c r="J42" s="129"/>
-      <c r="K42" s="129"/>
-      <c r="L42" s="129"/>
-      <c r="M42" s="129"/>
-      <c r="N42" s="129"/>
-      <c r="O42" s="129"/>
-      <c r="P42" s="129"/>
-      <c r="Q42" s="129"/>
-      <c r="R42" s="129"/>
-      <c r="S42" s="129"/>
-      <c r="T42" s="130"/>
+      <c r="B42" s="74"/>
+      <c r="C42" s="75"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="75"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="75"/>
+      <c r="H42" s="75"/>
+      <c r="I42" s="75"/>
+      <c r="J42" s="75"/>
+      <c r="K42" s="75"/>
+      <c r="L42" s="75"/>
+      <c r="M42" s="75"/>
+      <c r="N42" s="75"/>
+      <c r="O42" s="75"/>
+      <c r="P42" s="75"/>
+      <c r="Q42" s="75"/>
+      <c r="R42" s="75"/>
+      <c r="S42" s="75"/>
+      <c r="T42" s="76"/>
       <c r="U42" s="30"/>
       <c r="V42" s="6"/>
       <c r="W42" s="6"/>
-      <c r="X42" s="49"/>
-      <c r="Y42" s="49"/>
-      <c r="Z42" s="49"/>
-      <c r="AA42" s="49"/>
-      <c r="AB42" s="113"/>
-      <c r="AC42" s="113"/>
-      <c r="AD42" s="113"/>
-      <c r="AE42" s="113"/>
-      <c r="AF42" s="113"/>
+      <c r="X42" s="48"/>
+      <c r="Y42" s="48"/>
+      <c r="Z42" s="48"/>
+      <c r="AA42" s="48"/>
+      <c r="AB42" s="109"/>
+      <c r="AC42" s="109"/>
+      <c r="AD42" s="109"/>
+      <c r="AE42" s="109"/>
+      <c r="AF42" s="109"/>
     </row>
     <row r="43" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
-      <c r="B43" s="128"/>
-      <c r="C43" s="129"/>
-      <c r="D43" s="129"/>
-      <c r="E43" s="129"/>
-      <c r="F43" s="129"/>
-      <c r="G43" s="129"/>
-      <c r="H43" s="129"/>
-      <c r="I43" s="129"/>
-      <c r="J43" s="129"/>
-      <c r="K43" s="129"/>
-      <c r="L43" s="129"/>
-      <c r="M43" s="129"/>
-      <c r="N43" s="129"/>
-      <c r="O43" s="129"/>
-      <c r="P43" s="129"/>
-      <c r="Q43" s="129"/>
-      <c r="R43" s="129"/>
-      <c r="S43" s="129"/>
-      <c r="T43" s="130"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="75"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="75"/>
+      <c r="H43" s="75"/>
+      <c r="I43" s="75"/>
+      <c r="J43" s="75"/>
+      <c r="K43" s="75"/>
+      <c r="L43" s="75"/>
+      <c r="M43" s="75"/>
+      <c r="N43" s="75"/>
+      <c r="O43" s="75"/>
+      <c r="P43" s="75"/>
+      <c r="Q43" s="75"/>
+      <c r="R43" s="75"/>
+      <c r="S43" s="75"/>
+      <c r="T43" s="76"/>
       <c r="U43" s="30"/>
       <c r="V43" s="6"/>
       <c r="W43" s="6"/>
-      <c r="X43" s="49"/>
-      <c r="Y43" s="49"/>
-      <c r="Z43" s="49"/>
-      <c r="AA43" s="49"/>
-      <c r="AB43" s="49"/>
-      <c r="AC43" s="49"/>
-      <c r="AD43" s="49"/>
-      <c r="AE43" s="49"/>
-      <c r="AF43" s="49"/>
+      <c r="X43" s="48"/>
+      <c r="Y43" s="48"/>
+      <c r="Z43" s="48"/>
+      <c r="AA43" s="48"/>
+      <c r="AB43" s="48"/>
+      <c r="AC43" s="48"/>
+      <c r="AD43" s="48"/>
+      <c r="AE43" s="48"/>
+      <c r="AF43" s="48"/>
     </row>
     <row r="44" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
-      <c r="B44" s="128"/>
-      <c r="C44" s="129"/>
-      <c r="D44" s="129"/>
-      <c r="E44" s="129"/>
-      <c r="F44" s="129"/>
-      <c r="G44" s="129"/>
-      <c r="H44" s="129"/>
-      <c r="I44" s="129"/>
-      <c r="J44" s="129"/>
-      <c r="K44" s="129"/>
-      <c r="L44" s="129"/>
-      <c r="M44" s="129"/>
-      <c r="N44" s="129"/>
-      <c r="O44" s="129"/>
-      <c r="P44" s="129"/>
-      <c r="Q44" s="129"/>
-      <c r="R44" s="129"/>
-      <c r="S44" s="129"/>
-      <c r="T44" s="130"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="75"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="75"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="75"/>
+      <c r="H44" s="75"/>
+      <c r="I44" s="75"/>
+      <c r="J44" s="75"/>
+      <c r="K44" s="75"/>
+      <c r="L44" s="75"/>
+      <c r="M44" s="75"/>
+      <c r="N44" s="75"/>
+      <c r="O44" s="75"/>
+      <c r="P44" s="75"/>
+      <c r="Q44" s="75"/>
+      <c r="R44" s="75"/>
+      <c r="S44" s="75"/>
+      <c r="T44" s="76"/>
       <c r="U44" s="30"/>
       <c r="V44" s="6"/>
       <c r="W44" s="6"/>
-      <c r="X44" s="49"/>
-      <c r="Y44" s="49"/>
-      <c r="Z44" s="49"/>
-      <c r="AA44" s="49"/>
-      <c r="AB44" s="49"/>
-      <c r="AC44" s="49"/>
-      <c r="AD44" s="49"/>
-      <c r="AE44" s="49"/>
-      <c r="AF44" s="49"/>
+      <c r="X44" s="48"/>
+      <c r="Y44" s="48"/>
+      <c r="Z44" s="48"/>
+      <c r="AA44" s="48"/>
+      <c r="AB44" s="48"/>
+      <c r="AC44" s="48"/>
+      <c r="AD44" s="48"/>
+      <c r="AE44" s="48"/>
+      <c r="AF44" s="48"/>
     </row>
     <row r="45" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
-      <c r="B45" s="128"/>
-      <c r="C45" s="129"/>
-      <c r="D45" s="129"/>
-      <c r="E45" s="129"/>
-      <c r="F45" s="129"/>
-      <c r="G45" s="129"/>
-      <c r="H45" s="129"/>
-      <c r="I45" s="129"/>
-      <c r="J45" s="129"/>
-      <c r="K45" s="129"/>
-      <c r="L45" s="129"/>
-      <c r="M45" s="129"/>
-      <c r="N45" s="129"/>
-      <c r="O45" s="129"/>
-      <c r="P45" s="129"/>
-      <c r="Q45" s="129"/>
-      <c r="R45" s="129"/>
-      <c r="S45" s="129"/>
-      <c r="T45" s="130"/>
+      <c r="B45" s="74"/>
+      <c r="C45" s="75"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="75"/>
+      <c r="F45" s="75"/>
+      <c r="G45" s="75"/>
+      <c r="H45" s="75"/>
+      <c r="I45" s="75"/>
+      <c r="J45" s="75"/>
+      <c r="K45" s="75"/>
+      <c r="L45" s="75"/>
+      <c r="M45" s="75"/>
+      <c r="N45" s="75"/>
+      <c r="O45" s="75"/>
+      <c r="P45" s="75"/>
+      <c r="Q45" s="75"/>
+      <c r="R45" s="75"/>
+      <c r="S45" s="75"/>
+      <c r="T45" s="76"/>
       <c r="U45" s="30"/>
       <c r="V45" s="6"/>
       <c r="W45" s="6"/>
-      <c r="X45" s="49"/>
-      <c r="Y45" s="49"/>
-      <c r="Z45" s="49"/>
-      <c r="AA45" s="49"/>
-      <c r="AB45" s="49"/>
-      <c r="AC45" s="49"/>
-      <c r="AD45" s="49"/>
-      <c r="AE45" s="49"/>
-      <c r="AF45" s="49"/>
+      <c r="X45" s="48"/>
+      <c r="Y45" s="48"/>
+      <c r="Z45" s="48"/>
+      <c r="AA45" s="48"/>
+      <c r="AB45" s="48"/>
+      <c r="AC45" s="48"/>
+      <c r="AD45" s="48"/>
+      <c r="AE45" s="48"/>
+      <c r="AF45" s="48"/>
     </row>
     <row r="46" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
-      <c r="B46" s="128"/>
-      <c r="C46" s="129"/>
-      <c r="D46" s="129"/>
-      <c r="E46" s="129"/>
-      <c r="F46" s="129"/>
-      <c r="G46" s="129"/>
-      <c r="H46" s="129"/>
-      <c r="I46" s="129"/>
-      <c r="J46" s="129"/>
-      <c r="K46" s="129"/>
-      <c r="L46" s="129"/>
-      <c r="M46" s="129"/>
-      <c r="N46" s="129"/>
-      <c r="O46" s="129"/>
-      <c r="P46" s="129"/>
-      <c r="Q46" s="129"/>
-      <c r="R46" s="129"/>
-      <c r="S46" s="129"/>
-      <c r="T46" s="130"/>
+      <c r="B46" s="74"/>
+      <c r="C46" s="75"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="75"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="75"/>
+      <c r="H46" s="75"/>
+      <c r="I46" s="75"/>
+      <c r="J46" s="75"/>
+      <c r="K46" s="75"/>
+      <c r="L46" s="75"/>
+      <c r="M46" s="75"/>
+      <c r="N46" s="75"/>
+      <c r="O46" s="75"/>
+      <c r="P46" s="75"/>
+      <c r="Q46" s="75"/>
+      <c r="R46" s="75"/>
+      <c r="S46" s="75"/>
+      <c r="T46" s="76"/>
       <c r="U46" s="30"/>
       <c r="V46" s="6"/>
       <c r="W46" s="6"/>
-      <c r="X46" s="49"/>
-      <c r="Y46" s="49"/>
-      <c r="Z46" s="49"/>
-      <c r="AA46" s="49"/>
-      <c r="AB46" s="49"/>
-      <c r="AC46" s="49"/>
-      <c r="AD46" s="49"/>
-      <c r="AE46" s="49"/>
-      <c r="AF46" s="49"/>
+      <c r="X46" s="48"/>
+      <c r="Y46" s="48"/>
+      <c r="Z46" s="48"/>
+      <c r="AA46" s="48"/>
+      <c r="AB46" s="48"/>
+      <c r="AC46" s="48"/>
+      <c r="AD46" s="48"/>
+      <c r="AE46" s="48"/>
+      <c r="AF46" s="48"/>
     </row>
     <row r="47" spans="1:32" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
-      <c r="B47" s="131"/>
-      <c r="C47" s="132"/>
-      <c r="D47" s="132"/>
-      <c r="E47" s="132"/>
-      <c r="F47" s="132"/>
-      <c r="G47" s="132"/>
-      <c r="H47" s="132"/>
-      <c r="I47" s="132"/>
-      <c r="J47" s="132"/>
-      <c r="K47" s="132"/>
-      <c r="L47" s="132"/>
-      <c r="M47" s="132"/>
-      <c r="N47" s="132"/>
-      <c r="O47" s="132"/>
-      <c r="P47" s="132"/>
-      <c r="Q47" s="132"/>
-      <c r="R47" s="132"/>
-      <c r="S47" s="132"/>
-      <c r="T47" s="133"/>
+      <c r="B47" s="77"/>
+      <c r="C47" s="78"/>
+      <c r="D47" s="78"/>
+      <c r="E47" s="78"/>
+      <c r="F47" s="78"/>
+      <c r="G47" s="78"/>
+      <c r="H47" s="78"/>
+      <c r="I47" s="78"/>
+      <c r="J47" s="78"/>
+      <c r="K47" s="78"/>
+      <c r="L47" s="78"/>
+      <c r="M47" s="78"/>
+      <c r="N47" s="78"/>
+      <c r="O47" s="78"/>
+      <c r="P47" s="78"/>
+      <c r="Q47" s="78"/>
+      <c r="R47" s="78"/>
+      <c r="S47" s="78"/>
+      <c r="T47" s="79"/>
       <c r="U47" s="30"/>
       <c r="V47" s="6"/>
       <c r="W47" s="6"/>
-      <c r="X47" s="50"/>
-      <c r="Y47" s="50"/>
-      <c r="Z47" s="50"/>
-      <c r="AA47" s="50"/>
-      <c r="AB47" s="120" t="s">
+      <c r="X47" s="49"/>
+      <c r="Y47" s="49"/>
+      <c r="Z47" s="49"/>
+      <c r="AA47" s="49"/>
+      <c r="AB47" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="AC47" s="120"/>
-      <c r="AD47" s="120"/>
-      <c r="AE47" s="120"/>
-      <c r="AF47" s="120"/>
+      <c r="AC47" s="110"/>
+      <c r="AD47" s="110"/>
+      <c r="AE47" s="110"/>
+      <c r="AF47" s="110"/>
     </row>
     <row r="48" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
@@ -3667,15 +3685,15 @@
       <c r="U48" s="6"/>
       <c r="V48" s="6"/>
       <c r="W48" s="6"/>
-      <c r="X48" s="49"/>
-      <c r="Y48" s="49"/>
-      <c r="Z48" s="49"/>
-      <c r="AA48" s="49"/>
-      <c r="AB48" s="59"/>
-      <c r="AC48" s="59"/>
-      <c r="AD48" s="59"/>
-      <c r="AE48" s="59"/>
-      <c r="AF48" s="59"/>
+      <c r="X48" s="48"/>
+      <c r="Y48" s="48"/>
+      <c r="Z48" s="48"/>
+      <c r="AA48" s="48"/>
+      <c r="AB48" s="58"/>
+      <c r="AC48" s="58"/>
+      <c r="AD48" s="58"/>
+      <c r="AE48" s="58"/>
+      <c r="AF48" s="58"/>
     </row>
     <row r="49" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
@@ -3701,15 +3719,15 @@
       <c r="U49" s="6"/>
       <c r="V49" s="6"/>
       <c r="W49" s="6"/>
-      <c r="X49" s="49"/>
-      <c r="Y49" s="49"/>
-      <c r="Z49" s="49"/>
-      <c r="AA49" s="49"/>
-      <c r="AB49" s="49"/>
-      <c r="AC49" s="49"/>
-      <c r="AD49" s="49"/>
-      <c r="AE49" s="49"/>
-      <c r="AF49" s="49"/>
+      <c r="X49" s="48"/>
+      <c r="Y49" s="48"/>
+      <c r="Z49" s="48"/>
+      <c r="AA49" s="48"/>
+      <c r="AB49" s="48"/>
+      <c r="AC49" s="48"/>
+      <c r="AD49" s="48"/>
+      <c r="AE49" s="48"/>
+      <c r="AF49" s="48"/>
     </row>
     <row r="50" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
@@ -3757,133 +3775,179 @@
     </row>
     <row r="61" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="62" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="116" t="s">
+      <c r="A62" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="B62" s="116"/>
-      <c r="C62" s="116"/>
-      <c r="D62" s="116"/>
-      <c r="E62" s="116"/>
-      <c r="F62" s="116"/>
-      <c r="G62" s="116"/>
-      <c r="H62" s="116"/>
-      <c r="I62" s="116"/>
-      <c r="J62" s="116"/>
-      <c r="K62" s="116"/>
-      <c r="L62" s="116"/>
-      <c r="M62" s="116"/>
-      <c r="N62" s="116"/>
-      <c r="O62" s="116"/>
-      <c r="P62" s="116"/>
-      <c r="Q62" s="116"/>
-      <c r="R62" s="116"/>
-      <c r="S62" s="116"/>
-      <c r="T62" s="116"/>
-      <c r="U62" s="116"/>
-      <c r="V62" s="116"/>
-      <c r="W62" s="116"/>
-      <c r="X62" s="116"/>
-      <c r="Y62" s="116"/>
-      <c r="Z62" s="116"/>
-      <c r="AA62" s="116"/>
-      <c r="AB62" s="116"/>
-      <c r="AC62" s="116"/>
-      <c r="AD62" s="116"/>
-      <c r="AE62" s="116"/>
-      <c r="AF62" s="116"/>
-      <c r="AG62" s="116"/>
+      <c r="B62" s="103"/>
+      <c r="C62" s="103"/>
+      <c r="D62" s="103"/>
+      <c r="E62" s="103"/>
+      <c r="F62" s="103"/>
+      <c r="G62" s="103"/>
+      <c r="H62" s="103"/>
+      <c r="I62" s="103"/>
+      <c r="J62" s="103"/>
+      <c r="K62" s="103"/>
+      <c r="L62" s="103"/>
+      <c r="M62" s="103"/>
+      <c r="N62" s="103"/>
+      <c r="O62" s="103"/>
+      <c r="P62" s="103"/>
+      <c r="Q62" s="103"/>
+      <c r="R62" s="103"/>
+      <c r="S62" s="103"/>
+      <c r="T62" s="103"/>
+      <c r="U62" s="103"/>
+      <c r="V62" s="103"/>
+      <c r="W62" s="103"/>
+      <c r="X62" s="103"/>
+      <c r="Y62" s="103"/>
+      <c r="Z62" s="103"/>
+      <c r="AA62" s="103"/>
+      <c r="AB62" s="103"/>
+      <c r="AC62" s="103"/>
+      <c r="AD62" s="103"/>
+      <c r="AE62" s="103"/>
+      <c r="AF62" s="103"/>
+      <c r="AG62" s="103"/>
     </row>
     <row r="63" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="117" t="s">
+      <c r="A63" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="B63" s="117"/>
-      <c r="C63" s="117"/>
-      <c r="D63" s="117"/>
-      <c r="E63" s="117"/>
-      <c r="F63" s="117"/>
-      <c r="G63" s="117"/>
-      <c r="H63" s="117"/>
-      <c r="I63" s="117"/>
-      <c r="J63" s="117"/>
-      <c r="K63" s="117"/>
-      <c r="L63" s="117"/>
-      <c r="M63" s="117"/>
-      <c r="N63" s="117"/>
-      <c r="O63" s="117"/>
-      <c r="P63" s="117"/>
-      <c r="Q63" s="117"/>
-      <c r="R63" s="117"/>
-      <c r="S63" s="117"/>
-      <c r="T63" s="117"/>
-      <c r="U63" s="117"/>
-      <c r="V63" s="117"/>
-      <c r="W63" s="117"/>
-      <c r="X63" s="117"/>
-      <c r="Y63" s="117"/>
-      <c r="Z63" s="117"/>
-      <c r="AA63" s="117"/>
-      <c r="AB63" s="117"/>
-      <c r="AC63" s="117"/>
-      <c r="AD63" s="117"/>
-      <c r="AE63" s="117"/>
-      <c r="AF63" s="117"/>
-      <c r="AG63" s="117"/>
+      <c r="B63" s="104"/>
+      <c r="C63" s="104"/>
+      <c r="D63" s="104"/>
+      <c r="E63" s="104"/>
+      <c r="F63" s="104"/>
+      <c r="G63" s="104"/>
+      <c r="H63" s="104"/>
+      <c r="I63" s="104"/>
+      <c r="J63" s="104"/>
+      <c r="K63" s="104"/>
+      <c r="L63" s="104"/>
+      <c r="M63" s="104"/>
+      <c r="N63" s="104"/>
+      <c r="O63" s="104"/>
+      <c r="P63" s="104"/>
+      <c r="Q63" s="104"/>
+      <c r="R63" s="104"/>
+      <c r="S63" s="104"/>
+      <c r="T63" s="104"/>
+      <c r="U63" s="104"/>
+      <c r="V63" s="104"/>
+      <c r="W63" s="104"/>
+      <c r="X63" s="104"/>
+      <c r="Y63" s="104"/>
+      <c r="Z63" s="104"/>
+      <c r="AA63" s="104"/>
+      <c r="AB63" s="104"/>
+      <c r="AC63" s="104"/>
+      <c r="AD63" s="104"/>
+      <c r="AE63" s="104"/>
+      <c r="AF63" s="104"/>
+      <c r="AG63" s="104"/>
     </row>
     <row r="64" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="117" t="s">
+      <c r="A64" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="B64" s="117"/>
-      <c r="C64" s="117"/>
-      <c r="D64" s="117"/>
-      <c r="E64" s="117"/>
-      <c r="F64" s="117"/>
-      <c r="G64" s="117"/>
-      <c r="H64" s="117"/>
-      <c r="I64" s="117"/>
-      <c r="J64" s="117"/>
-      <c r="K64" s="117"/>
-      <c r="L64" s="117"/>
-      <c r="M64" s="117"/>
-      <c r="N64" s="117"/>
-      <c r="O64" s="117"/>
-      <c r="P64" s="117"/>
-      <c r="Q64" s="117"/>
-      <c r="R64" s="117"/>
-      <c r="S64" s="117"/>
-      <c r="T64" s="117"/>
-      <c r="U64" s="117"/>
-      <c r="V64" s="117"/>
-      <c r="W64" s="117"/>
-      <c r="X64" s="117"/>
-      <c r="Y64" s="117"/>
-      <c r="Z64" s="117"/>
-      <c r="AA64" s="117"/>
-      <c r="AB64" s="117"/>
-      <c r="AC64" s="117"/>
-      <c r="AD64" s="117"/>
-      <c r="AE64" s="117"/>
-      <c r="AF64" s="117"/>
-      <c r="AG64" s="117"/>
+      <c r="B64" s="104"/>
+      <c r="C64" s="104"/>
+      <c r="D64" s="104"/>
+      <c r="E64" s="104"/>
+      <c r="F64" s="104"/>
+      <c r="G64" s="104"/>
+      <c r="H64" s="104"/>
+      <c r="I64" s="104"/>
+      <c r="J64" s="104"/>
+      <c r="K64" s="104"/>
+      <c r="L64" s="104"/>
+      <c r="M64" s="104"/>
+      <c r="N64" s="104"/>
+      <c r="O64" s="104"/>
+      <c r="P64" s="104"/>
+      <c r="Q64" s="104"/>
+      <c r="R64" s="104"/>
+      <c r="S64" s="104"/>
+      <c r="T64" s="104"/>
+      <c r="U64" s="104"/>
+      <c r="V64" s="104"/>
+      <c r="W64" s="104"/>
+      <c r="X64" s="104"/>
+      <c r="Y64" s="104"/>
+      <c r="Z64" s="104"/>
+      <c r="AA64" s="104"/>
+      <c r="AB64" s="104"/>
+      <c r="AC64" s="104"/>
+      <c r="AD64" s="104"/>
+      <c r="AE64" s="104"/>
+      <c r="AF64" s="104"/>
+      <c r="AG64" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="B41:T47"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="G36:AF36"/>
-    <mergeCell ref="K22:W22"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="K27:W27"/>
-    <mergeCell ref="T31:AB31"/>
-    <mergeCell ref="T33:AB33"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="AA26:AC26"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="K25:O25"/>
+    <mergeCell ref="Q25:W25"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="K18:W18"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="X20:Z21"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="AA19:AC19"/>
+    <mergeCell ref="K20:W21"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="S16:W16"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="AD8:AF9"/>
+    <mergeCell ref="Y8:AC9"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="I5:Z5"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="Q10:X11"/>
+    <mergeCell ref="AD13:AF14"/>
+    <mergeCell ref="Q17:W17"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="Y10:AC11"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="S24:W24"/>
+    <mergeCell ref="AA13:AC14"/>
+    <mergeCell ref="B2:AF3"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="B24:C28"/>
+    <mergeCell ref="K19:W19"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="B6:H9"/>
+    <mergeCell ref="B16:C22"/>
+    <mergeCell ref="B4:AF4"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="K26:W26"/>
+    <mergeCell ref="Q8:X9"/>
+    <mergeCell ref="AD10:AF11"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="B13:W14"/>
+    <mergeCell ref="D17:J17"/>
     <mergeCell ref="A62:AG62"/>
     <mergeCell ref="A63:AG63"/>
     <mergeCell ref="A64:AG64"/>
@@ -3900,74 +3964,28 @@
     <mergeCell ref="T32:AB32"/>
     <mergeCell ref="K28:W28"/>
     <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="B2:AF3"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="B24:C28"/>
-    <mergeCell ref="K19:W19"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="B6:H9"/>
-    <mergeCell ref="B16:C22"/>
-    <mergeCell ref="B4:AF4"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="K26:W26"/>
-    <mergeCell ref="Q8:X9"/>
-    <mergeCell ref="AD10:AF11"/>
-    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="B41:T47"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="G36:AF36"/>
+    <mergeCell ref="K22:W22"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="K27:W27"/>
+    <mergeCell ref="T31:AB31"/>
+    <mergeCell ref="T33:AB33"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="AA26:AC26"/>
     <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="B13:W14"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="Q10:X11"/>
-    <mergeCell ref="AD13:AF14"/>
-    <mergeCell ref="Q17:W17"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="Y10:AC11"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="X19:Z19"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="S24:W24"/>
-    <mergeCell ref="AA13:AC14"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="S16:W16"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="AD8:AF9"/>
-    <mergeCell ref="Y8:AC9"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="I5:Z5"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="X20:Z21"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="AA19:AC19"/>
-    <mergeCell ref="K20:W21"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="K25:O25"/>
-    <mergeCell ref="Q25:W25"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="K18:W18"/>
-    <mergeCell ref="D19:J19"/>
-    <mergeCell ref="D20:G20"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E11:H11" xr:uid="{7FD8B4C7-42A0-4993-86BF-E5604E228F87}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.27559055118110237" right="0.23622047244094491" top="0.6692913385826772" bottom="0.39370078740157483" header="0" footer="0"/>
+  <pageMargins left="0.27559055118110237" right="0.27559055118110237" top="0.6692913385826772" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup scale="76" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -3980,8 +3998,8 @@
   </sheetPr>
   <dimension ref="A1:AG64"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="AD13" sqref="AD13:AF14"/>
+    <sheetView view="pageLayout" topLeftCell="A22" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="AH30" sqref="AH30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4019,163 +4037,163 @@
     <row r="1" spans="1:32" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:32" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="150"/>
-      <c r="M2" s="150"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="150"/>
-      <c r="P2" s="150"/>
-      <c r="Q2" s="150"/>
-      <c r="R2" s="150"/>
-      <c r="S2" s="150"/>
-      <c r="T2" s="150"/>
-      <c r="U2" s="150"/>
-      <c r="V2" s="150"/>
-      <c r="W2" s="150"/>
-      <c r="X2" s="150"/>
-      <c r="Y2" s="150"/>
-      <c r="Z2" s="150"/>
-      <c r="AA2" s="150"/>
-      <c r="AB2" s="150"/>
-      <c r="AC2" s="150"/>
-      <c r="AD2" s="150"/>
-      <c r="AE2" s="150"/>
-      <c r="AF2" s="150"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="132"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="132"/>
+      <c r="P2" s="132"/>
+      <c r="Q2" s="132"/>
+      <c r="R2" s="132"/>
+      <c r="S2" s="132"/>
+      <c r="T2" s="132"/>
+      <c r="U2" s="132"/>
+      <c r="V2" s="132"/>
+      <c r="W2" s="132"/>
+      <c r="X2" s="132"/>
+      <c r="Y2" s="132"/>
+      <c r="Z2" s="132"/>
+      <c r="AA2" s="132"/>
+      <c r="AB2" s="132"/>
+      <c r="AC2" s="132"/>
+      <c r="AD2" s="132"/>
+      <c r="AE2" s="132"/>
+      <c r="AF2" s="132"/>
     </row>
     <row r="3" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
-      <c r="B3" s="150"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150"/>
-      <c r="K3" s="150"/>
-      <c r="L3" s="150"/>
-      <c r="M3" s="150"/>
-      <c r="N3" s="150"/>
-      <c r="O3" s="150"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="150"/>
-      <c r="S3" s="150"/>
-      <c r="T3" s="150"/>
-      <c r="U3" s="150"/>
-      <c r="V3" s="150"/>
-      <c r="W3" s="150"/>
-      <c r="X3" s="150"/>
-      <c r="Y3" s="150"/>
-      <c r="Z3" s="150"/>
-      <c r="AA3" s="150"/>
-      <c r="AB3" s="150"/>
-      <c r="AC3" s="150"/>
-      <c r="AD3" s="150"/>
-      <c r="AE3" s="150"/>
-      <c r="AF3" s="150"/>
+      <c r="B3" s="132"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="132"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="132"/>
+      <c r="P3" s="132"/>
+      <c r="Q3" s="132"/>
+      <c r="R3" s="132"/>
+      <c r="S3" s="132"/>
+      <c r="T3" s="132"/>
+      <c r="U3" s="132"/>
+      <c r="V3" s="132"/>
+      <c r="W3" s="132"/>
+      <c r="X3" s="132"/>
+      <c r="Y3" s="132"/>
+      <c r="Z3" s="132"/>
+      <c r="AA3" s="132"/>
+      <c r="AB3" s="132"/>
+      <c r="AC3" s="132"/>
+      <c r="AD3" s="132"/>
+      <c r="AE3" s="132"/>
+      <c r="AF3" s="132"/>
     </row>
     <row r="4" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="113" t="s">
+      <c r="B4" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="150"/>
-      <c r="D4" s="150"/>
-      <c r="E4" s="150"/>
-      <c r="F4" s="150"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="150"/>
-      <c r="I4" s="150"/>
-      <c r="J4" s="150"/>
-      <c r="K4" s="150"/>
-      <c r="L4" s="150"/>
-      <c r="M4" s="150"/>
-      <c r="N4" s="150"/>
-      <c r="O4" s="150"/>
-      <c r="P4" s="150"/>
-      <c r="Q4" s="150"/>
-      <c r="R4" s="150"/>
-      <c r="S4" s="150"/>
-      <c r="T4" s="150"/>
-      <c r="U4" s="150"/>
-      <c r="V4" s="150"/>
-      <c r="W4" s="150"/>
-      <c r="X4" s="150"/>
-      <c r="Y4" s="150"/>
-      <c r="Z4" s="150"/>
-      <c r="AA4" s="150"/>
-      <c r="AB4" s="150"/>
-      <c r="AC4" s="150"/>
-      <c r="AD4" s="150"/>
-      <c r="AE4" s="150"/>
-      <c r="AF4" s="150"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="132"/>
+      <c r="L4" s="132"/>
+      <c r="M4" s="132"/>
+      <c r="N4" s="132"/>
+      <c r="O4" s="132"/>
+      <c r="P4" s="132"/>
+      <c r="Q4" s="132"/>
+      <c r="R4" s="132"/>
+      <c r="S4" s="132"/>
+      <c r="T4" s="132"/>
+      <c r="U4" s="132"/>
+      <c r="V4" s="132"/>
+      <c r="W4" s="132"/>
+      <c r="X4" s="132"/>
+      <c r="Y4" s="132"/>
+      <c r="Z4" s="132"/>
+      <c r="AA4" s="132"/>
+      <c r="AB4" s="132"/>
+      <c r="AC4" s="132"/>
+      <c r="AD4" s="132"/>
+      <c r="AE4" s="132"/>
+      <c r="AF4" s="132"/>
     </row>
     <row r="5" spans="1:32" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="158" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="150"/>
-      <c r="D5" s="150"/>
-      <c r="E5" s="150"/>
-      <c r="F5" s="150"/>
-      <c r="G5" s="150"/>
-      <c r="H5" s="150"/>
-      <c r="I5" s="91" t="s">
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="164" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="150"/>
-      <c r="K5" s="150"/>
-      <c r="L5" s="150"/>
-      <c r="M5" s="150"/>
-      <c r="N5" s="150"/>
-      <c r="O5" s="150"/>
-      <c r="P5" s="150"/>
-      <c r="Q5" s="150"/>
-      <c r="R5" s="150"/>
-      <c r="S5" s="150"/>
-      <c r="T5" s="150"/>
-      <c r="U5" s="150"/>
-      <c r="V5" s="150"/>
-      <c r="W5" s="150"/>
-      <c r="X5" s="150"/>
-      <c r="Y5" s="150"/>
-      <c r="Z5" s="150"/>
+      <c r="J5" s="132"/>
+      <c r="K5" s="132"/>
+      <c r="L5" s="132"/>
+      <c r="M5" s="132"/>
+      <c r="N5" s="132"/>
+      <c r="O5" s="132"/>
+      <c r="P5" s="132"/>
+      <c r="Q5" s="132"/>
+      <c r="R5" s="132"/>
+      <c r="S5" s="132"/>
+      <c r="T5" s="132"/>
+      <c r="U5" s="132"/>
+      <c r="V5" s="132"/>
+      <c r="W5" s="132"/>
+      <c r="X5" s="132"/>
+      <c r="Y5" s="132"/>
+      <c r="Z5" s="132"/>
       <c r="AA5" s="7"/>
-      <c r="AB5" s="174" t="s">
+      <c r="AB5" s="225" t="s">
         <v>1</v>
       </c>
-      <c r="AC5" s="89"/>
-      <c r="AD5" s="89"/>
-      <c r="AE5" s="89"/>
-      <c r="AF5" s="47" t="s">
+      <c r="AC5" s="152"/>
+      <c r="AD5" s="152"/>
+      <c r="AE5" s="152"/>
+      <c r="AF5" s="46" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="150"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="132"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -4185,35 +4203,35 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
-      <c r="R6" s="104"/>
-      <c r="S6" s="150"/>
-      <c r="T6" s="150"/>
-      <c r="U6" s="150"/>
-      <c r="V6" s="150"/>
-      <c r="W6" s="150"/>
-      <c r="X6" s="82"/>
-      <c r="Y6" s="150"/>
+      <c r="R6" s="120"/>
+      <c r="S6" s="132"/>
+      <c r="T6" s="132"/>
+      <c r="U6" s="132"/>
+      <c r="V6" s="132"/>
+      <c r="W6" s="132"/>
+      <c r="X6" s="161"/>
+      <c r="Y6" s="132"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="7"/>
-      <c r="AB6" s="73" t="s">
+      <c r="AB6" s="157" t="s">
         <v>2</v>
       </c>
-      <c r="AC6" s="150"/>
-      <c r="AD6" s="150"/>
-      <c r="AE6" s="150"/>
-      <c r="AF6" s="46" t="s">
+      <c r="AC6" s="132"/>
+      <c r="AD6" s="132"/>
+      <c r="AE6" s="132"/>
+      <c r="AF6" s="45" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="150"/>
-      <c r="C7" s="150"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -4241,13 +4259,13 @@
     </row>
     <row r="8" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="150"/>
-      <c r="C8" s="150"/>
-      <c r="D8" s="150"/>
-      <c r="E8" s="150"/>
-      <c r="F8" s="150"/>
-      <c r="G8" s="150"/>
-      <c r="H8" s="150"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -4256,38 +4274,38 @@
       <c r="N8" s="9"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
-      <c r="Q8" s="85" t="s">
+      <c r="Q8" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="164"/>
-      <c r="S8" s="164"/>
-      <c r="T8" s="164"/>
-      <c r="U8" s="164"/>
-      <c r="V8" s="164"/>
-      <c r="W8" s="164"/>
-      <c r="X8" s="165"/>
-      <c r="Y8" s="85" t="s">
+      <c r="R8" s="220"/>
+      <c r="S8" s="220"/>
+      <c r="T8" s="220"/>
+      <c r="U8" s="220"/>
+      <c r="V8" s="220"/>
+      <c r="W8" s="220"/>
+      <c r="X8" s="222"/>
+      <c r="Y8" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="Z8" s="164"/>
-      <c r="AA8" s="164"/>
-      <c r="AB8" s="164"/>
-      <c r="AC8" s="165"/>
-      <c r="AD8" s="85" t="s">
+      <c r="Z8" s="220"/>
+      <c r="AA8" s="220"/>
+      <c r="AB8" s="220"/>
+      <c r="AC8" s="222"/>
+      <c r="AD8" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="AE8" s="164"/>
-      <c r="AF8" s="165"/>
+      <c r="AE8" s="220"/>
+      <c r="AF8" s="222"/>
     </row>
     <row r="9" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="150"/>
-      <c r="C9" s="150"/>
-      <c r="D9" s="150"/>
-      <c r="E9" s="150"/>
-      <c r="F9" s="150"/>
-      <c r="G9" s="150"/>
-      <c r="H9" s="150"/>
+      <c r="B9" s="132"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="132"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -4296,22 +4314,22 @@
       <c r="N9" s="9"/>
       <c r="O9" s="6"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="166"/>
-      <c r="R9" s="149"/>
-      <c r="S9" s="149"/>
-      <c r="T9" s="149"/>
-      <c r="U9" s="149"/>
-      <c r="V9" s="149"/>
-      <c r="W9" s="149"/>
-      <c r="X9" s="167"/>
-      <c r="Y9" s="166"/>
-      <c r="Z9" s="149"/>
-      <c r="AA9" s="149"/>
-      <c r="AB9" s="149"/>
-      <c r="AC9" s="167"/>
-      <c r="AD9" s="166"/>
-      <c r="AE9" s="149"/>
-      <c r="AF9" s="167"/>
+      <c r="Q9" s="223"/>
+      <c r="R9" s="221"/>
+      <c r="S9" s="221"/>
+      <c r="T9" s="221"/>
+      <c r="U9" s="221"/>
+      <c r="V9" s="221"/>
+      <c r="W9" s="221"/>
+      <c r="X9" s="224"/>
+      <c r="Y9" s="223"/>
+      <c r="Z9" s="221"/>
+      <c r="AA9" s="221"/>
+      <c r="AB9" s="221"/>
+      <c r="AC9" s="224"/>
+      <c r="AD9" s="223"/>
+      <c r="AE9" s="221"/>
+      <c r="AF9" s="224"/>
     </row>
     <row r="10" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -4330,44 +4348,44 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="96">
+      <c r="Q10" s="147">
         <v>44986</v>
       </c>
-      <c r="R10" s="80"/>
-      <c r="S10" s="80"/>
-      <c r="T10" s="80"/>
-      <c r="U10" s="80"/>
-      <c r="V10" s="80"/>
-      <c r="W10" s="80"/>
-      <c r="X10" s="81"/>
-      <c r="Y10" s="98">
+      <c r="R10" s="137"/>
+      <c r="S10" s="137"/>
+      <c r="T10" s="137"/>
+      <c r="U10" s="137"/>
+      <c r="V10" s="137"/>
+      <c r="W10" s="137"/>
+      <c r="X10" s="138"/>
+      <c r="Y10" s="151">
         <v>0</v>
       </c>
-      <c r="Z10" s="80"/>
-      <c r="AA10" s="80"/>
-      <c r="AB10" s="80"/>
-      <c r="AC10" s="81"/>
-      <c r="AD10" s="115" t="s">
+      <c r="Z10" s="137"/>
+      <c r="AA10" s="137"/>
+      <c r="AB10" s="137"/>
+      <c r="AC10" s="138"/>
+      <c r="AD10" s="142" t="s">
         <v>47</v>
       </c>
-      <c r="AE10" s="80"/>
-      <c r="AF10" s="81"/>
+      <c r="AE10" s="137"/>
+      <c r="AF10" s="138"/>
     </row>
     <row r="11" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="150"/>
+      <c r="C11" s="132"/>
       <c r="D11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="79" t="s">
+      <c r="E11" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="150"/>
-      <c r="G11" s="150"/>
-      <c r="H11" s="150"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="132"/>
+      <c r="H11" s="132"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -4376,22 +4394,22 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="86"/>
-      <c r="R11" s="87"/>
-      <c r="S11" s="87"/>
-      <c r="T11" s="87"/>
-      <c r="U11" s="87"/>
-      <c r="V11" s="87"/>
-      <c r="W11" s="87"/>
-      <c r="X11" s="88"/>
-      <c r="Y11" s="86"/>
-      <c r="Z11" s="87"/>
-      <c r="AA11" s="87"/>
-      <c r="AB11" s="87"/>
-      <c r="AC11" s="88"/>
-      <c r="AD11" s="86"/>
-      <c r="AE11" s="87"/>
-      <c r="AF11" s="88"/>
+      <c r="Q11" s="139"/>
+      <c r="R11" s="140"/>
+      <c r="S11" s="140"/>
+      <c r="T11" s="140"/>
+      <c r="U11" s="140"/>
+      <c r="V11" s="140"/>
+      <c r="W11" s="140"/>
+      <c r="X11" s="141"/>
+      <c r="Y11" s="139"/>
+      <c r="Z11" s="140"/>
+      <c r="AA11" s="140"/>
+      <c r="AB11" s="140"/>
+      <c r="AC11" s="141"/>
+      <c r="AD11" s="139"/>
+      <c r="AE11" s="140"/>
+      <c r="AF11" s="141"/>
     </row>
     <row r="12" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -4429,75 +4447,75 @@
     </row>
     <row r="13" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="97" t="s">
+      <c r="B13" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="164"/>
-      <c r="D13" s="164"/>
-      <c r="E13" s="164"/>
-      <c r="F13" s="164"/>
-      <c r="G13" s="164"/>
-      <c r="H13" s="164"/>
-      <c r="I13" s="164"/>
-      <c r="J13" s="164"/>
-      <c r="K13" s="164"/>
-      <c r="L13" s="164"/>
-      <c r="M13" s="164"/>
-      <c r="N13" s="164"/>
-      <c r="O13" s="164"/>
-      <c r="P13" s="164"/>
-      <c r="Q13" s="164"/>
-      <c r="R13" s="164"/>
-      <c r="S13" s="164"/>
-      <c r="T13" s="164"/>
-      <c r="U13" s="164"/>
-      <c r="V13" s="164"/>
-      <c r="W13" s="164"/>
-      <c r="X13" s="164"/>
-      <c r="Y13" s="164"/>
-      <c r="Z13" s="164"/>
-      <c r="AA13" s="164"/>
-      <c r="AB13" s="164"/>
+      <c r="C13" s="220"/>
+      <c r="D13" s="220"/>
+      <c r="E13" s="220"/>
+      <c r="F13" s="220"/>
+      <c r="G13" s="220"/>
+      <c r="H13" s="220"/>
+      <c r="I13" s="220"/>
+      <c r="J13" s="220"/>
+      <c r="K13" s="220"/>
+      <c r="L13" s="220"/>
+      <c r="M13" s="220"/>
+      <c r="N13" s="220"/>
+      <c r="O13" s="220"/>
+      <c r="P13" s="220"/>
+      <c r="Q13" s="220"/>
+      <c r="R13" s="220"/>
+      <c r="S13" s="220"/>
+      <c r="T13" s="220"/>
+      <c r="U13" s="220"/>
+      <c r="V13" s="220"/>
+      <c r="W13" s="220"/>
+      <c r="X13" s="220"/>
+      <c r="Y13" s="220"/>
+      <c r="Z13" s="220"/>
+      <c r="AA13" s="220"/>
+      <c r="AB13" s="220"/>
       <c r="AC13" s="33"/>
-      <c r="AD13" s="97" t="s">
+      <c r="AD13" s="148" t="s">
         <v>9</v>
       </c>
-      <c r="AE13" s="164"/>
-      <c r="AF13" s="164"/>
+      <c r="AE13" s="220"/>
+      <c r="AF13" s="220"/>
     </row>
     <row r="14" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="B14" s="149"/>
-      <c r="C14" s="149"/>
-      <c r="D14" s="149"/>
-      <c r="E14" s="149"/>
-      <c r="F14" s="149"/>
-      <c r="G14" s="149"/>
-      <c r="H14" s="149"/>
-      <c r="I14" s="149"/>
-      <c r="J14" s="149"/>
-      <c r="K14" s="149"/>
-      <c r="L14" s="149"/>
-      <c r="M14" s="149"/>
-      <c r="N14" s="149"/>
-      <c r="O14" s="149"/>
-      <c r="P14" s="149"/>
-      <c r="Q14" s="149"/>
-      <c r="R14" s="149"/>
-      <c r="S14" s="149"/>
-      <c r="T14" s="149"/>
-      <c r="U14" s="149"/>
-      <c r="V14" s="149"/>
-      <c r="W14" s="149"/>
-      <c r="X14" s="149"/>
-      <c r="Y14" s="149"/>
-      <c r="Z14" s="149"/>
-      <c r="AA14" s="149"/>
-      <c r="AB14" s="149"/>
+      <c r="B14" s="221"/>
+      <c r="C14" s="221"/>
+      <c r="D14" s="221"/>
+      <c r="E14" s="221"/>
+      <c r="F14" s="221"/>
+      <c r="G14" s="221"/>
+      <c r="H14" s="221"/>
+      <c r="I14" s="221"/>
+      <c r="J14" s="221"/>
+      <c r="K14" s="221"/>
+      <c r="L14" s="221"/>
+      <c r="M14" s="221"/>
+      <c r="N14" s="221"/>
+      <c r="O14" s="221"/>
+      <c r="P14" s="221"/>
+      <c r="Q14" s="221"/>
+      <c r="R14" s="221"/>
+      <c r="S14" s="221"/>
+      <c r="T14" s="221"/>
+      <c r="U14" s="221"/>
+      <c r="V14" s="221"/>
+      <c r="W14" s="221"/>
+      <c r="X14" s="221"/>
+      <c r="Y14" s="221"/>
+      <c r="Z14" s="221"/>
+      <c r="AA14" s="221"/>
+      <c r="AB14" s="221"/>
       <c r="AC14" s="34"/>
-      <c r="AD14" s="149"/>
-      <c r="AE14" s="149"/>
-      <c r="AF14" s="149"/>
+      <c r="AD14" s="221"/>
+      <c r="AE14" s="221"/>
+      <c r="AF14" s="221"/>
     </row>
     <row r="15" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -4534,396 +4552,396 @@
       <c r="AF15" s="14"/>
     </row>
     <row r="16" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="77"/>
-      <c r="B16" s="111" t="s">
+      <c r="A16" s="111"/>
+      <c r="B16" s="133" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="173"/>
-      <c r="D16" s="173"/>
-      <c r="E16" s="180"/>
-      <c r="F16" s="151" t="s">
+      <c r="C16" s="188"/>
+      <c r="D16" s="188"/>
+      <c r="E16" s="189"/>
+      <c r="F16" s="233" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="152"/>
-      <c r="H16" s="152"/>
-      <c r="I16" s="152"/>
-      <c r="J16" s="153"/>
-      <c r="K16" s="175" t="s">
+      <c r="G16" s="186"/>
+      <c r="H16" s="186"/>
+      <c r="I16" s="186"/>
+      <c r="J16" s="187"/>
+      <c r="K16" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="L16" s="152"/>
-      <c r="M16" s="152"/>
-      <c r="N16" s="152"/>
-      <c r="O16" s="152"/>
-      <c r="P16" s="152"/>
-      <c r="Q16" s="152"/>
-      <c r="R16" s="152"/>
-      <c r="S16" s="152"/>
-      <c r="T16" s="152"/>
-      <c r="U16" s="152"/>
-      <c r="V16" s="152"/>
-      <c r="W16" s="152"/>
-      <c r="X16" s="152"/>
-      <c r="Y16" s="152"/>
-      <c r="Z16" s="152"/>
-      <c r="AA16" s="152"/>
-      <c r="AB16" s="153"/>
+      <c r="L16" s="186"/>
+      <c r="M16" s="186"/>
+      <c r="N16" s="186"/>
+      <c r="O16" s="186"/>
+      <c r="P16" s="186"/>
+      <c r="Q16" s="186"/>
+      <c r="R16" s="186"/>
+      <c r="S16" s="186"/>
+      <c r="T16" s="186"/>
+      <c r="U16" s="186"/>
+      <c r="V16" s="186"/>
+      <c r="W16" s="186"/>
+      <c r="X16" s="186"/>
+      <c r="Y16" s="186"/>
+      <c r="Z16" s="186"/>
+      <c r="AA16" s="186"/>
+      <c r="AB16" s="187"/>
       <c r="AC16" s="38"/>
       <c r="AD16" s="42"/>
-      <c r="AE16" s="89"/>
-      <c r="AF16" s="181"/>
+      <c r="AE16" s="152"/>
+      <c r="AF16" s="194"/>
     </row>
     <row r="17" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="77"/>
-      <c r="B17" s="197"/>
-      <c r="C17" s="235"/>
-      <c r="D17" s="235"/>
-      <c r="E17" s="236"/>
-      <c r="F17" s="189" t="s">
+      <c r="A17" s="111"/>
+      <c r="B17" s="215"/>
+      <c r="C17" s="191"/>
+      <c r="D17" s="191"/>
+      <c r="E17" s="192"/>
+      <c r="F17" s="203" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="190"/>
-      <c r="H17" s="190"/>
-      <c r="I17" s="190"/>
-      <c r="J17" s="191"/>
-      <c r="K17" s="154" t="s">
+      <c r="G17" s="204"/>
+      <c r="H17" s="204"/>
+      <c r="I17" s="204"/>
+      <c r="J17" s="205"/>
+      <c r="K17" s="209" t="s">
         <v>45</v>
       </c>
-      <c r="L17" s="155"/>
-      <c r="M17" s="155"/>
-      <c r="N17" s="155"/>
-      <c r="O17" s="155"/>
-      <c r="P17" s="155"/>
-      <c r="Q17" s="155"/>
-      <c r="R17" s="214" t="s">
+      <c r="L17" s="210"/>
+      <c r="M17" s="210"/>
+      <c r="N17" s="210"/>
+      <c r="O17" s="210"/>
+      <c r="P17" s="210"/>
+      <c r="Q17" s="210"/>
+      <c r="R17" s="230" t="s">
         <v>35</v>
       </c>
-      <c r="S17" s="156" t="s">
+      <c r="S17" s="211" t="s">
         <v>46</v>
       </c>
-      <c r="T17" s="156"/>
-      <c r="U17" s="156"/>
-      <c r="V17" s="156"/>
-      <c r="W17" s="156"/>
-      <c r="X17" s="156"/>
-      <c r="Y17" s="156"/>
-      <c r="Z17" s="156"/>
-      <c r="AA17" s="156"/>
-      <c r="AB17" s="157"/>
+      <c r="T17" s="211"/>
+      <c r="U17" s="211"/>
+      <c r="V17" s="211"/>
+      <c r="W17" s="211"/>
+      <c r="X17" s="211"/>
+      <c r="Y17" s="211"/>
+      <c r="Z17" s="211"/>
+      <c r="AA17" s="211"/>
+      <c r="AB17" s="212"/>
       <c r="AC17" s="38"/>
-      <c r="AD17" s="118" t="s">
+      <c r="AD17" s="243" t="s">
         <v>17</v>
       </c>
-      <c r="AE17" s="168">
+      <c r="AE17" s="244">
         <f>K18*S18</f>
         <v>1099040</v>
       </c>
-      <c r="AF17" s="168"/>
+      <c r="AF17" s="244"/>
     </row>
     <row r="18" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="150"/>
-      <c r="B18" s="237"/>
-      <c r="C18" s="181"/>
-      <c r="D18" s="181"/>
-      <c r="E18" s="236"/>
-      <c r="F18" s="192"/>
-      <c r="G18" s="193"/>
-      <c r="H18" s="193"/>
-      <c r="I18" s="193"/>
-      <c r="J18" s="194"/>
-      <c r="K18" s="179">
+      <c r="A18" s="132"/>
+      <c r="B18" s="193"/>
+      <c r="C18" s="194"/>
+      <c r="D18" s="194"/>
+      <c r="E18" s="192"/>
+      <c r="F18" s="206"/>
+      <c r="G18" s="207"/>
+      <c r="H18" s="207"/>
+      <c r="I18" s="207"/>
+      <c r="J18" s="208"/>
+      <c r="K18" s="159">
         <v>16000</v>
       </c>
-      <c r="L18" s="173"/>
-      <c r="M18" s="173"/>
-      <c r="N18" s="173"/>
-      <c r="O18" s="173"/>
-      <c r="P18" s="173"/>
-      <c r="Q18" s="173"/>
-      <c r="R18" s="214"/>
-      <c r="S18" s="206">
+      <c r="L18" s="188"/>
+      <c r="M18" s="188"/>
+      <c r="N18" s="188"/>
+      <c r="O18" s="188"/>
+      <c r="P18" s="188"/>
+      <c r="Q18" s="188"/>
+      <c r="R18" s="230"/>
+      <c r="S18" s="169">
         <v>68.69</v>
       </c>
-      <c r="T18" s="173"/>
-      <c r="U18" s="173"/>
-      <c r="V18" s="173"/>
-      <c r="W18" s="173"/>
-      <c r="X18" s="173"/>
-      <c r="Y18" s="173"/>
-      <c r="Z18" s="173"/>
-      <c r="AA18" s="173"/>
-      <c r="AB18" s="180"/>
+      <c r="T18" s="188"/>
+      <c r="U18" s="188"/>
+      <c r="V18" s="188"/>
+      <c r="W18" s="188"/>
+      <c r="X18" s="188"/>
+      <c r="Y18" s="188"/>
+      <c r="Z18" s="188"/>
+      <c r="AA18" s="188"/>
+      <c r="AB18" s="189"/>
       <c r="AC18" s="38"/>
-      <c r="AD18" s="118"/>
-      <c r="AE18" s="168"/>
-      <c r="AF18" s="168"/>
+      <c r="AD18" s="243"/>
+      <c r="AE18" s="244"/>
+      <c r="AF18" s="244"/>
     </row>
     <row r="19" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="238"/>
+      <c r="B19" s="195"/>
       <c r="C19" s="196"/>
       <c r="D19" s="196"/>
-      <c r="E19" s="239"/>
-      <c r="F19" s="67" t="s">
+      <c r="E19" s="197"/>
+      <c r="F19" s="146" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="177"/>
-      <c r="H19" s="177"/>
-      <c r="I19" s="177"/>
-      <c r="J19" s="178"/>
-      <c r="K19" s="211">
+      <c r="G19" s="217"/>
+      <c r="H19" s="217"/>
+      <c r="I19" s="217"/>
+      <c r="J19" s="218"/>
+      <c r="K19" s="198">
         <f>ROUND(AE17*11%,0)</f>
         <v>120894</v>
       </c>
-      <c r="L19" s="212"/>
-      <c r="M19" s="212"/>
-      <c r="N19" s="212"/>
-      <c r="O19" s="212"/>
-      <c r="P19" s="212"/>
-      <c r="Q19" s="212"/>
-      <c r="R19" s="212"/>
-      <c r="S19" s="212"/>
-      <c r="T19" s="212"/>
-      <c r="U19" s="212"/>
-      <c r="V19" s="212"/>
-      <c r="W19" s="212"/>
-      <c r="X19" s="212"/>
-      <c r="Y19" s="212"/>
-      <c r="Z19" s="212"/>
-      <c r="AA19" s="212"/>
-      <c r="AB19" s="213"/>
+      <c r="L19" s="199"/>
+      <c r="M19" s="199"/>
+      <c r="N19" s="199"/>
+      <c r="O19" s="199"/>
+      <c r="P19" s="199"/>
+      <c r="Q19" s="199"/>
+      <c r="R19" s="199"/>
+      <c r="S19" s="199"/>
+      <c r="T19" s="199"/>
+      <c r="U19" s="199"/>
+      <c r="V19" s="199"/>
+      <c r="W19" s="199"/>
+      <c r="X19" s="199"/>
+      <c r="Y19" s="199"/>
+      <c r="Z19" s="199"/>
+      <c r="AA19" s="199"/>
+      <c r="AB19" s="200"/>
       <c r="AC19" s="38"/>
       <c r="AD19" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE19" s="183">
+      <c r="AE19" s="214">
         <f>K19</f>
         <v>120894</v>
       </c>
-      <c r="AF19" s="184"/>
+      <c r="AF19" s="219"/>
     </row>
     <row r="20" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="53"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="11"/>
-      <c r="D20" s="240"/>
+      <c r="D20" s="68"/>
       <c r="E20" s="38"/>
-      <c r="F20" s="188"/>
-      <c r="G20" s="181"/>
-      <c r="H20" s="181"/>
-      <c r="I20" s="181"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="241"/>
-      <c r="L20" s="181"/>
-      <c r="M20" s="181"/>
-      <c r="N20" s="181"/>
-      <c r="O20" s="102"/>
-      <c r="P20" s="181"/>
-      <c r="Q20" s="242"/>
-      <c r="R20" s="181"/>
-      <c r="S20" s="181"/>
-      <c r="T20" s="181"/>
-      <c r="U20" s="181"/>
-      <c r="V20" s="181"/>
-      <c r="W20" s="181"/>
-      <c r="X20" s="53"/>
-      <c r="Y20" s="53"/>
-      <c r="Z20" s="53"/>
-      <c r="AA20" s="53"/>
-      <c r="AB20" s="53"/>
+      <c r="F20" s="202"/>
+      <c r="G20" s="194"/>
+      <c r="H20" s="194"/>
+      <c r="I20" s="194"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="234"/>
+      <c r="L20" s="194"/>
+      <c r="M20" s="194"/>
+      <c r="N20" s="194"/>
+      <c r="O20" s="165"/>
+      <c r="P20" s="194"/>
+      <c r="Q20" s="232"/>
+      <c r="R20" s="194"/>
+      <c r="S20" s="194"/>
+      <c r="T20" s="194"/>
+      <c r="U20" s="194"/>
+      <c r="V20" s="194"/>
+      <c r="W20" s="194"/>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="52"/>
+      <c r="Z20" s="52"/>
+      <c r="AA20" s="52"/>
+      <c r="AB20" s="52"/>
       <c r="AC20" s="38"/>
       <c r="AD20" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE20" s="172">
+      <c r="AE20" s="229">
         <f>AE17+AE19</f>
         <v>1219934</v>
       </c>
-      <c r="AF20" s="173"/>
+      <c r="AF20" s="188"/>
     </row>
     <row r="21" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="105" t="s">
+      <c r="B21" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="173"/>
-      <c r="D21" s="173"/>
-      <c r="E21" s="180"/>
-      <c r="F21" s="170" t="s">
+      <c r="C21" s="188"/>
+      <c r="D21" s="188"/>
+      <c r="E21" s="189"/>
+      <c r="F21" s="228" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="152"/>
-      <c r="H21" s="152"/>
-      <c r="I21" s="152"/>
-      <c r="J21" s="153"/>
-      <c r="K21" s="175" t="s">
+      <c r="G21" s="186"/>
+      <c r="H21" s="186"/>
+      <c r="I21" s="186"/>
+      <c r="J21" s="187"/>
+      <c r="K21" s="185" t="s">
         <v>44</v>
       </c>
-      <c r="L21" s="152"/>
-      <c r="M21" s="152"/>
-      <c r="N21" s="152"/>
-      <c r="O21" s="152"/>
-      <c r="P21" s="152"/>
-      <c r="Q21" s="152"/>
-      <c r="R21" s="152"/>
-      <c r="S21" s="152"/>
-      <c r="T21" s="152"/>
-      <c r="U21" s="152"/>
-      <c r="V21" s="152"/>
-      <c r="W21" s="152"/>
-      <c r="X21" s="152"/>
-      <c r="Y21" s="152"/>
-      <c r="Z21" s="152"/>
-      <c r="AA21" s="152"/>
-      <c r="AB21" s="153"/>
+      <c r="L21" s="186"/>
+      <c r="M21" s="186"/>
+      <c r="N21" s="186"/>
+      <c r="O21" s="186"/>
+      <c r="P21" s="186"/>
+      <c r="Q21" s="186"/>
+      <c r="R21" s="186"/>
+      <c r="S21" s="186"/>
+      <c r="T21" s="186"/>
+      <c r="U21" s="186"/>
+      <c r="V21" s="186"/>
+      <c r="W21" s="186"/>
+      <c r="X21" s="186"/>
+      <c r="Y21" s="186"/>
+      <c r="Z21" s="186"/>
+      <c r="AA21" s="186"/>
+      <c r="AB21" s="187"/>
       <c r="AC21" s="18"/>
       <c r="AD21" s="42"/>
-      <c r="AE21" s="119"/>
-      <c r="AF21" s="181"/>
+      <c r="AE21" s="107"/>
+      <c r="AF21" s="194"/>
     </row>
     <row r="22" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="186"/>
-      <c r="C22" s="235"/>
-      <c r="D22" s="235"/>
-      <c r="E22" s="236"/>
-      <c r="F22" s="158" t="s">
+      <c r="B22" s="190"/>
+      <c r="C22" s="191"/>
+      <c r="D22" s="191"/>
+      <c r="E22" s="192"/>
+      <c r="F22" s="235" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="159"/>
-      <c r="H22" s="159"/>
-      <c r="I22" s="159"/>
-      <c r="J22" s="160"/>
-      <c r="K22" s="154" t="s">
+      <c r="G22" s="236"/>
+      <c r="H22" s="236"/>
+      <c r="I22" s="236"/>
+      <c r="J22" s="237"/>
+      <c r="K22" s="209" t="s">
         <v>45</v>
       </c>
-      <c r="L22" s="155"/>
-      <c r="M22" s="155"/>
-      <c r="N22" s="155"/>
-      <c r="O22" s="155"/>
-      <c r="P22" s="155"/>
-      <c r="Q22" s="155"/>
-      <c r="R22" s="215" t="s">
+      <c r="L22" s="210"/>
+      <c r="M22" s="210"/>
+      <c r="N22" s="210"/>
+      <c r="O22" s="210"/>
+      <c r="P22" s="210"/>
+      <c r="Q22" s="210"/>
+      <c r="R22" s="241" t="s">
         <v>35</v>
       </c>
-      <c r="S22" s="156" t="s">
+      <c r="S22" s="211" t="s">
         <v>46</v>
       </c>
-      <c r="T22" s="156"/>
-      <c r="U22" s="156"/>
-      <c r="V22" s="156"/>
-      <c r="W22" s="156"/>
-      <c r="X22" s="156"/>
-      <c r="Y22" s="156"/>
-      <c r="Z22" s="156"/>
-      <c r="AA22" s="156"/>
-      <c r="AB22" s="157"/>
+      <c r="T22" s="211"/>
+      <c r="U22" s="211"/>
+      <c r="V22" s="211"/>
+      <c r="W22" s="211"/>
+      <c r="X22" s="211"/>
+      <c r="Y22" s="211"/>
+      <c r="Z22" s="211"/>
+      <c r="AA22" s="211"/>
+      <c r="AB22" s="212"/>
       <c r="AC22" s="18"/>
-      <c r="AD22" s="118" t="s">
+      <c r="AD22" s="243" t="s">
         <v>17</v>
       </c>
-      <c r="AE22" s="217">
+      <c r="AE22" s="245">
         <f>K23*S23</f>
         <v>109904</v>
       </c>
-      <c r="AF22" s="217"/>
+      <c r="AF22" s="245"/>
     </row>
     <row r="23" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="237"/>
-      <c r="C23" s="181"/>
-      <c r="D23" s="181"/>
-      <c r="E23" s="236"/>
-      <c r="F23" s="161"/>
-      <c r="G23" s="162"/>
-      <c r="H23" s="162"/>
-      <c r="I23" s="162"/>
-      <c r="J23" s="163"/>
-      <c r="K23" s="176">
+      <c r="B23" s="193"/>
+      <c r="C23" s="194"/>
+      <c r="D23" s="194"/>
+      <c r="E23" s="192"/>
+      <c r="F23" s="238"/>
+      <c r="G23" s="239"/>
+      <c r="H23" s="239"/>
+      <c r="I23" s="239"/>
+      <c r="J23" s="240"/>
+      <c r="K23" s="226">
         <f>IF(K18&lt;&gt;0,K18*10%,VLOOKUP(E11,[1]!SCSF_Billings[#Data],6,FALSE))</f>
         <v>1600</v>
       </c>
-      <c r="L23" s="177"/>
-      <c r="M23" s="177"/>
-      <c r="N23" s="177"/>
-      <c r="O23" s="177"/>
-      <c r="P23" s="177"/>
-      <c r="Q23" s="177"/>
-      <c r="R23" s="216"/>
-      <c r="S23" s="210">
+      <c r="L23" s="217"/>
+      <c r="M23" s="217"/>
+      <c r="N23" s="217"/>
+      <c r="O23" s="217"/>
+      <c r="P23" s="217"/>
+      <c r="Q23" s="217"/>
+      <c r="R23" s="242"/>
+      <c r="S23" s="216">
         <f>S18</f>
         <v>68.69</v>
       </c>
-      <c r="T23" s="177"/>
-      <c r="U23" s="177"/>
-      <c r="V23" s="177"/>
-      <c r="W23" s="177"/>
-      <c r="X23" s="177"/>
-      <c r="Y23" s="177"/>
-      <c r="Z23" s="177"/>
-      <c r="AA23" s="177"/>
-      <c r="AB23" s="178"/>
+      <c r="T23" s="217"/>
+      <c r="U23" s="217"/>
+      <c r="V23" s="217"/>
+      <c r="W23" s="217"/>
+      <c r="X23" s="217"/>
+      <c r="Y23" s="217"/>
+      <c r="Z23" s="217"/>
+      <c r="AA23" s="217"/>
+      <c r="AB23" s="218"/>
       <c r="AC23" s="18"/>
-      <c r="AD23" s="118"/>
-      <c r="AE23" s="140"/>
-      <c r="AF23" s="140"/>
+      <c r="AD23" s="243"/>
+      <c r="AE23" s="245"/>
+      <c r="AF23" s="245"/>
     </row>
     <row r="24" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="238"/>
+      <c r="B24" s="195"/>
       <c r="C24" s="196"/>
       <c r="D24" s="196"/>
-      <c r="E24" s="239"/>
-      <c r="F24" s="182" t="s">
+      <c r="E24" s="197"/>
+      <c r="F24" s="227" t="s">
         <v>33</v>
       </c>
-      <c r="G24" s="177"/>
-      <c r="H24" s="177"/>
-      <c r="I24" s="177"/>
-      <c r="J24" s="178"/>
-      <c r="K24" s="211">
+      <c r="G24" s="217"/>
+      <c r="H24" s="217"/>
+      <c r="I24" s="217"/>
+      <c r="J24" s="218"/>
+      <c r="K24" s="198">
         <f>ROUND(AE22*11%,0)</f>
         <v>12089</v>
       </c>
-      <c r="L24" s="212"/>
-      <c r="M24" s="212"/>
-      <c r="N24" s="212"/>
-      <c r="O24" s="212"/>
-      <c r="P24" s="212"/>
-      <c r="Q24" s="212"/>
-      <c r="R24" s="212"/>
-      <c r="S24" s="212"/>
-      <c r="T24" s="212"/>
-      <c r="U24" s="212"/>
-      <c r="V24" s="212"/>
-      <c r="W24" s="212"/>
-      <c r="X24" s="212"/>
-      <c r="Y24" s="212"/>
-      <c r="Z24" s="212"/>
-      <c r="AA24" s="212"/>
-      <c r="AB24" s="213"/>
+      <c r="L24" s="199"/>
+      <c r="M24" s="199"/>
+      <c r="N24" s="199"/>
+      <c r="O24" s="199"/>
+      <c r="P24" s="199"/>
+      <c r="Q24" s="199"/>
+      <c r="R24" s="199"/>
+      <c r="S24" s="199"/>
+      <c r="T24" s="199"/>
+      <c r="U24" s="199"/>
+      <c r="V24" s="199"/>
+      <c r="W24" s="199"/>
+      <c r="X24" s="199"/>
+      <c r="Y24" s="199"/>
+      <c r="Z24" s="199"/>
+      <c r="AA24" s="199"/>
+      <c r="AB24" s="200"/>
       <c r="AC24" s="18"/>
       <c r="AD24" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE24" s="140">
+      <c r="AE24" s="92">
         <f>K24</f>
         <v>12089</v>
       </c>
       <c r="AF24" s="196"/>
     </row>
-    <row r="25" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="77"/>
+    <row r="25" spans="1:32" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="111"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>
-      <c r="F25" s="187"/>
+      <c r="F25" s="201"/>
       <c r="G25" s="196"/>
       <c r="H25" s="196"/>
       <c r="I25" s="196"/>
-      <c r="J25" s="243"/>
-      <c r="K25" s="148"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="231"/>
       <c r="L25" s="196"/>
       <c r="M25" s="196"/>
       <c r="N25" s="196"/>
@@ -4941,18 +4959,18 @@
       <c r="Z25" s="36"/>
       <c r="AA25" s="36"/>
       <c r="AB25" s="36"/>
-      <c r="AC25" s="244"/>
-      <c r="AD25" s="43" t="s">
+      <c r="AC25" s="70"/>
+      <c r="AD25" s="246" t="s">
         <v>17</v>
       </c>
-      <c r="AE25" s="183">
+      <c r="AE25" s="247">
         <f>AE22+AE24</f>
         <v>121993</v>
       </c>
-      <c r="AF25" s="196"/>
-    </row>
-    <row r="26" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="150"/>
+      <c r="AF25" s="248"/>
+    </row>
+    <row r="26" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="132"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
@@ -4961,7 +4979,7 @@
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
-      <c r="J26" s="53"/>
+      <c r="J26" s="52"/>
       <c r="K26" s="16"/>
       <c r="L26" s="16"/>
       <c r="M26" s="16"/>
@@ -4982,51 +5000,51 @@
       <c r="AB26" s="23"/>
       <c r="AC26" s="38"/>
       <c r="AD26" s="42"/>
-      <c r="AE26" s="60"/>
-      <c r="AF26" s="60"/>
+      <c r="AE26" s="59"/>
+      <c r="AF26" s="59"/>
     </row>
     <row r="27" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="150"/>
+      <c r="A27" s="132"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="142" t="s">
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="52"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="U27" s="181"/>
-      <c r="V27" s="181"/>
-      <c r="W27" s="181"/>
-      <c r="X27" s="181"/>
-      <c r="Y27" s="181"/>
-      <c r="Z27" s="181"/>
-      <c r="AA27" s="181"/>
-      <c r="AB27" s="181"/>
+      <c r="U27" s="194"/>
+      <c r="V27" s="194"/>
+      <c r="W27" s="194"/>
+      <c r="X27" s="194"/>
+      <c r="Y27" s="194"/>
+      <c r="Z27" s="194"/>
+      <c r="AA27" s="194"/>
+      <c r="AB27" s="194"/>
       <c r="AC27" s="18"/>
       <c r="AD27" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE27" s="245">
+      <c r="AE27" s="183">
         <v>10000</v>
       </c>
-      <c r="AF27" s="169"/>
+      <c r="AF27" s="184"/>
     </row>
     <row r="28" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="150"/>
+      <c r="A28" s="132"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -5045,25 +5063,25 @@
       <c r="Q28" s="9"/>
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
-      <c r="T28" s="122" t="s">
+      <c r="T28" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="U28" s="181"/>
-      <c r="V28" s="181"/>
-      <c r="W28" s="181"/>
-      <c r="X28" s="181"/>
-      <c r="Y28" s="181"/>
-      <c r="Z28" s="181"/>
-      <c r="AA28" s="181"/>
-      <c r="AB28" s="181"/>
+      <c r="U28" s="194"/>
+      <c r="V28" s="194"/>
+      <c r="W28" s="194"/>
+      <c r="X28" s="194"/>
+      <c r="Y28" s="194"/>
+      <c r="Z28" s="194"/>
+      <c r="AA28" s="194"/>
+      <c r="AB28" s="194"/>
       <c r="AC28" s="28"/>
       <c r="AD28" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE28" s="195">
+      <c r="AE28" s="213">
         <v>10000</v>
       </c>
-      <c r="AF28" s="169"/>
+      <c r="AF28" s="184"/>
     </row>
     <row r="29" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
@@ -5085,26 +5103,26 @@
       <c r="Q29" s="19"/>
       <c r="R29" s="19"/>
       <c r="S29" s="19"/>
-      <c r="T29" s="143" t="s">
+      <c r="T29" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="U29" s="181"/>
-      <c r="V29" s="181"/>
-      <c r="W29" s="181"/>
-      <c r="X29" s="181"/>
-      <c r="Y29" s="181"/>
-      <c r="Z29" s="181"/>
-      <c r="AA29" s="181"/>
-      <c r="AB29" s="181"/>
+      <c r="U29" s="194"/>
+      <c r="V29" s="194"/>
+      <c r="W29" s="194"/>
+      <c r="X29" s="194"/>
+      <c r="Y29" s="194"/>
+      <c r="Z29" s="194"/>
+      <c r="AA29" s="194"/>
+      <c r="AB29" s="194"/>
       <c r="AC29" s="19"/>
       <c r="AD29" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE29" s="92">
+      <c r="AE29" s="118">
         <f>AE20+AE25+AE27+AE28</f>
         <v>1361927</v>
       </c>
-      <c r="AF29" s="181"/>
+      <c r="AF29" s="194"/>
     </row>
     <row r="30" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
@@ -5126,91 +5144,91 @@
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
-      <c r="T30" s="54"/>
-      <c r="U30" s="53"/>
-      <c r="V30" s="53"/>
-      <c r="W30" s="53"/>
-      <c r="X30" s="53"/>
-      <c r="Y30" s="53"/>
-      <c r="Z30" s="53"/>
-      <c r="AA30" s="53"/>
-      <c r="AB30" s="53"/>
+      <c r="T30" s="53"/>
+      <c r="U30" s="52"/>
+      <c r="V30" s="52"/>
+      <c r="W30" s="52"/>
+      <c r="X30" s="52"/>
+      <c r="Y30" s="52"/>
+      <c r="Z30" s="52"/>
+      <c r="AA30" s="52"/>
+      <c r="AB30" s="52"/>
       <c r="AC30" s="3"/>
       <c r="AD30" s="42"/>
-      <c r="AE30" s="51"/>
-      <c r="AF30" s="53"/>
+      <c r="AE30" s="50"/>
+      <c r="AF30" s="52"/>
     </row>
     <row r="31" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="56"/>
-      <c r="N31" s="56"/>
-      <c r="O31" s="56"/>
-      <c r="P31" s="56"/>
-      <c r="Q31" s="56"/>
-      <c r="R31" s="56"/>
-      <c r="S31" s="56"/>
-      <c r="T31" s="57"/>
-      <c r="U31" s="57"/>
-      <c r="V31" s="57"/>
-      <c r="W31" s="57"/>
-      <c r="X31" s="57"/>
-      <c r="Y31" s="57"/>
-      <c r="Z31" s="57"/>
-      <c r="AA31" s="57"/>
-      <c r="AB31" s="57"/>
-      <c r="AC31" s="56"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="55"/>
+      <c r="P31" s="55"/>
+      <c r="Q31" s="55"/>
+      <c r="R31" s="55"/>
+      <c r="S31" s="55"/>
+      <c r="T31" s="56"/>
+      <c r="U31" s="56"/>
+      <c r="V31" s="56"/>
+      <c r="W31" s="56"/>
+      <c r="X31" s="56"/>
+      <c r="Y31" s="56"/>
+      <c r="Z31" s="56"/>
+      <c r="AA31" s="56"/>
+      <c r="AB31" s="56"/>
+      <c r="AC31" s="55"/>
       <c r="AD31" s="27"/>
-      <c r="AE31" s="56"/>
-      <c r="AF31" s="58"/>
+      <c r="AE31" s="55"/>
+      <c r="AF31" s="57"/>
     </row>
     <row r="32" spans="1:32" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="134" t="s">
+      <c r="B32" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="134"/>
-      <c r="D32" s="134"/>
-      <c r="E32" s="134"/>
-      <c r="F32" s="134"/>
-      <c r="G32" s="202" t="s">
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="181" t="s">
         <v>51</v>
       </c>
-      <c r="H32" s="202"/>
-      <c r="I32" s="202"/>
-      <c r="J32" s="202"/>
-      <c r="K32" s="202"/>
-      <c r="L32" s="202"/>
-      <c r="M32" s="202"/>
-      <c r="N32" s="202"/>
-      <c r="O32" s="202"/>
-      <c r="P32" s="202"/>
-      <c r="Q32" s="202"/>
-      <c r="R32" s="202"/>
-      <c r="S32" s="202"/>
-      <c r="T32" s="202"/>
-      <c r="U32" s="202"/>
-      <c r="V32" s="202"/>
-      <c r="W32" s="202"/>
-      <c r="X32" s="202"/>
-      <c r="Y32" s="202"/>
-      <c r="Z32" s="202"/>
-      <c r="AA32" s="202"/>
-      <c r="AB32" s="202"/>
-      <c r="AC32" s="202"/>
-      <c r="AD32" s="202"/>
-      <c r="AE32" s="202"/>
-      <c r="AF32" s="202"/>
+      <c r="H32" s="181"/>
+      <c r="I32" s="181"/>
+      <c r="J32" s="181"/>
+      <c r="K32" s="181"/>
+      <c r="L32" s="181"/>
+      <c r="M32" s="181"/>
+      <c r="N32" s="181"/>
+      <c r="O32" s="181"/>
+      <c r="P32" s="181"/>
+      <c r="Q32" s="181"/>
+      <c r="R32" s="181"/>
+      <c r="S32" s="181"/>
+      <c r="T32" s="181"/>
+      <c r="U32" s="181"/>
+      <c r="V32" s="181"/>
+      <c r="W32" s="181"/>
+      <c r="X32" s="181"/>
+      <c r="Y32" s="181"/>
+      <c r="Z32" s="181"/>
+      <c r="AA32" s="181"/>
+      <c r="AB32" s="181"/>
+      <c r="AC32" s="181"/>
+      <c r="AD32" s="181"/>
+      <c r="AE32" s="181"/>
+      <c r="AF32" s="181"/>
     </row>
     <row r="33" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
@@ -5338,201 +5356,201 @@
       <c r="U36" s="6"/>
       <c r="V36" s="6"/>
       <c r="W36" s="6"/>
-      <c r="X36" s="49"/>
-      <c r="AB36" s="203" t="s">
+      <c r="X36" s="48"/>
+      <c r="AB36" s="182" t="s">
         <v>42</v>
       </c>
-      <c r="AC36" s="203"/>
-      <c r="AD36" s="203"/>
-      <c r="AE36" s="203"/>
-      <c r="AF36" s="203"/>
+      <c r="AC36" s="182"/>
+      <c r="AD36" s="182"/>
+      <c r="AE36" s="182"/>
+      <c r="AF36" s="182"/>
     </row>
     <row r="37" spans="1:32" ht="5.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
-      <c r="B37" s="125" t="s">
+      <c r="B37" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="126"/>
-      <c r="D37" s="126"/>
-      <c r="E37" s="126"/>
-      <c r="F37" s="126"/>
-      <c r="G37" s="126"/>
-      <c r="H37" s="126"/>
-      <c r="I37" s="126"/>
-      <c r="J37" s="126"/>
-      <c r="K37" s="126"/>
-      <c r="L37" s="126"/>
-      <c r="M37" s="126"/>
-      <c r="N37" s="126"/>
-      <c r="O37" s="126"/>
-      <c r="P37" s="126"/>
-      <c r="Q37" s="126"/>
-      <c r="R37" s="126"/>
-      <c r="S37" s="126"/>
-      <c r="T37" s="127"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="72"/>
+      <c r="L37" s="72"/>
+      <c r="M37" s="72"/>
+      <c r="N37" s="72"/>
+      <c r="O37" s="72"/>
+      <c r="P37" s="72"/>
+      <c r="Q37" s="72"/>
+      <c r="R37" s="72"/>
+      <c r="S37" s="72"/>
+      <c r="T37" s="73"/>
       <c r="V37" s="6"/>
       <c r="W37" s="6"/>
-      <c r="AB37" s="203"/>
-      <c r="AC37" s="203"/>
-      <c r="AD37" s="203"/>
-      <c r="AE37" s="203"/>
-      <c r="AF37" s="203"/>
+      <c r="AB37" s="182"/>
+      <c r="AC37" s="182"/>
+      <c r="AD37" s="182"/>
+      <c r="AE37" s="182"/>
+      <c r="AF37" s="182"/>
     </row>
     <row r="38" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
-      <c r="B38" s="128"/>
-      <c r="C38" s="129"/>
-      <c r="D38" s="129"/>
-      <c r="E38" s="129"/>
-      <c r="F38" s="129"/>
-      <c r="G38" s="129"/>
-      <c r="H38" s="129"/>
-      <c r="I38" s="129"/>
-      <c r="J38" s="129"/>
-      <c r="K38" s="129"/>
-      <c r="L38" s="129"/>
-      <c r="M38" s="129"/>
-      <c r="N38" s="129"/>
-      <c r="O38" s="129"/>
-      <c r="P38" s="129"/>
-      <c r="Q38" s="129"/>
-      <c r="R38" s="129"/>
-      <c r="S38" s="129"/>
-      <c r="T38" s="130"/>
+      <c r="B38" s="74"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="75"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="75"/>
+      <c r="K38" s="75"/>
+      <c r="L38" s="75"/>
+      <c r="M38" s="75"/>
+      <c r="N38" s="75"/>
+      <c r="O38" s="75"/>
+      <c r="P38" s="75"/>
+      <c r="Q38" s="75"/>
+      <c r="R38" s="75"/>
+      <c r="S38" s="75"/>
+      <c r="T38" s="76"/>
       <c r="V38" s="6"/>
       <c r="W38" s="6"/>
-      <c r="AB38" s="203"/>
-      <c r="AC38" s="203"/>
-      <c r="AD38" s="203"/>
-      <c r="AE38" s="203"/>
-      <c r="AF38" s="203"/>
+      <c r="AB38" s="182"/>
+      <c r="AC38" s="182"/>
+      <c r="AD38" s="182"/>
+      <c r="AE38" s="182"/>
+      <c r="AF38" s="182"/>
     </row>
     <row r="39" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
-      <c r="B39" s="128"/>
-      <c r="C39" s="129"/>
-      <c r="D39" s="129"/>
-      <c r="E39" s="129"/>
-      <c r="F39" s="129"/>
-      <c r="G39" s="129"/>
-      <c r="H39" s="129"/>
-      <c r="I39" s="129"/>
-      <c r="J39" s="129"/>
-      <c r="K39" s="129"/>
-      <c r="L39" s="129"/>
-      <c r="M39" s="129"/>
-      <c r="N39" s="129"/>
-      <c r="O39" s="129"/>
-      <c r="P39" s="129"/>
-      <c r="Q39" s="129"/>
-      <c r="R39" s="129"/>
-      <c r="S39" s="129"/>
-      <c r="T39" s="130"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="75"/>
+      <c r="J39" s="75"/>
+      <c r="K39" s="75"/>
+      <c r="L39" s="75"/>
+      <c r="M39" s="75"/>
+      <c r="N39" s="75"/>
+      <c r="O39" s="75"/>
+      <c r="P39" s="75"/>
+      <c r="Q39" s="75"/>
+      <c r="R39" s="75"/>
+      <c r="S39" s="75"/>
+      <c r="T39" s="76"/>
       <c r="V39" s="6"/>
       <c r="W39" s="6"/>
     </row>
     <row r="40" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
-      <c r="B40" s="128"/>
-      <c r="C40" s="129"/>
-      <c r="D40" s="129"/>
-      <c r="E40" s="129"/>
-      <c r="F40" s="129"/>
-      <c r="G40" s="129"/>
-      <c r="H40" s="129"/>
-      <c r="I40" s="129"/>
-      <c r="J40" s="129"/>
-      <c r="K40" s="129"/>
-      <c r="L40" s="129"/>
-      <c r="M40" s="129"/>
-      <c r="N40" s="129"/>
-      <c r="O40" s="129"/>
-      <c r="P40" s="129"/>
-      <c r="Q40" s="129"/>
-      <c r="R40" s="129"/>
-      <c r="S40" s="129"/>
-      <c r="T40" s="130"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="75"/>
+      <c r="I40" s="75"/>
+      <c r="J40" s="75"/>
+      <c r="K40" s="75"/>
+      <c r="L40" s="75"/>
+      <c r="M40" s="75"/>
+      <c r="N40" s="75"/>
+      <c r="O40" s="75"/>
+      <c r="P40" s="75"/>
+      <c r="Q40" s="75"/>
+      <c r="R40" s="75"/>
+      <c r="S40" s="75"/>
+      <c r="T40" s="76"/>
       <c r="V40" s="6"/>
       <c r="W40" s="6"/>
     </row>
     <row r="41" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
-      <c r="B41" s="128"/>
-      <c r="C41" s="129"/>
-      <c r="D41" s="129"/>
-      <c r="E41" s="129"/>
-      <c r="F41" s="129"/>
-      <c r="G41" s="129"/>
-      <c r="H41" s="129"/>
-      <c r="I41" s="129"/>
-      <c r="J41" s="129"/>
-      <c r="K41" s="129"/>
-      <c r="L41" s="129"/>
-      <c r="M41" s="129"/>
-      <c r="N41" s="129"/>
-      <c r="O41" s="129"/>
-      <c r="P41" s="129"/>
-      <c r="Q41" s="129"/>
-      <c r="R41" s="129"/>
-      <c r="S41" s="129"/>
-      <c r="T41" s="130"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="75"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="75"/>
+      <c r="I41" s="75"/>
+      <c r="J41" s="75"/>
+      <c r="K41" s="75"/>
+      <c r="L41" s="75"/>
+      <c r="M41" s="75"/>
+      <c r="N41" s="75"/>
+      <c r="O41" s="75"/>
+      <c r="P41" s="75"/>
+      <c r="Q41" s="75"/>
+      <c r="R41" s="75"/>
+      <c r="S41" s="75"/>
+      <c r="T41" s="76"/>
       <c r="V41" s="6"/>
       <c r="W41" s="6"/>
     </row>
     <row r="42" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
-      <c r="B42" s="128"/>
-      <c r="C42" s="129"/>
-      <c r="D42" s="129"/>
-      <c r="E42" s="129"/>
-      <c r="F42" s="129"/>
-      <c r="G42" s="129"/>
-      <c r="H42" s="129"/>
-      <c r="I42" s="129"/>
-      <c r="J42" s="129"/>
-      <c r="K42" s="129"/>
-      <c r="L42" s="129"/>
-      <c r="M42" s="129"/>
-      <c r="N42" s="129"/>
-      <c r="O42" s="129"/>
-      <c r="P42" s="129"/>
-      <c r="Q42" s="129"/>
-      <c r="R42" s="129"/>
-      <c r="S42" s="129"/>
-      <c r="T42" s="130"/>
+      <c r="B42" s="74"/>
+      <c r="C42" s="75"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="75"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="75"/>
+      <c r="H42" s="75"/>
+      <c r="I42" s="75"/>
+      <c r="J42" s="75"/>
+      <c r="K42" s="75"/>
+      <c r="L42" s="75"/>
+      <c r="M42" s="75"/>
+      <c r="N42" s="75"/>
+      <c r="O42" s="75"/>
+      <c r="P42" s="75"/>
+      <c r="Q42" s="75"/>
+      <c r="R42" s="75"/>
+      <c r="S42" s="75"/>
+      <c r="T42" s="76"/>
       <c r="V42" s="6"/>
       <c r="W42" s="6"/>
     </row>
     <row r="43" spans="1:32" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
-      <c r="B43" s="131"/>
-      <c r="C43" s="132"/>
-      <c r="D43" s="132"/>
-      <c r="E43" s="132"/>
-      <c r="F43" s="132"/>
-      <c r="G43" s="132"/>
-      <c r="H43" s="132"/>
-      <c r="I43" s="132"/>
-      <c r="J43" s="132"/>
-      <c r="K43" s="132"/>
-      <c r="L43" s="132"/>
-      <c r="M43" s="132"/>
-      <c r="N43" s="132"/>
-      <c r="O43" s="132"/>
-      <c r="P43" s="132"/>
-      <c r="Q43" s="132"/>
-      <c r="R43" s="132"/>
-      <c r="S43" s="132"/>
-      <c r="T43" s="133"/>
+      <c r="B43" s="77"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="78"/>
+      <c r="H43" s="78"/>
+      <c r="I43" s="78"/>
+      <c r="J43" s="78"/>
+      <c r="K43" s="78"/>
+      <c r="L43" s="78"/>
+      <c r="M43" s="78"/>
+      <c r="N43" s="78"/>
+      <c r="O43" s="78"/>
+      <c r="P43" s="78"/>
+      <c r="Q43" s="78"/>
+      <c r="R43" s="78"/>
+      <c r="S43" s="78"/>
+      <c r="T43" s="79"/>
       <c r="V43" s="6"/>
       <c r="W43" s="6"/>
-      <c r="AB43" s="171" t="s">
+      <c r="AB43" s="179" t="s">
         <v>43</v>
       </c>
-      <c r="AC43" s="201"/>
-      <c r="AD43" s="201"/>
-      <c r="AE43" s="201"/>
-      <c r="AF43" s="201"/>
+      <c r="AC43" s="180"/>
+      <c r="AD43" s="180"/>
+      <c r="AE43" s="180"/>
+      <c r="AF43" s="180"/>
     </row>
     <row r="44" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
@@ -5558,11 +5576,11 @@
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
       <c r="W44" s="6"/>
-      <c r="AB44" s="199"/>
-      <c r="AC44" s="200"/>
-      <c r="AD44" s="200"/>
-      <c r="AE44" s="200"/>
-      <c r="AF44" s="200"/>
+      <c r="AB44" s="177"/>
+      <c r="AC44" s="178"/>
+      <c r="AD44" s="178"/>
+      <c r="AE44" s="178"/>
+      <c r="AF44" s="178"/>
     </row>
     <row r="45" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
@@ -5588,15 +5606,15 @@
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
       <c r="W45" s="6"/>
-      <c r="X45" s="55"/>
-      <c r="Y45" s="55"/>
-      <c r="Z45" s="55"/>
-      <c r="AA45" s="55"/>
-      <c r="AB45" s="55"/>
-      <c r="AC45" s="55"/>
-      <c r="AD45" s="55"/>
-      <c r="AE45" s="55"/>
-      <c r="AF45" s="55"/>
+      <c r="X45" s="54"/>
+      <c r="Y45" s="54"/>
+      <c r="Z45" s="54"/>
+      <c r="AA45" s="54"/>
+      <c r="AB45" s="54"/>
+      <c r="AC45" s="54"/>
+      <c r="AD45" s="54"/>
+      <c r="AE45" s="54"/>
+      <c r="AF45" s="54"/>
     </row>
     <row r="46" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
@@ -5803,151 +5821,124 @@
       <c r="AF51" s="6"/>
     </row>
     <row r="62" spans="1:32" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B62" s="116" t="s">
+      <c r="B62" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="C62" s="150"/>
-      <c r="D62" s="150"/>
-      <c r="E62" s="150"/>
-      <c r="F62" s="150"/>
-      <c r="G62" s="150"/>
-      <c r="H62" s="150"/>
-      <c r="I62" s="150"/>
-      <c r="J62" s="150"/>
-      <c r="K62" s="150"/>
-      <c r="L62" s="150"/>
-      <c r="M62" s="150"/>
-      <c r="N62" s="150"/>
-      <c r="O62" s="150"/>
-      <c r="P62" s="150"/>
-      <c r="Q62" s="150"/>
-      <c r="R62" s="150"/>
-      <c r="S62" s="150"/>
-      <c r="T62" s="150"/>
-      <c r="U62" s="150"/>
-      <c r="V62" s="150"/>
-      <c r="W62" s="150"/>
-      <c r="X62" s="150"/>
-      <c r="Y62" s="150"/>
-      <c r="Z62" s="150"/>
-      <c r="AA62" s="150"/>
-      <c r="AB62" s="150"/>
-      <c r="AC62" s="150"/>
-      <c r="AD62" s="150"/>
-      <c r="AE62" s="150"/>
-      <c r="AF62" s="150"/>
+      <c r="C62" s="132"/>
+      <c r="D62" s="132"/>
+      <c r="E62" s="132"/>
+      <c r="F62" s="132"/>
+      <c r="G62" s="132"/>
+      <c r="H62" s="132"/>
+      <c r="I62" s="132"/>
+      <c r="J62" s="132"/>
+      <c r="K62" s="132"/>
+      <c r="L62" s="132"/>
+      <c r="M62" s="132"/>
+      <c r="N62" s="132"/>
+      <c r="O62" s="132"/>
+      <c r="P62" s="132"/>
+      <c r="Q62" s="132"/>
+      <c r="R62" s="132"/>
+      <c r="S62" s="132"/>
+      <c r="T62" s="132"/>
+      <c r="U62" s="132"/>
+      <c r="V62" s="132"/>
+      <c r="W62" s="132"/>
+      <c r="X62" s="132"/>
+      <c r="Y62" s="132"/>
+      <c r="Z62" s="132"/>
+      <c r="AA62" s="132"/>
+      <c r="AB62" s="132"/>
+      <c r="AC62" s="132"/>
+      <c r="AD62" s="132"/>
+      <c r="AE62" s="132"/>
+      <c r="AF62" s="132"/>
     </row>
     <row r="63" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="117" t="s">
+      <c r="B63" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="150"/>
-      <c r="D63" s="150"/>
-      <c r="E63" s="150"/>
-      <c r="F63" s="150"/>
-      <c r="G63" s="150"/>
-      <c r="H63" s="150"/>
-      <c r="I63" s="150"/>
-      <c r="J63" s="150"/>
-      <c r="K63" s="150"/>
-      <c r="L63" s="150"/>
-      <c r="M63" s="150"/>
-      <c r="N63" s="150"/>
-      <c r="O63" s="150"/>
-      <c r="P63" s="150"/>
-      <c r="Q63" s="150"/>
-      <c r="R63" s="150"/>
-      <c r="S63" s="150"/>
-      <c r="T63" s="150"/>
-      <c r="U63" s="150"/>
-      <c r="V63" s="150"/>
-      <c r="W63" s="150"/>
-      <c r="X63" s="150"/>
-      <c r="Y63" s="150"/>
-      <c r="Z63" s="150"/>
-      <c r="AA63" s="150"/>
-      <c r="AB63" s="150"/>
-      <c r="AC63" s="150"/>
-      <c r="AD63" s="150"/>
-      <c r="AE63" s="150"/>
-      <c r="AF63" s="150"/>
+      <c r="C63" s="132"/>
+      <c r="D63" s="132"/>
+      <c r="E63" s="132"/>
+      <c r="F63" s="132"/>
+      <c r="G63" s="132"/>
+      <c r="H63" s="132"/>
+      <c r="I63" s="132"/>
+      <c r="J63" s="132"/>
+      <c r="K63" s="132"/>
+      <c r="L63" s="132"/>
+      <c r="M63" s="132"/>
+      <c r="N63" s="132"/>
+      <c r="O63" s="132"/>
+      <c r="P63" s="132"/>
+      <c r="Q63" s="132"/>
+      <c r="R63" s="132"/>
+      <c r="S63" s="132"/>
+      <c r="T63" s="132"/>
+      <c r="U63" s="132"/>
+      <c r="V63" s="132"/>
+      <c r="W63" s="132"/>
+      <c r="X63" s="132"/>
+      <c r="Y63" s="132"/>
+      <c r="Z63" s="132"/>
+      <c r="AA63" s="132"/>
+      <c r="AB63" s="132"/>
+      <c r="AC63" s="132"/>
+      <c r="AD63" s="132"/>
+      <c r="AE63" s="132"/>
+      <c r="AF63" s="132"/>
     </row>
     <row r="64" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="117" t="s">
+      <c r="B64" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="C64" s="150"/>
-      <c r="D64" s="150"/>
-      <c r="E64" s="150"/>
-      <c r="F64" s="150"/>
-      <c r="G64" s="150"/>
-      <c r="H64" s="150"/>
-      <c r="I64" s="150"/>
-      <c r="J64" s="150"/>
-      <c r="K64" s="150"/>
-      <c r="L64" s="150"/>
-      <c r="M64" s="150"/>
-      <c r="N64" s="150"/>
-      <c r="O64" s="150"/>
-      <c r="P64" s="150"/>
-      <c r="Q64" s="150"/>
-      <c r="R64" s="150"/>
-      <c r="S64" s="150"/>
-      <c r="T64" s="150"/>
-      <c r="U64" s="150"/>
-      <c r="V64" s="150"/>
-      <c r="W64" s="150"/>
-      <c r="X64" s="150"/>
-      <c r="Y64" s="150"/>
-      <c r="Z64" s="150"/>
-      <c r="AA64" s="150"/>
-      <c r="AB64" s="150"/>
-      <c r="AC64" s="150"/>
-      <c r="AD64" s="150"/>
-      <c r="AE64" s="150"/>
-      <c r="AF64" s="150"/>
+      <c r="C64" s="132"/>
+      <c r="D64" s="132"/>
+      <c r="E64" s="132"/>
+      <c r="F64" s="132"/>
+      <c r="G64" s="132"/>
+      <c r="H64" s="132"/>
+      <c r="I64" s="132"/>
+      <c r="J64" s="132"/>
+      <c r="K64" s="132"/>
+      <c r="L64" s="132"/>
+      <c r="M64" s="132"/>
+      <c r="N64" s="132"/>
+      <c r="O64" s="132"/>
+      <c r="P64" s="132"/>
+      <c r="Q64" s="132"/>
+      <c r="R64" s="132"/>
+      <c r="S64" s="132"/>
+      <c r="T64" s="132"/>
+      <c r="U64" s="132"/>
+      <c r="V64" s="132"/>
+      <c r="W64" s="132"/>
+      <c r="X64" s="132"/>
+      <c r="Y64" s="132"/>
+      <c r="Z64" s="132"/>
+      <c r="AA64" s="132"/>
+      <c r="AB64" s="132"/>
+      <c r="AC64" s="132"/>
+      <c r="AD64" s="132"/>
+      <c r="AE64" s="132"/>
+      <c r="AF64" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="AD22:AD23"/>
-    <mergeCell ref="AE22:AF23"/>
-    <mergeCell ref="AB44:AF44"/>
-    <mergeCell ref="B37:T43"/>
-    <mergeCell ref="AB43:AF43"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="G32:AF32"/>
-    <mergeCell ref="AB36:AF38"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="K16:AB16"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B21:E24"/>
-    <mergeCell ref="K24:AB24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="T27:AB27"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F17:J18"/>
-    <mergeCell ref="K17:Q17"/>
-    <mergeCell ref="S17:AB17"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="B16:E19"/>
-    <mergeCell ref="S23:AB23"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="T28:AB28"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="B4:AF4"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="K19:AB19"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="I5:Z5"/>
-    <mergeCell ref="B13:AB14"/>
-    <mergeCell ref="AD8:AF9"/>
-    <mergeCell ref="AD13:AF14"/>
-    <mergeCell ref="Q8:X9"/>
-    <mergeCell ref="S18:AB18"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="S22:AB22"/>
+    <mergeCell ref="F22:J23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="AD17:AD18"/>
+    <mergeCell ref="AE17:AF18"/>
+    <mergeCell ref="Q20:W20"/>
     <mergeCell ref="B2:AF3"/>
     <mergeCell ref="AB5:AE5"/>
     <mergeCell ref="B64:AF64"/>
@@ -5964,32 +5955,59 @@
     <mergeCell ref="B63:AF63"/>
     <mergeCell ref="T29:AB29"/>
     <mergeCell ref="F24:J24"/>
+    <mergeCell ref="B4:AF4"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="K19:AB19"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="I5:Z5"/>
+    <mergeCell ref="B13:AB14"/>
+    <mergeCell ref="AD8:AF9"/>
+    <mergeCell ref="AD13:AF14"/>
+    <mergeCell ref="Q8:X9"/>
+    <mergeCell ref="S18:AB18"/>
     <mergeCell ref="Y8:AC9"/>
     <mergeCell ref="Q10:X11"/>
+    <mergeCell ref="AD10:AF11"/>
+    <mergeCell ref="B6:H9"/>
+    <mergeCell ref="K16:AB16"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B21:E24"/>
+    <mergeCell ref="K24:AB24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="T27:AB27"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F17:J18"/>
+    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="S17:AB17"/>
+    <mergeCell ref="B16:E19"/>
+    <mergeCell ref="S23:AB23"/>
+    <mergeCell ref="T28:AB28"/>
     <mergeCell ref="F21:J21"/>
     <mergeCell ref="O20:P20"/>
-    <mergeCell ref="AD10:AF11"/>
-    <mergeCell ref="B6:H9"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="AD17:AD18"/>
-    <mergeCell ref="AE17:AF18"/>
+    <mergeCell ref="AD22:AD23"/>
+    <mergeCell ref="AE22:AF23"/>
+    <mergeCell ref="AB44:AF44"/>
+    <mergeCell ref="B37:T43"/>
+    <mergeCell ref="AB43:AF43"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="G32:AF32"/>
+    <mergeCell ref="AB36:AF38"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="AE24:AF24"/>
     <mergeCell ref="K25:W25"/>
-    <mergeCell ref="Q20:W20"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K22:Q22"/>
-    <mergeCell ref="S22:AB22"/>
-    <mergeCell ref="F22:J23"/>
-    <mergeCell ref="R22:R23"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E11:H11" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.27559055118110237" right="0.13" top="0.6692913385826772" bottom="0.39370078740157483" header="0" footer="0"/>
-  <pageSetup scale="78" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageMargins left="0.27559055118110237" right="0.27559055118110237" top="0.6692913385826772" bottom="0.39370078740157483" header="0" footer="0"/>
+  <pageSetup scale="77" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/template/template.xlsx
+++ b/template/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrmau\Documents\Cevin\SysBill\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC079B1-976E-4726-9913-1AFE572B23CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC77F53-05DD-4D67-B72C-53C37CAEB81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4110" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UT" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="59">
   <si>
     <t>BILLING STATEMENT</t>
   </si>
@@ -106,17 +106,7 @@
     <t>Materai :</t>
   </si>
   <si>
-    <t>Admin Fee :</t>
-  </si>
-  <si>
     <t>Total Billing :</t>
-  </si>
-  <si>
-    <t>Attention :
-1. Payment by transfer to Bank BCA
-2. Please settle your payment before due date to avoid disconnection of Facility
-3. Should you have any queries, please contact Finance Account Dept at 021-57853228
-4. Please avoid this invoice, if payment has been made.</t>
   </si>
   <si>
     <t xml:space="preserve">PT. DUTA REGENCY KARUNIA 
@@ -150,9 +140,6 @@
   </si>
   <si>
     <t>Minimum Charge</t>
-  </si>
-  <si>
-    <t>Ppju</t>
   </si>
   <si>
     <t>Consumption (M3)</t>
@@ -231,6 +218,26 @@
   </si>
   <si>
     <t>INV/UT/DRK/0001/01/0001</t>
+  </si>
+  <si>
+    <t>Ppju + Common Area</t>
+  </si>
+  <si>
+    <t>Attention :
+1. Payment by transfer to Bank BCA Virtual Account.
+2. Payment by transfer must state the unit number.
+3. Please settle your payment before the due date to avoid disconnection of the Facility and accumulative late charges.
+4. Should you have any queries, please contact Tenant Relation at: 
+    - 08129914720 (Ade), 
+    - 0811814845 (Jumiah), 
+    - 081717129340 (Office).
+5. Please avoid this invoice, if payment has been made.</t>
+  </si>
+  <si>
+    <t>Admin Fee (5%) :</t>
+  </si>
+  <si>
+    <t>Late Charge :</t>
   </si>
 </sst>
 </file>
@@ -549,7 +556,7 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="252">
+  <cellXfs count="242">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
@@ -739,55 +746,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -796,139 +761,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
     </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -938,172 +858,259 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1115,59 +1122,8 @@
     <xf numFmtId="167" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1177,86 +1133,107 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1855,8 +1832,8 @@
   </sheetPr>
   <dimension ref="A1:AL64"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A19" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="AJ28" sqref="AJ28"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AI30" sqref="AI30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1896,148 +1873,148 @@
     <row r="1" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:38" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="112"/>
-      <c r="Z2" s="112"/>
-      <c r="AA2" s="112"/>
-      <c r="AB2" s="112"/>
-      <c r="AC2" s="112"/>
-      <c r="AD2" s="112"/>
-      <c r="AE2" s="112"/>
-      <c r="AF2" s="112"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="88"/>
+      <c r="X2" s="88"/>
+      <c r="Y2" s="88"/>
+      <c r="Z2" s="88"/>
+      <c r="AA2" s="88"/>
+      <c r="AB2" s="88"/>
+      <c r="AC2" s="88"/>
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="88"/>
+      <c r="AF2" s="88"/>
     </row>
     <row r="3" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="112"/>
-      <c r="P3" s="112"/>
-      <c r="Q3" s="112"/>
-      <c r="R3" s="112"/>
-      <c r="S3" s="112"/>
-      <c r="T3" s="112"/>
-      <c r="U3" s="112"/>
-      <c r="V3" s="112"/>
-      <c r="W3" s="112"/>
-      <c r="X3" s="112"/>
-      <c r="Y3" s="112"/>
-      <c r="Z3" s="112"/>
-      <c r="AA3" s="112"/>
-      <c r="AB3" s="112"/>
-      <c r="AC3" s="112"/>
-      <c r="AD3" s="112"/>
-      <c r="AE3" s="112"/>
-      <c r="AF3" s="112"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
+      <c r="O3" s="88"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="88"/>
+      <c r="T3" s="88"/>
+      <c r="U3" s="88"/>
+      <c r="V3" s="88"/>
+      <c r="W3" s="88"/>
+      <c r="X3" s="88"/>
+      <c r="Y3" s="88"/>
+      <c r="Z3" s="88"/>
+      <c r="AA3" s="88"/>
+      <c r="AB3" s="88"/>
+      <c r="AC3" s="88"/>
+      <c r="AD3" s="88"/>
+      <c r="AE3" s="88"/>
+      <c r="AF3" s="88"/>
     </row>
     <row r="4" spans="1:38" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="109" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="112"/>
-      <c r="Q4" s="112"/>
-      <c r="R4" s="112"/>
-      <c r="S4" s="112"/>
-      <c r="T4" s="112"/>
-      <c r="U4" s="112"/>
-      <c r="V4" s="112"/>
-      <c r="W4" s="112"/>
-      <c r="X4" s="112"/>
-      <c r="Y4" s="112"/>
-      <c r="Z4" s="112"/>
-      <c r="AA4" s="112"/>
-      <c r="AB4" s="112"/>
-      <c r="AC4" s="112"/>
-      <c r="AD4" s="112"/>
-      <c r="AE4" s="112"/>
-      <c r="AF4" s="112"/>
+      <c r="B4" s="139" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="88"/>
+      <c r="Q4" s="88"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="88"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="88"/>
+      <c r="X4" s="88"/>
+      <c r="Y4" s="88"/>
+      <c r="Z4" s="88"/>
+      <c r="AA4" s="88"/>
+      <c r="AB4" s="88"/>
+      <c r="AC4" s="88"/>
+      <c r="AD4" s="88"/>
+      <c r="AE4" s="88"/>
+      <c r="AF4" s="88"/>
     </row>
     <row r="5" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="158" t="s">
+      <c r="B5" s="101" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="88"/>
+      <c r="T5" s="88"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
+      <c r="W5" s="88"/>
+      <c r="X5" s="88"/>
+      <c r="Y5" s="88"/>
+      <c r="Z5" s="88"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="88"/>
+      <c r="AD5" s="88"/>
+      <c r="AE5" s="88"/>
+      <c r="AF5" s="46" t="s">
         <v>52</v>
-      </c>
-      <c r="C5" s="132"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="164"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="112"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="112"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="112"/>
-      <c r="R5" s="112"/>
-      <c r="S5" s="112"/>
-      <c r="T5" s="112"/>
-      <c r="U5" s="112"/>
-      <c r="V5" s="112"/>
-      <c r="W5" s="112"/>
-      <c r="X5" s="112"/>
-      <c r="Y5" s="112"/>
-      <c r="Z5" s="112"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="157" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="112"/>
-      <c r="AD5" s="112"/>
-      <c r="AE5" s="112"/>
-      <c r="AF5" s="46" t="s">
-        <v>55</v>
       </c>
       <c r="AG5" s="8"/>
       <c r="AH5" s="8"/>
@@ -2048,15 +2025,15 @@
     </row>
     <row r="6" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="131" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="132"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
+      <c r="B6" s="136" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -2066,35 +2043,35 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
-      <c r="R6" s="120"/>
-      <c r="S6" s="112"/>
-      <c r="T6" s="112"/>
-      <c r="U6" s="112"/>
-      <c r="V6" s="112"/>
-      <c r="W6" s="112"/>
-      <c r="X6" s="161"/>
-      <c r="Y6" s="112"/>
+      <c r="R6" s="127"/>
+      <c r="S6" s="88"/>
+      <c r="T6" s="88"/>
+      <c r="U6" s="88"/>
+      <c r="V6" s="88"/>
+      <c r="W6" s="88"/>
+      <c r="X6" s="104"/>
+      <c r="Y6" s="88"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="7"/>
-      <c r="AB6" s="157" t="s">
+      <c r="AB6" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="AC6" s="112"/>
-      <c r="AD6" s="112"/>
-      <c r="AE6" s="112"/>
+      <c r="AC6" s="88"/>
+      <c r="AD6" s="88"/>
+      <c r="AE6" s="88"/>
       <c r="AF6" s="45" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="132"/>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -2122,13 +2099,13 @@
     </row>
     <row r="8" spans="1:38" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="132"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="132"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -2137,38 +2114,38 @@
       <c r="N8" s="9"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
-      <c r="Q8" s="136" t="s">
+      <c r="Q8" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="137"/>
-      <c r="S8" s="137"/>
-      <c r="T8" s="137"/>
-      <c r="U8" s="137"/>
-      <c r="V8" s="137"/>
-      <c r="W8" s="137"/>
-      <c r="X8" s="138"/>
-      <c r="Y8" s="136" t="s">
+      <c r="R8" s="108"/>
+      <c r="S8" s="108"/>
+      <c r="T8" s="108"/>
+      <c r="U8" s="108"/>
+      <c r="V8" s="108"/>
+      <c r="W8" s="108"/>
+      <c r="X8" s="109"/>
+      <c r="Y8" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="Z8" s="137"/>
-      <c r="AA8" s="137"/>
-      <c r="AB8" s="137"/>
-      <c r="AC8" s="138"/>
-      <c r="AD8" s="136" t="s">
+      <c r="Z8" s="108"/>
+      <c r="AA8" s="108"/>
+      <c r="AB8" s="108"/>
+      <c r="AC8" s="109"/>
+      <c r="AD8" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="AE8" s="137"/>
-      <c r="AF8" s="138"/>
+      <c r="AE8" s="108"/>
+      <c r="AF8" s="109"/>
     </row>
     <row r="9" spans="1:38" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="132"/>
-      <c r="C9" s="132"/>
-      <c r="D9" s="132"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="132"/>
-      <c r="G9" s="132"/>
-      <c r="H9" s="132"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -2177,22 +2154,22 @@
       <c r="N9" s="9"/>
       <c r="O9" s="6"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="139"/>
-      <c r="R9" s="140"/>
-      <c r="S9" s="140"/>
-      <c r="T9" s="140"/>
-      <c r="U9" s="140"/>
-      <c r="V9" s="140"/>
-      <c r="W9" s="140"/>
-      <c r="X9" s="141"/>
-      <c r="Y9" s="139"/>
-      <c r="Z9" s="140"/>
-      <c r="AA9" s="140"/>
-      <c r="AB9" s="140"/>
-      <c r="AC9" s="141"/>
-      <c r="AD9" s="139"/>
-      <c r="AE9" s="140"/>
-      <c r="AF9" s="141"/>
+      <c r="Q9" s="110"/>
+      <c r="R9" s="111"/>
+      <c r="S9" s="111"/>
+      <c r="T9" s="111"/>
+      <c r="U9" s="111"/>
+      <c r="V9" s="111"/>
+      <c r="W9" s="111"/>
+      <c r="X9" s="112"/>
+      <c r="Y9" s="110"/>
+      <c r="Z9" s="111"/>
+      <c r="AA9" s="111"/>
+      <c r="AB9" s="111"/>
+      <c r="AC9" s="112"/>
+      <c r="AD9" s="110"/>
+      <c r="AE9" s="111"/>
+      <c r="AF9" s="112"/>
     </row>
     <row r="10" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -2211,44 +2188,44 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="147">
+      <c r="Q10" s="117">
         <v>44986</v>
       </c>
-      <c r="R10" s="137"/>
-      <c r="S10" s="137"/>
-      <c r="T10" s="137"/>
-      <c r="U10" s="137"/>
-      <c r="V10" s="137"/>
-      <c r="W10" s="137"/>
-      <c r="X10" s="138"/>
-      <c r="Y10" s="151">
+      <c r="R10" s="108"/>
+      <c r="S10" s="108"/>
+      <c r="T10" s="108"/>
+      <c r="U10" s="108"/>
+      <c r="V10" s="108"/>
+      <c r="W10" s="108"/>
+      <c r="X10" s="109"/>
+      <c r="Y10" s="120">
         <v>0</v>
       </c>
-      <c r="Z10" s="137"/>
-      <c r="AA10" s="137"/>
-      <c r="AB10" s="137"/>
-      <c r="AC10" s="138"/>
+      <c r="Z10" s="108"/>
+      <c r="AA10" s="108"/>
+      <c r="AB10" s="108"/>
+      <c r="AC10" s="109"/>
       <c r="AD10" s="142" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE10" s="137"/>
-      <c r="AF10" s="138"/>
+        <v>44</v>
+      </c>
+      <c r="AE10" s="108"/>
+      <c r="AF10" s="109"/>
     </row>
     <row r="11" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="158" t="s">
+      <c r="B11" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="132"/>
+      <c r="C11" s="102"/>
       <c r="D11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="158" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="132"/>
-      <c r="G11" s="132"/>
-      <c r="H11" s="132"/>
+      <c r="E11" s="101" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -2257,22 +2234,22 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="139"/>
-      <c r="R11" s="140"/>
-      <c r="S11" s="140"/>
-      <c r="T11" s="140"/>
-      <c r="U11" s="140"/>
-      <c r="V11" s="140"/>
-      <c r="W11" s="140"/>
-      <c r="X11" s="141"/>
-      <c r="Y11" s="139"/>
-      <c r="Z11" s="140"/>
-      <c r="AA11" s="140"/>
-      <c r="AB11" s="140"/>
-      <c r="AC11" s="141"/>
-      <c r="AD11" s="139"/>
-      <c r="AE11" s="140"/>
-      <c r="AF11" s="141"/>
+      <c r="Q11" s="110"/>
+      <c r="R11" s="111"/>
+      <c r="S11" s="111"/>
+      <c r="T11" s="111"/>
+      <c r="U11" s="111"/>
+      <c r="V11" s="111"/>
+      <c r="W11" s="111"/>
+      <c r="X11" s="112"/>
+      <c r="Y11" s="110"/>
+      <c r="Z11" s="111"/>
+      <c r="AA11" s="111"/>
+      <c r="AB11" s="111"/>
+      <c r="AC11" s="112"/>
+      <c r="AD11" s="110"/>
+      <c r="AE11" s="111"/>
+      <c r="AF11" s="112"/>
     </row>
     <row r="12" spans="1:38" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -2310,77 +2287,77 @@
     </row>
     <row r="13" spans="1:38" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="144" t="s">
+      <c r="B13" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="144"/>
-      <c r="D13" s="144"/>
-      <c r="E13" s="144"/>
-      <c r="F13" s="144"/>
-      <c r="G13" s="144"/>
-      <c r="H13" s="144"/>
-      <c r="I13" s="144"/>
-      <c r="J13" s="144"/>
-      <c r="K13" s="144"/>
-      <c r="L13" s="144"/>
-      <c r="M13" s="144"/>
-      <c r="N13" s="144"/>
-      <c r="O13" s="144"/>
-      <c r="P13" s="144"/>
-      <c r="Q13" s="144"/>
-      <c r="R13" s="144"/>
-      <c r="S13" s="144"/>
-      <c r="T13" s="144"/>
-      <c r="U13" s="144"/>
-      <c r="V13" s="144"/>
-      <c r="W13" s="144"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="124"/>
+      <c r="J13" s="124"/>
+      <c r="K13" s="124"/>
+      <c r="L13" s="124"/>
+      <c r="M13" s="124"/>
+      <c r="N13" s="124"/>
+      <c r="O13" s="124"/>
+      <c r="P13" s="124"/>
+      <c r="Q13" s="124"/>
+      <c r="R13" s="124"/>
+      <c r="S13" s="124"/>
+      <c r="T13" s="124"/>
+      <c r="U13" s="124"/>
+      <c r="V13" s="124"/>
+      <c r="W13" s="124"/>
       <c r="X13" s="40"/>
       <c r="Y13" s="40"/>
       <c r="Z13" s="40"/>
-      <c r="AA13" s="144" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB13" s="144"/>
-      <c r="AC13" s="144"/>
-      <c r="AD13" s="148" t="s">
+      <c r="AA13" s="124" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB13" s="124"/>
+      <c r="AC13" s="124"/>
+      <c r="AD13" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="AE13" s="137"/>
-      <c r="AF13" s="137"/>
+      <c r="AE13" s="108"/>
+      <c r="AF13" s="108"/>
     </row>
     <row r="14" spans="1:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="145"/>
-      <c r="C14" s="145"/>
-      <c r="D14" s="145"/>
-      <c r="E14" s="145"/>
-      <c r="F14" s="145"/>
-      <c r="G14" s="145"/>
-      <c r="H14" s="145"/>
-      <c r="I14" s="145"/>
-      <c r="J14" s="145"/>
-      <c r="K14" s="145"/>
-      <c r="L14" s="145"/>
-      <c r="M14" s="145"/>
-      <c r="N14" s="145"/>
-      <c r="O14" s="145"/>
-      <c r="P14" s="145"/>
-      <c r="Q14" s="145"/>
-      <c r="R14" s="145"/>
-      <c r="S14" s="145"/>
-      <c r="T14" s="145"/>
-      <c r="U14" s="145"/>
-      <c r="V14" s="145"/>
-      <c r="W14" s="145"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="125"/>
+      <c r="J14" s="125"/>
+      <c r="K14" s="125"/>
+      <c r="L14" s="125"/>
+      <c r="M14" s="125"/>
+      <c r="N14" s="125"/>
+      <c r="O14" s="125"/>
+      <c r="P14" s="125"/>
+      <c r="Q14" s="125"/>
+      <c r="R14" s="125"/>
+      <c r="S14" s="125"/>
+      <c r="T14" s="125"/>
+      <c r="U14" s="125"/>
+      <c r="V14" s="125"/>
+      <c r="W14" s="125"/>
       <c r="X14" s="39"/>
       <c r="Y14" s="39"/>
       <c r="Z14" s="39"/>
-      <c r="AA14" s="145"/>
-      <c r="AB14" s="145"/>
-      <c r="AC14" s="145"/>
-      <c r="AD14" s="140"/>
-      <c r="AE14" s="140"/>
-      <c r="AF14" s="140"/>
+      <c r="AA14" s="125"/>
+      <c r="AB14" s="125"/>
+      <c r="AC14" s="125"/>
+      <c r="AD14" s="111"/>
+      <c r="AE14" s="111"/>
+      <c r="AF14" s="111"/>
     </row>
     <row r="15" spans="1:38" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -2417,121 +2394,121 @@
       <c r="AF15" s="14"/>
     </row>
     <row r="16" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="111"/>
-      <c r="B16" s="133" t="s">
+      <c r="A16" s="91"/>
+      <c r="B16" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="122"/>
-      <c r="D16" s="146" t="s">
+      <c r="C16" s="80"/>
+      <c r="D16" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="89"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="75"/>
       <c r="K16" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="130">
+      <c r="L16" s="100">
         <v>44946</v>
       </c>
-      <c r="M16" s="88"/>
-      <c r="N16" s="88"/>
-      <c r="O16" s="89"/>
-      <c r="P16" s="162" t="s">
+      <c r="M16" s="74"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="75"/>
+      <c r="P16" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="Q16" s="160" t="s">
+      <c r="Q16" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="R16" s="89"/>
-      <c r="S16" s="130">
+      <c r="R16" s="75"/>
+      <c r="S16" s="100">
         <v>44977</v>
       </c>
-      <c r="T16" s="88"/>
-      <c r="U16" s="88"/>
-      <c r="V16" s="88"/>
-      <c r="W16" s="89"/>
+      <c r="T16" s="74"/>
+      <c r="U16" s="74"/>
+      <c r="V16" s="74"/>
+      <c r="W16" s="75"/>
       <c r="X16" s="38"/>
       <c r="Y16" s="38"/>
       <c r="Z16" s="38"/>
-      <c r="AA16" s="165"/>
-      <c r="AB16" s="165"/>
+      <c r="AA16" s="99"/>
+      <c r="AB16" s="99"/>
       <c r="AC16" s="38"/>
       <c r="AD16" s="42"/>
-      <c r="AE16" s="152"/>
-      <c r="AF16" s="96"/>
+      <c r="AE16" s="113"/>
+      <c r="AF16" s="114"/>
     </row>
     <row r="17" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="112"/>
-      <c r="B17" s="123"/>
-      <c r="C17" s="124"/>
-      <c r="D17" s="146" t="s">
+      <c r="A17" s="88"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="159">
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="78">
         <v>1269.0999999999999</v>
       </c>
-      <c r="L17" s="150"/>
-      <c r="M17" s="150"/>
-      <c r="N17" s="150"/>
-      <c r="O17" s="122"/>
-      <c r="P17" s="163"/>
-      <c r="Q17" s="149">
+      <c r="L17" s="79"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="106"/>
+      <c r="Q17" s="81">
         <v>1269.0999999999999</v>
       </c>
-      <c r="R17" s="150"/>
-      <c r="S17" s="150"/>
-      <c r="T17" s="150"/>
-      <c r="U17" s="150"/>
-      <c r="V17" s="150"/>
-      <c r="W17" s="122"/>
+      <c r="R17" s="79"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="79"/>
+      <c r="U17" s="79"/>
+      <c r="V17" s="79"/>
+      <c r="W17" s="80"/>
       <c r="X17" s="38"/>
       <c r="Y17" s="38"/>
       <c r="Z17" s="38"/>
-      <c r="AA17" s="165"/>
-      <c r="AB17" s="165"/>
+      <c r="AA17" s="99"/>
+      <c r="AB17" s="99"/>
       <c r="AC17" s="38"/>
       <c r="AD17" s="42"/>
-      <c r="AE17" s="152"/>
-      <c r="AF17" s="96"/>
+      <c r="AE17" s="113"/>
+      <c r="AF17" s="114"/>
     </row>
     <row r="18" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="123"/>
-      <c r="C18" s="124"/>
-      <c r="D18" s="146" t="s">
+      <c r="B18" s="129"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="174">
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="83">
         <v>1</v>
       </c>
-      <c r="L18" s="174"/>
-      <c r="M18" s="174"/>
-      <c r="N18" s="174"/>
-      <c r="O18" s="174"/>
-      <c r="P18" s="174"/>
-      <c r="Q18" s="174"/>
-      <c r="R18" s="174"/>
-      <c r="S18" s="174"/>
-      <c r="T18" s="174"/>
-      <c r="U18" s="174"/>
-      <c r="V18" s="174"/>
-      <c r="W18" s="174"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="83"/>
+      <c r="N18" s="83"/>
+      <c r="O18" s="83"/>
+      <c r="P18" s="83"/>
+      <c r="Q18" s="83"/>
+      <c r="R18" s="83"/>
+      <c r="S18" s="83"/>
+      <c r="T18" s="83"/>
+      <c r="U18" s="83"/>
+      <c r="V18" s="83"/>
+      <c r="W18" s="83"/>
       <c r="X18" s="41"/>
       <c r="Y18" s="41"/>
       <c r="Z18" s="41"/>
@@ -2544,166 +2521,166 @@
     </row>
     <row r="19" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="123"/>
-      <c r="C19" s="124"/>
-      <c r="D19" s="175" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="150"/>
-      <c r="F19" s="150"/>
-      <c r="G19" s="150"/>
-      <c r="H19" s="150"/>
-      <c r="I19" s="150"/>
-      <c r="J19" s="122"/>
-      <c r="K19" s="127">
+      <c r="B19" s="129"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="84" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="133">
         <f>(Q17-K17)*K18</f>
         <v>0</v>
       </c>
-      <c r="L19" s="128"/>
-      <c r="M19" s="128"/>
-      <c r="N19" s="128"/>
-      <c r="O19" s="128"/>
-      <c r="P19" s="128"/>
-      <c r="Q19" s="128"/>
-      <c r="R19" s="128"/>
-      <c r="S19" s="128"/>
-      <c r="T19" s="128"/>
-      <c r="U19" s="128"/>
-      <c r="V19" s="128"/>
-      <c r="W19" s="129"/>
-      <c r="X19" s="154" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y19" s="108"/>
-      <c r="Z19" s="108"/>
-      <c r="AA19" s="105">
+      <c r="L19" s="134"/>
+      <c r="M19" s="134"/>
+      <c r="N19" s="134"/>
+      <c r="O19" s="134"/>
+      <c r="P19" s="134"/>
+      <c r="Q19" s="134"/>
+      <c r="R19" s="134"/>
+      <c r="S19" s="134"/>
+      <c r="T19" s="134"/>
+      <c r="U19" s="134"/>
+      <c r="V19" s="134"/>
+      <c r="W19" s="135"/>
+      <c r="X19" s="89" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y19" s="90"/>
+      <c r="Z19" s="90"/>
+      <c r="AA19" s="92">
         <v>1800</v>
       </c>
-      <c r="AB19" s="105"/>
-      <c r="AC19" s="105"/>
+      <c r="AB19" s="92"/>
+      <c r="AC19" s="92"/>
       <c r="AD19" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE19" s="100">
+      <c r="AE19" s="116">
         <v>0</v>
       </c>
-      <c r="AF19" s="100"/>
+      <c r="AF19" s="116"/>
     </row>
     <row r="20" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="123"/>
-      <c r="C20" s="134"/>
-      <c r="D20" s="176" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="114"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="114"/>
-      <c r="H20" s="114" t="s">
-        <v>48</v>
-      </c>
-      <c r="I20" s="114"/>
-      <c r="J20" s="115"/>
-      <c r="K20" s="167">
+      <c r="B20" s="129"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="85" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" s="86"/>
+      <c r="J20" s="150"/>
+      <c r="K20" s="93">
         <v>88</v>
       </c>
-      <c r="L20" s="168"/>
-      <c r="M20" s="168"/>
-      <c r="N20" s="168"/>
-      <c r="O20" s="168"/>
-      <c r="P20" s="168"/>
-      <c r="Q20" s="168"/>
-      <c r="R20" s="168"/>
-      <c r="S20" s="168"/>
-      <c r="T20" s="168"/>
-      <c r="U20" s="168"/>
-      <c r="V20" s="168"/>
-      <c r="W20" s="169"/>
-      <c r="X20" s="154" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y20" s="108"/>
-      <c r="Z20" s="108"/>
-      <c r="AA20" s="105">
+      <c r="L20" s="94"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="94"/>
+      <c r="S20" s="94"/>
+      <c r="T20" s="94"/>
+      <c r="U20" s="94"/>
+      <c r="V20" s="94"/>
+      <c r="W20" s="95"/>
+      <c r="X20" s="89" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y20" s="90"/>
+      <c r="Z20" s="90"/>
+      <c r="AA20" s="92">
         <v>1800</v>
       </c>
-      <c r="AB20" s="105"/>
-      <c r="AC20" s="105"/>
-      <c r="AD20" s="106" t="s">
+      <c r="AB20" s="92"/>
+      <c r="AC20" s="92"/>
+      <c r="AD20" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="AE20" s="100">
+      <c r="AE20" s="116">
         <f>K20*AA20</f>
         <v>158400</v>
       </c>
-      <c r="AF20" s="100"/>
+      <c r="AF20" s="116"/>
     </row>
     <row r="21" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="123"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="85" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
+      <c r="B21" s="129"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="157" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="143"/>
+      <c r="F21" s="143"/>
       <c r="G21" s="47"/>
-      <c r="H21" s="86" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21" s="86"/>
-      <c r="J21" s="143"/>
-      <c r="K21" s="170"/>
-      <c r="L21" s="171"/>
-      <c r="M21" s="171"/>
-      <c r="N21" s="171"/>
-      <c r="O21" s="171"/>
-      <c r="P21" s="171"/>
-      <c r="Q21" s="171"/>
-      <c r="R21" s="171"/>
-      <c r="S21" s="171"/>
-      <c r="T21" s="171"/>
-      <c r="U21" s="171"/>
-      <c r="V21" s="171"/>
-      <c r="W21" s="172"/>
-      <c r="X21" s="154"/>
-      <c r="Y21" s="108"/>
-      <c r="Z21" s="108"/>
-      <c r="AA21" s="105"/>
-      <c r="AB21" s="105"/>
-      <c r="AC21" s="105"/>
-      <c r="AD21" s="106"/>
-      <c r="AE21" s="100"/>
-      <c r="AF21" s="100"/>
+      <c r="H21" s="143" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="143"/>
+      <c r="J21" s="144"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="97"/>
+      <c r="M21" s="97"/>
+      <c r="N21" s="97"/>
+      <c r="O21" s="97"/>
+      <c r="P21" s="97"/>
+      <c r="Q21" s="97"/>
+      <c r="R21" s="97"/>
+      <c r="S21" s="97"/>
+      <c r="T21" s="97"/>
+      <c r="U21" s="97"/>
+      <c r="V21" s="97"/>
+      <c r="W21" s="98"/>
+      <c r="X21" s="89"/>
+      <c r="Y21" s="90"/>
+      <c r="Z21" s="90"/>
+      <c r="AA21" s="92"/>
+      <c r="AB21" s="92"/>
+      <c r="AC21" s="92"/>
+      <c r="AD21" s="147"/>
+      <c r="AE21" s="116"/>
+      <c r="AF21" s="116"/>
     </row>
     <row r="22" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="123"/>
-      <c r="C22" s="126"/>
-      <c r="D22" s="135" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="82">
-        <v>0.03</v>
-      </c>
-      <c r="L22" s="83"/>
-      <c r="M22" s="83"/>
-      <c r="N22" s="83"/>
-      <c r="O22" s="83"/>
-      <c r="P22" s="83"/>
-      <c r="Q22" s="83"/>
-      <c r="R22" s="83"/>
-      <c r="S22" s="83"/>
-      <c r="T22" s="83"/>
-      <c r="U22" s="83"/>
-      <c r="V22" s="83"/>
-      <c r="W22" s="84"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="140" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="154">
+        <v>0.05</v>
+      </c>
+      <c r="L22" s="155"/>
+      <c r="M22" s="155"/>
+      <c r="N22" s="155"/>
+      <c r="O22" s="155"/>
+      <c r="P22" s="155"/>
+      <c r="Q22" s="155"/>
+      <c r="R22" s="155"/>
+      <c r="S22" s="155"/>
+      <c r="T22" s="155"/>
+      <c r="U22" s="155"/>
+      <c r="V22" s="155"/>
+      <c r="W22" s="156"/>
       <c r="X22" s="14"/>
       <c r="Y22" s="14"/>
       <c r="Z22" s="14"/>
@@ -2713,11 +2690,11 @@
       <c r="AD22" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE22" s="155">
+      <c r="AE22" s="122">
         <f>AE20*K22</f>
-        <v>4752</v>
-      </c>
-      <c r="AF22" s="156"/>
+        <v>7920</v>
+      </c>
+      <c r="AF22" s="123"/>
     </row>
     <row r="23" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
@@ -2752,91 +2729,91 @@
       <c r="AD23" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE23" s="118">
+      <c r="AE23" s="119">
         <f>AE20+AE22</f>
-        <v>163152</v>
-      </c>
-      <c r="AF23" s="96"/>
+        <v>166320</v>
+      </c>
+      <c r="AF23" s="114"/>
       <c r="AI23" s="17"/>
     </row>
     <row r="24" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="121" t="s">
+      <c r="B24" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="122"/>
-      <c r="D24" s="113" t="s">
+      <c r="C24" s="80"/>
+      <c r="D24" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="89"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="75"/>
       <c r="K24" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="130">
+      <c r="L24" s="100">
         <v>44946</v>
       </c>
-      <c r="M24" s="88"/>
-      <c r="N24" s="88"/>
-      <c r="O24" s="89"/>
-      <c r="P24" s="166" t="s">
+      <c r="M24" s="74"/>
+      <c r="N24" s="74"/>
+      <c r="O24" s="75"/>
+      <c r="P24" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="Q24" s="166" t="s">
+      <c r="Q24" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="R24" s="89"/>
-      <c r="S24" s="130">
+      <c r="R24" s="75"/>
+      <c r="S24" s="100">
         <v>44977</v>
       </c>
-      <c r="T24" s="88"/>
-      <c r="U24" s="88"/>
-      <c r="V24" s="88"/>
-      <c r="W24" s="89"/>
+      <c r="T24" s="74"/>
+      <c r="U24" s="74"/>
+      <c r="V24" s="74"/>
+      <c r="W24" s="75"/>
       <c r="X24" s="18"/>
       <c r="Y24" s="18"/>
       <c r="Z24" s="18"/>
-      <c r="AA24" s="165"/>
-      <c r="AB24" s="165"/>
+      <c r="AA24" s="99"/>
+      <c r="AB24" s="99"/>
       <c r="AC24" s="18"/>
       <c r="AD24" s="42"/>
-      <c r="AE24" s="107"/>
-      <c r="AF24" s="96"/>
+      <c r="AE24" s="148"/>
+      <c r="AF24" s="114"/>
     </row>
     <row r="25" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="123"/>
-      <c r="C25" s="124"/>
-      <c r="D25" s="113" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="159">
+      <c r="B25" s="129"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="78">
         <v>1269.0999999999999</v>
       </c>
-      <c r="L25" s="150"/>
-      <c r="M25" s="150"/>
-      <c r="N25" s="150"/>
-      <c r="O25" s="122"/>
-      <c r="P25" s="173"/>
-      <c r="Q25" s="149">
+      <c r="L25" s="79"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="79"/>
+      <c r="O25" s="80"/>
+      <c r="P25" s="77"/>
+      <c r="Q25" s="81">
         <v>1269.0999999999999</v>
       </c>
-      <c r="R25" s="150"/>
-      <c r="S25" s="150"/>
-      <c r="T25" s="150"/>
-      <c r="U25" s="150"/>
-      <c r="V25" s="150"/>
-      <c r="W25" s="122"/>
+      <c r="R25" s="79"/>
+      <c r="S25" s="79"/>
+      <c r="T25" s="79"/>
+      <c r="U25" s="79"/>
+      <c r="V25" s="79"/>
+      <c r="W25" s="80"/>
       <c r="X25" s="20"/>
       <c r="Y25" s="20"/>
       <c r="Z25" s="20"/>
@@ -2844,85 +2821,85 @@
       <c r="AB25" s="21"/>
       <c r="AC25" s="18"/>
       <c r="AD25" s="42"/>
-      <c r="AE25" s="153"/>
-      <c r="AF25" s="96"/>
+      <c r="AE25" s="121"/>
+      <c r="AF25" s="114"/>
     </row>
     <row r="26" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="123"/>
-      <c r="C26" s="124"/>
-      <c r="D26" s="87" t="s">
+      <c r="B26" s="129"/>
+      <c r="C26" s="130"/>
+      <c r="D26" s="158" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="89"/>
-      <c r="K26" s="94">
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="141">
         <f>Q25-K25</f>
         <v>0</v>
       </c>
-      <c r="L26" s="88"/>
-      <c r="M26" s="88"/>
-      <c r="N26" s="88"/>
-      <c r="O26" s="88"/>
-      <c r="P26" s="88"/>
-      <c r="Q26" s="88"/>
-      <c r="R26" s="88"/>
-      <c r="S26" s="88"/>
-      <c r="T26" s="88"/>
-      <c r="U26" s="88"/>
-      <c r="V26" s="88"/>
-      <c r="W26" s="89"/>
-      <c r="X26" s="108" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y26" s="96"/>
-      <c r="Z26" s="96"/>
-      <c r="AA26" s="102">
+      <c r="L26" s="74"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="74"/>
+      <c r="O26" s="74"/>
+      <c r="P26" s="74"/>
+      <c r="Q26" s="74"/>
+      <c r="R26" s="74"/>
+      <c r="S26" s="74"/>
+      <c r="T26" s="74"/>
+      <c r="U26" s="74"/>
+      <c r="V26" s="74"/>
+      <c r="W26" s="75"/>
+      <c r="X26" s="90" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y26" s="114"/>
+      <c r="Z26" s="114"/>
+      <c r="AA26" s="166">
         <v>1800</v>
       </c>
-      <c r="AB26" s="102"/>
-      <c r="AC26" s="102"/>
+      <c r="AB26" s="166"/>
+      <c r="AC26" s="166"/>
       <c r="AD26" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE26" s="118">
+      <c r="AE26" s="119">
         <f>K26*AA26</f>
         <v>0</v>
       </c>
-      <c r="AF26" s="96"/>
+      <c r="AF26" s="114"/>
     </row>
     <row r="27" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="111"/>
-      <c r="B27" s="123"/>
-      <c r="C27" s="124"/>
-      <c r="D27" s="113" t="s">
+      <c r="A27" s="91"/>
+      <c r="B27" s="129"/>
+      <c r="C27" s="130"/>
+      <c r="D27" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="88"/>
-      <c r="J27" s="89"/>
-      <c r="K27" s="94">
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="75"/>
+      <c r="K27" s="141">
         <v>1800</v>
       </c>
-      <c r="L27" s="88"/>
-      <c r="M27" s="88"/>
-      <c r="N27" s="88"/>
-      <c r="O27" s="88"/>
-      <c r="P27" s="88"/>
-      <c r="Q27" s="88"/>
-      <c r="R27" s="88"/>
-      <c r="S27" s="88"/>
-      <c r="T27" s="88"/>
-      <c r="U27" s="88"/>
-      <c r="V27" s="88"/>
-      <c r="W27" s="89"/>
+      <c r="L27" s="74"/>
+      <c r="M27" s="74"/>
+      <c r="N27" s="74"/>
+      <c r="O27" s="74"/>
+      <c r="P27" s="74"/>
+      <c r="Q27" s="74"/>
+      <c r="R27" s="74"/>
+      <c r="S27" s="74"/>
+      <c r="T27" s="74"/>
+      <c r="U27" s="74"/>
+      <c r="V27" s="74"/>
+      <c r="W27" s="75"/>
       <c r="X27" s="22"/>
       <c r="Y27" s="23"/>
       <c r="Z27" s="23"/>
@@ -2932,40 +2909,40 @@
       <c r="AD27" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE27" s="100">
+      <c r="AE27" s="116">
         <f>K27</f>
         <v>1800</v>
       </c>
-      <c r="AF27" s="96"/>
+      <c r="AF27" s="114"/>
     </row>
     <row r="28" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="112"/>
-      <c r="B28" s="125"/>
-      <c r="C28" s="126"/>
-      <c r="D28" s="91" t="s">
+      <c r="A28" s="88"/>
+      <c r="B28" s="131"/>
+      <c r="C28" s="132"/>
+      <c r="D28" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="88"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="88"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="88"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="117">
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="151">
         <v>1800</v>
       </c>
-      <c r="L28" s="88"/>
-      <c r="M28" s="88"/>
-      <c r="N28" s="88"/>
-      <c r="O28" s="88"/>
-      <c r="P28" s="88"/>
-      <c r="Q28" s="88"/>
-      <c r="R28" s="88"/>
-      <c r="S28" s="88"/>
-      <c r="T28" s="88"/>
-      <c r="U28" s="88"/>
-      <c r="V28" s="88"/>
-      <c r="W28" s="89"/>
+      <c r="L28" s="74"/>
+      <c r="M28" s="74"/>
+      <c r="N28" s="74"/>
+      <c r="O28" s="74"/>
+      <c r="P28" s="74"/>
+      <c r="Q28" s="74"/>
+      <c r="R28" s="74"/>
+      <c r="S28" s="74"/>
+      <c r="T28" s="74"/>
+      <c r="U28" s="74"/>
+      <c r="V28" s="74"/>
+      <c r="W28" s="75"/>
       <c r="X28" s="24"/>
       <c r="Y28" s="25"/>
       <c r="Z28" s="25"/>
@@ -2975,14 +2952,14 @@
       <c r="AD28" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE28" s="92">
+      <c r="AE28" s="161">
         <f>K28</f>
         <v>1800</v>
       </c>
-      <c r="AF28" s="93"/>
+      <c r="AF28" s="162"/>
     </row>
     <row r="29" spans="1:35" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="112"/>
+      <c r="A29" s="88"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="41"/>
@@ -3011,17 +2988,17 @@
       <c r="AA29" s="25"/>
       <c r="AB29" s="25"/>
       <c r="AC29" s="18"/>
-      <c r="AD29" s="249" t="s">
+      <c r="AD29" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="AE29" s="250">
+      <c r="AE29" s="167">
         <f>AE26+AE27+AE28</f>
         <v>3600</v>
       </c>
-      <c r="AF29" s="251"/>
+      <c r="AF29" s="168"/>
     </row>
     <row r="30" spans="1:35" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="112"/>
+      <c r="A30" s="88"/>
       <c r="B30" s="26"/>
       <c r="C30" s="26"/>
       <c r="D30" s="64"/>
@@ -3055,7 +3032,7 @@
       <c r="AF30" s="60"/>
     </row>
     <row r="31" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="112"/>
+      <c r="A31" s="88"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="41"/>
@@ -3074,65 +3051,64 @@
       <c r="Q31" s="41"/>
       <c r="R31" s="41"/>
       <c r="S31" s="41"/>
-      <c r="T31" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="U31" s="96"/>
-      <c r="V31" s="96"/>
-      <c r="W31" s="96"/>
-      <c r="X31" s="96"/>
-      <c r="Y31" s="96"/>
-      <c r="Z31" s="96"/>
-      <c r="AA31" s="96"/>
-      <c r="AB31" s="96"/>
+      <c r="T31" s="163" t="s">
+        <v>58</v>
+      </c>
+      <c r="U31" s="114"/>
+      <c r="V31" s="114"/>
+      <c r="W31" s="114"/>
+      <c r="X31" s="114"/>
+      <c r="Y31" s="114"/>
+      <c r="Z31" s="114"/>
+      <c r="AA31" s="114"/>
+      <c r="AB31" s="114"/>
       <c r="AC31" s="18"/>
       <c r="AD31" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE31" s="100">
+      <c r="AE31" s="116">
         <v>1800</v>
       </c>
-      <c r="AF31" s="101"/>
+      <c r="AF31" s="165"/>
     </row>
     <row r="32" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="112"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="116" t="s">
-        <v>24</v>
-      </c>
-      <c r="U32" s="96"/>
-      <c r="V32" s="96"/>
-      <c r="W32" s="96"/>
-      <c r="X32" s="96"/>
-      <c r="Y32" s="96"/>
-      <c r="Z32" s="96"/>
-      <c r="AA32" s="96"/>
-      <c r="AB32" s="96"/>
-      <c r="AC32" s="28"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="163" t="s">
+        <v>23</v>
+      </c>
+      <c r="U32" s="114"/>
+      <c r="V32" s="114"/>
+      <c r="W32" s="114"/>
+      <c r="X32" s="114"/>
+      <c r="Y32" s="114"/>
+      <c r="Z32" s="114"/>
+      <c r="AA32" s="114"/>
+      <c r="AB32" s="114"/>
+      <c r="AC32" s="18"/>
       <c r="AD32" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE32" s="98">
+      <c r="AE32" s="116">
         <v>1800</v>
       </c>
-      <c r="AF32" s="99"/>
+      <c r="AF32" s="165"/>
     </row>
     <row r="33" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
@@ -3154,26 +3130,26 @@
       <c r="Q33" s="19"/>
       <c r="R33" s="19"/>
       <c r="S33" s="19"/>
-      <c r="T33" s="97" t="s">
-        <v>25</v>
-      </c>
-      <c r="U33" s="96"/>
-      <c r="V33" s="96"/>
-      <c r="W33" s="96"/>
-      <c r="X33" s="96"/>
-      <c r="Y33" s="96"/>
-      <c r="Z33" s="96"/>
-      <c r="AA33" s="96"/>
-      <c r="AB33" s="96"/>
+      <c r="T33" s="164" t="s">
+        <v>24</v>
+      </c>
+      <c r="U33" s="114"/>
+      <c r="V33" s="114"/>
+      <c r="W33" s="114"/>
+      <c r="X33" s="114"/>
+      <c r="Y33" s="114"/>
+      <c r="Z33" s="114"/>
+      <c r="AA33" s="114"/>
+      <c r="AB33" s="114"/>
       <c r="AC33" s="19"/>
       <c r="AD33" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE33" s="90">
-        <f>AE23+AE29+AE31+AE32</f>
-        <v>170352</v>
-      </c>
-      <c r="AF33" s="90"/>
+      <c r="AE33" s="159">
+        <f>AE23+AE29+AE31</f>
+        <v>171720</v>
+      </c>
+      <c r="AF33" s="159"/>
     </row>
     <row r="34" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
@@ -3245,41 +3221,41 @@
     </row>
     <row r="36" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="80" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="80"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="81" t="s">
-        <v>51</v>
-      </c>
-      <c r="H36" s="81"/>
-      <c r="I36" s="81"/>
-      <c r="J36" s="81"/>
-      <c r="K36" s="81"/>
-      <c r="L36" s="81"/>
-      <c r="M36" s="81"/>
-      <c r="N36" s="81"/>
-      <c r="O36" s="81"/>
-      <c r="P36" s="81"/>
-      <c r="Q36" s="81"/>
-      <c r="R36" s="81"/>
-      <c r="S36" s="81"/>
-      <c r="T36" s="81"/>
-      <c r="U36" s="81"/>
-      <c r="V36" s="81"/>
-      <c r="W36" s="81"/>
-      <c r="X36" s="81"/>
-      <c r="Y36" s="81"/>
-      <c r="Z36" s="81"/>
-      <c r="AA36" s="81"/>
-      <c r="AB36" s="81"/>
-      <c r="AC36" s="81"/>
-      <c r="AD36" s="81"/>
-      <c r="AE36" s="81"/>
-      <c r="AF36" s="81"/>
+      <c r="B36" s="152" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="152"/>
+      <c r="D36" s="152"/>
+      <c r="E36" s="152"/>
+      <c r="F36" s="152"/>
+      <c r="G36" s="153" t="s">
+        <v>48</v>
+      </c>
+      <c r="H36" s="153"/>
+      <c r="I36" s="153"/>
+      <c r="J36" s="153"/>
+      <c r="K36" s="153"/>
+      <c r="L36" s="153"/>
+      <c r="M36" s="153"/>
+      <c r="N36" s="153"/>
+      <c r="O36" s="153"/>
+      <c r="P36" s="153"/>
+      <c r="Q36" s="153"/>
+      <c r="R36" s="153"/>
+      <c r="S36" s="153"/>
+      <c r="T36" s="153"/>
+      <c r="U36" s="153"/>
+      <c r="V36" s="153"/>
+      <c r="W36" s="153"/>
+      <c r="X36" s="153"/>
+      <c r="Y36" s="153"/>
+      <c r="Z36" s="153"/>
+      <c r="AA36" s="153"/>
+      <c r="AB36" s="153"/>
+      <c r="AC36" s="153"/>
+      <c r="AD36" s="153"/>
+      <c r="AE36" s="153"/>
+      <c r="AF36" s="153"/>
     </row>
     <row r="37" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
@@ -3411,109 +3387,109 @@
       <c r="Y40" s="48"/>
       <c r="Z40" s="48"/>
       <c r="AA40" s="48"/>
-      <c r="AB40" s="109" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC40" s="109"/>
-      <c r="AD40" s="109"/>
-      <c r="AE40" s="109"/>
-      <c r="AF40" s="109"/>
-    </row>
-    <row r="41" spans="1:32" ht="5.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB40" s="139" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC40" s="139"/>
+      <c r="AD40" s="139"/>
+      <c r="AE40" s="139"/>
+      <c r="AF40" s="139"/>
+    </row>
+    <row r="41" spans="1:32" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
-      <c r="B41" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="C41" s="72"/>
-      <c r="D41" s="72"/>
-      <c r="E41" s="72"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="72"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="72"/>
-      <c r="J41" s="72"/>
-      <c r="K41" s="72"/>
-      <c r="L41" s="72"/>
-      <c r="M41" s="72"/>
-      <c r="N41" s="72"/>
-      <c r="O41" s="72"/>
-      <c r="P41" s="72"/>
-      <c r="Q41" s="72"/>
-      <c r="R41" s="72"/>
-      <c r="S41" s="72"/>
-      <c r="T41" s="73"/>
-      <c r="U41" s="30"/>
-      <c r="V41" s="6"/>
-      <c r="W41" s="6"/>
-      <c r="X41" s="48"/>
+      <c r="B41" s="241" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="241"/>
+      <c r="D41" s="241"/>
+      <c r="E41" s="241"/>
+      <c r="F41" s="241"/>
+      <c r="G41" s="241"/>
+      <c r="H41" s="241"/>
+      <c r="I41" s="241"/>
+      <c r="J41" s="241"/>
+      <c r="K41" s="241"/>
+      <c r="L41" s="241"/>
+      <c r="M41" s="241"/>
+      <c r="N41" s="241"/>
+      <c r="O41" s="241"/>
+      <c r="P41" s="241"/>
+      <c r="Q41" s="241"/>
+      <c r="R41" s="241"/>
+      <c r="S41" s="241"/>
+      <c r="T41" s="241"/>
+      <c r="U41" s="241"/>
+      <c r="V41" s="241"/>
+      <c r="W41" s="241"/>
+      <c r="X41" s="240"/>
       <c r="Y41" s="48"/>
       <c r="Z41" s="48"/>
       <c r="AA41" s="48"/>
-      <c r="AB41" s="109"/>
-      <c r="AC41" s="109"/>
-      <c r="AD41" s="109"/>
-      <c r="AE41" s="109"/>
-      <c r="AF41" s="109"/>
-    </row>
-    <row r="42" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB41" s="139"/>
+      <c r="AC41" s="139"/>
+      <c r="AD41" s="139"/>
+      <c r="AE41" s="139"/>
+      <c r="AF41" s="139"/>
+    </row>
+    <row r="42" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
-      <c r="B42" s="74"/>
-      <c r="C42" s="75"/>
-      <c r="D42" s="75"/>
-      <c r="E42" s="75"/>
-      <c r="F42" s="75"/>
-      <c r="G42" s="75"/>
-      <c r="H42" s="75"/>
-      <c r="I42" s="75"/>
-      <c r="J42" s="75"/>
-      <c r="K42" s="75"/>
-      <c r="L42" s="75"/>
-      <c r="M42" s="75"/>
-      <c r="N42" s="75"/>
-      <c r="O42" s="75"/>
-      <c r="P42" s="75"/>
-      <c r="Q42" s="75"/>
-      <c r="R42" s="75"/>
-      <c r="S42" s="75"/>
-      <c r="T42" s="76"/>
-      <c r="U42" s="30"/>
-      <c r="V42" s="6"/>
-      <c r="W42" s="6"/>
-      <c r="X42" s="48"/>
+      <c r="B42" s="241"/>
+      <c r="C42" s="241"/>
+      <c r="D42" s="241"/>
+      <c r="E42" s="241"/>
+      <c r="F42" s="241"/>
+      <c r="G42" s="241"/>
+      <c r="H42" s="241"/>
+      <c r="I42" s="241"/>
+      <c r="J42" s="241"/>
+      <c r="K42" s="241"/>
+      <c r="L42" s="241"/>
+      <c r="M42" s="241"/>
+      <c r="N42" s="241"/>
+      <c r="O42" s="241"/>
+      <c r="P42" s="241"/>
+      <c r="Q42" s="241"/>
+      <c r="R42" s="241"/>
+      <c r="S42" s="241"/>
+      <c r="T42" s="241"/>
+      <c r="U42" s="241"/>
+      <c r="V42" s="241"/>
+      <c r="W42" s="241"/>
+      <c r="X42" s="240"/>
       <c r="Y42" s="48"/>
       <c r="Z42" s="48"/>
       <c r="AA42" s="48"/>
-      <c r="AB42" s="109"/>
-      <c r="AC42" s="109"/>
-      <c r="AD42" s="109"/>
-      <c r="AE42" s="109"/>
-      <c r="AF42" s="109"/>
-    </row>
-    <row r="43" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB42" s="139"/>
+      <c r="AC42" s="139"/>
+      <c r="AD42" s="139"/>
+      <c r="AE42" s="139"/>
+      <c r="AF42" s="139"/>
+    </row>
+    <row r="43" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
-      <c r="B43" s="74"/>
-      <c r="C43" s="75"/>
-      <c r="D43" s="75"/>
-      <c r="E43" s="75"/>
-      <c r="F43" s="75"/>
-      <c r="G43" s="75"/>
-      <c r="H43" s="75"/>
-      <c r="I43" s="75"/>
-      <c r="J43" s="75"/>
-      <c r="K43" s="75"/>
-      <c r="L43" s="75"/>
-      <c r="M43" s="75"/>
-      <c r="N43" s="75"/>
-      <c r="O43" s="75"/>
-      <c r="P43" s="75"/>
-      <c r="Q43" s="75"/>
-      <c r="R43" s="75"/>
-      <c r="S43" s="75"/>
-      <c r="T43" s="76"/>
-      <c r="U43" s="30"/>
-      <c r="V43" s="6"/>
-      <c r="W43" s="6"/>
-      <c r="X43" s="48"/>
+      <c r="B43" s="241"/>
+      <c r="C43" s="241"/>
+      <c r="D43" s="241"/>
+      <c r="E43" s="241"/>
+      <c r="F43" s="241"/>
+      <c r="G43" s="241"/>
+      <c r="H43" s="241"/>
+      <c r="I43" s="241"/>
+      <c r="J43" s="241"/>
+      <c r="K43" s="241"/>
+      <c r="L43" s="241"/>
+      <c r="M43" s="241"/>
+      <c r="N43" s="241"/>
+      <c r="O43" s="241"/>
+      <c r="P43" s="241"/>
+      <c r="Q43" s="241"/>
+      <c r="R43" s="241"/>
+      <c r="S43" s="241"/>
+      <c r="T43" s="241"/>
+      <c r="U43" s="241"/>
+      <c r="V43" s="241"/>
+      <c r="W43" s="241"/>
+      <c r="X43" s="240"/>
       <c r="Y43" s="48"/>
       <c r="Z43" s="48"/>
       <c r="AA43" s="48"/>
@@ -3523,31 +3499,31 @@
       <c r="AE43" s="48"/>
       <c r="AF43" s="48"/>
     </row>
-    <row r="44" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
-      <c r="B44" s="74"/>
-      <c r="C44" s="75"/>
-      <c r="D44" s="75"/>
-      <c r="E44" s="75"/>
-      <c r="F44" s="75"/>
-      <c r="G44" s="75"/>
-      <c r="H44" s="75"/>
-      <c r="I44" s="75"/>
-      <c r="J44" s="75"/>
-      <c r="K44" s="75"/>
-      <c r="L44" s="75"/>
-      <c r="M44" s="75"/>
-      <c r="N44" s="75"/>
-      <c r="O44" s="75"/>
-      <c r="P44" s="75"/>
-      <c r="Q44" s="75"/>
-      <c r="R44" s="75"/>
-      <c r="S44" s="75"/>
-      <c r="T44" s="76"/>
-      <c r="U44" s="30"/>
-      <c r="V44" s="6"/>
-      <c r="W44" s="6"/>
-      <c r="X44" s="48"/>
+      <c r="B44" s="241"/>
+      <c r="C44" s="241"/>
+      <c r="D44" s="241"/>
+      <c r="E44" s="241"/>
+      <c r="F44" s="241"/>
+      <c r="G44" s="241"/>
+      <c r="H44" s="241"/>
+      <c r="I44" s="241"/>
+      <c r="J44" s="241"/>
+      <c r="K44" s="241"/>
+      <c r="L44" s="241"/>
+      <c r="M44" s="241"/>
+      <c r="N44" s="241"/>
+      <c r="O44" s="241"/>
+      <c r="P44" s="241"/>
+      <c r="Q44" s="241"/>
+      <c r="R44" s="241"/>
+      <c r="S44" s="241"/>
+      <c r="T44" s="241"/>
+      <c r="U44" s="241"/>
+      <c r="V44" s="241"/>
+      <c r="W44" s="241"/>
+      <c r="X44" s="240"/>
       <c r="Y44" s="48"/>
       <c r="Z44" s="48"/>
       <c r="AA44" s="48"/>
@@ -3557,31 +3533,31 @@
       <c r="AE44" s="48"/>
       <c r="AF44" s="48"/>
     </row>
-    <row r="45" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
-      <c r="B45" s="74"/>
-      <c r="C45" s="75"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="75"/>
-      <c r="F45" s="75"/>
-      <c r="G45" s="75"/>
-      <c r="H45" s="75"/>
-      <c r="I45" s="75"/>
-      <c r="J45" s="75"/>
-      <c r="K45" s="75"/>
-      <c r="L45" s="75"/>
-      <c r="M45" s="75"/>
-      <c r="N45" s="75"/>
-      <c r="O45" s="75"/>
-      <c r="P45" s="75"/>
-      <c r="Q45" s="75"/>
-      <c r="R45" s="75"/>
-      <c r="S45" s="75"/>
-      <c r="T45" s="76"/>
-      <c r="U45" s="30"/>
-      <c r="V45" s="6"/>
-      <c r="W45" s="6"/>
-      <c r="X45" s="48"/>
+      <c r="B45" s="241"/>
+      <c r="C45" s="241"/>
+      <c r="D45" s="241"/>
+      <c r="E45" s="241"/>
+      <c r="F45" s="241"/>
+      <c r="G45" s="241"/>
+      <c r="H45" s="241"/>
+      <c r="I45" s="241"/>
+      <c r="J45" s="241"/>
+      <c r="K45" s="241"/>
+      <c r="L45" s="241"/>
+      <c r="M45" s="241"/>
+      <c r="N45" s="241"/>
+      <c r="O45" s="241"/>
+      <c r="P45" s="241"/>
+      <c r="Q45" s="241"/>
+      <c r="R45" s="241"/>
+      <c r="S45" s="241"/>
+      <c r="T45" s="241"/>
+      <c r="U45" s="241"/>
+      <c r="V45" s="241"/>
+      <c r="W45" s="241"/>
+      <c r="X45" s="240"/>
       <c r="Y45" s="48"/>
       <c r="Z45" s="48"/>
       <c r="AA45" s="48"/>
@@ -3591,31 +3567,31 @@
       <c r="AE45" s="48"/>
       <c r="AF45" s="48"/>
     </row>
-    <row r="46" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
-      <c r="B46" s="74"/>
-      <c r="C46" s="75"/>
-      <c r="D46" s="75"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="75"/>
-      <c r="G46" s="75"/>
-      <c r="H46" s="75"/>
-      <c r="I46" s="75"/>
-      <c r="J46" s="75"/>
-      <c r="K46" s="75"/>
-      <c r="L46" s="75"/>
-      <c r="M46" s="75"/>
-      <c r="N46" s="75"/>
-      <c r="O46" s="75"/>
-      <c r="P46" s="75"/>
-      <c r="Q46" s="75"/>
-      <c r="R46" s="75"/>
-      <c r="S46" s="75"/>
-      <c r="T46" s="76"/>
-      <c r="U46" s="30"/>
-      <c r="V46" s="6"/>
-      <c r="W46" s="6"/>
-      <c r="X46" s="48"/>
+      <c r="B46" s="241"/>
+      <c r="C46" s="241"/>
+      <c r="D46" s="241"/>
+      <c r="E46" s="241"/>
+      <c r="F46" s="241"/>
+      <c r="G46" s="241"/>
+      <c r="H46" s="241"/>
+      <c r="I46" s="241"/>
+      <c r="J46" s="241"/>
+      <c r="K46" s="241"/>
+      <c r="L46" s="241"/>
+      <c r="M46" s="241"/>
+      <c r="N46" s="241"/>
+      <c r="O46" s="241"/>
+      <c r="P46" s="241"/>
+      <c r="Q46" s="241"/>
+      <c r="R46" s="241"/>
+      <c r="S46" s="241"/>
+      <c r="T46" s="241"/>
+      <c r="U46" s="241"/>
+      <c r="V46" s="241"/>
+      <c r="W46" s="241"/>
+      <c r="X46" s="240"/>
       <c r="Y46" s="48"/>
       <c r="Z46" s="48"/>
       <c r="AA46" s="48"/>
@@ -3627,39 +3603,39 @@
     </row>
     <row r="47" spans="1:32" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
-      <c r="B47" s="77"/>
-      <c r="C47" s="78"/>
-      <c r="D47" s="78"/>
-      <c r="E47" s="78"/>
-      <c r="F47" s="78"/>
-      <c r="G47" s="78"/>
-      <c r="H47" s="78"/>
-      <c r="I47" s="78"/>
-      <c r="J47" s="78"/>
-      <c r="K47" s="78"/>
-      <c r="L47" s="78"/>
-      <c r="M47" s="78"/>
-      <c r="N47" s="78"/>
-      <c r="O47" s="78"/>
-      <c r="P47" s="78"/>
-      <c r="Q47" s="78"/>
-      <c r="R47" s="78"/>
-      <c r="S47" s="78"/>
-      <c r="T47" s="79"/>
-      <c r="U47" s="30"/>
-      <c r="V47" s="6"/>
-      <c r="W47" s="6"/>
-      <c r="X47" s="49"/>
+      <c r="B47" s="241"/>
+      <c r="C47" s="241"/>
+      <c r="D47" s="241"/>
+      <c r="E47" s="241"/>
+      <c r="F47" s="241"/>
+      <c r="G47" s="241"/>
+      <c r="H47" s="241"/>
+      <c r="I47" s="241"/>
+      <c r="J47" s="241"/>
+      <c r="K47" s="241"/>
+      <c r="L47" s="241"/>
+      <c r="M47" s="241"/>
+      <c r="N47" s="241"/>
+      <c r="O47" s="241"/>
+      <c r="P47" s="241"/>
+      <c r="Q47" s="241"/>
+      <c r="R47" s="241"/>
+      <c r="S47" s="241"/>
+      <c r="T47" s="241"/>
+      <c r="U47" s="241"/>
+      <c r="V47" s="241"/>
+      <c r="W47" s="241"/>
+      <c r="X47" s="240"/>
       <c r="Y47" s="49"/>
       <c r="Z47" s="49"/>
       <c r="AA47" s="49"/>
-      <c r="AB47" s="110" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC47" s="110"/>
-      <c r="AD47" s="110"/>
-      <c r="AE47" s="110"/>
-      <c r="AF47" s="110"/>
+      <c r="AB47" s="149" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC47" s="149"/>
+      <c r="AD47" s="149"/>
+      <c r="AE47" s="149"/>
+      <c r="AF47" s="149"/>
     </row>
     <row r="48" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
@@ -3775,134 +3751,179 @@
     </row>
     <row r="61" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="62" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="103" t="s">
+      <c r="A62" s="145" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62" s="145"/>
+      <c r="C62" s="145"/>
+      <c r="D62" s="145"/>
+      <c r="E62" s="145"/>
+      <c r="F62" s="145"/>
+      <c r="G62" s="145"/>
+      <c r="H62" s="145"/>
+      <c r="I62" s="145"/>
+      <c r="J62" s="145"/>
+      <c r="K62" s="145"/>
+      <c r="L62" s="145"/>
+      <c r="M62" s="145"/>
+      <c r="N62" s="145"/>
+      <c r="O62" s="145"/>
+      <c r="P62" s="145"/>
+      <c r="Q62" s="145"/>
+      <c r="R62" s="145"/>
+      <c r="S62" s="145"/>
+      <c r="T62" s="145"/>
+      <c r="U62" s="145"/>
+      <c r="V62" s="145"/>
+      <c r="W62" s="145"/>
+      <c r="X62" s="145"/>
+      <c r="Y62" s="145"/>
+      <c r="Z62" s="145"/>
+      <c r="AA62" s="145"/>
+      <c r="AB62" s="145"/>
+      <c r="AC62" s="145"/>
+      <c r="AD62" s="145"/>
+      <c r="AE62" s="145"/>
+      <c r="AF62" s="145"/>
+      <c r="AG62" s="145"/>
+    </row>
+    <row r="63" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="146" t="s">
+        <v>26</v>
+      </c>
+      <c r="B63" s="146"/>
+      <c r="C63" s="146"/>
+      <c r="D63" s="146"/>
+      <c r="E63" s="146"/>
+      <c r="F63" s="146"/>
+      <c r="G63" s="146"/>
+      <c r="H63" s="146"/>
+      <c r="I63" s="146"/>
+      <c r="J63" s="146"/>
+      <c r="K63" s="146"/>
+      <c r="L63" s="146"/>
+      <c r="M63" s="146"/>
+      <c r="N63" s="146"/>
+      <c r="O63" s="146"/>
+      <c r="P63" s="146"/>
+      <c r="Q63" s="146"/>
+      <c r="R63" s="146"/>
+      <c r="S63" s="146"/>
+      <c r="T63" s="146"/>
+      <c r="U63" s="146"/>
+      <c r="V63" s="146"/>
+      <c r="W63" s="146"/>
+      <c r="X63" s="146"/>
+      <c r="Y63" s="146"/>
+      <c r="Z63" s="146"/>
+      <c r="AA63" s="146"/>
+      <c r="AB63" s="146"/>
+      <c r="AC63" s="146"/>
+      <c r="AD63" s="146"/>
+      <c r="AE63" s="146"/>
+      <c r="AF63" s="146"/>
+      <c r="AG63" s="146"/>
+    </row>
+    <row r="64" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="146" t="s">
         <v>27</v>
       </c>
-      <c r="B62" s="103"/>
-      <c r="C62" s="103"/>
-      <c r="D62" s="103"/>
-      <c r="E62" s="103"/>
-      <c r="F62" s="103"/>
-      <c r="G62" s="103"/>
-      <c r="H62" s="103"/>
-      <c r="I62" s="103"/>
-      <c r="J62" s="103"/>
-      <c r="K62" s="103"/>
-      <c r="L62" s="103"/>
-      <c r="M62" s="103"/>
-      <c r="N62" s="103"/>
-      <c r="O62" s="103"/>
-      <c r="P62" s="103"/>
-      <c r="Q62" s="103"/>
-      <c r="R62" s="103"/>
-      <c r="S62" s="103"/>
-      <c r="T62" s="103"/>
-      <c r="U62" s="103"/>
-      <c r="V62" s="103"/>
-      <c r="W62" s="103"/>
-      <c r="X62" s="103"/>
-      <c r="Y62" s="103"/>
-      <c r="Z62" s="103"/>
-      <c r="AA62" s="103"/>
-      <c r="AB62" s="103"/>
-      <c r="AC62" s="103"/>
-      <c r="AD62" s="103"/>
-      <c r="AE62" s="103"/>
-      <c r="AF62" s="103"/>
-      <c r="AG62" s="103"/>
-    </row>
-    <row r="63" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="104" t="s">
-        <v>28</v>
-      </c>
-      <c r="B63" s="104"/>
-      <c r="C63" s="104"/>
-      <c r="D63" s="104"/>
-      <c r="E63" s="104"/>
-      <c r="F63" s="104"/>
-      <c r="G63" s="104"/>
-      <c r="H63" s="104"/>
-      <c r="I63" s="104"/>
-      <c r="J63" s="104"/>
-      <c r="K63" s="104"/>
-      <c r="L63" s="104"/>
-      <c r="M63" s="104"/>
-      <c r="N63" s="104"/>
-      <c r="O63" s="104"/>
-      <c r="P63" s="104"/>
-      <c r="Q63" s="104"/>
-      <c r="R63" s="104"/>
-      <c r="S63" s="104"/>
-      <c r="T63" s="104"/>
-      <c r="U63" s="104"/>
-      <c r="V63" s="104"/>
-      <c r="W63" s="104"/>
-      <c r="X63" s="104"/>
-      <c r="Y63" s="104"/>
-      <c r="Z63" s="104"/>
-      <c r="AA63" s="104"/>
-      <c r="AB63" s="104"/>
-      <c r="AC63" s="104"/>
-      <c r="AD63" s="104"/>
-      <c r="AE63" s="104"/>
-      <c r="AF63" s="104"/>
-      <c r="AG63" s="104"/>
-    </row>
-    <row r="64" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="B64" s="104"/>
-      <c r="C64" s="104"/>
-      <c r="D64" s="104"/>
-      <c r="E64" s="104"/>
-      <c r="F64" s="104"/>
-      <c r="G64" s="104"/>
-      <c r="H64" s="104"/>
-      <c r="I64" s="104"/>
-      <c r="J64" s="104"/>
-      <c r="K64" s="104"/>
-      <c r="L64" s="104"/>
-      <c r="M64" s="104"/>
-      <c r="N64" s="104"/>
-      <c r="O64" s="104"/>
-      <c r="P64" s="104"/>
-      <c r="Q64" s="104"/>
-      <c r="R64" s="104"/>
-      <c r="S64" s="104"/>
-      <c r="T64" s="104"/>
-      <c r="U64" s="104"/>
-      <c r="V64" s="104"/>
-      <c r="W64" s="104"/>
-      <c r="X64" s="104"/>
-      <c r="Y64" s="104"/>
-      <c r="Z64" s="104"/>
-      <c r="AA64" s="104"/>
-      <c r="AB64" s="104"/>
-      <c r="AC64" s="104"/>
-      <c r="AD64" s="104"/>
-      <c r="AE64" s="104"/>
-      <c r="AF64" s="104"/>
-      <c r="AG64" s="104"/>
+      <c r="B64" s="146"/>
+      <c r="C64" s="146"/>
+      <c r="D64" s="146"/>
+      <c r="E64" s="146"/>
+      <c r="F64" s="146"/>
+      <c r="G64" s="146"/>
+      <c r="H64" s="146"/>
+      <c r="I64" s="146"/>
+      <c r="J64" s="146"/>
+      <c r="K64" s="146"/>
+      <c r="L64" s="146"/>
+      <c r="M64" s="146"/>
+      <c r="N64" s="146"/>
+      <c r="O64" s="146"/>
+      <c r="P64" s="146"/>
+      <c r="Q64" s="146"/>
+      <c r="R64" s="146"/>
+      <c r="S64" s="146"/>
+      <c r="T64" s="146"/>
+      <c r="U64" s="146"/>
+      <c r="V64" s="146"/>
+      <c r="W64" s="146"/>
+      <c r="X64" s="146"/>
+      <c r="Y64" s="146"/>
+      <c r="Z64" s="146"/>
+      <c r="AA64" s="146"/>
+      <c r="AB64" s="146"/>
+      <c r="AC64" s="146"/>
+      <c r="AD64" s="146"/>
+      <c r="AE64" s="146"/>
+      <c r="AF64" s="146"/>
+      <c r="AG64" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="K25:O25"/>
-    <mergeCell ref="Q25:W25"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="K18:W18"/>
-    <mergeCell ref="D19:J19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="X20:Z21"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="AA19:AC19"/>
-    <mergeCell ref="K20:W21"/>
-    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="B41:W47"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="G36:AF36"/>
+    <mergeCell ref="K22:W22"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="K27:W27"/>
+    <mergeCell ref="T31:AB31"/>
+    <mergeCell ref="T33:AB33"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="AA26:AC26"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="A62:AG62"/>
+    <mergeCell ref="A63:AG63"/>
+    <mergeCell ref="A64:AG64"/>
+    <mergeCell ref="AA20:AC21"/>
+    <mergeCell ref="AD20:AD21"/>
+    <mergeCell ref="AE20:AF21"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="X26:Z26"/>
+    <mergeCell ref="AB40:AF42"/>
+    <mergeCell ref="AB47:AF47"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="T32:AB32"/>
+    <mergeCell ref="K28:W28"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="B2:AF3"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="B24:C28"/>
+    <mergeCell ref="K19:W19"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="B6:H9"/>
+    <mergeCell ref="B16:C22"/>
+    <mergeCell ref="B4:AF4"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="K26:W26"/>
+    <mergeCell ref="Q8:X9"/>
+    <mergeCell ref="AD10:AF11"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="B13:W14"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="Q10:X11"/>
+    <mergeCell ref="AD13:AF14"/>
+    <mergeCell ref="Q17:W17"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="Y10:AC11"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="S24:W24"/>
+    <mergeCell ref="AA13:AC14"/>
     <mergeCell ref="AB5:AE5"/>
     <mergeCell ref="S16:W16"/>
     <mergeCell ref="E11:H11"/>
@@ -3919,67 +3940,22 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="AA17:AB17"/>
     <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="Q10:X11"/>
-    <mergeCell ref="AD13:AF14"/>
-    <mergeCell ref="Q17:W17"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="Y10:AC11"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="X19:Z19"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="S24:W24"/>
-    <mergeCell ref="AA13:AC14"/>
-    <mergeCell ref="B2:AF3"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="B24:C28"/>
-    <mergeCell ref="K19:W19"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="B6:H9"/>
-    <mergeCell ref="B16:C22"/>
-    <mergeCell ref="B4:AF4"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="K26:W26"/>
-    <mergeCell ref="Q8:X9"/>
-    <mergeCell ref="AD10:AF11"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="B13:W14"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="A62:AG62"/>
-    <mergeCell ref="A63:AG63"/>
-    <mergeCell ref="A64:AG64"/>
-    <mergeCell ref="AA20:AC21"/>
-    <mergeCell ref="AD20:AD21"/>
-    <mergeCell ref="AE20:AF21"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="X26:Z26"/>
-    <mergeCell ref="AB40:AF42"/>
-    <mergeCell ref="AB47:AF47"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="T32:AB32"/>
-    <mergeCell ref="K28:W28"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="B41:T47"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="G36:AF36"/>
-    <mergeCell ref="K22:W22"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="K27:W27"/>
-    <mergeCell ref="T31:AB31"/>
-    <mergeCell ref="T33:AB33"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="AA26:AC26"/>
-    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="X20:Z21"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="AA19:AC19"/>
+    <mergeCell ref="K20:W21"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="K25:O25"/>
+    <mergeCell ref="Q25:W25"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="K18:W18"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="D20:G20"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E11:H11" xr:uid="{7FD8B4C7-42A0-4993-86BF-E5604E228F87}"/>
@@ -3998,8 +3974,8 @@
   </sheetPr>
   <dimension ref="A1:AG64"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A22" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="AH30" sqref="AH30"/>
+    <sheetView view="pageLayout" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T27" sqref="T27:AB27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4037,163 +4013,163 @@
     <row r="1" spans="1:32" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:32" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="132"/>
-      <c r="M2" s="132"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="132"/>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="132"/>
-      <c r="S2" s="132"/>
-      <c r="T2" s="132"/>
-      <c r="U2" s="132"/>
-      <c r="V2" s="132"/>
-      <c r="W2" s="132"/>
-      <c r="X2" s="132"/>
-      <c r="Y2" s="132"/>
-      <c r="Z2" s="132"/>
-      <c r="AA2" s="132"/>
-      <c r="AB2" s="132"/>
-      <c r="AC2" s="132"/>
-      <c r="AD2" s="132"/>
-      <c r="AE2" s="132"/>
-      <c r="AF2" s="132"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102"/>
+      <c r="X2" s="102"/>
+      <c r="Y2" s="102"/>
+      <c r="Z2" s="102"/>
+      <c r="AA2" s="102"/>
+      <c r="AB2" s="102"/>
+      <c r="AC2" s="102"/>
+      <c r="AD2" s="102"/>
+      <c r="AE2" s="102"/>
+      <c r="AF2" s="102"/>
     </row>
     <row r="3" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
-      <c r="B3" s="132"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="132"/>
-      <c r="K3" s="132"/>
-      <c r="L3" s="132"/>
-      <c r="M3" s="132"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="132"/>
-      <c r="P3" s="132"/>
-      <c r="Q3" s="132"/>
-      <c r="R3" s="132"/>
-      <c r="S3" s="132"/>
-      <c r="T3" s="132"/>
-      <c r="U3" s="132"/>
-      <c r="V3" s="132"/>
-      <c r="W3" s="132"/>
-      <c r="X3" s="132"/>
-      <c r="Y3" s="132"/>
-      <c r="Z3" s="132"/>
-      <c r="AA3" s="132"/>
-      <c r="AB3" s="132"/>
-      <c r="AC3" s="132"/>
-      <c r="AD3" s="132"/>
-      <c r="AE3" s="132"/>
-      <c r="AF3" s="132"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
+      <c r="U3" s="102"/>
+      <c r="V3" s="102"/>
+      <c r="W3" s="102"/>
+      <c r="X3" s="102"/>
+      <c r="Y3" s="102"/>
+      <c r="Z3" s="102"/>
+      <c r="AA3" s="102"/>
+      <c r="AB3" s="102"/>
+      <c r="AC3" s="102"/>
+      <c r="AD3" s="102"/>
+      <c r="AE3" s="102"/>
+      <c r="AF3" s="102"/>
     </row>
     <row r="4" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="109" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="132"/>
-      <c r="K4" s="132"/>
-      <c r="L4" s="132"/>
-      <c r="M4" s="132"/>
-      <c r="N4" s="132"/>
-      <c r="O4" s="132"/>
-      <c r="P4" s="132"/>
-      <c r="Q4" s="132"/>
-      <c r="R4" s="132"/>
-      <c r="S4" s="132"/>
-      <c r="T4" s="132"/>
-      <c r="U4" s="132"/>
-      <c r="V4" s="132"/>
-      <c r="W4" s="132"/>
-      <c r="X4" s="132"/>
-      <c r="Y4" s="132"/>
-      <c r="Z4" s="132"/>
-      <c r="AA4" s="132"/>
-      <c r="AB4" s="132"/>
-      <c r="AC4" s="132"/>
-      <c r="AD4" s="132"/>
-      <c r="AE4" s="132"/>
-      <c r="AF4" s="132"/>
+      <c r="B4" s="139" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="102"/>
+      <c r="N4" s="102"/>
+      <c r="O4" s="102"/>
+      <c r="P4" s="102"/>
+      <c r="Q4" s="102"/>
+      <c r="R4" s="102"/>
+      <c r="S4" s="102"/>
+      <c r="T4" s="102"/>
+      <c r="U4" s="102"/>
+      <c r="V4" s="102"/>
+      <c r="W4" s="102"/>
+      <c r="X4" s="102"/>
+      <c r="Y4" s="102"/>
+      <c r="Z4" s="102"/>
+      <c r="AA4" s="102"/>
+      <c r="AB4" s="102"/>
+      <c r="AC4" s="102"/>
+      <c r="AD4" s="102"/>
+      <c r="AE4" s="102"/>
+      <c r="AF4" s="102"/>
     </row>
     <row r="5" spans="1:32" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="158" t="s">
+      <c r="B5" s="101" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="102"/>
+      <c r="O5" s="102"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="102"/>
+      <c r="R5" s="102"/>
+      <c r="S5" s="102"/>
+      <c r="T5" s="102"/>
+      <c r="U5" s="102"/>
+      <c r="V5" s="102"/>
+      <c r="W5" s="102"/>
+      <c r="X5" s="102"/>
+      <c r="Y5" s="102"/>
+      <c r="Z5" s="102"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="192" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="113"/>
+      <c r="AD5" s="113"/>
+      <c r="AE5" s="113"/>
+      <c r="AF5" s="46" t="s">
         <v>52</v>
-      </c>
-      <c r="C5" s="132"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="164" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="132"/>
-      <c r="K5" s="132"/>
-      <c r="L5" s="132"/>
-      <c r="M5" s="132"/>
-      <c r="N5" s="132"/>
-      <c r="O5" s="132"/>
-      <c r="P5" s="132"/>
-      <c r="Q5" s="132"/>
-      <c r="R5" s="132"/>
-      <c r="S5" s="132"/>
-      <c r="T5" s="132"/>
-      <c r="U5" s="132"/>
-      <c r="V5" s="132"/>
-      <c r="W5" s="132"/>
-      <c r="X5" s="132"/>
-      <c r="Y5" s="132"/>
-      <c r="Z5" s="132"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="225" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="152"/>
-      <c r="AD5" s="152"/>
-      <c r="AE5" s="152"/>
-      <c r="AF5" s="46" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="131" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="132"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
+      <c r="B6" s="136" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -4203,35 +4179,35 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
-      <c r="R6" s="120"/>
-      <c r="S6" s="132"/>
-      <c r="T6" s="132"/>
-      <c r="U6" s="132"/>
-      <c r="V6" s="132"/>
-      <c r="W6" s="132"/>
-      <c r="X6" s="161"/>
-      <c r="Y6" s="132"/>
+      <c r="R6" s="127"/>
+      <c r="S6" s="102"/>
+      <c r="T6" s="102"/>
+      <c r="U6" s="102"/>
+      <c r="V6" s="102"/>
+      <c r="W6" s="102"/>
+      <c r="X6" s="104"/>
+      <c r="Y6" s="102"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="7"/>
-      <c r="AB6" s="157" t="s">
+      <c r="AB6" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="AC6" s="132"/>
-      <c r="AD6" s="132"/>
-      <c r="AE6" s="132"/>
+      <c r="AC6" s="102"/>
+      <c r="AD6" s="102"/>
+      <c r="AE6" s="102"/>
       <c r="AF6" s="45" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="132"/>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -4259,13 +4235,13 @@
     </row>
     <row r="8" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="132"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="132"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -4274,38 +4250,38 @@
       <c r="N8" s="9"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
-      <c r="Q8" s="136" t="s">
+      <c r="Q8" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="220"/>
-      <c r="S8" s="220"/>
-      <c r="T8" s="220"/>
-      <c r="U8" s="220"/>
-      <c r="V8" s="220"/>
-      <c r="W8" s="220"/>
-      <c r="X8" s="222"/>
-      <c r="Y8" s="136" t="s">
+      <c r="R8" s="203"/>
+      <c r="S8" s="203"/>
+      <c r="T8" s="203"/>
+      <c r="U8" s="203"/>
+      <c r="V8" s="203"/>
+      <c r="W8" s="203"/>
+      <c r="X8" s="205"/>
+      <c r="Y8" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="Z8" s="220"/>
-      <c r="AA8" s="220"/>
-      <c r="AB8" s="220"/>
-      <c r="AC8" s="222"/>
-      <c r="AD8" s="136" t="s">
+      <c r="Z8" s="203"/>
+      <c r="AA8" s="203"/>
+      <c r="AB8" s="203"/>
+      <c r="AC8" s="205"/>
+      <c r="AD8" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="AE8" s="220"/>
-      <c r="AF8" s="222"/>
+      <c r="AE8" s="203"/>
+      <c r="AF8" s="205"/>
     </row>
     <row r="9" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="132"/>
-      <c r="C9" s="132"/>
-      <c r="D9" s="132"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="132"/>
-      <c r="G9" s="132"/>
-      <c r="H9" s="132"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -4314,22 +4290,22 @@
       <c r="N9" s="9"/>
       <c r="O9" s="6"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="223"/>
-      <c r="R9" s="221"/>
-      <c r="S9" s="221"/>
-      <c r="T9" s="221"/>
-      <c r="U9" s="221"/>
-      <c r="V9" s="221"/>
-      <c r="W9" s="221"/>
-      <c r="X9" s="224"/>
-      <c r="Y9" s="223"/>
-      <c r="Z9" s="221"/>
-      <c r="AA9" s="221"/>
-      <c r="AB9" s="221"/>
-      <c r="AC9" s="224"/>
-      <c r="AD9" s="223"/>
-      <c r="AE9" s="221"/>
-      <c r="AF9" s="224"/>
+      <c r="Q9" s="206"/>
+      <c r="R9" s="204"/>
+      <c r="S9" s="204"/>
+      <c r="T9" s="204"/>
+      <c r="U9" s="204"/>
+      <c r="V9" s="204"/>
+      <c r="W9" s="204"/>
+      <c r="X9" s="207"/>
+      <c r="Y9" s="206"/>
+      <c r="Z9" s="204"/>
+      <c r="AA9" s="204"/>
+      <c r="AB9" s="204"/>
+      <c r="AC9" s="207"/>
+      <c r="AD9" s="206"/>
+      <c r="AE9" s="204"/>
+      <c r="AF9" s="207"/>
     </row>
     <row r="10" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -4348,44 +4324,44 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="147">
+      <c r="Q10" s="117">
         <v>44986</v>
       </c>
-      <c r="R10" s="137"/>
-      <c r="S10" s="137"/>
-      <c r="T10" s="137"/>
-      <c r="U10" s="137"/>
-      <c r="V10" s="137"/>
-      <c r="W10" s="137"/>
-      <c r="X10" s="138"/>
-      <c r="Y10" s="151">
+      <c r="R10" s="108"/>
+      <c r="S10" s="108"/>
+      <c r="T10" s="108"/>
+      <c r="U10" s="108"/>
+      <c r="V10" s="108"/>
+      <c r="W10" s="108"/>
+      <c r="X10" s="109"/>
+      <c r="Y10" s="120">
         <v>0</v>
       </c>
-      <c r="Z10" s="137"/>
-      <c r="AA10" s="137"/>
-      <c r="AB10" s="137"/>
-      <c r="AC10" s="138"/>
+      <c r="Z10" s="108"/>
+      <c r="AA10" s="108"/>
+      <c r="AB10" s="108"/>
+      <c r="AC10" s="109"/>
       <c r="AD10" s="142" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE10" s="137"/>
-      <c r="AF10" s="138"/>
+        <v>44</v>
+      </c>
+      <c r="AE10" s="108"/>
+      <c r="AF10" s="109"/>
     </row>
     <row r="11" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="158" t="s">
+      <c r="B11" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="132"/>
+      <c r="C11" s="102"/>
       <c r="D11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="158" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="132"/>
-      <c r="G11" s="132"/>
-      <c r="H11" s="132"/>
+      <c r="E11" s="101" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -4394,22 +4370,22 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="139"/>
-      <c r="R11" s="140"/>
-      <c r="S11" s="140"/>
-      <c r="T11" s="140"/>
-      <c r="U11" s="140"/>
-      <c r="V11" s="140"/>
-      <c r="W11" s="140"/>
-      <c r="X11" s="141"/>
-      <c r="Y11" s="139"/>
-      <c r="Z11" s="140"/>
-      <c r="AA11" s="140"/>
-      <c r="AB11" s="140"/>
-      <c r="AC11" s="141"/>
-      <c r="AD11" s="139"/>
-      <c r="AE11" s="140"/>
-      <c r="AF11" s="141"/>
+      <c r="Q11" s="110"/>
+      <c r="R11" s="111"/>
+      <c r="S11" s="111"/>
+      <c r="T11" s="111"/>
+      <c r="U11" s="111"/>
+      <c r="V11" s="111"/>
+      <c r="W11" s="111"/>
+      <c r="X11" s="112"/>
+      <c r="Y11" s="110"/>
+      <c r="Z11" s="111"/>
+      <c r="AA11" s="111"/>
+      <c r="AB11" s="111"/>
+      <c r="AC11" s="112"/>
+      <c r="AD11" s="110"/>
+      <c r="AE11" s="111"/>
+      <c r="AF11" s="112"/>
     </row>
     <row r="12" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -4447,75 +4423,75 @@
     </row>
     <row r="13" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="148" t="s">
+      <c r="B13" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="220"/>
-      <c r="D13" s="220"/>
-      <c r="E13" s="220"/>
-      <c r="F13" s="220"/>
-      <c r="G13" s="220"/>
-      <c r="H13" s="220"/>
-      <c r="I13" s="220"/>
-      <c r="J13" s="220"/>
-      <c r="K13" s="220"/>
-      <c r="L13" s="220"/>
-      <c r="M13" s="220"/>
-      <c r="N13" s="220"/>
-      <c r="O13" s="220"/>
-      <c r="P13" s="220"/>
-      <c r="Q13" s="220"/>
-      <c r="R13" s="220"/>
-      <c r="S13" s="220"/>
-      <c r="T13" s="220"/>
-      <c r="U13" s="220"/>
-      <c r="V13" s="220"/>
-      <c r="W13" s="220"/>
-      <c r="X13" s="220"/>
-      <c r="Y13" s="220"/>
-      <c r="Z13" s="220"/>
-      <c r="AA13" s="220"/>
-      <c r="AB13" s="220"/>
+      <c r="C13" s="203"/>
+      <c r="D13" s="203"/>
+      <c r="E13" s="203"/>
+      <c r="F13" s="203"/>
+      <c r="G13" s="203"/>
+      <c r="H13" s="203"/>
+      <c r="I13" s="203"/>
+      <c r="J13" s="203"/>
+      <c r="K13" s="203"/>
+      <c r="L13" s="203"/>
+      <c r="M13" s="203"/>
+      <c r="N13" s="203"/>
+      <c r="O13" s="203"/>
+      <c r="P13" s="203"/>
+      <c r="Q13" s="203"/>
+      <c r="R13" s="203"/>
+      <c r="S13" s="203"/>
+      <c r="T13" s="203"/>
+      <c r="U13" s="203"/>
+      <c r="V13" s="203"/>
+      <c r="W13" s="203"/>
+      <c r="X13" s="203"/>
+      <c r="Y13" s="203"/>
+      <c r="Z13" s="203"/>
+      <c r="AA13" s="203"/>
+      <c r="AB13" s="203"/>
       <c r="AC13" s="33"/>
-      <c r="AD13" s="148" t="s">
+      <c r="AD13" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="AE13" s="220"/>
-      <c r="AF13" s="220"/>
+      <c r="AE13" s="203"/>
+      <c r="AF13" s="203"/>
     </row>
     <row r="14" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="B14" s="221"/>
-      <c r="C14" s="221"/>
-      <c r="D14" s="221"/>
-      <c r="E14" s="221"/>
-      <c r="F14" s="221"/>
-      <c r="G14" s="221"/>
-      <c r="H14" s="221"/>
-      <c r="I14" s="221"/>
-      <c r="J14" s="221"/>
-      <c r="K14" s="221"/>
-      <c r="L14" s="221"/>
-      <c r="M14" s="221"/>
-      <c r="N14" s="221"/>
-      <c r="O14" s="221"/>
-      <c r="P14" s="221"/>
-      <c r="Q14" s="221"/>
-      <c r="R14" s="221"/>
-      <c r="S14" s="221"/>
-      <c r="T14" s="221"/>
-      <c r="U14" s="221"/>
-      <c r="V14" s="221"/>
-      <c r="W14" s="221"/>
-      <c r="X14" s="221"/>
-      <c r="Y14" s="221"/>
-      <c r="Z14" s="221"/>
-      <c r="AA14" s="221"/>
-      <c r="AB14" s="221"/>
+      <c r="B14" s="204"/>
+      <c r="C14" s="204"/>
+      <c r="D14" s="204"/>
+      <c r="E14" s="204"/>
+      <c r="F14" s="204"/>
+      <c r="G14" s="204"/>
+      <c r="H14" s="204"/>
+      <c r="I14" s="204"/>
+      <c r="J14" s="204"/>
+      <c r="K14" s="204"/>
+      <c r="L14" s="204"/>
+      <c r="M14" s="204"/>
+      <c r="N14" s="204"/>
+      <c r="O14" s="204"/>
+      <c r="P14" s="204"/>
+      <c r="Q14" s="204"/>
+      <c r="R14" s="204"/>
+      <c r="S14" s="204"/>
+      <c r="T14" s="204"/>
+      <c r="U14" s="204"/>
+      <c r="V14" s="204"/>
+      <c r="W14" s="204"/>
+      <c r="X14" s="204"/>
+      <c r="Y14" s="204"/>
+      <c r="Z14" s="204"/>
+      <c r="AA14" s="204"/>
+      <c r="AB14" s="204"/>
       <c r="AC14" s="34"/>
-      <c r="AD14" s="221"/>
-      <c r="AE14" s="221"/>
-      <c r="AF14" s="221"/>
+      <c r="AD14" s="204"/>
+      <c r="AE14" s="204"/>
+      <c r="AF14" s="204"/>
     </row>
     <row r="15" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -4552,143 +4528,143 @@
       <c r="AF15" s="14"/>
     </row>
     <row r="16" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="111"/>
-      <c r="B16" s="133" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="188"/>
-      <c r="D16" s="188"/>
-      <c r="E16" s="189"/>
-      <c r="F16" s="233" t="s">
+      <c r="A16" s="91"/>
+      <c r="B16" s="137" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="187"/>
+      <c r="D16" s="187"/>
+      <c r="E16" s="208"/>
+      <c r="F16" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="186"/>
-      <c r="H16" s="186"/>
-      <c r="I16" s="186"/>
-      <c r="J16" s="187"/>
-      <c r="K16" s="185" t="s">
-        <v>44</v>
-      </c>
-      <c r="L16" s="186"/>
-      <c r="M16" s="186"/>
-      <c r="N16" s="186"/>
-      <c r="O16" s="186"/>
-      <c r="P16" s="186"/>
-      <c r="Q16" s="186"/>
-      <c r="R16" s="186"/>
-      <c r="S16" s="186"/>
-      <c r="T16" s="186"/>
-      <c r="U16" s="186"/>
-      <c r="V16" s="186"/>
-      <c r="W16" s="186"/>
-      <c r="X16" s="186"/>
-      <c r="Y16" s="186"/>
-      <c r="Z16" s="186"/>
-      <c r="AA16" s="186"/>
-      <c r="AB16" s="187"/>
+      <c r="G16" s="170"/>
+      <c r="H16" s="170"/>
+      <c r="I16" s="170"/>
+      <c r="J16" s="171"/>
+      <c r="K16" s="193" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" s="170"/>
+      <c r="M16" s="170"/>
+      <c r="N16" s="170"/>
+      <c r="O16" s="170"/>
+      <c r="P16" s="170"/>
+      <c r="Q16" s="170"/>
+      <c r="R16" s="170"/>
+      <c r="S16" s="170"/>
+      <c r="T16" s="170"/>
+      <c r="U16" s="170"/>
+      <c r="V16" s="170"/>
+      <c r="W16" s="170"/>
+      <c r="X16" s="170"/>
+      <c r="Y16" s="170"/>
+      <c r="Z16" s="170"/>
+      <c r="AA16" s="170"/>
+      <c r="AB16" s="171"/>
       <c r="AC16" s="38"/>
       <c r="AD16" s="42"/>
-      <c r="AE16" s="152"/>
-      <c r="AF16" s="194"/>
+      <c r="AE16" s="113"/>
+      <c r="AF16" s="173"/>
     </row>
     <row r="17" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="111"/>
-      <c r="B17" s="215"/>
-      <c r="C17" s="191"/>
-      <c r="D17" s="191"/>
-      <c r="E17" s="192"/>
-      <c r="F17" s="203" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="204"/>
-      <c r="H17" s="204"/>
-      <c r="I17" s="204"/>
-      <c r="J17" s="205"/>
-      <c r="K17" s="209" t="s">
-        <v>45</v>
-      </c>
-      <c r="L17" s="210"/>
-      <c r="M17" s="210"/>
-      <c r="N17" s="210"/>
-      <c r="O17" s="210"/>
-      <c r="P17" s="210"/>
-      <c r="Q17" s="210"/>
-      <c r="R17" s="230" t="s">
-        <v>35</v>
-      </c>
-      <c r="S17" s="211" t="s">
-        <v>46</v>
-      </c>
-      <c r="T17" s="211"/>
-      <c r="U17" s="211"/>
-      <c r="V17" s="211"/>
-      <c r="W17" s="211"/>
-      <c r="X17" s="211"/>
-      <c r="Y17" s="211"/>
-      <c r="Z17" s="211"/>
-      <c r="AA17" s="211"/>
-      <c r="AB17" s="212"/>
+      <c r="A17" s="91"/>
+      <c r="B17" s="224"/>
+      <c r="C17" s="210"/>
+      <c r="D17" s="210"/>
+      <c r="E17" s="211"/>
+      <c r="F17" s="218" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="219"/>
+      <c r="H17" s="219"/>
+      <c r="I17" s="219"/>
+      <c r="J17" s="220"/>
+      <c r="K17" s="174" t="s">
+        <v>42</v>
+      </c>
+      <c r="L17" s="175"/>
+      <c r="M17" s="175"/>
+      <c r="N17" s="175"/>
+      <c r="O17" s="175"/>
+      <c r="P17" s="175"/>
+      <c r="Q17" s="175"/>
+      <c r="R17" s="188" t="s">
+        <v>33</v>
+      </c>
+      <c r="S17" s="176" t="s">
+        <v>43</v>
+      </c>
+      <c r="T17" s="176"/>
+      <c r="U17" s="176"/>
+      <c r="V17" s="176"/>
+      <c r="W17" s="176"/>
+      <c r="X17" s="176"/>
+      <c r="Y17" s="176"/>
+      <c r="Z17" s="176"/>
+      <c r="AA17" s="176"/>
+      <c r="AB17" s="177"/>
       <c r="AC17" s="38"/>
-      <c r="AD17" s="243" t="s">
+      <c r="AD17" s="189" t="s">
         <v>17</v>
       </c>
-      <c r="AE17" s="244">
+      <c r="AE17" s="190">
         <f>K18*S18</f>
         <v>1099040</v>
       </c>
-      <c r="AF17" s="244"/>
+      <c r="AF17" s="190"/>
     </row>
     <row r="18" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="132"/>
-      <c r="B18" s="193"/>
-      <c r="C18" s="194"/>
-      <c r="D18" s="194"/>
-      <c r="E18" s="192"/>
-      <c r="F18" s="206"/>
-      <c r="G18" s="207"/>
-      <c r="H18" s="207"/>
-      <c r="I18" s="207"/>
-      <c r="J18" s="208"/>
-      <c r="K18" s="159">
+      <c r="A18" s="102"/>
+      <c r="B18" s="212"/>
+      <c r="C18" s="173"/>
+      <c r="D18" s="173"/>
+      <c r="E18" s="211"/>
+      <c r="F18" s="221"/>
+      <c r="G18" s="222"/>
+      <c r="H18" s="222"/>
+      <c r="I18" s="222"/>
+      <c r="J18" s="223"/>
+      <c r="K18" s="78">
         <v>16000</v>
       </c>
-      <c r="L18" s="188"/>
-      <c r="M18" s="188"/>
-      <c r="N18" s="188"/>
-      <c r="O18" s="188"/>
-      <c r="P18" s="188"/>
-      <c r="Q18" s="188"/>
-      <c r="R18" s="230"/>
-      <c r="S18" s="169">
+      <c r="L18" s="187"/>
+      <c r="M18" s="187"/>
+      <c r="N18" s="187"/>
+      <c r="O18" s="187"/>
+      <c r="P18" s="187"/>
+      <c r="Q18" s="187"/>
+      <c r="R18" s="188"/>
+      <c r="S18" s="95">
         <v>68.69</v>
       </c>
-      <c r="T18" s="188"/>
-      <c r="U18" s="188"/>
-      <c r="V18" s="188"/>
-      <c r="W18" s="188"/>
-      <c r="X18" s="188"/>
-      <c r="Y18" s="188"/>
-      <c r="Z18" s="188"/>
-      <c r="AA18" s="188"/>
-      <c r="AB18" s="189"/>
+      <c r="T18" s="187"/>
+      <c r="U18" s="187"/>
+      <c r="V18" s="187"/>
+      <c r="W18" s="187"/>
+      <c r="X18" s="187"/>
+      <c r="Y18" s="187"/>
+      <c r="Z18" s="187"/>
+      <c r="AA18" s="187"/>
+      <c r="AB18" s="208"/>
       <c r="AC18" s="38"/>
-      <c r="AD18" s="243"/>
-      <c r="AE18" s="244"/>
-      <c r="AF18" s="244"/>
+      <c r="AD18" s="189"/>
+      <c r="AE18" s="190"/>
+      <c r="AF18" s="190"/>
     </row>
     <row r="19" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="195"/>
-      <c r="C19" s="196"/>
-      <c r="D19" s="196"/>
-      <c r="E19" s="197"/>
-      <c r="F19" s="146" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="217"/>
-      <c r="H19" s="217"/>
-      <c r="I19" s="217"/>
-      <c r="J19" s="218"/>
+      <c r="B19" s="213"/>
+      <c r="C19" s="214"/>
+      <c r="D19" s="214"/>
+      <c r="E19" s="215"/>
+      <c r="F19" s="82" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="195"/>
+      <c r="H19" s="195"/>
+      <c r="I19" s="195"/>
+      <c r="J19" s="197"/>
       <c r="K19" s="198">
         <f>ROUND(AE17*11%,0)</f>
         <v>120894</v>
@@ -4714,11 +4690,11 @@
       <c r="AD19" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE19" s="214">
+      <c r="AE19" s="201">
         <f>K19</f>
         <v>120894</v>
       </c>
-      <c r="AF19" s="219"/>
+      <c r="AF19" s="202"/>
     </row>
     <row r="20" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
@@ -4726,24 +4702,24 @@
       <c r="C20" s="11"/>
       <c r="D20" s="68"/>
       <c r="E20" s="38"/>
-      <c r="F20" s="202"/>
-      <c r="G20" s="194"/>
-      <c r="H20" s="194"/>
-      <c r="I20" s="194"/>
+      <c r="F20" s="217"/>
+      <c r="G20" s="173"/>
+      <c r="H20" s="173"/>
+      <c r="I20" s="173"/>
       <c r="J20" s="52"/>
-      <c r="K20" s="234"/>
-      <c r="L20" s="194"/>
-      <c r="M20" s="194"/>
-      <c r="N20" s="194"/>
-      <c r="O20" s="165"/>
-      <c r="P20" s="194"/>
-      <c r="Q20" s="232"/>
-      <c r="R20" s="194"/>
-      <c r="S20" s="194"/>
-      <c r="T20" s="194"/>
-      <c r="U20" s="194"/>
-      <c r="V20" s="194"/>
-      <c r="W20" s="194"/>
+      <c r="K20" s="172"/>
+      <c r="L20" s="173"/>
+      <c r="M20" s="173"/>
+      <c r="N20" s="173"/>
+      <c r="O20" s="99"/>
+      <c r="P20" s="173"/>
+      <c r="Q20" s="191"/>
+      <c r="R20" s="173"/>
+      <c r="S20" s="173"/>
+      <c r="T20" s="173"/>
+      <c r="U20" s="173"/>
+      <c r="V20" s="173"/>
+      <c r="W20" s="173"/>
       <c r="X20" s="52"/>
       <c r="Y20" s="52"/>
       <c r="Z20" s="52"/>
@@ -4753,152 +4729,152 @@
       <c r="AD20" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE20" s="229">
+      <c r="AE20" s="186">
         <f>AE17+AE19</f>
         <v>1219934</v>
       </c>
-      <c r="AF20" s="188"/>
+      <c r="AF20" s="187"/>
     </row>
     <row r="21" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="121" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="188"/>
-      <c r="D21" s="188"/>
-      <c r="E21" s="189"/>
-      <c r="F21" s="228" t="s">
+      <c r="B21" s="128" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="187"/>
+      <c r="D21" s="187"/>
+      <c r="E21" s="208"/>
+      <c r="F21" s="226" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="186"/>
-      <c r="H21" s="186"/>
-      <c r="I21" s="186"/>
-      <c r="J21" s="187"/>
-      <c r="K21" s="185" t="s">
-        <v>44</v>
-      </c>
-      <c r="L21" s="186"/>
-      <c r="M21" s="186"/>
-      <c r="N21" s="186"/>
-      <c r="O21" s="186"/>
-      <c r="P21" s="186"/>
-      <c r="Q21" s="186"/>
-      <c r="R21" s="186"/>
-      <c r="S21" s="186"/>
-      <c r="T21" s="186"/>
-      <c r="U21" s="186"/>
-      <c r="V21" s="186"/>
-      <c r="W21" s="186"/>
-      <c r="X21" s="186"/>
-      <c r="Y21" s="186"/>
-      <c r="Z21" s="186"/>
-      <c r="AA21" s="186"/>
-      <c r="AB21" s="187"/>
+      <c r="G21" s="170"/>
+      <c r="H21" s="170"/>
+      <c r="I21" s="170"/>
+      <c r="J21" s="171"/>
+      <c r="K21" s="193" t="s">
+        <v>41</v>
+      </c>
+      <c r="L21" s="170"/>
+      <c r="M21" s="170"/>
+      <c r="N21" s="170"/>
+      <c r="O21" s="170"/>
+      <c r="P21" s="170"/>
+      <c r="Q21" s="170"/>
+      <c r="R21" s="170"/>
+      <c r="S21" s="170"/>
+      <c r="T21" s="170"/>
+      <c r="U21" s="170"/>
+      <c r="V21" s="170"/>
+      <c r="W21" s="170"/>
+      <c r="X21" s="170"/>
+      <c r="Y21" s="170"/>
+      <c r="Z21" s="170"/>
+      <c r="AA21" s="170"/>
+      <c r="AB21" s="171"/>
       <c r="AC21" s="18"/>
       <c r="AD21" s="42"/>
-      <c r="AE21" s="107"/>
-      <c r="AF21" s="194"/>
+      <c r="AE21" s="148"/>
+      <c r="AF21" s="173"/>
     </row>
     <row r="22" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="190"/>
-      <c r="C22" s="191"/>
-      <c r="D22" s="191"/>
-      <c r="E22" s="192"/>
-      <c r="F22" s="235" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="236"/>
-      <c r="H22" s="236"/>
-      <c r="I22" s="236"/>
-      <c r="J22" s="237"/>
-      <c r="K22" s="209" t="s">
-        <v>45</v>
-      </c>
-      <c r="L22" s="210"/>
-      <c r="M22" s="210"/>
-      <c r="N22" s="210"/>
-      <c r="O22" s="210"/>
-      <c r="P22" s="210"/>
-      <c r="Q22" s="210"/>
-      <c r="R22" s="241" t="s">
-        <v>35</v>
-      </c>
-      <c r="S22" s="211" t="s">
-        <v>46</v>
-      </c>
-      <c r="T22" s="211"/>
-      <c r="U22" s="211"/>
-      <c r="V22" s="211"/>
-      <c r="W22" s="211"/>
-      <c r="X22" s="211"/>
-      <c r="Y22" s="211"/>
-      <c r="Z22" s="211"/>
-      <c r="AA22" s="211"/>
-      <c r="AB22" s="212"/>
+      <c r="B22" s="209"/>
+      <c r="C22" s="210"/>
+      <c r="D22" s="210"/>
+      <c r="E22" s="211"/>
+      <c r="F22" s="178" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="179"/>
+      <c r="H22" s="179"/>
+      <c r="I22" s="179"/>
+      <c r="J22" s="180"/>
+      <c r="K22" s="174" t="s">
+        <v>42</v>
+      </c>
+      <c r="L22" s="175"/>
+      <c r="M22" s="175"/>
+      <c r="N22" s="175"/>
+      <c r="O22" s="175"/>
+      <c r="P22" s="175"/>
+      <c r="Q22" s="175"/>
+      <c r="R22" s="184" t="s">
+        <v>33</v>
+      </c>
+      <c r="S22" s="176" t="s">
+        <v>43</v>
+      </c>
+      <c r="T22" s="176"/>
+      <c r="U22" s="176"/>
+      <c r="V22" s="176"/>
+      <c r="W22" s="176"/>
+      <c r="X22" s="176"/>
+      <c r="Y22" s="176"/>
+      <c r="Z22" s="176"/>
+      <c r="AA22" s="176"/>
+      <c r="AB22" s="177"/>
       <c r="AC22" s="18"/>
-      <c r="AD22" s="243" t="s">
+      <c r="AD22" s="189" t="s">
         <v>17</v>
       </c>
-      <c r="AE22" s="245">
+      <c r="AE22" s="227">
         <f>K23*S23</f>
         <v>109904</v>
       </c>
-      <c r="AF22" s="245"/>
+      <c r="AF22" s="227"/>
     </row>
     <row r="23" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="193"/>
-      <c r="C23" s="194"/>
-      <c r="D23" s="194"/>
-      <c r="E23" s="192"/>
-      <c r="F23" s="238"/>
-      <c r="G23" s="239"/>
-      <c r="H23" s="239"/>
-      <c r="I23" s="239"/>
-      <c r="J23" s="240"/>
-      <c r="K23" s="226">
+      <c r="B23" s="212"/>
+      <c r="C23" s="173"/>
+      <c r="D23" s="173"/>
+      <c r="E23" s="211"/>
+      <c r="F23" s="181"/>
+      <c r="G23" s="182"/>
+      <c r="H23" s="182"/>
+      <c r="I23" s="182"/>
+      <c r="J23" s="183"/>
+      <c r="K23" s="194">
         <f>IF(K18&lt;&gt;0,K18*10%,VLOOKUP(E11,[1]!SCSF_Billings[#Data],6,FALSE))</f>
         <v>1600</v>
       </c>
-      <c r="L23" s="217"/>
-      <c r="M23" s="217"/>
-      <c r="N23" s="217"/>
-      <c r="O23" s="217"/>
-      <c r="P23" s="217"/>
-      <c r="Q23" s="217"/>
-      <c r="R23" s="242"/>
-      <c r="S23" s="216">
+      <c r="L23" s="195"/>
+      <c r="M23" s="195"/>
+      <c r="N23" s="195"/>
+      <c r="O23" s="195"/>
+      <c r="P23" s="195"/>
+      <c r="Q23" s="195"/>
+      <c r="R23" s="185"/>
+      <c r="S23" s="225">
         <f>S18</f>
         <v>68.69</v>
       </c>
-      <c r="T23" s="217"/>
-      <c r="U23" s="217"/>
-      <c r="V23" s="217"/>
-      <c r="W23" s="217"/>
-      <c r="X23" s="217"/>
-      <c r="Y23" s="217"/>
-      <c r="Z23" s="217"/>
-      <c r="AA23" s="217"/>
-      <c r="AB23" s="218"/>
+      <c r="T23" s="195"/>
+      <c r="U23" s="195"/>
+      <c r="V23" s="195"/>
+      <c r="W23" s="195"/>
+      <c r="X23" s="195"/>
+      <c r="Y23" s="195"/>
+      <c r="Z23" s="195"/>
+      <c r="AA23" s="195"/>
+      <c r="AB23" s="197"/>
       <c r="AC23" s="18"/>
-      <c r="AD23" s="243"/>
-      <c r="AE23" s="245"/>
-      <c r="AF23" s="245"/>
+      <c r="AD23" s="189"/>
+      <c r="AE23" s="227"/>
+      <c r="AF23" s="227"/>
     </row>
     <row r="24" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="195"/>
-      <c r="C24" s="196"/>
-      <c r="D24" s="196"/>
-      <c r="E24" s="197"/>
-      <c r="F24" s="227" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" s="217"/>
-      <c r="H24" s="217"/>
-      <c r="I24" s="217"/>
-      <c r="J24" s="218"/>
+      <c r="B24" s="213"/>
+      <c r="C24" s="214"/>
+      <c r="D24" s="214"/>
+      <c r="E24" s="215"/>
+      <c r="F24" s="196" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="195"/>
+      <c r="H24" s="195"/>
+      <c r="I24" s="195"/>
+      <c r="J24" s="197"/>
       <c r="K24" s="198">
         <f>ROUND(AE22*11%,0)</f>
         <v>12089</v>
@@ -4924,53 +4900,53 @@
       <c r="AD24" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE24" s="92">
+      <c r="AE24" s="161">
         <f>K24</f>
         <v>12089</v>
       </c>
-      <c r="AF24" s="196"/>
+      <c r="AF24" s="214"/>
     </row>
     <row r="25" spans="1:32" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="111"/>
+      <c r="A25" s="91"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>
-      <c r="F25" s="201"/>
-      <c r="G25" s="196"/>
-      <c r="H25" s="196"/>
-      <c r="I25" s="196"/>
+      <c r="F25" s="216"/>
+      <c r="G25" s="214"/>
+      <c r="H25" s="214"/>
+      <c r="I25" s="214"/>
       <c r="J25" s="69"/>
-      <c r="K25" s="231"/>
-      <c r="L25" s="196"/>
-      <c r="M25" s="196"/>
-      <c r="N25" s="196"/>
-      <c r="O25" s="196"/>
-      <c r="P25" s="196"/>
-      <c r="Q25" s="196"/>
-      <c r="R25" s="196"/>
-      <c r="S25" s="196"/>
-      <c r="T25" s="196"/>
-      <c r="U25" s="196"/>
-      <c r="V25" s="196"/>
-      <c r="W25" s="196"/>
+      <c r="K25" s="239"/>
+      <c r="L25" s="214"/>
+      <c r="M25" s="214"/>
+      <c r="N25" s="214"/>
+      <c r="O25" s="214"/>
+      <c r="P25" s="214"/>
+      <c r="Q25" s="214"/>
+      <c r="R25" s="214"/>
+      <c r="S25" s="214"/>
+      <c r="T25" s="214"/>
+      <c r="U25" s="214"/>
+      <c r="V25" s="214"/>
+      <c r="W25" s="214"/>
       <c r="X25" s="36"/>
       <c r="Y25" s="36"/>
       <c r="Z25" s="36"/>
       <c r="AA25" s="36"/>
       <c r="AB25" s="36"/>
       <c r="AC25" s="70"/>
-      <c r="AD25" s="246" t="s">
+      <c r="AD25" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="AE25" s="247">
+      <c r="AE25" s="237">
         <f>AE22+AE24</f>
         <v>121993</v>
       </c>
-      <c r="AF25" s="248"/>
+      <c r="AF25" s="238"/>
     </row>
     <row r="26" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="132"/>
+      <c r="A26" s="102"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
@@ -5004,7 +4980,7 @@
       <c r="AF26" s="59"/>
     </row>
     <row r="27" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="132"/>
+      <c r="A27" s="102"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="52"/>
@@ -5023,28 +4999,29 @@
       <c r="Q27" s="52"/>
       <c r="R27" s="52"/>
       <c r="S27" s="52"/>
-      <c r="T27" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="U27" s="194"/>
-      <c r="V27" s="194"/>
-      <c r="W27" s="194"/>
-      <c r="X27" s="194"/>
-      <c r="Y27" s="194"/>
-      <c r="Z27" s="194"/>
-      <c r="AA27" s="194"/>
-      <c r="AB27" s="194"/>
+      <c r="T27" s="163" t="s">
+        <v>57</v>
+      </c>
+      <c r="U27" s="173"/>
+      <c r="V27" s="173"/>
+      <c r="W27" s="173"/>
+      <c r="X27" s="173"/>
+      <c r="Y27" s="173"/>
+      <c r="Z27" s="173"/>
+      <c r="AA27" s="173"/>
+      <c r="AB27" s="173"/>
       <c r="AC27" s="18"/>
       <c r="AD27" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE27" s="183">
-        <v>10000</v>
-      </c>
-      <c r="AF27" s="184"/>
+      <c r="AE27" s="234">
+        <f>AE20*5%</f>
+        <v>60996.700000000004</v>
+      </c>
+      <c r="AF27" s="235"/>
     </row>
     <row r="28" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="132"/>
+      <c r="A28" s="102"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -5063,25 +5040,25 @@
       <c r="Q28" s="9"/>
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
-      <c r="T28" s="116" t="s">
-        <v>24</v>
-      </c>
-      <c r="U28" s="194"/>
-      <c r="V28" s="194"/>
-      <c r="W28" s="194"/>
-      <c r="X28" s="194"/>
-      <c r="Y28" s="194"/>
-      <c r="Z28" s="194"/>
-      <c r="AA28" s="194"/>
-      <c r="AB28" s="194"/>
+      <c r="T28" s="163" t="s">
+        <v>23</v>
+      </c>
+      <c r="U28" s="173"/>
+      <c r="V28" s="173"/>
+      <c r="W28" s="173"/>
+      <c r="X28" s="173"/>
+      <c r="Y28" s="173"/>
+      <c r="Z28" s="173"/>
+      <c r="AA28" s="173"/>
+      <c r="AB28" s="173"/>
       <c r="AC28" s="28"/>
       <c r="AD28" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE28" s="213">
+      <c r="AE28" s="236">
         <v>10000</v>
       </c>
-      <c r="AF28" s="184"/>
+      <c r="AF28" s="235"/>
     </row>
     <row r="29" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
@@ -5103,26 +5080,26 @@
       <c r="Q29" s="19"/>
       <c r="R29" s="19"/>
       <c r="S29" s="19"/>
-      <c r="T29" s="97" t="s">
-        <v>25</v>
-      </c>
-      <c r="U29" s="194"/>
-      <c r="V29" s="194"/>
-      <c r="W29" s="194"/>
-      <c r="X29" s="194"/>
-      <c r="Y29" s="194"/>
-      <c r="Z29" s="194"/>
-      <c r="AA29" s="194"/>
-      <c r="AB29" s="194"/>
+      <c r="T29" s="164" t="s">
+        <v>24</v>
+      </c>
+      <c r="U29" s="173"/>
+      <c r="V29" s="173"/>
+      <c r="W29" s="173"/>
+      <c r="X29" s="173"/>
+      <c r="Y29" s="173"/>
+      <c r="Z29" s="173"/>
+      <c r="AA29" s="173"/>
+      <c r="AB29" s="173"/>
       <c r="AC29" s="19"/>
       <c r="AD29" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE29" s="118">
+      <c r="AE29" s="119">
         <f>AE20+AE25+AE27+AE28</f>
-        <v>1361927</v>
-      </c>
-      <c r="AF29" s="194"/>
+        <v>1412923.7</v>
+      </c>
+      <c r="AF29" s="173"/>
     </row>
     <row r="30" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
@@ -5194,41 +5171,41 @@
     </row>
     <row r="32" spans="1:32" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="80" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="80"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="181" t="s">
-        <v>51</v>
-      </c>
-      <c r="H32" s="181"/>
-      <c r="I32" s="181"/>
-      <c r="J32" s="181"/>
-      <c r="K32" s="181"/>
-      <c r="L32" s="181"/>
-      <c r="M32" s="181"/>
-      <c r="N32" s="181"/>
-      <c r="O32" s="181"/>
-      <c r="P32" s="181"/>
-      <c r="Q32" s="181"/>
-      <c r="R32" s="181"/>
-      <c r="S32" s="181"/>
-      <c r="T32" s="181"/>
-      <c r="U32" s="181"/>
-      <c r="V32" s="181"/>
-      <c r="W32" s="181"/>
-      <c r="X32" s="181"/>
-      <c r="Y32" s="181"/>
-      <c r="Z32" s="181"/>
-      <c r="AA32" s="181"/>
-      <c r="AB32" s="181"/>
-      <c r="AC32" s="181"/>
-      <c r="AD32" s="181"/>
-      <c r="AE32" s="181"/>
-      <c r="AF32" s="181"/>
+      <c r="B32" s="152" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="152"/>
+      <c r="D32" s="152"/>
+      <c r="E32" s="152"/>
+      <c r="F32" s="152"/>
+      <c r="G32" s="232" t="s">
+        <v>48</v>
+      </c>
+      <c r="H32" s="232"/>
+      <c r="I32" s="232"/>
+      <c r="J32" s="232"/>
+      <c r="K32" s="232"/>
+      <c r="L32" s="232"/>
+      <c r="M32" s="232"/>
+      <c r="N32" s="232"/>
+      <c r="O32" s="232"/>
+      <c r="P32" s="232"/>
+      <c r="Q32" s="232"/>
+      <c r="R32" s="232"/>
+      <c r="S32" s="232"/>
+      <c r="T32" s="232"/>
+      <c r="U32" s="232"/>
+      <c r="V32" s="232"/>
+      <c r="W32" s="232"/>
+      <c r="X32" s="232"/>
+      <c r="Y32" s="232"/>
+      <c r="Z32" s="232"/>
+      <c r="AA32" s="232"/>
+      <c r="AB32" s="232"/>
+      <c r="AC32" s="232"/>
+      <c r="AD32" s="232"/>
+      <c r="AE32" s="232"/>
+      <c r="AF32" s="232"/>
     </row>
     <row r="33" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
@@ -5357,200 +5334,207 @@
       <c r="V36" s="6"/>
       <c r="W36" s="6"/>
       <c r="X36" s="48"/>
-      <c r="AB36" s="182" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC36" s="182"/>
-      <c r="AD36" s="182"/>
-      <c r="AE36" s="182"/>
-      <c r="AF36" s="182"/>
-    </row>
-    <row r="37" spans="1:32" ht="5.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB36" s="233" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC36" s="233"/>
+      <c r="AD36" s="233"/>
+      <c r="AE36" s="233"/>
+      <c r="AF36" s="233"/>
+    </row>
+    <row r="37" spans="1:32" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
-      <c r="B37" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="72"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="72"/>
-      <c r="K37" s="72"/>
-      <c r="L37" s="72"/>
-      <c r="M37" s="72"/>
-      <c r="N37" s="72"/>
-      <c r="O37" s="72"/>
-      <c r="P37" s="72"/>
-      <c r="Q37" s="72"/>
-      <c r="R37" s="72"/>
-      <c r="S37" s="72"/>
-      <c r="T37" s="73"/>
-      <c r="V37" s="6"/>
-      <c r="W37" s="6"/>
-      <c r="AB37" s="182"/>
-      <c r="AC37" s="182"/>
-      <c r="AD37" s="182"/>
-      <c r="AE37" s="182"/>
-      <c r="AF37" s="182"/>
-    </row>
-    <row r="38" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="241" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="241"/>
+      <c r="D37" s="241"/>
+      <c r="E37" s="241"/>
+      <c r="F37" s="241"/>
+      <c r="G37" s="241"/>
+      <c r="H37" s="241"/>
+      <c r="I37" s="241"/>
+      <c r="J37" s="241"/>
+      <c r="K37" s="241"/>
+      <c r="L37" s="241"/>
+      <c r="M37" s="241"/>
+      <c r="N37" s="241"/>
+      <c r="O37" s="241"/>
+      <c r="P37" s="241"/>
+      <c r="Q37" s="241"/>
+      <c r="R37" s="241"/>
+      <c r="S37" s="241"/>
+      <c r="T37" s="241"/>
+      <c r="U37" s="241"/>
+      <c r="V37" s="241"/>
+      <c r="W37" s="241"/>
+      <c r="AB37" s="233"/>
+      <c r="AC37" s="233"/>
+      <c r="AD37" s="233"/>
+      <c r="AE37" s="233"/>
+      <c r="AF37" s="233"/>
+    </row>
+    <row r="38" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
-      <c r="B38" s="74"/>
-      <c r="C38" s="75"/>
-      <c r="D38" s="75"/>
-      <c r="E38" s="75"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="75"/>
-      <c r="I38" s="75"/>
-      <c r="J38" s="75"/>
-      <c r="K38" s="75"/>
-      <c r="L38" s="75"/>
-      <c r="M38" s="75"/>
-      <c r="N38" s="75"/>
-      <c r="O38" s="75"/>
-      <c r="P38" s="75"/>
-      <c r="Q38" s="75"/>
-      <c r="R38" s="75"/>
-      <c r="S38" s="75"/>
-      <c r="T38" s="76"/>
-      <c r="V38" s="6"/>
-      <c r="W38" s="6"/>
-      <c r="AB38" s="182"/>
-      <c r="AC38" s="182"/>
-      <c r="AD38" s="182"/>
-      <c r="AE38" s="182"/>
-      <c r="AF38" s="182"/>
-    </row>
-    <row r="39" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="241"/>
+      <c r="C38" s="241"/>
+      <c r="D38" s="241"/>
+      <c r="E38" s="241"/>
+      <c r="F38" s="241"/>
+      <c r="G38" s="241"/>
+      <c r="H38" s="241"/>
+      <c r="I38" s="241"/>
+      <c r="J38" s="241"/>
+      <c r="K38" s="241"/>
+      <c r="L38" s="241"/>
+      <c r="M38" s="241"/>
+      <c r="N38" s="241"/>
+      <c r="O38" s="241"/>
+      <c r="P38" s="241"/>
+      <c r="Q38" s="241"/>
+      <c r="R38" s="241"/>
+      <c r="S38" s="241"/>
+      <c r="T38" s="241"/>
+      <c r="U38" s="241"/>
+      <c r="V38" s="241"/>
+      <c r="W38" s="241"/>
+      <c r="AB38" s="233"/>
+      <c r="AC38" s="233"/>
+      <c r="AD38" s="233"/>
+      <c r="AE38" s="233"/>
+      <c r="AF38" s="233"/>
+    </row>
+    <row r="39" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
-      <c r="B39" s="74"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="75"/>
-      <c r="E39" s="75"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="75"/>
-      <c r="J39" s="75"/>
-      <c r="K39" s="75"/>
-      <c r="L39" s="75"/>
-      <c r="M39" s="75"/>
-      <c r="N39" s="75"/>
-      <c r="O39" s="75"/>
-      <c r="P39" s="75"/>
-      <c r="Q39" s="75"/>
-      <c r="R39" s="75"/>
-      <c r="S39" s="75"/>
-      <c r="T39" s="76"/>
-      <c r="V39" s="6"/>
-      <c r="W39" s="6"/>
-    </row>
-    <row r="40" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="241"/>
+      <c r="C39" s="241"/>
+      <c r="D39" s="241"/>
+      <c r="E39" s="241"/>
+      <c r="F39" s="241"/>
+      <c r="G39" s="241"/>
+      <c r="H39" s="241"/>
+      <c r="I39" s="241"/>
+      <c r="J39" s="241"/>
+      <c r="K39" s="241"/>
+      <c r="L39" s="241"/>
+      <c r="M39" s="241"/>
+      <c r="N39" s="241"/>
+      <c r="O39" s="241"/>
+      <c r="P39" s="241"/>
+      <c r="Q39" s="241"/>
+      <c r="R39" s="241"/>
+      <c r="S39" s="241"/>
+      <c r="T39" s="241"/>
+      <c r="U39" s="241"/>
+      <c r="V39" s="241"/>
+      <c r="W39" s="241"/>
+    </row>
+    <row r="40" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
-      <c r="B40" s="74"/>
-      <c r="C40" s="75"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="75"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="75"/>
-      <c r="I40" s="75"/>
-      <c r="J40" s="75"/>
-      <c r="K40" s="75"/>
-      <c r="L40" s="75"/>
-      <c r="M40" s="75"/>
-      <c r="N40" s="75"/>
-      <c r="O40" s="75"/>
-      <c r="P40" s="75"/>
-      <c r="Q40" s="75"/>
-      <c r="R40" s="75"/>
-      <c r="S40" s="75"/>
-      <c r="T40" s="76"/>
-      <c r="V40" s="6"/>
-      <c r="W40" s="6"/>
-    </row>
-    <row r="41" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="241"/>
+      <c r="C40" s="241"/>
+      <c r="D40" s="241"/>
+      <c r="E40" s="241"/>
+      <c r="F40" s="241"/>
+      <c r="G40" s="241"/>
+      <c r="H40" s="241"/>
+      <c r="I40" s="241"/>
+      <c r="J40" s="241"/>
+      <c r="K40" s="241"/>
+      <c r="L40" s="241"/>
+      <c r="M40" s="241"/>
+      <c r="N40" s="241"/>
+      <c r="O40" s="241"/>
+      <c r="P40" s="241"/>
+      <c r="Q40" s="241"/>
+      <c r="R40" s="241"/>
+      <c r="S40" s="241"/>
+      <c r="T40" s="241"/>
+      <c r="U40" s="241"/>
+      <c r="V40" s="241"/>
+      <c r="W40" s="241"/>
+    </row>
+    <row r="41" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
-      <c r="B41" s="74"/>
-      <c r="C41" s="75"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="75"/>
-      <c r="F41" s="75"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="75"/>
-      <c r="I41" s="75"/>
-      <c r="J41" s="75"/>
-      <c r="K41" s="75"/>
-      <c r="L41" s="75"/>
-      <c r="M41" s="75"/>
-      <c r="N41" s="75"/>
-      <c r="O41" s="75"/>
-      <c r="P41" s="75"/>
-      <c r="Q41" s="75"/>
-      <c r="R41" s="75"/>
-      <c r="S41" s="75"/>
-      <c r="T41" s="76"/>
-      <c r="V41" s="6"/>
-      <c r="W41" s="6"/>
-    </row>
-    <row r="42" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="241"/>
+      <c r="C41" s="241"/>
+      <c r="D41" s="241"/>
+      <c r="E41" s="241"/>
+      <c r="F41" s="241"/>
+      <c r="G41" s="241"/>
+      <c r="H41" s="241"/>
+      <c r="I41" s="241"/>
+      <c r="J41" s="241"/>
+      <c r="K41" s="241"/>
+      <c r="L41" s="241"/>
+      <c r="M41" s="241"/>
+      <c r="N41" s="241"/>
+      <c r="O41" s="241"/>
+      <c r="P41" s="241"/>
+      <c r="Q41" s="241"/>
+      <c r="R41" s="241"/>
+      <c r="S41" s="241"/>
+      <c r="T41" s="241"/>
+      <c r="U41" s="241"/>
+      <c r="V41" s="241"/>
+      <c r="W41" s="241"/>
+    </row>
+    <row r="42" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
-      <c r="B42" s="74"/>
-      <c r="C42" s="75"/>
-      <c r="D42" s="75"/>
-      <c r="E42" s="75"/>
-      <c r="F42" s="75"/>
-      <c r="G42" s="75"/>
-      <c r="H42" s="75"/>
-      <c r="I42" s="75"/>
-      <c r="J42" s="75"/>
-      <c r="K42" s="75"/>
-      <c r="L42" s="75"/>
-      <c r="M42" s="75"/>
-      <c r="N42" s="75"/>
-      <c r="O42" s="75"/>
-      <c r="P42" s="75"/>
-      <c r="Q42" s="75"/>
-      <c r="R42" s="75"/>
-      <c r="S42" s="75"/>
-      <c r="T42" s="76"/>
-      <c r="V42" s="6"/>
-      <c r="W42" s="6"/>
+      <c r="B42" s="241"/>
+      <c r="C42" s="241"/>
+      <c r="D42" s="241"/>
+      <c r="E42" s="241"/>
+      <c r="F42" s="241"/>
+      <c r="G42" s="241"/>
+      <c r="H42" s="241"/>
+      <c r="I42" s="241"/>
+      <c r="J42" s="241"/>
+      <c r="K42" s="241"/>
+      <c r="L42" s="241"/>
+      <c r="M42" s="241"/>
+      <c r="N42" s="241"/>
+      <c r="O42" s="241"/>
+      <c r="P42" s="241"/>
+      <c r="Q42" s="241"/>
+      <c r="R42" s="241"/>
+      <c r="S42" s="241"/>
+      <c r="T42" s="241"/>
+      <c r="U42" s="241"/>
+      <c r="V42" s="241"/>
+      <c r="W42" s="241"/>
     </row>
     <row r="43" spans="1:32" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
-      <c r="B43" s="77"/>
-      <c r="C43" s="78"/>
-      <c r="D43" s="78"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="78"/>
-      <c r="I43" s="78"/>
-      <c r="J43" s="78"/>
-      <c r="K43" s="78"/>
-      <c r="L43" s="78"/>
-      <c r="M43" s="78"/>
-      <c r="N43" s="78"/>
-      <c r="O43" s="78"/>
-      <c r="P43" s="78"/>
-      <c r="Q43" s="78"/>
-      <c r="R43" s="78"/>
-      <c r="S43" s="78"/>
-      <c r="T43" s="79"/>
-      <c r="V43" s="6"/>
-      <c r="W43" s="6"/>
-      <c r="AB43" s="179" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC43" s="180"/>
-      <c r="AD43" s="180"/>
-      <c r="AE43" s="180"/>
-      <c r="AF43" s="180"/>
+      <c r="B43" s="241"/>
+      <c r="C43" s="241"/>
+      <c r="D43" s="241"/>
+      <c r="E43" s="241"/>
+      <c r="F43" s="241"/>
+      <c r="G43" s="241"/>
+      <c r="H43" s="241"/>
+      <c r="I43" s="241"/>
+      <c r="J43" s="241"/>
+      <c r="K43" s="241"/>
+      <c r="L43" s="241"/>
+      <c r="M43" s="241"/>
+      <c r="N43" s="241"/>
+      <c r="O43" s="241"/>
+      <c r="P43" s="241"/>
+      <c r="Q43" s="241"/>
+      <c r="R43" s="241"/>
+      <c r="S43" s="241"/>
+      <c r="T43" s="241"/>
+      <c r="U43" s="241"/>
+      <c r="V43" s="241"/>
+      <c r="W43" s="241"/>
+      <c r="AB43" s="230" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC43" s="231"/>
+      <c r="AD43" s="231"/>
+      <c r="AE43" s="231"/>
+      <c r="AF43" s="231"/>
     </row>
     <row r="44" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
@@ -5576,11 +5560,11 @@
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
       <c r="W44" s="6"/>
-      <c r="AB44" s="177"/>
-      <c r="AC44" s="178"/>
-      <c r="AD44" s="178"/>
-      <c r="AE44" s="178"/>
-      <c r="AF44" s="178"/>
+      <c r="AB44" s="228"/>
+      <c r="AC44" s="229"/>
+      <c r="AD44" s="229"/>
+      <c r="AE44" s="229"/>
+      <c r="AF44" s="229"/>
     </row>
     <row r="45" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
@@ -5821,124 +5805,157 @@
       <c r="AF51" s="6"/>
     </row>
     <row r="62" spans="1:32" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B62" s="103" t="s">
+      <c r="B62" s="145" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="102"/>
+      <c r="D62" s="102"/>
+      <c r="E62" s="102"/>
+      <c r="F62" s="102"/>
+      <c r="G62" s="102"/>
+      <c r="H62" s="102"/>
+      <c r="I62" s="102"/>
+      <c r="J62" s="102"/>
+      <c r="K62" s="102"/>
+      <c r="L62" s="102"/>
+      <c r="M62" s="102"/>
+      <c r="N62" s="102"/>
+      <c r="O62" s="102"/>
+      <c r="P62" s="102"/>
+      <c r="Q62" s="102"/>
+      <c r="R62" s="102"/>
+      <c r="S62" s="102"/>
+      <c r="T62" s="102"/>
+      <c r="U62" s="102"/>
+      <c r="V62" s="102"/>
+      <c r="W62" s="102"/>
+      <c r="X62" s="102"/>
+      <c r="Y62" s="102"/>
+      <c r="Z62" s="102"/>
+      <c r="AA62" s="102"/>
+      <c r="AB62" s="102"/>
+      <c r="AC62" s="102"/>
+      <c r="AD62" s="102"/>
+      <c r="AE62" s="102"/>
+      <c r="AF62" s="102"/>
+    </row>
+    <row r="63" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B63" s="146" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63" s="102"/>
+      <c r="D63" s="102"/>
+      <c r="E63" s="102"/>
+      <c r="F63" s="102"/>
+      <c r="G63" s="102"/>
+      <c r="H63" s="102"/>
+      <c r="I63" s="102"/>
+      <c r="J63" s="102"/>
+      <c r="K63" s="102"/>
+      <c r="L63" s="102"/>
+      <c r="M63" s="102"/>
+      <c r="N63" s="102"/>
+      <c r="O63" s="102"/>
+      <c r="P63" s="102"/>
+      <c r="Q63" s="102"/>
+      <c r="R63" s="102"/>
+      <c r="S63" s="102"/>
+      <c r="T63" s="102"/>
+      <c r="U63" s="102"/>
+      <c r="V63" s="102"/>
+      <c r="W63" s="102"/>
+      <c r="X63" s="102"/>
+      <c r="Y63" s="102"/>
+      <c r="Z63" s="102"/>
+      <c r="AA63" s="102"/>
+      <c r="AB63" s="102"/>
+      <c r="AC63" s="102"/>
+      <c r="AD63" s="102"/>
+      <c r="AE63" s="102"/>
+      <c r="AF63" s="102"/>
+    </row>
+    <row r="64" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B64" s="146" t="s">
         <v>27</v>
       </c>
-      <c r="C62" s="132"/>
-      <c r="D62" s="132"/>
-      <c r="E62" s="132"/>
-      <c r="F62" s="132"/>
-      <c r="G62" s="132"/>
-      <c r="H62" s="132"/>
-      <c r="I62" s="132"/>
-      <c r="J62" s="132"/>
-      <c r="K62" s="132"/>
-      <c r="L62" s="132"/>
-      <c r="M62" s="132"/>
-      <c r="N62" s="132"/>
-      <c r="O62" s="132"/>
-      <c r="P62" s="132"/>
-      <c r="Q62" s="132"/>
-      <c r="R62" s="132"/>
-      <c r="S62" s="132"/>
-      <c r="T62" s="132"/>
-      <c r="U62" s="132"/>
-      <c r="V62" s="132"/>
-      <c r="W62" s="132"/>
-      <c r="X62" s="132"/>
-      <c r="Y62" s="132"/>
-      <c r="Z62" s="132"/>
-      <c r="AA62" s="132"/>
-      <c r="AB62" s="132"/>
-      <c r="AC62" s="132"/>
-      <c r="AD62" s="132"/>
-      <c r="AE62" s="132"/>
-      <c r="AF62" s="132"/>
-    </row>
-    <row r="63" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="104" t="s">
-        <v>28</v>
-      </c>
-      <c r="C63" s="132"/>
-      <c r="D63" s="132"/>
-      <c r="E63" s="132"/>
-      <c r="F63" s="132"/>
-      <c r="G63" s="132"/>
-      <c r="H63" s="132"/>
-      <c r="I63" s="132"/>
-      <c r="J63" s="132"/>
-      <c r="K63" s="132"/>
-      <c r="L63" s="132"/>
-      <c r="M63" s="132"/>
-      <c r="N63" s="132"/>
-      <c r="O63" s="132"/>
-      <c r="P63" s="132"/>
-      <c r="Q63" s="132"/>
-      <c r="R63" s="132"/>
-      <c r="S63" s="132"/>
-      <c r="T63" s="132"/>
-      <c r="U63" s="132"/>
-      <c r="V63" s="132"/>
-      <c r="W63" s="132"/>
-      <c r="X63" s="132"/>
-      <c r="Y63" s="132"/>
-      <c r="Z63" s="132"/>
-      <c r="AA63" s="132"/>
-      <c r="AB63" s="132"/>
-      <c r="AC63" s="132"/>
-      <c r="AD63" s="132"/>
-      <c r="AE63" s="132"/>
-      <c r="AF63" s="132"/>
-    </row>
-    <row r="64" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="104" t="s">
-        <v>29</v>
-      </c>
-      <c r="C64" s="132"/>
-      <c r="D64" s="132"/>
-      <c r="E64" s="132"/>
-      <c r="F64" s="132"/>
-      <c r="G64" s="132"/>
-      <c r="H64" s="132"/>
-      <c r="I64" s="132"/>
-      <c r="J64" s="132"/>
-      <c r="K64" s="132"/>
-      <c r="L64" s="132"/>
-      <c r="M64" s="132"/>
-      <c r="N64" s="132"/>
-      <c r="O64" s="132"/>
-      <c r="P64" s="132"/>
-      <c r="Q64" s="132"/>
-      <c r="R64" s="132"/>
-      <c r="S64" s="132"/>
-      <c r="T64" s="132"/>
-      <c r="U64" s="132"/>
-      <c r="V64" s="132"/>
-      <c r="W64" s="132"/>
-      <c r="X64" s="132"/>
-      <c r="Y64" s="132"/>
-      <c r="Z64" s="132"/>
-      <c r="AA64" s="132"/>
-      <c r="AB64" s="132"/>
-      <c r="AC64" s="132"/>
-      <c r="AD64" s="132"/>
-      <c r="AE64" s="132"/>
-      <c r="AF64" s="132"/>
+      <c r="C64" s="102"/>
+      <c r="D64" s="102"/>
+      <c r="E64" s="102"/>
+      <c r="F64" s="102"/>
+      <c r="G64" s="102"/>
+      <c r="H64" s="102"/>
+      <c r="I64" s="102"/>
+      <c r="J64" s="102"/>
+      <c r="K64" s="102"/>
+      <c r="L64" s="102"/>
+      <c r="M64" s="102"/>
+      <c r="N64" s="102"/>
+      <c r="O64" s="102"/>
+      <c r="P64" s="102"/>
+      <c r="Q64" s="102"/>
+      <c r="R64" s="102"/>
+      <c r="S64" s="102"/>
+      <c r="T64" s="102"/>
+      <c r="U64" s="102"/>
+      <c r="V64" s="102"/>
+      <c r="W64" s="102"/>
+      <c r="X64" s="102"/>
+      <c r="Y64" s="102"/>
+      <c r="Z64" s="102"/>
+      <c r="AA64" s="102"/>
+      <c r="AB64" s="102"/>
+      <c r="AC64" s="102"/>
+      <c r="AD64" s="102"/>
+      <c r="AE64" s="102"/>
+      <c r="AF64" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K22:Q22"/>
-    <mergeCell ref="S22:AB22"/>
-    <mergeCell ref="F22:J23"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="AD17:AD18"/>
-    <mergeCell ref="AE17:AF18"/>
-    <mergeCell ref="Q20:W20"/>
+    <mergeCell ref="AD22:AD23"/>
+    <mergeCell ref="AE22:AF23"/>
+    <mergeCell ref="AB44:AF44"/>
+    <mergeCell ref="AB43:AF43"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="G32:AF32"/>
+    <mergeCell ref="AB36:AF38"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="K25:W25"/>
+    <mergeCell ref="B37:W43"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B21:E24"/>
+    <mergeCell ref="K24:AB24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="T27:AB27"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F17:J18"/>
+    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="S17:AB17"/>
+    <mergeCell ref="B16:E19"/>
+    <mergeCell ref="S23:AB23"/>
+    <mergeCell ref="T28:AB28"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="B4:AF4"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="K19:AB19"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="I5:Z5"/>
+    <mergeCell ref="B13:AB14"/>
+    <mergeCell ref="AD8:AF9"/>
+    <mergeCell ref="AD13:AF14"/>
+    <mergeCell ref="Q8:X9"/>
+    <mergeCell ref="S18:AB18"/>
+    <mergeCell ref="Y8:AC9"/>
+    <mergeCell ref="Q10:X11"/>
+    <mergeCell ref="AD10:AF11"/>
+    <mergeCell ref="B6:H9"/>
     <mergeCell ref="B2:AF3"/>
     <mergeCell ref="AB5:AE5"/>
     <mergeCell ref="B64:AF64"/>
@@ -5955,52 +5972,19 @@
     <mergeCell ref="B63:AF63"/>
     <mergeCell ref="T29:AB29"/>
     <mergeCell ref="F24:J24"/>
-    <mergeCell ref="B4:AF4"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="K19:AB19"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="I5:Z5"/>
-    <mergeCell ref="B13:AB14"/>
-    <mergeCell ref="AD8:AF9"/>
-    <mergeCell ref="AD13:AF14"/>
-    <mergeCell ref="Q8:X9"/>
-    <mergeCell ref="S18:AB18"/>
-    <mergeCell ref="Y8:AC9"/>
-    <mergeCell ref="Q10:X11"/>
-    <mergeCell ref="AD10:AF11"/>
-    <mergeCell ref="B6:H9"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="AD17:AD18"/>
+    <mergeCell ref="AE17:AF18"/>
+    <mergeCell ref="Q20:W20"/>
     <mergeCell ref="K16:AB16"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B21:E24"/>
-    <mergeCell ref="K24:AB24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="T27:AB27"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F17:J18"/>
-    <mergeCell ref="K17:Q17"/>
-    <mergeCell ref="S17:AB17"/>
-    <mergeCell ref="B16:E19"/>
-    <mergeCell ref="S23:AB23"/>
-    <mergeCell ref="T28:AB28"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="AD22:AD23"/>
-    <mergeCell ref="AE22:AF23"/>
-    <mergeCell ref="AB44:AF44"/>
-    <mergeCell ref="B37:T43"/>
-    <mergeCell ref="AB43:AF43"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="G32:AF32"/>
-    <mergeCell ref="AB36:AF38"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="K25:W25"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="S22:AB22"/>
+    <mergeCell ref="F22:J23"/>
+    <mergeCell ref="R22:R23"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E11:H11" xr:uid="{00000000-0002-0000-0100-000000000000}"/>

--- a/template/template.xlsx
+++ b/template/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrmau\Documents\Cevin\SysBill\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5942AA2A-2C76-48D2-8932-5A82BF56B002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432EACA5-04F9-4685-B7C5-12FA43D8C3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4110" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="77">
   <si>
     <t>BILLING STATEMENT</t>
   </si>
@@ -239,6 +239,60 @@
   <si>
     <t>Late Charges :</t>
   </si>
+  <si>
+    <t>Denda:</t>
+  </si>
+  <si>
+    <t>Tahap</t>
+  </si>
+  <si>
+    <t>Masa Tunggakan</t>
+  </si>
+  <si>
+    <t>Kewajiban Pelanggaran</t>
+  </si>
+  <si>
+    <t>Sanksi/Tindakan</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>1 hari s/d 30 hari</t>
+  </si>
+  <si>
+    <t>Tagihan ditambah denda 5.0%/bulan</t>
+  </si>
+  <si>
+    <t>Listrik off, air berjalan normal</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>31 hari s/d 60 hari</t>
+  </si>
+  <si>
+    <t>Tagihan ditambah denda 7.5%/bulan</t>
+  </si>
+  <si>
+    <t>Listrik off, air off dan access</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>61 hari s/d 90 hari</t>
+  </si>
+  <si>
+    <t>Tagihan ditambah denda 10.0%/bulan</t>
+  </si>
+  <si>
+    <t>Permintaan penyambungan diberlakukan sebagai pemasangan baru</t>
+  </si>
+  <si>
+    <t>**Denda mulai dikenakan dari tanggal 26 dan seterusnya</t>
+  </si>
 </sst>
 </file>
 
@@ -257,7 +311,7 @@
     <numFmt numFmtId="171" formatCode="#&quot; kVa&quot;"/>
     <numFmt numFmtId="172" formatCode="#,##0;[Red]#,##0"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,6 +414,11 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -556,7 +615,7 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="248">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
@@ -755,31 +814,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -788,133 +823,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
     </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -924,181 +920,250 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1109,63 +1174,6 @@
     </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1178,59 +1186,129 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1829,8 +1907,8 @@
   </sheetPr>
   <dimension ref="A1:AL64"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T31" sqref="T31:AB31"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50:W55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1870,146 +1948,146 @@
     <row r="1" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:38" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="107"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="107"/>
-      <c r="X2" s="107"/>
-      <c r="Y2" s="107"/>
-      <c r="Z2" s="107"/>
-      <c r="AA2" s="107"/>
-      <c r="AB2" s="107"/>
-      <c r="AC2" s="107"/>
-      <c r="AD2" s="107"/>
-      <c r="AE2" s="107"/>
-      <c r="AF2" s="107"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="89"/>
+      <c r="X2" s="89"/>
+      <c r="Y2" s="89"/>
+      <c r="Z2" s="89"/>
+      <c r="AA2" s="89"/>
+      <c r="AB2" s="89"/>
+      <c r="AC2" s="89"/>
+      <c r="AD2" s="89"/>
+      <c r="AE2" s="89"/>
+      <c r="AF2" s="89"/>
     </row>
     <row r="3" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="107"/>
-      <c r="Q3" s="107"/>
-      <c r="R3" s="107"/>
-      <c r="S3" s="107"/>
-      <c r="T3" s="107"/>
-      <c r="U3" s="107"/>
-      <c r="V3" s="107"/>
-      <c r="W3" s="107"/>
-      <c r="X3" s="107"/>
-      <c r="Y3" s="107"/>
-      <c r="Z3" s="107"/>
-      <c r="AA3" s="107"/>
-      <c r="AB3" s="107"/>
-      <c r="AC3" s="107"/>
-      <c r="AD3" s="107"/>
-      <c r="AE3" s="107"/>
-      <c r="AF3" s="107"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="89"/>
+      <c r="S3" s="89"/>
+      <c r="T3" s="89"/>
+      <c r="U3" s="89"/>
+      <c r="V3" s="89"/>
+      <c r="W3" s="89"/>
+      <c r="X3" s="89"/>
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="89"/>
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="89"/>
+      <c r="AC3" s="89"/>
+      <c r="AD3" s="89"/>
+      <c r="AE3" s="89"/>
+      <c r="AF3" s="89"/>
     </row>
     <row r="4" spans="1:38" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="140" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
-      <c r="U4" s="107"/>
-      <c r="V4" s="107"/>
-      <c r="W4" s="107"/>
-      <c r="X4" s="107"/>
-      <c r="Y4" s="107"/>
-      <c r="Z4" s="107"/>
-      <c r="AA4" s="107"/>
-      <c r="AB4" s="107"/>
-      <c r="AC4" s="107"/>
-      <c r="AD4" s="107"/>
-      <c r="AE4" s="107"/>
-      <c r="AF4" s="107"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="89"/>
+      <c r="V4" s="89"/>
+      <c r="W4" s="89"/>
+      <c r="X4" s="89"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="89"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="89"/>
+      <c r="AE4" s="89"/>
+      <c r="AF4" s="89"/>
     </row>
     <row r="5" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="151" t="s">
+      <c r="B5" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="157"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="107"/>
-      <c r="W5" s="107"/>
-      <c r="X5" s="107"/>
-      <c r="Y5" s="107"/>
-      <c r="Z5" s="107"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="89"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="89"/>
+      <c r="T5" s="89"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
+      <c r="W5" s="89"/>
+      <c r="X5" s="89"/>
+      <c r="Y5" s="89"/>
+      <c r="Z5" s="89"/>
       <c r="AA5" s="7"/>
-      <c r="AB5" s="150" t="s">
+      <c r="AB5" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="AC5" s="107"/>
-      <c r="AD5" s="107"/>
-      <c r="AE5" s="107"/>
+      <c r="AC5" s="89"/>
+      <c r="AD5" s="89"/>
+      <c r="AE5" s="89"/>
       <c r="AF5" s="46" t="s">
         <v>51</v>
       </c>
@@ -2022,15 +2100,15 @@
     </row>
     <row r="6" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="124" t="s">
+      <c r="B6" s="137" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -2040,35 +2118,35 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
-      <c r="R6" s="113"/>
-      <c r="S6" s="107"/>
-      <c r="T6" s="107"/>
-      <c r="U6" s="107"/>
-      <c r="V6" s="107"/>
-      <c r="W6" s="107"/>
-      <c r="X6" s="154"/>
-      <c r="Y6" s="107"/>
+      <c r="R6" s="128"/>
+      <c r="S6" s="89"/>
+      <c r="T6" s="89"/>
+      <c r="U6" s="89"/>
+      <c r="V6" s="89"/>
+      <c r="W6" s="89"/>
+      <c r="X6" s="105"/>
+      <c r="Y6" s="89"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="7"/>
-      <c r="AB6" s="150" t="s">
+      <c r="AB6" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="AC6" s="107"/>
-      <c r="AD6" s="107"/>
-      <c r="AE6" s="107"/>
+      <c r="AC6" s="89"/>
+      <c r="AD6" s="89"/>
+      <c r="AE6" s="89"/>
       <c r="AF6" s="45" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="125"/>
-      <c r="H7" s="125"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -2096,13 +2174,13 @@
     </row>
     <row r="8" spans="1:38" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="125"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -2111,38 +2189,38 @@
       <c r="N8" s="9"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
-      <c r="Q8" s="129" t="s">
+      <c r="Q8" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="130"/>
-      <c r="S8" s="130"/>
-      <c r="T8" s="130"/>
-      <c r="U8" s="130"/>
-      <c r="V8" s="130"/>
-      <c r="W8" s="130"/>
-      <c r="X8" s="131"/>
-      <c r="Y8" s="129" t="s">
+      <c r="R8" s="109"/>
+      <c r="S8" s="109"/>
+      <c r="T8" s="109"/>
+      <c r="U8" s="109"/>
+      <c r="V8" s="109"/>
+      <c r="W8" s="109"/>
+      <c r="X8" s="110"/>
+      <c r="Y8" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="Z8" s="130"/>
-      <c r="AA8" s="130"/>
-      <c r="AB8" s="130"/>
-      <c r="AC8" s="131"/>
-      <c r="AD8" s="129" t="s">
+      <c r="Z8" s="109"/>
+      <c r="AA8" s="109"/>
+      <c r="AB8" s="109"/>
+      <c r="AC8" s="110"/>
+      <c r="AD8" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="AE8" s="130"/>
-      <c r="AF8" s="131"/>
+      <c r="AE8" s="109"/>
+      <c r="AF8" s="110"/>
     </row>
     <row r="9" spans="1:38" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="125"/>
-      <c r="C9" s="125"/>
-      <c r="D9" s="125"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="125"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -2151,22 +2229,22 @@
       <c r="N9" s="9"/>
       <c r="O9" s="6"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="132"/>
-      <c r="R9" s="133"/>
-      <c r="S9" s="133"/>
-      <c r="T9" s="133"/>
-      <c r="U9" s="133"/>
-      <c r="V9" s="133"/>
-      <c r="W9" s="133"/>
-      <c r="X9" s="134"/>
-      <c r="Y9" s="132"/>
-      <c r="Z9" s="133"/>
-      <c r="AA9" s="133"/>
-      <c r="AB9" s="133"/>
-      <c r="AC9" s="134"/>
-      <c r="AD9" s="132"/>
-      <c r="AE9" s="133"/>
-      <c r="AF9" s="134"/>
+      <c r="Q9" s="111"/>
+      <c r="R9" s="112"/>
+      <c r="S9" s="112"/>
+      <c r="T9" s="112"/>
+      <c r="U9" s="112"/>
+      <c r="V9" s="112"/>
+      <c r="W9" s="112"/>
+      <c r="X9" s="113"/>
+      <c r="Y9" s="111"/>
+      <c r="Z9" s="112"/>
+      <c r="AA9" s="112"/>
+      <c r="AB9" s="112"/>
+      <c r="AC9" s="113"/>
+      <c r="AD9" s="111"/>
+      <c r="AE9" s="112"/>
+      <c r="AF9" s="113"/>
     </row>
     <row r="10" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -2185,44 +2263,44 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="140">
+      <c r="Q10" s="118">
         <v>44986</v>
       </c>
-      <c r="R10" s="130"/>
-      <c r="S10" s="130"/>
-      <c r="T10" s="130"/>
-      <c r="U10" s="130"/>
-      <c r="V10" s="130"/>
-      <c r="W10" s="130"/>
-      <c r="X10" s="131"/>
-      <c r="Y10" s="144">
+      <c r="R10" s="109"/>
+      <c r="S10" s="109"/>
+      <c r="T10" s="109"/>
+      <c r="U10" s="109"/>
+      <c r="V10" s="109"/>
+      <c r="W10" s="109"/>
+      <c r="X10" s="110"/>
+      <c r="Y10" s="121">
         <v>0</v>
       </c>
-      <c r="Z10" s="130"/>
-      <c r="AA10" s="130"/>
-      <c r="AB10" s="130"/>
-      <c r="AC10" s="131"/>
-      <c r="AD10" s="135" t="s">
+      <c r="Z10" s="109"/>
+      <c r="AA10" s="109"/>
+      <c r="AB10" s="109"/>
+      <c r="AC10" s="110"/>
+      <c r="AD10" s="143" t="s">
         <v>43</v>
       </c>
-      <c r="AE10" s="130"/>
-      <c r="AF10" s="131"/>
+      <c r="AE10" s="109"/>
+      <c r="AF10" s="110"/>
     </row>
     <row r="11" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="151" t="s">
+      <c r="B11" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="125"/>
+      <c r="C11" s="103"/>
       <c r="D11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="151" t="s">
+      <c r="E11" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="125"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="125"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -2231,22 +2309,22 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="132"/>
-      <c r="R11" s="133"/>
-      <c r="S11" s="133"/>
-      <c r="T11" s="133"/>
-      <c r="U11" s="133"/>
-      <c r="V11" s="133"/>
-      <c r="W11" s="133"/>
-      <c r="X11" s="134"/>
-      <c r="Y11" s="132"/>
-      <c r="Z11" s="133"/>
-      <c r="AA11" s="133"/>
-      <c r="AB11" s="133"/>
-      <c r="AC11" s="134"/>
-      <c r="AD11" s="132"/>
-      <c r="AE11" s="133"/>
-      <c r="AF11" s="134"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="112"/>
+      <c r="S11" s="112"/>
+      <c r="T11" s="112"/>
+      <c r="U11" s="112"/>
+      <c r="V11" s="112"/>
+      <c r="W11" s="112"/>
+      <c r="X11" s="113"/>
+      <c r="Y11" s="111"/>
+      <c r="Z11" s="112"/>
+      <c r="AA11" s="112"/>
+      <c r="AB11" s="112"/>
+      <c r="AC11" s="113"/>
+      <c r="AD11" s="111"/>
+      <c r="AE11" s="112"/>
+      <c r="AF11" s="113"/>
     </row>
     <row r="12" spans="1:38" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -2284,77 +2362,77 @@
     </row>
     <row r="13" spans="1:38" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="137" t="s">
+      <c r="B13" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="137"/>
-      <c r="D13" s="137"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="137"/>
-      <c r="J13" s="137"/>
-      <c r="K13" s="137"/>
-      <c r="L13" s="137"/>
-      <c r="M13" s="137"/>
-      <c r="N13" s="137"/>
-      <c r="O13" s="137"/>
-      <c r="P13" s="137"/>
-      <c r="Q13" s="137"/>
-      <c r="R13" s="137"/>
-      <c r="S13" s="137"/>
-      <c r="T13" s="137"/>
-      <c r="U13" s="137"/>
-      <c r="V13" s="137"/>
-      <c r="W13" s="137"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="125"/>
+      <c r="J13" s="125"/>
+      <c r="K13" s="125"/>
+      <c r="L13" s="125"/>
+      <c r="M13" s="125"/>
+      <c r="N13" s="125"/>
+      <c r="O13" s="125"/>
+      <c r="P13" s="125"/>
+      <c r="Q13" s="125"/>
+      <c r="R13" s="125"/>
+      <c r="S13" s="125"/>
+      <c r="T13" s="125"/>
+      <c r="U13" s="125"/>
+      <c r="V13" s="125"/>
+      <c r="W13" s="125"/>
       <c r="X13" s="40"/>
       <c r="Y13" s="40"/>
       <c r="Z13" s="40"/>
-      <c r="AA13" s="137" t="s">
+      <c r="AA13" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="AB13" s="137"/>
-      <c r="AC13" s="137"/>
-      <c r="AD13" s="141" t="s">
+      <c r="AB13" s="125"/>
+      <c r="AC13" s="125"/>
+      <c r="AD13" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="AE13" s="130"/>
-      <c r="AF13" s="130"/>
+      <c r="AE13" s="109"/>
+      <c r="AF13" s="109"/>
     </row>
     <row r="14" spans="1:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="138"/>
-      <c r="C14" s="138"/>
-      <c r="D14" s="138"/>
-      <c r="E14" s="138"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="138"/>
-      <c r="H14" s="138"/>
-      <c r="I14" s="138"/>
-      <c r="J14" s="138"/>
-      <c r="K14" s="138"/>
-      <c r="L14" s="138"/>
-      <c r="M14" s="138"/>
-      <c r="N14" s="138"/>
-      <c r="O14" s="138"/>
-      <c r="P14" s="138"/>
-      <c r="Q14" s="138"/>
-      <c r="R14" s="138"/>
-      <c r="S14" s="138"/>
-      <c r="T14" s="138"/>
-      <c r="U14" s="138"/>
-      <c r="V14" s="138"/>
-      <c r="W14" s="138"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="126"/>
+      <c r="J14" s="126"/>
+      <c r="K14" s="126"/>
+      <c r="L14" s="126"/>
+      <c r="M14" s="126"/>
+      <c r="N14" s="126"/>
+      <c r="O14" s="126"/>
+      <c r="P14" s="126"/>
+      <c r="Q14" s="126"/>
+      <c r="R14" s="126"/>
+      <c r="S14" s="126"/>
+      <c r="T14" s="126"/>
+      <c r="U14" s="126"/>
+      <c r="V14" s="126"/>
+      <c r="W14" s="126"/>
       <c r="X14" s="39"/>
       <c r="Y14" s="39"/>
       <c r="Z14" s="39"/>
-      <c r="AA14" s="138"/>
-      <c r="AB14" s="138"/>
-      <c r="AC14" s="138"/>
-      <c r="AD14" s="133"/>
-      <c r="AE14" s="133"/>
-      <c r="AF14" s="133"/>
+      <c r="AA14" s="126"/>
+      <c r="AB14" s="126"/>
+      <c r="AC14" s="126"/>
+      <c r="AD14" s="112"/>
+      <c r="AE14" s="112"/>
+      <c r="AF14" s="112"/>
     </row>
     <row r="15" spans="1:38" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -2391,121 +2469,121 @@
       <c r="AF15" s="14"/>
     </row>
     <row r="16" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="106"/>
-      <c r="B16" s="126" t="s">
+      <c r="A16" s="92"/>
+      <c r="B16" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="115"/>
-      <c r="D16" s="139" t="s">
+      <c r="C16" s="81"/>
+      <c r="D16" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="84"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="76"/>
       <c r="K16" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="123">
+      <c r="L16" s="101">
         <v>44946</v>
       </c>
-      <c r="M16" s="83"/>
-      <c r="N16" s="83"/>
-      <c r="O16" s="84"/>
-      <c r="P16" s="155" t="s">
+      <c r="M16" s="75"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="76"/>
+      <c r="P16" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="Q16" s="153" t="s">
+      <c r="Q16" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="R16" s="84"/>
-      <c r="S16" s="123">
+      <c r="R16" s="76"/>
+      <c r="S16" s="101">
         <v>44977</v>
       </c>
-      <c r="T16" s="83"/>
-      <c r="U16" s="83"/>
-      <c r="V16" s="83"/>
-      <c r="W16" s="84"/>
+      <c r="T16" s="75"/>
+      <c r="U16" s="75"/>
+      <c r="V16" s="75"/>
+      <c r="W16" s="76"/>
       <c r="X16" s="38"/>
       <c r="Y16" s="38"/>
       <c r="Z16" s="38"/>
-      <c r="AA16" s="158"/>
-      <c r="AB16" s="158"/>
+      <c r="AA16" s="100"/>
+      <c r="AB16" s="100"/>
       <c r="AC16" s="38"/>
       <c r="AD16" s="42"/>
-      <c r="AE16" s="145"/>
-      <c r="AF16" s="91"/>
+      <c r="AE16" s="114"/>
+      <c r="AF16" s="115"/>
     </row>
     <row r="17" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="107"/>
-      <c r="B17" s="116"/>
-      <c r="C17" s="117"/>
-      <c r="D17" s="139" t="s">
+      <c r="A17" s="89"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="152">
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="79">
         <v>1269.0999999999999</v>
       </c>
-      <c r="L17" s="143"/>
-      <c r="M17" s="143"/>
-      <c r="N17" s="143"/>
-      <c r="O17" s="115"/>
-      <c r="P17" s="156"/>
-      <c r="Q17" s="142">
+      <c r="L17" s="80"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="81"/>
+      <c r="P17" s="107"/>
+      <c r="Q17" s="82">
         <v>1269.0999999999999</v>
       </c>
-      <c r="R17" s="143"/>
-      <c r="S17" s="143"/>
-      <c r="T17" s="143"/>
-      <c r="U17" s="143"/>
-      <c r="V17" s="143"/>
-      <c r="W17" s="115"/>
+      <c r="R17" s="80"/>
+      <c r="S17" s="80"/>
+      <c r="T17" s="80"/>
+      <c r="U17" s="80"/>
+      <c r="V17" s="80"/>
+      <c r="W17" s="81"/>
       <c r="X17" s="38"/>
       <c r="Y17" s="38"/>
       <c r="Z17" s="38"/>
-      <c r="AA17" s="158"/>
-      <c r="AB17" s="158"/>
+      <c r="AA17" s="100"/>
+      <c r="AB17" s="100"/>
       <c r="AC17" s="38"/>
       <c r="AD17" s="42"/>
-      <c r="AE17" s="145"/>
-      <c r="AF17" s="91"/>
+      <c r="AE17" s="114"/>
+      <c r="AF17" s="115"/>
     </row>
     <row r="18" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="116"/>
-      <c r="C18" s="117"/>
-      <c r="D18" s="139" t="s">
+      <c r="B18" s="130"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="167">
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="84">
         <v>1</v>
       </c>
-      <c r="L18" s="167"/>
-      <c r="M18" s="167"/>
-      <c r="N18" s="167"/>
-      <c r="O18" s="167"/>
-      <c r="P18" s="167"/>
-      <c r="Q18" s="167"/>
-      <c r="R18" s="167"/>
-      <c r="S18" s="167"/>
-      <c r="T18" s="167"/>
-      <c r="U18" s="167"/>
-      <c r="V18" s="167"/>
-      <c r="W18" s="167"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="84"/>
+      <c r="N18" s="84"/>
+      <c r="O18" s="84"/>
+      <c r="P18" s="84"/>
+      <c r="Q18" s="84"/>
+      <c r="R18" s="84"/>
+      <c r="S18" s="84"/>
+      <c r="T18" s="84"/>
+      <c r="U18" s="84"/>
+      <c r="V18" s="84"/>
+      <c r="W18" s="84"/>
       <c r="X18" s="41"/>
       <c r="Y18" s="41"/>
       <c r="Z18" s="41"/>
@@ -2518,166 +2596,166 @@
     </row>
     <row r="19" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="116"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="168" t="s">
+      <c r="B19" s="130"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="143"/>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="115"/>
-      <c r="K19" s="120">
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="134">
         <f>(Q17-K17)*K18</f>
         <v>0</v>
       </c>
-      <c r="L19" s="121"/>
-      <c r="M19" s="121"/>
-      <c r="N19" s="121"/>
-      <c r="O19" s="121"/>
-      <c r="P19" s="121"/>
-      <c r="Q19" s="121"/>
-      <c r="R19" s="121"/>
-      <c r="S19" s="121"/>
-      <c r="T19" s="121"/>
-      <c r="U19" s="121"/>
-      <c r="V19" s="121"/>
-      <c r="W19" s="122"/>
-      <c r="X19" s="147" t="s">
+      <c r="L19" s="135"/>
+      <c r="M19" s="135"/>
+      <c r="N19" s="135"/>
+      <c r="O19" s="135"/>
+      <c r="P19" s="135"/>
+      <c r="Q19" s="135"/>
+      <c r="R19" s="135"/>
+      <c r="S19" s="135"/>
+      <c r="T19" s="135"/>
+      <c r="U19" s="135"/>
+      <c r="V19" s="135"/>
+      <c r="W19" s="136"/>
+      <c r="X19" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="Y19" s="103"/>
-      <c r="Z19" s="103"/>
-      <c r="AA19" s="100">
+      <c r="Y19" s="91"/>
+      <c r="Z19" s="91"/>
+      <c r="AA19" s="93">
         <v>1800</v>
       </c>
-      <c r="AB19" s="100"/>
-      <c r="AC19" s="100"/>
+      <c r="AB19" s="93"/>
+      <c r="AC19" s="93"/>
       <c r="AD19" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE19" s="93">
+      <c r="AE19" s="117">
         <v>0</v>
       </c>
-      <c r="AF19" s="93"/>
+      <c r="AF19" s="117"/>
     </row>
     <row r="20" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="116"/>
-      <c r="C20" s="127"/>
-      <c r="D20" s="169" t="s">
+      <c r="B20" s="130"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="109"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="109" t="s">
+      <c r="E20" s="87"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="I20" s="109"/>
-      <c r="J20" s="110"/>
-      <c r="K20" s="160">
+      <c r="I20" s="87"/>
+      <c r="J20" s="151"/>
+      <c r="K20" s="94">
         <v>88</v>
       </c>
-      <c r="L20" s="161"/>
-      <c r="M20" s="161"/>
-      <c r="N20" s="161"/>
-      <c r="O20" s="161"/>
-      <c r="P20" s="161"/>
-      <c r="Q20" s="161"/>
-      <c r="R20" s="161"/>
-      <c r="S20" s="161"/>
-      <c r="T20" s="161"/>
-      <c r="U20" s="161"/>
-      <c r="V20" s="161"/>
-      <c r="W20" s="162"/>
-      <c r="X20" s="147" t="s">
+      <c r="L20" s="95"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="95"/>
+      <c r="Q20" s="95"/>
+      <c r="R20" s="95"/>
+      <c r="S20" s="95"/>
+      <c r="T20" s="95"/>
+      <c r="U20" s="95"/>
+      <c r="V20" s="95"/>
+      <c r="W20" s="96"/>
+      <c r="X20" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="Y20" s="103"/>
-      <c r="Z20" s="103"/>
-      <c r="AA20" s="100">
+      <c r="Y20" s="91"/>
+      <c r="Z20" s="91"/>
+      <c r="AA20" s="93">
         <v>1800</v>
       </c>
-      <c r="AB20" s="100"/>
-      <c r="AC20" s="100"/>
-      <c r="AD20" s="101" t="s">
+      <c r="AB20" s="93"/>
+      <c r="AC20" s="93"/>
+      <c r="AD20" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="AE20" s="93">
+      <c r="AE20" s="117">
         <f>K20*AA20</f>
         <v>158400</v>
       </c>
-      <c r="AF20" s="93"/>
+      <c r="AF20" s="117"/>
     </row>
     <row r="21" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="116"/>
-      <c r="C21" s="117"/>
-      <c r="D21" s="80" t="s">
+      <c r="B21" s="130"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="159" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="144"/>
       <c r="G21" s="47"/>
-      <c r="H21" s="81" t="s">
+      <c r="H21" s="144" t="s">
         <v>45</v>
       </c>
-      <c r="I21" s="81"/>
-      <c r="J21" s="136"/>
-      <c r="K21" s="163"/>
-      <c r="L21" s="164"/>
-      <c r="M21" s="164"/>
-      <c r="N21" s="164"/>
-      <c r="O21" s="164"/>
-      <c r="P21" s="164"/>
-      <c r="Q21" s="164"/>
-      <c r="R21" s="164"/>
-      <c r="S21" s="164"/>
-      <c r="T21" s="164"/>
-      <c r="U21" s="164"/>
-      <c r="V21" s="164"/>
-      <c r="W21" s="165"/>
-      <c r="X21" s="147"/>
-      <c r="Y21" s="103"/>
-      <c r="Z21" s="103"/>
-      <c r="AA21" s="100"/>
-      <c r="AB21" s="100"/>
-      <c r="AC21" s="100"/>
-      <c r="AD21" s="101"/>
-      <c r="AE21" s="93"/>
-      <c r="AF21" s="93"/>
+      <c r="I21" s="144"/>
+      <c r="J21" s="145"/>
+      <c r="K21" s="97"/>
+      <c r="L21" s="98"/>
+      <c r="M21" s="98"/>
+      <c r="N21" s="98"/>
+      <c r="O21" s="98"/>
+      <c r="P21" s="98"/>
+      <c r="Q21" s="98"/>
+      <c r="R21" s="98"/>
+      <c r="S21" s="98"/>
+      <c r="T21" s="98"/>
+      <c r="U21" s="98"/>
+      <c r="V21" s="98"/>
+      <c r="W21" s="99"/>
+      <c r="X21" s="90"/>
+      <c r="Y21" s="91"/>
+      <c r="Z21" s="91"/>
+      <c r="AA21" s="93"/>
+      <c r="AB21" s="93"/>
+      <c r="AC21" s="93"/>
+      <c r="AD21" s="148"/>
+      <c r="AE21" s="117"/>
+      <c r="AF21" s="117"/>
     </row>
     <row r="22" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="116"/>
-      <c r="C22" s="119"/>
-      <c r="D22" s="128" t="s">
+      <c r="B22" s="130"/>
+      <c r="C22" s="133"/>
+      <c r="D22" s="141" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="84"/>
-      <c r="K22" s="77">
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="153">
         <v>0.05</v>
       </c>
-      <c r="L22" s="78"/>
-      <c r="M22" s="78"/>
-      <c r="N22" s="78"/>
-      <c r="O22" s="78"/>
-      <c r="P22" s="78"/>
-      <c r="Q22" s="78"/>
-      <c r="R22" s="78"/>
-      <c r="S22" s="78"/>
-      <c r="T22" s="78"/>
-      <c r="U22" s="78"/>
-      <c r="V22" s="78"/>
-      <c r="W22" s="79"/>
+      <c r="L22" s="154"/>
+      <c r="M22" s="154"/>
+      <c r="N22" s="154"/>
+      <c r="O22" s="154"/>
+      <c r="P22" s="154"/>
+      <c r="Q22" s="154"/>
+      <c r="R22" s="154"/>
+      <c r="S22" s="154"/>
+      <c r="T22" s="154"/>
+      <c r="U22" s="154"/>
+      <c r="V22" s="154"/>
+      <c r="W22" s="155"/>
       <c r="X22" s="14"/>
       <c r="Y22" s="14"/>
       <c r="Z22" s="14"/>
@@ -2687,11 +2765,11 @@
       <c r="AD22" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE22" s="148">
+      <c r="AE22" s="123">
         <f>AE20*K22</f>
         <v>7920</v>
       </c>
-      <c r="AF22" s="149"/>
+      <c r="AF22" s="124"/>
     </row>
     <row r="23" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
@@ -2726,91 +2804,91 @@
       <c r="AD23" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE23" s="111">
+      <c r="AE23" s="120">
         <f>AE20+AE22</f>
         <v>166320</v>
       </c>
-      <c r="AF23" s="91"/>
+      <c r="AF23" s="115"/>
       <c r="AI23" s="17"/>
     </row>
     <row r="24" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="114" t="s">
+      <c r="B24" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="115"/>
-      <c r="D24" s="108" t="s">
+      <c r="C24" s="81"/>
+      <c r="D24" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="84"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="76"/>
       <c r="K24" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="123">
+      <c r="L24" s="101">
         <v>44946</v>
       </c>
-      <c r="M24" s="83"/>
-      <c r="N24" s="83"/>
-      <c r="O24" s="84"/>
-      <c r="P24" s="159" t="s">
+      <c r="M24" s="75"/>
+      <c r="N24" s="75"/>
+      <c r="O24" s="76"/>
+      <c r="P24" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="Q24" s="159" t="s">
+      <c r="Q24" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="R24" s="84"/>
-      <c r="S24" s="123">
+      <c r="R24" s="76"/>
+      <c r="S24" s="101">
         <v>44977</v>
       </c>
-      <c r="T24" s="83"/>
-      <c r="U24" s="83"/>
-      <c r="V24" s="83"/>
-      <c r="W24" s="84"/>
+      <c r="T24" s="75"/>
+      <c r="U24" s="75"/>
+      <c r="V24" s="75"/>
+      <c r="W24" s="76"/>
       <c r="X24" s="18"/>
       <c r="Y24" s="18"/>
       <c r="Z24" s="18"/>
-      <c r="AA24" s="158"/>
-      <c r="AB24" s="158"/>
+      <c r="AA24" s="100"/>
+      <c r="AB24" s="100"/>
       <c r="AC24" s="18"/>
       <c r="AD24" s="42"/>
-      <c r="AE24" s="102"/>
-      <c r="AF24" s="91"/>
+      <c r="AE24" s="149"/>
+      <c r="AF24" s="115"/>
     </row>
     <row r="25" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="116"/>
-      <c r="C25" s="117"/>
-      <c r="D25" s="108" t="s">
+      <c r="B25" s="130"/>
+      <c r="C25" s="131"/>
+      <c r="D25" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="84"/>
-      <c r="K25" s="152">
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="79">
         <v>1269.0999999999999</v>
       </c>
-      <c r="L25" s="143"/>
-      <c r="M25" s="143"/>
-      <c r="N25" s="143"/>
-      <c r="O25" s="115"/>
-      <c r="P25" s="166"/>
-      <c r="Q25" s="142">
+      <c r="L25" s="80"/>
+      <c r="M25" s="80"/>
+      <c r="N25" s="80"/>
+      <c r="O25" s="81"/>
+      <c r="P25" s="78"/>
+      <c r="Q25" s="82">
         <v>1269.0999999999999</v>
       </c>
-      <c r="R25" s="143"/>
-      <c r="S25" s="143"/>
-      <c r="T25" s="143"/>
-      <c r="U25" s="143"/>
-      <c r="V25" s="143"/>
-      <c r="W25" s="115"/>
+      <c r="R25" s="80"/>
+      <c r="S25" s="80"/>
+      <c r="T25" s="80"/>
+      <c r="U25" s="80"/>
+      <c r="V25" s="80"/>
+      <c r="W25" s="81"/>
       <c r="X25" s="20"/>
       <c r="Y25" s="20"/>
       <c r="Z25" s="20"/>
@@ -2818,85 +2896,85 @@
       <c r="AB25" s="21"/>
       <c r="AC25" s="18"/>
       <c r="AD25" s="42"/>
-      <c r="AE25" s="146"/>
-      <c r="AF25" s="91"/>
+      <c r="AE25" s="122"/>
+      <c r="AF25" s="115"/>
     </row>
     <row r="26" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="116"/>
-      <c r="C26" s="117"/>
-      <c r="D26" s="82" t="s">
+      <c r="B26" s="130"/>
+      <c r="C26" s="131"/>
+      <c r="D26" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="83"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="83"/>
-      <c r="I26" s="83"/>
-      <c r="J26" s="84"/>
-      <c r="K26" s="89">
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="142">
         <f>Q25-K25</f>
         <v>0</v>
       </c>
-      <c r="L26" s="83"/>
-      <c r="M26" s="83"/>
-      <c r="N26" s="83"/>
-      <c r="O26" s="83"/>
-      <c r="P26" s="83"/>
-      <c r="Q26" s="83"/>
-      <c r="R26" s="83"/>
-      <c r="S26" s="83"/>
-      <c r="T26" s="83"/>
-      <c r="U26" s="83"/>
-      <c r="V26" s="83"/>
-      <c r="W26" s="84"/>
-      <c r="X26" s="103" t="s">
+      <c r="L26" s="75"/>
+      <c r="M26" s="75"/>
+      <c r="N26" s="75"/>
+      <c r="O26" s="75"/>
+      <c r="P26" s="75"/>
+      <c r="Q26" s="75"/>
+      <c r="R26" s="75"/>
+      <c r="S26" s="75"/>
+      <c r="T26" s="75"/>
+      <c r="U26" s="75"/>
+      <c r="V26" s="75"/>
+      <c r="W26" s="76"/>
+      <c r="X26" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="Y26" s="91"/>
-      <c r="Z26" s="91"/>
-      <c r="AA26" s="95">
+      <c r="Y26" s="115"/>
+      <c r="Z26" s="115"/>
+      <c r="AA26" s="167">
         <v>1800</v>
       </c>
-      <c r="AB26" s="95"/>
-      <c r="AC26" s="95"/>
+      <c r="AB26" s="167"/>
+      <c r="AC26" s="167"/>
       <c r="AD26" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE26" s="111">
+      <c r="AE26" s="120">
         <f>K26*AA26</f>
         <v>0</v>
       </c>
-      <c r="AF26" s="91"/>
+      <c r="AF26" s="115"/>
     </row>
     <row r="27" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="106"/>
-      <c r="B27" s="116"/>
-      <c r="C27" s="117"/>
-      <c r="D27" s="108" t="s">
+      <c r="A27" s="92"/>
+      <c r="B27" s="130"/>
+      <c r="C27" s="131"/>
+      <c r="D27" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="83"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="83"/>
-      <c r="J27" s="84"/>
-      <c r="K27" s="89">
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="142">
         <v>1800</v>
       </c>
-      <c r="L27" s="83"/>
-      <c r="M27" s="83"/>
-      <c r="N27" s="83"/>
-      <c r="O27" s="83"/>
-      <c r="P27" s="83"/>
-      <c r="Q27" s="83"/>
-      <c r="R27" s="83"/>
-      <c r="S27" s="83"/>
-      <c r="T27" s="83"/>
-      <c r="U27" s="83"/>
-      <c r="V27" s="83"/>
-      <c r="W27" s="84"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="75"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="75"/>
+      <c r="R27" s="75"/>
+      <c r="S27" s="75"/>
+      <c r="T27" s="75"/>
+      <c r="U27" s="75"/>
+      <c r="V27" s="75"/>
+      <c r="W27" s="76"/>
       <c r="X27" s="22"/>
       <c r="Y27" s="23"/>
       <c r="Z27" s="23"/>
@@ -2906,40 +2984,40 @@
       <c r="AD27" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE27" s="93">
+      <c r="AE27" s="117">
         <f>K27</f>
         <v>1800</v>
       </c>
-      <c r="AF27" s="91"/>
+      <c r="AF27" s="115"/>
     </row>
     <row r="28" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="107"/>
-      <c r="B28" s="118"/>
-      <c r="C28" s="119"/>
-      <c r="D28" s="86" t="s">
+      <c r="A28" s="89"/>
+      <c r="B28" s="132"/>
+      <c r="C28" s="133"/>
+      <c r="D28" s="162" t="s">
         <v>57</v>
       </c>
-      <c r="E28" s="83"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="83"/>
-      <c r="I28" s="83"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="77">
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="153">
         <v>0.03</v>
       </c>
-      <c r="L28" s="78"/>
-      <c r="M28" s="78"/>
-      <c r="N28" s="78"/>
-      <c r="O28" s="78"/>
-      <c r="P28" s="78"/>
-      <c r="Q28" s="78"/>
-      <c r="R28" s="78"/>
-      <c r="S28" s="78"/>
-      <c r="T28" s="78"/>
-      <c r="U28" s="78"/>
-      <c r="V28" s="78"/>
-      <c r="W28" s="79"/>
+      <c r="L28" s="154"/>
+      <c r="M28" s="154"/>
+      <c r="N28" s="154"/>
+      <c r="O28" s="154"/>
+      <c r="P28" s="154"/>
+      <c r="Q28" s="154"/>
+      <c r="R28" s="154"/>
+      <c r="S28" s="154"/>
+      <c r="T28" s="154"/>
+      <c r="U28" s="154"/>
+      <c r="V28" s="154"/>
+      <c r="W28" s="155"/>
       <c r="X28" s="24"/>
       <c r="Y28" s="25"/>
       <c r="Z28" s="25"/>
@@ -2949,14 +3027,14 @@
       <c r="AD28" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE28" s="87">
+      <c r="AE28" s="163">
         <f>K28*(AE27+AE26)</f>
         <v>54</v>
       </c>
-      <c r="AF28" s="88"/>
+      <c r="AF28" s="164"/>
     </row>
     <row r="29" spans="1:35" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="107"/>
+      <c r="A29" s="89"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="41"/>
@@ -2988,14 +3066,14 @@
       <c r="AD29" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="AE29" s="96">
+      <c r="AE29" s="168">
         <f>AE26+AE27+AE28</f>
         <v>1854</v>
       </c>
-      <c r="AF29" s="97"/>
+      <c r="AF29" s="169"/>
     </row>
     <row r="30" spans="1:35" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="107"/>
+      <c r="A30" s="89"/>
       <c r="B30" s="26"/>
       <c r="C30" s="26"/>
       <c r="D30" s="64"/>
@@ -3029,7 +3107,7 @@
       <c r="AF30" s="60"/>
     </row>
     <row r="31" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="107"/>
+      <c r="A31" s="89"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="41"/>
@@ -3048,25 +3126,25 @@
       <c r="Q31" s="41"/>
       <c r="R31" s="41"/>
       <c r="S31" s="41"/>
-      <c r="T31" s="90" t="s">
+      <c r="T31" s="152" t="s">
         <v>58</v>
       </c>
-      <c r="U31" s="91"/>
-      <c r="V31" s="91"/>
-      <c r="W31" s="91"/>
-      <c r="X31" s="91"/>
-      <c r="Y31" s="91"/>
-      <c r="Z31" s="91"/>
-      <c r="AA31" s="91"/>
-      <c r="AB31" s="91"/>
+      <c r="U31" s="115"/>
+      <c r="V31" s="115"/>
+      <c r="W31" s="115"/>
+      <c r="X31" s="115"/>
+      <c r="Y31" s="115"/>
+      <c r="Z31" s="115"/>
+      <c r="AA31" s="115"/>
+      <c r="AB31" s="115"/>
       <c r="AC31" s="18"/>
       <c r="AD31" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE31" s="93">
+      <c r="AE31" s="117">
         <v>1800</v>
       </c>
-      <c r="AF31" s="94"/>
+      <c r="AF31" s="166"/>
     </row>
     <row r="32" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="9"/>
@@ -3087,25 +3165,25 @@
       <c r="Q32" s="41"/>
       <c r="R32" s="41"/>
       <c r="S32" s="41"/>
-      <c r="T32" s="90" t="s">
+      <c r="T32" s="152" t="s">
         <v>22</v>
       </c>
-      <c r="U32" s="91"/>
-      <c r="V32" s="91"/>
-      <c r="W32" s="91"/>
-      <c r="X32" s="91"/>
-      <c r="Y32" s="91"/>
-      <c r="Z32" s="91"/>
-      <c r="AA32" s="91"/>
-      <c r="AB32" s="91"/>
+      <c r="U32" s="115"/>
+      <c r="V32" s="115"/>
+      <c r="W32" s="115"/>
+      <c r="X32" s="115"/>
+      <c r="Y32" s="115"/>
+      <c r="Z32" s="115"/>
+      <c r="AA32" s="115"/>
+      <c r="AB32" s="115"/>
       <c r="AC32" s="18"/>
       <c r="AD32" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE32" s="93">
+      <c r="AE32" s="117">
         <v>1800</v>
       </c>
-      <c r="AF32" s="94"/>
+      <c r="AF32" s="166"/>
     </row>
     <row r="33" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
@@ -3127,26 +3205,26 @@
       <c r="Q33" s="19"/>
       <c r="R33" s="19"/>
       <c r="S33" s="19"/>
-      <c r="T33" s="92" t="s">
+      <c r="T33" s="165" t="s">
         <v>23</v>
       </c>
-      <c r="U33" s="91"/>
-      <c r="V33" s="91"/>
-      <c r="W33" s="91"/>
-      <c r="X33" s="91"/>
-      <c r="Y33" s="91"/>
-      <c r="Z33" s="91"/>
-      <c r="AA33" s="91"/>
-      <c r="AB33" s="91"/>
+      <c r="U33" s="115"/>
+      <c r="V33" s="115"/>
+      <c r="W33" s="115"/>
+      <c r="X33" s="115"/>
+      <c r="Y33" s="115"/>
+      <c r="Z33" s="115"/>
+      <c r="AA33" s="115"/>
+      <c r="AB33" s="115"/>
       <c r="AC33" s="19"/>
       <c r="AD33" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE33" s="85">
+      <c r="AE33" s="161">
         <f>AE23+AE29+AE31</f>
         <v>169974</v>
       </c>
-      <c r="AF33" s="85"/>
+      <c r="AF33" s="161"/>
     </row>
     <row r="34" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
@@ -3218,41 +3296,41 @@
     </row>
     <row r="36" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="75" t="s">
+      <c r="B36" s="157" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="75"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="75"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="76" t="s">
+      <c r="C36" s="157"/>
+      <c r="D36" s="157"/>
+      <c r="E36" s="157"/>
+      <c r="F36" s="157"/>
+      <c r="G36" s="158" t="s">
         <v>47</v>
       </c>
-      <c r="H36" s="76"/>
-      <c r="I36" s="76"/>
-      <c r="J36" s="76"/>
-      <c r="K36" s="76"/>
-      <c r="L36" s="76"/>
-      <c r="M36" s="76"/>
-      <c r="N36" s="76"/>
-      <c r="O36" s="76"/>
-      <c r="P36" s="76"/>
-      <c r="Q36" s="76"/>
-      <c r="R36" s="76"/>
-      <c r="S36" s="76"/>
-      <c r="T36" s="76"/>
-      <c r="U36" s="76"/>
-      <c r="V36" s="76"/>
-      <c r="W36" s="76"/>
-      <c r="X36" s="76"/>
-      <c r="Y36" s="76"/>
-      <c r="Z36" s="76"/>
-      <c r="AA36" s="76"/>
-      <c r="AB36" s="76"/>
-      <c r="AC36" s="76"/>
-      <c r="AD36" s="76"/>
-      <c r="AE36" s="76"/>
-      <c r="AF36" s="76"/>
+      <c r="H36" s="158"/>
+      <c r="I36" s="158"/>
+      <c r="J36" s="158"/>
+      <c r="K36" s="158"/>
+      <c r="L36" s="158"/>
+      <c r="M36" s="158"/>
+      <c r="N36" s="158"/>
+      <c r="O36" s="158"/>
+      <c r="P36" s="158"/>
+      <c r="Q36" s="158"/>
+      <c r="R36" s="158"/>
+      <c r="S36" s="158"/>
+      <c r="T36" s="158"/>
+      <c r="U36" s="158"/>
+      <c r="V36" s="158"/>
+      <c r="W36" s="158"/>
+      <c r="X36" s="158"/>
+      <c r="Y36" s="158"/>
+      <c r="Z36" s="158"/>
+      <c r="AA36" s="158"/>
+      <c r="AB36" s="158"/>
+      <c r="AC36" s="158"/>
+      <c r="AD36" s="158"/>
+      <c r="AE36" s="158"/>
+      <c r="AF36" s="158"/>
     </row>
     <row r="37" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
@@ -3384,108 +3462,108 @@
       <c r="Y40" s="48"/>
       <c r="Z40" s="48"/>
       <c r="AA40" s="48"/>
-      <c r="AB40" s="104" t="s">
+      <c r="AB40" s="140" t="s">
         <v>38</v>
       </c>
-      <c r="AC40" s="104"/>
-      <c r="AD40" s="104"/>
-      <c r="AE40" s="104"/>
-      <c r="AF40" s="104"/>
+      <c r="AC40" s="140"/>
+      <c r="AD40" s="140"/>
+      <c r="AE40" s="140"/>
+      <c r="AF40" s="140"/>
     </row>
     <row r="41" spans="1:32" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
-      <c r="B41" s="74" t="s">
+      <c r="B41" s="156" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="74"/>
-      <c r="D41" s="74"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="74"/>
-      <c r="G41" s="74"/>
-      <c r="H41" s="74"/>
-      <c r="I41" s="74"/>
-      <c r="J41" s="74"/>
-      <c r="K41" s="74"/>
-      <c r="L41" s="74"/>
-      <c r="M41" s="74"/>
-      <c r="N41" s="74"/>
-      <c r="O41" s="74"/>
-      <c r="P41" s="74"/>
-      <c r="Q41" s="74"/>
-      <c r="R41" s="74"/>
-      <c r="S41" s="74"/>
-      <c r="T41" s="74"/>
-      <c r="U41" s="74"/>
-      <c r="V41" s="74"/>
-      <c r="W41" s="74"/>
+      <c r="C41" s="156"/>
+      <c r="D41" s="156"/>
+      <c r="E41" s="156"/>
+      <c r="F41" s="156"/>
+      <c r="G41" s="156"/>
+      <c r="H41" s="156"/>
+      <c r="I41" s="156"/>
+      <c r="J41" s="156"/>
+      <c r="K41" s="156"/>
+      <c r="L41" s="156"/>
+      <c r="M41" s="156"/>
+      <c r="N41" s="156"/>
+      <c r="O41" s="156"/>
+      <c r="P41" s="156"/>
+      <c r="Q41" s="156"/>
+      <c r="R41" s="156"/>
+      <c r="S41" s="156"/>
+      <c r="T41" s="156"/>
+      <c r="U41" s="156"/>
+      <c r="V41" s="156"/>
+      <c r="W41" s="156"/>
       <c r="X41" s="73"/>
       <c r="Y41" s="48"/>
       <c r="Z41" s="48"/>
       <c r="AA41" s="48"/>
-      <c r="AB41" s="104"/>
-      <c r="AC41" s="104"/>
-      <c r="AD41" s="104"/>
-      <c r="AE41" s="104"/>
-      <c r="AF41" s="104"/>
+      <c r="AB41" s="140"/>
+      <c r="AC41" s="140"/>
+      <c r="AD41" s="140"/>
+      <c r="AE41" s="140"/>
+      <c r="AF41" s="140"/>
     </row>
     <row r="42" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
-      <c r="B42" s="74"/>
-      <c r="C42" s="74"/>
-      <c r="D42" s="74"/>
-      <c r="E42" s="74"/>
-      <c r="F42" s="74"/>
-      <c r="G42" s="74"/>
-      <c r="H42" s="74"/>
-      <c r="I42" s="74"/>
-      <c r="J42" s="74"/>
-      <c r="K42" s="74"/>
-      <c r="L42" s="74"/>
-      <c r="M42" s="74"/>
-      <c r="N42" s="74"/>
-      <c r="O42" s="74"/>
-      <c r="P42" s="74"/>
-      <c r="Q42" s="74"/>
-      <c r="R42" s="74"/>
-      <c r="S42" s="74"/>
-      <c r="T42" s="74"/>
-      <c r="U42" s="74"/>
-      <c r="V42" s="74"/>
-      <c r="W42" s="74"/>
+      <c r="B42" s="156"/>
+      <c r="C42" s="156"/>
+      <c r="D42" s="156"/>
+      <c r="E42" s="156"/>
+      <c r="F42" s="156"/>
+      <c r="G42" s="156"/>
+      <c r="H42" s="156"/>
+      <c r="I42" s="156"/>
+      <c r="J42" s="156"/>
+      <c r="K42" s="156"/>
+      <c r="L42" s="156"/>
+      <c r="M42" s="156"/>
+      <c r="N42" s="156"/>
+      <c r="O42" s="156"/>
+      <c r="P42" s="156"/>
+      <c r="Q42" s="156"/>
+      <c r="R42" s="156"/>
+      <c r="S42" s="156"/>
+      <c r="T42" s="156"/>
+      <c r="U42" s="156"/>
+      <c r="V42" s="156"/>
+      <c r="W42" s="156"/>
       <c r="X42" s="73"/>
       <c r="Y42" s="48"/>
       <c r="Z42" s="48"/>
       <c r="AA42" s="48"/>
-      <c r="AB42" s="104"/>
-      <c r="AC42" s="104"/>
-      <c r="AD42" s="104"/>
-      <c r="AE42" s="104"/>
-      <c r="AF42" s="104"/>
+      <c r="AB42" s="140"/>
+      <c r="AC42" s="140"/>
+      <c r="AD42" s="140"/>
+      <c r="AE42" s="140"/>
+      <c r="AF42" s="140"/>
     </row>
     <row r="43" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
-      <c r="B43" s="74"/>
-      <c r="C43" s="74"/>
-      <c r="D43" s="74"/>
-      <c r="E43" s="74"/>
-      <c r="F43" s="74"/>
-      <c r="G43" s="74"/>
-      <c r="H43" s="74"/>
-      <c r="I43" s="74"/>
-      <c r="J43" s="74"/>
-      <c r="K43" s="74"/>
-      <c r="L43" s="74"/>
-      <c r="M43" s="74"/>
-      <c r="N43" s="74"/>
-      <c r="O43" s="74"/>
-      <c r="P43" s="74"/>
-      <c r="Q43" s="74"/>
-      <c r="R43" s="74"/>
-      <c r="S43" s="74"/>
-      <c r="T43" s="74"/>
-      <c r="U43" s="74"/>
-      <c r="V43" s="74"/>
-      <c r="W43" s="74"/>
+      <c r="B43" s="156"/>
+      <c r="C43" s="156"/>
+      <c r="D43" s="156"/>
+      <c r="E43" s="156"/>
+      <c r="F43" s="156"/>
+      <c r="G43" s="156"/>
+      <c r="H43" s="156"/>
+      <c r="I43" s="156"/>
+      <c r="J43" s="156"/>
+      <c r="K43" s="156"/>
+      <c r="L43" s="156"/>
+      <c r="M43" s="156"/>
+      <c r="N43" s="156"/>
+      <c r="O43" s="156"/>
+      <c r="P43" s="156"/>
+      <c r="Q43" s="156"/>
+      <c r="R43" s="156"/>
+      <c r="S43" s="156"/>
+      <c r="T43" s="156"/>
+      <c r="U43" s="156"/>
+      <c r="V43" s="156"/>
+      <c r="W43" s="156"/>
       <c r="X43" s="73"/>
       <c r="Y43" s="48"/>
       <c r="Z43" s="48"/>
@@ -3498,28 +3576,28 @@
     </row>
     <row r="44" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
-      <c r="B44" s="74"/>
-      <c r="C44" s="74"/>
-      <c r="D44" s="74"/>
-      <c r="E44" s="74"/>
-      <c r="F44" s="74"/>
-      <c r="G44" s="74"/>
-      <c r="H44" s="74"/>
-      <c r="I44" s="74"/>
-      <c r="J44" s="74"/>
-      <c r="K44" s="74"/>
-      <c r="L44" s="74"/>
-      <c r="M44" s="74"/>
-      <c r="N44" s="74"/>
-      <c r="O44" s="74"/>
-      <c r="P44" s="74"/>
-      <c r="Q44" s="74"/>
-      <c r="R44" s="74"/>
-      <c r="S44" s="74"/>
-      <c r="T44" s="74"/>
-      <c r="U44" s="74"/>
-      <c r="V44" s="74"/>
-      <c r="W44" s="74"/>
+      <c r="B44" s="156"/>
+      <c r="C44" s="156"/>
+      <c r="D44" s="156"/>
+      <c r="E44" s="156"/>
+      <c r="F44" s="156"/>
+      <c r="G44" s="156"/>
+      <c r="H44" s="156"/>
+      <c r="I44" s="156"/>
+      <c r="J44" s="156"/>
+      <c r="K44" s="156"/>
+      <c r="L44" s="156"/>
+      <c r="M44" s="156"/>
+      <c r="N44" s="156"/>
+      <c r="O44" s="156"/>
+      <c r="P44" s="156"/>
+      <c r="Q44" s="156"/>
+      <c r="R44" s="156"/>
+      <c r="S44" s="156"/>
+      <c r="T44" s="156"/>
+      <c r="U44" s="156"/>
+      <c r="V44" s="156"/>
+      <c r="W44" s="156"/>
       <c r="X44" s="73"/>
       <c r="Y44" s="48"/>
       <c r="Z44" s="48"/>
@@ -3532,28 +3610,28 @@
     </row>
     <row r="45" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
-      <c r="B45" s="74"/>
-      <c r="C45" s="74"/>
-      <c r="D45" s="74"/>
-      <c r="E45" s="74"/>
-      <c r="F45" s="74"/>
-      <c r="G45" s="74"/>
-      <c r="H45" s="74"/>
-      <c r="I45" s="74"/>
-      <c r="J45" s="74"/>
-      <c r="K45" s="74"/>
-      <c r="L45" s="74"/>
-      <c r="M45" s="74"/>
-      <c r="N45" s="74"/>
-      <c r="O45" s="74"/>
-      <c r="P45" s="74"/>
-      <c r="Q45" s="74"/>
-      <c r="R45" s="74"/>
-      <c r="S45" s="74"/>
-      <c r="T45" s="74"/>
-      <c r="U45" s="74"/>
-      <c r="V45" s="74"/>
-      <c r="W45" s="74"/>
+      <c r="B45" s="156"/>
+      <c r="C45" s="156"/>
+      <c r="D45" s="156"/>
+      <c r="E45" s="156"/>
+      <c r="F45" s="156"/>
+      <c r="G45" s="156"/>
+      <c r="H45" s="156"/>
+      <c r="I45" s="156"/>
+      <c r="J45" s="156"/>
+      <c r="K45" s="156"/>
+      <c r="L45" s="156"/>
+      <c r="M45" s="156"/>
+      <c r="N45" s="156"/>
+      <c r="O45" s="156"/>
+      <c r="P45" s="156"/>
+      <c r="Q45" s="156"/>
+      <c r="R45" s="156"/>
+      <c r="S45" s="156"/>
+      <c r="T45" s="156"/>
+      <c r="U45" s="156"/>
+      <c r="V45" s="156"/>
+      <c r="W45" s="156"/>
       <c r="X45" s="73"/>
       <c r="Y45" s="48"/>
       <c r="Z45" s="48"/>
@@ -3566,28 +3644,28 @@
     </row>
     <row r="46" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
-      <c r="B46" s="74"/>
-      <c r="C46" s="74"/>
-      <c r="D46" s="74"/>
-      <c r="E46" s="74"/>
-      <c r="F46" s="74"/>
-      <c r="G46" s="74"/>
-      <c r="H46" s="74"/>
-      <c r="I46" s="74"/>
-      <c r="J46" s="74"/>
-      <c r="K46" s="74"/>
-      <c r="L46" s="74"/>
-      <c r="M46" s="74"/>
-      <c r="N46" s="74"/>
-      <c r="O46" s="74"/>
-      <c r="P46" s="74"/>
-      <c r="Q46" s="74"/>
-      <c r="R46" s="74"/>
-      <c r="S46" s="74"/>
-      <c r="T46" s="74"/>
-      <c r="U46" s="74"/>
-      <c r="V46" s="74"/>
-      <c r="W46" s="74"/>
+      <c r="B46" s="156"/>
+      <c r="C46" s="156"/>
+      <c r="D46" s="156"/>
+      <c r="E46" s="156"/>
+      <c r="F46" s="156"/>
+      <c r="G46" s="156"/>
+      <c r="H46" s="156"/>
+      <c r="I46" s="156"/>
+      <c r="J46" s="156"/>
+      <c r="K46" s="156"/>
+      <c r="L46" s="156"/>
+      <c r="M46" s="156"/>
+      <c r="N46" s="156"/>
+      <c r="O46" s="156"/>
+      <c r="P46" s="156"/>
+      <c r="Q46" s="156"/>
+      <c r="R46" s="156"/>
+      <c r="S46" s="156"/>
+      <c r="T46" s="156"/>
+      <c r="U46" s="156"/>
+      <c r="V46" s="156"/>
+      <c r="W46" s="156"/>
       <c r="X46" s="73"/>
       <c r="Y46" s="48"/>
       <c r="Z46" s="48"/>
@@ -3600,39 +3678,39 @@
     </row>
     <row r="47" spans="1:32" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
-      <c r="B47" s="74"/>
-      <c r="C47" s="74"/>
-      <c r="D47" s="74"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="74"/>
-      <c r="H47" s="74"/>
-      <c r="I47" s="74"/>
-      <c r="J47" s="74"/>
-      <c r="K47" s="74"/>
-      <c r="L47" s="74"/>
-      <c r="M47" s="74"/>
-      <c r="N47" s="74"/>
-      <c r="O47" s="74"/>
-      <c r="P47" s="74"/>
-      <c r="Q47" s="74"/>
-      <c r="R47" s="74"/>
-      <c r="S47" s="74"/>
-      <c r="T47" s="74"/>
-      <c r="U47" s="74"/>
-      <c r="V47" s="74"/>
-      <c r="W47" s="74"/>
+      <c r="B47" s="156"/>
+      <c r="C47" s="156"/>
+      <c r="D47" s="156"/>
+      <c r="E47" s="156"/>
+      <c r="F47" s="156"/>
+      <c r="G47" s="156"/>
+      <c r="H47" s="156"/>
+      <c r="I47" s="156"/>
+      <c r="J47" s="156"/>
+      <c r="K47" s="156"/>
+      <c r="L47" s="156"/>
+      <c r="M47" s="156"/>
+      <c r="N47" s="156"/>
+      <c r="O47" s="156"/>
+      <c r="P47" s="156"/>
+      <c r="Q47" s="156"/>
+      <c r="R47" s="156"/>
+      <c r="S47" s="156"/>
+      <c r="T47" s="156"/>
+      <c r="U47" s="156"/>
+      <c r="V47" s="156"/>
+      <c r="W47" s="156"/>
       <c r="X47" s="73"/>
       <c r="Y47" s="49"/>
       <c r="Z47" s="49"/>
       <c r="AA47" s="49"/>
-      <c r="AB47" s="105" t="s">
+      <c r="AB47" s="150" t="s">
         <v>39</v>
       </c>
-      <c r="AC47" s="105"/>
-      <c r="AD47" s="105"/>
-      <c r="AE47" s="105"/>
-      <c r="AF47" s="105"/>
+      <c r="AC47" s="150"/>
+      <c r="AD47" s="150"/>
+      <c r="AE47" s="150"/>
+      <c r="AF47" s="150"/>
     </row>
     <row r="48" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
@@ -3704,10 +3782,12 @@
     </row>
     <row r="50" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
+      <c r="B50" s="241" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="241"/>
+      <c r="D50" s="241"/>
+      <c r="E50" s="241"/>
       <c r="F50" s="31"/>
       <c r="G50" s="31"/>
       <c r="H50" s="31"/>
@@ -3736,146 +3816,355 @@
       <c r="AE50" s="5"/>
       <c r="AF50" s="5"/>
     </row>
-    <row r="51" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="32"/>
-    </row>
-    <row r="52" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="242" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="242"/>
+      <c r="D51" s="242" t="s">
+        <v>61</v>
+      </c>
+      <c r="E51" s="242"/>
+      <c r="F51" s="242"/>
+      <c r="G51" s="242"/>
+      <c r="H51" s="242" t="s">
+        <v>62</v>
+      </c>
+      <c r="I51" s="242"/>
+      <c r="J51" s="242"/>
+      <c r="K51" s="242"/>
+      <c r="L51" s="242"/>
+      <c r="M51" s="242"/>
+      <c r="N51" s="242"/>
+      <c r="O51" s="242" t="s">
+        <v>63</v>
+      </c>
+      <c r="P51" s="242"/>
+      <c r="Q51" s="242"/>
+      <c r="R51" s="242"/>
+      <c r="S51" s="242"/>
+      <c r="T51" s="242"/>
+      <c r="U51" s="242"/>
+      <c r="V51" s="242"/>
+      <c r="W51" s="242"/>
+    </row>
+    <row r="52" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="243" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="243"/>
+      <c r="D52" s="244" t="s">
+        <v>65</v>
+      </c>
+      <c r="E52" s="244"/>
+      <c r="F52" s="244"/>
+      <c r="G52" s="244"/>
+      <c r="H52" s="244" t="s">
+        <v>66</v>
+      </c>
+      <c r="I52" s="244"/>
+      <c r="J52" s="244"/>
+      <c r="K52" s="244"/>
+      <c r="L52" s="244"/>
+      <c r="M52" s="244"/>
+      <c r="N52" s="244"/>
+      <c r="O52" s="244" t="s">
+        <v>67</v>
+      </c>
+      <c r="P52" s="244"/>
+      <c r="Q52" s="244"/>
+      <c r="R52" s="244"/>
+      <c r="S52" s="244"/>
+      <c r="T52" s="244"/>
+      <c r="U52" s="244"/>
+      <c r="V52" s="244"/>
+      <c r="W52" s="244"/>
+    </row>
+    <row r="53" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="243" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="243"/>
+      <c r="D53" s="244" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="244"/>
+      <c r="F53" s="244"/>
+      <c r="G53" s="244"/>
+      <c r="H53" s="244" t="s">
+        <v>70</v>
+      </c>
+      <c r="I53" s="244"/>
+      <c r="J53" s="244"/>
+      <c r="K53" s="244"/>
+      <c r="L53" s="244"/>
+      <c r="M53" s="244"/>
+      <c r="N53" s="244"/>
+      <c r="O53" s="244" t="s">
+        <v>71</v>
+      </c>
+      <c r="P53" s="244"/>
+      <c r="Q53" s="244"/>
+      <c r="R53" s="244"/>
+      <c r="S53" s="244"/>
+      <c r="T53" s="244"/>
+      <c r="U53" s="244"/>
+      <c r="V53" s="244"/>
+      <c r="W53" s="244"/>
+    </row>
+    <row r="54" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="243" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" s="243"/>
+      <c r="D54" s="245" t="s">
+        <v>73</v>
+      </c>
+      <c r="E54" s="245"/>
+      <c r="F54" s="245"/>
+      <c r="G54" s="245"/>
+      <c r="H54" s="246" t="s">
+        <v>74</v>
+      </c>
+      <c r="I54" s="246"/>
+      <c r="J54" s="246"/>
+      <c r="K54" s="246"/>
+      <c r="L54" s="246"/>
+      <c r="M54" s="246"/>
+      <c r="N54" s="246"/>
+      <c r="O54" s="246" t="s">
+        <v>75</v>
+      </c>
+      <c r="P54" s="246"/>
+      <c r="Q54" s="246"/>
+      <c r="R54" s="246"/>
+      <c r="S54" s="246"/>
+      <c r="T54" s="246"/>
+      <c r="U54" s="246"/>
+      <c r="V54" s="246"/>
+      <c r="W54" s="246"/>
+    </row>
+    <row r="55" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="32"/>
-      <c r="B55" s="32"/>
+      <c r="B55" s="247" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" s="247"/>
+      <c r="D55" s="247"/>
+      <c r="E55" s="247"/>
+      <c r="F55" s="247"/>
+      <c r="G55" s="247"/>
+      <c r="H55" s="247"/>
+      <c r="I55" s="247"/>
+      <c r="J55" s="247"/>
+      <c r="K55" s="247"/>
+      <c r="L55" s="247"/>
+      <c r="M55" s="247"/>
+      <c r="N55" s="247"/>
+      <c r="O55" s="247"/>
+      <c r="P55" s="247"/>
+      <c r="Q55" s="247"/>
+      <c r="R55" s="247"/>
+      <c r="S55" s="247"/>
+      <c r="T55" s="247"/>
+      <c r="U55" s="247"/>
+      <c r="V55" s="247"/>
+      <c r="W55" s="247"/>
     </row>
     <row r="61" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="62" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="98" t="s">
+      <c r="A62" s="146" t="s">
         <v>24</v>
       </c>
-      <c r="B62" s="98"/>
-      <c r="C62" s="98"/>
-      <c r="D62" s="98"/>
-      <c r="E62" s="98"/>
-      <c r="F62" s="98"/>
-      <c r="G62" s="98"/>
-      <c r="H62" s="98"/>
-      <c r="I62" s="98"/>
-      <c r="J62" s="98"/>
-      <c r="K62" s="98"/>
-      <c r="L62" s="98"/>
-      <c r="M62" s="98"/>
-      <c r="N62" s="98"/>
-      <c r="O62" s="98"/>
-      <c r="P62" s="98"/>
-      <c r="Q62" s="98"/>
-      <c r="R62" s="98"/>
-      <c r="S62" s="98"/>
-      <c r="T62" s="98"/>
-      <c r="U62" s="98"/>
-      <c r="V62" s="98"/>
-      <c r="W62" s="98"/>
-      <c r="X62" s="98"/>
-      <c r="Y62" s="98"/>
-      <c r="Z62" s="98"/>
-      <c r="AA62" s="98"/>
-      <c r="AB62" s="98"/>
-      <c r="AC62" s="98"/>
-      <c r="AD62" s="98"/>
-      <c r="AE62" s="98"/>
-      <c r="AF62" s="98"/>
-      <c r="AG62" s="98"/>
+      <c r="B62" s="146"/>
+      <c r="C62" s="146"/>
+      <c r="D62" s="146"/>
+      <c r="E62" s="146"/>
+      <c r="F62" s="146"/>
+      <c r="G62" s="146"/>
+      <c r="H62" s="146"/>
+      <c r="I62" s="146"/>
+      <c r="J62" s="146"/>
+      <c r="K62" s="146"/>
+      <c r="L62" s="146"/>
+      <c r="M62" s="146"/>
+      <c r="N62" s="146"/>
+      <c r="O62" s="146"/>
+      <c r="P62" s="146"/>
+      <c r="Q62" s="146"/>
+      <c r="R62" s="146"/>
+      <c r="S62" s="146"/>
+      <c r="T62" s="146"/>
+      <c r="U62" s="146"/>
+      <c r="V62" s="146"/>
+      <c r="W62" s="146"/>
+      <c r="X62" s="146"/>
+      <c r="Y62" s="146"/>
+      <c r="Z62" s="146"/>
+      <c r="AA62" s="146"/>
+      <c r="AB62" s="146"/>
+      <c r="AC62" s="146"/>
+      <c r="AD62" s="146"/>
+      <c r="AE62" s="146"/>
+      <c r="AF62" s="146"/>
+      <c r="AG62" s="146"/>
     </row>
     <row r="63" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="99" t="s">
+      <c r="A63" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="B63" s="99"/>
-      <c r="C63" s="99"/>
-      <c r="D63" s="99"/>
-      <c r="E63" s="99"/>
-      <c r="F63" s="99"/>
-      <c r="G63" s="99"/>
-      <c r="H63" s="99"/>
-      <c r="I63" s="99"/>
-      <c r="J63" s="99"/>
-      <c r="K63" s="99"/>
-      <c r="L63" s="99"/>
-      <c r="M63" s="99"/>
-      <c r="N63" s="99"/>
-      <c r="O63" s="99"/>
-      <c r="P63" s="99"/>
-      <c r="Q63" s="99"/>
-      <c r="R63" s="99"/>
-      <c r="S63" s="99"/>
-      <c r="T63" s="99"/>
-      <c r="U63" s="99"/>
-      <c r="V63" s="99"/>
-      <c r="W63" s="99"/>
-      <c r="X63" s="99"/>
-      <c r="Y63" s="99"/>
-      <c r="Z63" s="99"/>
-      <c r="AA63" s="99"/>
-      <c r="AB63" s="99"/>
-      <c r="AC63" s="99"/>
-      <c r="AD63" s="99"/>
-      <c r="AE63" s="99"/>
-      <c r="AF63" s="99"/>
-      <c r="AG63" s="99"/>
+      <c r="B63" s="147"/>
+      <c r="C63" s="147"/>
+      <c r="D63" s="147"/>
+      <c r="E63" s="147"/>
+      <c r="F63" s="147"/>
+      <c r="G63" s="147"/>
+      <c r="H63" s="147"/>
+      <c r="I63" s="147"/>
+      <c r="J63" s="147"/>
+      <c r="K63" s="147"/>
+      <c r="L63" s="147"/>
+      <c r="M63" s="147"/>
+      <c r="N63" s="147"/>
+      <c r="O63" s="147"/>
+      <c r="P63" s="147"/>
+      <c r="Q63" s="147"/>
+      <c r="R63" s="147"/>
+      <c r="S63" s="147"/>
+      <c r="T63" s="147"/>
+      <c r="U63" s="147"/>
+      <c r="V63" s="147"/>
+      <c r="W63" s="147"/>
+      <c r="X63" s="147"/>
+      <c r="Y63" s="147"/>
+      <c r="Z63" s="147"/>
+      <c r="AA63" s="147"/>
+      <c r="AB63" s="147"/>
+      <c r="AC63" s="147"/>
+      <c r="AD63" s="147"/>
+      <c r="AE63" s="147"/>
+      <c r="AF63" s="147"/>
+      <c r="AG63" s="147"/>
     </row>
     <row r="64" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="99" t="s">
+      <c r="A64" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="B64" s="99"/>
-      <c r="C64" s="99"/>
-      <c r="D64" s="99"/>
-      <c r="E64" s="99"/>
-      <c r="F64" s="99"/>
-      <c r="G64" s="99"/>
-      <c r="H64" s="99"/>
-      <c r="I64" s="99"/>
-      <c r="J64" s="99"/>
-      <c r="K64" s="99"/>
-      <c r="L64" s="99"/>
-      <c r="M64" s="99"/>
-      <c r="N64" s="99"/>
-      <c r="O64" s="99"/>
-      <c r="P64" s="99"/>
-      <c r="Q64" s="99"/>
-      <c r="R64" s="99"/>
-      <c r="S64" s="99"/>
-      <c r="T64" s="99"/>
-      <c r="U64" s="99"/>
-      <c r="V64" s="99"/>
-      <c r="W64" s="99"/>
-      <c r="X64" s="99"/>
-      <c r="Y64" s="99"/>
-      <c r="Z64" s="99"/>
-      <c r="AA64" s="99"/>
-      <c r="AB64" s="99"/>
-      <c r="AC64" s="99"/>
-      <c r="AD64" s="99"/>
-      <c r="AE64" s="99"/>
-      <c r="AF64" s="99"/>
-      <c r="AG64" s="99"/>
+      <c r="B64" s="147"/>
+      <c r="C64" s="147"/>
+      <c r="D64" s="147"/>
+      <c r="E64" s="147"/>
+      <c r="F64" s="147"/>
+      <c r="G64" s="147"/>
+      <c r="H64" s="147"/>
+      <c r="I64" s="147"/>
+      <c r="J64" s="147"/>
+      <c r="K64" s="147"/>
+      <c r="L64" s="147"/>
+      <c r="M64" s="147"/>
+      <c r="N64" s="147"/>
+      <c r="O64" s="147"/>
+      <c r="P64" s="147"/>
+      <c r="Q64" s="147"/>
+      <c r="R64" s="147"/>
+      <c r="S64" s="147"/>
+      <c r="T64" s="147"/>
+      <c r="U64" s="147"/>
+      <c r="V64" s="147"/>
+      <c r="W64" s="147"/>
+      <c r="X64" s="147"/>
+      <c r="Y64" s="147"/>
+      <c r="Z64" s="147"/>
+      <c r="AA64" s="147"/>
+      <c r="AB64" s="147"/>
+      <c r="AC64" s="147"/>
+      <c r="AD64" s="147"/>
+      <c r="AE64" s="147"/>
+      <c r="AF64" s="147"/>
+      <c r="AG64" s="147"/>
     </row>
   </sheetData>
-  <mergeCells count="93">
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="K25:O25"/>
-    <mergeCell ref="Q25:W25"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="K18:W18"/>
-    <mergeCell ref="D19:J19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="X20:Z21"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="AA19:AC19"/>
-    <mergeCell ref="K20:W21"/>
-    <mergeCell ref="AA24:AB24"/>
+  <mergeCells count="111">
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="H54:N54"/>
+    <mergeCell ref="O54:W54"/>
+    <mergeCell ref="B55:W55"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="H52:N52"/>
+    <mergeCell ref="O52:W52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="H53:N53"/>
+    <mergeCell ref="O53:W53"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="H51:N51"/>
+    <mergeCell ref="O51:W51"/>
+    <mergeCell ref="B41:W47"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="G36:AF36"/>
+    <mergeCell ref="K22:W22"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="K27:W27"/>
+    <mergeCell ref="T31:AB31"/>
+    <mergeCell ref="T33:AB33"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="AA26:AC26"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="A62:AG62"/>
+    <mergeCell ref="A63:AG63"/>
+    <mergeCell ref="A64:AG64"/>
+    <mergeCell ref="AA20:AC21"/>
+    <mergeCell ref="AD20:AD21"/>
+    <mergeCell ref="AE20:AF21"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="X26:Z26"/>
+    <mergeCell ref="AB40:AF42"/>
+    <mergeCell ref="AB47:AF47"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="T32:AB32"/>
+    <mergeCell ref="K28:W28"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="B2:AF3"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="B24:C28"/>
+    <mergeCell ref="K19:W19"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="B6:H9"/>
+    <mergeCell ref="B16:C22"/>
+    <mergeCell ref="B4:AF4"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="K26:W26"/>
+    <mergeCell ref="Q8:X9"/>
+    <mergeCell ref="AD10:AF11"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="B13:W14"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="Q10:X11"/>
+    <mergeCell ref="AD13:AF14"/>
+    <mergeCell ref="Q17:W17"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="Y10:AC11"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="S24:W24"/>
+    <mergeCell ref="AA13:AC14"/>
     <mergeCell ref="AB5:AE5"/>
     <mergeCell ref="S16:W16"/>
     <mergeCell ref="E11:H11"/>
@@ -3892,67 +4181,22 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="AA17:AB17"/>
     <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="Q10:X11"/>
-    <mergeCell ref="AD13:AF14"/>
-    <mergeCell ref="Q17:W17"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="Y10:AC11"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="X19:Z19"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="S24:W24"/>
-    <mergeCell ref="AA13:AC14"/>
-    <mergeCell ref="B2:AF3"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="B24:C28"/>
-    <mergeCell ref="K19:W19"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="B6:H9"/>
-    <mergeCell ref="B16:C22"/>
-    <mergeCell ref="B4:AF4"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="K26:W26"/>
-    <mergeCell ref="Q8:X9"/>
-    <mergeCell ref="AD10:AF11"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="B13:W14"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="A62:AG62"/>
-    <mergeCell ref="A63:AG63"/>
-    <mergeCell ref="A64:AG64"/>
-    <mergeCell ref="AA20:AC21"/>
-    <mergeCell ref="AD20:AD21"/>
-    <mergeCell ref="AE20:AF21"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="X26:Z26"/>
-    <mergeCell ref="AB40:AF42"/>
-    <mergeCell ref="AB47:AF47"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="T32:AB32"/>
-    <mergeCell ref="K28:W28"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="B41:W47"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="G36:AF36"/>
-    <mergeCell ref="K22:W22"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="K27:W27"/>
-    <mergeCell ref="T31:AB31"/>
-    <mergeCell ref="T33:AB33"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="AA26:AC26"/>
-    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="X20:Z21"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="AA19:AC19"/>
+    <mergeCell ref="K20:W21"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="K25:O25"/>
+    <mergeCell ref="Q25:W25"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="K18:W18"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="D20:G20"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E11:H11" xr:uid="{7FD8B4C7-42A0-4993-86BF-E5604E228F87}"/>
@@ -3971,8 +4215,8 @@
   </sheetPr>
   <dimension ref="A1:AG65"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA31" sqref="AA31"/>
+    <sheetView view="pageLayout" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47:W52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4010,163 +4254,163 @@
     <row r="1" spans="1:32" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:32" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="125"/>
-      <c r="O2" s="125"/>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="125"/>
-      <c r="R2" s="125"/>
-      <c r="S2" s="125"/>
-      <c r="T2" s="125"/>
-      <c r="U2" s="125"/>
-      <c r="V2" s="125"/>
-      <c r="W2" s="125"/>
-      <c r="X2" s="125"/>
-      <c r="Y2" s="125"/>
-      <c r="Z2" s="125"/>
-      <c r="AA2" s="125"/>
-      <c r="AB2" s="125"/>
-      <c r="AC2" s="125"/>
-      <c r="AD2" s="125"/>
-      <c r="AE2" s="125"/>
-      <c r="AF2" s="125"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
+      <c r="U2" s="103"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="103"/>
+      <c r="X2" s="103"/>
+      <c r="Y2" s="103"/>
+      <c r="Z2" s="103"/>
+      <c r="AA2" s="103"/>
+      <c r="AB2" s="103"/>
+      <c r="AC2" s="103"/>
+      <c r="AD2" s="103"/>
+      <c r="AE2" s="103"/>
+      <c r="AF2" s="103"/>
     </row>
     <row r="3" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="125"/>
-      <c r="O3" s="125"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="125"/>
-      <c r="T3" s="125"/>
-      <c r="U3" s="125"/>
-      <c r="V3" s="125"/>
-      <c r="W3" s="125"/>
-      <c r="X3" s="125"/>
-      <c r="Y3" s="125"/>
-      <c r="Z3" s="125"/>
-      <c r="AA3" s="125"/>
-      <c r="AB3" s="125"/>
-      <c r="AC3" s="125"/>
-      <c r="AD3" s="125"/>
-      <c r="AE3" s="125"/>
-      <c r="AF3" s="125"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
+      <c r="R3" s="103"/>
+      <c r="S3" s="103"/>
+      <c r="T3" s="103"/>
+      <c r="U3" s="103"/>
+      <c r="V3" s="103"/>
+      <c r="W3" s="103"/>
+      <c r="X3" s="103"/>
+      <c r="Y3" s="103"/>
+      <c r="Z3" s="103"/>
+      <c r="AA3" s="103"/>
+      <c r="AB3" s="103"/>
+      <c r="AC3" s="103"/>
+      <c r="AD3" s="103"/>
+      <c r="AE3" s="103"/>
+      <c r="AF3" s="103"/>
     </row>
     <row r="4" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="140" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="125"/>
-      <c r="M4" s="125"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="125"/>
-      <c r="P4" s="125"/>
-      <c r="Q4" s="125"/>
-      <c r="R4" s="125"/>
-      <c r="S4" s="125"/>
-      <c r="T4" s="125"/>
-      <c r="U4" s="125"/>
-      <c r="V4" s="125"/>
-      <c r="W4" s="125"/>
-      <c r="X4" s="125"/>
-      <c r="Y4" s="125"/>
-      <c r="Z4" s="125"/>
-      <c r="AA4" s="125"/>
-      <c r="AB4" s="125"/>
-      <c r="AC4" s="125"/>
-      <c r="AD4" s="125"/>
-      <c r="AE4" s="125"/>
-      <c r="AF4" s="125"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="103"/>
+      <c r="O4" s="103"/>
+      <c r="P4" s="103"/>
+      <c r="Q4" s="103"/>
+      <c r="R4" s="103"/>
+      <c r="S4" s="103"/>
+      <c r="T4" s="103"/>
+      <c r="U4" s="103"/>
+      <c r="V4" s="103"/>
+      <c r="W4" s="103"/>
+      <c r="X4" s="103"/>
+      <c r="Y4" s="103"/>
+      <c r="Z4" s="103"/>
+      <c r="AA4" s="103"/>
+      <c r="AB4" s="103"/>
+      <c r="AC4" s="103"/>
+      <c r="AD4" s="103"/>
+      <c r="AE4" s="103"/>
+      <c r="AF4" s="103"/>
     </row>
     <row r="5" spans="1:32" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="151" t="s">
+      <c r="B5" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="157" t="s">
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="125"/>
-      <c r="K5" s="125"/>
-      <c r="L5" s="125"/>
-      <c r="M5" s="125"/>
-      <c r="N5" s="125"/>
-      <c r="O5" s="125"/>
-      <c r="P5" s="125"/>
-      <c r="Q5" s="125"/>
-      <c r="R5" s="125"/>
-      <c r="S5" s="125"/>
-      <c r="T5" s="125"/>
-      <c r="U5" s="125"/>
-      <c r="V5" s="125"/>
-      <c r="W5" s="125"/>
-      <c r="X5" s="125"/>
-      <c r="Y5" s="125"/>
-      <c r="Z5" s="125"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="103"/>
+      <c r="R5" s="103"/>
+      <c r="S5" s="103"/>
+      <c r="T5" s="103"/>
+      <c r="U5" s="103"/>
+      <c r="V5" s="103"/>
+      <c r="W5" s="103"/>
+      <c r="X5" s="103"/>
+      <c r="Y5" s="103"/>
+      <c r="Z5" s="103"/>
       <c r="AA5" s="7"/>
-      <c r="AB5" s="223" t="s">
+      <c r="AB5" s="191" t="s">
         <v>1</v>
       </c>
-      <c r="AC5" s="145"/>
-      <c r="AD5" s="145"/>
-      <c r="AE5" s="145"/>
+      <c r="AC5" s="114"/>
+      <c r="AD5" s="114"/>
+      <c r="AE5" s="114"/>
       <c r="AF5" s="46" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="124" t="s">
+      <c r="B6" s="137" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -4176,35 +4420,35 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
-      <c r="R6" s="113"/>
-      <c r="S6" s="125"/>
-      <c r="T6" s="125"/>
-      <c r="U6" s="125"/>
-      <c r="V6" s="125"/>
-      <c r="W6" s="125"/>
-      <c r="X6" s="154"/>
-      <c r="Y6" s="125"/>
+      <c r="R6" s="128"/>
+      <c r="S6" s="103"/>
+      <c r="T6" s="103"/>
+      <c r="U6" s="103"/>
+      <c r="V6" s="103"/>
+      <c r="W6" s="103"/>
+      <c r="X6" s="105"/>
+      <c r="Y6" s="103"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="7"/>
-      <c r="AB6" s="150" t="s">
+      <c r="AB6" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="AC6" s="125"/>
-      <c r="AD6" s="125"/>
-      <c r="AE6" s="125"/>
+      <c r="AC6" s="103"/>
+      <c r="AD6" s="103"/>
+      <c r="AE6" s="103"/>
       <c r="AF6" s="45" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="125"/>
-      <c r="H7" s="125"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -4232,13 +4476,13 @@
     </row>
     <row r="8" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="125"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -4247,38 +4491,38 @@
       <c r="N8" s="9"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
-      <c r="Q8" s="129" t="s">
+      <c r="Q8" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="218"/>
-      <c r="S8" s="218"/>
-      <c r="T8" s="218"/>
-      <c r="U8" s="218"/>
-      <c r="V8" s="218"/>
-      <c r="W8" s="218"/>
-      <c r="X8" s="220"/>
-      <c r="Y8" s="129" t="s">
+      <c r="R8" s="201"/>
+      <c r="S8" s="201"/>
+      <c r="T8" s="201"/>
+      <c r="U8" s="201"/>
+      <c r="V8" s="201"/>
+      <c r="W8" s="201"/>
+      <c r="X8" s="203"/>
+      <c r="Y8" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="Z8" s="218"/>
-      <c r="AA8" s="218"/>
-      <c r="AB8" s="218"/>
-      <c r="AC8" s="220"/>
-      <c r="AD8" s="129" t="s">
+      <c r="Z8" s="201"/>
+      <c r="AA8" s="201"/>
+      <c r="AB8" s="201"/>
+      <c r="AC8" s="203"/>
+      <c r="AD8" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="AE8" s="218"/>
-      <c r="AF8" s="220"/>
+      <c r="AE8" s="201"/>
+      <c r="AF8" s="203"/>
     </row>
     <row r="9" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="125"/>
-      <c r="C9" s="125"/>
-      <c r="D9" s="125"/>
-      <c r="E9" s="125"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="125"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -4287,22 +4531,22 @@
       <c r="N9" s="9"/>
       <c r="O9" s="6"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="221"/>
-      <c r="R9" s="219"/>
-      <c r="S9" s="219"/>
-      <c r="T9" s="219"/>
-      <c r="U9" s="219"/>
-      <c r="V9" s="219"/>
-      <c r="W9" s="219"/>
-      <c r="X9" s="222"/>
-      <c r="Y9" s="221"/>
-      <c r="Z9" s="219"/>
-      <c r="AA9" s="219"/>
-      <c r="AB9" s="219"/>
-      <c r="AC9" s="222"/>
-      <c r="AD9" s="221"/>
-      <c r="AE9" s="219"/>
-      <c r="AF9" s="222"/>
+      <c r="Q9" s="204"/>
+      <c r="R9" s="202"/>
+      <c r="S9" s="202"/>
+      <c r="T9" s="202"/>
+      <c r="U9" s="202"/>
+      <c r="V9" s="202"/>
+      <c r="W9" s="202"/>
+      <c r="X9" s="205"/>
+      <c r="Y9" s="204"/>
+      <c r="Z9" s="202"/>
+      <c r="AA9" s="202"/>
+      <c r="AB9" s="202"/>
+      <c r="AC9" s="205"/>
+      <c r="AD9" s="204"/>
+      <c r="AE9" s="202"/>
+      <c r="AF9" s="205"/>
     </row>
     <row r="10" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -4321,44 +4565,44 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="140">
+      <c r="Q10" s="118">
         <v>44986</v>
       </c>
-      <c r="R10" s="130"/>
-      <c r="S10" s="130"/>
-      <c r="T10" s="130"/>
-      <c r="U10" s="130"/>
-      <c r="V10" s="130"/>
-      <c r="W10" s="130"/>
-      <c r="X10" s="131"/>
-      <c r="Y10" s="144">
+      <c r="R10" s="109"/>
+      <c r="S10" s="109"/>
+      <c r="T10" s="109"/>
+      <c r="U10" s="109"/>
+      <c r="V10" s="109"/>
+      <c r="W10" s="109"/>
+      <c r="X10" s="110"/>
+      <c r="Y10" s="121">
         <v>0</v>
       </c>
-      <c r="Z10" s="130"/>
-      <c r="AA10" s="130"/>
-      <c r="AB10" s="130"/>
-      <c r="AC10" s="131"/>
-      <c r="AD10" s="135" t="s">
+      <c r="Z10" s="109"/>
+      <c r="AA10" s="109"/>
+      <c r="AB10" s="109"/>
+      <c r="AC10" s="110"/>
+      <c r="AD10" s="143" t="s">
         <v>43</v>
       </c>
-      <c r="AE10" s="130"/>
-      <c r="AF10" s="131"/>
+      <c r="AE10" s="109"/>
+      <c r="AF10" s="110"/>
     </row>
     <row r="11" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="151" t="s">
+      <c r="B11" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="125"/>
+      <c r="C11" s="103"/>
       <c r="D11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="151" t="s">
+      <c r="E11" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="125"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="125"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -4367,22 +4611,22 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="132"/>
-      <c r="R11" s="133"/>
-      <c r="S11" s="133"/>
-      <c r="T11" s="133"/>
-      <c r="U11" s="133"/>
-      <c r="V11" s="133"/>
-      <c r="W11" s="133"/>
-      <c r="X11" s="134"/>
-      <c r="Y11" s="132"/>
-      <c r="Z11" s="133"/>
-      <c r="AA11" s="133"/>
-      <c r="AB11" s="133"/>
-      <c r="AC11" s="134"/>
-      <c r="AD11" s="132"/>
-      <c r="AE11" s="133"/>
-      <c r="AF11" s="134"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="112"/>
+      <c r="S11" s="112"/>
+      <c r="T11" s="112"/>
+      <c r="U11" s="112"/>
+      <c r="V11" s="112"/>
+      <c r="W11" s="112"/>
+      <c r="X11" s="113"/>
+      <c r="Y11" s="111"/>
+      <c r="Z11" s="112"/>
+      <c r="AA11" s="112"/>
+      <c r="AB11" s="112"/>
+      <c r="AC11" s="113"/>
+      <c r="AD11" s="111"/>
+      <c r="AE11" s="112"/>
+      <c r="AF11" s="113"/>
     </row>
     <row r="12" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -4420,75 +4664,75 @@
     </row>
     <row r="13" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="141" t="s">
+      <c r="B13" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="218"/>
-      <c r="D13" s="218"/>
-      <c r="E13" s="218"/>
-      <c r="F13" s="218"/>
-      <c r="G13" s="218"/>
-      <c r="H13" s="218"/>
-      <c r="I13" s="218"/>
-      <c r="J13" s="218"/>
-      <c r="K13" s="218"/>
-      <c r="L13" s="218"/>
-      <c r="M13" s="218"/>
-      <c r="N13" s="218"/>
-      <c r="O13" s="218"/>
-      <c r="P13" s="218"/>
-      <c r="Q13" s="218"/>
-      <c r="R13" s="218"/>
-      <c r="S13" s="218"/>
-      <c r="T13" s="218"/>
-      <c r="U13" s="218"/>
-      <c r="V13" s="218"/>
-      <c r="W13" s="218"/>
-      <c r="X13" s="218"/>
-      <c r="Y13" s="218"/>
-      <c r="Z13" s="218"/>
-      <c r="AA13" s="218"/>
-      <c r="AB13" s="218"/>
+      <c r="C13" s="201"/>
+      <c r="D13" s="201"/>
+      <c r="E13" s="201"/>
+      <c r="F13" s="201"/>
+      <c r="G13" s="201"/>
+      <c r="H13" s="201"/>
+      <c r="I13" s="201"/>
+      <c r="J13" s="201"/>
+      <c r="K13" s="201"/>
+      <c r="L13" s="201"/>
+      <c r="M13" s="201"/>
+      <c r="N13" s="201"/>
+      <c r="O13" s="201"/>
+      <c r="P13" s="201"/>
+      <c r="Q13" s="201"/>
+      <c r="R13" s="201"/>
+      <c r="S13" s="201"/>
+      <c r="T13" s="201"/>
+      <c r="U13" s="201"/>
+      <c r="V13" s="201"/>
+      <c r="W13" s="201"/>
+      <c r="X13" s="201"/>
+      <c r="Y13" s="201"/>
+      <c r="Z13" s="201"/>
+      <c r="AA13" s="201"/>
+      <c r="AB13" s="201"/>
       <c r="AC13" s="33"/>
-      <c r="AD13" s="141" t="s">
+      <c r="AD13" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="AE13" s="218"/>
-      <c r="AF13" s="218"/>
+      <c r="AE13" s="201"/>
+      <c r="AF13" s="201"/>
     </row>
     <row r="14" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="B14" s="219"/>
-      <c r="C14" s="219"/>
-      <c r="D14" s="219"/>
-      <c r="E14" s="219"/>
-      <c r="F14" s="219"/>
-      <c r="G14" s="219"/>
-      <c r="H14" s="219"/>
-      <c r="I14" s="219"/>
-      <c r="J14" s="219"/>
-      <c r="K14" s="219"/>
-      <c r="L14" s="219"/>
-      <c r="M14" s="219"/>
-      <c r="N14" s="219"/>
-      <c r="O14" s="219"/>
-      <c r="P14" s="219"/>
-      <c r="Q14" s="219"/>
-      <c r="R14" s="219"/>
-      <c r="S14" s="219"/>
-      <c r="T14" s="219"/>
-      <c r="U14" s="219"/>
-      <c r="V14" s="219"/>
-      <c r="W14" s="219"/>
-      <c r="X14" s="219"/>
-      <c r="Y14" s="219"/>
-      <c r="Z14" s="219"/>
-      <c r="AA14" s="219"/>
-      <c r="AB14" s="219"/>
+      <c r="B14" s="202"/>
+      <c r="C14" s="202"/>
+      <c r="D14" s="202"/>
+      <c r="E14" s="202"/>
+      <c r="F14" s="202"/>
+      <c r="G14" s="202"/>
+      <c r="H14" s="202"/>
+      <c r="I14" s="202"/>
+      <c r="J14" s="202"/>
+      <c r="K14" s="202"/>
+      <c r="L14" s="202"/>
+      <c r="M14" s="202"/>
+      <c r="N14" s="202"/>
+      <c r="O14" s="202"/>
+      <c r="P14" s="202"/>
+      <c r="Q14" s="202"/>
+      <c r="R14" s="202"/>
+      <c r="S14" s="202"/>
+      <c r="T14" s="202"/>
+      <c r="U14" s="202"/>
+      <c r="V14" s="202"/>
+      <c r="W14" s="202"/>
+      <c r="X14" s="202"/>
+      <c r="Y14" s="202"/>
+      <c r="Z14" s="202"/>
+      <c r="AA14" s="202"/>
+      <c r="AB14" s="202"/>
       <c r="AC14" s="34"/>
-      <c r="AD14" s="219"/>
-      <c r="AE14" s="219"/>
-      <c r="AF14" s="219"/>
+      <c r="AD14" s="202"/>
+      <c r="AE14" s="202"/>
+      <c r="AF14" s="202"/>
     </row>
     <row r="15" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -4525,173 +4769,173 @@
       <c r="AF15" s="14"/>
     </row>
     <row r="16" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="106"/>
-      <c r="B16" s="126" t="s">
+      <c r="A16" s="92"/>
+      <c r="B16" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="186"/>
-      <c r="D16" s="186"/>
-      <c r="E16" s="187"/>
-      <c r="F16" s="231" t="s">
+      <c r="C16" s="182"/>
+      <c r="D16" s="182"/>
+      <c r="E16" s="206"/>
+      <c r="F16" s="229" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="214"/>
-      <c r="H16" s="214"/>
-      <c r="I16" s="214"/>
-      <c r="J16" s="215"/>
-      <c r="K16" s="224" t="s">
+      <c r="G16" s="188"/>
+      <c r="H16" s="188"/>
+      <c r="I16" s="188"/>
+      <c r="J16" s="189"/>
+      <c r="K16" s="187" t="s">
         <v>40</v>
       </c>
-      <c r="L16" s="214"/>
-      <c r="M16" s="214"/>
-      <c r="N16" s="214"/>
-      <c r="O16" s="214"/>
-      <c r="P16" s="214"/>
-      <c r="Q16" s="214"/>
-      <c r="R16" s="214"/>
-      <c r="S16" s="214"/>
-      <c r="T16" s="214"/>
-      <c r="U16" s="214"/>
-      <c r="V16" s="214"/>
-      <c r="W16" s="214"/>
-      <c r="X16" s="214"/>
-      <c r="Y16" s="214"/>
-      <c r="Z16" s="214"/>
-      <c r="AA16" s="214"/>
-      <c r="AB16" s="215"/>
+      <c r="L16" s="188"/>
+      <c r="M16" s="188"/>
+      <c r="N16" s="188"/>
+      <c r="O16" s="188"/>
+      <c r="P16" s="188"/>
+      <c r="Q16" s="188"/>
+      <c r="R16" s="188"/>
+      <c r="S16" s="188"/>
+      <c r="T16" s="188"/>
+      <c r="U16" s="188"/>
+      <c r="V16" s="188"/>
+      <c r="W16" s="188"/>
+      <c r="X16" s="188"/>
+      <c r="Y16" s="188"/>
+      <c r="Z16" s="188"/>
+      <c r="AA16" s="188"/>
+      <c r="AB16" s="189"/>
       <c r="AC16" s="38"/>
       <c r="AD16" s="42"/>
-      <c r="AE16" s="145"/>
-      <c r="AF16" s="183"/>
+      <c r="AE16" s="114"/>
+      <c r="AF16" s="180"/>
     </row>
     <row r="17" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="106"/>
-      <c r="B17" s="209"/>
-      <c r="C17" s="189"/>
-      <c r="D17" s="189"/>
-      <c r="E17" s="190"/>
-      <c r="F17" s="199" t="s">
+      <c r="A17" s="92"/>
+      <c r="B17" s="226"/>
+      <c r="C17" s="208"/>
+      <c r="D17" s="208"/>
+      <c r="E17" s="209"/>
+      <c r="F17" s="216" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="200"/>
-      <c r="H17" s="200"/>
-      <c r="I17" s="200"/>
-      <c r="J17" s="201"/>
-      <c r="K17" s="205" t="s">
+      <c r="G17" s="217"/>
+      <c r="H17" s="217"/>
+      <c r="I17" s="217"/>
+      <c r="J17" s="218"/>
+      <c r="K17" s="222" t="s">
         <v>41</v>
       </c>
-      <c r="L17" s="206"/>
-      <c r="M17" s="206"/>
-      <c r="N17" s="206"/>
-      <c r="O17" s="206"/>
-      <c r="P17" s="206"/>
-      <c r="Q17" s="206"/>
-      <c r="R17" s="228" t="s">
+      <c r="L17" s="223"/>
+      <c r="M17" s="223"/>
+      <c r="N17" s="223"/>
+      <c r="O17" s="223"/>
+      <c r="P17" s="223"/>
+      <c r="Q17" s="223"/>
+      <c r="R17" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="S17" s="207" t="s">
+      <c r="S17" s="224" t="s">
         <v>42</v>
       </c>
-      <c r="T17" s="207"/>
-      <c r="U17" s="207"/>
-      <c r="V17" s="207"/>
-      <c r="W17" s="207"/>
-      <c r="X17" s="207"/>
-      <c r="Y17" s="207"/>
-      <c r="Z17" s="207"/>
-      <c r="AA17" s="207"/>
-      <c r="AB17" s="208"/>
+      <c r="T17" s="224"/>
+      <c r="U17" s="224"/>
+      <c r="V17" s="224"/>
+      <c r="W17" s="224"/>
+      <c r="X17" s="224"/>
+      <c r="Y17" s="224"/>
+      <c r="Z17" s="224"/>
+      <c r="AA17" s="224"/>
+      <c r="AB17" s="225"/>
       <c r="AC17" s="38"/>
-      <c r="AD17" s="170" t="s">
+      <c r="AD17" s="184" t="s">
         <v>17</v>
       </c>
-      <c r="AE17" s="229">
+      <c r="AE17" s="185">
         <f>K18*S18</f>
         <v>1099040</v>
       </c>
-      <c r="AF17" s="229"/>
+      <c r="AF17" s="185"/>
     </row>
     <row r="18" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="125"/>
-      <c r="B18" s="191"/>
-      <c r="C18" s="183"/>
-      <c r="D18" s="183"/>
-      <c r="E18" s="190"/>
-      <c r="F18" s="202"/>
-      <c r="G18" s="203"/>
-      <c r="H18" s="203"/>
-      <c r="I18" s="203"/>
-      <c r="J18" s="204"/>
-      <c r="K18" s="152">
+      <c r="A18" s="103"/>
+      <c r="B18" s="210"/>
+      <c r="C18" s="180"/>
+      <c r="D18" s="180"/>
+      <c r="E18" s="209"/>
+      <c r="F18" s="219"/>
+      <c r="G18" s="220"/>
+      <c r="H18" s="220"/>
+      <c r="I18" s="220"/>
+      <c r="J18" s="221"/>
+      <c r="K18" s="79">
         <v>16000</v>
       </c>
-      <c r="L18" s="186"/>
-      <c r="M18" s="186"/>
-      <c r="N18" s="186"/>
-      <c r="O18" s="186"/>
-      <c r="P18" s="186"/>
-      <c r="Q18" s="186"/>
-      <c r="R18" s="228"/>
-      <c r="S18" s="162">
+      <c r="L18" s="182"/>
+      <c r="M18" s="182"/>
+      <c r="N18" s="182"/>
+      <c r="O18" s="182"/>
+      <c r="P18" s="182"/>
+      <c r="Q18" s="182"/>
+      <c r="R18" s="183"/>
+      <c r="S18" s="96">
         <v>68.69</v>
       </c>
-      <c r="T18" s="186"/>
-      <c r="U18" s="186"/>
-      <c r="V18" s="186"/>
-      <c r="W18" s="186"/>
-      <c r="X18" s="186"/>
-      <c r="Y18" s="186"/>
-      <c r="Z18" s="186"/>
-      <c r="AA18" s="186"/>
-      <c r="AB18" s="187"/>
+      <c r="T18" s="182"/>
+      <c r="U18" s="182"/>
+      <c r="V18" s="182"/>
+      <c r="W18" s="182"/>
+      <c r="X18" s="182"/>
+      <c r="Y18" s="182"/>
+      <c r="Z18" s="182"/>
+      <c r="AA18" s="182"/>
+      <c r="AB18" s="206"/>
       <c r="AC18" s="38"/>
-      <c r="AD18" s="170"/>
-      <c r="AE18" s="229"/>
-      <c r="AF18" s="229"/>
+      <c r="AD18" s="184"/>
+      <c r="AE18" s="185"/>
+      <c r="AF18" s="185"/>
     </row>
     <row r="19" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="192"/>
-      <c r="C19" s="184"/>
-      <c r="D19" s="184"/>
-      <c r="E19" s="193"/>
-      <c r="F19" s="139" t="s">
+      <c r="B19" s="211"/>
+      <c r="C19" s="212"/>
+      <c r="D19" s="212"/>
+      <c r="E19" s="213"/>
+      <c r="F19" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="211"/>
-      <c r="H19" s="211"/>
-      <c r="I19" s="211"/>
-      <c r="J19" s="212"/>
-      <c r="K19" s="194">
+      <c r="G19" s="193"/>
+      <c r="H19" s="193"/>
+      <c r="I19" s="193"/>
+      <c r="J19" s="195"/>
+      <c r="K19" s="196">
         <f>ROUND(AE17*11%,0)</f>
         <v>120894</v>
       </c>
-      <c r="L19" s="195"/>
-      <c r="M19" s="195"/>
-      <c r="N19" s="195"/>
-      <c r="O19" s="195"/>
-      <c r="P19" s="195"/>
-      <c r="Q19" s="195"/>
-      <c r="R19" s="195"/>
-      <c r="S19" s="195"/>
-      <c r="T19" s="195"/>
-      <c r="U19" s="195"/>
-      <c r="V19" s="195"/>
-      <c r="W19" s="195"/>
-      <c r="X19" s="195"/>
-      <c r="Y19" s="195"/>
-      <c r="Z19" s="195"/>
-      <c r="AA19" s="195"/>
-      <c r="AB19" s="196"/>
+      <c r="L19" s="197"/>
+      <c r="M19" s="197"/>
+      <c r="N19" s="197"/>
+      <c r="O19" s="197"/>
+      <c r="P19" s="197"/>
+      <c r="Q19" s="197"/>
+      <c r="R19" s="197"/>
+      <c r="S19" s="197"/>
+      <c r="T19" s="197"/>
+      <c r="U19" s="197"/>
+      <c r="V19" s="197"/>
+      <c r="W19" s="197"/>
+      <c r="X19" s="197"/>
+      <c r="Y19" s="197"/>
+      <c r="Z19" s="197"/>
+      <c r="AA19" s="197"/>
+      <c r="AB19" s="198"/>
       <c r="AC19" s="38"/>
       <c r="AD19" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE19" s="216">
+      <c r="AE19" s="199">
         <f>K19</f>
         <v>120894</v>
       </c>
-      <c r="AF19" s="217"/>
+      <c r="AF19" s="200"/>
     </row>
     <row r="20" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
@@ -4699,24 +4943,24 @@
       <c r="C20" s="11"/>
       <c r="D20" s="68"/>
       <c r="E20" s="38"/>
-      <c r="F20" s="198"/>
-      <c r="G20" s="183"/>
-      <c r="H20" s="183"/>
-      <c r="I20" s="183"/>
+      <c r="F20" s="215"/>
+      <c r="G20" s="180"/>
+      <c r="H20" s="180"/>
+      <c r="I20" s="180"/>
       <c r="J20" s="52"/>
-      <c r="K20" s="232"/>
-      <c r="L20" s="183"/>
-      <c r="M20" s="183"/>
-      <c r="N20" s="183"/>
-      <c r="O20" s="158"/>
-      <c r="P20" s="183"/>
-      <c r="Q20" s="230"/>
-      <c r="R20" s="183"/>
-      <c r="S20" s="183"/>
-      <c r="T20" s="183"/>
-      <c r="U20" s="183"/>
-      <c r="V20" s="183"/>
-      <c r="W20" s="183"/>
+      <c r="K20" s="190"/>
+      <c r="L20" s="180"/>
+      <c r="M20" s="180"/>
+      <c r="N20" s="180"/>
+      <c r="O20" s="100"/>
+      <c r="P20" s="180"/>
+      <c r="Q20" s="186"/>
+      <c r="R20" s="180"/>
+      <c r="S20" s="180"/>
+      <c r="T20" s="180"/>
+      <c r="U20" s="180"/>
+      <c r="V20" s="180"/>
+      <c r="W20" s="180"/>
       <c r="X20" s="52"/>
       <c r="Y20" s="52"/>
       <c r="Z20" s="52"/>
@@ -4726,207 +4970,207 @@
       <c r="AD20" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE20" s="227">
+      <c r="AE20" s="181">
         <f>AE17+AE19</f>
         <v>1219934</v>
       </c>
-      <c r="AF20" s="186"/>
+      <c r="AF20" s="182"/>
     </row>
     <row r="21" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="114" t="s">
+      <c r="B21" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="186"/>
-      <c r="D21" s="186"/>
-      <c r="E21" s="187"/>
-      <c r="F21" s="213" t="s">
+      <c r="C21" s="182"/>
+      <c r="D21" s="182"/>
+      <c r="E21" s="206"/>
+      <c r="F21" s="228" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="214"/>
-      <c r="H21" s="214"/>
-      <c r="I21" s="214"/>
-      <c r="J21" s="215"/>
-      <c r="K21" s="224" t="s">
+      <c r="G21" s="188"/>
+      <c r="H21" s="188"/>
+      <c r="I21" s="188"/>
+      <c r="J21" s="189"/>
+      <c r="K21" s="187" t="s">
         <v>40</v>
       </c>
-      <c r="L21" s="214"/>
-      <c r="M21" s="214"/>
-      <c r="N21" s="214"/>
-      <c r="O21" s="214"/>
-      <c r="P21" s="214"/>
-      <c r="Q21" s="214"/>
-      <c r="R21" s="214"/>
-      <c r="S21" s="214"/>
-      <c r="T21" s="214"/>
-      <c r="U21" s="214"/>
-      <c r="V21" s="214"/>
-      <c r="W21" s="214"/>
-      <c r="X21" s="214"/>
-      <c r="Y21" s="214"/>
-      <c r="Z21" s="214"/>
-      <c r="AA21" s="214"/>
-      <c r="AB21" s="215"/>
+      <c r="L21" s="188"/>
+      <c r="M21" s="188"/>
+      <c r="N21" s="188"/>
+      <c r="O21" s="188"/>
+      <c r="P21" s="188"/>
+      <c r="Q21" s="188"/>
+      <c r="R21" s="188"/>
+      <c r="S21" s="188"/>
+      <c r="T21" s="188"/>
+      <c r="U21" s="188"/>
+      <c r="V21" s="188"/>
+      <c r="W21" s="188"/>
+      <c r="X21" s="188"/>
+      <c r="Y21" s="188"/>
+      <c r="Z21" s="188"/>
+      <c r="AA21" s="188"/>
+      <c r="AB21" s="189"/>
       <c r="AC21" s="18"/>
       <c r="AD21" s="42"/>
-      <c r="AE21" s="102"/>
-      <c r="AF21" s="183"/>
+      <c r="AE21" s="149"/>
+      <c r="AF21" s="180"/>
     </row>
     <row r="22" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="188"/>
-      <c r="C22" s="189"/>
-      <c r="D22" s="189"/>
-      <c r="E22" s="190"/>
-      <c r="F22" s="233" t="s">
+      <c r="B22" s="207"/>
+      <c r="C22" s="208"/>
+      <c r="D22" s="208"/>
+      <c r="E22" s="209"/>
+      <c r="F22" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="234"/>
-      <c r="H22" s="234"/>
-      <c r="I22" s="234"/>
-      <c r="J22" s="235"/>
-      <c r="K22" s="205" t="s">
+      <c r="G22" s="171"/>
+      <c r="H22" s="171"/>
+      <c r="I22" s="171"/>
+      <c r="J22" s="172"/>
+      <c r="K22" s="222" t="s">
         <v>41</v>
       </c>
-      <c r="L22" s="206"/>
-      <c r="M22" s="206"/>
-      <c r="N22" s="206"/>
-      <c r="O22" s="206"/>
-      <c r="P22" s="206"/>
-      <c r="Q22" s="206"/>
-      <c r="R22" s="239" t="s">
+      <c r="L22" s="223"/>
+      <c r="M22" s="223"/>
+      <c r="N22" s="223"/>
+      <c r="O22" s="223"/>
+      <c r="P22" s="223"/>
+      <c r="Q22" s="223"/>
+      <c r="R22" s="176" t="s">
         <v>32</v>
       </c>
-      <c r="S22" s="207" t="s">
+      <c r="S22" s="224" t="s">
         <v>42</v>
       </c>
-      <c r="T22" s="207"/>
-      <c r="U22" s="207"/>
-      <c r="V22" s="207"/>
-      <c r="W22" s="207"/>
-      <c r="X22" s="207"/>
-      <c r="Y22" s="207"/>
-      <c r="Z22" s="207"/>
-      <c r="AA22" s="207"/>
-      <c r="AB22" s="208"/>
+      <c r="T22" s="224"/>
+      <c r="U22" s="224"/>
+      <c r="V22" s="224"/>
+      <c r="W22" s="224"/>
+      <c r="X22" s="224"/>
+      <c r="Y22" s="224"/>
+      <c r="Z22" s="224"/>
+      <c r="AA22" s="224"/>
+      <c r="AB22" s="225"/>
       <c r="AC22" s="18"/>
-      <c r="AD22" s="170" t="s">
+      <c r="AD22" s="184" t="s">
         <v>17</v>
       </c>
-      <c r="AE22" s="171">
+      <c r="AE22" s="230">
         <f>K23*S23</f>
         <v>109904</v>
       </c>
-      <c r="AF22" s="171"/>
+      <c r="AF22" s="230"/>
     </row>
     <row r="23" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="191"/>
-      <c r="C23" s="183"/>
-      <c r="D23" s="183"/>
-      <c r="E23" s="190"/>
-      <c r="F23" s="236"/>
-      <c r="G23" s="237"/>
-      <c r="H23" s="237"/>
-      <c r="I23" s="237"/>
-      <c r="J23" s="238"/>
-      <c r="K23" s="225">
+      <c r="B23" s="210"/>
+      <c r="C23" s="180"/>
+      <c r="D23" s="180"/>
+      <c r="E23" s="209"/>
+      <c r="F23" s="173"/>
+      <c r="G23" s="174"/>
+      <c r="H23" s="174"/>
+      <c r="I23" s="174"/>
+      <c r="J23" s="175"/>
+      <c r="K23" s="192">
         <f>IF(K18&lt;&gt;0,K18*10%,VLOOKUP(E11,[1]!SCSF_Billings[#Data],6,FALSE))</f>
         <v>1600</v>
       </c>
-      <c r="L23" s="211"/>
-      <c r="M23" s="211"/>
-      <c r="N23" s="211"/>
-      <c r="O23" s="211"/>
-      <c r="P23" s="211"/>
-      <c r="Q23" s="211"/>
-      <c r="R23" s="240"/>
-      <c r="S23" s="210">
+      <c r="L23" s="193"/>
+      <c r="M23" s="193"/>
+      <c r="N23" s="193"/>
+      <c r="O23" s="193"/>
+      <c r="P23" s="193"/>
+      <c r="Q23" s="193"/>
+      <c r="R23" s="177"/>
+      <c r="S23" s="227">
         <f>S18</f>
         <v>68.69</v>
       </c>
-      <c r="T23" s="211"/>
-      <c r="U23" s="211"/>
-      <c r="V23" s="211"/>
-      <c r="W23" s="211"/>
-      <c r="X23" s="211"/>
-      <c r="Y23" s="211"/>
-      <c r="Z23" s="211"/>
-      <c r="AA23" s="211"/>
-      <c r="AB23" s="212"/>
+      <c r="T23" s="193"/>
+      <c r="U23" s="193"/>
+      <c r="V23" s="193"/>
+      <c r="W23" s="193"/>
+      <c r="X23" s="193"/>
+      <c r="Y23" s="193"/>
+      <c r="Z23" s="193"/>
+      <c r="AA23" s="193"/>
+      <c r="AB23" s="195"/>
       <c r="AC23" s="18"/>
-      <c r="AD23" s="170"/>
-      <c r="AE23" s="171"/>
-      <c r="AF23" s="171"/>
+      <c r="AD23" s="184"/>
+      <c r="AE23" s="230"/>
+      <c r="AF23" s="230"/>
     </row>
     <row r="24" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="192"/>
-      <c r="C24" s="184"/>
-      <c r="D24" s="184"/>
-      <c r="E24" s="193"/>
-      <c r="F24" s="226" t="s">
+      <c r="B24" s="211"/>
+      <c r="C24" s="212"/>
+      <c r="D24" s="212"/>
+      <c r="E24" s="213"/>
+      <c r="F24" s="194" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="211"/>
-      <c r="H24" s="211"/>
-      <c r="I24" s="211"/>
-      <c r="J24" s="212"/>
-      <c r="K24" s="194">
+      <c r="G24" s="193"/>
+      <c r="H24" s="193"/>
+      <c r="I24" s="193"/>
+      <c r="J24" s="195"/>
+      <c r="K24" s="196">
         <f>ROUND(AE22*11%,0)</f>
         <v>12089</v>
       </c>
-      <c r="L24" s="195"/>
-      <c r="M24" s="195"/>
-      <c r="N24" s="195"/>
-      <c r="O24" s="195"/>
-      <c r="P24" s="195"/>
-      <c r="Q24" s="195"/>
-      <c r="R24" s="195"/>
-      <c r="S24" s="195"/>
-      <c r="T24" s="195"/>
-      <c r="U24" s="195"/>
-      <c r="V24" s="195"/>
-      <c r="W24" s="195"/>
-      <c r="X24" s="195"/>
-      <c r="Y24" s="195"/>
-      <c r="Z24" s="195"/>
-      <c r="AA24" s="195"/>
-      <c r="AB24" s="196"/>
+      <c r="L24" s="197"/>
+      <c r="M24" s="197"/>
+      <c r="N24" s="197"/>
+      <c r="O24" s="197"/>
+      <c r="P24" s="197"/>
+      <c r="Q24" s="197"/>
+      <c r="R24" s="197"/>
+      <c r="S24" s="197"/>
+      <c r="T24" s="197"/>
+      <c r="U24" s="197"/>
+      <c r="V24" s="197"/>
+      <c r="W24" s="197"/>
+      <c r="X24" s="197"/>
+      <c r="Y24" s="197"/>
+      <c r="Z24" s="197"/>
+      <c r="AA24" s="197"/>
+      <c r="AB24" s="198"/>
       <c r="AC24" s="18"/>
       <c r="AD24" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE24" s="87">
+      <c r="AE24" s="163">
         <f>K24</f>
         <v>12089</v>
       </c>
-      <c r="AF24" s="184"/>
+      <c r="AF24" s="212"/>
     </row>
     <row r="25" spans="1:32" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="106"/>
+      <c r="A25" s="92"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>
-      <c r="F25" s="197"/>
-      <c r="G25" s="184"/>
-      <c r="H25" s="184"/>
-      <c r="I25" s="184"/>
+      <c r="F25" s="214"/>
+      <c r="G25" s="212"/>
+      <c r="H25" s="212"/>
+      <c r="I25" s="212"/>
       <c r="J25" s="69"/>
-      <c r="K25" s="185"/>
-      <c r="L25" s="184"/>
-      <c r="M25" s="184"/>
-      <c r="N25" s="184"/>
-      <c r="O25" s="184"/>
-      <c r="P25" s="184"/>
-      <c r="Q25" s="184"/>
-      <c r="R25" s="184"/>
-      <c r="S25" s="184"/>
-      <c r="T25" s="184"/>
-      <c r="U25" s="184"/>
-      <c r="V25" s="184"/>
-      <c r="W25" s="184"/>
+      <c r="K25" s="240"/>
+      <c r="L25" s="212"/>
+      <c r="M25" s="212"/>
+      <c r="N25" s="212"/>
+      <c r="O25" s="212"/>
+      <c r="P25" s="212"/>
+      <c r="Q25" s="212"/>
+      <c r="R25" s="212"/>
+      <c r="S25" s="212"/>
+      <c r="T25" s="212"/>
+      <c r="U25" s="212"/>
+      <c r="V25" s="212"/>
+      <c r="W25" s="212"/>
       <c r="X25" s="36"/>
       <c r="Y25" s="36"/>
       <c r="Z25" s="36"/>
@@ -4936,14 +5180,14 @@
       <c r="AD25" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="AE25" s="181">
+      <c r="AE25" s="238">
         <f>AE22+AE24</f>
         <v>121993</v>
       </c>
-      <c r="AF25" s="182"/>
+      <c r="AF25" s="239"/>
     </row>
     <row r="26" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="125"/>
+      <c r="A26" s="103"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
@@ -4977,7 +5221,7 @@
       <c r="AF26" s="59"/>
     </row>
     <row r="27" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="125"/>
+      <c r="A27" s="103"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="52"/>
@@ -4996,29 +5240,29 @@
       <c r="Q27" s="52"/>
       <c r="R27" s="52"/>
       <c r="S27" s="52"/>
-      <c r="T27" s="90" t="s">
+      <c r="T27" s="152" t="s">
         <v>55</v>
       </c>
-      <c r="U27" s="183"/>
-      <c r="V27" s="183"/>
-      <c r="W27" s="183"/>
-      <c r="X27" s="183"/>
-      <c r="Y27" s="183"/>
-      <c r="Z27" s="183"/>
-      <c r="AA27" s="183"/>
-      <c r="AB27" s="183"/>
+      <c r="U27" s="180"/>
+      <c r="V27" s="180"/>
+      <c r="W27" s="180"/>
+      <c r="X27" s="180"/>
+      <c r="Y27" s="180"/>
+      <c r="Z27" s="180"/>
+      <c r="AA27" s="180"/>
+      <c r="AB27" s="180"/>
       <c r="AC27" s="18"/>
       <c r="AD27" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE27" s="178">
+      <c r="AE27" s="237">
         <f>AE20*5%</f>
         <v>60996.700000000004</v>
       </c>
       <c r="AF27" s="179"/>
     </row>
     <row r="28" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="125"/>
+      <c r="A28" s="103"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="52"/>
@@ -5037,28 +5281,28 @@
       <c r="Q28" s="52"/>
       <c r="R28" s="52"/>
       <c r="S28" s="52"/>
-      <c r="T28" s="90" t="s">
+      <c r="T28" s="152" t="s">
         <v>58</v>
       </c>
-      <c r="U28" s="91"/>
-      <c r="V28" s="91"/>
-      <c r="W28" s="91"/>
-      <c r="X28" s="91"/>
-      <c r="Y28" s="91"/>
-      <c r="Z28" s="91"/>
-      <c r="AA28" s="91"/>
-      <c r="AB28" s="91"/>
+      <c r="U28" s="115"/>
+      <c r="V28" s="115"/>
+      <c r="W28" s="115"/>
+      <c r="X28" s="115"/>
+      <c r="Y28" s="115"/>
+      <c r="Z28" s="115"/>
+      <c r="AA28" s="115"/>
+      <c r="AB28" s="115"/>
       <c r="AC28" s="28"/>
       <c r="AD28" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE28" s="180">
+      <c r="AE28" s="178">
         <v>0</v>
       </c>
       <c r="AF28" s="179"/>
     </row>
     <row r="29" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="125"/>
+      <c r="A29" s="103"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -5077,22 +5321,22 @@
       <c r="Q29" s="9"/>
       <c r="R29" s="9"/>
       <c r="S29" s="9"/>
-      <c r="T29" s="90" t="s">
+      <c r="T29" s="152" t="s">
         <v>22</v>
       </c>
-      <c r="U29" s="183"/>
-      <c r="V29" s="183"/>
-      <c r="W29" s="183"/>
-      <c r="X29" s="183"/>
-      <c r="Y29" s="183"/>
-      <c r="Z29" s="183"/>
-      <c r="AA29" s="183"/>
-      <c r="AB29" s="183"/>
+      <c r="U29" s="180"/>
+      <c r="V29" s="180"/>
+      <c r="W29" s="180"/>
+      <c r="X29" s="180"/>
+      <c r="Y29" s="180"/>
+      <c r="Z29" s="180"/>
+      <c r="AA29" s="180"/>
+      <c r="AB29" s="180"/>
       <c r="AC29" s="28"/>
       <c r="AD29" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE29" s="180">
+      <c r="AE29" s="178">
         <v>10000</v>
       </c>
       <c r="AF29" s="179"/>
@@ -5117,26 +5361,26 @@
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
       <c r="S30" s="19"/>
-      <c r="T30" s="92" t="s">
+      <c r="T30" s="165" t="s">
         <v>23</v>
       </c>
-      <c r="U30" s="183"/>
-      <c r="V30" s="183"/>
-      <c r="W30" s="183"/>
-      <c r="X30" s="183"/>
-      <c r="Y30" s="183"/>
-      <c r="Z30" s="183"/>
-      <c r="AA30" s="183"/>
-      <c r="AB30" s="183"/>
+      <c r="U30" s="180"/>
+      <c r="V30" s="180"/>
+      <c r="W30" s="180"/>
+      <c r="X30" s="180"/>
+      <c r="Y30" s="180"/>
+      <c r="Z30" s="180"/>
+      <c r="AA30" s="180"/>
+      <c r="AB30" s="180"/>
       <c r="AC30" s="19"/>
       <c r="AD30" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE30" s="111">
+      <c r="AE30" s="120">
         <f>AE20+AE25+AE27+AE29</f>
         <v>1412923.7</v>
       </c>
-      <c r="AF30" s="183"/>
+      <c r="AF30" s="180"/>
     </row>
     <row r="31" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
@@ -5208,41 +5452,41 @@
     </row>
     <row r="33" spans="1:32" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="75" t="s">
+      <c r="B33" s="157" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="176" t="s">
+      <c r="C33" s="157"/>
+      <c r="D33" s="157"/>
+      <c r="E33" s="157"/>
+      <c r="F33" s="157"/>
+      <c r="G33" s="235" t="s">
         <v>47</v>
       </c>
-      <c r="H33" s="176"/>
-      <c r="I33" s="176"/>
-      <c r="J33" s="176"/>
-      <c r="K33" s="176"/>
-      <c r="L33" s="176"/>
-      <c r="M33" s="176"/>
-      <c r="N33" s="176"/>
-      <c r="O33" s="176"/>
-      <c r="P33" s="176"/>
-      <c r="Q33" s="176"/>
-      <c r="R33" s="176"/>
-      <c r="S33" s="176"/>
-      <c r="T33" s="176"/>
-      <c r="U33" s="176"/>
-      <c r="V33" s="176"/>
-      <c r="W33" s="176"/>
-      <c r="X33" s="176"/>
-      <c r="Y33" s="176"/>
-      <c r="Z33" s="176"/>
-      <c r="AA33" s="176"/>
-      <c r="AB33" s="176"/>
-      <c r="AC33" s="176"/>
-      <c r="AD33" s="176"/>
-      <c r="AE33" s="176"/>
-      <c r="AF33" s="176"/>
+      <c r="H33" s="235"/>
+      <c r="I33" s="235"/>
+      <c r="J33" s="235"/>
+      <c r="K33" s="235"/>
+      <c r="L33" s="235"/>
+      <c r="M33" s="235"/>
+      <c r="N33" s="235"/>
+      <c r="O33" s="235"/>
+      <c r="P33" s="235"/>
+      <c r="Q33" s="235"/>
+      <c r="R33" s="235"/>
+      <c r="S33" s="235"/>
+      <c r="T33" s="235"/>
+      <c r="U33" s="235"/>
+      <c r="V33" s="235"/>
+      <c r="W33" s="235"/>
+      <c r="X33" s="235"/>
+      <c r="Y33" s="235"/>
+      <c r="Z33" s="235"/>
+      <c r="AA33" s="235"/>
+      <c r="AB33" s="235"/>
+      <c r="AC33" s="235"/>
+      <c r="AD33" s="235"/>
+      <c r="AE33" s="235"/>
+      <c r="AF33" s="235"/>
     </row>
     <row r="34" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
@@ -5371,207 +5615,207 @@
       <c r="V37" s="6"/>
       <c r="W37" s="6"/>
       <c r="X37" s="48"/>
-      <c r="AB37" s="177" t="s">
+      <c r="AB37" s="236" t="s">
         <v>38</v>
       </c>
-      <c r="AC37" s="177"/>
-      <c r="AD37" s="177"/>
-      <c r="AE37" s="177"/>
-      <c r="AF37" s="177"/>
+      <c r="AC37" s="236"/>
+      <c r="AD37" s="236"/>
+      <c r="AE37" s="236"/>
+      <c r="AF37" s="236"/>
     </row>
     <row r="38" spans="1:32" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
-      <c r="B38" s="74" t="s">
+      <c r="B38" s="156" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="74"/>
-      <c r="D38" s="74"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="74"/>
-      <c r="G38" s="74"/>
-      <c r="H38" s="74"/>
-      <c r="I38" s="74"/>
-      <c r="J38" s="74"/>
-      <c r="K38" s="74"/>
-      <c r="L38" s="74"/>
-      <c r="M38" s="74"/>
-      <c r="N38" s="74"/>
-      <c r="O38" s="74"/>
-      <c r="P38" s="74"/>
-      <c r="Q38" s="74"/>
-      <c r="R38" s="74"/>
-      <c r="S38" s="74"/>
-      <c r="T38" s="74"/>
-      <c r="U38" s="74"/>
-      <c r="V38" s="74"/>
-      <c r="W38" s="74"/>
-      <c r="AB38" s="177"/>
-      <c r="AC38" s="177"/>
-      <c r="AD38" s="177"/>
-      <c r="AE38" s="177"/>
-      <c r="AF38" s="177"/>
+      <c r="C38" s="156"/>
+      <c r="D38" s="156"/>
+      <c r="E38" s="156"/>
+      <c r="F38" s="156"/>
+      <c r="G38" s="156"/>
+      <c r="H38" s="156"/>
+      <c r="I38" s="156"/>
+      <c r="J38" s="156"/>
+      <c r="K38" s="156"/>
+      <c r="L38" s="156"/>
+      <c r="M38" s="156"/>
+      <c r="N38" s="156"/>
+      <c r="O38" s="156"/>
+      <c r="P38" s="156"/>
+      <c r="Q38" s="156"/>
+      <c r="R38" s="156"/>
+      <c r="S38" s="156"/>
+      <c r="T38" s="156"/>
+      <c r="U38" s="156"/>
+      <c r="V38" s="156"/>
+      <c r="W38" s="156"/>
+      <c r="AB38" s="236"/>
+      <c r="AC38" s="236"/>
+      <c r="AD38" s="236"/>
+      <c r="AE38" s="236"/>
+      <c r="AF38" s="236"/>
     </row>
     <row r="39" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
-      <c r="B39" s="74"/>
-      <c r="C39" s="74"/>
-      <c r="D39" s="74"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="74"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="74"/>
-      <c r="I39" s="74"/>
-      <c r="J39" s="74"/>
-      <c r="K39" s="74"/>
-      <c r="L39" s="74"/>
-      <c r="M39" s="74"/>
-      <c r="N39" s="74"/>
-      <c r="O39" s="74"/>
-      <c r="P39" s="74"/>
-      <c r="Q39" s="74"/>
-      <c r="R39" s="74"/>
-      <c r="S39" s="74"/>
-      <c r="T39" s="74"/>
-      <c r="U39" s="74"/>
-      <c r="V39" s="74"/>
-      <c r="W39" s="74"/>
-      <c r="AB39" s="177"/>
-      <c r="AC39" s="177"/>
-      <c r="AD39" s="177"/>
-      <c r="AE39" s="177"/>
-      <c r="AF39" s="177"/>
+      <c r="B39" s="156"/>
+      <c r="C39" s="156"/>
+      <c r="D39" s="156"/>
+      <c r="E39" s="156"/>
+      <c r="F39" s="156"/>
+      <c r="G39" s="156"/>
+      <c r="H39" s="156"/>
+      <c r="I39" s="156"/>
+      <c r="J39" s="156"/>
+      <c r="K39" s="156"/>
+      <c r="L39" s="156"/>
+      <c r="M39" s="156"/>
+      <c r="N39" s="156"/>
+      <c r="O39" s="156"/>
+      <c r="P39" s="156"/>
+      <c r="Q39" s="156"/>
+      <c r="R39" s="156"/>
+      <c r="S39" s="156"/>
+      <c r="T39" s="156"/>
+      <c r="U39" s="156"/>
+      <c r="V39" s="156"/>
+      <c r="W39" s="156"/>
+      <c r="AB39" s="236"/>
+      <c r="AC39" s="236"/>
+      <c r="AD39" s="236"/>
+      <c r="AE39" s="236"/>
+      <c r="AF39" s="236"/>
     </row>
     <row r="40" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
-      <c r="B40" s="74"/>
-      <c r="C40" s="74"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="74"/>
-      <c r="G40" s="74"/>
-      <c r="H40" s="74"/>
-      <c r="I40" s="74"/>
-      <c r="J40" s="74"/>
-      <c r="K40" s="74"/>
-      <c r="L40" s="74"/>
-      <c r="M40" s="74"/>
-      <c r="N40" s="74"/>
-      <c r="O40" s="74"/>
-      <c r="P40" s="74"/>
-      <c r="Q40" s="74"/>
-      <c r="R40" s="74"/>
-      <c r="S40" s="74"/>
-      <c r="T40" s="74"/>
-      <c r="U40" s="74"/>
-      <c r="V40" s="74"/>
-      <c r="W40" s="74"/>
+      <c r="B40" s="156"/>
+      <c r="C40" s="156"/>
+      <c r="D40" s="156"/>
+      <c r="E40" s="156"/>
+      <c r="F40" s="156"/>
+      <c r="G40" s="156"/>
+      <c r="H40" s="156"/>
+      <c r="I40" s="156"/>
+      <c r="J40" s="156"/>
+      <c r="K40" s="156"/>
+      <c r="L40" s="156"/>
+      <c r="M40" s="156"/>
+      <c r="N40" s="156"/>
+      <c r="O40" s="156"/>
+      <c r="P40" s="156"/>
+      <c r="Q40" s="156"/>
+      <c r="R40" s="156"/>
+      <c r="S40" s="156"/>
+      <c r="T40" s="156"/>
+      <c r="U40" s="156"/>
+      <c r="V40" s="156"/>
+      <c r="W40" s="156"/>
     </row>
     <row r="41" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
-      <c r="B41" s="74"/>
-      <c r="C41" s="74"/>
-      <c r="D41" s="74"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="74"/>
-      <c r="G41" s="74"/>
-      <c r="H41" s="74"/>
-      <c r="I41" s="74"/>
-      <c r="J41" s="74"/>
-      <c r="K41" s="74"/>
-      <c r="L41" s="74"/>
-      <c r="M41" s="74"/>
-      <c r="N41" s="74"/>
-      <c r="O41" s="74"/>
-      <c r="P41" s="74"/>
-      <c r="Q41" s="74"/>
-      <c r="R41" s="74"/>
-      <c r="S41" s="74"/>
-      <c r="T41" s="74"/>
-      <c r="U41" s="74"/>
-      <c r="V41" s="74"/>
-      <c r="W41" s="74"/>
+      <c r="B41" s="156"/>
+      <c r="C41" s="156"/>
+      <c r="D41" s="156"/>
+      <c r="E41" s="156"/>
+      <c r="F41" s="156"/>
+      <c r="G41" s="156"/>
+      <c r="H41" s="156"/>
+      <c r="I41" s="156"/>
+      <c r="J41" s="156"/>
+      <c r="K41" s="156"/>
+      <c r="L41" s="156"/>
+      <c r="M41" s="156"/>
+      <c r="N41" s="156"/>
+      <c r="O41" s="156"/>
+      <c r="P41" s="156"/>
+      <c r="Q41" s="156"/>
+      <c r="R41" s="156"/>
+      <c r="S41" s="156"/>
+      <c r="T41" s="156"/>
+      <c r="U41" s="156"/>
+      <c r="V41" s="156"/>
+      <c r="W41" s="156"/>
     </row>
     <row r="42" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
-      <c r="B42" s="74"/>
-      <c r="C42" s="74"/>
-      <c r="D42" s="74"/>
-      <c r="E42" s="74"/>
-      <c r="F42" s="74"/>
-      <c r="G42" s="74"/>
-      <c r="H42" s="74"/>
-      <c r="I42" s="74"/>
-      <c r="J42" s="74"/>
-      <c r="K42" s="74"/>
-      <c r="L42" s="74"/>
-      <c r="M42" s="74"/>
-      <c r="N42" s="74"/>
-      <c r="O42" s="74"/>
-      <c r="P42" s="74"/>
-      <c r="Q42" s="74"/>
-      <c r="R42" s="74"/>
-      <c r="S42" s="74"/>
-      <c r="T42" s="74"/>
-      <c r="U42" s="74"/>
-      <c r="V42" s="74"/>
-      <c r="W42" s="74"/>
+      <c r="B42" s="156"/>
+      <c r="C42" s="156"/>
+      <c r="D42" s="156"/>
+      <c r="E42" s="156"/>
+      <c r="F42" s="156"/>
+      <c r="G42" s="156"/>
+      <c r="H42" s="156"/>
+      <c r="I42" s="156"/>
+      <c r="J42" s="156"/>
+      <c r="K42" s="156"/>
+      <c r="L42" s="156"/>
+      <c r="M42" s="156"/>
+      <c r="N42" s="156"/>
+      <c r="O42" s="156"/>
+      <c r="P42" s="156"/>
+      <c r="Q42" s="156"/>
+      <c r="R42" s="156"/>
+      <c r="S42" s="156"/>
+      <c r="T42" s="156"/>
+      <c r="U42" s="156"/>
+      <c r="V42" s="156"/>
+      <c r="W42" s="156"/>
     </row>
     <row r="43" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
-      <c r="B43" s="74"/>
-      <c r="C43" s="74"/>
-      <c r="D43" s="74"/>
-      <c r="E43" s="74"/>
-      <c r="F43" s="74"/>
-      <c r="G43" s="74"/>
-      <c r="H43" s="74"/>
-      <c r="I43" s="74"/>
-      <c r="J43" s="74"/>
-      <c r="K43" s="74"/>
-      <c r="L43" s="74"/>
-      <c r="M43" s="74"/>
-      <c r="N43" s="74"/>
-      <c r="O43" s="74"/>
-      <c r="P43" s="74"/>
-      <c r="Q43" s="74"/>
-      <c r="R43" s="74"/>
-      <c r="S43" s="74"/>
-      <c r="T43" s="74"/>
-      <c r="U43" s="74"/>
-      <c r="V43" s="74"/>
-      <c r="W43" s="74"/>
+      <c r="B43" s="156"/>
+      <c r="C43" s="156"/>
+      <c r="D43" s="156"/>
+      <c r="E43" s="156"/>
+      <c r="F43" s="156"/>
+      <c r="G43" s="156"/>
+      <c r="H43" s="156"/>
+      <c r="I43" s="156"/>
+      <c r="J43" s="156"/>
+      <c r="K43" s="156"/>
+      <c r="L43" s="156"/>
+      <c r="M43" s="156"/>
+      <c r="N43" s="156"/>
+      <c r="O43" s="156"/>
+      <c r="P43" s="156"/>
+      <c r="Q43" s="156"/>
+      <c r="R43" s="156"/>
+      <c r="S43" s="156"/>
+      <c r="T43" s="156"/>
+      <c r="U43" s="156"/>
+      <c r="V43" s="156"/>
+      <c r="W43" s="156"/>
     </row>
     <row r="44" spans="1:32" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
-      <c r="B44" s="74"/>
-      <c r="C44" s="74"/>
-      <c r="D44" s="74"/>
-      <c r="E44" s="74"/>
-      <c r="F44" s="74"/>
-      <c r="G44" s="74"/>
-      <c r="H44" s="74"/>
-      <c r="I44" s="74"/>
-      <c r="J44" s="74"/>
-      <c r="K44" s="74"/>
-      <c r="L44" s="74"/>
-      <c r="M44" s="74"/>
-      <c r="N44" s="74"/>
-      <c r="O44" s="74"/>
-      <c r="P44" s="74"/>
-      <c r="Q44" s="74"/>
-      <c r="R44" s="74"/>
-      <c r="S44" s="74"/>
-      <c r="T44" s="74"/>
-      <c r="U44" s="74"/>
-      <c r="V44" s="74"/>
-      <c r="W44" s="74"/>
-      <c r="AB44" s="174" t="s">
+      <c r="B44" s="156"/>
+      <c r="C44" s="156"/>
+      <c r="D44" s="156"/>
+      <c r="E44" s="156"/>
+      <c r="F44" s="156"/>
+      <c r="G44" s="156"/>
+      <c r="H44" s="156"/>
+      <c r="I44" s="156"/>
+      <c r="J44" s="156"/>
+      <c r="K44" s="156"/>
+      <c r="L44" s="156"/>
+      <c r="M44" s="156"/>
+      <c r="N44" s="156"/>
+      <c r="O44" s="156"/>
+      <c r="P44" s="156"/>
+      <c r="Q44" s="156"/>
+      <c r="R44" s="156"/>
+      <c r="S44" s="156"/>
+      <c r="T44" s="156"/>
+      <c r="U44" s="156"/>
+      <c r="V44" s="156"/>
+      <c r="W44" s="156"/>
+      <c r="AB44" s="233" t="s">
         <v>39</v>
       </c>
-      <c r="AC44" s="175"/>
-      <c r="AD44" s="175"/>
-      <c r="AE44" s="175"/>
-      <c r="AF44" s="175"/>
+      <c r="AC44" s="234"/>
+      <c r="AD44" s="234"/>
+      <c r="AE44" s="234"/>
+      <c r="AF44" s="234"/>
     </row>
     <row r="45" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
@@ -5597,11 +5841,11 @@
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
       <c r="W45" s="6"/>
-      <c r="AB45" s="172"/>
-      <c r="AC45" s="173"/>
-      <c r="AD45" s="173"/>
-      <c r="AE45" s="173"/>
-      <c r="AF45" s="173"/>
+      <c r="AB45" s="231"/>
+      <c r="AC45" s="232"/>
+      <c r="AD45" s="232"/>
+      <c r="AE45" s="232"/>
+      <c r="AF45" s="232"/>
     </row>
     <row r="46" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
@@ -5639,10 +5883,12 @@
     </row>
     <row r="47" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
+      <c r="B47" s="241" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="241"/>
+      <c r="D47" s="241"/>
+      <c r="E47" s="241"/>
       <c r="F47" s="31"/>
       <c r="G47" s="31"/>
       <c r="H47" s="31"/>
@@ -5673,28 +5919,36 @@
     </row>
     <row r="48" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
-      <c r="U48" s="2"/>
-      <c r="V48" s="2"/>
-      <c r="W48" s="2"/>
+      <c r="B48" s="242" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="242"/>
+      <c r="D48" s="242" t="s">
+        <v>61</v>
+      </c>
+      <c r="E48" s="242"/>
+      <c r="F48" s="242"/>
+      <c r="G48" s="242"/>
+      <c r="H48" s="242" t="s">
+        <v>62</v>
+      </c>
+      <c r="I48" s="242"/>
+      <c r="J48" s="242"/>
+      <c r="K48" s="242"/>
+      <c r="L48" s="242"/>
+      <c r="M48" s="242"/>
+      <c r="N48" s="242"/>
+      <c r="O48" s="242" t="s">
+        <v>63</v>
+      </c>
+      <c r="P48" s="242"/>
+      <c r="Q48" s="242"/>
+      <c r="R48" s="242"/>
+      <c r="S48" s="242"/>
+      <c r="T48" s="242"/>
+      <c r="U48" s="242"/>
+      <c r="V48" s="242"/>
+      <c r="W48" s="242"/>
       <c r="X48" s="2"/>
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
@@ -5707,28 +5961,36 @@
     </row>
     <row r="49" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-      <c r="U49" s="2"/>
-      <c r="V49" s="2"/>
-      <c r="W49" s="2"/>
+      <c r="B49" s="243" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="243"/>
+      <c r="D49" s="244" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49" s="244"/>
+      <c r="F49" s="244"/>
+      <c r="G49" s="244"/>
+      <c r="H49" s="244" t="s">
+        <v>66</v>
+      </c>
+      <c r="I49" s="244"/>
+      <c r="J49" s="244"/>
+      <c r="K49" s="244"/>
+      <c r="L49" s="244"/>
+      <c r="M49" s="244"/>
+      <c r="N49" s="244"/>
+      <c r="O49" s="244" t="s">
+        <v>67</v>
+      </c>
+      <c r="P49" s="244"/>
+      <c r="Q49" s="244"/>
+      <c r="R49" s="244"/>
+      <c r="S49" s="244"/>
+      <c r="T49" s="244"/>
+      <c r="U49" s="244"/>
+      <c r="V49" s="244"/>
+      <c r="W49" s="244"/>
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
@@ -5741,28 +6003,36 @@
     </row>
     <row r="50" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
-      <c r="U50" s="2"/>
-      <c r="V50" s="2"/>
-      <c r="W50" s="2"/>
+      <c r="B50" s="243" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="243"/>
+      <c r="D50" s="244" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="244"/>
+      <c r="F50" s="244"/>
+      <c r="G50" s="244"/>
+      <c r="H50" s="244" t="s">
+        <v>70</v>
+      </c>
+      <c r="I50" s="244"/>
+      <c r="J50" s="244"/>
+      <c r="K50" s="244"/>
+      <c r="L50" s="244"/>
+      <c r="M50" s="244"/>
+      <c r="N50" s="244"/>
+      <c r="O50" s="244" t="s">
+        <v>71</v>
+      </c>
+      <c r="P50" s="244"/>
+      <c r="Q50" s="244"/>
+      <c r="R50" s="244"/>
+      <c r="S50" s="244"/>
+      <c r="T50" s="244"/>
+      <c r="U50" s="244"/>
+      <c r="V50" s="244"/>
+      <c r="W50" s="244"/>
       <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
@@ -5775,28 +6045,36 @@
     </row>
     <row r="51" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
-      <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
-      <c r="U51" s="6"/>
-      <c r="V51" s="6"/>
-      <c r="W51" s="6"/>
+      <c r="B51" s="243" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" s="243"/>
+      <c r="D51" s="245" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51" s="245"/>
+      <c r="F51" s="245"/>
+      <c r="G51" s="245"/>
+      <c r="H51" s="246" t="s">
+        <v>74</v>
+      </c>
+      <c r="I51" s="246"/>
+      <c r="J51" s="246"/>
+      <c r="K51" s="246"/>
+      <c r="L51" s="246"/>
+      <c r="M51" s="246"/>
+      <c r="N51" s="246"/>
+      <c r="O51" s="246" t="s">
+        <v>75</v>
+      </c>
+      <c r="P51" s="246"/>
+      <c r="Q51" s="246"/>
+      <c r="R51" s="246"/>
+      <c r="S51" s="246"/>
+      <c r="T51" s="246"/>
+      <c r="U51" s="246"/>
+      <c r="V51" s="246"/>
+      <c r="W51" s="246"/>
       <c r="X51" s="6"/>
       <c r="Y51" s="6"/>
       <c r="Z51" s="6"/>
@@ -5809,28 +6087,30 @@
     </row>
     <row r="52" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="6"/>
-      <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
-      <c r="U52" s="6"/>
-      <c r="V52" s="6"/>
-      <c r="W52" s="6"/>
+      <c r="B52" s="247" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" s="247"/>
+      <c r="D52" s="247"/>
+      <c r="E52" s="247"/>
+      <c r="F52" s="247"/>
+      <c r="G52" s="247"/>
+      <c r="H52" s="247"/>
+      <c r="I52" s="247"/>
+      <c r="J52" s="247"/>
+      <c r="K52" s="247"/>
+      <c r="L52" s="247"/>
+      <c r="M52" s="247"/>
+      <c r="N52" s="247"/>
+      <c r="O52" s="247"/>
+      <c r="P52" s="247"/>
+      <c r="Q52" s="247"/>
+      <c r="R52" s="247"/>
+      <c r="S52" s="247"/>
+      <c r="T52" s="247"/>
+      <c r="U52" s="247"/>
+      <c r="V52" s="247"/>
+      <c r="W52" s="247"/>
       <c r="X52" s="6"/>
       <c r="Y52" s="6"/>
       <c r="Z52" s="6"/>
@@ -5842,124 +6122,174 @@
       <c r="AF52" s="6"/>
     </row>
     <row r="63" spans="1:32" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B63" s="98" t="s">
+      <c r="B63" s="146" t="s">
         <v>24</v>
       </c>
-      <c r="C63" s="125"/>
-      <c r="D63" s="125"/>
-      <c r="E63" s="125"/>
-      <c r="F63" s="125"/>
-      <c r="G63" s="125"/>
-      <c r="H63" s="125"/>
-      <c r="I63" s="125"/>
-      <c r="J63" s="125"/>
-      <c r="K63" s="125"/>
-      <c r="L63" s="125"/>
-      <c r="M63" s="125"/>
-      <c r="N63" s="125"/>
-      <c r="O63" s="125"/>
-      <c r="P63" s="125"/>
-      <c r="Q63" s="125"/>
-      <c r="R63" s="125"/>
-      <c r="S63" s="125"/>
-      <c r="T63" s="125"/>
-      <c r="U63" s="125"/>
-      <c r="V63" s="125"/>
-      <c r="W63" s="125"/>
-      <c r="X63" s="125"/>
-      <c r="Y63" s="125"/>
-      <c r="Z63" s="125"/>
-      <c r="AA63" s="125"/>
-      <c r="AB63" s="125"/>
-      <c r="AC63" s="125"/>
-      <c r="AD63" s="125"/>
-      <c r="AE63" s="125"/>
-      <c r="AF63" s="125"/>
+      <c r="C63" s="103"/>
+      <c r="D63" s="103"/>
+      <c r="E63" s="103"/>
+      <c r="F63" s="103"/>
+      <c r="G63" s="103"/>
+      <c r="H63" s="103"/>
+      <c r="I63" s="103"/>
+      <c r="J63" s="103"/>
+      <c r="K63" s="103"/>
+      <c r="L63" s="103"/>
+      <c r="M63" s="103"/>
+      <c r="N63" s="103"/>
+      <c r="O63" s="103"/>
+      <c r="P63" s="103"/>
+      <c r="Q63" s="103"/>
+      <c r="R63" s="103"/>
+      <c r="S63" s="103"/>
+      <c r="T63" s="103"/>
+      <c r="U63" s="103"/>
+      <c r="V63" s="103"/>
+      <c r="W63" s="103"/>
+      <c r="X63" s="103"/>
+      <c r="Y63" s="103"/>
+      <c r="Z63" s="103"/>
+      <c r="AA63" s="103"/>
+      <c r="AB63" s="103"/>
+      <c r="AC63" s="103"/>
+      <c r="AD63" s="103"/>
+      <c r="AE63" s="103"/>
+      <c r="AF63" s="103"/>
     </row>
     <row r="64" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="99" t="s">
+      <c r="B64" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="C64" s="125"/>
-      <c r="D64" s="125"/>
-      <c r="E64" s="125"/>
-      <c r="F64" s="125"/>
-      <c r="G64" s="125"/>
-      <c r="H64" s="125"/>
-      <c r="I64" s="125"/>
-      <c r="J64" s="125"/>
-      <c r="K64" s="125"/>
-      <c r="L64" s="125"/>
-      <c r="M64" s="125"/>
-      <c r="N64" s="125"/>
-      <c r="O64" s="125"/>
-      <c r="P64" s="125"/>
-      <c r="Q64" s="125"/>
-      <c r="R64" s="125"/>
-      <c r="S64" s="125"/>
-      <c r="T64" s="125"/>
-      <c r="U64" s="125"/>
-      <c r="V64" s="125"/>
-      <c r="W64" s="125"/>
-      <c r="X64" s="125"/>
-      <c r="Y64" s="125"/>
-      <c r="Z64" s="125"/>
-      <c r="AA64" s="125"/>
-      <c r="AB64" s="125"/>
-      <c r="AC64" s="125"/>
-      <c r="AD64" s="125"/>
-      <c r="AE64" s="125"/>
-      <c r="AF64" s="125"/>
+      <c r="C64" s="103"/>
+      <c r="D64" s="103"/>
+      <c r="E64" s="103"/>
+      <c r="F64" s="103"/>
+      <c r="G64" s="103"/>
+      <c r="H64" s="103"/>
+      <c r="I64" s="103"/>
+      <c r="J64" s="103"/>
+      <c r="K64" s="103"/>
+      <c r="L64" s="103"/>
+      <c r="M64" s="103"/>
+      <c r="N64" s="103"/>
+      <c r="O64" s="103"/>
+      <c r="P64" s="103"/>
+      <c r="Q64" s="103"/>
+      <c r="R64" s="103"/>
+      <c r="S64" s="103"/>
+      <c r="T64" s="103"/>
+      <c r="U64" s="103"/>
+      <c r="V64" s="103"/>
+      <c r="W64" s="103"/>
+      <c r="X64" s="103"/>
+      <c r="Y64" s="103"/>
+      <c r="Z64" s="103"/>
+      <c r="AA64" s="103"/>
+      <c r="AB64" s="103"/>
+      <c r="AC64" s="103"/>
+      <c r="AD64" s="103"/>
+      <c r="AE64" s="103"/>
+      <c r="AF64" s="103"/>
     </row>
     <row r="65" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="99" t="s">
+      <c r="B65" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="C65" s="125"/>
-      <c r="D65" s="125"/>
-      <c r="E65" s="125"/>
-      <c r="F65" s="125"/>
-      <c r="G65" s="125"/>
-      <c r="H65" s="125"/>
-      <c r="I65" s="125"/>
-      <c r="J65" s="125"/>
-      <c r="K65" s="125"/>
-      <c r="L65" s="125"/>
-      <c r="M65" s="125"/>
-      <c r="N65" s="125"/>
-      <c r="O65" s="125"/>
-      <c r="P65" s="125"/>
-      <c r="Q65" s="125"/>
-      <c r="R65" s="125"/>
-      <c r="S65" s="125"/>
-      <c r="T65" s="125"/>
-      <c r="U65" s="125"/>
-      <c r="V65" s="125"/>
-      <c r="W65" s="125"/>
-      <c r="X65" s="125"/>
-      <c r="Y65" s="125"/>
-      <c r="Z65" s="125"/>
-      <c r="AA65" s="125"/>
-      <c r="AB65" s="125"/>
-      <c r="AC65" s="125"/>
-      <c r="AD65" s="125"/>
-      <c r="AE65" s="125"/>
-      <c r="AF65" s="125"/>
+      <c r="C65" s="103"/>
+      <c r="D65" s="103"/>
+      <c r="E65" s="103"/>
+      <c r="F65" s="103"/>
+      <c r="G65" s="103"/>
+      <c r="H65" s="103"/>
+      <c r="I65" s="103"/>
+      <c r="J65" s="103"/>
+      <c r="K65" s="103"/>
+      <c r="L65" s="103"/>
+      <c r="M65" s="103"/>
+      <c r="N65" s="103"/>
+      <c r="O65" s="103"/>
+      <c r="P65" s="103"/>
+      <c r="Q65" s="103"/>
+      <c r="R65" s="103"/>
+      <c r="S65" s="103"/>
+      <c r="T65" s="103"/>
+      <c r="U65" s="103"/>
+      <c r="V65" s="103"/>
+      <c r="W65" s="103"/>
+      <c r="X65" s="103"/>
+      <c r="Y65" s="103"/>
+      <c r="Z65" s="103"/>
+      <c r="AA65" s="103"/>
+      <c r="AB65" s="103"/>
+      <c r="AC65" s="103"/>
+      <c r="AD65" s="103"/>
+      <c r="AE65" s="103"/>
+      <c r="AF65" s="103"/>
     </row>
   </sheetData>
-  <mergeCells count="76">
-    <mergeCell ref="F22:J23"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="T28:AB28"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="AD17:AD18"/>
-    <mergeCell ref="AE17:AF18"/>
-    <mergeCell ref="Q20:W20"/>
-    <mergeCell ref="K16:AB16"/>
-    <mergeCell ref="K20:N20"/>
+  <mergeCells count="94">
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="H51:N51"/>
+    <mergeCell ref="O51:W51"/>
+    <mergeCell ref="B52:W52"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="H49:N49"/>
+    <mergeCell ref="O49:W49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="H50:N50"/>
+    <mergeCell ref="O50:W50"/>
+    <mergeCell ref="S22:AB22"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="H48:N48"/>
+    <mergeCell ref="O48:W48"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="K25:W25"/>
+    <mergeCell ref="AB45:AF45"/>
+    <mergeCell ref="AB44:AF44"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="G33:AF33"/>
+    <mergeCell ref="AB37:AF39"/>
+    <mergeCell ref="B38:W44"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B21:E24"/>
+    <mergeCell ref="K24:AB24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="T27:AB27"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F17:J18"/>
+    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="S17:AB17"/>
+    <mergeCell ref="B16:E19"/>
+    <mergeCell ref="S23:AB23"/>
+    <mergeCell ref="T29:AB29"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="B4:AF4"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="K19:AB19"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="I5:Z5"/>
+    <mergeCell ref="B13:AB14"/>
+    <mergeCell ref="AD8:AF9"/>
+    <mergeCell ref="AD13:AF14"/>
+    <mergeCell ref="Q8:X9"/>
+    <mergeCell ref="S18:AB18"/>
+    <mergeCell ref="Y8:AC9"/>
+    <mergeCell ref="Q10:X11"/>
+    <mergeCell ref="AD10:AF11"/>
+    <mergeCell ref="B6:H9"/>
     <mergeCell ref="B2:AF3"/>
     <mergeCell ref="AB5:AE5"/>
     <mergeCell ref="B65:AF65"/>
@@ -5976,54 +6306,22 @@
     <mergeCell ref="B64:AF64"/>
     <mergeCell ref="T30:AB30"/>
     <mergeCell ref="F24:J24"/>
-    <mergeCell ref="B4:AF4"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="K19:AB19"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="I5:Z5"/>
-    <mergeCell ref="B13:AB14"/>
-    <mergeCell ref="AD8:AF9"/>
-    <mergeCell ref="AD13:AF14"/>
-    <mergeCell ref="Q8:X9"/>
-    <mergeCell ref="S18:AB18"/>
-    <mergeCell ref="Y8:AC9"/>
-    <mergeCell ref="Q10:X11"/>
-    <mergeCell ref="AD10:AF11"/>
-    <mergeCell ref="B6:H9"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B21:E24"/>
-    <mergeCell ref="K24:AB24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="T27:AB27"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F17:J18"/>
-    <mergeCell ref="K17:Q17"/>
-    <mergeCell ref="S17:AB17"/>
-    <mergeCell ref="B16:E19"/>
-    <mergeCell ref="S23:AB23"/>
-    <mergeCell ref="T29:AB29"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="F22:J23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="T28:AB28"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="AD17:AD18"/>
+    <mergeCell ref="AE17:AF18"/>
+    <mergeCell ref="Q20:W20"/>
+    <mergeCell ref="K16:AB16"/>
+    <mergeCell ref="K20:N20"/>
     <mergeCell ref="AD22:AD23"/>
     <mergeCell ref="AE22:AF23"/>
-    <mergeCell ref="AB45:AF45"/>
-    <mergeCell ref="AB44:AF44"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="G33:AF33"/>
-    <mergeCell ref="AB37:AF39"/>
     <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="K25:W25"/>
-    <mergeCell ref="B38:W44"/>
     <mergeCell ref="K22:Q22"/>
-    <mergeCell ref="S22:AB22"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E11:H11" xr:uid="{00000000-0002-0000-0100-000000000000}"/>

--- a/template/template.xlsx
+++ b/template/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrmau\Documents\Cevin\SysBill\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432EACA5-04F9-4685-B7C5-12FA43D8C3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F215DA-8EED-4A09-AFBC-25E7D5305B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4110" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UT" sheetId="1" r:id="rId1"/>
@@ -220,9 +220,6 @@
     <t>Ppju + Common Area</t>
   </si>
   <si>
-    <t>Admin Fee (5%) :</t>
-  </si>
-  <si>
     <t>Attention :
 1. Payment by transfer to Bank BCA Virtual Account above.
 2. Payment by transfer must state the unit number.
@@ -234,9 +231,6 @@
 5. Please avoid this invoice, if payment has been made.</t>
   </si>
   <si>
-    <t>Common Area</t>
-  </si>
-  <si>
     <t>Late Charges :</t>
   </si>
   <si>
@@ -292,6 +286,12 @@
   </si>
   <si>
     <t>**Denda mulai dikenakan dari tanggal 26 dan seterusnya</t>
+  </si>
+  <si>
+    <t>Admin Fee (5% SC) :</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
   </si>
 </sst>
 </file>
@@ -615,7 +615,7 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="248">
+  <cellXfs count="256">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
@@ -814,6 +814,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
@@ -823,6 +827,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -856,45 +884,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -929,6 +941,63 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -944,107 +1013,74 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
@@ -1055,68 +1091,24 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1234,12 +1226,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1258,57 +1244,89 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1907,8 +1925,8 @@
   </sheetPr>
   <dimension ref="A1:AL64"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50:W55"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1948,146 +1966,146 @@
     <row r="1" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:38" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="89"/>
-      <c r="V2" s="89"/>
-      <c r="W2" s="89"/>
-      <c r="X2" s="89"/>
-      <c r="Y2" s="89"/>
-      <c r="Z2" s="89"/>
-      <c r="AA2" s="89"/>
-      <c r="AB2" s="89"/>
-      <c r="AC2" s="89"/>
-      <c r="AD2" s="89"/>
-      <c r="AE2" s="89"/>
-      <c r="AF2" s="89"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="75"/>
     </row>
     <row r="3" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="89"/>
-      <c r="S3" s="89"/>
-      <c r="T3" s="89"/>
-      <c r="U3" s="89"/>
-      <c r="V3" s="89"/>
-      <c r="W3" s="89"/>
-      <c r="X3" s="89"/>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="89"/>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="89"/>
-      <c r="AC3" s="89"/>
-      <c r="AD3" s="89"/>
-      <c r="AE3" s="89"/>
-      <c r="AF3" s="89"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="75"/>
+      <c r="U3" s="75"/>
+      <c r="V3" s="75"/>
+      <c r="W3" s="75"/>
+      <c r="X3" s="75"/>
+      <c r="Y3" s="75"/>
+      <c r="Z3" s="75"/>
+      <c r="AA3" s="75"/>
+      <c r="AB3" s="75"/>
+      <c r="AC3" s="75"/>
+      <c r="AD3" s="75"/>
+      <c r="AE3" s="75"/>
+      <c r="AF3" s="75"/>
     </row>
     <row r="4" spans="1:38" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="140" t="s">
+      <c r="B4" s="134" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="89"/>
-      <c r="W4" s="89"/>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="89"/>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="89"/>
-      <c r="AC4" s="89"/>
-      <c r="AD4" s="89"/>
-      <c r="AE4" s="89"/>
-      <c r="AF4" s="89"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="75"/>
+      <c r="W4" s="75"/>
+      <c r="X4" s="75"/>
+      <c r="Y4" s="75"/>
+      <c r="Z4" s="75"/>
+      <c r="AA4" s="75"/>
+      <c r="AB4" s="75"/>
+      <c r="AC4" s="75"/>
+      <c r="AD4" s="75"/>
+      <c r="AE4" s="75"/>
+      <c r="AF4" s="75"/>
     </row>
     <row r="5" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="89"/>
-      <c r="S5" s="89"/>
-      <c r="T5" s="89"/>
-      <c r="U5" s="89"/>
-      <c r="V5" s="89"/>
-      <c r="W5" s="89"/>
-      <c r="X5" s="89"/>
-      <c r="Y5" s="89"/>
-      <c r="Z5" s="89"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="75"/>
+      <c r="T5" s="75"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
+      <c r="W5" s="75"/>
+      <c r="X5" s="75"/>
+      <c r="Y5" s="75"/>
+      <c r="Z5" s="75"/>
       <c r="AA5" s="7"/>
-      <c r="AB5" s="88" t="s">
+      <c r="AB5" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="AC5" s="89"/>
-      <c r="AD5" s="89"/>
-      <c r="AE5" s="89"/>
+      <c r="AC5" s="75"/>
+      <c r="AD5" s="75"/>
+      <c r="AE5" s="75"/>
       <c r="AF5" s="46" t="s">
         <v>51</v>
       </c>
@@ -2100,15 +2118,15 @@
     </row>
     <row r="6" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="137" t="s">
+      <c r="B6" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -2118,35 +2136,35 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
-      <c r="R6" s="128"/>
-      <c r="S6" s="89"/>
-      <c r="T6" s="89"/>
-      <c r="U6" s="89"/>
-      <c r="V6" s="89"/>
-      <c r="W6" s="89"/>
-      <c r="X6" s="105"/>
-      <c r="Y6" s="89"/>
+      <c r="R6" s="122"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="75"/>
+      <c r="W6" s="75"/>
+      <c r="X6" s="109"/>
+      <c r="Y6" s="75"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="7"/>
-      <c r="AB6" s="88" t="s">
+      <c r="AB6" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="AC6" s="89"/>
-      <c r="AD6" s="89"/>
-      <c r="AE6" s="89"/>
+      <c r="AC6" s="75"/>
+      <c r="AD6" s="75"/>
+      <c r="AE6" s="75"/>
       <c r="AF6" s="45" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -2174,13 +2192,13 @@
     </row>
     <row r="8" spans="1:38" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -2189,38 +2207,38 @@
       <c r="N8" s="9"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
-      <c r="Q8" s="108" t="s">
+      <c r="Q8" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="109"/>
-      <c r="S8" s="109"/>
-      <c r="T8" s="109"/>
-      <c r="U8" s="109"/>
-      <c r="V8" s="109"/>
-      <c r="W8" s="109"/>
-      <c r="X8" s="110"/>
-      <c r="Y8" s="108" t="s">
+      <c r="R8" s="113"/>
+      <c r="S8" s="113"/>
+      <c r="T8" s="113"/>
+      <c r="U8" s="113"/>
+      <c r="V8" s="113"/>
+      <c r="W8" s="113"/>
+      <c r="X8" s="114"/>
+      <c r="Y8" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="Z8" s="109"/>
-      <c r="AA8" s="109"/>
-      <c r="AB8" s="109"/>
-      <c r="AC8" s="110"/>
-      <c r="AD8" s="108" t="s">
+      <c r="Z8" s="113"/>
+      <c r="AA8" s="113"/>
+      <c r="AB8" s="113"/>
+      <c r="AC8" s="114"/>
+      <c r="AD8" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AE8" s="109"/>
-      <c r="AF8" s="110"/>
+      <c r="AE8" s="113"/>
+      <c r="AF8" s="114"/>
     </row>
     <row r="9" spans="1:38" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="103"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -2229,22 +2247,22 @@
       <c r="N9" s="9"/>
       <c r="O9" s="6"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="111"/>
-      <c r="R9" s="112"/>
-      <c r="S9" s="112"/>
-      <c r="T9" s="112"/>
-      <c r="U9" s="112"/>
-      <c r="V9" s="112"/>
-      <c r="W9" s="112"/>
-      <c r="X9" s="113"/>
-      <c r="Y9" s="111"/>
-      <c r="Z9" s="112"/>
-      <c r="AA9" s="112"/>
-      <c r="AB9" s="112"/>
-      <c r="AC9" s="113"/>
-      <c r="AD9" s="111"/>
-      <c r="AE9" s="112"/>
-      <c r="AF9" s="113"/>
+      <c r="Q9" s="115"/>
+      <c r="R9" s="116"/>
+      <c r="S9" s="116"/>
+      <c r="T9" s="116"/>
+      <c r="U9" s="116"/>
+      <c r="V9" s="116"/>
+      <c r="W9" s="116"/>
+      <c r="X9" s="117"/>
+      <c r="Y9" s="115"/>
+      <c r="Z9" s="116"/>
+      <c r="AA9" s="116"/>
+      <c r="AB9" s="116"/>
+      <c r="AC9" s="117"/>
+      <c r="AD9" s="115"/>
+      <c r="AE9" s="116"/>
+      <c r="AF9" s="117"/>
     </row>
     <row r="10" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -2263,44 +2281,44 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="118">
+      <c r="Q10" s="141">
         <v>44986</v>
       </c>
-      <c r="R10" s="109"/>
-      <c r="S10" s="109"/>
-      <c r="T10" s="109"/>
-      <c r="U10" s="109"/>
-      <c r="V10" s="109"/>
-      <c r="W10" s="109"/>
-      <c r="X10" s="110"/>
-      <c r="Y10" s="121">
+      <c r="R10" s="113"/>
+      <c r="S10" s="113"/>
+      <c r="T10" s="113"/>
+      <c r="U10" s="113"/>
+      <c r="V10" s="113"/>
+      <c r="W10" s="113"/>
+      <c r="X10" s="114"/>
+      <c r="Y10" s="144">
         <v>0</v>
       </c>
-      <c r="Z10" s="109"/>
-      <c r="AA10" s="109"/>
-      <c r="AB10" s="109"/>
-      <c r="AC10" s="110"/>
-      <c r="AD10" s="143" t="s">
+      <c r="Z10" s="113"/>
+      <c r="AA10" s="113"/>
+      <c r="AB10" s="113"/>
+      <c r="AC10" s="114"/>
+      <c r="AD10" s="137" t="s">
         <v>43</v>
       </c>
-      <c r="AE10" s="109"/>
-      <c r="AF10" s="110"/>
+      <c r="AE10" s="113"/>
+      <c r="AF10" s="114"/>
     </row>
     <row r="11" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="103"/>
+      <c r="C11" s="107"/>
       <c r="D11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="102" t="s">
+      <c r="E11" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -2309,22 +2327,22 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="111"/>
-      <c r="R11" s="112"/>
-      <c r="S11" s="112"/>
-      <c r="T11" s="112"/>
-      <c r="U11" s="112"/>
-      <c r="V11" s="112"/>
-      <c r="W11" s="112"/>
-      <c r="X11" s="113"/>
-      <c r="Y11" s="111"/>
-      <c r="Z11" s="112"/>
-      <c r="AA11" s="112"/>
-      <c r="AB11" s="112"/>
-      <c r="AC11" s="113"/>
-      <c r="AD11" s="111"/>
-      <c r="AE11" s="112"/>
-      <c r="AF11" s="113"/>
+      <c r="Q11" s="115"/>
+      <c r="R11" s="116"/>
+      <c r="S11" s="116"/>
+      <c r="T11" s="116"/>
+      <c r="U11" s="116"/>
+      <c r="V11" s="116"/>
+      <c r="W11" s="116"/>
+      <c r="X11" s="117"/>
+      <c r="Y11" s="115"/>
+      <c r="Z11" s="116"/>
+      <c r="AA11" s="116"/>
+      <c r="AB11" s="116"/>
+      <c r="AC11" s="117"/>
+      <c r="AD11" s="115"/>
+      <c r="AE11" s="116"/>
+      <c r="AF11" s="117"/>
     </row>
     <row r="12" spans="1:38" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -2362,77 +2380,77 @@
     </row>
     <row r="13" spans="1:38" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="125" t="s">
+      <c r="B13" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="125"/>
-      <c r="K13" s="125"/>
-      <c r="L13" s="125"/>
-      <c r="M13" s="125"/>
-      <c r="N13" s="125"/>
-      <c r="O13" s="125"/>
-      <c r="P13" s="125"/>
-      <c r="Q13" s="125"/>
-      <c r="R13" s="125"/>
-      <c r="S13" s="125"/>
-      <c r="T13" s="125"/>
-      <c r="U13" s="125"/>
-      <c r="V13" s="125"/>
-      <c r="W13" s="125"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="103"/>
+      <c r="O13" s="103"/>
+      <c r="P13" s="103"/>
+      <c r="Q13" s="103"/>
+      <c r="R13" s="103"/>
+      <c r="S13" s="103"/>
+      <c r="T13" s="103"/>
+      <c r="U13" s="103"/>
+      <c r="V13" s="103"/>
+      <c r="W13" s="103"/>
       <c r="X13" s="40"/>
       <c r="Y13" s="40"/>
       <c r="Z13" s="40"/>
-      <c r="AA13" s="125" t="s">
+      <c r="AA13" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="AB13" s="125"/>
-      <c r="AC13" s="125"/>
-      <c r="AD13" s="119" t="s">
+      <c r="AB13" s="103"/>
+      <c r="AC13" s="103"/>
+      <c r="AD13" s="142" t="s">
         <v>9</v>
       </c>
-      <c r="AE13" s="109"/>
-      <c r="AF13" s="109"/>
+      <c r="AE13" s="113"/>
+      <c r="AF13" s="113"/>
     </row>
     <row r="14" spans="1:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="126"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="126"/>
-      <c r="E14" s="126"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="126"/>
-      <c r="J14" s="126"/>
-      <c r="K14" s="126"/>
-      <c r="L14" s="126"/>
-      <c r="M14" s="126"/>
-      <c r="N14" s="126"/>
-      <c r="O14" s="126"/>
-      <c r="P14" s="126"/>
-      <c r="Q14" s="126"/>
-      <c r="R14" s="126"/>
-      <c r="S14" s="126"/>
-      <c r="T14" s="126"/>
-      <c r="U14" s="126"/>
-      <c r="V14" s="126"/>
-      <c r="W14" s="126"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="104"/>
+      <c r="M14" s="104"/>
+      <c r="N14" s="104"/>
+      <c r="O14" s="104"/>
+      <c r="P14" s="104"/>
+      <c r="Q14" s="104"/>
+      <c r="R14" s="104"/>
+      <c r="S14" s="104"/>
+      <c r="T14" s="104"/>
+      <c r="U14" s="104"/>
+      <c r="V14" s="104"/>
+      <c r="W14" s="104"/>
       <c r="X14" s="39"/>
       <c r="Y14" s="39"/>
       <c r="Z14" s="39"/>
-      <c r="AA14" s="126"/>
-      <c r="AB14" s="126"/>
-      <c r="AC14" s="126"/>
-      <c r="AD14" s="112"/>
-      <c r="AE14" s="112"/>
-      <c r="AF14" s="112"/>
+      <c r="AA14" s="104"/>
+      <c r="AB14" s="104"/>
+      <c r="AC14" s="104"/>
+      <c r="AD14" s="116"/>
+      <c r="AE14" s="116"/>
+      <c r="AF14" s="116"/>
     </row>
     <row r="15" spans="1:38" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -2469,121 +2487,121 @@
       <c r="AF15" s="14"/>
     </row>
     <row r="16" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="92"/>
-      <c r="B16" s="138" t="s">
+      <c r="A16" s="74"/>
+      <c r="B16" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="81"/>
-      <c r="D16" s="83" t="s">
+      <c r="C16" s="91"/>
+      <c r="D16" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="76"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="78"/>
       <c r="K16" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="101">
+      <c r="L16" s="102">
         <v>44946</v>
       </c>
-      <c r="M16" s="75"/>
-      <c r="N16" s="75"/>
-      <c r="O16" s="76"/>
-      <c r="P16" s="106" t="s">
+      <c r="M16" s="77"/>
+      <c r="N16" s="77"/>
+      <c r="O16" s="78"/>
+      <c r="P16" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="Q16" s="104" t="s">
+      <c r="Q16" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="R16" s="76"/>
-      <c r="S16" s="101">
+      <c r="R16" s="78"/>
+      <c r="S16" s="102">
         <v>44977</v>
       </c>
-      <c r="T16" s="75"/>
-      <c r="U16" s="75"/>
-      <c r="V16" s="75"/>
-      <c r="W16" s="76"/>
+      <c r="T16" s="77"/>
+      <c r="U16" s="77"/>
+      <c r="V16" s="77"/>
+      <c r="W16" s="78"/>
       <c r="X16" s="38"/>
       <c r="Y16" s="38"/>
       <c r="Z16" s="38"/>
-      <c r="AA16" s="100"/>
-      <c r="AB16" s="100"/>
+      <c r="AA16" s="86"/>
+      <c r="AB16" s="86"/>
       <c r="AC16" s="38"/>
       <c r="AD16" s="42"/>
-      <c r="AE16" s="114"/>
-      <c r="AF16" s="115"/>
+      <c r="AE16" s="118"/>
+      <c r="AF16" s="119"/>
     </row>
     <row r="17" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="89"/>
-      <c r="B17" s="130"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="83" t="s">
+      <c r="A17" s="75"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="79">
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="89">
         <v>1269.0999999999999</v>
       </c>
-      <c r="L17" s="80"/>
-      <c r="M17" s="80"/>
-      <c r="N17" s="80"/>
-      <c r="O17" s="81"/>
-      <c r="P17" s="107"/>
-      <c r="Q17" s="82">
+      <c r="L17" s="90"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="91"/>
+      <c r="P17" s="111"/>
+      <c r="Q17" s="92">
         <v>1269.0999999999999</v>
       </c>
-      <c r="R17" s="80"/>
-      <c r="S17" s="80"/>
-      <c r="T17" s="80"/>
-      <c r="U17" s="80"/>
-      <c r="V17" s="80"/>
-      <c r="W17" s="81"/>
+      <c r="R17" s="90"/>
+      <c r="S17" s="90"/>
+      <c r="T17" s="90"/>
+      <c r="U17" s="90"/>
+      <c r="V17" s="90"/>
+      <c r="W17" s="91"/>
       <c r="X17" s="38"/>
       <c r="Y17" s="38"/>
       <c r="Z17" s="38"/>
-      <c r="AA17" s="100"/>
-      <c r="AB17" s="100"/>
+      <c r="AA17" s="86"/>
+      <c r="AB17" s="86"/>
       <c r="AC17" s="38"/>
       <c r="AD17" s="42"/>
-      <c r="AE17" s="114"/>
-      <c r="AF17" s="115"/>
+      <c r="AE17" s="118"/>
+      <c r="AF17" s="119"/>
     </row>
     <row r="18" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="130"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="83" t="s">
+      <c r="B18" s="124"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="84">
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="94">
         <v>1</v>
       </c>
-      <c r="L18" s="84"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="84"/>
-      <c r="O18" s="84"/>
-      <c r="P18" s="84"/>
-      <c r="Q18" s="84"/>
-      <c r="R18" s="84"/>
-      <c r="S18" s="84"/>
-      <c r="T18" s="84"/>
-      <c r="U18" s="84"/>
-      <c r="V18" s="84"/>
-      <c r="W18" s="84"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="94"/>
+      <c r="P18" s="94"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="94"/>
+      <c r="S18" s="94"/>
+      <c r="T18" s="94"/>
+      <c r="U18" s="94"/>
+      <c r="V18" s="94"/>
+      <c r="W18" s="94"/>
       <c r="X18" s="41"/>
       <c r="Y18" s="41"/>
       <c r="Z18" s="41"/>
@@ -2596,166 +2614,166 @@
     </row>
     <row r="19" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="130"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="85" t="s">
+      <c r="B19" s="124"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="134">
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="128">
         <f>(Q17-K17)*K18</f>
         <v>0</v>
       </c>
-      <c r="L19" s="135"/>
-      <c r="M19" s="135"/>
-      <c r="N19" s="135"/>
-      <c r="O19" s="135"/>
-      <c r="P19" s="135"/>
-      <c r="Q19" s="135"/>
-      <c r="R19" s="135"/>
-      <c r="S19" s="135"/>
-      <c r="T19" s="135"/>
-      <c r="U19" s="135"/>
-      <c r="V19" s="135"/>
-      <c r="W19" s="136"/>
-      <c r="X19" s="90" t="s">
+      <c r="L19" s="129"/>
+      <c r="M19" s="129"/>
+      <c r="N19" s="129"/>
+      <c r="O19" s="129"/>
+      <c r="P19" s="129"/>
+      <c r="Q19" s="129"/>
+      <c r="R19" s="129"/>
+      <c r="S19" s="129"/>
+      <c r="T19" s="129"/>
+      <c r="U19" s="129"/>
+      <c r="V19" s="129"/>
+      <c r="W19" s="130"/>
+      <c r="X19" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="Y19" s="91"/>
-      <c r="Z19" s="91"/>
-      <c r="AA19" s="93">
+      <c r="Y19" s="99"/>
+      <c r="Z19" s="99"/>
+      <c r="AA19" s="79">
         <v>1800</v>
       </c>
-      <c r="AB19" s="93"/>
-      <c r="AC19" s="93"/>
+      <c r="AB19" s="79"/>
+      <c r="AC19" s="79"/>
       <c r="AD19" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE19" s="117">
+      <c r="AE19" s="140">
         <v>0</v>
       </c>
-      <c r="AF19" s="117"/>
+      <c r="AF19" s="140"/>
     </row>
     <row r="20" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="130"/>
-      <c r="C20" s="139"/>
-      <c r="D20" s="86" t="s">
+      <c r="B20" s="124"/>
+      <c r="C20" s="133"/>
+      <c r="D20" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="87"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87" t="s">
+      <c r="E20" s="97"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="I20" s="87"/>
-      <c r="J20" s="151"/>
-      <c r="K20" s="94">
+      <c r="I20" s="97"/>
+      <c r="J20" s="150"/>
+      <c r="K20" s="80">
         <v>88</v>
       </c>
-      <c r="L20" s="95"/>
-      <c r="M20" s="95"/>
-      <c r="N20" s="95"/>
-      <c r="O20" s="95"/>
-      <c r="P20" s="95"/>
-      <c r="Q20" s="95"/>
-      <c r="R20" s="95"/>
-      <c r="S20" s="95"/>
-      <c r="T20" s="95"/>
-      <c r="U20" s="95"/>
-      <c r="V20" s="95"/>
-      <c r="W20" s="96"/>
-      <c r="X20" s="90" t="s">
+      <c r="L20" s="81"/>
+      <c r="M20" s="81"/>
+      <c r="N20" s="81"/>
+      <c r="O20" s="81"/>
+      <c r="P20" s="81"/>
+      <c r="Q20" s="81"/>
+      <c r="R20" s="81"/>
+      <c r="S20" s="81"/>
+      <c r="T20" s="81"/>
+      <c r="U20" s="81"/>
+      <c r="V20" s="81"/>
+      <c r="W20" s="82"/>
+      <c r="X20" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="Y20" s="91"/>
-      <c r="Z20" s="91"/>
-      <c r="AA20" s="93">
+      <c r="Y20" s="99"/>
+      <c r="Z20" s="99"/>
+      <c r="AA20" s="79">
         <v>1800</v>
       </c>
-      <c r="AB20" s="93"/>
-      <c r="AC20" s="93"/>
-      <c r="AD20" s="148" t="s">
+      <c r="AB20" s="79"/>
+      <c r="AC20" s="79"/>
+      <c r="AD20" s="147" t="s">
         <v>17</v>
       </c>
-      <c r="AE20" s="117">
+      <c r="AE20" s="140">
         <f>K20*AA20</f>
         <v>158400</v>
       </c>
-      <c r="AF20" s="117"/>
+      <c r="AF20" s="140"/>
     </row>
     <row r="21" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="130"/>
-      <c r="C21" s="131"/>
-      <c r="D21" s="159" t="s">
+      <c r="B21" s="124"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="156" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="144"/>
-      <c r="F21" s="144"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="138"/>
       <c r="G21" s="47"/>
-      <c r="H21" s="144" t="s">
+      <c r="H21" s="138" t="s">
         <v>45</v>
       </c>
-      <c r="I21" s="144"/>
-      <c r="J21" s="145"/>
-      <c r="K21" s="97"/>
-      <c r="L21" s="98"/>
-      <c r="M21" s="98"/>
-      <c r="N21" s="98"/>
-      <c r="O21" s="98"/>
-      <c r="P21" s="98"/>
-      <c r="Q21" s="98"/>
-      <c r="R21" s="98"/>
-      <c r="S21" s="98"/>
-      <c r="T21" s="98"/>
-      <c r="U21" s="98"/>
-      <c r="V21" s="98"/>
-      <c r="W21" s="99"/>
-      <c r="X21" s="90"/>
-      <c r="Y21" s="91"/>
-      <c r="Z21" s="91"/>
-      <c r="AA21" s="93"/>
-      <c r="AB21" s="93"/>
-      <c r="AC21" s="93"/>
-      <c r="AD21" s="148"/>
-      <c r="AE21" s="117"/>
-      <c r="AF21" s="117"/>
+      <c r="I21" s="138"/>
+      <c r="J21" s="139"/>
+      <c r="K21" s="83"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="84"/>
+      <c r="P21" s="84"/>
+      <c r="Q21" s="84"/>
+      <c r="R21" s="84"/>
+      <c r="S21" s="84"/>
+      <c r="T21" s="84"/>
+      <c r="U21" s="84"/>
+      <c r="V21" s="84"/>
+      <c r="W21" s="85"/>
+      <c r="X21" s="98"/>
+      <c r="Y21" s="99"/>
+      <c r="Z21" s="99"/>
+      <c r="AA21" s="79"/>
+      <c r="AB21" s="79"/>
+      <c r="AC21" s="79"/>
+      <c r="AD21" s="147"/>
+      <c r="AE21" s="140"/>
+      <c r="AF21" s="140"/>
     </row>
     <row r="22" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="130"/>
-      <c r="C22" s="133"/>
-      <c r="D22" s="141" t="s">
+      <c r="B22" s="124"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="135" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="153">
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="152">
         <v>0.05</v>
       </c>
-      <c r="L22" s="154"/>
-      <c r="M22" s="154"/>
-      <c r="N22" s="154"/>
-      <c r="O22" s="154"/>
-      <c r="P22" s="154"/>
-      <c r="Q22" s="154"/>
-      <c r="R22" s="154"/>
-      <c r="S22" s="154"/>
-      <c r="T22" s="154"/>
-      <c r="U22" s="154"/>
-      <c r="V22" s="154"/>
-      <c r="W22" s="155"/>
+      <c r="L22" s="153"/>
+      <c r="M22" s="153"/>
+      <c r="N22" s="153"/>
+      <c r="O22" s="153"/>
+      <c r="P22" s="153"/>
+      <c r="Q22" s="153"/>
+      <c r="R22" s="153"/>
+      <c r="S22" s="153"/>
+      <c r="T22" s="153"/>
+      <c r="U22" s="153"/>
+      <c r="V22" s="153"/>
+      <c r="W22" s="154"/>
       <c r="X22" s="14"/>
       <c r="Y22" s="14"/>
       <c r="Z22" s="14"/>
@@ -2765,11 +2783,11 @@
       <c r="AD22" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE22" s="123">
+      <c r="AE22" s="100">
         <f>AE20*K22</f>
         <v>7920</v>
       </c>
-      <c r="AF22" s="124"/>
+      <c r="AF22" s="101"/>
     </row>
     <row r="23" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
@@ -2804,91 +2822,91 @@
       <c r="AD23" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE23" s="120">
+      <c r="AE23" s="143">
         <f>AE20+AE22</f>
         <v>166320</v>
       </c>
-      <c r="AF23" s="115"/>
+      <c r="AF23" s="119"/>
       <c r="AI23" s="17"/>
     </row>
     <row r="24" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="129" t="s">
+      <c r="B24" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="81"/>
-      <c r="D24" s="74" t="s">
+      <c r="C24" s="91"/>
+      <c r="D24" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="76"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="78"/>
       <c r="K24" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="101">
+      <c r="L24" s="102">
         <v>44946</v>
       </c>
-      <c r="M24" s="75"/>
-      <c r="N24" s="75"/>
-      <c r="O24" s="76"/>
-      <c r="P24" s="77" t="s">
+      <c r="M24" s="77"/>
+      <c r="N24" s="77"/>
+      <c r="O24" s="78"/>
+      <c r="P24" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="Q24" s="77" t="s">
+      <c r="Q24" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="R24" s="76"/>
-      <c r="S24" s="101">
+      <c r="R24" s="78"/>
+      <c r="S24" s="102">
         <v>44977</v>
       </c>
-      <c r="T24" s="75"/>
-      <c r="U24" s="75"/>
-      <c r="V24" s="75"/>
-      <c r="W24" s="76"/>
+      <c r="T24" s="77"/>
+      <c r="U24" s="77"/>
+      <c r="V24" s="77"/>
+      <c r="W24" s="78"/>
       <c r="X24" s="18"/>
       <c r="Y24" s="18"/>
       <c r="Z24" s="18"/>
-      <c r="AA24" s="100"/>
-      <c r="AB24" s="100"/>
+      <c r="AA24" s="86"/>
+      <c r="AB24" s="86"/>
       <c r="AC24" s="18"/>
       <c r="AD24" s="42"/>
-      <c r="AE24" s="149"/>
-      <c r="AF24" s="115"/>
+      <c r="AE24" s="148"/>
+      <c r="AF24" s="119"/>
     </row>
     <row r="25" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="130"/>
-      <c r="C25" s="131"/>
-      <c r="D25" s="74" t="s">
+      <c r="B25" s="124"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="79">
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="89">
         <v>1269.0999999999999</v>
       </c>
-      <c r="L25" s="80"/>
-      <c r="M25" s="80"/>
-      <c r="N25" s="80"/>
-      <c r="O25" s="81"/>
-      <c r="P25" s="78"/>
-      <c r="Q25" s="82">
+      <c r="L25" s="90"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="91"/>
+      <c r="P25" s="88"/>
+      <c r="Q25" s="92">
         <v>1269.0999999999999</v>
       </c>
-      <c r="R25" s="80"/>
-      <c r="S25" s="80"/>
-      <c r="T25" s="80"/>
-      <c r="U25" s="80"/>
-      <c r="V25" s="80"/>
-      <c r="W25" s="81"/>
+      <c r="R25" s="90"/>
+      <c r="S25" s="90"/>
+      <c r="T25" s="90"/>
+      <c r="U25" s="90"/>
+      <c r="V25" s="90"/>
+      <c r="W25" s="91"/>
       <c r="X25" s="20"/>
       <c r="Y25" s="20"/>
       <c r="Z25" s="20"/>
@@ -2896,85 +2914,85 @@
       <c r="AB25" s="21"/>
       <c r="AC25" s="18"/>
       <c r="AD25" s="42"/>
-      <c r="AE25" s="122"/>
-      <c r="AF25" s="115"/>
+      <c r="AE25" s="155"/>
+      <c r="AF25" s="119"/>
     </row>
     <row r="26" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="130"/>
-      <c r="C26" s="131"/>
-      <c r="D26" s="160" t="s">
+      <c r="B26" s="124"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="157" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="142">
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="136">
         <f>Q25-K25</f>
         <v>0</v>
       </c>
-      <c r="L26" s="75"/>
-      <c r="M26" s="75"/>
-      <c r="N26" s="75"/>
-      <c r="O26" s="75"/>
-      <c r="P26" s="75"/>
-      <c r="Q26" s="75"/>
-      <c r="R26" s="75"/>
-      <c r="S26" s="75"/>
-      <c r="T26" s="75"/>
-      <c r="U26" s="75"/>
-      <c r="V26" s="75"/>
-      <c r="W26" s="76"/>
-      <c r="X26" s="91" t="s">
+      <c r="L26" s="77"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="77"/>
+      <c r="O26" s="77"/>
+      <c r="P26" s="77"/>
+      <c r="Q26" s="77"/>
+      <c r="R26" s="77"/>
+      <c r="S26" s="77"/>
+      <c r="T26" s="77"/>
+      <c r="U26" s="77"/>
+      <c r="V26" s="77"/>
+      <c r="W26" s="78"/>
+      <c r="X26" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="Y26" s="115"/>
-      <c r="Z26" s="115"/>
-      <c r="AA26" s="167">
+      <c r="Y26" s="119"/>
+      <c r="Z26" s="119"/>
+      <c r="AA26" s="163">
         <v>1800</v>
       </c>
-      <c r="AB26" s="167"/>
-      <c r="AC26" s="167"/>
+      <c r="AB26" s="163"/>
+      <c r="AC26" s="163"/>
       <c r="AD26" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE26" s="120">
+      <c r="AE26" s="143">
         <f>K26*AA26</f>
         <v>0</v>
       </c>
-      <c r="AF26" s="115"/>
+      <c r="AF26" s="119"/>
     </row>
     <row r="27" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="92"/>
-      <c r="B27" s="130"/>
-      <c r="C27" s="131"/>
-      <c r="D27" s="74" t="s">
+      <c r="A27" s="74"/>
+      <c r="B27" s="124"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="76"/>
-      <c r="K27" s="142">
-        <v>1800</v>
-      </c>
-      <c r="L27" s="75"/>
-      <c r="M27" s="75"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="75"/>
-      <c r="P27" s="75"/>
-      <c r="Q27" s="75"/>
-      <c r="R27" s="75"/>
-      <c r="S27" s="75"/>
-      <c r="T27" s="75"/>
-      <c r="U27" s="75"/>
-      <c r="V27" s="75"/>
-      <c r="W27" s="76"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="136">
+        <v>47510</v>
+      </c>
+      <c r="L27" s="77"/>
+      <c r="M27" s="77"/>
+      <c r="N27" s="77"/>
+      <c r="O27" s="77"/>
+      <c r="P27" s="77"/>
+      <c r="Q27" s="77"/>
+      <c r="R27" s="77"/>
+      <c r="S27" s="77"/>
+      <c r="T27" s="77"/>
+      <c r="U27" s="77"/>
+      <c r="V27" s="77"/>
+      <c r="W27" s="78"/>
       <c r="X27" s="22"/>
       <c r="Y27" s="23"/>
       <c r="Z27" s="23"/>
@@ -2984,40 +3002,40 @@
       <c r="AD27" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE27" s="117">
+      <c r="AE27" s="140">
         <f>K27</f>
-        <v>1800</v>
-      </c>
-      <c r="AF27" s="115"/>
+        <v>47510</v>
+      </c>
+      <c r="AF27" s="119"/>
     </row>
     <row r="28" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="89"/>
-      <c r="B28" s="132"/>
-      <c r="C28" s="133"/>
-      <c r="D28" s="162" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" s="75"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="153">
-        <v>0.03</v>
-      </c>
-      <c r="L28" s="154"/>
-      <c r="M28" s="154"/>
-      <c r="N28" s="154"/>
-      <c r="O28" s="154"/>
-      <c r="P28" s="154"/>
-      <c r="Q28" s="154"/>
-      <c r="R28" s="154"/>
-      <c r="S28" s="154"/>
-      <c r="T28" s="154"/>
-      <c r="U28" s="154"/>
-      <c r="V28" s="154"/>
-      <c r="W28" s="155"/>
+      <c r="A28" s="75"/>
+      <c r="B28" s="126"/>
+      <c r="C28" s="127"/>
+      <c r="D28" s="159" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="136">
+        <v>11000</v>
+      </c>
+      <c r="L28" s="77"/>
+      <c r="M28" s="77"/>
+      <c r="N28" s="77"/>
+      <c r="O28" s="77"/>
+      <c r="P28" s="77"/>
+      <c r="Q28" s="77"/>
+      <c r="R28" s="77"/>
+      <c r="S28" s="77"/>
+      <c r="T28" s="77"/>
+      <c r="U28" s="77"/>
+      <c r="V28" s="77"/>
+      <c r="W28" s="78"/>
       <c r="X28" s="24"/>
       <c r="Y28" s="25"/>
       <c r="Z28" s="25"/>
@@ -3027,14 +3045,14 @@
       <c r="AD28" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE28" s="163">
-        <f>K28*(AE27+AE26)</f>
-        <v>54</v>
-      </c>
-      <c r="AF28" s="164"/>
+      <c r="AE28" s="160">
+        <f>K28</f>
+        <v>11000</v>
+      </c>
+      <c r="AF28" s="160"/>
     </row>
     <row r="29" spans="1:35" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="89"/>
+      <c r="A29" s="75"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="41"/>
@@ -3066,14 +3084,14 @@
       <c r="AD29" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="AE29" s="168">
+      <c r="AE29" s="164">
         <f>AE26+AE27+AE28</f>
-        <v>1854</v>
-      </c>
-      <c r="AF29" s="169"/>
+        <v>58510</v>
+      </c>
+      <c r="AF29" s="165"/>
     </row>
     <row r="30" spans="1:35" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="89"/>
+      <c r="A30" s="75"/>
       <c r="B30" s="26"/>
       <c r="C30" s="26"/>
       <c r="D30" s="64"/>
@@ -3107,7 +3125,7 @@
       <c r="AF30" s="60"/>
     </row>
     <row r="31" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="89"/>
+      <c r="A31" s="75"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="41"/>
@@ -3126,25 +3144,25 @@
       <c r="Q31" s="41"/>
       <c r="R31" s="41"/>
       <c r="S31" s="41"/>
-      <c r="T31" s="152" t="s">
-        <v>58</v>
-      </c>
-      <c r="U31" s="115"/>
-      <c r="V31" s="115"/>
-      <c r="W31" s="115"/>
-      <c r="X31" s="115"/>
-      <c r="Y31" s="115"/>
-      <c r="Z31" s="115"/>
-      <c r="AA31" s="115"/>
-      <c r="AB31" s="115"/>
+      <c r="T31" s="151" t="s">
+        <v>56</v>
+      </c>
+      <c r="U31" s="119"/>
+      <c r="V31" s="119"/>
+      <c r="W31" s="119"/>
+      <c r="X31" s="119"/>
+      <c r="Y31" s="119"/>
+      <c r="Z31" s="119"/>
+      <c r="AA31" s="119"/>
+      <c r="AB31" s="119"/>
       <c r="AC31" s="18"/>
       <c r="AD31" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE31" s="117">
+      <c r="AE31" s="140">
         <v>1800</v>
       </c>
-      <c r="AF31" s="166"/>
+      <c r="AF31" s="162"/>
     </row>
     <row r="32" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="9"/>
@@ -3165,25 +3183,25 @@
       <c r="Q32" s="41"/>
       <c r="R32" s="41"/>
       <c r="S32" s="41"/>
-      <c r="T32" s="152" t="s">
+      <c r="T32" s="151" t="s">
         <v>22</v>
       </c>
-      <c r="U32" s="115"/>
-      <c r="V32" s="115"/>
-      <c r="W32" s="115"/>
-      <c r="X32" s="115"/>
-      <c r="Y32" s="115"/>
-      <c r="Z32" s="115"/>
-      <c r="AA32" s="115"/>
-      <c r="AB32" s="115"/>
+      <c r="U32" s="119"/>
+      <c r="V32" s="119"/>
+      <c r="W32" s="119"/>
+      <c r="X32" s="119"/>
+      <c r="Y32" s="119"/>
+      <c r="Z32" s="119"/>
+      <c r="AA32" s="119"/>
+      <c r="AB32" s="119"/>
       <c r="AC32" s="18"/>
       <c r="AD32" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE32" s="117">
+      <c r="AE32" s="140">
         <v>1800</v>
       </c>
-      <c r="AF32" s="166"/>
+      <c r="AF32" s="162"/>
     </row>
     <row r="33" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
@@ -3205,26 +3223,26 @@
       <c r="Q33" s="19"/>
       <c r="R33" s="19"/>
       <c r="S33" s="19"/>
-      <c r="T33" s="165" t="s">
+      <c r="T33" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="U33" s="115"/>
-      <c r="V33" s="115"/>
-      <c r="W33" s="115"/>
-      <c r="X33" s="115"/>
-      <c r="Y33" s="115"/>
-      <c r="Z33" s="115"/>
-      <c r="AA33" s="115"/>
-      <c r="AB33" s="115"/>
+      <c r="U33" s="119"/>
+      <c r="V33" s="119"/>
+      <c r="W33" s="119"/>
+      <c r="X33" s="119"/>
+      <c r="Y33" s="119"/>
+      <c r="Z33" s="119"/>
+      <c r="AA33" s="119"/>
+      <c r="AB33" s="119"/>
       <c r="AC33" s="19"/>
       <c r="AD33" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE33" s="161">
+      <c r="AE33" s="158">
         <f>AE23+AE29+AE31</f>
-        <v>169974</v>
-      </c>
-      <c r="AF33" s="161"/>
+        <v>226630</v>
+      </c>
+      <c r="AF33" s="158"/>
     </row>
     <row r="34" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
@@ -3296,41 +3314,41 @@
     </row>
     <row r="36" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="157" t="s">
+      <c r="B36" s="169" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="157"/>
-      <c r="D36" s="157"/>
-      <c r="E36" s="157"/>
-      <c r="F36" s="157"/>
-      <c r="G36" s="158" t="s">
+      <c r="C36" s="169"/>
+      <c r="D36" s="169"/>
+      <c r="E36" s="169"/>
+      <c r="F36" s="169"/>
+      <c r="G36" s="170" t="s">
         <v>47</v>
       </c>
-      <c r="H36" s="158"/>
-      <c r="I36" s="158"/>
-      <c r="J36" s="158"/>
-      <c r="K36" s="158"/>
-      <c r="L36" s="158"/>
-      <c r="M36" s="158"/>
-      <c r="N36" s="158"/>
-      <c r="O36" s="158"/>
-      <c r="P36" s="158"/>
-      <c r="Q36" s="158"/>
-      <c r="R36" s="158"/>
-      <c r="S36" s="158"/>
-      <c r="T36" s="158"/>
-      <c r="U36" s="158"/>
-      <c r="V36" s="158"/>
-      <c r="W36" s="158"/>
-      <c r="X36" s="158"/>
-      <c r="Y36" s="158"/>
-      <c r="Z36" s="158"/>
-      <c r="AA36" s="158"/>
-      <c r="AB36" s="158"/>
-      <c r="AC36" s="158"/>
-      <c r="AD36" s="158"/>
-      <c r="AE36" s="158"/>
-      <c r="AF36" s="158"/>
+      <c r="H36" s="170"/>
+      <c r="I36" s="170"/>
+      <c r="J36" s="170"/>
+      <c r="K36" s="170"/>
+      <c r="L36" s="170"/>
+      <c r="M36" s="170"/>
+      <c r="N36" s="170"/>
+      <c r="O36" s="170"/>
+      <c r="P36" s="170"/>
+      <c r="Q36" s="170"/>
+      <c r="R36" s="170"/>
+      <c r="S36" s="170"/>
+      <c r="T36" s="170"/>
+      <c r="U36" s="170"/>
+      <c r="V36" s="170"/>
+      <c r="W36" s="170"/>
+      <c r="X36" s="170"/>
+      <c r="Y36" s="170"/>
+      <c r="Z36" s="170"/>
+      <c r="AA36" s="170"/>
+      <c r="AB36" s="170"/>
+      <c r="AC36" s="170"/>
+      <c r="AD36" s="170"/>
+      <c r="AE36" s="170"/>
+      <c r="AF36" s="170"/>
     </row>
     <row r="37" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
@@ -3462,108 +3480,108 @@
       <c r="Y40" s="48"/>
       <c r="Z40" s="48"/>
       <c r="AA40" s="48"/>
-      <c r="AB40" s="140" t="s">
+      <c r="AB40" s="134" t="s">
         <v>38</v>
       </c>
-      <c r="AC40" s="140"/>
-      <c r="AD40" s="140"/>
-      <c r="AE40" s="140"/>
-      <c r="AF40" s="140"/>
+      <c r="AC40" s="134"/>
+      <c r="AD40" s="134"/>
+      <c r="AE40" s="134"/>
+      <c r="AF40" s="134"/>
     </row>
     <row r="41" spans="1:32" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
-      <c r="B41" s="156" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41" s="156"/>
-      <c r="D41" s="156"/>
-      <c r="E41" s="156"/>
-      <c r="F41" s="156"/>
-      <c r="G41" s="156"/>
-      <c r="H41" s="156"/>
-      <c r="I41" s="156"/>
-      <c r="J41" s="156"/>
-      <c r="K41" s="156"/>
-      <c r="L41" s="156"/>
-      <c r="M41" s="156"/>
-      <c r="N41" s="156"/>
-      <c r="O41" s="156"/>
-      <c r="P41" s="156"/>
-      <c r="Q41" s="156"/>
-      <c r="R41" s="156"/>
-      <c r="S41" s="156"/>
-      <c r="T41" s="156"/>
-      <c r="U41" s="156"/>
-      <c r="V41" s="156"/>
-      <c r="W41" s="156"/>
+      <c r="B41" s="168" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="168"/>
+      <c r="D41" s="168"/>
+      <c r="E41" s="168"/>
+      <c r="F41" s="168"/>
+      <c r="G41" s="168"/>
+      <c r="H41" s="168"/>
+      <c r="I41" s="168"/>
+      <c r="J41" s="168"/>
+      <c r="K41" s="168"/>
+      <c r="L41" s="168"/>
+      <c r="M41" s="168"/>
+      <c r="N41" s="168"/>
+      <c r="O41" s="168"/>
+      <c r="P41" s="168"/>
+      <c r="Q41" s="168"/>
+      <c r="R41" s="168"/>
+      <c r="S41" s="168"/>
+      <c r="T41" s="168"/>
+      <c r="U41" s="168"/>
+      <c r="V41" s="168"/>
+      <c r="W41" s="168"/>
       <c r="X41" s="73"/>
       <c r="Y41" s="48"/>
       <c r="Z41" s="48"/>
       <c r="AA41" s="48"/>
-      <c r="AB41" s="140"/>
-      <c r="AC41" s="140"/>
-      <c r="AD41" s="140"/>
-      <c r="AE41" s="140"/>
-      <c r="AF41" s="140"/>
+      <c r="AB41" s="134"/>
+      <c r="AC41" s="134"/>
+      <c r="AD41" s="134"/>
+      <c r="AE41" s="134"/>
+      <c r="AF41" s="134"/>
     </row>
     <row r="42" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
-      <c r="B42" s="156"/>
-      <c r="C42" s="156"/>
-      <c r="D42" s="156"/>
-      <c r="E42" s="156"/>
-      <c r="F42" s="156"/>
-      <c r="G42" s="156"/>
-      <c r="H42" s="156"/>
-      <c r="I42" s="156"/>
-      <c r="J42" s="156"/>
-      <c r="K42" s="156"/>
-      <c r="L42" s="156"/>
-      <c r="M42" s="156"/>
-      <c r="N42" s="156"/>
-      <c r="O42" s="156"/>
-      <c r="P42" s="156"/>
-      <c r="Q42" s="156"/>
-      <c r="R42" s="156"/>
-      <c r="S42" s="156"/>
-      <c r="T42" s="156"/>
-      <c r="U42" s="156"/>
-      <c r="V42" s="156"/>
-      <c r="W42" s="156"/>
+      <c r="B42" s="168"/>
+      <c r="C42" s="168"/>
+      <c r="D42" s="168"/>
+      <c r="E42" s="168"/>
+      <c r="F42" s="168"/>
+      <c r="G42" s="168"/>
+      <c r="H42" s="168"/>
+      <c r="I42" s="168"/>
+      <c r="J42" s="168"/>
+      <c r="K42" s="168"/>
+      <c r="L42" s="168"/>
+      <c r="M42" s="168"/>
+      <c r="N42" s="168"/>
+      <c r="O42" s="168"/>
+      <c r="P42" s="168"/>
+      <c r="Q42" s="168"/>
+      <c r="R42" s="168"/>
+      <c r="S42" s="168"/>
+      <c r="T42" s="168"/>
+      <c r="U42" s="168"/>
+      <c r="V42" s="168"/>
+      <c r="W42" s="168"/>
       <c r="X42" s="73"/>
       <c r="Y42" s="48"/>
       <c r="Z42" s="48"/>
       <c r="AA42" s="48"/>
-      <c r="AB42" s="140"/>
-      <c r="AC42" s="140"/>
-      <c r="AD42" s="140"/>
-      <c r="AE42" s="140"/>
-      <c r="AF42" s="140"/>
+      <c r="AB42" s="134"/>
+      <c r="AC42" s="134"/>
+      <c r="AD42" s="134"/>
+      <c r="AE42" s="134"/>
+      <c r="AF42" s="134"/>
     </row>
     <row r="43" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
-      <c r="B43" s="156"/>
-      <c r="C43" s="156"/>
-      <c r="D43" s="156"/>
-      <c r="E43" s="156"/>
-      <c r="F43" s="156"/>
-      <c r="G43" s="156"/>
-      <c r="H43" s="156"/>
-      <c r="I43" s="156"/>
-      <c r="J43" s="156"/>
-      <c r="K43" s="156"/>
-      <c r="L43" s="156"/>
-      <c r="M43" s="156"/>
-      <c r="N43" s="156"/>
-      <c r="O43" s="156"/>
-      <c r="P43" s="156"/>
-      <c r="Q43" s="156"/>
-      <c r="R43" s="156"/>
-      <c r="S43" s="156"/>
-      <c r="T43" s="156"/>
-      <c r="U43" s="156"/>
-      <c r="V43" s="156"/>
-      <c r="W43" s="156"/>
+      <c r="B43" s="168"/>
+      <c r="C43" s="168"/>
+      <c r="D43" s="168"/>
+      <c r="E43" s="168"/>
+      <c r="F43" s="168"/>
+      <c r="G43" s="168"/>
+      <c r="H43" s="168"/>
+      <c r="I43" s="168"/>
+      <c r="J43" s="168"/>
+      <c r="K43" s="168"/>
+      <c r="L43" s="168"/>
+      <c r="M43" s="168"/>
+      <c r="N43" s="168"/>
+      <c r="O43" s="168"/>
+      <c r="P43" s="168"/>
+      <c r="Q43" s="168"/>
+      <c r="R43" s="168"/>
+      <c r="S43" s="168"/>
+      <c r="T43" s="168"/>
+      <c r="U43" s="168"/>
+      <c r="V43" s="168"/>
+      <c r="W43" s="168"/>
       <c r="X43" s="73"/>
       <c r="Y43" s="48"/>
       <c r="Z43" s="48"/>
@@ -3576,28 +3594,28 @@
     </row>
     <row r="44" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
-      <c r="B44" s="156"/>
-      <c r="C44" s="156"/>
-      <c r="D44" s="156"/>
-      <c r="E44" s="156"/>
-      <c r="F44" s="156"/>
-      <c r="G44" s="156"/>
-      <c r="H44" s="156"/>
-      <c r="I44" s="156"/>
-      <c r="J44" s="156"/>
-      <c r="K44" s="156"/>
-      <c r="L44" s="156"/>
-      <c r="M44" s="156"/>
-      <c r="N44" s="156"/>
-      <c r="O44" s="156"/>
-      <c r="P44" s="156"/>
-      <c r="Q44" s="156"/>
-      <c r="R44" s="156"/>
-      <c r="S44" s="156"/>
-      <c r="T44" s="156"/>
-      <c r="U44" s="156"/>
-      <c r="V44" s="156"/>
-      <c r="W44" s="156"/>
+      <c r="B44" s="168"/>
+      <c r="C44" s="168"/>
+      <c r="D44" s="168"/>
+      <c r="E44" s="168"/>
+      <c r="F44" s="168"/>
+      <c r="G44" s="168"/>
+      <c r="H44" s="168"/>
+      <c r="I44" s="168"/>
+      <c r="J44" s="168"/>
+      <c r="K44" s="168"/>
+      <c r="L44" s="168"/>
+      <c r="M44" s="168"/>
+      <c r="N44" s="168"/>
+      <c r="O44" s="168"/>
+      <c r="P44" s="168"/>
+      <c r="Q44" s="168"/>
+      <c r="R44" s="168"/>
+      <c r="S44" s="168"/>
+      <c r="T44" s="168"/>
+      <c r="U44" s="168"/>
+      <c r="V44" s="168"/>
+      <c r="W44" s="168"/>
       <c r="X44" s="73"/>
       <c r="Y44" s="48"/>
       <c r="Z44" s="48"/>
@@ -3610,28 +3628,28 @@
     </row>
     <row r="45" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
-      <c r="B45" s="156"/>
-      <c r="C45" s="156"/>
-      <c r="D45" s="156"/>
-      <c r="E45" s="156"/>
-      <c r="F45" s="156"/>
-      <c r="G45" s="156"/>
-      <c r="H45" s="156"/>
-      <c r="I45" s="156"/>
-      <c r="J45" s="156"/>
-      <c r="K45" s="156"/>
-      <c r="L45" s="156"/>
-      <c r="M45" s="156"/>
-      <c r="N45" s="156"/>
-      <c r="O45" s="156"/>
-      <c r="P45" s="156"/>
-      <c r="Q45" s="156"/>
-      <c r="R45" s="156"/>
-      <c r="S45" s="156"/>
-      <c r="T45" s="156"/>
-      <c r="U45" s="156"/>
-      <c r="V45" s="156"/>
-      <c r="W45" s="156"/>
+      <c r="B45" s="168"/>
+      <c r="C45" s="168"/>
+      <c r="D45" s="168"/>
+      <c r="E45" s="168"/>
+      <c r="F45" s="168"/>
+      <c r="G45" s="168"/>
+      <c r="H45" s="168"/>
+      <c r="I45" s="168"/>
+      <c r="J45" s="168"/>
+      <c r="K45" s="168"/>
+      <c r="L45" s="168"/>
+      <c r="M45" s="168"/>
+      <c r="N45" s="168"/>
+      <c r="O45" s="168"/>
+      <c r="P45" s="168"/>
+      <c r="Q45" s="168"/>
+      <c r="R45" s="168"/>
+      <c r="S45" s="168"/>
+      <c r="T45" s="168"/>
+      <c r="U45" s="168"/>
+      <c r="V45" s="168"/>
+      <c r="W45" s="168"/>
       <c r="X45" s="73"/>
       <c r="Y45" s="48"/>
       <c r="Z45" s="48"/>
@@ -3644,28 +3662,28 @@
     </row>
     <row r="46" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
-      <c r="B46" s="156"/>
-      <c r="C46" s="156"/>
-      <c r="D46" s="156"/>
-      <c r="E46" s="156"/>
-      <c r="F46" s="156"/>
-      <c r="G46" s="156"/>
-      <c r="H46" s="156"/>
-      <c r="I46" s="156"/>
-      <c r="J46" s="156"/>
-      <c r="K46" s="156"/>
-      <c r="L46" s="156"/>
-      <c r="M46" s="156"/>
-      <c r="N46" s="156"/>
-      <c r="O46" s="156"/>
-      <c r="P46" s="156"/>
-      <c r="Q46" s="156"/>
-      <c r="R46" s="156"/>
-      <c r="S46" s="156"/>
-      <c r="T46" s="156"/>
-      <c r="U46" s="156"/>
-      <c r="V46" s="156"/>
-      <c r="W46" s="156"/>
+      <c r="B46" s="168"/>
+      <c r="C46" s="168"/>
+      <c r="D46" s="168"/>
+      <c r="E46" s="168"/>
+      <c r="F46" s="168"/>
+      <c r="G46" s="168"/>
+      <c r="H46" s="168"/>
+      <c r="I46" s="168"/>
+      <c r="J46" s="168"/>
+      <c r="K46" s="168"/>
+      <c r="L46" s="168"/>
+      <c r="M46" s="168"/>
+      <c r="N46" s="168"/>
+      <c r="O46" s="168"/>
+      <c r="P46" s="168"/>
+      <c r="Q46" s="168"/>
+      <c r="R46" s="168"/>
+      <c r="S46" s="168"/>
+      <c r="T46" s="168"/>
+      <c r="U46" s="168"/>
+      <c r="V46" s="168"/>
+      <c r="W46" s="168"/>
       <c r="X46" s="73"/>
       <c r="Y46" s="48"/>
       <c r="Z46" s="48"/>
@@ -3678,39 +3696,39 @@
     </row>
     <row r="47" spans="1:32" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
-      <c r="B47" s="156"/>
-      <c r="C47" s="156"/>
-      <c r="D47" s="156"/>
-      <c r="E47" s="156"/>
-      <c r="F47" s="156"/>
-      <c r="G47" s="156"/>
-      <c r="H47" s="156"/>
-      <c r="I47" s="156"/>
-      <c r="J47" s="156"/>
-      <c r="K47" s="156"/>
-      <c r="L47" s="156"/>
-      <c r="M47" s="156"/>
-      <c r="N47" s="156"/>
-      <c r="O47" s="156"/>
-      <c r="P47" s="156"/>
-      <c r="Q47" s="156"/>
-      <c r="R47" s="156"/>
-      <c r="S47" s="156"/>
-      <c r="T47" s="156"/>
-      <c r="U47" s="156"/>
-      <c r="V47" s="156"/>
-      <c r="W47" s="156"/>
+      <c r="B47" s="168"/>
+      <c r="C47" s="168"/>
+      <c r="D47" s="168"/>
+      <c r="E47" s="168"/>
+      <c r="F47" s="168"/>
+      <c r="G47" s="168"/>
+      <c r="H47" s="168"/>
+      <c r="I47" s="168"/>
+      <c r="J47" s="168"/>
+      <c r="K47" s="168"/>
+      <c r="L47" s="168"/>
+      <c r="M47" s="168"/>
+      <c r="N47" s="168"/>
+      <c r="O47" s="168"/>
+      <c r="P47" s="168"/>
+      <c r="Q47" s="168"/>
+      <c r="R47" s="168"/>
+      <c r="S47" s="168"/>
+      <c r="T47" s="168"/>
+      <c r="U47" s="168"/>
+      <c r="V47" s="168"/>
+      <c r="W47" s="168"/>
       <c r="X47" s="73"/>
       <c r="Y47" s="49"/>
       <c r="Z47" s="49"/>
       <c r="AA47" s="49"/>
-      <c r="AB47" s="150" t="s">
+      <c r="AB47" s="149" t="s">
         <v>39</v>
       </c>
-      <c r="AC47" s="150"/>
-      <c r="AD47" s="150"/>
-      <c r="AE47" s="150"/>
-      <c r="AF47" s="150"/>
+      <c r="AC47" s="149"/>
+      <c r="AD47" s="149"/>
+      <c r="AE47" s="149"/>
+      <c r="AF47" s="149"/>
     </row>
     <row r="48" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
@@ -3782,12 +3800,12 @@
     </row>
     <row r="50" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
-      <c r="B50" s="241" t="s">
-        <v>59</v>
-      </c>
-      <c r="C50" s="241"/>
-      <c r="D50" s="241"/>
-      <c r="E50" s="241"/>
+      <c r="B50" s="166" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="166"/>
+      <c r="D50" s="166"/>
+      <c r="E50" s="166"/>
       <c r="F50" s="31"/>
       <c r="G50" s="31"/>
       <c r="H50" s="31"/>
@@ -3818,271 +3836,271 @@
     </row>
     <row r="51" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="32"/>
-      <c r="B51" s="242" t="s">
+      <c r="B51" s="167" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="167"/>
+      <c r="D51" s="167" t="s">
+        <v>59</v>
+      </c>
+      <c r="E51" s="167"/>
+      <c r="F51" s="167"/>
+      <c r="G51" s="167"/>
+      <c r="H51" s="167" t="s">
         <v>60</v>
       </c>
-      <c r="C51" s="242"/>
-      <c r="D51" s="242" t="s">
+      <c r="I51" s="167"/>
+      <c r="J51" s="167"/>
+      <c r="K51" s="167"/>
+      <c r="L51" s="167"/>
+      <c r="M51" s="167"/>
+      <c r="N51" s="167"/>
+      <c r="O51" s="167" t="s">
         <v>61</v>
       </c>
-      <c r="E51" s="242"/>
-      <c r="F51" s="242"/>
-      <c r="G51" s="242"/>
-      <c r="H51" s="242" t="s">
+      <c r="P51" s="167"/>
+      <c r="Q51" s="167"/>
+      <c r="R51" s="167"/>
+      <c r="S51" s="167"/>
+      <c r="T51" s="167"/>
+      <c r="U51" s="167"/>
+      <c r="V51" s="167"/>
+      <c r="W51" s="167"/>
+    </row>
+    <row r="52" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="171" t="s">
         <v>62</v>
       </c>
-      <c r="I51" s="242"/>
-      <c r="J51" s="242"/>
-      <c r="K51" s="242"/>
-      <c r="L51" s="242"/>
-      <c r="M51" s="242"/>
-      <c r="N51" s="242"/>
-      <c r="O51" s="242" t="s">
+      <c r="C52" s="171"/>
+      <c r="D52" s="175" t="s">
         <v>63</v>
       </c>
-      <c r="P51" s="242"/>
-      <c r="Q51" s="242"/>
-      <c r="R51" s="242"/>
-      <c r="S51" s="242"/>
-      <c r="T51" s="242"/>
-      <c r="U51" s="242"/>
-      <c r="V51" s="242"/>
-      <c r="W51" s="242"/>
-    </row>
-    <row r="52" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="243" t="s">
+      <c r="E52" s="175"/>
+      <c r="F52" s="175"/>
+      <c r="G52" s="175"/>
+      <c r="H52" s="175" t="s">
         <v>64</v>
       </c>
-      <c r="C52" s="243"/>
-      <c r="D52" s="244" t="s">
+      <c r="I52" s="175"/>
+      <c r="J52" s="175"/>
+      <c r="K52" s="175"/>
+      <c r="L52" s="175"/>
+      <c r="M52" s="175"/>
+      <c r="N52" s="175"/>
+      <c r="O52" s="175" t="s">
         <v>65</v>
       </c>
-      <c r="E52" s="244"/>
-      <c r="F52" s="244"/>
-      <c r="G52" s="244"/>
-      <c r="H52" s="244" t="s">
+      <c r="P52" s="175"/>
+      <c r="Q52" s="175"/>
+      <c r="R52" s="175"/>
+      <c r="S52" s="175"/>
+      <c r="T52" s="175"/>
+      <c r="U52" s="175"/>
+      <c r="V52" s="175"/>
+      <c r="W52" s="175"/>
+    </row>
+    <row r="53" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="171" t="s">
         <v>66</v>
       </c>
-      <c r="I52" s="244"/>
-      <c r="J52" s="244"/>
-      <c r="K52" s="244"/>
-      <c r="L52" s="244"/>
-      <c r="M52" s="244"/>
-      <c r="N52" s="244"/>
-      <c r="O52" s="244" t="s">
+      <c r="C53" s="171"/>
+      <c r="D53" s="175" t="s">
         <v>67</v>
       </c>
-      <c r="P52" s="244"/>
-      <c r="Q52" s="244"/>
-      <c r="R52" s="244"/>
-      <c r="S52" s="244"/>
-      <c r="T52" s="244"/>
-      <c r="U52" s="244"/>
-      <c r="V52" s="244"/>
-      <c r="W52" s="244"/>
-    </row>
-    <row r="53" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="243" t="s">
+      <c r="E53" s="175"/>
+      <c r="F53" s="175"/>
+      <c r="G53" s="175"/>
+      <c r="H53" s="175" t="s">
         <v>68</v>
       </c>
-      <c r="C53" s="243"/>
-      <c r="D53" s="244" t="s">
+      <c r="I53" s="175"/>
+      <c r="J53" s="175"/>
+      <c r="K53" s="175"/>
+      <c r="L53" s="175"/>
+      <c r="M53" s="175"/>
+      <c r="N53" s="175"/>
+      <c r="O53" s="175" t="s">
         <v>69</v>
       </c>
-      <c r="E53" s="244"/>
-      <c r="F53" s="244"/>
-      <c r="G53" s="244"/>
-      <c r="H53" s="244" t="s">
+      <c r="P53" s="175"/>
+      <c r="Q53" s="175"/>
+      <c r="R53" s="175"/>
+      <c r="S53" s="175"/>
+      <c r="T53" s="175"/>
+      <c r="U53" s="175"/>
+      <c r="V53" s="175"/>
+      <c r="W53" s="175"/>
+    </row>
+    <row r="54" spans="1:33" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="171" t="s">
         <v>70</v>
       </c>
-      <c r="I53" s="244"/>
-      <c r="J53" s="244"/>
-      <c r="K53" s="244"/>
-      <c r="L53" s="244"/>
-      <c r="M53" s="244"/>
-      <c r="N53" s="244"/>
-      <c r="O53" s="244" t="s">
+      <c r="C54" s="171"/>
+      <c r="D54" s="172" t="s">
         <v>71</v>
       </c>
-      <c r="P53" s="244"/>
-      <c r="Q53" s="244"/>
-      <c r="R53" s="244"/>
-      <c r="S53" s="244"/>
-      <c r="T53" s="244"/>
-      <c r="U53" s="244"/>
-      <c r="V53" s="244"/>
-      <c r="W53" s="244"/>
-    </row>
-    <row r="54" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="243" t="s">
+      <c r="E54" s="172"/>
+      <c r="F54" s="172"/>
+      <c r="G54" s="172"/>
+      <c r="H54" s="173" t="s">
         <v>72</v>
       </c>
-      <c r="C54" s="243"/>
-      <c r="D54" s="245" t="s">
+      <c r="I54" s="173"/>
+      <c r="J54" s="173"/>
+      <c r="K54" s="173"/>
+      <c r="L54" s="173"/>
+      <c r="M54" s="173"/>
+      <c r="N54" s="173"/>
+      <c r="O54" s="173" t="s">
         <v>73</v>
       </c>
-      <c r="E54" s="245"/>
-      <c r="F54" s="245"/>
-      <c r="G54" s="245"/>
-      <c r="H54" s="246" t="s">
-        <v>74</v>
-      </c>
-      <c r="I54" s="246"/>
-      <c r="J54" s="246"/>
-      <c r="K54" s="246"/>
-      <c r="L54" s="246"/>
-      <c r="M54" s="246"/>
-      <c r="N54" s="246"/>
-      <c r="O54" s="246" t="s">
-        <v>75</v>
-      </c>
-      <c r="P54" s="246"/>
-      <c r="Q54" s="246"/>
-      <c r="R54" s="246"/>
-      <c r="S54" s="246"/>
-      <c r="T54" s="246"/>
-      <c r="U54" s="246"/>
-      <c r="V54" s="246"/>
-      <c r="W54" s="246"/>
+      <c r="P54" s="173"/>
+      <c r="Q54" s="173"/>
+      <c r="R54" s="173"/>
+      <c r="S54" s="173"/>
+      <c r="T54" s="173"/>
+      <c r="U54" s="173"/>
+      <c r="V54" s="173"/>
+      <c r="W54" s="173"/>
     </row>
     <row r="55" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="32"/>
-      <c r="B55" s="247" t="s">
-        <v>76</v>
-      </c>
-      <c r="C55" s="247"/>
-      <c r="D55" s="247"/>
-      <c r="E55" s="247"/>
-      <c r="F55" s="247"/>
-      <c r="G55" s="247"/>
-      <c r="H55" s="247"/>
-      <c r="I55" s="247"/>
-      <c r="J55" s="247"/>
-      <c r="K55" s="247"/>
-      <c r="L55" s="247"/>
-      <c r="M55" s="247"/>
-      <c r="N55" s="247"/>
-      <c r="O55" s="247"/>
-      <c r="P55" s="247"/>
-      <c r="Q55" s="247"/>
-      <c r="R55" s="247"/>
-      <c r="S55" s="247"/>
-      <c r="T55" s="247"/>
-      <c r="U55" s="247"/>
-      <c r="V55" s="247"/>
-      <c r="W55" s="247"/>
+      <c r="B55" s="174" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="174"/>
+      <c r="D55" s="174"/>
+      <c r="E55" s="174"/>
+      <c r="F55" s="174"/>
+      <c r="G55" s="174"/>
+      <c r="H55" s="174"/>
+      <c r="I55" s="174"/>
+      <c r="J55" s="174"/>
+      <c r="K55" s="174"/>
+      <c r="L55" s="174"/>
+      <c r="M55" s="174"/>
+      <c r="N55" s="174"/>
+      <c r="O55" s="174"/>
+      <c r="P55" s="174"/>
+      <c r="Q55" s="174"/>
+      <c r="R55" s="174"/>
+      <c r="S55" s="174"/>
+      <c r="T55" s="174"/>
+      <c r="U55" s="174"/>
+      <c r="V55" s="174"/>
+      <c r="W55" s="174"/>
     </row>
     <row r="61" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="62" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="146" t="s">
+      <c r="A62" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="B62" s="146"/>
-      <c r="C62" s="146"/>
-      <c r="D62" s="146"/>
-      <c r="E62" s="146"/>
-      <c r="F62" s="146"/>
-      <c r="G62" s="146"/>
-      <c r="H62" s="146"/>
-      <c r="I62" s="146"/>
-      <c r="J62" s="146"/>
-      <c r="K62" s="146"/>
-      <c r="L62" s="146"/>
-      <c r="M62" s="146"/>
-      <c r="N62" s="146"/>
-      <c r="O62" s="146"/>
-      <c r="P62" s="146"/>
-      <c r="Q62" s="146"/>
-      <c r="R62" s="146"/>
-      <c r="S62" s="146"/>
-      <c r="T62" s="146"/>
-      <c r="U62" s="146"/>
-      <c r="V62" s="146"/>
-      <c r="W62" s="146"/>
-      <c r="X62" s="146"/>
-      <c r="Y62" s="146"/>
-      <c r="Z62" s="146"/>
-      <c r="AA62" s="146"/>
-      <c r="AB62" s="146"/>
-      <c r="AC62" s="146"/>
-      <c r="AD62" s="146"/>
-      <c r="AE62" s="146"/>
-      <c r="AF62" s="146"/>
-      <c r="AG62" s="146"/>
+      <c r="B62" s="145"/>
+      <c r="C62" s="145"/>
+      <c r="D62" s="145"/>
+      <c r="E62" s="145"/>
+      <c r="F62" s="145"/>
+      <c r="G62" s="145"/>
+      <c r="H62" s="145"/>
+      <c r="I62" s="145"/>
+      <c r="J62" s="145"/>
+      <c r="K62" s="145"/>
+      <c r="L62" s="145"/>
+      <c r="M62" s="145"/>
+      <c r="N62" s="145"/>
+      <c r="O62" s="145"/>
+      <c r="P62" s="145"/>
+      <c r="Q62" s="145"/>
+      <c r="R62" s="145"/>
+      <c r="S62" s="145"/>
+      <c r="T62" s="145"/>
+      <c r="U62" s="145"/>
+      <c r="V62" s="145"/>
+      <c r="W62" s="145"/>
+      <c r="X62" s="145"/>
+      <c r="Y62" s="145"/>
+      <c r="Z62" s="145"/>
+      <c r="AA62" s="145"/>
+      <c r="AB62" s="145"/>
+      <c r="AC62" s="145"/>
+      <c r="AD62" s="145"/>
+      <c r="AE62" s="145"/>
+      <c r="AF62" s="145"/>
+      <c r="AG62" s="145"/>
     </row>
     <row r="63" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="147" t="s">
+      <c r="A63" s="146" t="s">
         <v>25</v>
       </c>
-      <c r="B63" s="147"/>
-      <c r="C63" s="147"/>
-      <c r="D63" s="147"/>
-      <c r="E63" s="147"/>
-      <c r="F63" s="147"/>
-      <c r="G63" s="147"/>
-      <c r="H63" s="147"/>
-      <c r="I63" s="147"/>
-      <c r="J63" s="147"/>
-      <c r="K63" s="147"/>
-      <c r="L63" s="147"/>
-      <c r="M63" s="147"/>
-      <c r="N63" s="147"/>
-      <c r="O63" s="147"/>
-      <c r="P63" s="147"/>
-      <c r="Q63" s="147"/>
-      <c r="R63" s="147"/>
-      <c r="S63" s="147"/>
-      <c r="T63" s="147"/>
-      <c r="U63" s="147"/>
-      <c r="V63" s="147"/>
-      <c r="W63" s="147"/>
-      <c r="X63" s="147"/>
-      <c r="Y63" s="147"/>
-      <c r="Z63" s="147"/>
-      <c r="AA63" s="147"/>
-      <c r="AB63" s="147"/>
-      <c r="AC63" s="147"/>
-      <c r="AD63" s="147"/>
-      <c r="AE63" s="147"/>
-      <c r="AF63" s="147"/>
-      <c r="AG63" s="147"/>
+      <c r="B63" s="146"/>
+      <c r="C63" s="146"/>
+      <c r="D63" s="146"/>
+      <c r="E63" s="146"/>
+      <c r="F63" s="146"/>
+      <c r="G63" s="146"/>
+      <c r="H63" s="146"/>
+      <c r="I63" s="146"/>
+      <c r="J63" s="146"/>
+      <c r="K63" s="146"/>
+      <c r="L63" s="146"/>
+      <c r="M63" s="146"/>
+      <c r="N63" s="146"/>
+      <c r="O63" s="146"/>
+      <c r="P63" s="146"/>
+      <c r="Q63" s="146"/>
+      <c r="R63" s="146"/>
+      <c r="S63" s="146"/>
+      <c r="T63" s="146"/>
+      <c r="U63" s="146"/>
+      <c r="V63" s="146"/>
+      <c r="W63" s="146"/>
+      <c r="X63" s="146"/>
+      <c r="Y63" s="146"/>
+      <c r="Z63" s="146"/>
+      <c r="AA63" s="146"/>
+      <c r="AB63" s="146"/>
+      <c r="AC63" s="146"/>
+      <c r="AD63" s="146"/>
+      <c r="AE63" s="146"/>
+      <c r="AF63" s="146"/>
+      <c r="AG63" s="146"/>
     </row>
     <row r="64" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="147" t="s">
+      <c r="A64" s="146" t="s">
         <v>26</v>
       </c>
-      <c r="B64" s="147"/>
-      <c r="C64" s="147"/>
-      <c r="D64" s="147"/>
-      <c r="E64" s="147"/>
-      <c r="F64" s="147"/>
-      <c r="G64" s="147"/>
-      <c r="H64" s="147"/>
-      <c r="I64" s="147"/>
-      <c r="J64" s="147"/>
-      <c r="K64" s="147"/>
-      <c r="L64" s="147"/>
-      <c r="M64" s="147"/>
-      <c r="N64" s="147"/>
-      <c r="O64" s="147"/>
-      <c r="P64" s="147"/>
-      <c r="Q64" s="147"/>
-      <c r="R64" s="147"/>
-      <c r="S64" s="147"/>
-      <c r="T64" s="147"/>
-      <c r="U64" s="147"/>
-      <c r="V64" s="147"/>
-      <c r="W64" s="147"/>
-      <c r="X64" s="147"/>
-      <c r="Y64" s="147"/>
-      <c r="Z64" s="147"/>
-      <c r="AA64" s="147"/>
-      <c r="AB64" s="147"/>
-      <c r="AC64" s="147"/>
-      <c r="AD64" s="147"/>
-      <c r="AE64" s="147"/>
-      <c r="AF64" s="147"/>
-      <c r="AG64" s="147"/>
+      <c r="B64" s="146"/>
+      <c r="C64" s="146"/>
+      <c r="D64" s="146"/>
+      <c r="E64" s="146"/>
+      <c r="F64" s="146"/>
+      <c r="G64" s="146"/>
+      <c r="H64" s="146"/>
+      <c r="I64" s="146"/>
+      <c r="J64" s="146"/>
+      <c r="K64" s="146"/>
+      <c r="L64" s="146"/>
+      <c r="M64" s="146"/>
+      <c r="N64" s="146"/>
+      <c r="O64" s="146"/>
+      <c r="P64" s="146"/>
+      <c r="Q64" s="146"/>
+      <c r="R64" s="146"/>
+      <c r="S64" s="146"/>
+      <c r="T64" s="146"/>
+      <c r="U64" s="146"/>
+      <c r="V64" s="146"/>
+      <c r="W64" s="146"/>
+      <c r="X64" s="146"/>
+      <c r="Y64" s="146"/>
+      <c r="Z64" s="146"/>
+      <c r="AA64" s="146"/>
+      <c r="AB64" s="146"/>
+      <c r="AC64" s="146"/>
+      <c r="AD64" s="146"/>
+      <c r="AE64" s="146"/>
+      <c r="AF64" s="146"/>
+      <c r="AG64" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="111">
@@ -4099,6 +4117,11 @@
     <mergeCell ref="D53:G53"/>
     <mergeCell ref="H53:N53"/>
     <mergeCell ref="O53:W53"/>
+    <mergeCell ref="T33:AB33"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="AA26:AC26"/>
+    <mergeCell ref="AE29:AF29"/>
     <mergeCell ref="B50:E50"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="D51:G51"/>
@@ -4107,19 +4130,6 @@
     <mergeCell ref="B41:W47"/>
     <mergeCell ref="B36:F36"/>
     <mergeCell ref="G36:AF36"/>
-    <mergeCell ref="K22:W22"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="K27:W27"/>
-    <mergeCell ref="T31:AB31"/>
-    <mergeCell ref="T33:AB33"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="AA26:AC26"/>
-    <mergeCell ref="AE29:AF29"/>
     <mergeCell ref="A62:AG62"/>
     <mergeCell ref="A63:AG63"/>
     <mergeCell ref="A64:AG64"/>
@@ -4136,6 +4146,14 @@
     <mergeCell ref="T32:AB32"/>
     <mergeCell ref="K28:W28"/>
     <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="K27:W27"/>
+    <mergeCell ref="T31:AB31"/>
     <mergeCell ref="B2:AF3"/>
     <mergeCell ref="R6:W6"/>
     <mergeCell ref="B24:C28"/>
@@ -4160,8 +4178,6 @@
     <mergeCell ref="AE23:AF23"/>
     <mergeCell ref="Y10:AC11"/>
     <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="X19:Z19"/>
     <mergeCell ref="AE22:AF22"/>
     <mergeCell ref="S24:W24"/>
     <mergeCell ref="AA13:AC14"/>
@@ -4184,6 +4200,7 @@
     <mergeCell ref="AB6:AE6"/>
     <mergeCell ref="X20:Z21"/>
     <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="K22:W22"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="D25:J25"/>
     <mergeCell ref="AA19:AC19"/>
@@ -4197,13 +4214,14 @@
     <mergeCell ref="K18:W18"/>
     <mergeCell ref="D19:J19"/>
     <mergeCell ref="D20:G20"/>
+    <mergeCell ref="X19:Z19"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E11:H11" xr:uid="{7FD8B4C7-42A0-4993-86BF-E5604E228F87}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.27559055118110237" right="0.27559055118110237" top="0.6692913385826772" bottom="0.39370078740157483" header="0" footer="0"/>
-  <pageSetup scale="76" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup scale="73" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -4215,8 +4233,8 @@
   </sheetPr>
   <dimension ref="A1:AG65"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47:W52"/>
+    <sheetView view="pageLayout" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4254,163 +4272,163 @@
     <row r="1" spans="1:32" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:32" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="103"/>
-      <c r="Z2" s="103"/>
-      <c r="AA2" s="103"/>
-      <c r="AB2" s="103"/>
-      <c r="AC2" s="103"/>
-      <c r="AD2" s="103"/>
-      <c r="AE2" s="103"/>
-      <c r="AF2" s="103"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="107"/>
+      <c r="V2" s="107"/>
+      <c r="W2" s="107"/>
+      <c r="X2" s="107"/>
+      <c r="Y2" s="107"/>
+      <c r="Z2" s="107"/>
+      <c r="AA2" s="107"/>
+      <c r="AB2" s="107"/>
+      <c r="AC2" s="107"/>
+      <c r="AD2" s="107"/>
+      <c r="AE2" s="107"/>
+      <c r="AF2" s="107"/>
     </row>
     <row r="3" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
-      <c r="U3" s="103"/>
-      <c r="V3" s="103"/>
-      <c r="W3" s="103"/>
-      <c r="X3" s="103"/>
-      <c r="Y3" s="103"/>
-      <c r="Z3" s="103"/>
-      <c r="AA3" s="103"/>
-      <c r="AB3" s="103"/>
-      <c r="AC3" s="103"/>
-      <c r="AD3" s="103"/>
-      <c r="AE3" s="103"/>
-      <c r="AF3" s="103"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
+      <c r="U3" s="107"/>
+      <c r="V3" s="107"/>
+      <c r="W3" s="107"/>
+      <c r="X3" s="107"/>
+      <c r="Y3" s="107"/>
+      <c r="Z3" s="107"/>
+      <c r="AA3" s="107"/>
+      <c r="AB3" s="107"/>
+      <c r="AC3" s="107"/>
+      <c r="AD3" s="107"/>
+      <c r="AE3" s="107"/>
+      <c r="AF3" s="107"/>
     </row>
     <row r="4" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="140" t="s">
+      <c r="B4" s="134" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
-      <c r="M4" s="103"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
-      <c r="U4" s="103"/>
-      <c r="V4" s="103"/>
-      <c r="W4" s="103"/>
-      <c r="X4" s="103"/>
-      <c r="Y4" s="103"/>
-      <c r="Z4" s="103"/>
-      <c r="AA4" s="103"/>
-      <c r="AB4" s="103"/>
-      <c r="AC4" s="103"/>
-      <c r="AD4" s="103"/>
-      <c r="AE4" s="103"/>
-      <c r="AF4" s="103"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="107"/>
+      <c r="R4" s="107"/>
+      <c r="S4" s="107"/>
+      <c r="T4" s="107"/>
+      <c r="U4" s="107"/>
+      <c r="V4" s="107"/>
+      <c r="W4" s="107"/>
+      <c r="X4" s="107"/>
+      <c r="Y4" s="107"/>
+      <c r="Z4" s="107"/>
+      <c r="AA4" s="107"/>
+      <c r="AB4" s="107"/>
+      <c r="AC4" s="107"/>
+      <c r="AD4" s="107"/>
+      <c r="AE4" s="107"/>
+      <c r="AF4" s="107"/>
     </row>
     <row r="5" spans="1:32" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="116" t="s">
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="103"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
-      <c r="U5" s="103"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
-      <c r="X5" s="103"/>
-      <c r="Y5" s="103"/>
-      <c r="Z5" s="103"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="107"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="107"/>
+      <c r="T5" s="107"/>
+      <c r="U5" s="107"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
+      <c r="X5" s="107"/>
+      <c r="Y5" s="107"/>
+      <c r="Z5" s="107"/>
       <c r="AA5" s="7"/>
-      <c r="AB5" s="191" t="s">
+      <c r="AB5" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="AC5" s="114"/>
-      <c r="AD5" s="114"/>
-      <c r="AE5" s="114"/>
+      <c r="AC5" s="118"/>
+      <c r="AD5" s="118"/>
+      <c r="AE5" s="118"/>
       <c r="AF5" s="46" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="137" t="s">
+      <c r="B6" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -4420,35 +4438,35 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
-      <c r="R6" s="128"/>
-      <c r="S6" s="103"/>
-      <c r="T6" s="103"/>
-      <c r="U6" s="103"/>
-      <c r="V6" s="103"/>
-      <c r="W6" s="103"/>
-      <c r="X6" s="105"/>
-      <c r="Y6" s="103"/>
+      <c r="R6" s="122"/>
+      <c r="S6" s="107"/>
+      <c r="T6" s="107"/>
+      <c r="U6" s="107"/>
+      <c r="V6" s="107"/>
+      <c r="W6" s="107"/>
+      <c r="X6" s="109"/>
+      <c r="Y6" s="107"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="7"/>
-      <c r="AB6" s="88" t="s">
+      <c r="AB6" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="AC6" s="103"/>
-      <c r="AD6" s="103"/>
-      <c r="AE6" s="103"/>
+      <c r="AC6" s="107"/>
+      <c r="AD6" s="107"/>
+      <c r="AE6" s="107"/>
       <c r="AF6" s="45" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -4476,13 +4494,13 @@
     </row>
     <row r="8" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -4491,38 +4509,38 @@
       <c r="N8" s="9"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
-      <c r="Q8" s="108" t="s">
+      <c r="Q8" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="201"/>
-      <c r="S8" s="201"/>
-      <c r="T8" s="201"/>
-      <c r="U8" s="201"/>
-      <c r="V8" s="201"/>
-      <c r="W8" s="201"/>
-      <c r="X8" s="203"/>
-      <c r="Y8" s="108" t="s">
+      <c r="R8" s="199"/>
+      <c r="S8" s="199"/>
+      <c r="T8" s="199"/>
+      <c r="U8" s="199"/>
+      <c r="V8" s="199"/>
+      <c r="W8" s="199"/>
+      <c r="X8" s="201"/>
+      <c r="Y8" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="Z8" s="201"/>
-      <c r="AA8" s="201"/>
-      <c r="AB8" s="201"/>
-      <c r="AC8" s="203"/>
-      <c r="AD8" s="108" t="s">
+      <c r="Z8" s="199"/>
+      <c r="AA8" s="199"/>
+      <c r="AB8" s="199"/>
+      <c r="AC8" s="201"/>
+      <c r="AD8" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AE8" s="201"/>
-      <c r="AF8" s="203"/>
+      <c r="AE8" s="199"/>
+      <c r="AF8" s="201"/>
     </row>
     <row r="9" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="103"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -4531,22 +4549,22 @@
       <c r="N9" s="9"/>
       <c r="O9" s="6"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="204"/>
-      <c r="R9" s="202"/>
-      <c r="S9" s="202"/>
-      <c r="T9" s="202"/>
-      <c r="U9" s="202"/>
-      <c r="V9" s="202"/>
-      <c r="W9" s="202"/>
-      <c r="X9" s="205"/>
-      <c r="Y9" s="204"/>
-      <c r="Z9" s="202"/>
-      <c r="AA9" s="202"/>
-      <c r="AB9" s="202"/>
-      <c r="AC9" s="205"/>
-      <c r="AD9" s="204"/>
-      <c r="AE9" s="202"/>
-      <c r="AF9" s="205"/>
+      <c r="Q9" s="202"/>
+      <c r="R9" s="200"/>
+      <c r="S9" s="200"/>
+      <c r="T9" s="200"/>
+      <c r="U9" s="200"/>
+      <c r="V9" s="200"/>
+      <c r="W9" s="200"/>
+      <c r="X9" s="203"/>
+      <c r="Y9" s="202"/>
+      <c r="Z9" s="200"/>
+      <c r="AA9" s="200"/>
+      <c r="AB9" s="200"/>
+      <c r="AC9" s="203"/>
+      <c r="AD9" s="202"/>
+      <c r="AE9" s="200"/>
+      <c r="AF9" s="203"/>
     </row>
     <row r="10" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -4565,44 +4583,44 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="118">
+      <c r="Q10" s="141">
         <v>44986</v>
       </c>
-      <c r="R10" s="109"/>
-      <c r="S10" s="109"/>
-      <c r="T10" s="109"/>
-      <c r="U10" s="109"/>
-      <c r="V10" s="109"/>
-      <c r="W10" s="109"/>
-      <c r="X10" s="110"/>
-      <c r="Y10" s="121">
+      <c r="R10" s="113"/>
+      <c r="S10" s="113"/>
+      <c r="T10" s="113"/>
+      <c r="U10" s="113"/>
+      <c r="V10" s="113"/>
+      <c r="W10" s="113"/>
+      <c r="X10" s="114"/>
+      <c r="Y10" s="144">
         <v>0</v>
       </c>
-      <c r="Z10" s="109"/>
-      <c r="AA10" s="109"/>
-      <c r="AB10" s="109"/>
-      <c r="AC10" s="110"/>
-      <c r="AD10" s="143" t="s">
+      <c r="Z10" s="113"/>
+      <c r="AA10" s="113"/>
+      <c r="AB10" s="113"/>
+      <c r="AC10" s="114"/>
+      <c r="AD10" s="137" t="s">
         <v>43</v>
       </c>
-      <c r="AE10" s="109"/>
-      <c r="AF10" s="110"/>
+      <c r="AE10" s="113"/>
+      <c r="AF10" s="114"/>
     </row>
     <row r="11" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="103"/>
+      <c r="C11" s="107"/>
       <c r="D11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="102" t="s">
+      <c r="E11" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -4611,22 +4629,22 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="111"/>
-      <c r="R11" s="112"/>
-      <c r="S11" s="112"/>
-      <c r="T11" s="112"/>
-      <c r="U11" s="112"/>
-      <c r="V11" s="112"/>
-      <c r="W11" s="112"/>
-      <c r="X11" s="113"/>
-      <c r="Y11" s="111"/>
-      <c r="Z11" s="112"/>
-      <c r="AA11" s="112"/>
-      <c r="AB11" s="112"/>
-      <c r="AC11" s="113"/>
-      <c r="AD11" s="111"/>
-      <c r="AE11" s="112"/>
-      <c r="AF11" s="113"/>
+      <c r="Q11" s="115"/>
+      <c r="R11" s="116"/>
+      <c r="S11" s="116"/>
+      <c r="T11" s="116"/>
+      <c r="U11" s="116"/>
+      <c r="V11" s="116"/>
+      <c r="W11" s="116"/>
+      <c r="X11" s="117"/>
+      <c r="Y11" s="115"/>
+      <c r="Z11" s="116"/>
+      <c r="AA11" s="116"/>
+      <c r="AB11" s="116"/>
+      <c r="AC11" s="117"/>
+      <c r="AD11" s="115"/>
+      <c r="AE11" s="116"/>
+      <c r="AF11" s="117"/>
     </row>
     <row r="12" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -4664,75 +4682,75 @@
     </row>
     <row r="13" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="119" t="s">
+      <c r="B13" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="201"/>
-      <c r="D13" s="201"/>
-      <c r="E13" s="201"/>
-      <c r="F13" s="201"/>
-      <c r="G13" s="201"/>
-      <c r="H13" s="201"/>
-      <c r="I13" s="201"/>
-      <c r="J13" s="201"/>
-      <c r="K13" s="201"/>
-      <c r="L13" s="201"/>
-      <c r="M13" s="201"/>
-      <c r="N13" s="201"/>
-      <c r="O13" s="201"/>
-      <c r="P13" s="201"/>
-      <c r="Q13" s="201"/>
-      <c r="R13" s="201"/>
-      <c r="S13" s="201"/>
-      <c r="T13" s="201"/>
-      <c r="U13" s="201"/>
-      <c r="V13" s="201"/>
-      <c r="W13" s="201"/>
-      <c r="X13" s="201"/>
-      <c r="Y13" s="201"/>
-      <c r="Z13" s="201"/>
-      <c r="AA13" s="201"/>
-      <c r="AB13" s="201"/>
+      <c r="C13" s="199"/>
+      <c r="D13" s="199"/>
+      <c r="E13" s="199"/>
+      <c r="F13" s="199"/>
+      <c r="G13" s="199"/>
+      <c r="H13" s="199"/>
+      <c r="I13" s="199"/>
+      <c r="J13" s="199"/>
+      <c r="K13" s="199"/>
+      <c r="L13" s="199"/>
+      <c r="M13" s="199"/>
+      <c r="N13" s="199"/>
+      <c r="O13" s="199"/>
+      <c r="P13" s="199"/>
+      <c r="Q13" s="199"/>
+      <c r="R13" s="199"/>
+      <c r="S13" s="199"/>
+      <c r="T13" s="199"/>
+      <c r="U13" s="199"/>
+      <c r="V13" s="199"/>
+      <c r="W13" s="199"/>
+      <c r="X13" s="199"/>
+      <c r="Y13" s="199"/>
+      <c r="Z13" s="199"/>
+      <c r="AA13" s="199"/>
+      <c r="AB13" s="199"/>
       <c r="AC13" s="33"/>
-      <c r="AD13" s="119" t="s">
+      <c r="AD13" s="142" t="s">
         <v>9</v>
       </c>
-      <c r="AE13" s="201"/>
-      <c r="AF13" s="201"/>
+      <c r="AE13" s="199"/>
+      <c r="AF13" s="199"/>
     </row>
     <row r="14" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="B14" s="202"/>
-      <c r="C14" s="202"/>
-      <c r="D14" s="202"/>
-      <c r="E14" s="202"/>
-      <c r="F14" s="202"/>
-      <c r="G14" s="202"/>
-      <c r="H14" s="202"/>
-      <c r="I14" s="202"/>
-      <c r="J14" s="202"/>
-      <c r="K14" s="202"/>
-      <c r="L14" s="202"/>
-      <c r="M14" s="202"/>
-      <c r="N14" s="202"/>
-      <c r="O14" s="202"/>
-      <c r="P14" s="202"/>
-      <c r="Q14" s="202"/>
-      <c r="R14" s="202"/>
-      <c r="S14" s="202"/>
-      <c r="T14" s="202"/>
-      <c r="U14" s="202"/>
-      <c r="V14" s="202"/>
-      <c r="W14" s="202"/>
-      <c r="X14" s="202"/>
-      <c r="Y14" s="202"/>
-      <c r="Z14" s="202"/>
-      <c r="AA14" s="202"/>
-      <c r="AB14" s="202"/>
+      <c r="B14" s="200"/>
+      <c r="C14" s="200"/>
+      <c r="D14" s="200"/>
+      <c r="E14" s="200"/>
+      <c r="F14" s="200"/>
+      <c r="G14" s="200"/>
+      <c r="H14" s="200"/>
+      <c r="I14" s="200"/>
+      <c r="J14" s="200"/>
+      <c r="K14" s="200"/>
+      <c r="L14" s="200"/>
+      <c r="M14" s="200"/>
+      <c r="N14" s="200"/>
+      <c r="O14" s="200"/>
+      <c r="P14" s="200"/>
+      <c r="Q14" s="200"/>
+      <c r="R14" s="200"/>
+      <c r="S14" s="200"/>
+      <c r="T14" s="200"/>
+      <c r="U14" s="200"/>
+      <c r="V14" s="200"/>
+      <c r="W14" s="200"/>
+      <c r="X14" s="200"/>
+      <c r="Y14" s="200"/>
+      <c r="Z14" s="200"/>
+      <c r="AA14" s="200"/>
+      <c r="AB14" s="200"/>
       <c r="AC14" s="34"/>
-      <c r="AD14" s="202"/>
-      <c r="AE14" s="202"/>
-      <c r="AF14" s="202"/>
+      <c r="AD14" s="200"/>
+      <c r="AE14" s="200"/>
+      <c r="AF14" s="200"/>
     </row>
     <row r="15" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -4769,173 +4787,173 @@
       <c r="AF15" s="14"/>
     </row>
     <row r="16" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="92"/>
-      <c r="B16" s="138" t="s">
+      <c r="A16" s="74"/>
+      <c r="B16" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="182"/>
-      <c r="D16" s="182"/>
-      <c r="E16" s="206"/>
-      <c r="F16" s="229" t="s">
+      <c r="C16" s="180"/>
+      <c r="D16" s="180"/>
+      <c r="E16" s="204"/>
+      <c r="F16" s="225" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="188"/>
-      <c r="H16" s="188"/>
-      <c r="I16" s="188"/>
-      <c r="J16" s="189"/>
-      <c r="K16" s="187" t="s">
+      <c r="G16" s="186"/>
+      <c r="H16" s="186"/>
+      <c r="I16" s="186"/>
+      <c r="J16" s="187"/>
+      <c r="K16" s="185" t="s">
         <v>40</v>
       </c>
-      <c r="L16" s="188"/>
-      <c r="M16" s="188"/>
-      <c r="N16" s="188"/>
-      <c r="O16" s="188"/>
-      <c r="P16" s="188"/>
-      <c r="Q16" s="188"/>
-      <c r="R16" s="188"/>
-      <c r="S16" s="188"/>
-      <c r="T16" s="188"/>
-      <c r="U16" s="188"/>
-      <c r="V16" s="188"/>
-      <c r="W16" s="188"/>
-      <c r="X16" s="188"/>
-      <c r="Y16" s="188"/>
-      <c r="Z16" s="188"/>
-      <c r="AA16" s="188"/>
-      <c r="AB16" s="189"/>
+      <c r="L16" s="186"/>
+      <c r="M16" s="186"/>
+      <c r="N16" s="186"/>
+      <c r="O16" s="186"/>
+      <c r="P16" s="186"/>
+      <c r="Q16" s="186"/>
+      <c r="R16" s="186"/>
+      <c r="S16" s="186"/>
+      <c r="T16" s="186"/>
+      <c r="U16" s="186"/>
+      <c r="V16" s="186"/>
+      <c r="W16" s="186"/>
+      <c r="X16" s="186"/>
+      <c r="Y16" s="186"/>
+      <c r="Z16" s="186"/>
+      <c r="AA16" s="186"/>
+      <c r="AB16" s="187"/>
       <c r="AC16" s="38"/>
       <c r="AD16" s="42"/>
-      <c r="AE16" s="114"/>
-      <c r="AF16" s="180"/>
+      <c r="AE16" s="118"/>
+      <c r="AF16" s="178"/>
     </row>
     <row r="17" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="92"/>
-      <c r="B17" s="226"/>
-      <c r="C17" s="208"/>
-      <c r="D17" s="208"/>
-      <c r="E17" s="209"/>
-      <c r="F17" s="216" t="s">
+      <c r="A17" s="74"/>
+      <c r="B17" s="222"/>
+      <c r="C17" s="206"/>
+      <c r="D17" s="206"/>
+      <c r="E17" s="207"/>
+      <c r="F17" s="214" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="217"/>
-      <c r="H17" s="217"/>
-      <c r="I17" s="217"/>
-      <c r="J17" s="218"/>
-      <c r="K17" s="222" t="s">
+      <c r="G17" s="215"/>
+      <c r="H17" s="215"/>
+      <c r="I17" s="215"/>
+      <c r="J17" s="216"/>
+      <c r="K17" s="176" t="s">
         <v>41</v>
       </c>
-      <c r="L17" s="223"/>
-      <c r="M17" s="223"/>
-      <c r="N17" s="223"/>
-      <c r="O17" s="223"/>
-      <c r="P17" s="223"/>
-      <c r="Q17" s="223"/>
-      <c r="R17" s="183" t="s">
+      <c r="L17" s="177"/>
+      <c r="M17" s="177"/>
+      <c r="N17" s="177"/>
+      <c r="O17" s="177"/>
+      <c r="P17" s="177"/>
+      <c r="Q17" s="177"/>
+      <c r="R17" s="181" t="s">
         <v>32</v>
       </c>
-      <c r="S17" s="224" t="s">
+      <c r="S17" s="220" t="s">
         <v>42</v>
       </c>
-      <c r="T17" s="224"/>
-      <c r="U17" s="224"/>
-      <c r="V17" s="224"/>
-      <c r="W17" s="224"/>
-      <c r="X17" s="224"/>
-      <c r="Y17" s="224"/>
-      <c r="Z17" s="224"/>
-      <c r="AA17" s="224"/>
-      <c r="AB17" s="225"/>
+      <c r="T17" s="220"/>
+      <c r="U17" s="220"/>
+      <c r="V17" s="220"/>
+      <c r="W17" s="220"/>
+      <c r="X17" s="220"/>
+      <c r="Y17" s="220"/>
+      <c r="Z17" s="220"/>
+      <c r="AA17" s="220"/>
+      <c r="AB17" s="221"/>
       <c r="AC17" s="38"/>
-      <c r="AD17" s="184" t="s">
+      <c r="AD17" s="182" t="s">
         <v>17</v>
       </c>
-      <c r="AE17" s="185">
+      <c r="AE17" s="183">
         <f>K18*S18</f>
         <v>1099040</v>
       </c>
-      <c r="AF17" s="185"/>
+      <c r="AF17" s="183"/>
     </row>
     <row r="18" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="103"/>
-      <c r="B18" s="210"/>
-      <c r="C18" s="180"/>
-      <c r="D18" s="180"/>
-      <c r="E18" s="209"/>
-      <c r="F18" s="219"/>
-      <c r="G18" s="220"/>
-      <c r="H18" s="220"/>
-      <c r="I18" s="220"/>
-      <c r="J18" s="221"/>
-      <c r="K18" s="79">
+      <c r="A18" s="107"/>
+      <c r="B18" s="208"/>
+      <c r="C18" s="178"/>
+      <c r="D18" s="178"/>
+      <c r="E18" s="207"/>
+      <c r="F18" s="217"/>
+      <c r="G18" s="218"/>
+      <c r="H18" s="218"/>
+      <c r="I18" s="218"/>
+      <c r="J18" s="219"/>
+      <c r="K18" s="89">
         <v>16000</v>
       </c>
-      <c r="L18" s="182"/>
-      <c r="M18" s="182"/>
-      <c r="N18" s="182"/>
-      <c r="O18" s="182"/>
-      <c r="P18" s="182"/>
-      <c r="Q18" s="182"/>
-      <c r="R18" s="183"/>
-      <c r="S18" s="96">
+      <c r="L18" s="180"/>
+      <c r="M18" s="180"/>
+      <c r="N18" s="180"/>
+      <c r="O18" s="180"/>
+      <c r="P18" s="180"/>
+      <c r="Q18" s="180"/>
+      <c r="R18" s="181"/>
+      <c r="S18" s="82">
         <v>68.69</v>
       </c>
-      <c r="T18" s="182"/>
-      <c r="U18" s="182"/>
-      <c r="V18" s="182"/>
-      <c r="W18" s="182"/>
-      <c r="X18" s="182"/>
-      <c r="Y18" s="182"/>
-      <c r="Z18" s="182"/>
-      <c r="AA18" s="182"/>
-      <c r="AB18" s="206"/>
+      <c r="T18" s="180"/>
+      <c r="U18" s="180"/>
+      <c r="V18" s="180"/>
+      <c r="W18" s="180"/>
+      <c r="X18" s="180"/>
+      <c r="Y18" s="180"/>
+      <c r="Z18" s="180"/>
+      <c r="AA18" s="180"/>
+      <c r="AB18" s="204"/>
       <c r="AC18" s="38"/>
-      <c r="AD18" s="184"/>
-      <c r="AE18" s="185"/>
-      <c r="AF18" s="185"/>
+      <c r="AD18" s="182"/>
+      <c r="AE18" s="183"/>
+      <c r="AF18" s="183"/>
     </row>
     <row r="19" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="211"/>
-      <c r="C19" s="212"/>
-      <c r="D19" s="212"/>
-      <c r="E19" s="213"/>
-      <c r="F19" s="83" t="s">
+      <c r="B19" s="209"/>
+      <c r="C19" s="210"/>
+      <c r="D19" s="210"/>
+      <c r="E19" s="211"/>
+      <c r="F19" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="193"/>
-      <c r="H19" s="193"/>
-      <c r="I19" s="193"/>
-      <c r="J19" s="195"/>
-      <c r="K19" s="196">
+      <c r="G19" s="191"/>
+      <c r="H19" s="191"/>
+      <c r="I19" s="191"/>
+      <c r="J19" s="193"/>
+      <c r="K19" s="194">
         <f>ROUND(AE17*11%,0)</f>
         <v>120894</v>
       </c>
-      <c r="L19" s="197"/>
-      <c r="M19" s="197"/>
-      <c r="N19" s="197"/>
-      <c r="O19" s="197"/>
-      <c r="P19" s="197"/>
-      <c r="Q19" s="197"/>
-      <c r="R19" s="197"/>
-      <c r="S19" s="197"/>
-      <c r="T19" s="197"/>
-      <c r="U19" s="197"/>
-      <c r="V19" s="197"/>
-      <c r="W19" s="197"/>
-      <c r="X19" s="197"/>
-      <c r="Y19" s="197"/>
-      <c r="Z19" s="197"/>
-      <c r="AA19" s="197"/>
-      <c r="AB19" s="198"/>
+      <c r="L19" s="195"/>
+      <c r="M19" s="195"/>
+      <c r="N19" s="195"/>
+      <c r="O19" s="195"/>
+      <c r="P19" s="195"/>
+      <c r="Q19" s="195"/>
+      <c r="R19" s="195"/>
+      <c r="S19" s="195"/>
+      <c r="T19" s="195"/>
+      <c r="U19" s="195"/>
+      <c r="V19" s="195"/>
+      <c r="W19" s="195"/>
+      <c r="X19" s="195"/>
+      <c r="Y19" s="195"/>
+      <c r="Z19" s="195"/>
+      <c r="AA19" s="195"/>
+      <c r="AB19" s="196"/>
       <c r="AC19" s="38"/>
       <c r="AD19" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE19" s="199">
+      <c r="AE19" s="197">
         <f>K19</f>
         <v>120894</v>
       </c>
-      <c r="AF19" s="200"/>
+      <c r="AF19" s="198"/>
     </row>
     <row r="20" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
@@ -4943,24 +4961,24 @@
       <c r="C20" s="11"/>
       <c r="D20" s="68"/>
       <c r="E20" s="38"/>
-      <c r="F20" s="215"/>
-      <c r="G20" s="180"/>
-      <c r="H20" s="180"/>
-      <c r="I20" s="180"/>
+      <c r="F20" s="213"/>
+      <c r="G20" s="178"/>
+      <c r="H20" s="178"/>
+      <c r="I20" s="178"/>
       <c r="J20" s="52"/>
-      <c r="K20" s="190"/>
-      <c r="L20" s="180"/>
-      <c r="M20" s="180"/>
-      <c r="N20" s="180"/>
-      <c r="O20" s="100"/>
-      <c r="P20" s="180"/>
-      <c r="Q20" s="186"/>
-      <c r="R20" s="180"/>
-      <c r="S20" s="180"/>
-      <c r="T20" s="180"/>
-      <c r="U20" s="180"/>
-      <c r="V20" s="180"/>
-      <c r="W20" s="180"/>
+      <c r="K20" s="188"/>
+      <c r="L20" s="178"/>
+      <c r="M20" s="178"/>
+      <c r="N20" s="178"/>
+      <c r="O20" s="86"/>
+      <c r="P20" s="178"/>
+      <c r="Q20" s="184"/>
+      <c r="R20" s="178"/>
+      <c r="S20" s="178"/>
+      <c r="T20" s="178"/>
+      <c r="U20" s="178"/>
+      <c r="V20" s="178"/>
+      <c r="W20" s="178"/>
       <c r="X20" s="52"/>
       <c r="Y20" s="52"/>
       <c r="Z20" s="52"/>
@@ -4970,207 +4988,207 @@
       <c r="AD20" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE20" s="181">
+      <c r="AE20" s="179">
         <f>AE17+AE19</f>
         <v>1219934</v>
       </c>
-      <c r="AF20" s="182"/>
+      <c r="AF20" s="180"/>
     </row>
     <row r="21" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="129" t="s">
+      <c r="B21" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="182"/>
-      <c r="D21" s="182"/>
-      <c r="E21" s="206"/>
-      <c r="F21" s="228" t="s">
+      <c r="C21" s="180"/>
+      <c r="D21" s="180"/>
+      <c r="E21" s="204"/>
+      <c r="F21" s="224" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="188"/>
-      <c r="H21" s="188"/>
-      <c r="I21" s="188"/>
-      <c r="J21" s="189"/>
-      <c r="K21" s="187" t="s">
+      <c r="G21" s="186"/>
+      <c r="H21" s="186"/>
+      <c r="I21" s="186"/>
+      <c r="J21" s="187"/>
+      <c r="K21" s="185" t="s">
         <v>40</v>
       </c>
-      <c r="L21" s="188"/>
-      <c r="M21" s="188"/>
-      <c r="N21" s="188"/>
-      <c r="O21" s="188"/>
-      <c r="P21" s="188"/>
-      <c r="Q21" s="188"/>
-      <c r="R21" s="188"/>
-      <c r="S21" s="188"/>
-      <c r="T21" s="188"/>
-      <c r="U21" s="188"/>
-      <c r="V21" s="188"/>
-      <c r="W21" s="188"/>
-      <c r="X21" s="188"/>
-      <c r="Y21" s="188"/>
-      <c r="Z21" s="188"/>
-      <c r="AA21" s="188"/>
-      <c r="AB21" s="189"/>
+      <c r="L21" s="186"/>
+      <c r="M21" s="186"/>
+      <c r="N21" s="186"/>
+      <c r="O21" s="186"/>
+      <c r="P21" s="186"/>
+      <c r="Q21" s="186"/>
+      <c r="R21" s="186"/>
+      <c r="S21" s="186"/>
+      <c r="T21" s="186"/>
+      <c r="U21" s="186"/>
+      <c r="V21" s="186"/>
+      <c r="W21" s="186"/>
+      <c r="X21" s="186"/>
+      <c r="Y21" s="186"/>
+      <c r="Z21" s="186"/>
+      <c r="AA21" s="186"/>
+      <c r="AB21" s="187"/>
       <c r="AC21" s="18"/>
       <c r="AD21" s="42"/>
-      <c r="AE21" s="149"/>
-      <c r="AF21" s="180"/>
+      <c r="AE21" s="148"/>
+      <c r="AF21" s="178"/>
     </row>
     <row r="22" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="207"/>
-      <c r="C22" s="208"/>
-      <c r="D22" s="208"/>
-      <c r="E22" s="209"/>
-      <c r="F22" s="170" t="s">
+      <c r="B22" s="205"/>
+      <c r="C22" s="206"/>
+      <c r="D22" s="206"/>
+      <c r="E22" s="207"/>
+      <c r="F22" s="241" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="171"/>
-      <c r="H22" s="171"/>
-      <c r="I22" s="171"/>
-      <c r="J22" s="172"/>
-      <c r="K22" s="222" t="s">
+      <c r="G22" s="242"/>
+      <c r="H22" s="242"/>
+      <c r="I22" s="242"/>
+      <c r="J22" s="243"/>
+      <c r="K22" s="176" t="s">
         <v>41</v>
       </c>
-      <c r="L22" s="223"/>
-      <c r="M22" s="223"/>
-      <c r="N22" s="223"/>
-      <c r="O22" s="223"/>
-      <c r="P22" s="223"/>
-      <c r="Q22" s="223"/>
-      <c r="R22" s="176" t="s">
+      <c r="L22" s="177"/>
+      <c r="M22" s="177"/>
+      <c r="N22" s="177"/>
+      <c r="O22" s="177"/>
+      <c r="P22" s="177"/>
+      <c r="Q22" s="177"/>
+      <c r="R22" s="247" t="s">
         <v>32</v>
       </c>
-      <c r="S22" s="224" t="s">
+      <c r="S22" s="220" t="s">
         <v>42</v>
       </c>
-      <c r="T22" s="224"/>
-      <c r="U22" s="224"/>
-      <c r="V22" s="224"/>
-      <c r="W22" s="224"/>
-      <c r="X22" s="224"/>
-      <c r="Y22" s="224"/>
-      <c r="Z22" s="224"/>
-      <c r="AA22" s="224"/>
-      <c r="AB22" s="225"/>
+      <c r="T22" s="220"/>
+      <c r="U22" s="220"/>
+      <c r="V22" s="220"/>
+      <c r="W22" s="220"/>
+      <c r="X22" s="220"/>
+      <c r="Y22" s="220"/>
+      <c r="Z22" s="220"/>
+      <c r="AA22" s="220"/>
+      <c r="AB22" s="221"/>
       <c r="AC22" s="18"/>
-      <c r="AD22" s="184" t="s">
+      <c r="AD22" s="182" t="s">
         <v>17</v>
       </c>
-      <c r="AE22" s="230">
+      <c r="AE22" s="249">
         <f>K23*S23</f>
         <v>109904</v>
       </c>
-      <c r="AF22" s="230"/>
+      <c r="AF22" s="249"/>
     </row>
     <row r="23" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="210"/>
-      <c r="C23" s="180"/>
-      <c r="D23" s="180"/>
-      <c r="E23" s="209"/>
-      <c r="F23" s="173"/>
-      <c r="G23" s="174"/>
-      <c r="H23" s="174"/>
-      <c r="I23" s="174"/>
-      <c r="J23" s="175"/>
-      <c r="K23" s="192">
+      <c r="B23" s="208"/>
+      <c r="C23" s="178"/>
+      <c r="D23" s="178"/>
+      <c r="E23" s="207"/>
+      <c r="F23" s="244"/>
+      <c r="G23" s="245"/>
+      <c r="H23" s="245"/>
+      <c r="I23" s="245"/>
+      <c r="J23" s="246"/>
+      <c r="K23" s="190">
         <f>IF(K18&lt;&gt;0,K18*10%,VLOOKUP(E11,[1]!SCSF_Billings[#Data],6,FALSE))</f>
         <v>1600</v>
       </c>
-      <c r="L23" s="193"/>
-      <c r="M23" s="193"/>
-      <c r="N23" s="193"/>
-      <c r="O23" s="193"/>
-      <c r="P23" s="193"/>
-      <c r="Q23" s="193"/>
-      <c r="R23" s="177"/>
-      <c r="S23" s="227">
+      <c r="L23" s="191"/>
+      <c r="M23" s="191"/>
+      <c r="N23" s="191"/>
+      <c r="O23" s="191"/>
+      <c r="P23" s="191"/>
+      <c r="Q23" s="191"/>
+      <c r="R23" s="248"/>
+      <c r="S23" s="223">
         <f>S18</f>
         <v>68.69</v>
       </c>
-      <c r="T23" s="193"/>
-      <c r="U23" s="193"/>
-      <c r="V23" s="193"/>
-      <c r="W23" s="193"/>
-      <c r="X23" s="193"/>
-      <c r="Y23" s="193"/>
-      <c r="Z23" s="193"/>
-      <c r="AA23" s="193"/>
-      <c r="AB23" s="195"/>
+      <c r="T23" s="191"/>
+      <c r="U23" s="191"/>
+      <c r="V23" s="191"/>
+      <c r="W23" s="191"/>
+      <c r="X23" s="191"/>
+      <c r="Y23" s="191"/>
+      <c r="Z23" s="191"/>
+      <c r="AA23" s="191"/>
+      <c r="AB23" s="193"/>
       <c r="AC23" s="18"/>
-      <c r="AD23" s="184"/>
-      <c r="AE23" s="230"/>
-      <c r="AF23" s="230"/>
+      <c r="AD23" s="182"/>
+      <c r="AE23" s="249"/>
+      <c r="AF23" s="249"/>
     </row>
     <row r="24" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="211"/>
-      <c r="C24" s="212"/>
-      <c r="D24" s="212"/>
-      <c r="E24" s="213"/>
-      <c r="F24" s="194" t="s">
+      <c r="B24" s="209"/>
+      <c r="C24" s="210"/>
+      <c r="D24" s="210"/>
+      <c r="E24" s="211"/>
+      <c r="F24" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="193"/>
-      <c r="H24" s="193"/>
-      <c r="I24" s="193"/>
-      <c r="J24" s="195"/>
-      <c r="K24" s="196">
+      <c r="G24" s="191"/>
+      <c r="H24" s="191"/>
+      <c r="I24" s="191"/>
+      <c r="J24" s="193"/>
+      <c r="K24" s="194">
         <f>ROUND(AE22*11%,0)</f>
         <v>12089</v>
       </c>
-      <c r="L24" s="197"/>
-      <c r="M24" s="197"/>
-      <c r="N24" s="197"/>
-      <c r="O24" s="197"/>
-      <c r="P24" s="197"/>
-      <c r="Q24" s="197"/>
-      <c r="R24" s="197"/>
-      <c r="S24" s="197"/>
-      <c r="T24" s="197"/>
-      <c r="U24" s="197"/>
-      <c r="V24" s="197"/>
-      <c r="W24" s="197"/>
-      <c r="X24" s="197"/>
-      <c r="Y24" s="197"/>
-      <c r="Z24" s="197"/>
-      <c r="AA24" s="197"/>
-      <c r="AB24" s="198"/>
+      <c r="L24" s="195"/>
+      <c r="M24" s="195"/>
+      <c r="N24" s="195"/>
+      <c r="O24" s="195"/>
+      <c r="P24" s="195"/>
+      <c r="Q24" s="195"/>
+      <c r="R24" s="195"/>
+      <c r="S24" s="195"/>
+      <c r="T24" s="195"/>
+      <c r="U24" s="195"/>
+      <c r="V24" s="195"/>
+      <c r="W24" s="195"/>
+      <c r="X24" s="195"/>
+      <c r="Y24" s="195"/>
+      <c r="Z24" s="195"/>
+      <c r="AA24" s="195"/>
+      <c r="AB24" s="196"/>
       <c r="AC24" s="18"/>
       <c r="AD24" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE24" s="163">
+      <c r="AE24" s="160">
         <f>K24</f>
         <v>12089</v>
       </c>
-      <c r="AF24" s="212"/>
+      <c r="AF24" s="210"/>
     </row>
     <row r="25" spans="1:32" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="92"/>
+      <c r="A25" s="74"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>
-      <c r="F25" s="214"/>
-      <c r="G25" s="212"/>
-      <c r="H25" s="212"/>
-      <c r="I25" s="212"/>
+      <c r="F25" s="212"/>
+      <c r="G25" s="210"/>
+      <c r="H25" s="210"/>
+      <c r="I25" s="210"/>
       <c r="J25" s="69"/>
-      <c r="K25" s="240"/>
-      <c r="L25" s="212"/>
-      <c r="M25" s="212"/>
-      <c r="N25" s="212"/>
-      <c r="O25" s="212"/>
-      <c r="P25" s="212"/>
-      <c r="Q25" s="212"/>
-      <c r="R25" s="212"/>
-      <c r="S25" s="212"/>
-      <c r="T25" s="212"/>
-      <c r="U25" s="212"/>
-      <c r="V25" s="212"/>
-      <c r="W25" s="212"/>
+      <c r="K25" s="230"/>
+      <c r="L25" s="210"/>
+      <c r="M25" s="210"/>
+      <c r="N25" s="210"/>
+      <c r="O25" s="210"/>
+      <c r="P25" s="210"/>
+      <c r="Q25" s="210"/>
+      <c r="R25" s="210"/>
+      <c r="S25" s="210"/>
+      <c r="T25" s="210"/>
+      <c r="U25" s="210"/>
+      <c r="V25" s="210"/>
+      <c r="W25" s="210"/>
       <c r="X25" s="36"/>
       <c r="Y25" s="36"/>
       <c r="Z25" s="36"/>
@@ -5180,14 +5198,14 @@
       <c r="AD25" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="AE25" s="238">
+      <c r="AE25" s="228">
         <f>AE22+AE24</f>
         <v>121993</v>
       </c>
-      <c r="AF25" s="239"/>
+      <c r="AF25" s="229"/>
     </row>
     <row r="26" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="103"/>
+      <c r="A26" s="107"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
@@ -5221,7 +5239,7 @@
       <c r="AF26" s="59"/>
     </row>
     <row r="27" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="103"/>
+      <c r="A27" s="107"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="52"/>
@@ -5240,29 +5258,29 @@
       <c r="Q27" s="52"/>
       <c r="R27" s="52"/>
       <c r="S27" s="52"/>
-      <c r="T27" s="152" t="s">
-        <v>55</v>
-      </c>
-      <c r="U27" s="180"/>
-      <c r="V27" s="180"/>
-      <c r="W27" s="180"/>
-      <c r="X27" s="180"/>
-      <c r="Y27" s="180"/>
-      <c r="Z27" s="180"/>
-      <c r="AA27" s="180"/>
-      <c r="AB27" s="180"/>
+      <c r="T27" s="151" t="s">
+        <v>75</v>
+      </c>
+      <c r="U27" s="178"/>
+      <c r="V27" s="178"/>
+      <c r="W27" s="178"/>
+      <c r="X27" s="178"/>
+      <c r="Y27" s="178"/>
+      <c r="Z27" s="178"/>
+      <c r="AA27" s="178"/>
+      <c r="AB27" s="178"/>
       <c r="AC27" s="18"/>
       <c r="AD27" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE27" s="237">
+      <c r="AE27" s="231">
         <f>AE20*5%</f>
         <v>60996.700000000004</v>
       </c>
-      <c r="AF27" s="179"/>
+      <c r="AF27" s="227"/>
     </row>
     <row r="28" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="103"/>
+      <c r="A28" s="107"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="52"/>
@@ -5281,28 +5299,28 @@
       <c r="Q28" s="52"/>
       <c r="R28" s="52"/>
       <c r="S28" s="52"/>
-      <c r="T28" s="152" t="s">
-        <v>58</v>
-      </c>
-      <c r="U28" s="115"/>
-      <c r="V28" s="115"/>
-      <c r="W28" s="115"/>
-      <c r="X28" s="115"/>
-      <c r="Y28" s="115"/>
-      <c r="Z28" s="115"/>
-      <c r="AA28" s="115"/>
-      <c r="AB28" s="115"/>
+      <c r="T28" s="151" t="s">
+        <v>56</v>
+      </c>
+      <c r="U28" s="119"/>
+      <c r="V28" s="119"/>
+      <c r="W28" s="119"/>
+      <c r="X28" s="119"/>
+      <c r="Y28" s="119"/>
+      <c r="Z28" s="119"/>
+      <c r="AA28" s="119"/>
+      <c r="AB28" s="119"/>
       <c r="AC28" s="28"/>
       <c r="AD28" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE28" s="178">
+      <c r="AE28" s="226">
         <v>0</v>
       </c>
-      <c r="AF28" s="179"/>
+      <c r="AF28" s="227"/>
     </row>
     <row r="29" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="103"/>
+      <c r="A29" s="107"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -5321,25 +5339,25 @@
       <c r="Q29" s="9"/>
       <c r="R29" s="9"/>
       <c r="S29" s="9"/>
-      <c r="T29" s="152" t="s">
+      <c r="T29" s="151" t="s">
         <v>22</v>
       </c>
-      <c r="U29" s="180"/>
-      <c r="V29" s="180"/>
-      <c r="W29" s="180"/>
-      <c r="X29" s="180"/>
-      <c r="Y29" s="180"/>
-      <c r="Z29" s="180"/>
-      <c r="AA29" s="180"/>
-      <c r="AB29" s="180"/>
+      <c r="U29" s="178"/>
+      <c r="V29" s="178"/>
+      <c r="W29" s="178"/>
+      <c r="X29" s="178"/>
+      <c r="Y29" s="178"/>
+      <c r="Z29" s="178"/>
+      <c r="AA29" s="178"/>
+      <c r="AB29" s="178"/>
       <c r="AC29" s="28"/>
       <c r="AD29" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE29" s="178">
+      <c r="AE29" s="226">
         <v>10000</v>
       </c>
-      <c r="AF29" s="179"/>
+      <c r="AF29" s="227"/>
     </row>
     <row r="30" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
@@ -5361,26 +5379,26 @@
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
       <c r="S30" s="19"/>
-      <c r="T30" s="165" t="s">
+      <c r="T30" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="U30" s="180"/>
-      <c r="V30" s="180"/>
-      <c r="W30" s="180"/>
-      <c r="X30" s="180"/>
-      <c r="Y30" s="180"/>
-      <c r="Z30" s="180"/>
-      <c r="AA30" s="180"/>
-      <c r="AB30" s="180"/>
+      <c r="U30" s="178"/>
+      <c r="V30" s="178"/>
+      <c r="W30" s="178"/>
+      <c r="X30" s="178"/>
+      <c r="Y30" s="178"/>
+      <c r="Z30" s="178"/>
+      <c r="AA30" s="178"/>
+      <c r="AB30" s="178"/>
       <c r="AC30" s="19"/>
       <c r="AD30" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE30" s="120">
+      <c r="AE30" s="143">
         <f>AE20+AE25+AE27+AE29</f>
         <v>1412923.7</v>
       </c>
-      <c r="AF30" s="180"/>
+      <c r="AF30" s="178"/>
     </row>
     <row r="31" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
@@ -5452,41 +5470,41 @@
     </row>
     <row r="33" spans="1:32" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="157" t="s">
+      <c r="B33" s="169" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="157"/>
-      <c r="D33" s="157"/>
-      <c r="E33" s="157"/>
-      <c r="F33" s="157"/>
-      <c r="G33" s="235" t="s">
+      <c r="C33" s="169"/>
+      <c r="D33" s="169"/>
+      <c r="E33" s="169"/>
+      <c r="F33" s="169"/>
+      <c r="G33" s="239" t="s">
         <v>47</v>
       </c>
-      <c r="H33" s="235"/>
-      <c r="I33" s="235"/>
-      <c r="J33" s="235"/>
-      <c r="K33" s="235"/>
-      <c r="L33" s="235"/>
-      <c r="M33" s="235"/>
-      <c r="N33" s="235"/>
-      <c r="O33" s="235"/>
-      <c r="P33" s="235"/>
-      <c r="Q33" s="235"/>
-      <c r="R33" s="235"/>
-      <c r="S33" s="235"/>
-      <c r="T33" s="235"/>
-      <c r="U33" s="235"/>
-      <c r="V33" s="235"/>
-      <c r="W33" s="235"/>
-      <c r="X33" s="235"/>
-      <c r="Y33" s="235"/>
-      <c r="Z33" s="235"/>
-      <c r="AA33" s="235"/>
-      <c r="AB33" s="235"/>
-      <c r="AC33" s="235"/>
-      <c r="AD33" s="235"/>
-      <c r="AE33" s="235"/>
-      <c r="AF33" s="235"/>
+      <c r="H33" s="239"/>
+      <c r="I33" s="239"/>
+      <c r="J33" s="239"/>
+      <c r="K33" s="239"/>
+      <c r="L33" s="239"/>
+      <c r="M33" s="239"/>
+      <c r="N33" s="239"/>
+      <c r="O33" s="239"/>
+      <c r="P33" s="239"/>
+      <c r="Q33" s="239"/>
+      <c r="R33" s="239"/>
+      <c r="S33" s="239"/>
+      <c r="T33" s="239"/>
+      <c r="U33" s="239"/>
+      <c r="V33" s="239"/>
+      <c r="W33" s="239"/>
+      <c r="X33" s="239"/>
+      <c r="Y33" s="239"/>
+      <c r="Z33" s="239"/>
+      <c r="AA33" s="239"/>
+      <c r="AB33" s="239"/>
+      <c r="AC33" s="239"/>
+      <c r="AD33" s="239"/>
+      <c r="AE33" s="239"/>
+      <c r="AF33" s="239"/>
     </row>
     <row r="34" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
@@ -5615,207 +5633,207 @@
       <c r="V37" s="6"/>
       <c r="W37" s="6"/>
       <c r="X37" s="48"/>
-      <c r="AB37" s="236" t="s">
+      <c r="AB37" s="240" t="s">
         <v>38</v>
       </c>
-      <c r="AC37" s="236"/>
-      <c r="AD37" s="236"/>
-      <c r="AE37" s="236"/>
-      <c r="AF37" s="236"/>
+      <c r="AC37" s="240"/>
+      <c r="AD37" s="240"/>
+      <c r="AE37" s="240"/>
+      <c r="AF37" s="240"/>
     </row>
     <row r="38" spans="1:32" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
-      <c r="B38" s="156" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" s="156"/>
-      <c r="D38" s="156"/>
-      <c r="E38" s="156"/>
-      <c r="F38" s="156"/>
-      <c r="G38" s="156"/>
-      <c r="H38" s="156"/>
-      <c r="I38" s="156"/>
-      <c r="J38" s="156"/>
-      <c r="K38" s="156"/>
-      <c r="L38" s="156"/>
-      <c r="M38" s="156"/>
-      <c r="N38" s="156"/>
-      <c r="O38" s="156"/>
-      <c r="P38" s="156"/>
-      <c r="Q38" s="156"/>
-      <c r="R38" s="156"/>
-      <c r="S38" s="156"/>
-      <c r="T38" s="156"/>
-      <c r="U38" s="156"/>
-      <c r="V38" s="156"/>
-      <c r="W38" s="156"/>
-      <c r="AB38" s="236"/>
-      <c r="AC38" s="236"/>
-      <c r="AD38" s="236"/>
-      <c r="AE38" s="236"/>
-      <c r="AF38" s="236"/>
+      <c r="B38" s="168" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="168"/>
+      <c r="D38" s="168"/>
+      <c r="E38" s="168"/>
+      <c r="F38" s="168"/>
+      <c r="G38" s="168"/>
+      <c r="H38" s="168"/>
+      <c r="I38" s="168"/>
+      <c r="J38" s="168"/>
+      <c r="K38" s="168"/>
+      <c r="L38" s="168"/>
+      <c r="M38" s="168"/>
+      <c r="N38" s="168"/>
+      <c r="O38" s="168"/>
+      <c r="P38" s="168"/>
+      <c r="Q38" s="168"/>
+      <c r="R38" s="168"/>
+      <c r="S38" s="168"/>
+      <c r="T38" s="168"/>
+      <c r="U38" s="168"/>
+      <c r="V38" s="168"/>
+      <c r="W38" s="168"/>
+      <c r="AB38" s="240"/>
+      <c r="AC38" s="240"/>
+      <c r="AD38" s="240"/>
+      <c r="AE38" s="240"/>
+      <c r="AF38" s="240"/>
     </row>
     <row r="39" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
-      <c r="B39" s="156"/>
-      <c r="C39" s="156"/>
-      <c r="D39" s="156"/>
-      <c r="E39" s="156"/>
-      <c r="F39" s="156"/>
-      <c r="G39" s="156"/>
-      <c r="H39" s="156"/>
-      <c r="I39" s="156"/>
-      <c r="J39" s="156"/>
-      <c r="K39" s="156"/>
-      <c r="L39" s="156"/>
-      <c r="M39" s="156"/>
-      <c r="N39" s="156"/>
-      <c r="O39" s="156"/>
-      <c r="P39" s="156"/>
-      <c r="Q39" s="156"/>
-      <c r="R39" s="156"/>
-      <c r="S39" s="156"/>
-      <c r="T39" s="156"/>
-      <c r="U39" s="156"/>
-      <c r="V39" s="156"/>
-      <c r="W39" s="156"/>
-      <c r="AB39" s="236"/>
-      <c r="AC39" s="236"/>
-      <c r="AD39" s="236"/>
-      <c r="AE39" s="236"/>
-      <c r="AF39" s="236"/>
+      <c r="B39" s="168"/>
+      <c r="C39" s="168"/>
+      <c r="D39" s="168"/>
+      <c r="E39" s="168"/>
+      <c r="F39" s="168"/>
+      <c r="G39" s="168"/>
+      <c r="H39" s="168"/>
+      <c r="I39" s="168"/>
+      <c r="J39" s="168"/>
+      <c r="K39" s="168"/>
+      <c r="L39" s="168"/>
+      <c r="M39" s="168"/>
+      <c r="N39" s="168"/>
+      <c r="O39" s="168"/>
+      <c r="P39" s="168"/>
+      <c r="Q39" s="168"/>
+      <c r="R39" s="168"/>
+      <c r="S39" s="168"/>
+      <c r="T39" s="168"/>
+      <c r="U39" s="168"/>
+      <c r="V39" s="168"/>
+      <c r="W39" s="168"/>
+      <c r="AB39" s="240"/>
+      <c r="AC39" s="240"/>
+      <c r="AD39" s="240"/>
+      <c r="AE39" s="240"/>
+      <c r="AF39" s="240"/>
     </row>
     <row r="40" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
-      <c r="B40" s="156"/>
-      <c r="C40" s="156"/>
-      <c r="D40" s="156"/>
-      <c r="E40" s="156"/>
-      <c r="F40" s="156"/>
-      <c r="G40" s="156"/>
-      <c r="H40" s="156"/>
-      <c r="I40" s="156"/>
-      <c r="J40" s="156"/>
-      <c r="K40" s="156"/>
-      <c r="L40" s="156"/>
-      <c r="M40" s="156"/>
-      <c r="N40" s="156"/>
-      <c r="O40" s="156"/>
-      <c r="P40" s="156"/>
-      <c r="Q40" s="156"/>
-      <c r="R40" s="156"/>
-      <c r="S40" s="156"/>
-      <c r="T40" s="156"/>
-      <c r="U40" s="156"/>
-      <c r="V40" s="156"/>
-      <c r="W40" s="156"/>
+      <c r="B40" s="168"/>
+      <c r="C40" s="168"/>
+      <c r="D40" s="168"/>
+      <c r="E40" s="168"/>
+      <c r="F40" s="168"/>
+      <c r="G40" s="168"/>
+      <c r="H40" s="168"/>
+      <c r="I40" s="168"/>
+      <c r="J40" s="168"/>
+      <c r="K40" s="168"/>
+      <c r="L40" s="168"/>
+      <c r="M40" s="168"/>
+      <c r="N40" s="168"/>
+      <c r="O40" s="168"/>
+      <c r="P40" s="168"/>
+      <c r="Q40" s="168"/>
+      <c r="R40" s="168"/>
+      <c r="S40" s="168"/>
+      <c r="T40" s="168"/>
+      <c r="U40" s="168"/>
+      <c r="V40" s="168"/>
+      <c r="W40" s="168"/>
     </row>
     <row r="41" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
-      <c r="B41" s="156"/>
-      <c r="C41" s="156"/>
-      <c r="D41" s="156"/>
-      <c r="E41" s="156"/>
-      <c r="F41" s="156"/>
-      <c r="G41" s="156"/>
-      <c r="H41" s="156"/>
-      <c r="I41" s="156"/>
-      <c r="J41" s="156"/>
-      <c r="K41" s="156"/>
-      <c r="L41" s="156"/>
-      <c r="M41" s="156"/>
-      <c r="N41" s="156"/>
-      <c r="O41" s="156"/>
-      <c r="P41" s="156"/>
-      <c r="Q41" s="156"/>
-      <c r="R41" s="156"/>
-      <c r="S41" s="156"/>
-      <c r="T41" s="156"/>
-      <c r="U41" s="156"/>
-      <c r="V41" s="156"/>
-      <c r="W41" s="156"/>
+      <c r="B41" s="168"/>
+      <c r="C41" s="168"/>
+      <c r="D41" s="168"/>
+      <c r="E41" s="168"/>
+      <c r="F41" s="168"/>
+      <c r="G41" s="168"/>
+      <c r="H41" s="168"/>
+      <c r="I41" s="168"/>
+      <c r="J41" s="168"/>
+      <c r="K41" s="168"/>
+      <c r="L41" s="168"/>
+      <c r="M41" s="168"/>
+      <c r="N41" s="168"/>
+      <c r="O41" s="168"/>
+      <c r="P41" s="168"/>
+      <c r="Q41" s="168"/>
+      <c r="R41" s="168"/>
+      <c r="S41" s="168"/>
+      <c r="T41" s="168"/>
+      <c r="U41" s="168"/>
+      <c r="V41" s="168"/>
+      <c r="W41" s="168"/>
     </row>
     <row r="42" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
-      <c r="B42" s="156"/>
-      <c r="C42" s="156"/>
-      <c r="D42" s="156"/>
-      <c r="E42" s="156"/>
-      <c r="F42" s="156"/>
-      <c r="G42" s="156"/>
-      <c r="H42" s="156"/>
-      <c r="I42" s="156"/>
-      <c r="J42" s="156"/>
-      <c r="K42" s="156"/>
-      <c r="L42" s="156"/>
-      <c r="M42" s="156"/>
-      <c r="N42" s="156"/>
-      <c r="O42" s="156"/>
-      <c r="P42" s="156"/>
-      <c r="Q42" s="156"/>
-      <c r="R42" s="156"/>
-      <c r="S42" s="156"/>
-      <c r="T42" s="156"/>
-      <c r="U42" s="156"/>
-      <c r="V42" s="156"/>
-      <c r="W42" s="156"/>
+      <c r="B42" s="168"/>
+      <c r="C42" s="168"/>
+      <c r="D42" s="168"/>
+      <c r="E42" s="168"/>
+      <c r="F42" s="168"/>
+      <c r="G42" s="168"/>
+      <c r="H42" s="168"/>
+      <c r="I42" s="168"/>
+      <c r="J42" s="168"/>
+      <c r="K42" s="168"/>
+      <c r="L42" s="168"/>
+      <c r="M42" s="168"/>
+      <c r="N42" s="168"/>
+      <c r="O42" s="168"/>
+      <c r="P42" s="168"/>
+      <c r="Q42" s="168"/>
+      <c r="R42" s="168"/>
+      <c r="S42" s="168"/>
+      <c r="T42" s="168"/>
+      <c r="U42" s="168"/>
+      <c r="V42" s="168"/>
+      <c r="W42" s="168"/>
     </row>
     <row r="43" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
-      <c r="B43" s="156"/>
-      <c r="C43" s="156"/>
-      <c r="D43" s="156"/>
-      <c r="E43" s="156"/>
-      <c r="F43" s="156"/>
-      <c r="G43" s="156"/>
-      <c r="H43" s="156"/>
-      <c r="I43" s="156"/>
-      <c r="J43" s="156"/>
-      <c r="K43" s="156"/>
-      <c r="L43" s="156"/>
-      <c r="M43" s="156"/>
-      <c r="N43" s="156"/>
-      <c r="O43" s="156"/>
-      <c r="P43" s="156"/>
-      <c r="Q43" s="156"/>
-      <c r="R43" s="156"/>
-      <c r="S43" s="156"/>
-      <c r="T43" s="156"/>
-      <c r="U43" s="156"/>
-      <c r="V43" s="156"/>
-      <c r="W43" s="156"/>
+      <c r="B43" s="168"/>
+      <c r="C43" s="168"/>
+      <c r="D43" s="168"/>
+      <c r="E43" s="168"/>
+      <c r="F43" s="168"/>
+      <c r="G43" s="168"/>
+      <c r="H43" s="168"/>
+      <c r="I43" s="168"/>
+      <c r="J43" s="168"/>
+      <c r="K43" s="168"/>
+      <c r="L43" s="168"/>
+      <c r="M43" s="168"/>
+      <c r="N43" s="168"/>
+      <c r="O43" s="168"/>
+      <c r="P43" s="168"/>
+      <c r="Q43" s="168"/>
+      <c r="R43" s="168"/>
+      <c r="S43" s="168"/>
+      <c r="T43" s="168"/>
+      <c r="U43" s="168"/>
+      <c r="V43" s="168"/>
+      <c r="W43" s="168"/>
     </row>
     <row r="44" spans="1:32" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
-      <c r="B44" s="156"/>
-      <c r="C44" s="156"/>
-      <c r="D44" s="156"/>
-      <c r="E44" s="156"/>
-      <c r="F44" s="156"/>
-      <c r="G44" s="156"/>
-      <c r="H44" s="156"/>
-      <c r="I44" s="156"/>
-      <c r="J44" s="156"/>
-      <c r="K44" s="156"/>
-      <c r="L44" s="156"/>
-      <c r="M44" s="156"/>
-      <c r="N44" s="156"/>
-      <c r="O44" s="156"/>
-      <c r="P44" s="156"/>
-      <c r="Q44" s="156"/>
-      <c r="R44" s="156"/>
-      <c r="S44" s="156"/>
-      <c r="T44" s="156"/>
-      <c r="U44" s="156"/>
-      <c r="V44" s="156"/>
-      <c r="W44" s="156"/>
-      <c r="AB44" s="233" t="s">
+      <c r="B44" s="168"/>
+      <c r="C44" s="168"/>
+      <c r="D44" s="168"/>
+      <c r="E44" s="168"/>
+      <c r="F44" s="168"/>
+      <c r="G44" s="168"/>
+      <c r="H44" s="168"/>
+      <c r="I44" s="168"/>
+      <c r="J44" s="168"/>
+      <c r="K44" s="168"/>
+      <c r="L44" s="168"/>
+      <c r="M44" s="168"/>
+      <c r="N44" s="168"/>
+      <c r="O44" s="168"/>
+      <c r="P44" s="168"/>
+      <c r="Q44" s="168"/>
+      <c r="R44" s="168"/>
+      <c r="S44" s="168"/>
+      <c r="T44" s="168"/>
+      <c r="U44" s="168"/>
+      <c r="V44" s="168"/>
+      <c r="W44" s="168"/>
+      <c r="AB44" s="237" t="s">
         <v>39</v>
       </c>
-      <c r="AC44" s="234"/>
-      <c r="AD44" s="234"/>
-      <c r="AE44" s="234"/>
-      <c r="AF44" s="234"/>
+      <c r="AC44" s="238"/>
+      <c r="AD44" s="238"/>
+      <c r="AE44" s="238"/>
+      <c r="AF44" s="238"/>
     </row>
     <row r="45" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
@@ -5841,11 +5859,11 @@
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
       <c r="W45" s="6"/>
-      <c r="AB45" s="231"/>
-      <c r="AC45" s="232"/>
-      <c r="AD45" s="232"/>
-      <c r="AE45" s="232"/>
-      <c r="AF45" s="232"/>
+      <c r="AB45" s="235"/>
+      <c r="AC45" s="236"/>
+      <c r="AD45" s="236"/>
+      <c r="AE45" s="236"/>
+      <c r="AF45" s="236"/>
     </row>
     <row r="46" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
@@ -5883,12 +5901,12 @@
     </row>
     <row r="47" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
-      <c r="B47" s="241" t="s">
-        <v>59</v>
-      </c>
-      <c r="C47" s="241"/>
-      <c r="D47" s="241"/>
-      <c r="E47" s="241"/>
+      <c r="B47" s="166" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="166"/>
+      <c r="D47" s="166"/>
+      <c r="E47" s="166"/>
       <c r="F47" s="31"/>
       <c r="G47" s="31"/>
       <c r="H47" s="31"/>
@@ -5919,36 +5937,36 @@
     </row>
     <row r="48" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
-      <c r="B48" s="242" t="s">
+      <c r="B48" s="167" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="167"/>
+      <c r="D48" s="167" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" s="167"/>
+      <c r="F48" s="167"/>
+      <c r="G48" s="167"/>
+      <c r="H48" s="232" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="242"/>
-      <c r="D48" s="242" t="s">
+      <c r="I48" s="233"/>
+      <c r="J48" s="233"/>
+      <c r="K48" s="233"/>
+      <c r="L48" s="233"/>
+      <c r="M48" s="233"/>
+      <c r="N48" s="234"/>
+      <c r="O48" s="232" t="s">
         <v>61</v>
       </c>
-      <c r="E48" s="242"/>
-      <c r="F48" s="242"/>
-      <c r="G48" s="242"/>
-      <c r="H48" s="242" t="s">
-        <v>62</v>
-      </c>
-      <c r="I48" s="242"/>
-      <c r="J48" s="242"/>
-      <c r="K48" s="242"/>
-      <c r="L48" s="242"/>
-      <c r="M48" s="242"/>
-      <c r="N48" s="242"/>
-      <c r="O48" s="242" t="s">
-        <v>63</v>
-      </c>
-      <c r="P48" s="242"/>
-      <c r="Q48" s="242"/>
-      <c r="R48" s="242"/>
-      <c r="S48" s="242"/>
-      <c r="T48" s="242"/>
-      <c r="U48" s="242"/>
-      <c r="V48" s="242"/>
-      <c r="W48" s="242"/>
+      <c r="P48" s="233"/>
+      <c r="Q48" s="233"/>
+      <c r="R48" s="233"/>
+      <c r="S48" s="233"/>
+      <c r="T48" s="233"/>
+      <c r="U48" s="233"/>
+      <c r="V48" s="233"/>
+      <c r="W48" s="234"/>
       <c r="X48" s="2"/>
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
@@ -5961,36 +5979,36 @@
     </row>
     <row r="49" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
-      <c r="B49" s="243" t="s">
+      <c r="B49" s="171" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="171"/>
+      <c r="D49" s="175" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49" s="175"/>
+      <c r="F49" s="175"/>
+      <c r="G49" s="175"/>
+      <c r="H49" s="250" t="s">
         <v>64</v>
       </c>
-      <c r="C49" s="243"/>
-      <c r="D49" s="244" t="s">
+      <c r="I49" s="251"/>
+      <c r="J49" s="251"/>
+      <c r="K49" s="251"/>
+      <c r="L49" s="251"/>
+      <c r="M49" s="251"/>
+      <c r="N49" s="252"/>
+      <c r="O49" s="250" t="s">
         <v>65</v>
       </c>
-      <c r="E49" s="244"/>
-      <c r="F49" s="244"/>
-      <c r="G49" s="244"/>
-      <c r="H49" s="244" t="s">
-        <v>66</v>
-      </c>
-      <c r="I49" s="244"/>
-      <c r="J49" s="244"/>
-      <c r="K49" s="244"/>
-      <c r="L49" s="244"/>
-      <c r="M49" s="244"/>
-      <c r="N49" s="244"/>
-      <c r="O49" s="244" t="s">
-        <v>67</v>
-      </c>
-      <c r="P49" s="244"/>
-      <c r="Q49" s="244"/>
-      <c r="R49" s="244"/>
-      <c r="S49" s="244"/>
-      <c r="T49" s="244"/>
-      <c r="U49" s="244"/>
-      <c r="V49" s="244"/>
-      <c r="W49" s="244"/>
+      <c r="P49" s="251"/>
+      <c r="Q49" s="251"/>
+      <c r="R49" s="251"/>
+      <c r="S49" s="251"/>
+      <c r="T49" s="251"/>
+      <c r="U49" s="251"/>
+      <c r="V49" s="251"/>
+      <c r="W49" s="252"/>
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
@@ -6003,36 +6021,36 @@
     </row>
     <row r="50" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
-      <c r="B50" s="243" t="s">
+      <c r="B50" s="171" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" s="171"/>
+      <c r="D50" s="175" t="s">
+        <v>67</v>
+      </c>
+      <c r="E50" s="175"/>
+      <c r="F50" s="175"/>
+      <c r="G50" s="175"/>
+      <c r="H50" s="250" t="s">
         <v>68</v>
       </c>
-      <c r="C50" s="243"/>
-      <c r="D50" s="244" t="s">
+      <c r="I50" s="251"/>
+      <c r="J50" s="251"/>
+      <c r="K50" s="251"/>
+      <c r="L50" s="251"/>
+      <c r="M50" s="251"/>
+      <c r="N50" s="252"/>
+      <c r="O50" s="250" t="s">
         <v>69</v>
       </c>
-      <c r="E50" s="244"/>
-      <c r="F50" s="244"/>
-      <c r="G50" s="244"/>
-      <c r="H50" s="244" t="s">
-        <v>70</v>
-      </c>
-      <c r="I50" s="244"/>
-      <c r="J50" s="244"/>
-      <c r="K50" s="244"/>
-      <c r="L50" s="244"/>
-      <c r="M50" s="244"/>
-      <c r="N50" s="244"/>
-      <c r="O50" s="244" t="s">
-        <v>71</v>
-      </c>
-      <c r="P50" s="244"/>
-      <c r="Q50" s="244"/>
-      <c r="R50" s="244"/>
-      <c r="S50" s="244"/>
-      <c r="T50" s="244"/>
-      <c r="U50" s="244"/>
-      <c r="V50" s="244"/>
-      <c r="W50" s="244"/>
+      <c r="P50" s="251"/>
+      <c r="Q50" s="251"/>
+      <c r="R50" s="251"/>
+      <c r="S50" s="251"/>
+      <c r="T50" s="251"/>
+      <c r="U50" s="251"/>
+      <c r="V50" s="251"/>
+      <c r="W50" s="252"/>
       <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
@@ -6043,38 +6061,38 @@
       <c r="AE50" s="2"/>
       <c r="AF50" s="2"/>
     </row>
-    <row r="51" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
-      <c r="B51" s="243" t="s">
+      <c r="B51" s="171" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" s="171"/>
+      <c r="D51" s="172" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" s="172"/>
+      <c r="F51" s="172"/>
+      <c r="G51" s="172"/>
+      <c r="H51" s="253" t="s">
         <v>72</v>
       </c>
-      <c r="C51" s="243"/>
-      <c r="D51" s="245" t="s">
+      <c r="I51" s="254"/>
+      <c r="J51" s="254"/>
+      <c r="K51" s="254"/>
+      <c r="L51" s="254"/>
+      <c r="M51" s="254"/>
+      <c r="N51" s="255"/>
+      <c r="O51" s="253" t="s">
         <v>73</v>
       </c>
-      <c r="E51" s="245"/>
-      <c r="F51" s="245"/>
-      <c r="G51" s="245"/>
-      <c r="H51" s="246" t="s">
-        <v>74</v>
-      </c>
-      <c r="I51" s="246"/>
-      <c r="J51" s="246"/>
-      <c r="K51" s="246"/>
-      <c r="L51" s="246"/>
-      <c r="M51" s="246"/>
-      <c r="N51" s="246"/>
-      <c r="O51" s="246" t="s">
-        <v>75</v>
-      </c>
-      <c r="P51" s="246"/>
-      <c r="Q51" s="246"/>
-      <c r="R51" s="246"/>
-      <c r="S51" s="246"/>
-      <c r="T51" s="246"/>
-      <c r="U51" s="246"/>
-      <c r="V51" s="246"/>
-      <c r="W51" s="246"/>
+      <c r="P51" s="254"/>
+      <c r="Q51" s="254"/>
+      <c r="R51" s="254"/>
+      <c r="S51" s="254"/>
+      <c r="T51" s="254"/>
+      <c r="U51" s="254"/>
+      <c r="V51" s="254"/>
+      <c r="W51" s="255"/>
       <c r="X51" s="6"/>
       <c r="Y51" s="6"/>
       <c r="Z51" s="6"/>
@@ -6087,30 +6105,30 @@
     </row>
     <row r="52" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
-      <c r="B52" s="247" t="s">
-        <v>76</v>
-      </c>
-      <c r="C52" s="247"/>
-      <c r="D52" s="247"/>
-      <c r="E52" s="247"/>
-      <c r="F52" s="247"/>
-      <c r="G52" s="247"/>
-      <c r="H52" s="247"/>
-      <c r="I52" s="247"/>
-      <c r="J52" s="247"/>
-      <c r="K52" s="247"/>
-      <c r="L52" s="247"/>
-      <c r="M52" s="247"/>
-      <c r="N52" s="247"/>
-      <c r="O52" s="247"/>
-      <c r="P52" s="247"/>
-      <c r="Q52" s="247"/>
-      <c r="R52" s="247"/>
-      <c r="S52" s="247"/>
-      <c r="T52" s="247"/>
-      <c r="U52" s="247"/>
-      <c r="V52" s="247"/>
-      <c r="W52" s="247"/>
+      <c r="B52" s="174" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" s="174"/>
+      <c r="D52" s="174"/>
+      <c r="E52" s="174"/>
+      <c r="F52" s="174"/>
+      <c r="G52" s="174"/>
+      <c r="H52" s="174"/>
+      <c r="I52" s="174"/>
+      <c r="J52" s="174"/>
+      <c r="K52" s="174"/>
+      <c r="L52" s="174"/>
+      <c r="M52" s="174"/>
+      <c r="N52" s="174"/>
+      <c r="O52" s="174"/>
+      <c r="P52" s="174"/>
+      <c r="Q52" s="174"/>
+      <c r="R52" s="174"/>
+      <c r="S52" s="174"/>
+      <c r="T52" s="174"/>
+      <c r="U52" s="174"/>
+      <c r="V52" s="174"/>
+      <c r="W52" s="174"/>
       <c r="X52" s="6"/>
       <c r="Y52" s="6"/>
       <c r="Z52" s="6"/>
@@ -6122,126 +6140,135 @@
       <c r="AF52" s="6"/>
     </row>
     <row r="63" spans="1:32" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B63" s="146" t="s">
+      <c r="B63" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="C63" s="103"/>
-      <c r="D63" s="103"/>
-      <c r="E63" s="103"/>
-      <c r="F63" s="103"/>
-      <c r="G63" s="103"/>
-      <c r="H63" s="103"/>
-      <c r="I63" s="103"/>
-      <c r="J63" s="103"/>
-      <c r="K63" s="103"/>
-      <c r="L63" s="103"/>
-      <c r="M63" s="103"/>
-      <c r="N63" s="103"/>
-      <c r="O63" s="103"/>
-      <c r="P63" s="103"/>
-      <c r="Q63" s="103"/>
-      <c r="R63" s="103"/>
-      <c r="S63" s="103"/>
-      <c r="T63" s="103"/>
-      <c r="U63" s="103"/>
-      <c r="V63" s="103"/>
-      <c r="W63" s="103"/>
-      <c r="X63" s="103"/>
-      <c r="Y63" s="103"/>
-      <c r="Z63" s="103"/>
-      <c r="AA63" s="103"/>
-      <c r="AB63" s="103"/>
-      <c r="AC63" s="103"/>
-      <c r="AD63" s="103"/>
-      <c r="AE63" s="103"/>
-      <c r="AF63" s="103"/>
+      <c r="C63" s="107"/>
+      <c r="D63" s="107"/>
+      <c r="E63" s="107"/>
+      <c r="F63" s="107"/>
+      <c r="G63" s="107"/>
+      <c r="H63" s="107"/>
+      <c r="I63" s="107"/>
+      <c r="J63" s="107"/>
+      <c r="K63" s="107"/>
+      <c r="L63" s="107"/>
+      <c r="M63" s="107"/>
+      <c r="N63" s="107"/>
+      <c r="O63" s="107"/>
+      <c r="P63" s="107"/>
+      <c r="Q63" s="107"/>
+      <c r="R63" s="107"/>
+      <c r="S63" s="107"/>
+      <c r="T63" s="107"/>
+      <c r="U63" s="107"/>
+      <c r="V63" s="107"/>
+      <c r="W63" s="107"/>
+      <c r="X63" s="107"/>
+      <c r="Y63" s="107"/>
+      <c r="Z63" s="107"/>
+      <c r="AA63" s="107"/>
+      <c r="AB63" s="107"/>
+      <c r="AC63" s="107"/>
+      <c r="AD63" s="107"/>
+      <c r="AE63" s="107"/>
+      <c r="AF63" s="107"/>
     </row>
     <row r="64" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="147" t="s">
+      <c r="B64" s="146" t="s">
         <v>25</v>
       </c>
-      <c r="C64" s="103"/>
-      <c r="D64" s="103"/>
-      <c r="E64" s="103"/>
-      <c r="F64" s="103"/>
-      <c r="G64" s="103"/>
-      <c r="H64" s="103"/>
-      <c r="I64" s="103"/>
-      <c r="J64" s="103"/>
-      <c r="K64" s="103"/>
-      <c r="L64" s="103"/>
-      <c r="M64" s="103"/>
-      <c r="N64" s="103"/>
-      <c r="O64" s="103"/>
-      <c r="P64" s="103"/>
-      <c r="Q64" s="103"/>
-      <c r="R64" s="103"/>
-      <c r="S64" s="103"/>
-      <c r="T64" s="103"/>
-      <c r="U64" s="103"/>
-      <c r="V64" s="103"/>
-      <c r="W64" s="103"/>
-      <c r="X64" s="103"/>
-      <c r="Y64" s="103"/>
-      <c r="Z64" s="103"/>
-      <c r="AA64" s="103"/>
-      <c r="AB64" s="103"/>
-      <c r="AC64" s="103"/>
-      <c r="AD64" s="103"/>
-      <c r="AE64" s="103"/>
-      <c r="AF64" s="103"/>
+      <c r="C64" s="107"/>
+      <c r="D64" s="107"/>
+      <c r="E64" s="107"/>
+      <c r="F64" s="107"/>
+      <c r="G64" s="107"/>
+      <c r="H64" s="107"/>
+      <c r="I64" s="107"/>
+      <c r="J64" s="107"/>
+      <c r="K64" s="107"/>
+      <c r="L64" s="107"/>
+      <c r="M64" s="107"/>
+      <c r="N64" s="107"/>
+      <c r="O64" s="107"/>
+      <c r="P64" s="107"/>
+      <c r="Q64" s="107"/>
+      <c r="R64" s="107"/>
+      <c r="S64" s="107"/>
+      <c r="T64" s="107"/>
+      <c r="U64" s="107"/>
+      <c r="V64" s="107"/>
+      <c r="W64" s="107"/>
+      <c r="X64" s="107"/>
+      <c r="Y64" s="107"/>
+      <c r="Z64" s="107"/>
+      <c r="AA64" s="107"/>
+      <c r="AB64" s="107"/>
+      <c r="AC64" s="107"/>
+      <c r="AD64" s="107"/>
+      <c r="AE64" s="107"/>
+      <c r="AF64" s="107"/>
     </row>
     <row r="65" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="147" t="s">
+      <c r="B65" s="146" t="s">
         <v>26</v>
       </c>
-      <c r="C65" s="103"/>
-      <c r="D65" s="103"/>
-      <c r="E65" s="103"/>
-      <c r="F65" s="103"/>
-      <c r="G65" s="103"/>
-      <c r="H65" s="103"/>
-      <c r="I65" s="103"/>
-      <c r="J65" s="103"/>
-      <c r="K65" s="103"/>
-      <c r="L65" s="103"/>
-      <c r="M65" s="103"/>
-      <c r="N65" s="103"/>
-      <c r="O65" s="103"/>
-      <c r="P65" s="103"/>
-      <c r="Q65" s="103"/>
-      <c r="R65" s="103"/>
-      <c r="S65" s="103"/>
-      <c r="T65" s="103"/>
-      <c r="U65" s="103"/>
-      <c r="V65" s="103"/>
-      <c r="W65" s="103"/>
-      <c r="X65" s="103"/>
-      <c r="Y65" s="103"/>
-      <c r="Z65" s="103"/>
-      <c r="AA65" s="103"/>
-      <c r="AB65" s="103"/>
-      <c r="AC65" s="103"/>
-      <c r="AD65" s="103"/>
-      <c r="AE65" s="103"/>
-      <c r="AF65" s="103"/>
+      <c r="C65" s="107"/>
+      <c r="D65" s="107"/>
+      <c r="E65" s="107"/>
+      <c r="F65" s="107"/>
+      <c r="G65" s="107"/>
+      <c r="H65" s="107"/>
+      <c r="I65" s="107"/>
+      <c r="J65" s="107"/>
+      <c r="K65" s="107"/>
+      <c r="L65" s="107"/>
+      <c r="M65" s="107"/>
+      <c r="N65" s="107"/>
+      <c r="O65" s="107"/>
+      <c r="P65" s="107"/>
+      <c r="Q65" s="107"/>
+      <c r="R65" s="107"/>
+      <c r="S65" s="107"/>
+      <c r="T65" s="107"/>
+      <c r="U65" s="107"/>
+      <c r="V65" s="107"/>
+      <c r="W65" s="107"/>
+      <c r="X65" s="107"/>
+      <c r="Y65" s="107"/>
+      <c r="Z65" s="107"/>
+      <c r="AA65" s="107"/>
+      <c r="AB65" s="107"/>
+      <c r="AC65" s="107"/>
+      <c r="AD65" s="107"/>
+      <c r="AE65" s="107"/>
+      <c r="AF65" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="B52:W52"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="H50:N50"/>
+    <mergeCell ref="O50:W50"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="D51:G51"/>
     <mergeCell ref="H51:N51"/>
     <mergeCell ref="O51:W51"/>
-    <mergeCell ref="B52:W52"/>
+    <mergeCell ref="F22:J23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="AD22:AD23"/>
+    <mergeCell ref="AE22:AF23"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="D49:G49"/>
     <mergeCell ref="H49:N49"/>
     <mergeCell ref="O49:W49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="H50:N50"/>
-    <mergeCell ref="O50:W50"/>
-    <mergeCell ref="S22:AB22"/>
+    <mergeCell ref="AB45:AF45"/>
+    <mergeCell ref="AB44:AF44"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="G33:AF33"/>
+    <mergeCell ref="AB37:AF39"/>
+    <mergeCell ref="B38:W44"/>
     <mergeCell ref="B47:E47"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="D48:G48"/>
@@ -6252,12 +6279,9 @@
     <mergeCell ref="AE30:AF30"/>
     <mergeCell ref="AE24:AF24"/>
     <mergeCell ref="K25:W25"/>
-    <mergeCell ref="AB45:AF45"/>
-    <mergeCell ref="AB44:AF44"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="G33:AF33"/>
-    <mergeCell ref="AB37:AF39"/>
-    <mergeCell ref="B38:W44"/>
+    <mergeCell ref="T28:AB28"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="AE27:AF27"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="B21:E24"/>
     <mergeCell ref="K24:AB24"/>
@@ -6306,10 +6330,7 @@
     <mergeCell ref="B64:AF64"/>
     <mergeCell ref="T30:AB30"/>
     <mergeCell ref="F24:J24"/>
-    <mergeCell ref="F22:J23"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="T28:AB28"/>
-    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="K22:Q22"/>
     <mergeCell ref="AE16:AF16"/>
     <mergeCell ref="AE20:AF20"/>
     <mergeCell ref="R17:R18"/>
@@ -6318,17 +6339,14 @@
     <mergeCell ref="Q20:W20"/>
     <mergeCell ref="K16:AB16"/>
     <mergeCell ref="K20:N20"/>
-    <mergeCell ref="AD22:AD23"/>
-    <mergeCell ref="AE22:AF23"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="S22:AB22"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E11:H11" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.27559055118110237" right="0.27559055118110237" top="0.6692913385826772" bottom="0.39370078740157483" header="0" footer="0"/>
-  <pageSetup scale="76" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup scale="74" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/template/template.xlsx
+++ b/template/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrmau\Documents\Cevin\SysBill\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F215DA-8EED-4A09-AFBC-25E7D5305B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC6852C-5218-4723-A446-41AF4B02EF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4110" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UT" sheetId="1" r:id="rId1"/>
@@ -220,78 +220,79 @@
     <t>Ppju + Common Area</t>
   </si>
   <si>
+    <t>Late Charges :</t>
+  </si>
+  <si>
+    <t>Denda:</t>
+  </si>
+  <si>
+    <t>Tahap</t>
+  </si>
+  <si>
+    <t>Masa Tunggakan</t>
+  </si>
+  <si>
+    <t>Kewajiban Pelanggaran</t>
+  </si>
+  <si>
+    <t>Sanksi/Tindakan</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>1 hari s/d 30 hari</t>
+  </si>
+  <si>
+    <t>Tagihan ditambah denda 5.0%/bulan</t>
+  </si>
+  <si>
+    <t>Listrik off, air berjalan normal</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>31 hari s/d 60 hari</t>
+  </si>
+  <si>
+    <t>Tagihan ditambah denda 7.5%/bulan</t>
+  </si>
+  <si>
+    <t>Listrik off, air off dan access</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>61 hari s/d 90 hari</t>
+  </si>
+  <si>
+    <t>Tagihan ditambah denda 10.0%/bulan</t>
+  </si>
+  <si>
+    <t>Permintaan penyambungan diberlakukan sebagai pemasangan baru</t>
+  </si>
+  <si>
+    <t>**Denda mulai dikenakan dari tanggal 26 dan seterusnya</t>
+  </si>
+  <si>
+    <t>Admin Fee (5% SC) :</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
+  </si>
+  <si>
     <t>Attention :
-1. Payment by transfer to Bank BCA Virtual Account above.
+1. Payment by transfer to Bank BCA Virtual Account above or to the following account:
+    Bank                        : BCA
+    Account Number  : 0353098982
+    Account Name      : PT Duta Regency Karunia
 2. Payment by transfer must state the unit number.
 3. Please settle your payment before the due date to avoid disconnection of the Facility and accumulative late charges.
 4. Should you have any queries, please contact Tenant Relation at: 
-    - 08129914720 (Ade), 
-    - 0811814845 (Jumiah), 
-    - 081717129340 (Office).
+    08129914720 (Ade), 0811814845 (Jumiah), 081717129340 (Office).
 5. Please avoid this invoice, if payment has been made.</t>
-  </si>
-  <si>
-    <t>Late Charges :</t>
-  </si>
-  <si>
-    <t>Denda:</t>
-  </si>
-  <si>
-    <t>Tahap</t>
-  </si>
-  <si>
-    <t>Masa Tunggakan</t>
-  </si>
-  <si>
-    <t>Kewajiban Pelanggaran</t>
-  </si>
-  <si>
-    <t>Sanksi/Tindakan</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>1 hari s/d 30 hari</t>
-  </si>
-  <si>
-    <t>Tagihan ditambah denda 5.0%/bulan</t>
-  </si>
-  <si>
-    <t>Listrik off, air berjalan normal</t>
-  </si>
-  <si>
-    <t>II</t>
-  </si>
-  <si>
-    <t>31 hari s/d 60 hari</t>
-  </si>
-  <si>
-    <t>Tagihan ditambah denda 7.5%/bulan</t>
-  </si>
-  <si>
-    <t>Listrik off, air off dan access</t>
-  </si>
-  <si>
-    <t>III</t>
-  </si>
-  <si>
-    <t>61 hari s/d 90 hari</t>
-  </si>
-  <si>
-    <t>Tagihan ditambah denda 10.0%/bulan</t>
-  </si>
-  <si>
-    <t>Permintaan penyambungan diberlakukan sebagai pemasangan baru</t>
-  </si>
-  <si>
-    <t>**Denda mulai dikenakan dari tanggal 26 dan seterusnya</t>
-  </si>
-  <si>
-    <t>Admin Fee (5% SC) :</t>
-  </si>
-  <si>
-    <t>Maintenance</t>
   </si>
 </sst>
 </file>
@@ -814,6 +815,79 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
     </xf>
@@ -827,102 +901,90 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -932,107 +994,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -1043,96 +1075,212 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1140,32 +1288,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1178,155 +1302,32 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1360,8 +1361,8 @@
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>609601</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>66252</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>437727</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1527,8 +1528,8 @@
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>600077</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>75648</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>447123</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1925,8 +1926,8 @@
   </sheetPr>
   <dimension ref="A1:AL64"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+    <sheetView view="pageLayout" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55:W55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1966,146 +1967,146 @@
     <row r="1" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:38" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75"/>
-      <c r="X2" s="75"/>
-      <c r="Y2" s="75"/>
-      <c r="Z2" s="75"/>
-      <c r="AA2" s="75"/>
-      <c r="AB2" s="75"/>
-      <c r="AC2" s="75"/>
-      <c r="AD2" s="75"/>
-      <c r="AE2" s="75"/>
-      <c r="AF2" s="75"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="100"/>
+      <c r="Z2" s="100"/>
+      <c r="AA2" s="100"/>
+      <c r="AB2" s="100"/>
+      <c r="AC2" s="100"/>
+      <c r="AD2" s="100"/>
+      <c r="AE2" s="100"/>
+      <c r="AF2" s="100"/>
     </row>
     <row r="3" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
-      <c r="T3" s="75"/>
-      <c r="U3" s="75"/>
-      <c r="V3" s="75"/>
-      <c r="W3" s="75"/>
-      <c r="X3" s="75"/>
-      <c r="Y3" s="75"/>
-      <c r="Z3" s="75"/>
-      <c r="AA3" s="75"/>
-      <c r="AB3" s="75"/>
-      <c r="AC3" s="75"/>
-      <c r="AD3" s="75"/>
-      <c r="AE3" s="75"/>
-      <c r="AF3" s="75"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="100"/>
+      <c r="V3" s="100"/>
+      <c r="W3" s="100"/>
+      <c r="X3" s="100"/>
+      <c r="Y3" s="100"/>
+      <c r="Z3" s="100"/>
+      <c r="AA3" s="100"/>
+      <c r="AB3" s="100"/>
+      <c r="AC3" s="100"/>
+      <c r="AD3" s="100"/>
+      <c r="AE3" s="100"/>
+      <c r="AF3" s="100"/>
     </row>
     <row r="4" spans="1:38" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="134" t="s">
+      <c r="B4" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="75"/>
-      <c r="S4" s="75"/>
-      <c r="T4" s="75"/>
-      <c r="U4" s="75"/>
-      <c r="V4" s="75"/>
-      <c r="W4" s="75"/>
-      <c r="X4" s="75"/>
-      <c r="Y4" s="75"/>
-      <c r="Z4" s="75"/>
-      <c r="AA4" s="75"/>
-      <c r="AB4" s="75"/>
-      <c r="AC4" s="75"/>
-      <c r="AD4" s="75"/>
-      <c r="AE4" s="75"/>
-      <c r="AF4" s="75"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="100"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="100"/>
+      <c r="Q4" s="100"/>
+      <c r="R4" s="100"/>
+      <c r="S4" s="100"/>
+      <c r="T4" s="100"/>
+      <c r="U4" s="100"/>
+      <c r="V4" s="100"/>
+      <c r="W4" s="100"/>
+      <c r="X4" s="100"/>
+      <c r="Y4" s="100"/>
+      <c r="Z4" s="100"/>
+      <c r="AA4" s="100"/>
+      <c r="AB4" s="100"/>
+      <c r="AC4" s="100"/>
+      <c r="AD4" s="100"/>
+      <c r="AE4" s="100"/>
+      <c r="AF4" s="100"/>
     </row>
     <row r="5" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="153" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="75"/>
-      <c r="T5" s="75"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
-      <c r="W5" s="75"/>
-      <c r="X5" s="75"/>
-      <c r="Y5" s="75"/>
-      <c r="Z5" s="75"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="159"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="100"/>
+      <c r="R5" s="100"/>
+      <c r="S5" s="100"/>
+      <c r="T5" s="100"/>
+      <c r="U5" s="100"/>
+      <c r="V5" s="100"/>
+      <c r="W5" s="100"/>
+      <c r="X5" s="100"/>
+      <c r="Y5" s="100"/>
+      <c r="Z5" s="100"/>
       <c r="AA5" s="7"/>
-      <c r="AB5" s="105" t="s">
+      <c r="AB5" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="AC5" s="75"/>
-      <c r="AD5" s="75"/>
-      <c r="AE5" s="75"/>
+      <c r="AC5" s="100"/>
+      <c r="AD5" s="100"/>
+      <c r="AE5" s="100"/>
       <c r="AF5" s="46" t="s">
         <v>51</v>
       </c>
@@ -2118,15 +2119,15 @@
     </row>
     <row r="6" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="131" t="s">
+      <c r="B6" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -2136,35 +2137,35 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
-      <c r="R6" s="122"/>
-      <c r="S6" s="75"/>
-      <c r="T6" s="75"/>
-      <c r="U6" s="75"/>
-      <c r="V6" s="75"/>
-      <c r="W6" s="75"/>
-      <c r="X6" s="109"/>
-      <c r="Y6" s="75"/>
+      <c r="R6" s="117"/>
+      <c r="S6" s="100"/>
+      <c r="T6" s="100"/>
+      <c r="U6" s="100"/>
+      <c r="V6" s="100"/>
+      <c r="W6" s="100"/>
+      <c r="X6" s="156"/>
+      <c r="Y6" s="100"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="7"/>
-      <c r="AB6" s="105" t="s">
+      <c r="AB6" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="AC6" s="75"/>
-      <c r="AD6" s="75"/>
-      <c r="AE6" s="75"/>
+      <c r="AC6" s="100"/>
+      <c r="AD6" s="100"/>
+      <c r="AE6" s="100"/>
       <c r="AF6" s="45" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -2192,13 +2193,13 @@
     </row>
     <row r="8" spans="1:38" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="129"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -2207,38 +2208,38 @@
       <c r="N8" s="9"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
-      <c r="Q8" s="112" t="s">
+      <c r="Q8" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="113"/>
-      <c r="S8" s="113"/>
-      <c r="T8" s="113"/>
-      <c r="U8" s="113"/>
-      <c r="V8" s="113"/>
-      <c r="W8" s="113"/>
-      <c r="X8" s="114"/>
-      <c r="Y8" s="112" t="s">
+      <c r="R8" s="134"/>
+      <c r="S8" s="134"/>
+      <c r="T8" s="134"/>
+      <c r="U8" s="134"/>
+      <c r="V8" s="134"/>
+      <c r="W8" s="134"/>
+      <c r="X8" s="135"/>
+      <c r="Y8" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="Z8" s="113"/>
-      <c r="AA8" s="113"/>
-      <c r="AB8" s="113"/>
-      <c r="AC8" s="114"/>
-      <c r="AD8" s="112" t="s">
+      <c r="Z8" s="134"/>
+      <c r="AA8" s="134"/>
+      <c r="AB8" s="134"/>
+      <c r="AC8" s="135"/>
+      <c r="AD8" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="AE8" s="113"/>
-      <c r="AF8" s="114"/>
+      <c r="AE8" s="134"/>
+      <c r="AF8" s="135"/>
     </row>
     <row r="9" spans="1:38" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="107"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
+      <c r="B9" s="129"/>
+      <c r="C9" s="129"/>
+      <c r="D9" s="129"/>
+      <c r="E9" s="129"/>
+      <c r="F9" s="129"/>
+      <c r="G9" s="129"/>
+      <c r="H9" s="129"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -2247,22 +2248,22 @@
       <c r="N9" s="9"/>
       <c r="O9" s="6"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="115"/>
-      <c r="R9" s="116"/>
-      <c r="S9" s="116"/>
-      <c r="T9" s="116"/>
-      <c r="U9" s="116"/>
-      <c r="V9" s="116"/>
-      <c r="W9" s="116"/>
-      <c r="X9" s="117"/>
-      <c r="Y9" s="115"/>
-      <c r="Z9" s="116"/>
-      <c r="AA9" s="116"/>
-      <c r="AB9" s="116"/>
-      <c r="AC9" s="117"/>
-      <c r="AD9" s="115"/>
-      <c r="AE9" s="116"/>
-      <c r="AF9" s="117"/>
+      <c r="Q9" s="136"/>
+      <c r="R9" s="137"/>
+      <c r="S9" s="137"/>
+      <c r="T9" s="137"/>
+      <c r="U9" s="137"/>
+      <c r="V9" s="137"/>
+      <c r="W9" s="137"/>
+      <c r="X9" s="138"/>
+      <c r="Y9" s="136"/>
+      <c r="Z9" s="137"/>
+      <c r="AA9" s="137"/>
+      <c r="AB9" s="137"/>
+      <c r="AC9" s="138"/>
+      <c r="AD9" s="136"/>
+      <c r="AE9" s="137"/>
+      <c r="AF9" s="138"/>
     </row>
     <row r="10" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -2281,44 +2282,44 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="141">
+      <c r="Q10" s="144">
         <v>44986</v>
       </c>
-      <c r="R10" s="113"/>
-      <c r="S10" s="113"/>
-      <c r="T10" s="113"/>
-      <c r="U10" s="113"/>
-      <c r="V10" s="113"/>
-      <c r="W10" s="113"/>
-      <c r="X10" s="114"/>
-      <c r="Y10" s="144">
+      <c r="R10" s="134"/>
+      <c r="S10" s="134"/>
+      <c r="T10" s="134"/>
+      <c r="U10" s="134"/>
+      <c r="V10" s="134"/>
+      <c r="W10" s="134"/>
+      <c r="X10" s="135"/>
+      <c r="Y10" s="148">
         <v>0</v>
       </c>
-      <c r="Z10" s="113"/>
-      <c r="AA10" s="113"/>
-      <c r="AB10" s="113"/>
-      <c r="AC10" s="114"/>
-      <c r="AD10" s="137" t="s">
+      <c r="Z10" s="134"/>
+      <c r="AA10" s="134"/>
+      <c r="AB10" s="134"/>
+      <c r="AC10" s="135"/>
+      <c r="AD10" s="139" t="s">
         <v>43</v>
       </c>
-      <c r="AE10" s="113"/>
-      <c r="AF10" s="114"/>
+      <c r="AE10" s="134"/>
+      <c r="AF10" s="135"/>
     </row>
     <row r="11" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="106" t="s">
+      <c r="B11" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="107"/>
+      <c r="C11" s="129"/>
       <c r="D11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="106" t="s">
+      <c r="E11" s="153" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="129"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -2327,22 +2328,22 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="115"/>
-      <c r="R11" s="116"/>
-      <c r="S11" s="116"/>
-      <c r="T11" s="116"/>
-      <c r="U11" s="116"/>
-      <c r="V11" s="116"/>
-      <c r="W11" s="116"/>
-      <c r="X11" s="117"/>
-      <c r="Y11" s="115"/>
-      <c r="Z11" s="116"/>
-      <c r="AA11" s="116"/>
-      <c r="AB11" s="116"/>
-      <c r="AC11" s="117"/>
-      <c r="AD11" s="115"/>
-      <c r="AE11" s="116"/>
-      <c r="AF11" s="117"/>
+      <c r="Q11" s="136"/>
+      <c r="R11" s="137"/>
+      <c r="S11" s="137"/>
+      <c r="T11" s="137"/>
+      <c r="U11" s="137"/>
+      <c r="V11" s="137"/>
+      <c r="W11" s="137"/>
+      <c r="X11" s="138"/>
+      <c r="Y11" s="136"/>
+      <c r="Z11" s="137"/>
+      <c r="AA11" s="137"/>
+      <c r="AB11" s="137"/>
+      <c r="AC11" s="138"/>
+      <c r="AD11" s="136"/>
+      <c r="AE11" s="137"/>
+      <c r="AF11" s="138"/>
     </row>
     <row r="12" spans="1:38" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -2380,77 +2381,77 @@
     </row>
     <row r="13" spans="1:38" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="103" t="s">
+      <c r="B13" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="103"/>
-      <c r="M13" s="103"/>
-      <c r="N13" s="103"/>
-      <c r="O13" s="103"/>
-      <c r="P13" s="103"/>
-      <c r="Q13" s="103"/>
-      <c r="R13" s="103"/>
-      <c r="S13" s="103"/>
-      <c r="T13" s="103"/>
-      <c r="U13" s="103"/>
-      <c r="V13" s="103"/>
-      <c r="W13" s="103"/>
+      <c r="C13" s="141"/>
+      <c r="D13" s="141"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="141"/>
+      <c r="I13" s="141"/>
+      <c r="J13" s="141"/>
+      <c r="K13" s="141"/>
+      <c r="L13" s="141"/>
+      <c r="M13" s="141"/>
+      <c r="N13" s="141"/>
+      <c r="O13" s="141"/>
+      <c r="P13" s="141"/>
+      <c r="Q13" s="141"/>
+      <c r="R13" s="141"/>
+      <c r="S13" s="141"/>
+      <c r="T13" s="141"/>
+      <c r="U13" s="141"/>
+      <c r="V13" s="141"/>
+      <c r="W13" s="141"/>
       <c r="X13" s="40"/>
       <c r="Y13" s="40"/>
       <c r="Z13" s="40"/>
-      <c r="AA13" s="103" t="s">
+      <c r="AA13" s="141" t="s">
         <v>35</v>
       </c>
-      <c r="AB13" s="103"/>
-      <c r="AC13" s="103"/>
-      <c r="AD13" s="142" t="s">
+      <c r="AB13" s="141"/>
+      <c r="AC13" s="141"/>
+      <c r="AD13" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="AE13" s="113"/>
-      <c r="AF13" s="113"/>
+      <c r="AE13" s="134"/>
+      <c r="AF13" s="134"/>
     </row>
     <row r="14" spans="1:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="104"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="104"/>
-      <c r="K14" s="104"/>
-      <c r="L14" s="104"/>
-      <c r="M14" s="104"/>
-      <c r="N14" s="104"/>
-      <c r="O14" s="104"/>
-      <c r="P14" s="104"/>
-      <c r="Q14" s="104"/>
-      <c r="R14" s="104"/>
-      <c r="S14" s="104"/>
-      <c r="T14" s="104"/>
-      <c r="U14" s="104"/>
-      <c r="V14" s="104"/>
-      <c r="W14" s="104"/>
+      <c r="B14" s="142"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="142"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="142"/>
+      <c r="I14" s="142"/>
+      <c r="J14" s="142"/>
+      <c r="K14" s="142"/>
+      <c r="L14" s="142"/>
+      <c r="M14" s="142"/>
+      <c r="N14" s="142"/>
+      <c r="O14" s="142"/>
+      <c r="P14" s="142"/>
+      <c r="Q14" s="142"/>
+      <c r="R14" s="142"/>
+      <c r="S14" s="142"/>
+      <c r="T14" s="142"/>
+      <c r="U14" s="142"/>
+      <c r="V14" s="142"/>
+      <c r="W14" s="142"/>
       <c r="X14" s="39"/>
       <c r="Y14" s="39"/>
       <c r="Z14" s="39"/>
-      <c r="AA14" s="104"/>
-      <c r="AB14" s="104"/>
-      <c r="AC14" s="104"/>
-      <c r="AD14" s="116"/>
-      <c r="AE14" s="116"/>
-      <c r="AF14" s="116"/>
+      <c r="AA14" s="142"/>
+      <c r="AB14" s="142"/>
+      <c r="AC14" s="142"/>
+      <c r="AD14" s="137"/>
+      <c r="AE14" s="137"/>
+      <c r="AF14" s="137"/>
     </row>
     <row r="15" spans="1:38" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -2487,121 +2488,121 @@
       <c r="AF15" s="14"/>
     </row>
     <row r="16" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="74"/>
-      <c r="B16" s="132" t="s">
+      <c r="A16" s="99"/>
+      <c r="B16" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="91"/>
-      <c r="D16" s="93" t="s">
+      <c r="C16" s="119"/>
+      <c r="D16" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="78"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="103"/>
       <c r="K16" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="102">
+      <c r="L16" s="127">
         <v>44946</v>
       </c>
-      <c r="M16" s="77"/>
-      <c r="N16" s="77"/>
-      <c r="O16" s="78"/>
-      <c r="P16" s="110" t="s">
+      <c r="M16" s="102"/>
+      <c r="N16" s="102"/>
+      <c r="O16" s="103"/>
+      <c r="P16" s="157" t="s">
         <v>13</v>
       </c>
-      <c r="Q16" s="108" t="s">
+      <c r="Q16" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="R16" s="78"/>
-      <c r="S16" s="102">
+      <c r="R16" s="103"/>
+      <c r="S16" s="127">
         <v>44977</v>
       </c>
-      <c r="T16" s="77"/>
-      <c r="U16" s="77"/>
-      <c r="V16" s="77"/>
-      <c r="W16" s="78"/>
+      <c r="T16" s="102"/>
+      <c r="U16" s="102"/>
+      <c r="V16" s="102"/>
+      <c r="W16" s="103"/>
       <c r="X16" s="38"/>
       <c r="Y16" s="38"/>
       <c r="Z16" s="38"/>
-      <c r="AA16" s="86"/>
-      <c r="AB16" s="86"/>
+      <c r="AA16" s="160"/>
+      <c r="AB16" s="160"/>
       <c r="AC16" s="38"/>
       <c r="AD16" s="42"/>
-      <c r="AE16" s="118"/>
-      <c r="AF16" s="119"/>
+      <c r="AE16" s="149"/>
+      <c r="AF16" s="80"/>
     </row>
     <row r="17" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="75"/>
-      <c r="B17" s="124"/>
-      <c r="C17" s="125"/>
-      <c r="D17" s="93" t="s">
+      <c r="A17" s="100"/>
+      <c r="B17" s="120"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="89">
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="154">
         <v>1269.0999999999999</v>
       </c>
-      <c r="L17" s="90"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="90"/>
-      <c r="O17" s="91"/>
-      <c r="P17" s="111"/>
-      <c r="Q17" s="92">
+      <c r="L17" s="147"/>
+      <c r="M17" s="147"/>
+      <c r="N17" s="147"/>
+      <c r="O17" s="119"/>
+      <c r="P17" s="158"/>
+      <c r="Q17" s="146">
         <v>1269.0999999999999</v>
       </c>
-      <c r="R17" s="90"/>
-      <c r="S17" s="90"/>
-      <c r="T17" s="90"/>
-      <c r="U17" s="90"/>
-      <c r="V17" s="90"/>
-      <c r="W17" s="91"/>
+      <c r="R17" s="147"/>
+      <c r="S17" s="147"/>
+      <c r="T17" s="147"/>
+      <c r="U17" s="147"/>
+      <c r="V17" s="147"/>
+      <c r="W17" s="119"/>
       <c r="X17" s="38"/>
       <c r="Y17" s="38"/>
       <c r="Z17" s="38"/>
-      <c r="AA17" s="86"/>
-      <c r="AB17" s="86"/>
+      <c r="AA17" s="160"/>
+      <c r="AB17" s="160"/>
       <c r="AC17" s="38"/>
       <c r="AD17" s="42"/>
-      <c r="AE17" s="118"/>
-      <c r="AF17" s="119"/>
+      <c r="AE17" s="149"/>
+      <c r="AF17" s="80"/>
     </row>
     <row r="18" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="124"/>
-      <c r="C18" s="125"/>
-      <c r="D18" s="93" t="s">
+      <c r="B18" s="120"/>
+      <c r="C18" s="121"/>
+      <c r="D18" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="94">
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="173">
         <v>1</v>
       </c>
-      <c r="L18" s="94"/>
-      <c r="M18" s="94"/>
-      <c r="N18" s="94"/>
-      <c r="O18" s="94"/>
-      <c r="P18" s="94"/>
-      <c r="Q18" s="94"/>
-      <c r="R18" s="94"/>
-      <c r="S18" s="94"/>
-      <c r="T18" s="94"/>
-      <c r="U18" s="94"/>
-      <c r="V18" s="94"/>
-      <c r="W18" s="94"/>
+      <c r="L18" s="173"/>
+      <c r="M18" s="173"/>
+      <c r="N18" s="173"/>
+      <c r="O18" s="173"/>
+      <c r="P18" s="173"/>
+      <c r="Q18" s="173"/>
+      <c r="R18" s="173"/>
+      <c r="S18" s="173"/>
+      <c r="T18" s="173"/>
+      <c r="U18" s="173"/>
+      <c r="V18" s="173"/>
+      <c r="W18" s="173"/>
       <c r="X18" s="41"/>
       <c r="Y18" s="41"/>
       <c r="Z18" s="41"/>
@@ -2614,166 +2615,166 @@
     </row>
     <row r="19" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="124"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="95" t="s">
+      <c r="B19" s="120"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="174" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="128">
+      <c r="E19" s="147"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="147"/>
+      <c r="I19" s="147"/>
+      <c r="J19" s="119"/>
+      <c r="K19" s="124">
         <f>(Q17-K17)*K18</f>
         <v>0</v>
       </c>
-      <c r="L19" s="129"/>
-      <c r="M19" s="129"/>
-      <c r="N19" s="129"/>
-      <c r="O19" s="129"/>
-      <c r="P19" s="129"/>
-      <c r="Q19" s="129"/>
-      <c r="R19" s="129"/>
-      <c r="S19" s="129"/>
-      <c r="T19" s="129"/>
-      <c r="U19" s="129"/>
-      <c r="V19" s="129"/>
-      <c r="W19" s="130"/>
-      <c r="X19" s="98" t="s">
+      <c r="L19" s="125"/>
+      <c r="M19" s="125"/>
+      <c r="N19" s="125"/>
+      <c r="O19" s="125"/>
+      <c r="P19" s="125"/>
+      <c r="Q19" s="125"/>
+      <c r="R19" s="125"/>
+      <c r="S19" s="125"/>
+      <c r="T19" s="125"/>
+      <c r="U19" s="125"/>
+      <c r="V19" s="125"/>
+      <c r="W19" s="126"/>
+      <c r="X19" s="161" t="s">
         <v>32</v>
       </c>
-      <c r="Y19" s="99"/>
-      <c r="Z19" s="99"/>
-      <c r="AA19" s="79">
+      <c r="Y19" s="96"/>
+      <c r="Z19" s="96"/>
+      <c r="AA19" s="93">
         <v>1800</v>
       </c>
-      <c r="AB19" s="79"/>
-      <c r="AC19" s="79"/>
+      <c r="AB19" s="93"/>
+      <c r="AC19" s="93"/>
       <c r="AD19" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE19" s="140">
+      <c r="AE19" s="81">
         <v>0</v>
       </c>
-      <c r="AF19" s="140"/>
+      <c r="AF19" s="81"/>
     </row>
     <row r="20" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="124"/>
-      <c r="C20" s="133"/>
-      <c r="D20" s="96" t="s">
+      <c r="B20" s="120"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="175" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="97"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="97" t="s">
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="I20" s="97"/>
-      <c r="J20" s="150"/>
-      <c r="K20" s="80">
+      <c r="I20" s="104"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="166">
         <v>88</v>
       </c>
-      <c r="L20" s="81"/>
-      <c r="M20" s="81"/>
-      <c r="N20" s="81"/>
-      <c r="O20" s="81"/>
-      <c r="P20" s="81"/>
-      <c r="Q20" s="81"/>
-      <c r="R20" s="81"/>
-      <c r="S20" s="81"/>
-      <c r="T20" s="81"/>
-      <c r="U20" s="81"/>
-      <c r="V20" s="81"/>
-      <c r="W20" s="82"/>
-      <c r="X20" s="98" t="s">
+      <c r="L20" s="167"/>
+      <c r="M20" s="167"/>
+      <c r="N20" s="167"/>
+      <c r="O20" s="167"/>
+      <c r="P20" s="167"/>
+      <c r="Q20" s="167"/>
+      <c r="R20" s="167"/>
+      <c r="S20" s="167"/>
+      <c r="T20" s="167"/>
+      <c r="U20" s="167"/>
+      <c r="V20" s="167"/>
+      <c r="W20" s="168"/>
+      <c r="X20" s="161" t="s">
         <v>32</v>
       </c>
-      <c r="Y20" s="99"/>
-      <c r="Z20" s="99"/>
-      <c r="AA20" s="79">
+      <c r="Y20" s="96"/>
+      <c r="Z20" s="96"/>
+      <c r="AA20" s="93">
         <v>1800</v>
       </c>
-      <c r="AB20" s="79"/>
-      <c r="AC20" s="79"/>
-      <c r="AD20" s="147" t="s">
+      <c r="AB20" s="93"/>
+      <c r="AC20" s="93"/>
+      <c r="AD20" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="AE20" s="140">
+      <c r="AE20" s="81">
         <f>K20*AA20</f>
         <v>158400</v>
       </c>
-      <c r="AF20" s="140"/>
+      <c r="AF20" s="81"/>
     </row>
     <row r="21" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="124"/>
-      <c r="C21" s="125"/>
-      <c r="D21" s="156" t="s">
+      <c r="B21" s="120"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="138"/>
-      <c r="F21" s="138"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="111"/>
       <c r="G21" s="47"/>
-      <c r="H21" s="138" t="s">
+      <c r="H21" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="I21" s="138"/>
-      <c r="J21" s="139"/>
-      <c r="K21" s="83"/>
-      <c r="L21" s="84"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="84"/>
-      <c r="O21" s="84"/>
-      <c r="P21" s="84"/>
-      <c r="Q21" s="84"/>
-      <c r="R21" s="84"/>
-      <c r="S21" s="84"/>
-      <c r="T21" s="84"/>
-      <c r="U21" s="84"/>
-      <c r="V21" s="84"/>
-      <c r="W21" s="85"/>
-      <c r="X21" s="98"/>
-      <c r="Y21" s="99"/>
-      <c r="Z21" s="99"/>
-      <c r="AA21" s="79"/>
-      <c r="AB21" s="79"/>
-      <c r="AC21" s="79"/>
-      <c r="AD21" s="147"/>
-      <c r="AE21" s="140"/>
-      <c r="AF21" s="140"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="140"/>
+      <c r="K21" s="169"/>
+      <c r="L21" s="170"/>
+      <c r="M21" s="170"/>
+      <c r="N21" s="170"/>
+      <c r="O21" s="170"/>
+      <c r="P21" s="170"/>
+      <c r="Q21" s="170"/>
+      <c r="R21" s="170"/>
+      <c r="S21" s="170"/>
+      <c r="T21" s="170"/>
+      <c r="U21" s="170"/>
+      <c r="V21" s="170"/>
+      <c r="W21" s="171"/>
+      <c r="X21" s="161"/>
+      <c r="Y21" s="96"/>
+      <c r="Z21" s="96"/>
+      <c r="AA21" s="93"/>
+      <c r="AB21" s="93"/>
+      <c r="AC21" s="93"/>
+      <c r="AD21" s="94"/>
+      <c r="AE21" s="81"/>
+      <c r="AF21" s="81"/>
     </row>
     <row r="22" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="124"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="135" t="s">
+      <c r="B22" s="120"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="132" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="152">
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="102"/>
+      <c r="I22" s="102"/>
+      <c r="J22" s="103"/>
+      <c r="K22" s="163">
         <v>0.05</v>
       </c>
-      <c r="L22" s="153"/>
-      <c r="M22" s="153"/>
-      <c r="N22" s="153"/>
-      <c r="O22" s="153"/>
-      <c r="P22" s="153"/>
-      <c r="Q22" s="153"/>
-      <c r="R22" s="153"/>
-      <c r="S22" s="153"/>
-      <c r="T22" s="153"/>
-      <c r="U22" s="153"/>
-      <c r="V22" s="153"/>
-      <c r="W22" s="154"/>
+      <c r="L22" s="164"/>
+      <c r="M22" s="164"/>
+      <c r="N22" s="164"/>
+      <c r="O22" s="164"/>
+      <c r="P22" s="164"/>
+      <c r="Q22" s="164"/>
+      <c r="R22" s="164"/>
+      <c r="S22" s="164"/>
+      <c r="T22" s="164"/>
+      <c r="U22" s="164"/>
+      <c r="V22" s="164"/>
+      <c r="W22" s="165"/>
       <c r="X22" s="14"/>
       <c r="Y22" s="14"/>
       <c r="Z22" s="14"/>
@@ -2783,11 +2784,11 @@
       <c r="AD22" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE22" s="100">
+      <c r="AE22" s="150">
         <f>AE20*K22</f>
         <v>7920</v>
       </c>
-      <c r="AF22" s="101"/>
+      <c r="AF22" s="151"/>
     </row>
     <row r="23" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
@@ -2822,91 +2823,91 @@
       <c r="AD23" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE23" s="143">
+      <c r="AE23" s="108">
         <f>AE20+AE22</f>
         <v>166320</v>
       </c>
-      <c r="AF23" s="119"/>
+      <c r="AF23" s="80"/>
       <c r="AI23" s="17"/>
     </row>
     <row r="24" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="123" t="s">
+      <c r="B24" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="91"/>
-      <c r="D24" s="76" t="s">
+      <c r="C24" s="119"/>
+      <c r="D24" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="78"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="103"/>
       <c r="K24" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="102">
+      <c r="L24" s="127">
         <v>44946</v>
       </c>
-      <c r="M24" s="77"/>
-      <c r="N24" s="77"/>
-      <c r="O24" s="78"/>
-      <c r="P24" s="87" t="s">
+      <c r="M24" s="102"/>
+      <c r="N24" s="102"/>
+      <c r="O24" s="103"/>
+      <c r="P24" s="162" t="s">
         <v>13</v>
       </c>
-      <c r="Q24" s="87" t="s">
+      <c r="Q24" s="162" t="s">
         <v>14</v>
       </c>
-      <c r="R24" s="78"/>
-      <c r="S24" s="102">
+      <c r="R24" s="103"/>
+      <c r="S24" s="127">
         <v>44977</v>
       </c>
-      <c r="T24" s="77"/>
-      <c r="U24" s="77"/>
-      <c r="V24" s="77"/>
-      <c r="W24" s="78"/>
+      <c r="T24" s="102"/>
+      <c r="U24" s="102"/>
+      <c r="V24" s="102"/>
+      <c r="W24" s="103"/>
       <c r="X24" s="18"/>
       <c r="Y24" s="18"/>
       <c r="Z24" s="18"/>
-      <c r="AA24" s="86"/>
-      <c r="AB24" s="86"/>
+      <c r="AA24" s="160"/>
+      <c r="AB24" s="160"/>
       <c r="AC24" s="18"/>
       <c r="AD24" s="42"/>
-      <c r="AE24" s="148"/>
-      <c r="AF24" s="119"/>
+      <c r="AE24" s="95"/>
+      <c r="AF24" s="80"/>
     </row>
     <row r="25" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="124"/>
-      <c r="C25" s="125"/>
-      <c r="D25" s="76" t="s">
+      <c r="B25" s="120"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="89">
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="103"/>
+      <c r="K25" s="154">
         <v>1269.0999999999999</v>
       </c>
-      <c r="L25" s="90"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="90"/>
-      <c r="O25" s="91"/>
-      <c r="P25" s="88"/>
-      <c r="Q25" s="92">
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
+      <c r="N25" s="147"/>
+      <c r="O25" s="119"/>
+      <c r="P25" s="172"/>
+      <c r="Q25" s="146">
         <v>1269.0999999999999</v>
       </c>
-      <c r="R25" s="90"/>
-      <c r="S25" s="90"/>
-      <c r="T25" s="90"/>
-      <c r="U25" s="90"/>
-      <c r="V25" s="90"/>
-      <c r="W25" s="91"/>
+      <c r="R25" s="147"/>
+      <c r="S25" s="147"/>
+      <c r="T25" s="147"/>
+      <c r="U25" s="147"/>
+      <c r="V25" s="147"/>
+      <c r="W25" s="119"/>
       <c r="X25" s="20"/>
       <c r="Y25" s="20"/>
       <c r="Z25" s="20"/>
@@ -2914,85 +2915,85 @@
       <c r="AB25" s="21"/>
       <c r="AC25" s="18"/>
       <c r="AD25" s="42"/>
-      <c r="AE25" s="155"/>
-      <c r="AF25" s="119"/>
+      <c r="AE25" s="109"/>
+      <c r="AF25" s="80"/>
     </row>
     <row r="26" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="124"/>
-      <c r="C26" s="125"/>
-      <c r="D26" s="157" t="s">
+      <c r="B26" s="120"/>
+      <c r="C26" s="121"/>
+      <c r="D26" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="136">
+      <c r="E26" s="102"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="102"/>
+      <c r="J26" s="103"/>
+      <c r="K26" s="107">
         <f>Q25-K25</f>
         <v>0</v>
       </c>
-      <c r="L26" s="77"/>
-      <c r="M26" s="77"/>
-      <c r="N26" s="77"/>
-      <c r="O26" s="77"/>
-      <c r="P26" s="77"/>
-      <c r="Q26" s="77"/>
-      <c r="R26" s="77"/>
-      <c r="S26" s="77"/>
-      <c r="T26" s="77"/>
-      <c r="U26" s="77"/>
-      <c r="V26" s="77"/>
-      <c r="W26" s="78"/>
-      <c r="X26" s="99" t="s">
+      <c r="L26" s="102"/>
+      <c r="M26" s="102"/>
+      <c r="N26" s="102"/>
+      <c r="O26" s="102"/>
+      <c r="P26" s="102"/>
+      <c r="Q26" s="102"/>
+      <c r="R26" s="102"/>
+      <c r="S26" s="102"/>
+      <c r="T26" s="102"/>
+      <c r="U26" s="102"/>
+      <c r="V26" s="102"/>
+      <c r="W26" s="103"/>
+      <c r="X26" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="Y26" s="119"/>
-      <c r="Z26" s="119"/>
-      <c r="AA26" s="163">
+      <c r="Y26" s="80"/>
+      <c r="Z26" s="80"/>
+      <c r="AA26" s="83">
         <v>1800</v>
       </c>
-      <c r="AB26" s="163"/>
-      <c r="AC26" s="163"/>
+      <c r="AB26" s="83"/>
+      <c r="AC26" s="83"/>
       <c r="AD26" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE26" s="143">
+      <c r="AE26" s="108">
         <f>K26*AA26</f>
         <v>0</v>
       </c>
-      <c r="AF26" s="119"/>
+      <c r="AF26" s="80"/>
     </row>
     <row r="27" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="74"/>
-      <c r="B27" s="124"/>
-      <c r="C27" s="125"/>
-      <c r="D27" s="76" t="s">
+      <c r="A27" s="99"/>
+      <c r="B27" s="120"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="136">
+      <c r="E27" s="102"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="102"/>
+      <c r="J27" s="103"/>
+      <c r="K27" s="107">
         <v>47510</v>
       </c>
-      <c r="L27" s="77"/>
-      <c r="M27" s="77"/>
-      <c r="N27" s="77"/>
-      <c r="O27" s="77"/>
-      <c r="P27" s="77"/>
-      <c r="Q27" s="77"/>
-      <c r="R27" s="77"/>
-      <c r="S27" s="77"/>
-      <c r="T27" s="77"/>
-      <c r="U27" s="77"/>
-      <c r="V27" s="77"/>
-      <c r="W27" s="78"/>
+      <c r="L27" s="102"/>
+      <c r="M27" s="102"/>
+      <c r="N27" s="102"/>
+      <c r="O27" s="102"/>
+      <c r="P27" s="102"/>
+      <c r="Q27" s="102"/>
+      <c r="R27" s="102"/>
+      <c r="S27" s="102"/>
+      <c r="T27" s="102"/>
+      <c r="U27" s="102"/>
+      <c r="V27" s="102"/>
+      <c r="W27" s="103"/>
       <c r="X27" s="22"/>
       <c r="Y27" s="23"/>
       <c r="Z27" s="23"/>
@@ -3002,40 +3003,40 @@
       <c r="AD27" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE27" s="140">
+      <c r="AE27" s="81">
         <f>K27</f>
         <v>47510</v>
       </c>
-      <c r="AF27" s="119"/>
+      <c r="AF27" s="80"/>
     </row>
     <row r="28" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="75"/>
-      <c r="B28" s="126"/>
-      <c r="C28" s="127"/>
-      <c r="D28" s="159" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="77"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="78"/>
-      <c r="K28" s="136">
+      <c r="A28" s="100"/>
+      <c r="B28" s="122"/>
+      <c r="C28" s="123"/>
+      <c r="D28" s="114" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="102"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="102"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="103"/>
+      <c r="K28" s="107">
         <v>11000</v>
       </c>
-      <c r="L28" s="77"/>
-      <c r="M28" s="77"/>
-      <c r="N28" s="77"/>
-      <c r="O28" s="77"/>
-      <c r="P28" s="77"/>
-      <c r="Q28" s="77"/>
-      <c r="R28" s="77"/>
-      <c r="S28" s="77"/>
-      <c r="T28" s="77"/>
-      <c r="U28" s="77"/>
-      <c r="V28" s="77"/>
-      <c r="W28" s="78"/>
+      <c r="L28" s="102"/>
+      <c r="M28" s="102"/>
+      <c r="N28" s="102"/>
+      <c r="O28" s="102"/>
+      <c r="P28" s="102"/>
+      <c r="Q28" s="102"/>
+      <c r="R28" s="102"/>
+      <c r="S28" s="102"/>
+      <c r="T28" s="102"/>
+      <c r="U28" s="102"/>
+      <c r="V28" s="102"/>
+      <c r="W28" s="103"/>
       <c r="X28" s="24"/>
       <c r="Y28" s="25"/>
       <c r="Z28" s="25"/>
@@ -3045,14 +3046,14 @@
       <c r="AD28" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE28" s="160">
+      <c r="AE28" s="115">
         <f>K28</f>
         <v>11000</v>
       </c>
-      <c r="AF28" s="160"/>
+      <c r="AF28" s="115"/>
     </row>
     <row r="29" spans="1:35" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="75"/>
+      <c r="A29" s="100"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="41"/>
@@ -3084,14 +3085,14 @@
       <c r="AD29" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="AE29" s="164">
+      <c r="AE29" s="84">
         <f>AE26+AE27+AE28</f>
         <v>58510</v>
       </c>
-      <c r="AF29" s="165"/>
+      <c r="AF29" s="85"/>
     </row>
     <row r="30" spans="1:35" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="75"/>
+      <c r="A30" s="100"/>
       <c r="B30" s="26"/>
       <c r="C30" s="26"/>
       <c r="D30" s="64"/>
@@ -3125,7 +3126,7 @@
       <c r="AF30" s="60"/>
     </row>
     <row r="31" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="75"/>
+      <c r="A31" s="100"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="41"/>
@@ -3144,25 +3145,25 @@
       <c r="Q31" s="41"/>
       <c r="R31" s="41"/>
       <c r="S31" s="41"/>
-      <c r="T31" s="151" t="s">
-        <v>56</v>
-      </c>
-      <c r="U31" s="119"/>
-      <c r="V31" s="119"/>
-      <c r="W31" s="119"/>
-      <c r="X31" s="119"/>
-      <c r="Y31" s="119"/>
-      <c r="Z31" s="119"/>
-      <c r="AA31" s="119"/>
-      <c r="AB31" s="119"/>
+      <c r="T31" s="106" t="s">
+        <v>55</v>
+      </c>
+      <c r="U31" s="80"/>
+      <c r="V31" s="80"/>
+      <c r="W31" s="80"/>
+      <c r="X31" s="80"/>
+      <c r="Y31" s="80"/>
+      <c r="Z31" s="80"/>
+      <c r="AA31" s="80"/>
+      <c r="AB31" s="80"/>
       <c r="AC31" s="18"/>
       <c r="AD31" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE31" s="140">
+      <c r="AE31" s="81">
         <v>1800</v>
       </c>
-      <c r="AF31" s="162"/>
+      <c r="AF31" s="82"/>
     </row>
     <row r="32" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="9"/>
@@ -3183,25 +3184,25 @@
       <c r="Q32" s="41"/>
       <c r="R32" s="41"/>
       <c r="S32" s="41"/>
-      <c r="T32" s="151" t="s">
+      <c r="T32" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="U32" s="119"/>
-      <c r="V32" s="119"/>
-      <c r="W32" s="119"/>
-      <c r="X32" s="119"/>
-      <c r="Y32" s="119"/>
-      <c r="Z32" s="119"/>
-      <c r="AA32" s="119"/>
-      <c r="AB32" s="119"/>
+      <c r="U32" s="80"/>
+      <c r="V32" s="80"/>
+      <c r="W32" s="80"/>
+      <c r="X32" s="80"/>
+      <c r="Y32" s="80"/>
+      <c r="Z32" s="80"/>
+      <c r="AA32" s="80"/>
+      <c r="AB32" s="80"/>
       <c r="AC32" s="18"/>
       <c r="AD32" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE32" s="140">
+      <c r="AE32" s="81">
         <v>1800</v>
       </c>
-      <c r="AF32" s="162"/>
+      <c r="AF32" s="82"/>
     </row>
     <row r="33" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
@@ -3223,26 +3224,26 @@
       <c r="Q33" s="19"/>
       <c r="R33" s="19"/>
       <c r="S33" s="19"/>
-      <c r="T33" s="161" t="s">
+      <c r="T33" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="U33" s="119"/>
-      <c r="V33" s="119"/>
-      <c r="W33" s="119"/>
-      <c r="X33" s="119"/>
-      <c r="Y33" s="119"/>
-      <c r="Z33" s="119"/>
-      <c r="AA33" s="119"/>
-      <c r="AB33" s="119"/>
+      <c r="U33" s="80"/>
+      <c r="V33" s="80"/>
+      <c r="W33" s="80"/>
+      <c r="X33" s="80"/>
+      <c r="Y33" s="80"/>
+      <c r="Z33" s="80"/>
+      <c r="AA33" s="80"/>
+      <c r="AB33" s="80"/>
       <c r="AC33" s="19"/>
       <c r="AD33" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE33" s="158">
+      <c r="AE33" s="113">
         <f>AE23+AE29+AE31</f>
         <v>226630</v>
       </c>
-      <c r="AF33" s="158"/>
+      <c r="AF33" s="113"/>
     </row>
     <row r="34" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
@@ -3314,41 +3315,41 @@
     </row>
     <row r="36" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="169" t="s">
+      <c r="B36" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="169"/>
-      <c r="D36" s="169"/>
-      <c r="E36" s="169"/>
-      <c r="F36" s="169"/>
-      <c r="G36" s="170" t="s">
+      <c r="C36" s="89"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="89"/>
+      <c r="F36" s="89"/>
+      <c r="G36" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="H36" s="170"/>
-      <c r="I36" s="170"/>
-      <c r="J36" s="170"/>
-      <c r="K36" s="170"/>
-      <c r="L36" s="170"/>
-      <c r="M36" s="170"/>
-      <c r="N36" s="170"/>
-      <c r="O36" s="170"/>
-      <c r="P36" s="170"/>
-      <c r="Q36" s="170"/>
-      <c r="R36" s="170"/>
-      <c r="S36" s="170"/>
-      <c r="T36" s="170"/>
-      <c r="U36" s="170"/>
-      <c r="V36" s="170"/>
-      <c r="W36" s="170"/>
-      <c r="X36" s="170"/>
-      <c r="Y36" s="170"/>
-      <c r="Z36" s="170"/>
-      <c r="AA36" s="170"/>
-      <c r="AB36" s="170"/>
-      <c r="AC36" s="170"/>
-      <c r="AD36" s="170"/>
-      <c r="AE36" s="170"/>
-      <c r="AF36" s="170"/>
+      <c r="H36" s="90"/>
+      <c r="I36" s="90"/>
+      <c r="J36" s="90"/>
+      <c r="K36" s="90"/>
+      <c r="L36" s="90"/>
+      <c r="M36" s="90"/>
+      <c r="N36" s="90"/>
+      <c r="O36" s="90"/>
+      <c r="P36" s="90"/>
+      <c r="Q36" s="90"/>
+      <c r="R36" s="90"/>
+      <c r="S36" s="90"/>
+      <c r="T36" s="90"/>
+      <c r="U36" s="90"/>
+      <c r="V36" s="90"/>
+      <c r="W36" s="90"/>
+      <c r="X36" s="90"/>
+      <c r="Y36" s="90"/>
+      <c r="Z36" s="90"/>
+      <c r="AA36" s="90"/>
+      <c r="AB36" s="90"/>
+      <c r="AC36" s="90"/>
+      <c r="AD36" s="90"/>
+      <c r="AE36" s="90"/>
+      <c r="AF36" s="90"/>
     </row>
     <row r="37" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
@@ -3480,108 +3481,108 @@
       <c r="Y40" s="48"/>
       <c r="Z40" s="48"/>
       <c r="AA40" s="48"/>
-      <c r="AB40" s="134" t="s">
+      <c r="AB40" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="AC40" s="134"/>
-      <c r="AD40" s="134"/>
-      <c r="AE40" s="134"/>
-      <c r="AF40" s="134"/>
+      <c r="AC40" s="97"/>
+      <c r="AD40" s="97"/>
+      <c r="AE40" s="97"/>
+      <c r="AF40" s="97"/>
     </row>
     <row r="41" spans="1:32" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
-      <c r="B41" s="168" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="168"/>
-      <c r="D41" s="168"/>
-      <c r="E41" s="168"/>
-      <c r="F41" s="168"/>
-      <c r="G41" s="168"/>
-      <c r="H41" s="168"/>
-      <c r="I41" s="168"/>
-      <c r="J41" s="168"/>
-      <c r="K41" s="168"/>
-      <c r="L41" s="168"/>
-      <c r="M41" s="168"/>
-      <c r="N41" s="168"/>
-      <c r="O41" s="168"/>
-      <c r="P41" s="168"/>
-      <c r="Q41" s="168"/>
-      <c r="R41" s="168"/>
-      <c r="S41" s="168"/>
-      <c r="T41" s="168"/>
-      <c r="U41" s="168"/>
-      <c r="V41" s="168"/>
-      <c r="W41" s="168"/>
+      <c r="B41" s="88" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="88"/>
+      <c r="D41" s="88"/>
+      <c r="E41" s="88"/>
+      <c r="F41" s="88"/>
+      <c r="G41" s="88"/>
+      <c r="H41" s="88"/>
+      <c r="I41" s="88"/>
+      <c r="J41" s="88"/>
+      <c r="K41" s="88"/>
+      <c r="L41" s="88"/>
+      <c r="M41" s="88"/>
+      <c r="N41" s="88"/>
+      <c r="O41" s="88"/>
+      <c r="P41" s="88"/>
+      <c r="Q41" s="88"/>
+      <c r="R41" s="88"/>
+      <c r="S41" s="88"/>
+      <c r="T41" s="88"/>
+      <c r="U41" s="88"/>
+      <c r="V41" s="88"/>
+      <c r="W41" s="88"/>
       <c r="X41" s="73"/>
       <c r="Y41" s="48"/>
       <c r="Z41" s="48"/>
       <c r="AA41" s="48"/>
-      <c r="AB41" s="134"/>
-      <c r="AC41" s="134"/>
-      <c r="AD41" s="134"/>
-      <c r="AE41" s="134"/>
-      <c r="AF41" s="134"/>
+      <c r="AB41" s="97"/>
+      <c r="AC41" s="97"/>
+      <c r="AD41" s="97"/>
+      <c r="AE41" s="97"/>
+      <c r="AF41" s="97"/>
     </row>
     <row r="42" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
-      <c r="B42" s="168"/>
-      <c r="C42" s="168"/>
-      <c r="D42" s="168"/>
-      <c r="E42" s="168"/>
-      <c r="F42" s="168"/>
-      <c r="G42" s="168"/>
-      <c r="H42" s="168"/>
-      <c r="I42" s="168"/>
-      <c r="J42" s="168"/>
-      <c r="K42" s="168"/>
-      <c r="L42" s="168"/>
-      <c r="M42" s="168"/>
-      <c r="N42" s="168"/>
-      <c r="O42" s="168"/>
-      <c r="P42" s="168"/>
-      <c r="Q42" s="168"/>
-      <c r="R42" s="168"/>
-      <c r="S42" s="168"/>
-      <c r="T42" s="168"/>
-      <c r="U42" s="168"/>
-      <c r="V42" s="168"/>
-      <c r="W42" s="168"/>
+      <c r="B42" s="88"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="88"/>
+      <c r="F42" s="88"/>
+      <c r="G42" s="88"/>
+      <c r="H42" s="88"/>
+      <c r="I42" s="88"/>
+      <c r="J42" s="88"/>
+      <c r="K42" s="88"/>
+      <c r="L42" s="88"/>
+      <c r="M42" s="88"/>
+      <c r="N42" s="88"/>
+      <c r="O42" s="88"/>
+      <c r="P42" s="88"/>
+      <c r="Q42" s="88"/>
+      <c r="R42" s="88"/>
+      <c r="S42" s="88"/>
+      <c r="T42" s="88"/>
+      <c r="U42" s="88"/>
+      <c r="V42" s="88"/>
+      <c r="W42" s="88"/>
       <c r="X42" s="73"/>
       <c r="Y42" s="48"/>
       <c r="Z42" s="48"/>
       <c r="AA42" s="48"/>
-      <c r="AB42" s="134"/>
-      <c r="AC42" s="134"/>
-      <c r="AD42" s="134"/>
-      <c r="AE42" s="134"/>
-      <c r="AF42" s="134"/>
+      <c r="AB42" s="97"/>
+      <c r="AC42" s="97"/>
+      <c r="AD42" s="97"/>
+      <c r="AE42" s="97"/>
+      <c r="AF42" s="97"/>
     </row>
     <row r="43" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
-      <c r="B43" s="168"/>
-      <c r="C43" s="168"/>
-      <c r="D43" s="168"/>
-      <c r="E43" s="168"/>
-      <c r="F43" s="168"/>
-      <c r="G43" s="168"/>
-      <c r="H43" s="168"/>
-      <c r="I43" s="168"/>
-      <c r="J43" s="168"/>
-      <c r="K43" s="168"/>
-      <c r="L43" s="168"/>
-      <c r="M43" s="168"/>
-      <c r="N43" s="168"/>
-      <c r="O43" s="168"/>
-      <c r="P43" s="168"/>
-      <c r="Q43" s="168"/>
-      <c r="R43" s="168"/>
-      <c r="S43" s="168"/>
-      <c r="T43" s="168"/>
-      <c r="U43" s="168"/>
-      <c r="V43" s="168"/>
-      <c r="W43" s="168"/>
+      <c r="B43" s="88"/>
+      <c r="C43" s="88"/>
+      <c r="D43" s="88"/>
+      <c r="E43" s="88"/>
+      <c r="F43" s="88"/>
+      <c r="G43" s="88"/>
+      <c r="H43" s="88"/>
+      <c r="I43" s="88"/>
+      <c r="J43" s="88"/>
+      <c r="K43" s="88"/>
+      <c r="L43" s="88"/>
+      <c r="M43" s="88"/>
+      <c r="N43" s="88"/>
+      <c r="O43" s="88"/>
+      <c r="P43" s="88"/>
+      <c r="Q43" s="88"/>
+      <c r="R43" s="88"/>
+      <c r="S43" s="88"/>
+      <c r="T43" s="88"/>
+      <c r="U43" s="88"/>
+      <c r="V43" s="88"/>
+      <c r="W43" s="88"/>
       <c r="X43" s="73"/>
       <c r="Y43" s="48"/>
       <c r="Z43" s="48"/>
@@ -3594,28 +3595,28 @@
     </row>
     <row r="44" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
-      <c r="B44" s="168"/>
-      <c r="C44" s="168"/>
-      <c r="D44" s="168"/>
-      <c r="E44" s="168"/>
-      <c r="F44" s="168"/>
-      <c r="G44" s="168"/>
-      <c r="H44" s="168"/>
-      <c r="I44" s="168"/>
-      <c r="J44" s="168"/>
-      <c r="K44" s="168"/>
-      <c r="L44" s="168"/>
-      <c r="M44" s="168"/>
-      <c r="N44" s="168"/>
-      <c r="O44" s="168"/>
-      <c r="P44" s="168"/>
-      <c r="Q44" s="168"/>
-      <c r="R44" s="168"/>
-      <c r="S44" s="168"/>
-      <c r="T44" s="168"/>
-      <c r="U44" s="168"/>
-      <c r="V44" s="168"/>
-      <c r="W44" s="168"/>
+      <c r="B44" s="88"/>
+      <c r="C44" s="88"/>
+      <c r="D44" s="88"/>
+      <c r="E44" s="88"/>
+      <c r="F44" s="88"/>
+      <c r="G44" s="88"/>
+      <c r="H44" s="88"/>
+      <c r="I44" s="88"/>
+      <c r="J44" s="88"/>
+      <c r="K44" s="88"/>
+      <c r="L44" s="88"/>
+      <c r="M44" s="88"/>
+      <c r="N44" s="88"/>
+      <c r="O44" s="88"/>
+      <c r="P44" s="88"/>
+      <c r="Q44" s="88"/>
+      <c r="R44" s="88"/>
+      <c r="S44" s="88"/>
+      <c r="T44" s="88"/>
+      <c r="U44" s="88"/>
+      <c r="V44" s="88"/>
+      <c r="W44" s="88"/>
       <c r="X44" s="73"/>
       <c r="Y44" s="48"/>
       <c r="Z44" s="48"/>
@@ -3628,28 +3629,28 @@
     </row>
     <row r="45" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
-      <c r="B45" s="168"/>
-      <c r="C45" s="168"/>
-      <c r="D45" s="168"/>
-      <c r="E45" s="168"/>
-      <c r="F45" s="168"/>
-      <c r="G45" s="168"/>
-      <c r="H45" s="168"/>
-      <c r="I45" s="168"/>
-      <c r="J45" s="168"/>
-      <c r="K45" s="168"/>
-      <c r="L45" s="168"/>
-      <c r="M45" s="168"/>
-      <c r="N45" s="168"/>
-      <c r="O45" s="168"/>
-      <c r="P45" s="168"/>
-      <c r="Q45" s="168"/>
-      <c r="R45" s="168"/>
-      <c r="S45" s="168"/>
-      <c r="T45" s="168"/>
-      <c r="U45" s="168"/>
-      <c r="V45" s="168"/>
-      <c r="W45" s="168"/>
+      <c r="B45" s="88"/>
+      <c r="C45" s="88"/>
+      <c r="D45" s="88"/>
+      <c r="E45" s="88"/>
+      <c r="F45" s="88"/>
+      <c r="G45" s="88"/>
+      <c r="H45" s="88"/>
+      <c r="I45" s="88"/>
+      <c r="J45" s="88"/>
+      <c r="K45" s="88"/>
+      <c r="L45" s="88"/>
+      <c r="M45" s="88"/>
+      <c r="N45" s="88"/>
+      <c r="O45" s="88"/>
+      <c r="P45" s="88"/>
+      <c r="Q45" s="88"/>
+      <c r="R45" s="88"/>
+      <c r="S45" s="88"/>
+      <c r="T45" s="88"/>
+      <c r="U45" s="88"/>
+      <c r="V45" s="88"/>
+      <c r="W45" s="88"/>
       <c r="X45" s="73"/>
       <c r="Y45" s="48"/>
       <c r="Z45" s="48"/>
@@ -3662,28 +3663,28 @@
     </row>
     <row r="46" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
-      <c r="B46" s="168"/>
-      <c r="C46" s="168"/>
-      <c r="D46" s="168"/>
-      <c r="E46" s="168"/>
-      <c r="F46" s="168"/>
-      <c r="G46" s="168"/>
-      <c r="H46" s="168"/>
-      <c r="I46" s="168"/>
-      <c r="J46" s="168"/>
-      <c r="K46" s="168"/>
-      <c r="L46" s="168"/>
-      <c r="M46" s="168"/>
-      <c r="N46" s="168"/>
-      <c r="O46" s="168"/>
-      <c r="P46" s="168"/>
-      <c r="Q46" s="168"/>
-      <c r="R46" s="168"/>
-      <c r="S46" s="168"/>
-      <c r="T46" s="168"/>
-      <c r="U46" s="168"/>
-      <c r="V46" s="168"/>
-      <c r="W46" s="168"/>
+      <c r="B46" s="88"/>
+      <c r="C46" s="88"/>
+      <c r="D46" s="88"/>
+      <c r="E46" s="88"/>
+      <c r="F46" s="88"/>
+      <c r="G46" s="88"/>
+      <c r="H46" s="88"/>
+      <c r="I46" s="88"/>
+      <c r="J46" s="88"/>
+      <c r="K46" s="88"/>
+      <c r="L46" s="88"/>
+      <c r="M46" s="88"/>
+      <c r="N46" s="88"/>
+      <c r="O46" s="88"/>
+      <c r="P46" s="88"/>
+      <c r="Q46" s="88"/>
+      <c r="R46" s="88"/>
+      <c r="S46" s="88"/>
+      <c r="T46" s="88"/>
+      <c r="U46" s="88"/>
+      <c r="V46" s="88"/>
+      <c r="W46" s="88"/>
       <c r="X46" s="73"/>
       <c r="Y46" s="48"/>
       <c r="Z46" s="48"/>
@@ -3694,41 +3695,41 @@
       <c r="AE46" s="48"/>
       <c r="AF46" s="48"/>
     </row>
-    <row r="47" spans="1:32" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
-      <c r="B47" s="168"/>
-      <c r="C47" s="168"/>
-      <c r="D47" s="168"/>
-      <c r="E47" s="168"/>
-      <c r="F47" s="168"/>
-      <c r="G47" s="168"/>
-      <c r="H47" s="168"/>
-      <c r="I47" s="168"/>
-      <c r="J47" s="168"/>
-      <c r="K47" s="168"/>
-      <c r="L47" s="168"/>
-      <c r="M47" s="168"/>
-      <c r="N47" s="168"/>
-      <c r="O47" s="168"/>
-      <c r="P47" s="168"/>
-      <c r="Q47" s="168"/>
-      <c r="R47" s="168"/>
-      <c r="S47" s="168"/>
-      <c r="T47" s="168"/>
-      <c r="U47" s="168"/>
-      <c r="V47" s="168"/>
-      <c r="W47" s="168"/>
+      <c r="B47" s="88"/>
+      <c r="C47" s="88"/>
+      <c r="D47" s="88"/>
+      <c r="E47" s="88"/>
+      <c r="F47" s="88"/>
+      <c r="G47" s="88"/>
+      <c r="H47" s="88"/>
+      <c r="I47" s="88"/>
+      <c r="J47" s="88"/>
+      <c r="K47" s="88"/>
+      <c r="L47" s="88"/>
+      <c r="M47" s="88"/>
+      <c r="N47" s="88"/>
+      <c r="O47" s="88"/>
+      <c r="P47" s="88"/>
+      <c r="Q47" s="88"/>
+      <c r="R47" s="88"/>
+      <c r="S47" s="88"/>
+      <c r="T47" s="88"/>
+      <c r="U47" s="88"/>
+      <c r="V47" s="88"/>
+      <c r="W47" s="88"/>
       <c r="X47" s="73"/>
       <c r="Y47" s="49"/>
       <c r="Z47" s="49"/>
       <c r="AA47" s="49"/>
-      <c r="AB47" s="149" t="s">
+      <c r="AB47" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="AC47" s="149"/>
-      <c r="AD47" s="149"/>
-      <c r="AE47" s="149"/>
-      <c r="AF47" s="149"/>
+      <c r="AC47" s="98"/>
+      <c r="AD47" s="98"/>
+      <c r="AE47" s="98"/>
+      <c r="AF47" s="98"/>
     </row>
     <row r="48" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
@@ -3800,12 +3801,12 @@
     </row>
     <row r="50" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
-      <c r="B50" s="166" t="s">
-        <v>57</v>
-      </c>
-      <c r="C50" s="166"/>
-      <c r="D50" s="166"/>
-      <c r="E50" s="166"/>
+      <c r="B50" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
       <c r="F50" s="31"/>
       <c r="G50" s="31"/>
       <c r="H50" s="31"/>
@@ -3836,300 +3837,335 @@
     </row>
     <row r="51" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="32"/>
-      <c r="B51" s="167" t="s">
+      <c r="B51" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="87"/>
+      <c r="D51" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="C51" s="167"/>
-      <c r="D51" s="167" t="s">
+      <c r="E51" s="87"/>
+      <c r="F51" s="87"/>
+      <c r="G51" s="87"/>
+      <c r="H51" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="E51" s="167"/>
-      <c r="F51" s="167"/>
-      <c r="G51" s="167"/>
-      <c r="H51" s="167" t="s">
+      <c r="I51" s="87"/>
+      <c r="J51" s="87"/>
+      <c r="K51" s="87"/>
+      <c r="L51" s="87"/>
+      <c r="M51" s="87"/>
+      <c r="N51" s="87"/>
+      <c r="O51" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="I51" s="167"/>
-      <c r="J51" s="167"/>
-      <c r="K51" s="167"/>
-      <c r="L51" s="167"/>
-      <c r="M51" s="167"/>
-      <c r="N51" s="167"/>
-      <c r="O51" s="167" t="s">
+      <c r="P51" s="87"/>
+      <c r="Q51" s="87"/>
+      <c r="R51" s="87"/>
+      <c r="S51" s="87"/>
+      <c r="T51" s="87"/>
+      <c r="U51" s="87"/>
+      <c r="V51" s="87"/>
+      <c r="W51" s="87"/>
+    </row>
+    <row r="52" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="P51" s="167"/>
-      <c r="Q51" s="167"/>
-      <c r="R51" s="167"/>
-      <c r="S51" s="167"/>
-      <c r="T51" s="167"/>
-      <c r="U51" s="167"/>
-      <c r="V51" s="167"/>
-      <c r="W51" s="167"/>
-    </row>
-    <row r="52" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="171" t="s">
+      <c r="C52" s="74"/>
+      <c r="D52" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="C52" s="171"/>
-      <c r="D52" s="175" t="s">
+      <c r="E52" s="78"/>
+      <c r="F52" s="78"/>
+      <c r="G52" s="78"/>
+      <c r="H52" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="E52" s="175"/>
-      <c r="F52" s="175"/>
-      <c r="G52" s="175"/>
-      <c r="H52" s="175" t="s">
+      <c r="I52" s="78"/>
+      <c r="J52" s="78"/>
+      <c r="K52" s="78"/>
+      <c r="L52" s="78"/>
+      <c r="M52" s="78"/>
+      <c r="N52" s="78"/>
+      <c r="O52" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="I52" s="175"/>
-      <c r="J52" s="175"/>
-      <c r="K52" s="175"/>
-      <c r="L52" s="175"/>
-      <c r="M52" s="175"/>
-      <c r="N52" s="175"/>
-      <c r="O52" s="175" t="s">
+      <c r="P52" s="78"/>
+      <c r="Q52" s="78"/>
+      <c r="R52" s="78"/>
+      <c r="S52" s="78"/>
+      <c r="T52" s="78"/>
+      <c r="U52" s="78"/>
+      <c r="V52" s="78"/>
+      <c r="W52" s="78"/>
+    </row>
+    <row r="53" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="P52" s="175"/>
-      <c r="Q52" s="175"/>
-      <c r="R52" s="175"/>
-      <c r="S52" s="175"/>
-      <c r="T52" s="175"/>
-      <c r="U52" s="175"/>
-      <c r="V52" s="175"/>
-      <c r="W52" s="175"/>
-    </row>
-    <row r="53" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="171" t="s">
+      <c r="C53" s="74"/>
+      <c r="D53" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="C53" s="171"/>
-      <c r="D53" s="175" t="s">
+      <c r="E53" s="78"/>
+      <c r="F53" s="78"/>
+      <c r="G53" s="78"/>
+      <c r="H53" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="E53" s="175"/>
-      <c r="F53" s="175"/>
-      <c r="G53" s="175"/>
-      <c r="H53" s="175" t="s">
+      <c r="I53" s="78"/>
+      <c r="J53" s="78"/>
+      <c r="K53" s="78"/>
+      <c r="L53" s="78"/>
+      <c r="M53" s="78"/>
+      <c r="N53" s="78"/>
+      <c r="O53" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="I53" s="175"/>
-      <c r="J53" s="175"/>
-      <c r="K53" s="175"/>
-      <c r="L53" s="175"/>
-      <c r="M53" s="175"/>
-      <c r="N53" s="175"/>
-      <c r="O53" s="175" t="s">
+      <c r="P53" s="78"/>
+      <c r="Q53" s="78"/>
+      <c r="R53" s="78"/>
+      <c r="S53" s="78"/>
+      <c r="T53" s="78"/>
+      <c r="U53" s="78"/>
+      <c r="V53" s="78"/>
+      <c r="W53" s="78"/>
+    </row>
+    <row r="54" spans="1:33" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="P53" s="175"/>
-      <c r="Q53" s="175"/>
-      <c r="R53" s="175"/>
-      <c r="S53" s="175"/>
-      <c r="T53" s="175"/>
-      <c r="U53" s="175"/>
-      <c r="V53" s="175"/>
-      <c r="W53" s="175"/>
-    </row>
-    <row r="54" spans="1:33" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="171" t="s">
+      <c r="C54" s="74"/>
+      <c r="D54" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="C54" s="171"/>
-      <c r="D54" s="172" t="s">
+      <c r="E54" s="75"/>
+      <c r="F54" s="75"/>
+      <c r="G54" s="75"/>
+      <c r="H54" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="E54" s="172"/>
-      <c r="F54" s="172"/>
-      <c r="G54" s="172"/>
-      <c r="H54" s="173" t="s">
+      <c r="I54" s="76"/>
+      <c r="J54" s="76"/>
+      <c r="K54" s="76"/>
+      <c r="L54" s="76"/>
+      <c r="M54" s="76"/>
+      <c r="N54" s="76"/>
+      <c r="O54" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="I54" s="173"/>
-      <c r="J54" s="173"/>
-      <c r="K54" s="173"/>
-      <c r="L54" s="173"/>
-      <c r="M54" s="173"/>
-      <c r="N54" s="173"/>
-      <c r="O54" s="173" t="s">
-        <v>73</v>
-      </c>
-      <c r="P54" s="173"/>
-      <c r="Q54" s="173"/>
-      <c r="R54" s="173"/>
-      <c r="S54" s="173"/>
-      <c r="T54" s="173"/>
-      <c r="U54" s="173"/>
-      <c r="V54" s="173"/>
-      <c r="W54" s="173"/>
+      <c r="P54" s="76"/>
+      <c r="Q54" s="76"/>
+      <c r="R54" s="76"/>
+      <c r="S54" s="76"/>
+      <c r="T54" s="76"/>
+      <c r="U54" s="76"/>
+      <c r="V54" s="76"/>
+      <c r="W54" s="76"/>
     </row>
     <row r="55" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="32"/>
-      <c r="B55" s="174" t="s">
-        <v>74</v>
-      </c>
-      <c r="C55" s="174"/>
-      <c r="D55" s="174"/>
-      <c r="E55" s="174"/>
-      <c r="F55" s="174"/>
-      <c r="G55" s="174"/>
-      <c r="H55" s="174"/>
-      <c r="I55" s="174"/>
-      <c r="J55" s="174"/>
-      <c r="K55" s="174"/>
-      <c r="L55" s="174"/>
-      <c r="M55" s="174"/>
-      <c r="N55" s="174"/>
-      <c r="O55" s="174"/>
-      <c r="P55" s="174"/>
-      <c r="Q55" s="174"/>
-      <c r="R55" s="174"/>
-      <c r="S55" s="174"/>
-      <c r="T55" s="174"/>
-      <c r="U55" s="174"/>
-      <c r="V55" s="174"/>
-      <c r="W55" s="174"/>
+      <c r="B55" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="77"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="77"/>
+      <c r="F55" s="77"/>
+      <c r="G55" s="77"/>
+      <c r="H55" s="77"/>
+      <c r="I55" s="77"/>
+      <c r="J55" s="77"/>
+      <c r="K55" s="77"/>
+      <c r="L55" s="77"/>
+      <c r="M55" s="77"/>
+      <c r="N55" s="77"/>
+      <c r="O55" s="77"/>
+      <c r="P55" s="77"/>
+      <c r="Q55" s="77"/>
+      <c r="R55" s="77"/>
+      <c r="S55" s="77"/>
+      <c r="T55" s="77"/>
+      <c r="U55" s="77"/>
+      <c r="V55" s="77"/>
+      <c r="W55" s="77"/>
     </row>
     <row r="61" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="62" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="145" t="s">
+      <c r="A62" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="B62" s="145"/>
-      <c r="C62" s="145"/>
-      <c r="D62" s="145"/>
-      <c r="E62" s="145"/>
-      <c r="F62" s="145"/>
-      <c r="G62" s="145"/>
-      <c r="H62" s="145"/>
-      <c r="I62" s="145"/>
-      <c r="J62" s="145"/>
-      <c r="K62" s="145"/>
-      <c r="L62" s="145"/>
-      <c r="M62" s="145"/>
-      <c r="N62" s="145"/>
-      <c r="O62" s="145"/>
-      <c r="P62" s="145"/>
-      <c r="Q62" s="145"/>
-      <c r="R62" s="145"/>
-      <c r="S62" s="145"/>
-      <c r="T62" s="145"/>
-      <c r="U62" s="145"/>
-      <c r="V62" s="145"/>
-      <c r="W62" s="145"/>
-      <c r="X62" s="145"/>
-      <c r="Y62" s="145"/>
-      <c r="Z62" s="145"/>
-      <c r="AA62" s="145"/>
-      <c r="AB62" s="145"/>
-      <c r="AC62" s="145"/>
-      <c r="AD62" s="145"/>
-      <c r="AE62" s="145"/>
-      <c r="AF62" s="145"/>
-      <c r="AG62" s="145"/>
+      <c r="B62" s="91"/>
+      <c r="C62" s="91"/>
+      <c r="D62" s="91"/>
+      <c r="E62" s="91"/>
+      <c r="F62" s="91"/>
+      <c r="G62" s="91"/>
+      <c r="H62" s="91"/>
+      <c r="I62" s="91"/>
+      <c r="J62" s="91"/>
+      <c r="K62" s="91"/>
+      <c r="L62" s="91"/>
+      <c r="M62" s="91"/>
+      <c r="N62" s="91"/>
+      <c r="O62" s="91"/>
+      <c r="P62" s="91"/>
+      <c r="Q62" s="91"/>
+      <c r="R62" s="91"/>
+      <c r="S62" s="91"/>
+      <c r="T62" s="91"/>
+      <c r="U62" s="91"/>
+      <c r="V62" s="91"/>
+      <c r="W62" s="91"/>
+      <c r="X62" s="91"/>
+      <c r="Y62" s="91"/>
+      <c r="Z62" s="91"/>
+      <c r="AA62" s="91"/>
+      <c r="AB62" s="91"/>
+      <c r="AC62" s="91"/>
+      <c r="AD62" s="91"/>
+      <c r="AE62" s="91"/>
+      <c r="AF62" s="91"/>
+      <c r="AG62" s="91"/>
     </row>
     <row r="63" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="146" t="s">
+      <c r="A63" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B63" s="146"/>
-      <c r="C63" s="146"/>
-      <c r="D63" s="146"/>
-      <c r="E63" s="146"/>
-      <c r="F63" s="146"/>
-      <c r="G63" s="146"/>
-      <c r="H63" s="146"/>
-      <c r="I63" s="146"/>
-      <c r="J63" s="146"/>
-      <c r="K63" s="146"/>
-      <c r="L63" s="146"/>
-      <c r="M63" s="146"/>
-      <c r="N63" s="146"/>
-      <c r="O63" s="146"/>
-      <c r="P63" s="146"/>
-      <c r="Q63" s="146"/>
-      <c r="R63" s="146"/>
-      <c r="S63" s="146"/>
-      <c r="T63" s="146"/>
-      <c r="U63" s="146"/>
-      <c r="V63" s="146"/>
-      <c r="W63" s="146"/>
-      <c r="X63" s="146"/>
-      <c r="Y63" s="146"/>
-      <c r="Z63" s="146"/>
-      <c r="AA63" s="146"/>
-      <c r="AB63" s="146"/>
-      <c r="AC63" s="146"/>
-      <c r="AD63" s="146"/>
-      <c r="AE63" s="146"/>
-      <c r="AF63" s="146"/>
-      <c r="AG63" s="146"/>
+      <c r="B63" s="92"/>
+      <c r="C63" s="92"/>
+      <c r="D63" s="92"/>
+      <c r="E63" s="92"/>
+      <c r="F63" s="92"/>
+      <c r="G63" s="92"/>
+      <c r="H63" s="92"/>
+      <c r="I63" s="92"/>
+      <c r="J63" s="92"/>
+      <c r="K63" s="92"/>
+      <c r="L63" s="92"/>
+      <c r="M63" s="92"/>
+      <c r="N63" s="92"/>
+      <c r="O63" s="92"/>
+      <c r="P63" s="92"/>
+      <c r="Q63" s="92"/>
+      <c r="R63" s="92"/>
+      <c r="S63" s="92"/>
+      <c r="T63" s="92"/>
+      <c r="U63" s="92"/>
+      <c r="V63" s="92"/>
+      <c r="W63" s="92"/>
+      <c r="X63" s="92"/>
+      <c r="Y63" s="92"/>
+      <c r="Z63" s="92"/>
+      <c r="AA63" s="92"/>
+      <c r="AB63" s="92"/>
+      <c r="AC63" s="92"/>
+      <c r="AD63" s="92"/>
+      <c r="AE63" s="92"/>
+      <c r="AF63" s="92"/>
+      <c r="AG63" s="92"/>
     </row>
     <row r="64" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="146" t="s">
+      <c r="A64" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="B64" s="146"/>
-      <c r="C64" s="146"/>
-      <c r="D64" s="146"/>
-      <c r="E64" s="146"/>
-      <c r="F64" s="146"/>
-      <c r="G64" s="146"/>
-      <c r="H64" s="146"/>
-      <c r="I64" s="146"/>
-      <c r="J64" s="146"/>
-      <c r="K64" s="146"/>
-      <c r="L64" s="146"/>
-      <c r="M64" s="146"/>
-      <c r="N64" s="146"/>
-      <c r="O64" s="146"/>
-      <c r="P64" s="146"/>
-      <c r="Q64" s="146"/>
-      <c r="R64" s="146"/>
-      <c r="S64" s="146"/>
-      <c r="T64" s="146"/>
-      <c r="U64" s="146"/>
-      <c r="V64" s="146"/>
-      <c r="W64" s="146"/>
-      <c r="X64" s="146"/>
-      <c r="Y64" s="146"/>
-      <c r="Z64" s="146"/>
-      <c r="AA64" s="146"/>
-      <c r="AB64" s="146"/>
-      <c r="AC64" s="146"/>
-      <c r="AD64" s="146"/>
-      <c r="AE64" s="146"/>
-      <c r="AF64" s="146"/>
-      <c r="AG64" s="146"/>
+      <c r="B64" s="92"/>
+      <c r="C64" s="92"/>
+      <c r="D64" s="92"/>
+      <c r="E64" s="92"/>
+      <c r="F64" s="92"/>
+      <c r="G64" s="92"/>
+      <c r="H64" s="92"/>
+      <c r="I64" s="92"/>
+      <c r="J64" s="92"/>
+      <c r="K64" s="92"/>
+      <c r="L64" s="92"/>
+      <c r="M64" s="92"/>
+      <c r="N64" s="92"/>
+      <c r="O64" s="92"/>
+      <c r="P64" s="92"/>
+      <c r="Q64" s="92"/>
+      <c r="R64" s="92"/>
+      <c r="S64" s="92"/>
+      <c r="T64" s="92"/>
+      <c r="U64" s="92"/>
+      <c r="V64" s="92"/>
+      <c r="W64" s="92"/>
+      <c r="X64" s="92"/>
+      <c r="Y64" s="92"/>
+      <c r="Z64" s="92"/>
+      <c r="AA64" s="92"/>
+      <c r="AB64" s="92"/>
+      <c r="AC64" s="92"/>
+      <c r="AD64" s="92"/>
+      <c r="AE64" s="92"/>
+      <c r="AF64" s="92"/>
+      <c r="AG64" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="H54:N54"/>
-    <mergeCell ref="O54:W54"/>
-    <mergeCell ref="B55:W55"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="H52:N52"/>
-    <mergeCell ref="O52:W52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="H53:N53"/>
-    <mergeCell ref="O53:W53"/>
-    <mergeCell ref="T33:AB33"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="AA26:AC26"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="H51:N51"/>
-    <mergeCell ref="O51:W51"/>
-    <mergeCell ref="B41:W47"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="G36:AF36"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="AA19:AC19"/>
+    <mergeCell ref="K20:W21"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="K25:O25"/>
+    <mergeCell ref="Q25:W25"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="K18:W18"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="S24:W24"/>
+    <mergeCell ref="AA13:AC14"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="S16:W16"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="AD8:AF9"/>
+    <mergeCell ref="Y8:AC9"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="I5:Z5"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="X20:Z21"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="K22:W22"/>
+    <mergeCell ref="B2:AF3"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="B24:C28"/>
+    <mergeCell ref="K19:W19"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="B6:H9"/>
+    <mergeCell ref="B16:C22"/>
+    <mergeCell ref="B4:AF4"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="K26:W26"/>
+    <mergeCell ref="Q8:X9"/>
+    <mergeCell ref="AD10:AF11"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="B13:W14"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="Q10:X11"/>
+    <mergeCell ref="AD13:AF14"/>
+    <mergeCell ref="Q17:W17"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="Y10:AC11"/>
+    <mergeCell ref="AE16:AF16"/>
     <mergeCell ref="A62:AG62"/>
     <mergeCell ref="A63:AG63"/>
     <mergeCell ref="A64:AG64"/>
@@ -4154,67 +4190,32 @@
     <mergeCell ref="AE28:AF28"/>
     <mergeCell ref="K27:W27"/>
     <mergeCell ref="T31:AB31"/>
-    <mergeCell ref="B2:AF3"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="B24:C28"/>
-    <mergeCell ref="K19:W19"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="B6:H9"/>
-    <mergeCell ref="B16:C22"/>
-    <mergeCell ref="B4:AF4"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="K26:W26"/>
-    <mergeCell ref="Q8:X9"/>
-    <mergeCell ref="AD10:AF11"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="B13:W14"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="Q10:X11"/>
-    <mergeCell ref="AD13:AF14"/>
-    <mergeCell ref="Q17:W17"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="Y10:AC11"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="S24:W24"/>
-    <mergeCell ref="AA13:AC14"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="S16:W16"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="AD8:AF9"/>
-    <mergeCell ref="Y8:AC9"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="I5:Z5"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="X20:Z21"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="K22:W22"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="AA19:AC19"/>
-    <mergeCell ref="K20:W21"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="K25:O25"/>
-    <mergeCell ref="Q25:W25"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="K18:W18"/>
-    <mergeCell ref="D19:J19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="T33:AB33"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="AA26:AC26"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="H51:N51"/>
+    <mergeCell ref="O51:W51"/>
+    <mergeCell ref="B41:W47"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="G36:AF36"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="H54:N54"/>
+    <mergeCell ref="O54:W54"/>
+    <mergeCell ref="B55:W55"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="H52:N52"/>
+    <mergeCell ref="O52:W52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="H53:N53"/>
+    <mergeCell ref="O53:W53"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E11:H11" xr:uid="{7FD8B4C7-42A0-4993-86BF-E5604E228F87}"/>
@@ -4233,8 +4234,8 @@
   </sheetPr>
   <dimension ref="A1:AG65"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE27" sqref="AE27:AF27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4272,163 +4273,163 @@
     <row r="1" spans="1:32" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:32" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="107"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="107"/>
-      <c r="X2" s="107"/>
-      <c r="Y2" s="107"/>
-      <c r="Z2" s="107"/>
-      <c r="AA2" s="107"/>
-      <c r="AB2" s="107"/>
-      <c r="AC2" s="107"/>
-      <c r="AD2" s="107"/>
-      <c r="AE2" s="107"/>
-      <c r="AF2" s="107"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="129"/>
+      <c r="P2" s="129"/>
+      <c r="Q2" s="129"/>
+      <c r="R2" s="129"/>
+      <c r="S2" s="129"/>
+      <c r="T2" s="129"/>
+      <c r="U2" s="129"/>
+      <c r="V2" s="129"/>
+      <c r="W2" s="129"/>
+      <c r="X2" s="129"/>
+      <c r="Y2" s="129"/>
+      <c r="Z2" s="129"/>
+      <c r="AA2" s="129"/>
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="129"/>
+      <c r="AD2" s="129"/>
+      <c r="AE2" s="129"/>
+      <c r="AF2" s="129"/>
     </row>
     <row r="3" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="107"/>
-      <c r="Q3" s="107"/>
-      <c r="R3" s="107"/>
-      <c r="S3" s="107"/>
-      <c r="T3" s="107"/>
-      <c r="U3" s="107"/>
-      <c r="V3" s="107"/>
-      <c r="W3" s="107"/>
-      <c r="X3" s="107"/>
-      <c r="Y3" s="107"/>
-      <c r="Z3" s="107"/>
-      <c r="AA3" s="107"/>
-      <c r="AB3" s="107"/>
-      <c r="AC3" s="107"/>
-      <c r="AD3" s="107"/>
-      <c r="AE3" s="107"/>
-      <c r="AF3" s="107"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="129"/>
+      <c r="O3" s="129"/>
+      <c r="P3" s="129"/>
+      <c r="Q3" s="129"/>
+      <c r="R3" s="129"/>
+      <c r="S3" s="129"/>
+      <c r="T3" s="129"/>
+      <c r="U3" s="129"/>
+      <c r="V3" s="129"/>
+      <c r="W3" s="129"/>
+      <c r="X3" s="129"/>
+      <c r="Y3" s="129"/>
+      <c r="Z3" s="129"/>
+      <c r="AA3" s="129"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="129"/>
+      <c r="AD3" s="129"/>
+      <c r="AE3" s="129"/>
+      <c r="AF3" s="129"/>
     </row>
     <row r="4" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="134" t="s">
+      <c r="B4" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
-      <c r="U4" s="107"/>
-      <c r="V4" s="107"/>
-      <c r="W4" s="107"/>
-      <c r="X4" s="107"/>
-      <c r="Y4" s="107"/>
-      <c r="Z4" s="107"/>
-      <c r="AA4" s="107"/>
-      <c r="AB4" s="107"/>
-      <c r="AC4" s="107"/>
-      <c r="AD4" s="107"/>
-      <c r="AE4" s="107"/>
-      <c r="AF4" s="107"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="129"/>
+      <c r="M4" s="129"/>
+      <c r="N4" s="129"/>
+      <c r="O4" s="129"/>
+      <c r="P4" s="129"/>
+      <c r="Q4" s="129"/>
+      <c r="R4" s="129"/>
+      <c r="S4" s="129"/>
+      <c r="T4" s="129"/>
+      <c r="U4" s="129"/>
+      <c r="V4" s="129"/>
+      <c r="W4" s="129"/>
+      <c r="X4" s="129"/>
+      <c r="Y4" s="129"/>
+      <c r="Z4" s="129"/>
+      <c r="AA4" s="129"/>
+      <c r="AB4" s="129"/>
+      <c r="AC4" s="129"/>
+      <c r="AD4" s="129"/>
+      <c r="AE4" s="129"/>
+      <c r="AF4" s="129"/>
     </row>
     <row r="5" spans="1:32" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="153" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="120" t="s">
+      <c r="C5" s="129"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="159" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="107"/>
-      <c r="W5" s="107"/>
-      <c r="X5" s="107"/>
-      <c r="Y5" s="107"/>
-      <c r="Z5" s="107"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="129"/>
+      <c r="M5" s="129"/>
+      <c r="N5" s="129"/>
+      <c r="O5" s="129"/>
+      <c r="P5" s="129"/>
+      <c r="Q5" s="129"/>
+      <c r="R5" s="129"/>
+      <c r="S5" s="129"/>
+      <c r="T5" s="129"/>
+      <c r="U5" s="129"/>
+      <c r="V5" s="129"/>
+      <c r="W5" s="129"/>
+      <c r="X5" s="129"/>
+      <c r="Y5" s="129"/>
+      <c r="Z5" s="129"/>
       <c r="AA5" s="7"/>
-      <c r="AB5" s="189" t="s">
+      <c r="AB5" s="247" t="s">
         <v>1</v>
       </c>
-      <c r="AC5" s="118"/>
-      <c r="AD5" s="118"/>
-      <c r="AE5" s="118"/>
+      <c r="AC5" s="149"/>
+      <c r="AD5" s="149"/>
+      <c r="AE5" s="149"/>
       <c r="AF5" s="46" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="131" t="s">
+      <c r="B6" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -4438,35 +4439,35 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
-      <c r="R6" s="122"/>
-      <c r="S6" s="107"/>
-      <c r="T6" s="107"/>
-      <c r="U6" s="107"/>
-      <c r="V6" s="107"/>
-      <c r="W6" s="107"/>
-      <c r="X6" s="109"/>
-      <c r="Y6" s="107"/>
+      <c r="R6" s="117"/>
+      <c r="S6" s="129"/>
+      <c r="T6" s="129"/>
+      <c r="U6" s="129"/>
+      <c r="V6" s="129"/>
+      <c r="W6" s="129"/>
+      <c r="X6" s="156"/>
+      <c r="Y6" s="129"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="7"/>
-      <c r="AB6" s="105" t="s">
+      <c r="AB6" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="AC6" s="107"/>
-      <c r="AD6" s="107"/>
-      <c r="AE6" s="107"/>
+      <c r="AC6" s="129"/>
+      <c r="AD6" s="129"/>
+      <c r="AE6" s="129"/>
       <c r="AF6" s="45" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -4494,13 +4495,13 @@
     </row>
     <row r="8" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="129"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -4509,38 +4510,38 @@
       <c r="N8" s="9"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
-      <c r="Q8" s="112" t="s">
+      <c r="Q8" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="199"/>
-      <c r="S8" s="199"/>
-      <c r="T8" s="199"/>
-      <c r="U8" s="199"/>
-      <c r="V8" s="199"/>
-      <c r="W8" s="199"/>
-      <c r="X8" s="201"/>
-      <c r="Y8" s="112" t="s">
+      <c r="R8" s="242"/>
+      <c r="S8" s="242"/>
+      <c r="T8" s="242"/>
+      <c r="U8" s="242"/>
+      <c r="V8" s="242"/>
+      <c r="W8" s="242"/>
+      <c r="X8" s="244"/>
+      <c r="Y8" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="Z8" s="199"/>
-      <c r="AA8" s="199"/>
-      <c r="AB8" s="199"/>
-      <c r="AC8" s="201"/>
-      <c r="AD8" s="112" t="s">
+      <c r="Z8" s="242"/>
+      <c r="AA8" s="242"/>
+      <c r="AB8" s="242"/>
+      <c r="AC8" s="244"/>
+      <c r="AD8" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="AE8" s="199"/>
-      <c r="AF8" s="201"/>
+      <c r="AE8" s="242"/>
+      <c r="AF8" s="244"/>
     </row>
     <row r="9" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="107"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
+      <c r="B9" s="129"/>
+      <c r="C9" s="129"/>
+      <c r="D9" s="129"/>
+      <c r="E9" s="129"/>
+      <c r="F9" s="129"/>
+      <c r="G9" s="129"/>
+      <c r="H9" s="129"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -4549,22 +4550,22 @@
       <c r="N9" s="9"/>
       <c r="O9" s="6"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="202"/>
-      <c r="R9" s="200"/>
-      <c r="S9" s="200"/>
-      <c r="T9" s="200"/>
-      <c r="U9" s="200"/>
-      <c r="V9" s="200"/>
-      <c r="W9" s="200"/>
-      <c r="X9" s="203"/>
-      <c r="Y9" s="202"/>
-      <c r="Z9" s="200"/>
-      <c r="AA9" s="200"/>
-      <c r="AB9" s="200"/>
-      <c r="AC9" s="203"/>
-      <c r="AD9" s="202"/>
-      <c r="AE9" s="200"/>
-      <c r="AF9" s="203"/>
+      <c r="Q9" s="245"/>
+      <c r="R9" s="243"/>
+      <c r="S9" s="243"/>
+      <c r="T9" s="243"/>
+      <c r="U9" s="243"/>
+      <c r="V9" s="243"/>
+      <c r="W9" s="243"/>
+      <c r="X9" s="246"/>
+      <c r="Y9" s="245"/>
+      <c r="Z9" s="243"/>
+      <c r="AA9" s="243"/>
+      <c r="AB9" s="243"/>
+      <c r="AC9" s="246"/>
+      <c r="AD9" s="245"/>
+      <c r="AE9" s="243"/>
+      <c r="AF9" s="246"/>
     </row>
     <row r="10" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -4583,44 +4584,44 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="141">
+      <c r="Q10" s="144">
         <v>44986</v>
       </c>
-      <c r="R10" s="113"/>
-      <c r="S10" s="113"/>
-      <c r="T10" s="113"/>
-      <c r="U10" s="113"/>
-      <c r="V10" s="113"/>
-      <c r="W10" s="113"/>
-      <c r="X10" s="114"/>
-      <c r="Y10" s="144">
+      <c r="R10" s="134"/>
+      <c r="S10" s="134"/>
+      <c r="T10" s="134"/>
+      <c r="U10" s="134"/>
+      <c r="V10" s="134"/>
+      <c r="W10" s="134"/>
+      <c r="X10" s="135"/>
+      <c r="Y10" s="148">
         <v>0</v>
       </c>
-      <c r="Z10" s="113"/>
-      <c r="AA10" s="113"/>
-      <c r="AB10" s="113"/>
-      <c r="AC10" s="114"/>
-      <c r="AD10" s="137" t="s">
+      <c r="Z10" s="134"/>
+      <c r="AA10" s="134"/>
+      <c r="AB10" s="134"/>
+      <c r="AC10" s="135"/>
+      <c r="AD10" s="139" t="s">
         <v>43</v>
       </c>
-      <c r="AE10" s="113"/>
-      <c r="AF10" s="114"/>
+      <c r="AE10" s="134"/>
+      <c r="AF10" s="135"/>
     </row>
     <row r="11" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="106" t="s">
+      <c r="B11" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="107"/>
+      <c r="C11" s="129"/>
       <c r="D11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="106" t="s">
+      <c r="E11" s="153" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="129"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -4629,22 +4630,22 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="115"/>
-      <c r="R11" s="116"/>
-      <c r="S11" s="116"/>
-      <c r="T11" s="116"/>
-      <c r="U11" s="116"/>
-      <c r="V11" s="116"/>
-      <c r="W11" s="116"/>
-      <c r="X11" s="117"/>
-      <c r="Y11" s="115"/>
-      <c r="Z11" s="116"/>
-      <c r="AA11" s="116"/>
-      <c r="AB11" s="116"/>
-      <c r="AC11" s="117"/>
-      <c r="AD11" s="115"/>
-      <c r="AE11" s="116"/>
-      <c r="AF11" s="117"/>
+      <c r="Q11" s="136"/>
+      <c r="R11" s="137"/>
+      <c r="S11" s="137"/>
+      <c r="T11" s="137"/>
+      <c r="U11" s="137"/>
+      <c r="V11" s="137"/>
+      <c r="W11" s="137"/>
+      <c r="X11" s="138"/>
+      <c r="Y11" s="136"/>
+      <c r="Z11" s="137"/>
+      <c r="AA11" s="137"/>
+      <c r="AB11" s="137"/>
+      <c r="AC11" s="138"/>
+      <c r="AD11" s="136"/>
+      <c r="AE11" s="137"/>
+      <c r="AF11" s="138"/>
     </row>
     <row r="12" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -4682,75 +4683,75 @@
     </row>
     <row r="13" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="142" t="s">
+      <c r="B13" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="199"/>
-      <c r="D13" s="199"/>
-      <c r="E13" s="199"/>
-      <c r="F13" s="199"/>
-      <c r="G13" s="199"/>
-      <c r="H13" s="199"/>
-      <c r="I13" s="199"/>
-      <c r="J13" s="199"/>
-      <c r="K13" s="199"/>
-      <c r="L13" s="199"/>
-      <c r="M13" s="199"/>
-      <c r="N13" s="199"/>
-      <c r="O13" s="199"/>
-      <c r="P13" s="199"/>
-      <c r="Q13" s="199"/>
-      <c r="R13" s="199"/>
-      <c r="S13" s="199"/>
-      <c r="T13" s="199"/>
-      <c r="U13" s="199"/>
-      <c r="V13" s="199"/>
-      <c r="W13" s="199"/>
-      <c r="X13" s="199"/>
-      <c r="Y13" s="199"/>
-      <c r="Z13" s="199"/>
-      <c r="AA13" s="199"/>
-      <c r="AB13" s="199"/>
+      <c r="C13" s="242"/>
+      <c r="D13" s="242"/>
+      <c r="E13" s="242"/>
+      <c r="F13" s="242"/>
+      <c r="G13" s="242"/>
+      <c r="H13" s="242"/>
+      <c r="I13" s="242"/>
+      <c r="J13" s="242"/>
+      <c r="K13" s="242"/>
+      <c r="L13" s="242"/>
+      <c r="M13" s="242"/>
+      <c r="N13" s="242"/>
+      <c r="O13" s="242"/>
+      <c r="P13" s="242"/>
+      <c r="Q13" s="242"/>
+      <c r="R13" s="242"/>
+      <c r="S13" s="242"/>
+      <c r="T13" s="242"/>
+      <c r="U13" s="242"/>
+      <c r="V13" s="242"/>
+      <c r="W13" s="242"/>
+      <c r="X13" s="242"/>
+      <c r="Y13" s="242"/>
+      <c r="Z13" s="242"/>
+      <c r="AA13" s="242"/>
+      <c r="AB13" s="242"/>
       <c r="AC13" s="33"/>
-      <c r="AD13" s="142" t="s">
+      <c r="AD13" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="AE13" s="199"/>
-      <c r="AF13" s="199"/>
+      <c r="AE13" s="242"/>
+      <c r="AF13" s="242"/>
     </row>
     <row r="14" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="B14" s="200"/>
-      <c r="C14" s="200"/>
-      <c r="D14" s="200"/>
-      <c r="E14" s="200"/>
-      <c r="F14" s="200"/>
-      <c r="G14" s="200"/>
-      <c r="H14" s="200"/>
-      <c r="I14" s="200"/>
-      <c r="J14" s="200"/>
-      <c r="K14" s="200"/>
-      <c r="L14" s="200"/>
-      <c r="M14" s="200"/>
-      <c r="N14" s="200"/>
-      <c r="O14" s="200"/>
-      <c r="P14" s="200"/>
-      <c r="Q14" s="200"/>
-      <c r="R14" s="200"/>
-      <c r="S14" s="200"/>
-      <c r="T14" s="200"/>
-      <c r="U14" s="200"/>
-      <c r="V14" s="200"/>
-      <c r="W14" s="200"/>
-      <c r="X14" s="200"/>
-      <c r="Y14" s="200"/>
-      <c r="Z14" s="200"/>
-      <c r="AA14" s="200"/>
-      <c r="AB14" s="200"/>
+      <c r="B14" s="243"/>
+      <c r="C14" s="243"/>
+      <c r="D14" s="243"/>
+      <c r="E14" s="243"/>
+      <c r="F14" s="243"/>
+      <c r="G14" s="243"/>
+      <c r="H14" s="243"/>
+      <c r="I14" s="243"/>
+      <c r="J14" s="243"/>
+      <c r="K14" s="243"/>
+      <c r="L14" s="243"/>
+      <c r="M14" s="243"/>
+      <c r="N14" s="243"/>
+      <c r="O14" s="243"/>
+      <c r="P14" s="243"/>
+      <c r="Q14" s="243"/>
+      <c r="R14" s="243"/>
+      <c r="S14" s="243"/>
+      <c r="T14" s="243"/>
+      <c r="U14" s="243"/>
+      <c r="V14" s="243"/>
+      <c r="W14" s="243"/>
+      <c r="X14" s="243"/>
+      <c r="Y14" s="243"/>
+      <c r="Z14" s="243"/>
+      <c r="AA14" s="243"/>
+      <c r="AB14" s="243"/>
       <c r="AC14" s="34"/>
-      <c r="AD14" s="200"/>
-      <c r="AE14" s="200"/>
-      <c r="AF14" s="200"/>
+      <c r="AD14" s="243"/>
+      <c r="AE14" s="243"/>
+      <c r="AF14" s="243"/>
     </row>
     <row r="15" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -4787,173 +4788,173 @@
       <c r="AF15" s="14"/>
     </row>
     <row r="16" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="74"/>
-      <c r="B16" s="132" t="s">
+      <c r="A16" s="99"/>
+      <c r="B16" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="180"/>
-      <c r="D16" s="180"/>
-      <c r="E16" s="204"/>
-      <c r="F16" s="225" t="s">
+      <c r="C16" s="209"/>
+      <c r="D16" s="209"/>
+      <c r="E16" s="210"/>
+      <c r="F16" s="239" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="186"/>
-      <c r="H16" s="186"/>
-      <c r="I16" s="186"/>
-      <c r="J16" s="187"/>
-      <c r="K16" s="185" t="s">
+      <c r="G16" s="237"/>
+      <c r="H16" s="237"/>
+      <c r="I16" s="237"/>
+      <c r="J16" s="238"/>
+      <c r="K16" s="248" t="s">
         <v>40</v>
       </c>
-      <c r="L16" s="186"/>
-      <c r="M16" s="186"/>
-      <c r="N16" s="186"/>
-      <c r="O16" s="186"/>
-      <c r="P16" s="186"/>
-      <c r="Q16" s="186"/>
-      <c r="R16" s="186"/>
-      <c r="S16" s="186"/>
-      <c r="T16" s="186"/>
-      <c r="U16" s="186"/>
-      <c r="V16" s="186"/>
-      <c r="W16" s="186"/>
-      <c r="X16" s="186"/>
-      <c r="Y16" s="186"/>
-      <c r="Z16" s="186"/>
-      <c r="AA16" s="186"/>
-      <c r="AB16" s="187"/>
+      <c r="L16" s="237"/>
+      <c r="M16" s="237"/>
+      <c r="N16" s="237"/>
+      <c r="O16" s="237"/>
+      <c r="P16" s="237"/>
+      <c r="Q16" s="237"/>
+      <c r="R16" s="237"/>
+      <c r="S16" s="237"/>
+      <c r="T16" s="237"/>
+      <c r="U16" s="237"/>
+      <c r="V16" s="237"/>
+      <c r="W16" s="237"/>
+      <c r="X16" s="237"/>
+      <c r="Y16" s="237"/>
+      <c r="Z16" s="237"/>
+      <c r="AA16" s="237"/>
+      <c r="AB16" s="238"/>
       <c r="AC16" s="38"/>
       <c r="AD16" s="42"/>
-      <c r="AE16" s="118"/>
-      <c r="AF16" s="178"/>
+      <c r="AE16" s="149"/>
+      <c r="AF16" s="205"/>
     </row>
     <row r="17" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="74"/>
-      <c r="B17" s="222"/>
-      <c r="C17" s="206"/>
-      <c r="D17" s="206"/>
-      <c r="E17" s="207"/>
-      <c r="F17" s="214" t="s">
+      <c r="A17" s="99"/>
+      <c r="B17" s="232"/>
+      <c r="C17" s="212"/>
+      <c r="D17" s="212"/>
+      <c r="E17" s="213"/>
+      <c r="F17" s="222" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="215"/>
-      <c r="H17" s="215"/>
-      <c r="I17" s="215"/>
-      <c r="J17" s="216"/>
-      <c r="K17" s="176" t="s">
+      <c r="G17" s="223"/>
+      <c r="H17" s="223"/>
+      <c r="I17" s="223"/>
+      <c r="J17" s="224"/>
+      <c r="K17" s="228" t="s">
         <v>41</v>
       </c>
-      <c r="L17" s="177"/>
-      <c r="M17" s="177"/>
-      <c r="N17" s="177"/>
-      <c r="O17" s="177"/>
-      <c r="P17" s="177"/>
-      <c r="Q17" s="177"/>
-      <c r="R17" s="181" t="s">
+      <c r="L17" s="229"/>
+      <c r="M17" s="229"/>
+      <c r="N17" s="229"/>
+      <c r="O17" s="229"/>
+      <c r="P17" s="229"/>
+      <c r="Q17" s="229"/>
+      <c r="R17" s="252" t="s">
         <v>32</v>
       </c>
-      <c r="S17" s="220" t="s">
+      <c r="S17" s="230" t="s">
         <v>42</v>
       </c>
-      <c r="T17" s="220"/>
-      <c r="U17" s="220"/>
-      <c r="V17" s="220"/>
-      <c r="W17" s="220"/>
-      <c r="X17" s="220"/>
-      <c r="Y17" s="220"/>
-      <c r="Z17" s="220"/>
-      <c r="AA17" s="220"/>
-      <c r="AB17" s="221"/>
+      <c r="T17" s="230"/>
+      <c r="U17" s="230"/>
+      <c r="V17" s="230"/>
+      <c r="W17" s="230"/>
+      <c r="X17" s="230"/>
+      <c r="Y17" s="230"/>
+      <c r="Z17" s="230"/>
+      <c r="AA17" s="230"/>
+      <c r="AB17" s="231"/>
       <c r="AC17" s="38"/>
-      <c r="AD17" s="182" t="s">
+      <c r="AD17" s="190" t="s">
         <v>17</v>
       </c>
-      <c r="AE17" s="183">
+      <c r="AE17" s="253">
         <f>K18*S18</f>
         <v>1099040</v>
       </c>
-      <c r="AF17" s="183"/>
+      <c r="AF17" s="253"/>
     </row>
     <row r="18" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="107"/>
-      <c r="B18" s="208"/>
-      <c r="C18" s="178"/>
-      <c r="D18" s="178"/>
-      <c r="E18" s="207"/>
-      <c r="F18" s="217"/>
-      <c r="G18" s="218"/>
-      <c r="H18" s="218"/>
-      <c r="I18" s="218"/>
-      <c r="J18" s="219"/>
-      <c r="K18" s="89">
+      <c r="A18" s="129"/>
+      <c r="B18" s="214"/>
+      <c r="C18" s="205"/>
+      <c r="D18" s="205"/>
+      <c r="E18" s="213"/>
+      <c r="F18" s="225"/>
+      <c r="G18" s="226"/>
+      <c r="H18" s="226"/>
+      <c r="I18" s="226"/>
+      <c r="J18" s="227"/>
+      <c r="K18" s="154">
         <v>16000</v>
       </c>
-      <c r="L18" s="180"/>
-      <c r="M18" s="180"/>
-      <c r="N18" s="180"/>
-      <c r="O18" s="180"/>
-      <c r="P18" s="180"/>
-      <c r="Q18" s="180"/>
-      <c r="R18" s="181"/>
-      <c r="S18" s="82">
+      <c r="L18" s="209"/>
+      <c r="M18" s="209"/>
+      <c r="N18" s="209"/>
+      <c r="O18" s="209"/>
+      <c r="P18" s="209"/>
+      <c r="Q18" s="209"/>
+      <c r="R18" s="252"/>
+      <c r="S18" s="168">
         <v>68.69</v>
       </c>
-      <c r="T18" s="180"/>
-      <c r="U18" s="180"/>
-      <c r="V18" s="180"/>
-      <c r="W18" s="180"/>
-      <c r="X18" s="180"/>
-      <c r="Y18" s="180"/>
-      <c r="Z18" s="180"/>
-      <c r="AA18" s="180"/>
-      <c r="AB18" s="204"/>
+      <c r="T18" s="209"/>
+      <c r="U18" s="209"/>
+      <c r="V18" s="209"/>
+      <c r="W18" s="209"/>
+      <c r="X18" s="209"/>
+      <c r="Y18" s="209"/>
+      <c r="Z18" s="209"/>
+      <c r="AA18" s="209"/>
+      <c r="AB18" s="210"/>
       <c r="AC18" s="38"/>
-      <c r="AD18" s="182"/>
-      <c r="AE18" s="183"/>
-      <c r="AF18" s="183"/>
+      <c r="AD18" s="190"/>
+      <c r="AE18" s="253"/>
+      <c r="AF18" s="253"/>
     </row>
     <row r="19" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="209"/>
-      <c r="C19" s="210"/>
-      <c r="D19" s="210"/>
-      <c r="E19" s="211"/>
-      <c r="F19" s="93" t="s">
+      <c r="B19" s="215"/>
+      <c r="C19" s="206"/>
+      <c r="D19" s="206"/>
+      <c r="E19" s="216"/>
+      <c r="F19" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="191"/>
-      <c r="H19" s="191"/>
-      <c r="I19" s="191"/>
-      <c r="J19" s="193"/>
-      <c r="K19" s="194">
+      <c r="G19" s="234"/>
+      <c r="H19" s="234"/>
+      <c r="I19" s="234"/>
+      <c r="J19" s="235"/>
+      <c r="K19" s="217">
         <f>ROUND(AE17*11%,0)</f>
         <v>120894</v>
       </c>
-      <c r="L19" s="195"/>
-      <c r="M19" s="195"/>
-      <c r="N19" s="195"/>
-      <c r="O19" s="195"/>
-      <c r="P19" s="195"/>
-      <c r="Q19" s="195"/>
-      <c r="R19" s="195"/>
-      <c r="S19" s="195"/>
-      <c r="T19" s="195"/>
-      <c r="U19" s="195"/>
-      <c r="V19" s="195"/>
-      <c r="W19" s="195"/>
-      <c r="X19" s="195"/>
-      <c r="Y19" s="195"/>
-      <c r="Z19" s="195"/>
-      <c r="AA19" s="195"/>
-      <c r="AB19" s="196"/>
+      <c r="L19" s="218"/>
+      <c r="M19" s="218"/>
+      <c r="N19" s="218"/>
+      <c r="O19" s="218"/>
+      <c r="P19" s="218"/>
+      <c r="Q19" s="218"/>
+      <c r="R19" s="218"/>
+      <c r="S19" s="218"/>
+      <c r="T19" s="218"/>
+      <c r="U19" s="218"/>
+      <c r="V19" s="218"/>
+      <c r="W19" s="218"/>
+      <c r="X19" s="218"/>
+      <c r="Y19" s="218"/>
+      <c r="Z19" s="218"/>
+      <c r="AA19" s="218"/>
+      <c r="AB19" s="219"/>
       <c r="AC19" s="38"/>
       <c r="AD19" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE19" s="197">
+      <c r="AE19" s="240">
         <f>K19</f>
         <v>120894</v>
       </c>
-      <c r="AF19" s="198"/>
+      <c r="AF19" s="241"/>
     </row>
     <row r="20" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
@@ -4961,24 +4962,24 @@
       <c r="C20" s="11"/>
       <c r="D20" s="68"/>
       <c r="E20" s="38"/>
-      <c r="F20" s="213"/>
-      <c r="G20" s="178"/>
-      <c r="H20" s="178"/>
-      <c r="I20" s="178"/>
+      <c r="F20" s="221"/>
+      <c r="G20" s="205"/>
+      <c r="H20" s="205"/>
+      <c r="I20" s="205"/>
       <c r="J20" s="52"/>
-      <c r="K20" s="188"/>
-      <c r="L20" s="178"/>
-      <c r="M20" s="178"/>
-      <c r="N20" s="178"/>
-      <c r="O20" s="86"/>
-      <c r="P20" s="178"/>
-      <c r="Q20" s="184"/>
-      <c r="R20" s="178"/>
-      <c r="S20" s="178"/>
-      <c r="T20" s="178"/>
-      <c r="U20" s="178"/>
-      <c r="V20" s="178"/>
-      <c r="W20" s="178"/>
+      <c r="K20" s="255"/>
+      <c r="L20" s="205"/>
+      <c r="M20" s="205"/>
+      <c r="N20" s="205"/>
+      <c r="O20" s="160"/>
+      <c r="P20" s="205"/>
+      <c r="Q20" s="254"/>
+      <c r="R20" s="205"/>
+      <c r="S20" s="205"/>
+      <c r="T20" s="205"/>
+      <c r="U20" s="205"/>
+      <c r="V20" s="205"/>
+      <c r="W20" s="205"/>
       <c r="X20" s="52"/>
       <c r="Y20" s="52"/>
       <c r="Z20" s="52"/>
@@ -4988,207 +4989,207 @@
       <c r="AD20" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE20" s="179">
+      <c r="AE20" s="251">
         <f>AE17+AE19</f>
         <v>1219934</v>
       </c>
-      <c r="AF20" s="180"/>
+      <c r="AF20" s="209"/>
     </row>
     <row r="21" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="123" t="s">
+      <c r="B21" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="180"/>
-      <c r="D21" s="180"/>
-      <c r="E21" s="204"/>
-      <c r="F21" s="224" t="s">
+      <c r="C21" s="209"/>
+      <c r="D21" s="209"/>
+      <c r="E21" s="210"/>
+      <c r="F21" s="236" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="186"/>
-      <c r="H21" s="186"/>
-      <c r="I21" s="186"/>
-      <c r="J21" s="187"/>
-      <c r="K21" s="185" t="s">
+      <c r="G21" s="237"/>
+      <c r="H21" s="237"/>
+      <c r="I21" s="237"/>
+      <c r="J21" s="238"/>
+      <c r="K21" s="248" t="s">
         <v>40</v>
       </c>
-      <c r="L21" s="186"/>
-      <c r="M21" s="186"/>
-      <c r="N21" s="186"/>
-      <c r="O21" s="186"/>
-      <c r="P21" s="186"/>
-      <c r="Q21" s="186"/>
-      <c r="R21" s="186"/>
-      <c r="S21" s="186"/>
-      <c r="T21" s="186"/>
-      <c r="U21" s="186"/>
-      <c r="V21" s="186"/>
-      <c r="W21" s="186"/>
-      <c r="X21" s="186"/>
-      <c r="Y21" s="186"/>
-      <c r="Z21" s="186"/>
-      <c r="AA21" s="186"/>
-      <c r="AB21" s="187"/>
+      <c r="L21" s="237"/>
+      <c r="M21" s="237"/>
+      <c r="N21" s="237"/>
+      <c r="O21" s="237"/>
+      <c r="P21" s="237"/>
+      <c r="Q21" s="237"/>
+      <c r="R21" s="237"/>
+      <c r="S21" s="237"/>
+      <c r="T21" s="237"/>
+      <c r="U21" s="237"/>
+      <c r="V21" s="237"/>
+      <c r="W21" s="237"/>
+      <c r="X21" s="237"/>
+      <c r="Y21" s="237"/>
+      <c r="Z21" s="237"/>
+      <c r="AA21" s="237"/>
+      <c r="AB21" s="238"/>
       <c r="AC21" s="18"/>
       <c r="AD21" s="42"/>
-      <c r="AE21" s="148"/>
-      <c r="AF21" s="178"/>
+      <c r="AE21" s="95"/>
+      <c r="AF21" s="205"/>
     </row>
     <row r="22" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="205"/>
-      <c r="C22" s="206"/>
-      <c r="D22" s="206"/>
-      <c r="E22" s="207"/>
-      <c r="F22" s="241" t="s">
+      <c r="B22" s="211"/>
+      <c r="C22" s="212"/>
+      <c r="D22" s="212"/>
+      <c r="E22" s="213"/>
+      <c r="F22" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="242"/>
-      <c r="H22" s="242"/>
-      <c r="I22" s="242"/>
-      <c r="J22" s="243"/>
-      <c r="K22" s="176" t="s">
+      <c r="G22" s="183"/>
+      <c r="H22" s="183"/>
+      <c r="I22" s="183"/>
+      <c r="J22" s="184"/>
+      <c r="K22" s="228" t="s">
         <v>41</v>
       </c>
-      <c r="L22" s="177"/>
-      <c r="M22" s="177"/>
-      <c r="N22" s="177"/>
-      <c r="O22" s="177"/>
-      <c r="P22" s="177"/>
-      <c r="Q22" s="177"/>
-      <c r="R22" s="247" t="s">
+      <c r="L22" s="229"/>
+      <c r="M22" s="229"/>
+      <c r="N22" s="229"/>
+      <c r="O22" s="229"/>
+      <c r="P22" s="229"/>
+      <c r="Q22" s="229"/>
+      <c r="R22" s="188" t="s">
         <v>32</v>
       </c>
-      <c r="S22" s="220" t="s">
+      <c r="S22" s="230" t="s">
         <v>42</v>
       </c>
-      <c r="T22" s="220"/>
-      <c r="U22" s="220"/>
-      <c r="V22" s="220"/>
-      <c r="W22" s="220"/>
-      <c r="X22" s="220"/>
-      <c r="Y22" s="220"/>
-      <c r="Z22" s="220"/>
-      <c r="AA22" s="220"/>
-      <c r="AB22" s="221"/>
+      <c r="T22" s="230"/>
+      <c r="U22" s="230"/>
+      <c r="V22" s="230"/>
+      <c r="W22" s="230"/>
+      <c r="X22" s="230"/>
+      <c r="Y22" s="230"/>
+      <c r="Z22" s="230"/>
+      <c r="AA22" s="230"/>
+      <c r="AB22" s="231"/>
       <c r="AC22" s="18"/>
-      <c r="AD22" s="182" t="s">
+      <c r="AD22" s="190" t="s">
         <v>17</v>
       </c>
-      <c r="AE22" s="249">
+      <c r="AE22" s="191">
         <f>K23*S23</f>
         <v>109904</v>
       </c>
-      <c r="AF22" s="249"/>
+      <c r="AF22" s="191"/>
     </row>
     <row r="23" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="208"/>
-      <c r="C23" s="178"/>
-      <c r="D23" s="178"/>
-      <c r="E23" s="207"/>
-      <c r="F23" s="244"/>
-      <c r="G23" s="245"/>
-      <c r="H23" s="245"/>
-      <c r="I23" s="245"/>
-      <c r="J23" s="246"/>
-      <c r="K23" s="190">
+      <c r="B23" s="214"/>
+      <c r="C23" s="205"/>
+      <c r="D23" s="205"/>
+      <c r="E23" s="213"/>
+      <c r="F23" s="185"/>
+      <c r="G23" s="186"/>
+      <c r="H23" s="186"/>
+      <c r="I23" s="186"/>
+      <c r="J23" s="187"/>
+      <c r="K23" s="249">
         <f>IF(K18&lt;&gt;0,K18*10%,VLOOKUP(E11,[1]!SCSF_Billings[#Data],6,FALSE))</f>
         <v>1600</v>
       </c>
-      <c r="L23" s="191"/>
-      <c r="M23" s="191"/>
-      <c r="N23" s="191"/>
-      <c r="O23" s="191"/>
-      <c r="P23" s="191"/>
-      <c r="Q23" s="191"/>
-      <c r="R23" s="248"/>
-      <c r="S23" s="223">
+      <c r="L23" s="234"/>
+      <c r="M23" s="234"/>
+      <c r="N23" s="234"/>
+      <c r="O23" s="234"/>
+      <c r="P23" s="234"/>
+      <c r="Q23" s="234"/>
+      <c r="R23" s="189"/>
+      <c r="S23" s="233">
         <f>S18</f>
         <v>68.69</v>
       </c>
-      <c r="T23" s="191"/>
-      <c r="U23" s="191"/>
-      <c r="V23" s="191"/>
-      <c r="W23" s="191"/>
-      <c r="X23" s="191"/>
-      <c r="Y23" s="191"/>
-      <c r="Z23" s="191"/>
-      <c r="AA23" s="191"/>
-      <c r="AB23" s="193"/>
+      <c r="T23" s="234"/>
+      <c r="U23" s="234"/>
+      <c r="V23" s="234"/>
+      <c r="W23" s="234"/>
+      <c r="X23" s="234"/>
+      <c r="Y23" s="234"/>
+      <c r="Z23" s="234"/>
+      <c r="AA23" s="234"/>
+      <c r="AB23" s="235"/>
       <c r="AC23" s="18"/>
-      <c r="AD23" s="182"/>
-      <c r="AE23" s="249"/>
-      <c r="AF23" s="249"/>
+      <c r="AD23" s="190"/>
+      <c r="AE23" s="191"/>
+      <c r="AF23" s="191"/>
     </row>
     <row r="24" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="209"/>
-      <c r="C24" s="210"/>
-      <c r="D24" s="210"/>
-      <c r="E24" s="211"/>
-      <c r="F24" s="192" t="s">
+      <c r="B24" s="215"/>
+      <c r="C24" s="206"/>
+      <c r="D24" s="206"/>
+      <c r="E24" s="216"/>
+      <c r="F24" s="250" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="191"/>
-      <c r="H24" s="191"/>
-      <c r="I24" s="191"/>
-      <c r="J24" s="193"/>
-      <c r="K24" s="194">
+      <c r="G24" s="234"/>
+      <c r="H24" s="234"/>
+      <c r="I24" s="234"/>
+      <c r="J24" s="235"/>
+      <c r="K24" s="217">
         <f>ROUND(AE22*11%,0)</f>
         <v>12089</v>
       </c>
-      <c r="L24" s="195"/>
-      <c r="M24" s="195"/>
-      <c r="N24" s="195"/>
-      <c r="O24" s="195"/>
-      <c r="P24" s="195"/>
-      <c r="Q24" s="195"/>
-      <c r="R24" s="195"/>
-      <c r="S24" s="195"/>
-      <c r="T24" s="195"/>
-      <c r="U24" s="195"/>
-      <c r="V24" s="195"/>
-      <c r="W24" s="195"/>
-      <c r="X24" s="195"/>
-      <c r="Y24" s="195"/>
-      <c r="Z24" s="195"/>
-      <c r="AA24" s="195"/>
-      <c r="AB24" s="196"/>
+      <c r="L24" s="218"/>
+      <c r="M24" s="218"/>
+      <c r="N24" s="218"/>
+      <c r="O24" s="218"/>
+      <c r="P24" s="218"/>
+      <c r="Q24" s="218"/>
+      <c r="R24" s="218"/>
+      <c r="S24" s="218"/>
+      <c r="T24" s="218"/>
+      <c r="U24" s="218"/>
+      <c r="V24" s="218"/>
+      <c r="W24" s="218"/>
+      <c r="X24" s="218"/>
+      <c r="Y24" s="218"/>
+      <c r="Z24" s="218"/>
+      <c r="AA24" s="218"/>
+      <c r="AB24" s="219"/>
       <c r="AC24" s="18"/>
       <c r="AD24" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE24" s="160">
+      <c r="AE24" s="115">
         <f>K24</f>
         <v>12089</v>
       </c>
-      <c r="AF24" s="210"/>
+      <c r="AF24" s="206"/>
     </row>
     <row r="25" spans="1:32" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="74"/>
+      <c r="A25" s="99"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>
-      <c r="F25" s="212"/>
-      <c r="G25" s="210"/>
-      <c r="H25" s="210"/>
-      <c r="I25" s="210"/>
+      <c r="F25" s="220"/>
+      <c r="G25" s="206"/>
+      <c r="H25" s="206"/>
+      <c r="I25" s="206"/>
       <c r="J25" s="69"/>
-      <c r="K25" s="230"/>
-      <c r="L25" s="210"/>
-      <c r="M25" s="210"/>
-      <c r="N25" s="210"/>
-      <c r="O25" s="210"/>
-      <c r="P25" s="210"/>
-      <c r="Q25" s="210"/>
-      <c r="R25" s="210"/>
-      <c r="S25" s="210"/>
-      <c r="T25" s="210"/>
-      <c r="U25" s="210"/>
-      <c r="V25" s="210"/>
-      <c r="W25" s="210"/>
+      <c r="K25" s="207"/>
+      <c r="L25" s="206"/>
+      <c r="M25" s="206"/>
+      <c r="N25" s="206"/>
+      <c r="O25" s="206"/>
+      <c r="P25" s="206"/>
+      <c r="Q25" s="206"/>
+      <c r="R25" s="206"/>
+      <c r="S25" s="206"/>
+      <c r="T25" s="206"/>
+      <c r="U25" s="206"/>
+      <c r="V25" s="206"/>
+      <c r="W25" s="206"/>
       <c r="X25" s="36"/>
       <c r="Y25" s="36"/>
       <c r="Z25" s="36"/>
@@ -5198,14 +5199,14 @@
       <c r="AD25" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="AE25" s="228">
+      <c r="AE25" s="203">
         <f>AE22+AE24</f>
         <v>121993</v>
       </c>
-      <c r="AF25" s="229"/>
+      <c r="AF25" s="204"/>
     </row>
     <row r="26" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="107"/>
+      <c r="A26" s="129"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
@@ -5239,7 +5240,7 @@
       <c r="AF26" s="59"/>
     </row>
     <row r="27" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="107"/>
+      <c r="A27" s="129"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="52"/>
@@ -5258,29 +5259,29 @@
       <c r="Q27" s="52"/>
       <c r="R27" s="52"/>
       <c r="S27" s="52"/>
-      <c r="T27" s="151" t="s">
-        <v>75</v>
-      </c>
-      <c r="U27" s="178"/>
-      <c r="V27" s="178"/>
-      <c r="W27" s="178"/>
-      <c r="X27" s="178"/>
-      <c r="Y27" s="178"/>
-      <c r="Z27" s="178"/>
-      <c r="AA27" s="178"/>
-      <c r="AB27" s="178"/>
+      <c r="T27" s="106" t="s">
+        <v>74</v>
+      </c>
+      <c r="U27" s="205"/>
+      <c r="V27" s="205"/>
+      <c r="W27" s="205"/>
+      <c r="X27" s="205"/>
+      <c r="Y27" s="205"/>
+      <c r="Z27" s="205"/>
+      <c r="AA27" s="205"/>
+      <c r="AB27" s="205"/>
       <c r="AC27" s="18"/>
       <c r="AD27" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE27" s="231">
+      <c r="AE27" s="208">
         <f>AE20*5%</f>
         <v>60996.700000000004</v>
       </c>
-      <c r="AF27" s="227"/>
+      <c r="AF27" s="202"/>
     </row>
     <row r="28" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="107"/>
+      <c r="A28" s="129"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="52"/>
@@ -5299,28 +5300,28 @@
       <c r="Q28" s="52"/>
       <c r="R28" s="52"/>
       <c r="S28" s="52"/>
-      <c r="T28" s="151" t="s">
-        <v>56</v>
-      </c>
-      <c r="U28" s="119"/>
-      <c r="V28" s="119"/>
-      <c r="W28" s="119"/>
-      <c r="X28" s="119"/>
-      <c r="Y28" s="119"/>
-      <c r="Z28" s="119"/>
-      <c r="AA28" s="119"/>
-      <c r="AB28" s="119"/>
+      <c r="T28" s="106" t="s">
+        <v>55</v>
+      </c>
+      <c r="U28" s="80"/>
+      <c r="V28" s="80"/>
+      <c r="W28" s="80"/>
+      <c r="X28" s="80"/>
+      <c r="Y28" s="80"/>
+      <c r="Z28" s="80"/>
+      <c r="AA28" s="80"/>
+      <c r="AB28" s="80"/>
       <c r="AC28" s="28"/>
       <c r="AD28" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE28" s="226">
+      <c r="AE28" s="201">
         <v>0</v>
       </c>
-      <c r="AF28" s="227"/>
+      <c r="AF28" s="202"/>
     </row>
     <row r="29" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="107"/>
+      <c r="A29" s="129"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -5339,25 +5340,25 @@
       <c r="Q29" s="9"/>
       <c r="R29" s="9"/>
       <c r="S29" s="9"/>
-      <c r="T29" s="151" t="s">
+      <c r="T29" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="U29" s="178"/>
-      <c r="V29" s="178"/>
-      <c r="W29" s="178"/>
-      <c r="X29" s="178"/>
-      <c r="Y29" s="178"/>
-      <c r="Z29" s="178"/>
-      <c r="AA29" s="178"/>
-      <c r="AB29" s="178"/>
+      <c r="U29" s="205"/>
+      <c r="V29" s="205"/>
+      <c r="W29" s="205"/>
+      <c r="X29" s="205"/>
+      <c r="Y29" s="205"/>
+      <c r="Z29" s="205"/>
+      <c r="AA29" s="205"/>
+      <c r="AB29" s="205"/>
       <c r="AC29" s="28"/>
       <c r="AD29" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE29" s="226">
+      <c r="AE29" s="201">
         <v>10000</v>
       </c>
-      <c r="AF29" s="227"/>
+      <c r="AF29" s="202"/>
     </row>
     <row r="30" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
@@ -5379,26 +5380,26 @@
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
       <c r="S30" s="19"/>
-      <c r="T30" s="161" t="s">
+      <c r="T30" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="U30" s="178"/>
-      <c r="V30" s="178"/>
-      <c r="W30" s="178"/>
-      <c r="X30" s="178"/>
-      <c r="Y30" s="178"/>
-      <c r="Z30" s="178"/>
-      <c r="AA30" s="178"/>
-      <c r="AB30" s="178"/>
+      <c r="U30" s="205"/>
+      <c r="V30" s="205"/>
+      <c r="W30" s="205"/>
+      <c r="X30" s="205"/>
+      <c r="Y30" s="205"/>
+      <c r="Z30" s="205"/>
+      <c r="AA30" s="205"/>
+      <c r="AB30" s="205"/>
       <c r="AC30" s="19"/>
       <c r="AD30" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE30" s="143">
+      <c r="AE30" s="108">
         <f>AE20+AE25+AE27+AE29</f>
         <v>1412923.7</v>
       </c>
-      <c r="AF30" s="178"/>
+      <c r="AF30" s="205"/>
     </row>
     <row r="31" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
@@ -5470,41 +5471,41 @@
     </row>
     <row r="33" spans="1:32" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="169" t="s">
+      <c r="B33" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="169"/>
-      <c r="D33" s="169"/>
-      <c r="E33" s="169"/>
-      <c r="F33" s="169"/>
-      <c r="G33" s="239" t="s">
+      <c r="C33" s="89"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="196" t="s">
         <v>47</v>
       </c>
-      <c r="H33" s="239"/>
-      <c r="I33" s="239"/>
-      <c r="J33" s="239"/>
-      <c r="K33" s="239"/>
-      <c r="L33" s="239"/>
-      <c r="M33" s="239"/>
-      <c r="N33" s="239"/>
-      <c r="O33" s="239"/>
-      <c r="P33" s="239"/>
-      <c r="Q33" s="239"/>
-      <c r="R33" s="239"/>
-      <c r="S33" s="239"/>
-      <c r="T33" s="239"/>
-      <c r="U33" s="239"/>
-      <c r="V33" s="239"/>
-      <c r="W33" s="239"/>
-      <c r="X33" s="239"/>
-      <c r="Y33" s="239"/>
-      <c r="Z33" s="239"/>
-      <c r="AA33" s="239"/>
-      <c r="AB33" s="239"/>
-      <c r="AC33" s="239"/>
-      <c r="AD33" s="239"/>
-      <c r="AE33" s="239"/>
-      <c r="AF33" s="239"/>
+      <c r="H33" s="196"/>
+      <c r="I33" s="196"/>
+      <c r="J33" s="196"/>
+      <c r="K33" s="196"/>
+      <c r="L33" s="196"/>
+      <c r="M33" s="196"/>
+      <c r="N33" s="196"/>
+      <c r="O33" s="196"/>
+      <c r="P33" s="196"/>
+      <c r="Q33" s="196"/>
+      <c r="R33" s="196"/>
+      <c r="S33" s="196"/>
+      <c r="T33" s="196"/>
+      <c r="U33" s="196"/>
+      <c r="V33" s="196"/>
+      <c r="W33" s="196"/>
+      <c r="X33" s="196"/>
+      <c r="Y33" s="196"/>
+      <c r="Z33" s="196"/>
+      <c r="AA33" s="196"/>
+      <c r="AB33" s="196"/>
+      <c r="AC33" s="196"/>
+      <c r="AD33" s="196"/>
+      <c r="AE33" s="196"/>
+      <c r="AF33" s="196"/>
     </row>
     <row r="34" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
@@ -5633,207 +5634,207 @@
       <c r="V37" s="6"/>
       <c r="W37" s="6"/>
       <c r="X37" s="48"/>
-      <c r="AB37" s="240" t="s">
+      <c r="AB37" s="197" t="s">
         <v>38</v>
       </c>
-      <c r="AC37" s="240"/>
-      <c r="AD37" s="240"/>
-      <c r="AE37" s="240"/>
-      <c r="AF37" s="240"/>
+      <c r="AC37" s="197"/>
+      <c r="AD37" s="197"/>
+      <c r="AE37" s="197"/>
+      <c r="AF37" s="197"/>
     </row>
     <row r="38" spans="1:32" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
-      <c r="B38" s="168" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="168"/>
-      <c r="D38" s="168"/>
-      <c r="E38" s="168"/>
-      <c r="F38" s="168"/>
-      <c r="G38" s="168"/>
-      <c r="H38" s="168"/>
-      <c r="I38" s="168"/>
-      <c r="J38" s="168"/>
-      <c r="K38" s="168"/>
-      <c r="L38" s="168"/>
-      <c r="M38" s="168"/>
-      <c r="N38" s="168"/>
-      <c r="O38" s="168"/>
-      <c r="P38" s="168"/>
-      <c r="Q38" s="168"/>
-      <c r="R38" s="168"/>
-      <c r="S38" s="168"/>
-      <c r="T38" s="168"/>
-      <c r="U38" s="168"/>
-      <c r="V38" s="168"/>
-      <c r="W38" s="168"/>
-      <c r="AB38" s="240"/>
-      <c r="AC38" s="240"/>
-      <c r="AD38" s="240"/>
-      <c r="AE38" s="240"/>
-      <c r="AF38" s="240"/>
+      <c r="B38" s="88" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="88"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="88"/>
+      <c r="G38" s="88"/>
+      <c r="H38" s="88"/>
+      <c r="I38" s="88"/>
+      <c r="J38" s="88"/>
+      <c r="K38" s="88"/>
+      <c r="L38" s="88"/>
+      <c r="M38" s="88"/>
+      <c r="N38" s="88"/>
+      <c r="O38" s="88"/>
+      <c r="P38" s="88"/>
+      <c r="Q38" s="88"/>
+      <c r="R38" s="88"/>
+      <c r="S38" s="88"/>
+      <c r="T38" s="88"/>
+      <c r="U38" s="88"/>
+      <c r="V38" s="88"/>
+      <c r="W38" s="88"/>
+      <c r="AB38" s="197"/>
+      <c r="AC38" s="197"/>
+      <c r="AD38" s="197"/>
+      <c r="AE38" s="197"/>
+      <c r="AF38" s="197"/>
     </row>
     <row r="39" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
-      <c r="B39" s="168"/>
-      <c r="C39" s="168"/>
-      <c r="D39" s="168"/>
-      <c r="E39" s="168"/>
-      <c r="F39" s="168"/>
-      <c r="G39" s="168"/>
-      <c r="H39" s="168"/>
-      <c r="I39" s="168"/>
-      <c r="J39" s="168"/>
-      <c r="K39" s="168"/>
-      <c r="L39" s="168"/>
-      <c r="M39" s="168"/>
-      <c r="N39" s="168"/>
-      <c r="O39" s="168"/>
-      <c r="P39" s="168"/>
-      <c r="Q39" s="168"/>
-      <c r="R39" s="168"/>
-      <c r="S39" s="168"/>
-      <c r="T39" s="168"/>
-      <c r="U39" s="168"/>
-      <c r="V39" s="168"/>
-      <c r="W39" s="168"/>
-      <c r="AB39" s="240"/>
-      <c r="AC39" s="240"/>
-      <c r="AD39" s="240"/>
-      <c r="AE39" s="240"/>
-      <c r="AF39" s="240"/>
+      <c r="B39" s="88"/>
+      <c r="C39" s="88"/>
+      <c r="D39" s="88"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="88"/>
+      <c r="H39" s="88"/>
+      <c r="I39" s="88"/>
+      <c r="J39" s="88"/>
+      <c r="K39" s="88"/>
+      <c r="L39" s="88"/>
+      <c r="M39" s="88"/>
+      <c r="N39" s="88"/>
+      <c r="O39" s="88"/>
+      <c r="P39" s="88"/>
+      <c r="Q39" s="88"/>
+      <c r="R39" s="88"/>
+      <c r="S39" s="88"/>
+      <c r="T39" s="88"/>
+      <c r="U39" s="88"/>
+      <c r="V39" s="88"/>
+      <c r="W39" s="88"/>
+      <c r="AB39" s="197"/>
+      <c r="AC39" s="197"/>
+      <c r="AD39" s="197"/>
+      <c r="AE39" s="197"/>
+      <c r="AF39" s="197"/>
     </row>
     <row r="40" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
-      <c r="B40" s="168"/>
-      <c r="C40" s="168"/>
-      <c r="D40" s="168"/>
-      <c r="E40" s="168"/>
-      <c r="F40" s="168"/>
-      <c r="G40" s="168"/>
-      <c r="H40" s="168"/>
-      <c r="I40" s="168"/>
-      <c r="J40" s="168"/>
-      <c r="K40" s="168"/>
-      <c r="L40" s="168"/>
-      <c r="M40" s="168"/>
-      <c r="N40" s="168"/>
-      <c r="O40" s="168"/>
-      <c r="P40" s="168"/>
-      <c r="Q40" s="168"/>
-      <c r="R40" s="168"/>
-      <c r="S40" s="168"/>
-      <c r="T40" s="168"/>
-      <c r="U40" s="168"/>
-      <c r="V40" s="168"/>
-      <c r="W40" s="168"/>
+      <c r="B40" s="88"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="88"/>
+      <c r="F40" s="88"/>
+      <c r="G40" s="88"/>
+      <c r="H40" s="88"/>
+      <c r="I40" s="88"/>
+      <c r="J40" s="88"/>
+      <c r="K40" s="88"/>
+      <c r="L40" s="88"/>
+      <c r="M40" s="88"/>
+      <c r="N40" s="88"/>
+      <c r="O40" s="88"/>
+      <c r="P40" s="88"/>
+      <c r="Q40" s="88"/>
+      <c r="R40" s="88"/>
+      <c r="S40" s="88"/>
+      <c r="T40" s="88"/>
+      <c r="U40" s="88"/>
+      <c r="V40" s="88"/>
+      <c r="W40" s="88"/>
     </row>
     <row r="41" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
-      <c r="B41" s="168"/>
-      <c r="C41" s="168"/>
-      <c r="D41" s="168"/>
-      <c r="E41" s="168"/>
-      <c r="F41" s="168"/>
-      <c r="G41" s="168"/>
-      <c r="H41" s="168"/>
-      <c r="I41" s="168"/>
-      <c r="J41" s="168"/>
-      <c r="K41" s="168"/>
-      <c r="L41" s="168"/>
-      <c r="M41" s="168"/>
-      <c r="N41" s="168"/>
-      <c r="O41" s="168"/>
-      <c r="P41" s="168"/>
-      <c r="Q41" s="168"/>
-      <c r="R41" s="168"/>
-      <c r="S41" s="168"/>
-      <c r="T41" s="168"/>
-      <c r="U41" s="168"/>
-      <c r="V41" s="168"/>
-      <c r="W41" s="168"/>
+      <c r="B41" s="88"/>
+      <c r="C41" s="88"/>
+      <c r="D41" s="88"/>
+      <c r="E41" s="88"/>
+      <c r="F41" s="88"/>
+      <c r="G41" s="88"/>
+      <c r="H41" s="88"/>
+      <c r="I41" s="88"/>
+      <c r="J41" s="88"/>
+      <c r="K41" s="88"/>
+      <c r="L41" s="88"/>
+      <c r="M41" s="88"/>
+      <c r="N41" s="88"/>
+      <c r="O41" s="88"/>
+      <c r="P41" s="88"/>
+      <c r="Q41" s="88"/>
+      <c r="R41" s="88"/>
+      <c r="S41" s="88"/>
+      <c r="T41" s="88"/>
+      <c r="U41" s="88"/>
+      <c r="V41" s="88"/>
+      <c r="W41" s="88"/>
     </row>
     <row r="42" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
-      <c r="B42" s="168"/>
-      <c r="C42" s="168"/>
-      <c r="D42" s="168"/>
-      <c r="E42" s="168"/>
-      <c r="F42" s="168"/>
-      <c r="G42" s="168"/>
-      <c r="H42" s="168"/>
-      <c r="I42" s="168"/>
-      <c r="J42" s="168"/>
-      <c r="K42" s="168"/>
-      <c r="L42" s="168"/>
-      <c r="M42" s="168"/>
-      <c r="N42" s="168"/>
-      <c r="O42" s="168"/>
-      <c r="P42" s="168"/>
-      <c r="Q42" s="168"/>
-      <c r="R42" s="168"/>
-      <c r="S42" s="168"/>
-      <c r="T42" s="168"/>
-      <c r="U42" s="168"/>
-      <c r="V42" s="168"/>
-      <c r="W42" s="168"/>
+      <c r="B42" s="88"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="88"/>
+      <c r="F42" s="88"/>
+      <c r="G42" s="88"/>
+      <c r="H42" s="88"/>
+      <c r="I42" s="88"/>
+      <c r="J42" s="88"/>
+      <c r="K42" s="88"/>
+      <c r="L42" s="88"/>
+      <c r="M42" s="88"/>
+      <c r="N42" s="88"/>
+      <c r="O42" s="88"/>
+      <c r="P42" s="88"/>
+      <c r="Q42" s="88"/>
+      <c r="R42" s="88"/>
+      <c r="S42" s="88"/>
+      <c r="T42" s="88"/>
+      <c r="U42" s="88"/>
+      <c r="V42" s="88"/>
+      <c r="W42" s="88"/>
     </row>
     <row r="43" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
-      <c r="B43" s="168"/>
-      <c r="C43" s="168"/>
-      <c r="D43" s="168"/>
-      <c r="E43" s="168"/>
-      <c r="F43" s="168"/>
-      <c r="G43" s="168"/>
-      <c r="H43" s="168"/>
-      <c r="I43" s="168"/>
-      <c r="J43" s="168"/>
-      <c r="K43" s="168"/>
-      <c r="L43" s="168"/>
-      <c r="M43" s="168"/>
-      <c r="N43" s="168"/>
-      <c r="O43" s="168"/>
-      <c r="P43" s="168"/>
-      <c r="Q43" s="168"/>
-      <c r="R43" s="168"/>
-      <c r="S43" s="168"/>
-      <c r="T43" s="168"/>
-      <c r="U43" s="168"/>
-      <c r="V43" s="168"/>
-      <c r="W43" s="168"/>
-    </row>
-    <row r="44" spans="1:32" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="88"/>
+      <c r="C43" s="88"/>
+      <c r="D43" s="88"/>
+      <c r="E43" s="88"/>
+      <c r="F43" s="88"/>
+      <c r="G43" s="88"/>
+      <c r="H43" s="88"/>
+      <c r="I43" s="88"/>
+      <c r="J43" s="88"/>
+      <c r="K43" s="88"/>
+      <c r="L43" s="88"/>
+      <c r="M43" s="88"/>
+      <c r="N43" s="88"/>
+      <c r="O43" s="88"/>
+      <c r="P43" s="88"/>
+      <c r="Q43" s="88"/>
+      <c r="R43" s="88"/>
+      <c r="S43" s="88"/>
+      <c r="T43" s="88"/>
+      <c r="U43" s="88"/>
+      <c r="V43" s="88"/>
+      <c r="W43" s="88"/>
+    </row>
+    <row r="44" spans="1:32" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
-      <c r="B44" s="168"/>
-      <c r="C44" s="168"/>
-      <c r="D44" s="168"/>
-      <c r="E44" s="168"/>
-      <c r="F44" s="168"/>
-      <c r="G44" s="168"/>
-      <c r="H44" s="168"/>
-      <c r="I44" s="168"/>
-      <c r="J44" s="168"/>
-      <c r="K44" s="168"/>
-      <c r="L44" s="168"/>
-      <c r="M44" s="168"/>
-      <c r="N44" s="168"/>
-      <c r="O44" s="168"/>
-      <c r="P44" s="168"/>
-      <c r="Q44" s="168"/>
-      <c r="R44" s="168"/>
-      <c r="S44" s="168"/>
-      <c r="T44" s="168"/>
-      <c r="U44" s="168"/>
-      <c r="V44" s="168"/>
-      <c r="W44" s="168"/>
-      <c r="AB44" s="237" t="s">
+      <c r="B44" s="88"/>
+      <c r="C44" s="88"/>
+      <c r="D44" s="88"/>
+      <c r="E44" s="88"/>
+      <c r="F44" s="88"/>
+      <c r="G44" s="88"/>
+      <c r="H44" s="88"/>
+      <c r="I44" s="88"/>
+      <c r="J44" s="88"/>
+      <c r="K44" s="88"/>
+      <c r="L44" s="88"/>
+      <c r="M44" s="88"/>
+      <c r="N44" s="88"/>
+      <c r="O44" s="88"/>
+      <c r="P44" s="88"/>
+      <c r="Q44" s="88"/>
+      <c r="R44" s="88"/>
+      <c r="S44" s="88"/>
+      <c r="T44" s="88"/>
+      <c r="U44" s="88"/>
+      <c r="V44" s="88"/>
+      <c r="W44" s="88"/>
+      <c r="AB44" s="194" t="s">
         <v>39</v>
       </c>
-      <c r="AC44" s="238"/>
-      <c r="AD44" s="238"/>
-      <c r="AE44" s="238"/>
-      <c r="AF44" s="238"/>
+      <c r="AC44" s="195"/>
+      <c r="AD44" s="195"/>
+      <c r="AE44" s="195"/>
+      <c r="AF44" s="195"/>
     </row>
     <row r="45" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
@@ -5859,11 +5860,11 @@
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
       <c r="W45" s="6"/>
-      <c r="AB45" s="235"/>
-      <c r="AC45" s="236"/>
-      <c r="AD45" s="236"/>
-      <c r="AE45" s="236"/>
-      <c r="AF45" s="236"/>
+      <c r="AB45" s="192"/>
+      <c r="AC45" s="193"/>
+      <c r="AD45" s="193"/>
+      <c r="AE45" s="193"/>
+      <c r="AF45" s="193"/>
     </row>
     <row r="46" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
@@ -5901,12 +5902,12 @@
     </row>
     <row r="47" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
-      <c r="B47" s="166" t="s">
-        <v>57</v>
-      </c>
-      <c r="C47" s="166"/>
-      <c r="D47" s="166"/>
-      <c r="E47" s="166"/>
+      <c r="B47" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="86"/>
+      <c r="D47" s="86"/>
+      <c r="E47" s="86"/>
       <c r="F47" s="31"/>
       <c r="G47" s="31"/>
       <c r="H47" s="31"/>
@@ -5937,36 +5938,36 @@
     </row>
     <row r="48" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
-      <c r="B48" s="167" t="s">
+      <c r="B48" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="87"/>
+      <c r="D48" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="167"/>
-      <c r="D48" s="167" t="s">
+      <c r="E48" s="87"/>
+      <c r="F48" s="87"/>
+      <c r="G48" s="87"/>
+      <c r="H48" s="198" t="s">
         <v>59</v>
       </c>
-      <c r="E48" s="167"/>
-      <c r="F48" s="167"/>
-      <c r="G48" s="167"/>
-      <c r="H48" s="232" t="s">
+      <c r="I48" s="199"/>
+      <c r="J48" s="199"/>
+      <c r="K48" s="199"/>
+      <c r="L48" s="199"/>
+      <c r="M48" s="199"/>
+      <c r="N48" s="200"/>
+      <c r="O48" s="198" t="s">
         <v>60</v>
       </c>
-      <c r="I48" s="233"/>
-      <c r="J48" s="233"/>
-      <c r="K48" s="233"/>
-      <c r="L48" s="233"/>
-      <c r="M48" s="233"/>
-      <c r="N48" s="234"/>
-      <c r="O48" s="232" t="s">
-        <v>61</v>
-      </c>
-      <c r="P48" s="233"/>
-      <c r="Q48" s="233"/>
-      <c r="R48" s="233"/>
-      <c r="S48" s="233"/>
-      <c r="T48" s="233"/>
-      <c r="U48" s="233"/>
-      <c r="V48" s="233"/>
-      <c r="W48" s="234"/>
+      <c r="P48" s="199"/>
+      <c r="Q48" s="199"/>
+      <c r="R48" s="199"/>
+      <c r="S48" s="199"/>
+      <c r="T48" s="199"/>
+      <c r="U48" s="199"/>
+      <c r="V48" s="199"/>
+      <c r="W48" s="200"/>
       <c r="X48" s="2"/>
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
@@ -5979,36 +5980,36 @@
     </row>
     <row r="49" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
-      <c r="B49" s="171" t="s">
+      <c r="B49" s="74" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="74"/>
+      <c r="D49" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="C49" s="171"/>
-      <c r="D49" s="175" t="s">
+      <c r="E49" s="78"/>
+      <c r="F49" s="78"/>
+      <c r="G49" s="78"/>
+      <c r="H49" s="176" t="s">
         <v>63</v>
       </c>
-      <c r="E49" s="175"/>
-      <c r="F49" s="175"/>
-      <c r="G49" s="175"/>
-      <c r="H49" s="250" t="s">
+      <c r="I49" s="177"/>
+      <c r="J49" s="177"/>
+      <c r="K49" s="177"/>
+      <c r="L49" s="177"/>
+      <c r="M49" s="177"/>
+      <c r="N49" s="178"/>
+      <c r="O49" s="176" t="s">
         <v>64</v>
       </c>
-      <c r="I49" s="251"/>
-      <c r="J49" s="251"/>
-      <c r="K49" s="251"/>
-      <c r="L49" s="251"/>
-      <c r="M49" s="251"/>
-      <c r="N49" s="252"/>
-      <c r="O49" s="250" t="s">
-        <v>65</v>
-      </c>
-      <c r="P49" s="251"/>
-      <c r="Q49" s="251"/>
-      <c r="R49" s="251"/>
-      <c r="S49" s="251"/>
-      <c r="T49" s="251"/>
-      <c r="U49" s="251"/>
-      <c r="V49" s="251"/>
-      <c r="W49" s="252"/>
+      <c r="P49" s="177"/>
+      <c r="Q49" s="177"/>
+      <c r="R49" s="177"/>
+      <c r="S49" s="177"/>
+      <c r="T49" s="177"/>
+      <c r="U49" s="177"/>
+      <c r="V49" s="177"/>
+      <c r="W49" s="178"/>
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
@@ -6021,36 +6022,36 @@
     </row>
     <row r="50" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
-      <c r="B50" s="171" t="s">
+      <c r="B50" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" s="74"/>
+      <c r="D50" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="C50" s="171"/>
-      <c r="D50" s="175" t="s">
+      <c r="E50" s="78"/>
+      <c r="F50" s="78"/>
+      <c r="G50" s="78"/>
+      <c r="H50" s="176" t="s">
         <v>67</v>
       </c>
-      <c r="E50" s="175"/>
-      <c r="F50" s="175"/>
-      <c r="G50" s="175"/>
-      <c r="H50" s="250" t="s">
+      <c r="I50" s="177"/>
+      <c r="J50" s="177"/>
+      <c r="K50" s="177"/>
+      <c r="L50" s="177"/>
+      <c r="M50" s="177"/>
+      <c r="N50" s="178"/>
+      <c r="O50" s="176" t="s">
         <v>68</v>
       </c>
-      <c r="I50" s="251"/>
-      <c r="J50" s="251"/>
-      <c r="K50" s="251"/>
-      <c r="L50" s="251"/>
-      <c r="M50" s="251"/>
-      <c r="N50" s="252"/>
-      <c r="O50" s="250" t="s">
-        <v>69</v>
-      </c>
-      <c r="P50" s="251"/>
-      <c r="Q50" s="251"/>
-      <c r="R50" s="251"/>
-      <c r="S50" s="251"/>
-      <c r="T50" s="251"/>
-      <c r="U50" s="251"/>
-      <c r="V50" s="251"/>
-      <c r="W50" s="252"/>
+      <c r="P50" s="177"/>
+      <c r="Q50" s="177"/>
+      <c r="R50" s="177"/>
+      <c r="S50" s="177"/>
+      <c r="T50" s="177"/>
+      <c r="U50" s="177"/>
+      <c r="V50" s="177"/>
+      <c r="W50" s="178"/>
       <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
@@ -6063,36 +6064,36 @@
     </row>
     <row r="51" spans="1:32" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
-      <c r="B51" s="171" t="s">
+      <c r="B51" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="74"/>
+      <c r="D51" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="C51" s="171"/>
-      <c r="D51" s="172" t="s">
+      <c r="E51" s="75"/>
+      <c r="F51" s="75"/>
+      <c r="G51" s="75"/>
+      <c r="H51" s="179" t="s">
         <v>71</v>
       </c>
-      <c r="E51" s="172"/>
-      <c r="F51" s="172"/>
-      <c r="G51" s="172"/>
-      <c r="H51" s="253" t="s">
+      <c r="I51" s="180"/>
+      <c r="J51" s="180"/>
+      <c r="K51" s="180"/>
+      <c r="L51" s="180"/>
+      <c r="M51" s="180"/>
+      <c r="N51" s="181"/>
+      <c r="O51" s="179" t="s">
         <v>72</v>
       </c>
-      <c r="I51" s="254"/>
-      <c r="J51" s="254"/>
-      <c r="K51" s="254"/>
-      <c r="L51" s="254"/>
-      <c r="M51" s="254"/>
-      <c r="N51" s="255"/>
-      <c r="O51" s="253" t="s">
-        <v>73</v>
-      </c>
-      <c r="P51" s="254"/>
-      <c r="Q51" s="254"/>
-      <c r="R51" s="254"/>
-      <c r="S51" s="254"/>
-      <c r="T51" s="254"/>
-      <c r="U51" s="254"/>
-      <c r="V51" s="254"/>
-      <c r="W51" s="255"/>
+      <c r="P51" s="180"/>
+      <c r="Q51" s="180"/>
+      <c r="R51" s="180"/>
+      <c r="S51" s="180"/>
+      <c r="T51" s="180"/>
+      <c r="U51" s="180"/>
+      <c r="V51" s="180"/>
+      <c r="W51" s="181"/>
       <c r="X51" s="6"/>
       <c r="Y51" s="6"/>
       <c r="Z51" s="6"/>
@@ -6105,30 +6106,30 @@
     </row>
     <row r="52" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
-      <c r="B52" s="174" t="s">
-        <v>74</v>
-      </c>
-      <c r="C52" s="174"/>
-      <c r="D52" s="174"/>
-      <c r="E52" s="174"/>
-      <c r="F52" s="174"/>
-      <c r="G52" s="174"/>
-      <c r="H52" s="174"/>
-      <c r="I52" s="174"/>
-      <c r="J52" s="174"/>
-      <c r="K52" s="174"/>
-      <c r="L52" s="174"/>
-      <c r="M52" s="174"/>
-      <c r="N52" s="174"/>
-      <c r="O52" s="174"/>
-      <c r="P52" s="174"/>
-      <c r="Q52" s="174"/>
-      <c r="R52" s="174"/>
-      <c r="S52" s="174"/>
-      <c r="T52" s="174"/>
-      <c r="U52" s="174"/>
-      <c r="V52" s="174"/>
-      <c r="W52" s="174"/>
+      <c r="B52" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" s="77"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="77"/>
+      <c r="G52" s="77"/>
+      <c r="H52" s="77"/>
+      <c r="I52" s="77"/>
+      <c r="J52" s="77"/>
+      <c r="K52" s="77"/>
+      <c r="L52" s="77"/>
+      <c r="M52" s="77"/>
+      <c r="N52" s="77"/>
+      <c r="O52" s="77"/>
+      <c r="P52" s="77"/>
+      <c r="Q52" s="77"/>
+      <c r="R52" s="77"/>
+      <c r="S52" s="77"/>
+      <c r="T52" s="77"/>
+      <c r="U52" s="77"/>
+      <c r="V52" s="77"/>
+      <c r="W52" s="77"/>
       <c r="X52" s="6"/>
       <c r="Y52" s="6"/>
       <c r="Z52" s="6"/>
@@ -6140,121 +6141,181 @@
       <c r="AF52" s="6"/>
     </row>
     <row r="63" spans="1:32" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B63" s="145" t="s">
+      <c r="B63" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="C63" s="107"/>
-      <c r="D63" s="107"/>
-      <c r="E63" s="107"/>
-      <c r="F63" s="107"/>
-      <c r="G63" s="107"/>
-      <c r="H63" s="107"/>
-      <c r="I63" s="107"/>
-      <c r="J63" s="107"/>
-      <c r="K63" s="107"/>
-      <c r="L63" s="107"/>
-      <c r="M63" s="107"/>
-      <c r="N63" s="107"/>
-      <c r="O63" s="107"/>
-      <c r="P63" s="107"/>
-      <c r="Q63" s="107"/>
-      <c r="R63" s="107"/>
-      <c r="S63" s="107"/>
-      <c r="T63" s="107"/>
-      <c r="U63" s="107"/>
-      <c r="V63" s="107"/>
-      <c r="W63" s="107"/>
-      <c r="X63" s="107"/>
-      <c r="Y63" s="107"/>
-      <c r="Z63" s="107"/>
-      <c r="AA63" s="107"/>
-      <c r="AB63" s="107"/>
-      <c r="AC63" s="107"/>
-      <c r="AD63" s="107"/>
-      <c r="AE63" s="107"/>
-      <c r="AF63" s="107"/>
+      <c r="C63" s="129"/>
+      <c r="D63" s="129"/>
+      <c r="E63" s="129"/>
+      <c r="F63" s="129"/>
+      <c r="G63" s="129"/>
+      <c r="H63" s="129"/>
+      <c r="I63" s="129"/>
+      <c r="J63" s="129"/>
+      <c r="K63" s="129"/>
+      <c r="L63" s="129"/>
+      <c r="M63" s="129"/>
+      <c r="N63" s="129"/>
+      <c r="O63" s="129"/>
+      <c r="P63" s="129"/>
+      <c r="Q63" s="129"/>
+      <c r="R63" s="129"/>
+      <c r="S63" s="129"/>
+      <c r="T63" s="129"/>
+      <c r="U63" s="129"/>
+      <c r="V63" s="129"/>
+      <c r="W63" s="129"/>
+      <c r="X63" s="129"/>
+      <c r="Y63" s="129"/>
+      <c r="Z63" s="129"/>
+      <c r="AA63" s="129"/>
+      <c r="AB63" s="129"/>
+      <c r="AC63" s="129"/>
+      <c r="AD63" s="129"/>
+      <c r="AE63" s="129"/>
+      <c r="AF63" s="129"/>
     </row>
     <row r="64" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="146" t="s">
+      <c r="B64" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="C64" s="107"/>
-      <c r="D64" s="107"/>
-      <c r="E64" s="107"/>
-      <c r="F64" s="107"/>
-      <c r="G64" s="107"/>
-      <c r="H64" s="107"/>
-      <c r="I64" s="107"/>
-      <c r="J64" s="107"/>
-      <c r="K64" s="107"/>
-      <c r="L64" s="107"/>
-      <c r="M64" s="107"/>
-      <c r="N64" s="107"/>
-      <c r="O64" s="107"/>
-      <c r="P64" s="107"/>
-      <c r="Q64" s="107"/>
-      <c r="R64" s="107"/>
-      <c r="S64" s="107"/>
-      <c r="T64" s="107"/>
-      <c r="U64" s="107"/>
-      <c r="V64" s="107"/>
-      <c r="W64" s="107"/>
-      <c r="X64" s="107"/>
-      <c r="Y64" s="107"/>
-      <c r="Z64" s="107"/>
-      <c r="AA64" s="107"/>
-      <c r="AB64" s="107"/>
-      <c r="AC64" s="107"/>
-      <c r="AD64" s="107"/>
-      <c r="AE64" s="107"/>
-      <c r="AF64" s="107"/>
+      <c r="C64" s="129"/>
+      <c r="D64" s="129"/>
+      <c r="E64" s="129"/>
+      <c r="F64" s="129"/>
+      <c r="G64" s="129"/>
+      <c r="H64" s="129"/>
+      <c r="I64" s="129"/>
+      <c r="J64" s="129"/>
+      <c r="K64" s="129"/>
+      <c r="L64" s="129"/>
+      <c r="M64" s="129"/>
+      <c r="N64" s="129"/>
+      <c r="O64" s="129"/>
+      <c r="P64" s="129"/>
+      <c r="Q64" s="129"/>
+      <c r="R64" s="129"/>
+      <c r="S64" s="129"/>
+      <c r="T64" s="129"/>
+      <c r="U64" s="129"/>
+      <c r="V64" s="129"/>
+      <c r="W64" s="129"/>
+      <c r="X64" s="129"/>
+      <c r="Y64" s="129"/>
+      <c r="Z64" s="129"/>
+      <c r="AA64" s="129"/>
+      <c r="AB64" s="129"/>
+      <c r="AC64" s="129"/>
+      <c r="AD64" s="129"/>
+      <c r="AE64" s="129"/>
+      <c r="AF64" s="129"/>
     </row>
     <row r="65" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="146" t="s">
+      <c r="B65" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="C65" s="107"/>
-      <c r="D65" s="107"/>
-      <c r="E65" s="107"/>
-      <c r="F65" s="107"/>
-      <c r="G65" s="107"/>
-      <c r="H65" s="107"/>
-      <c r="I65" s="107"/>
-      <c r="J65" s="107"/>
-      <c r="K65" s="107"/>
-      <c r="L65" s="107"/>
-      <c r="M65" s="107"/>
-      <c r="N65" s="107"/>
-      <c r="O65" s="107"/>
-      <c r="P65" s="107"/>
-      <c r="Q65" s="107"/>
-      <c r="R65" s="107"/>
-      <c r="S65" s="107"/>
-      <c r="T65" s="107"/>
-      <c r="U65" s="107"/>
-      <c r="V65" s="107"/>
-      <c r="W65" s="107"/>
-      <c r="X65" s="107"/>
-      <c r="Y65" s="107"/>
-      <c r="Z65" s="107"/>
-      <c r="AA65" s="107"/>
-      <c r="AB65" s="107"/>
-      <c r="AC65" s="107"/>
-      <c r="AD65" s="107"/>
-      <c r="AE65" s="107"/>
-      <c r="AF65" s="107"/>
+      <c r="C65" s="129"/>
+      <c r="D65" s="129"/>
+      <c r="E65" s="129"/>
+      <c r="F65" s="129"/>
+      <c r="G65" s="129"/>
+      <c r="H65" s="129"/>
+      <c r="I65" s="129"/>
+      <c r="J65" s="129"/>
+      <c r="K65" s="129"/>
+      <c r="L65" s="129"/>
+      <c r="M65" s="129"/>
+      <c r="N65" s="129"/>
+      <c r="O65" s="129"/>
+      <c r="P65" s="129"/>
+      <c r="Q65" s="129"/>
+      <c r="R65" s="129"/>
+      <c r="S65" s="129"/>
+      <c r="T65" s="129"/>
+      <c r="U65" s="129"/>
+      <c r="V65" s="129"/>
+      <c r="W65" s="129"/>
+      <c r="X65" s="129"/>
+      <c r="Y65" s="129"/>
+      <c r="Z65" s="129"/>
+      <c r="AA65" s="129"/>
+      <c r="AB65" s="129"/>
+      <c r="AC65" s="129"/>
+      <c r="AD65" s="129"/>
+      <c r="AE65" s="129"/>
+      <c r="AF65" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="B52:W52"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="H50:N50"/>
-    <mergeCell ref="O50:W50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="H51:N51"/>
-    <mergeCell ref="O51:W51"/>
+    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="AD17:AD18"/>
+    <mergeCell ref="AE17:AF18"/>
+    <mergeCell ref="Q20:W20"/>
+    <mergeCell ref="K16:AB16"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="S22:AB22"/>
+    <mergeCell ref="B2:AF3"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="B65:AF65"/>
+    <mergeCell ref="K21:AB21"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="Y10:AC11"/>
+    <mergeCell ref="B63:AF63"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="B64:AF64"/>
+    <mergeCell ref="T30:AB30"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="B4:AF4"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="K19:AB19"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="I5:Z5"/>
+    <mergeCell ref="B13:AB14"/>
+    <mergeCell ref="AD8:AF9"/>
+    <mergeCell ref="AD13:AF14"/>
+    <mergeCell ref="Q8:X9"/>
+    <mergeCell ref="S18:AB18"/>
+    <mergeCell ref="Y8:AC9"/>
+    <mergeCell ref="Q10:X11"/>
+    <mergeCell ref="AD10:AF11"/>
+    <mergeCell ref="B6:H9"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B21:E24"/>
+    <mergeCell ref="K24:AB24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="T27:AB27"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F17:J18"/>
+    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="S17:AB17"/>
+    <mergeCell ref="B16:E19"/>
+    <mergeCell ref="S23:AB23"/>
+    <mergeCell ref="T29:AB29"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="K25:W25"/>
+    <mergeCell ref="T28:AB28"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="H48:N48"/>
+    <mergeCell ref="O48:W48"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AE30:AF30"/>
     <mergeCell ref="F22:J23"/>
     <mergeCell ref="R22:R23"/>
     <mergeCell ref="AD22:AD23"/>
@@ -6271,82 +6332,22 @@
     <mergeCell ref="B38:W44"/>
     <mergeCell ref="B47:E47"/>
     <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="H48:N48"/>
-    <mergeCell ref="O48:W48"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="K25:W25"/>
-    <mergeCell ref="T28:AB28"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B21:E24"/>
-    <mergeCell ref="K24:AB24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="T27:AB27"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F17:J18"/>
-    <mergeCell ref="K17:Q17"/>
-    <mergeCell ref="S17:AB17"/>
-    <mergeCell ref="B16:E19"/>
-    <mergeCell ref="S23:AB23"/>
-    <mergeCell ref="T29:AB29"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="B4:AF4"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="K19:AB19"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="I5:Z5"/>
-    <mergeCell ref="B13:AB14"/>
-    <mergeCell ref="AD8:AF9"/>
-    <mergeCell ref="AD13:AF14"/>
-    <mergeCell ref="Q8:X9"/>
-    <mergeCell ref="S18:AB18"/>
-    <mergeCell ref="Y8:AC9"/>
-    <mergeCell ref="Q10:X11"/>
-    <mergeCell ref="AD10:AF11"/>
-    <mergeCell ref="B6:H9"/>
-    <mergeCell ref="B2:AF3"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="B65:AF65"/>
-    <mergeCell ref="K21:AB21"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="K23:Q23"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="Y10:AC11"/>
-    <mergeCell ref="B63:AF63"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="K18:Q18"/>
-    <mergeCell ref="B64:AF64"/>
-    <mergeCell ref="T30:AB30"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="K22:Q22"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="AD17:AD18"/>
-    <mergeCell ref="AE17:AF18"/>
-    <mergeCell ref="Q20:W20"/>
-    <mergeCell ref="K16:AB16"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="S22:AB22"/>
+    <mergeCell ref="B52:W52"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="H50:N50"/>
+    <mergeCell ref="O50:W50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="H51:N51"/>
+    <mergeCell ref="O51:W51"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E11:H11" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.27559055118110237" right="0.27559055118110237" top="0.6692913385826772" bottom="0.39370078740157483" header="0" footer="0"/>
-  <pageSetup scale="74" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup scale="73" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/template/template.xlsx
+++ b/template/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrmau\Documents\Cevin\SysBill\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC6852C-5218-4723-A446-41AF4B02EF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC2EA35-8B02-4A85-9120-4D8C753DDDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4110" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4110" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UT" sheetId="1" r:id="rId1"/>
@@ -616,7 +616,7 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="256">
+  <cellXfs count="254">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
@@ -815,79 +815,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
     </xf>
@@ -901,90 +828,102 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -994,20 +933,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -1015,211 +1017,146 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1230,66 +1167,6 @@
     </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1302,32 +1179,149 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1926,8 +1920,8 @@
   </sheetPr>
   <dimension ref="A1:AL64"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55:W55"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB38" sqref="AB38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1967,146 +1961,146 @@
     <row r="1" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:38" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="100"/>
-      <c r="S2" s="100"/>
-      <c r="T2" s="100"/>
-      <c r="U2" s="100"/>
-      <c r="V2" s="100"/>
-      <c r="W2" s="100"/>
-      <c r="X2" s="100"/>
-      <c r="Y2" s="100"/>
-      <c r="Z2" s="100"/>
-      <c r="AA2" s="100"/>
-      <c r="AB2" s="100"/>
-      <c r="AC2" s="100"/>
-      <c r="AD2" s="100"/>
-      <c r="AE2" s="100"/>
-      <c r="AF2" s="100"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="75"/>
     </row>
     <row r="3" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="100"/>
-      <c r="S3" s="100"/>
-      <c r="T3" s="100"/>
-      <c r="U3" s="100"/>
-      <c r="V3" s="100"/>
-      <c r="W3" s="100"/>
-      <c r="X3" s="100"/>
-      <c r="Y3" s="100"/>
-      <c r="Z3" s="100"/>
-      <c r="AA3" s="100"/>
-      <c r="AB3" s="100"/>
-      <c r="AC3" s="100"/>
-      <c r="AD3" s="100"/>
-      <c r="AE3" s="100"/>
-      <c r="AF3" s="100"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="75"/>
+      <c r="U3" s="75"/>
+      <c r="V3" s="75"/>
+      <c r="W3" s="75"/>
+      <c r="X3" s="75"/>
+      <c r="Y3" s="75"/>
+      <c r="Z3" s="75"/>
+      <c r="AA3" s="75"/>
+      <c r="AB3" s="75"/>
+      <c r="AC3" s="75"/>
+      <c r="AD3" s="75"/>
+      <c r="AE3" s="75"/>
+      <c r="AF3" s="75"/>
     </row>
     <row r="4" spans="1:38" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="137" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="100"/>
-      <c r="Q4" s="100"/>
-      <c r="R4" s="100"/>
-      <c r="S4" s="100"/>
-      <c r="T4" s="100"/>
-      <c r="U4" s="100"/>
-      <c r="V4" s="100"/>
-      <c r="W4" s="100"/>
-      <c r="X4" s="100"/>
-      <c r="Y4" s="100"/>
-      <c r="Z4" s="100"/>
-      <c r="AA4" s="100"/>
-      <c r="AB4" s="100"/>
-      <c r="AC4" s="100"/>
-      <c r="AD4" s="100"/>
-      <c r="AE4" s="100"/>
-      <c r="AF4" s="100"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="75"/>
+      <c r="W4" s="75"/>
+      <c r="X4" s="75"/>
+      <c r="Y4" s="75"/>
+      <c r="Z4" s="75"/>
+      <c r="AA4" s="75"/>
+      <c r="AB4" s="75"/>
+      <c r="AC4" s="75"/>
+      <c r="AD4" s="75"/>
+      <c r="AE4" s="75"/>
+      <c r="AF4" s="75"/>
     </row>
     <row r="5" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="153" t="s">
+      <c r="B5" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="159"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="100"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="100"/>
-      <c r="R5" s="100"/>
-      <c r="S5" s="100"/>
-      <c r="T5" s="100"/>
-      <c r="U5" s="100"/>
-      <c r="V5" s="100"/>
-      <c r="W5" s="100"/>
-      <c r="X5" s="100"/>
-      <c r="Y5" s="100"/>
-      <c r="Z5" s="100"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="75"/>
+      <c r="T5" s="75"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
+      <c r="W5" s="75"/>
+      <c r="X5" s="75"/>
+      <c r="Y5" s="75"/>
+      <c r="Z5" s="75"/>
       <c r="AA5" s="7"/>
-      <c r="AB5" s="152" t="s">
+      <c r="AB5" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="AC5" s="100"/>
-      <c r="AD5" s="100"/>
-      <c r="AE5" s="100"/>
+      <c r="AC5" s="75"/>
+      <c r="AD5" s="75"/>
+      <c r="AE5" s="75"/>
       <c r="AF5" s="46" t="s">
         <v>51</v>
       </c>
@@ -2119,15 +2113,15 @@
     </row>
     <row r="6" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="128" t="s">
+      <c r="B6" s="134" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -2137,35 +2131,35 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
-      <c r="R6" s="117"/>
-      <c r="S6" s="100"/>
-      <c r="T6" s="100"/>
-      <c r="U6" s="100"/>
-      <c r="V6" s="100"/>
-      <c r="W6" s="100"/>
-      <c r="X6" s="156"/>
-      <c r="Y6" s="100"/>
+      <c r="R6" s="125"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="75"/>
+      <c r="W6" s="75"/>
+      <c r="X6" s="109"/>
+      <c r="Y6" s="75"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="7"/>
-      <c r="AB6" s="152" t="s">
+      <c r="AB6" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="AC6" s="100"/>
-      <c r="AD6" s="100"/>
-      <c r="AE6" s="100"/>
+      <c r="AC6" s="75"/>
+      <c r="AD6" s="75"/>
+      <c r="AE6" s="75"/>
       <c r="AF6" s="45" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="129"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -2193,13 +2187,13 @@
     </row>
     <row r="8" spans="1:38" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="129"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="129"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -2208,38 +2202,38 @@
       <c r="N8" s="9"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
-      <c r="Q8" s="133" t="s">
+      <c r="Q8" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="134"/>
-      <c r="S8" s="134"/>
-      <c r="T8" s="134"/>
-      <c r="U8" s="134"/>
-      <c r="V8" s="134"/>
-      <c r="W8" s="134"/>
-      <c r="X8" s="135"/>
-      <c r="Y8" s="133" t="s">
+      <c r="R8" s="113"/>
+      <c r="S8" s="113"/>
+      <c r="T8" s="113"/>
+      <c r="U8" s="113"/>
+      <c r="V8" s="113"/>
+      <c r="W8" s="113"/>
+      <c r="X8" s="114"/>
+      <c r="Y8" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="Z8" s="134"/>
-      <c r="AA8" s="134"/>
-      <c r="AB8" s="134"/>
-      <c r="AC8" s="135"/>
-      <c r="AD8" s="133" t="s">
+      <c r="Z8" s="113"/>
+      <c r="AA8" s="113"/>
+      <c r="AB8" s="113"/>
+      <c r="AC8" s="114"/>
+      <c r="AD8" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AE8" s="134"/>
-      <c r="AF8" s="135"/>
+      <c r="AE8" s="113"/>
+      <c r="AF8" s="114"/>
     </row>
     <row r="9" spans="1:38" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="129"/>
-      <c r="C9" s="129"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="129"/>
-      <c r="F9" s="129"/>
-      <c r="G9" s="129"/>
-      <c r="H9" s="129"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -2248,22 +2242,22 @@
       <c r="N9" s="9"/>
       <c r="O9" s="6"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="136"/>
-      <c r="R9" s="137"/>
-      <c r="S9" s="137"/>
-      <c r="T9" s="137"/>
-      <c r="U9" s="137"/>
-      <c r="V9" s="137"/>
-      <c r="W9" s="137"/>
-      <c r="X9" s="138"/>
-      <c r="Y9" s="136"/>
-      <c r="Z9" s="137"/>
-      <c r="AA9" s="137"/>
-      <c r="AB9" s="137"/>
-      <c r="AC9" s="138"/>
-      <c r="AD9" s="136"/>
-      <c r="AE9" s="137"/>
-      <c r="AF9" s="138"/>
+      <c r="Q9" s="115"/>
+      <c r="R9" s="116"/>
+      <c r="S9" s="116"/>
+      <c r="T9" s="116"/>
+      <c r="U9" s="116"/>
+      <c r="V9" s="116"/>
+      <c r="W9" s="116"/>
+      <c r="X9" s="117"/>
+      <c r="Y9" s="115"/>
+      <c r="Z9" s="116"/>
+      <c r="AA9" s="116"/>
+      <c r="AB9" s="116"/>
+      <c r="AC9" s="117"/>
+      <c r="AD9" s="115"/>
+      <c r="AE9" s="116"/>
+      <c r="AF9" s="117"/>
     </row>
     <row r="10" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -2285,41 +2279,41 @@
       <c r="Q10" s="144">
         <v>44986</v>
       </c>
-      <c r="R10" s="134"/>
-      <c r="S10" s="134"/>
-      <c r="T10" s="134"/>
-      <c r="U10" s="134"/>
-      <c r="V10" s="134"/>
-      <c r="W10" s="134"/>
-      <c r="X10" s="135"/>
-      <c r="Y10" s="148">
+      <c r="R10" s="113"/>
+      <c r="S10" s="113"/>
+      <c r="T10" s="113"/>
+      <c r="U10" s="113"/>
+      <c r="V10" s="113"/>
+      <c r="W10" s="113"/>
+      <c r="X10" s="114"/>
+      <c r="Y10" s="147">
         <v>0</v>
       </c>
-      <c r="Z10" s="134"/>
-      <c r="AA10" s="134"/>
-      <c r="AB10" s="134"/>
-      <c r="AC10" s="135"/>
-      <c r="AD10" s="139" t="s">
+      <c r="Z10" s="113"/>
+      <c r="AA10" s="113"/>
+      <c r="AB10" s="113"/>
+      <c r="AC10" s="114"/>
+      <c r="AD10" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="AE10" s="134"/>
-      <c r="AF10" s="135"/>
+      <c r="AE10" s="113"/>
+      <c r="AF10" s="114"/>
     </row>
     <row r="11" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="153" t="s">
+      <c r="B11" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="129"/>
+      <c r="C11" s="107"/>
       <c r="D11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="153" t="s">
+      <c r="E11" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="129"/>
-      <c r="G11" s="129"/>
-      <c r="H11" s="129"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -2328,22 +2322,22 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="136"/>
-      <c r="R11" s="137"/>
-      <c r="S11" s="137"/>
-      <c r="T11" s="137"/>
-      <c r="U11" s="137"/>
-      <c r="V11" s="137"/>
-      <c r="W11" s="137"/>
-      <c r="X11" s="138"/>
-      <c r="Y11" s="136"/>
-      <c r="Z11" s="137"/>
-      <c r="AA11" s="137"/>
-      <c r="AB11" s="137"/>
-      <c r="AC11" s="138"/>
-      <c r="AD11" s="136"/>
-      <c r="AE11" s="137"/>
-      <c r="AF11" s="138"/>
+      <c r="Q11" s="115"/>
+      <c r="R11" s="116"/>
+      <c r="S11" s="116"/>
+      <c r="T11" s="116"/>
+      <c r="U11" s="116"/>
+      <c r="V11" s="116"/>
+      <c r="W11" s="116"/>
+      <c r="X11" s="117"/>
+      <c r="Y11" s="115"/>
+      <c r="Z11" s="116"/>
+      <c r="AA11" s="116"/>
+      <c r="AB11" s="116"/>
+      <c r="AC11" s="117"/>
+      <c r="AD11" s="115"/>
+      <c r="AE11" s="116"/>
+      <c r="AF11" s="117"/>
     </row>
     <row r="12" spans="1:38" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -2381,77 +2375,77 @@
     </row>
     <row r="13" spans="1:38" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="141" t="s">
+      <c r="B13" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="141"/>
-      <c r="D13" s="141"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="141"/>
-      <c r="I13" s="141"/>
-      <c r="J13" s="141"/>
-      <c r="K13" s="141"/>
-      <c r="L13" s="141"/>
-      <c r="M13" s="141"/>
-      <c r="N13" s="141"/>
-      <c r="O13" s="141"/>
-      <c r="P13" s="141"/>
-      <c r="Q13" s="141"/>
-      <c r="R13" s="141"/>
-      <c r="S13" s="141"/>
-      <c r="T13" s="141"/>
-      <c r="U13" s="141"/>
-      <c r="V13" s="141"/>
-      <c r="W13" s="141"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="103"/>
+      <c r="O13" s="103"/>
+      <c r="P13" s="103"/>
+      <c r="Q13" s="103"/>
+      <c r="R13" s="103"/>
+      <c r="S13" s="103"/>
+      <c r="T13" s="103"/>
+      <c r="U13" s="103"/>
+      <c r="V13" s="103"/>
+      <c r="W13" s="103"/>
       <c r="X13" s="40"/>
       <c r="Y13" s="40"/>
       <c r="Z13" s="40"/>
-      <c r="AA13" s="141" t="s">
+      <c r="AA13" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="AB13" s="141"/>
-      <c r="AC13" s="141"/>
+      <c r="AB13" s="103"/>
+      <c r="AC13" s="103"/>
       <c r="AD13" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="AE13" s="134"/>
-      <c r="AF13" s="134"/>
+      <c r="AE13" s="113"/>
+      <c r="AF13" s="113"/>
     </row>
     <row r="14" spans="1:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="142"/>
-      <c r="C14" s="142"/>
-      <c r="D14" s="142"/>
-      <c r="E14" s="142"/>
-      <c r="F14" s="142"/>
-      <c r="G14" s="142"/>
-      <c r="H14" s="142"/>
-      <c r="I14" s="142"/>
-      <c r="J14" s="142"/>
-      <c r="K14" s="142"/>
-      <c r="L14" s="142"/>
-      <c r="M14" s="142"/>
-      <c r="N14" s="142"/>
-      <c r="O14" s="142"/>
-      <c r="P14" s="142"/>
-      <c r="Q14" s="142"/>
-      <c r="R14" s="142"/>
-      <c r="S14" s="142"/>
-      <c r="T14" s="142"/>
-      <c r="U14" s="142"/>
-      <c r="V14" s="142"/>
-      <c r="W14" s="142"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="104"/>
+      <c r="M14" s="104"/>
+      <c r="N14" s="104"/>
+      <c r="O14" s="104"/>
+      <c r="P14" s="104"/>
+      <c r="Q14" s="104"/>
+      <c r="R14" s="104"/>
+      <c r="S14" s="104"/>
+      <c r="T14" s="104"/>
+      <c r="U14" s="104"/>
+      <c r="V14" s="104"/>
+      <c r="W14" s="104"/>
       <c r="X14" s="39"/>
       <c r="Y14" s="39"/>
       <c r="Z14" s="39"/>
-      <c r="AA14" s="142"/>
-      <c r="AB14" s="142"/>
-      <c r="AC14" s="142"/>
-      <c r="AD14" s="137"/>
-      <c r="AE14" s="137"/>
-      <c r="AF14" s="137"/>
+      <c r="AA14" s="104"/>
+      <c r="AB14" s="104"/>
+      <c r="AC14" s="104"/>
+      <c r="AD14" s="116"/>
+      <c r="AE14" s="116"/>
+      <c r="AF14" s="116"/>
     </row>
     <row r="15" spans="1:38" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -2488,121 +2482,121 @@
       <c r="AF15" s="14"/>
     </row>
     <row r="16" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="99"/>
-      <c r="B16" s="130" t="s">
+      <c r="A16" s="74"/>
+      <c r="B16" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="119"/>
-      <c r="D16" s="143" t="s">
+      <c r="C16" s="91"/>
+      <c r="D16" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="103"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="78"/>
       <c r="K16" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="127">
+      <c r="L16" s="102">
         <v>44946</v>
       </c>
-      <c r="M16" s="102"/>
-      <c r="N16" s="102"/>
-      <c r="O16" s="103"/>
-      <c r="P16" s="157" t="s">
+      <c r="M16" s="77"/>
+      <c r="N16" s="77"/>
+      <c r="O16" s="78"/>
+      <c r="P16" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="Q16" s="155" t="s">
+      <c r="Q16" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="R16" s="103"/>
-      <c r="S16" s="127">
+      <c r="R16" s="78"/>
+      <c r="S16" s="102">
         <v>44977</v>
       </c>
-      <c r="T16" s="102"/>
-      <c r="U16" s="102"/>
-      <c r="V16" s="102"/>
-      <c r="W16" s="103"/>
+      <c r="T16" s="77"/>
+      <c r="U16" s="77"/>
+      <c r="V16" s="77"/>
+      <c r="W16" s="78"/>
       <c r="X16" s="38"/>
       <c r="Y16" s="38"/>
       <c r="Z16" s="38"/>
-      <c r="AA16" s="160"/>
-      <c r="AB16" s="160"/>
+      <c r="AA16" s="86"/>
+      <c r="AB16" s="86"/>
       <c r="AC16" s="38"/>
       <c r="AD16" s="42"/>
-      <c r="AE16" s="149"/>
-      <c r="AF16" s="80"/>
+      <c r="AE16" s="118"/>
+      <c r="AF16" s="119"/>
     </row>
     <row r="17" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="100"/>
-      <c r="B17" s="120"/>
-      <c r="C17" s="121"/>
-      <c r="D17" s="143" t="s">
+      <c r="A17" s="75"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="103"/>
-      <c r="K17" s="154">
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="89">
         <v>1269.0999999999999</v>
       </c>
-      <c r="L17" s="147"/>
-      <c r="M17" s="147"/>
-      <c r="N17" s="147"/>
-      <c r="O17" s="119"/>
-      <c r="P17" s="158"/>
-      <c r="Q17" s="146">
+      <c r="L17" s="90"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="91"/>
+      <c r="P17" s="111"/>
+      <c r="Q17" s="92">
         <v>1269.0999999999999</v>
       </c>
-      <c r="R17" s="147"/>
-      <c r="S17" s="147"/>
-      <c r="T17" s="147"/>
-      <c r="U17" s="147"/>
-      <c r="V17" s="147"/>
-      <c r="W17" s="119"/>
+      <c r="R17" s="90"/>
+      <c r="S17" s="90"/>
+      <c r="T17" s="90"/>
+      <c r="U17" s="90"/>
+      <c r="V17" s="90"/>
+      <c r="W17" s="91"/>
       <c r="X17" s="38"/>
       <c r="Y17" s="38"/>
       <c r="Z17" s="38"/>
-      <c r="AA17" s="160"/>
-      <c r="AB17" s="160"/>
+      <c r="AA17" s="86"/>
+      <c r="AB17" s="86"/>
       <c r="AC17" s="38"/>
       <c r="AD17" s="42"/>
-      <c r="AE17" s="149"/>
-      <c r="AF17" s="80"/>
+      <c r="AE17" s="118"/>
+      <c r="AF17" s="119"/>
     </row>
     <row r="18" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="120"/>
-      <c r="C18" s="121"/>
-      <c r="D18" s="143" t="s">
+      <c r="B18" s="127"/>
+      <c r="C18" s="128"/>
+      <c r="D18" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="102"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="173">
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="94">
         <v>1</v>
       </c>
-      <c r="L18" s="173"/>
-      <c r="M18" s="173"/>
-      <c r="N18" s="173"/>
-      <c r="O18" s="173"/>
-      <c r="P18" s="173"/>
-      <c r="Q18" s="173"/>
-      <c r="R18" s="173"/>
-      <c r="S18" s="173"/>
-      <c r="T18" s="173"/>
-      <c r="U18" s="173"/>
-      <c r="V18" s="173"/>
-      <c r="W18" s="173"/>
+      <c r="L18" s="94"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="94"/>
+      <c r="P18" s="94"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="94"/>
+      <c r="S18" s="94"/>
+      <c r="T18" s="94"/>
+      <c r="U18" s="94"/>
+      <c r="V18" s="94"/>
+      <c r="W18" s="94"/>
       <c r="X18" s="41"/>
       <c r="Y18" s="41"/>
       <c r="Z18" s="41"/>
@@ -2615,166 +2609,166 @@
     </row>
     <row r="19" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="120"/>
-      <c r="C19" s="121"/>
-      <c r="D19" s="174" t="s">
+      <c r="B19" s="127"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="147"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="147"/>
-      <c r="H19" s="147"/>
-      <c r="I19" s="147"/>
-      <c r="J19" s="119"/>
-      <c r="K19" s="124">
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="131">
         <f>(Q17-K17)*K18</f>
         <v>0</v>
       </c>
-      <c r="L19" s="125"/>
-      <c r="M19" s="125"/>
-      <c r="N19" s="125"/>
-      <c r="O19" s="125"/>
-      <c r="P19" s="125"/>
-      <c r="Q19" s="125"/>
-      <c r="R19" s="125"/>
-      <c r="S19" s="125"/>
-      <c r="T19" s="125"/>
-      <c r="U19" s="125"/>
-      <c r="V19" s="125"/>
-      <c r="W19" s="126"/>
-      <c r="X19" s="161" t="s">
+      <c r="L19" s="132"/>
+      <c r="M19" s="132"/>
+      <c r="N19" s="132"/>
+      <c r="O19" s="132"/>
+      <c r="P19" s="132"/>
+      <c r="Q19" s="132"/>
+      <c r="R19" s="132"/>
+      <c r="S19" s="132"/>
+      <c r="T19" s="132"/>
+      <c r="U19" s="132"/>
+      <c r="V19" s="132"/>
+      <c r="W19" s="133"/>
+      <c r="X19" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="Y19" s="96"/>
-      <c r="Z19" s="96"/>
-      <c r="AA19" s="93">
+      <c r="Y19" s="99"/>
+      <c r="Z19" s="99"/>
+      <c r="AA19" s="79">
         <v>1800</v>
       </c>
-      <c r="AB19" s="93"/>
-      <c r="AC19" s="93"/>
+      <c r="AB19" s="79"/>
+      <c r="AC19" s="79"/>
       <c r="AD19" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE19" s="81">
+      <c r="AE19" s="143">
         <v>0</v>
       </c>
-      <c r="AF19" s="81"/>
+      <c r="AF19" s="143"/>
     </row>
     <row r="20" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="120"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="175" t="s">
+      <c r="B20" s="127"/>
+      <c r="C20" s="136"/>
+      <c r="D20" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="104" t="s">
+      <c r="E20" s="97"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="I20" s="104"/>
-      <c r="J20" s="105"/>
-      <c r="K20" s="166">
+      <c r="I20" s="97"/>
+      <c r="J20" s="153"/>
+      <c r="K20" s="80">
         <v>88</v>
       </c>
-      <c r="L20" s="167"/>
-      <c r="M20" s="167"/>
-      <c r="N20" s="167"/>
-      <c r="O20" s="167"/>
-      <c r="P20" s="167"/>
-      <c r="Q20" s="167"/>
-      <c r="R20" s="167"/>
-      <c r="S20" s="167"/>
-      <c r="T20" s="167"/>
-      <c r="U20" s="167"/>
-      <c r="V20" s="167"/>
-      <c r="W20" s="168"/>
-      <c r="X20" s="161" t="s">
+      <c r="L20" s="81"/>
+      <c r="M20" s="81"/>
+      <c r="N20" s="81"/>
+      <c r="O20" s="81"/>
+      <c r="P20" s="81"/>
+      <c r="Q20" s="81"/>
+      <c r="R20" s="81"/>
+      <c r="S20" s="81"/>
+      <c r="T20" s="81"/>
+      <c r="U20" s="81"/>
+      <c r="V20" s="81"/>
+      <c r="W20" s="82"/>
+      <c r="X20" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="Y20" s="96"/>
-      <c r="Z20" s="96"/>
-      <c r="AA20" s="93">
+      <c r="Y20" s="99"/>
+      <c r="Z20" s="99"/>
+      <c r="AA20" s="79">
         <v>1800</v>
       </c>
-      <c r="AB20" s="93"/>
-      <c r="AC20" s="93"/>
-      <c r="AD20" s="94" t="s">
+      <c r="AB20" s="79"/>
+      <c r="AC20" s="79"/>
+      <c r="AD20" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="AE20" s="81">
+      <c r="AE20" s="143">
         <f>K20*AA20</f>
         <v>158400</v>
       </c>
-      <c r="AF20" s="81"/>
+      <c r="AF20" s="143"/>
     </row>
     <row r="21" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="120"/>
-      <c r="C21" s="121"/>
-      <c r="D21" s="110" t="s">
+      <c r="B21" s="127"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="156" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="111"/>
-      <c r="F21" s="111"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="141"/>
       <c r="G21" s="47"/>
-      <c r="H21" s="111" t="s">
+      <c r="H21" s="141" t="s">
         <v>45</v>
       </c>
-      <c r="I21" s="111"/>
-      <c r="J21" s="140"/>
-      <c r="K21" s="169"/>
-      <c r="L21" s="170"/>
-      <c r="M21" s="170"/>
-      <c r="N21" s="170"/>
-      <c r="O21" s="170"/>
-      <c r="P21" s="170"/>
-      <c r="Q21" s="170"/>
-      <c r="R21" s="170"/>
-      <c r="S21" s="170"/>
-      <c r="T21" s="170"/>
-      <c r="U21" s="170"/>
-      <c r="V21" s="170"/>
-      <c r="W21" s="171"/>
-      <c r="X21" s="161"/>
-      <c r="Y21" s="96"/>
-      <c r="Z21" s="96"/>
-      <c r="AA21" s="93"/>
-      <c r="AB21" s="93"/>
-      <c r="AC21" s="93"/>
-      <c r="AD21" s="94"/>
-      <c r="AE21" s="81"/>
-      <c r="AF21" s="81"/>
+      <c r="I21" s="141"/>
+      <c r="J21" s="142"/>
+      <c r="K21" s="83"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="84"/>
+      <c r="P21" s="84"/>
+      <c r="Q21" s="84"/>
+      <c r="R21" s="84"/>
+      <c r="S21" s="84"/>
+      <c r="T21" s="84"/>
+      <c r="U21" s="84"/>
+      <c r="V21" s="84"/>
+      <c r="W21" s="85"/>
+      <c r="X21" s="98"/>
+      <c r="Y21" s="99"/>
+      <c r="Z21" s="99"/>
+      <c r="AA21" s="79"/>
+      <c r="AB21" s="79"/>
+      <c r="AC21" s="79"/>
+      <c r="AD21" s="150"/>
+      <c r="AE21" s="143"/>
+      <c r="AF21" s="143"/>
     </row>
     <row r="22" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="120"/>
-      <c r="C22" s="123"/>
-      <c r="D22" s="132" t="s">
+      <c r="B22" s="127"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="138" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="102"/>
-      <c r="I22" s="102"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="163">
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="121">
         <v>0.05</v>
       </c>
-      <c r="L22" s="164"/>
-      <c r="M22" s="164"/>
-      <c r="N22" s="164"/>
-      <c r="O22" s="164"/>
-      <c r="P22" s="164"/>
-      <c r="Q22" s="164"/>
-      <c r="R22" s="164"/>
-      <c r="S22" s="164"/>
-      <c r="T22" s="164"/>
-      <c r="U22" s="164"/>
-      <c r="V22" s="164"/>
-      <c r="W22" s="165"/>
+      <c r="L22" s="122"/>
+      <c r="M22" s="122"/>
+      <c r="N22" s="122"/>
+      <c r="O22" s="122"/>
+      <c r="P22" s="122"/>
+      <c r="Q22" s="122"/>
+      <c r="R22" s="122"/>
+      <c r="S22" s="122"/>
+      <c r="T22" s="122"/>
+      <c r="U22" s="122"/>
+      <c r="V22" s="122"/>
+      <c r="W22" s="123"/>
       <c r="X22" s="14"/>
       <c r="Y22" s="14"/>
       <c r="Z22" s="14"/>
@@ -2784,11 +2778,11 @@
       <c r="AD22" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE22" s="150">
+      <c r="AE22" s="100">
         <f>AE20*K22</f>
         <v>7920</v>
       </c>
-      <c r="AF22" s="151"/>
+      <c r="AF22" s="101"/>
     </row>
     <row r="23" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
@@ -2823,91 +2817,91 @@
       <c r="AD23" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE23" s="108">
+      <c r="AE23" s="146">
         <f>AE20+AE22</f>
         <v>166320</v>
       </c>
-      <c r="AF23" s="80"/>
+      <c r="AF23" s="119"/>
       <c r="AI23" s="17"/>
     </row>
     <row r="24" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="118" t="s">
+      <c r="B24" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="119"/>
-      <c r="D24" s="101" t="s">
+      <c r="C24" s="91"/>
+      <c r="D24" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="102"/>
-      <c r="J24" s="103"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="78"/>
       <c r="K24" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="127">
+      <c r="L24" s="102">
         <v>44946</v>
       </c>
-      <c r="M24" s="102"/>
-      <c r="N24" s="102"/>
-      <c r="O24" s="103"/>
-      <c r="P24" s="162" t="s">
+      <c r="M24" s="77"/>
+      <c r="N24" s="77"/>
+      <c r="O24" s="78"/>
+      <c r="P24" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="Q24" s="162" t="s">
+      <c r="Q24" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="R24" s="103"/>
-      <c r="S24" s="127">
+      <c r="R24" s="78"/>
+      <c r="S24" s="102">
         <v>44977</v>
       </c>
-      <c r="T24" s="102"/>
-      <c r="U24" s="102"/>
-      <c r="V24" s="102"/>
-      <c r="W24" s="103"/>
+      <c r="T24" s="77"/>
+      <c r="U24" s="77"/>
+      <c r="V24" s="77"/>
+      <c r="W24" s="78"/>
       <c r="X24" s="18"/>
       <c r="Y24" s="18"/>
       <c r="Z24" s="18"/>
-      <c r="AA24" s="160"/>
-      <c r="AB24" s="160"/>
+      <c r="AA24" s="86"/>
+      <c r="AB24" s="86"/>
       <c r="AC24" s="18"/>
       <c r="AD24" s="42"/>
-      <c r="AE24" s="95"/>
-      <c r="AF24" s="80"/>
+      <c r="AE24" s="151"/>
+      <c r="AF24" s="119"/>
     </row>
     <row r="25" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="120"/>
-      <c r="C25" s="121"/>
-      <c r="D25" s="101" t="s">
+      <c r="B25" s="127"/>
+      <c r="C25" s="128"/>
+      <c r="D25" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="102"/>
-      <c r="J25" s="103"/>
-      <c r="K25" s="154">
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="89">
         <v>1269.0999999999999</v>
       </c>
-      <c r="L25" s="147"/>
-      <c r="M25" s="147"/>
-      <c r="N25" s="147"/>
-      <c r="O25" s="119"/>
-      <c r="P25" s="172"/>
-      <c r="Q25" s="146">
+      <c r="L25" s="90"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="91"/>
+      <c r="P25" s="88"/>
+      <c r="Q25" s="92">
         <v>1269.0999999999999</v>
       </c>
-      <c r="R25" s="147"/>
-      <c r="S25" s="147"/>
-      <c r="T25" s="147"/>
-      <c r="U25" s="147"/>
-      <c r="V25" s="147"/>
-      <c r="W25" s="119"/>
+      <c r="R25" s="90"/>
+      <c r="S25" s="90"/>
+      <c r="T25" s="90"/>
+      <c r="U25" s="90"/>
+      <c r="V25" s="90"/>
+      <c r="W25" s="91"/>
       <c r="X25" s="20"/>
       <c r="Y25" s="20"/>
       <c r="Z25" s="20"/>
@@ -2915,85 +2909,85 @@
       <c r="AB25" s="21"/>
       <c r="AC25" s="18"/>
       <c r="AD25" s="42"/>
-      <c r="AE25" s="109"/>
-      <c r="AF25" s="80"/>
+      <c r="AE25" s="155"/>
+      <c r="AF25" s="119"/>
     </row>
     <row r="26" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="120"/>
-      <c r="C26" s="121"/>
-      <c r="D26" s="112" t="s">
+      <c r="B26" s="127"/>
+      <c r="C26" s="128"/>
+      <c r="D26" s="157" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="102"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="102"/>
-      <c r="J26" s="103"/>
-      <c r="K26" s="107">
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="139">
         <f>Q25-K25</f>
         <v>0</v>
       </c>
-      <c r="L26" s="102"/>
-      <c r="M26" s="102"/>
-      <c r="N26" s="102"/>
-      <c r="O26" s="102"/>
-      <c r="P26" s="102"/>
-      <c r="Q26" s="102"/>
-      <c r="R26" s="102"/>
-      <c r="S26" s="102"/>
-      <c r="T26" s="102"/>
-      <c r="U26" s="102"/>
-      <c r="V26" s="102"/>
-      <c r="W26" s="103"/>
-      <c r="X26" s="96" t="s">
+      <c r="L26" s="77"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="77"/>
+      <c r="O26" s="77"/>
+      <c r="P26" s="77"/>
+      <c r="Q26" s="77"/>
+      <c r="R26" s="77"/>
+      <c r="S26" s="77"/>
+      <c r="T26" s="77"/>
+      <c r="U26" s="77"/>
+      <c r="V26" s="77"/>
+      <c r="W26" s="78"/>
+      <c r="X26" s="99" t="s">
         <v>32</v>
       </c>
-      <c r="Y26" s="80"/>
-      <c r="Z26" s="80"/>
-      <c r="AA26" s="83">
+      <c r="Y26" s="119"/>
+      <c r="Z26" s="119"/>
+      <c r="AA26" s="163">
         <v>1800</v>
       </c>
-      <c r="AB26" s="83"/>
-      <c r="AC26" s="83"/>
+      <c r="AB26" s="163"/>
+      <c r="AC26" s="163"/>
       <c r="AD26" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE26" s="108">
+      <c r="AE26" s="146">
         <f>K26*AA26</f>
         <v>0</v>
       </c>
-      <c r="AF26" s="80"/>
+      <c r="AF26" s="119"/>
     </row>
     <row r="27" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="99"/>
-      <c r="B27" s="120"/>
-      <c r="C27" s="121"/>
-      <c r="D27" s="101" t="s">
+      <c r="A27" s="74"/>
+      <c r="B27" s="127"/>
+      <c r="C27" s="128"/>
+      <c r="D27" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="102"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="102"/>
-      <c r="H27" s="102"/>
-      <c r="I27" s="102"/>
-      <c r="J27" s="103"/>
-      <c r="K27" s="107">
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="139">
         <v>47510</v>
       </c>
-      <c r="L27" s="102"/>
-      <c r="M27" s="102"/>
-      <c r="N27" s="102"/>
-      <c r="O27" s="102"/>
-      <c r="P27" s="102"/>
-      <c r="Q27" s="102"/>
-      <c r="R27" s="102"/>
-      <c r="S27" s="102"/>
-      <c r="T27" s="102"/>
-      <c r="U27" s="102"/>
-      <c r="V27" s="102"/>
-      <c r="W27" s="103"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="77"/>
+      <c r="N27" s="77"/>
+      <c r="O27" s="77"/>
+      <c r="P27" s="77"/>
+      <c r="Q27" s="77"/>
+      <c r="R27" s="77"/>
+      <c r="S27" s="77"/>
+      <c r="T27" s="77"/>
+      <c r="U27" s="77"/>
+      <c r="V27" s="77"/>
+      <c r="W27" s="78"/>
       <c r="X27" s="22"/>
       <c r="Y27" s="23"/>
       <c r="Z27" s="23"/>
@@ -3003,40 +2997,40 @@
       <c r="AD27" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE27" s="81">
+      <c r="AE27" s="143">
         <f>K27</f>
         <v>47510</v>
       </c>
-      <c r="AF27" s="80"/>
+      <c r="AF27" s="119"/>
     </row>
     <row r="28" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="100"/>
-      <c r="B28" s="122"/>
-      <c r="C28" s="123"/>
-      <c r="D28" s="114" t="s">
+      <c r="A28" s="75"/>
+      <c r="B28" s="129"/>
+      <c r="C28" s="130"/>
+      <c r="D28" s="159" t="s">
         <v>75</v>
       </c>
-      <c r="E28" s="102"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="102"/>
-      <c r="I28" s="102"/>
-      <c r="J28" s="103"/>
-      <c r="K28" s="107">
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="139">
         <v>11000</v>
       </c>
-      <c r="L28" s="102"/>
-      <c r="M28" s="102"/>
-      <c r="N28" s="102"/>
-      <c r="O28" s="102"/>
-      <c r="P28" s="102"/>
-      <c r="Q28" s="102"/>
-      <c r="R28" s="102"/>
-      <c r="S28" s="102"/>
-      <c r="T28" s="102"/>
-      <c r="U28" s="102"/>
-      <c r="V28" s="102"/>
-      <c r="W28" s="103"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="77"/>
+      <c r="N28" s="77"/>
+      <c r="O28" s="77"/>
+      <c r="P28" s="77"/>
+      <c r="Q28" s="77"/>
+      <c r="R28" s="77"/>
+      <c r="S28" s="77"/>
+      <c r="T28" s="77"/>
+      <c r="U28" s="77"/>
+      <c r="V28" s="77"/>
+      <c r="W28" s="78"/>
       <c r="X28" s="24"/>
       <c r="Y28" s="25"/>
       <c r="Z28" s="25"/>
@@ -3046,14 +3040,14 @@
       <c r="AD28" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE28" s="115">
+      <c r="AE28" s="160">
         <f>K28</f>
         <v>11000</v>
       </c>
-      <c r="AF28" s="115"/>
-    </row>
-    <row r="29" spans="1:35" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="100"/>
+      <c r="AF28" s="160"/>
+    </row>
+    <row r="29" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="75"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="41"/>
@@ -3085,14 +3079,14 @@
       <c r="AD29" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="AE29" s="84">
+      <c r="AE29" s="164">
         <f>AE26+AE27+AE28</f>
         <v>58510</v>
       </c>
-      <c r="AF29" s="85"/>
+      <c r="AF29" s="165"/>
     </row>
     <row r="30" spans="1:35" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="100"/>
+      <c r="A30" s="75"/>
       <c r="B30" s="26"/>
       <c r="C30" s="26"/>
       <c r="D30" s="64"/>
@@ -3126,7 +3120,7 @@
       <c r="AF30" s="60"/>
     </row>
     <row r="31" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="100"/>
+      <c r="A31" s="75"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="41"/>
@@ -3145,25 +3139,25 @@
       <c r="Q31" s="41"/>
       <c r="R31" s="41"/>
       <c r="S31" s="41"/>
-      <c r="T31" s="106" t="s">
+      <c r="T31" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="U31" s="80"/>
-      <c r="V31" s="80"/>
-      <c r="W31" s="80"/>
-      <c r="X31" s="80"/>
-      <c r="Y31" s="80"/>
-      <c r="Z31" s="80"/>
-      <c r="AA31" s="80"/>
-      <c r="AB31" s="80"/>
+      <c r="U31" s="119"/>
+      <c r="V31" s="119"/>
+      <c r="W31" s="119"/>
+      <c r="X31" s="119"/>
+      <c r="Y31" s="119"/>
+      <c r="Z31" s="119"/>
+      <c r="AA31" s="119"/>
+      <c r="AB31" s="119"/>
       <c r="AC31" s="18"/>
       <c r="AD31" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE31" s="81">
+      <c r="AE31" s="143">
         <v>1800</v>
       </c>
-      <c r="AF31" s="82"/>
+      <c r="AF31" s="162"/>
     </row>
     <row r="32" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="9"/>
@@ -3184,25 +3178,25 @@
       <c r="Q32" s="41"/>
       <c r="R32" s="41"/>
       <c r="S32" s="41"/>
-      <c r="T32" s="106" t="s">
+      <c r="T32" s="154" t="s">
         <v>22</v>
       </c>
-      <c r="U32" s="80"/>
-      <c r="V32" s="80"/>
-      <c r="W32" s="80"/>
-      <c r="X32" s="80"/>
-      <c r="Y32" s="80"/>
-      <c r="Z32" s="80"/>
-      <c r="AA32" s="80"/>
-      <c r="AB32" s="80"/>
+      <c r="U32" s="119"/>
+      <c r="V32" s="119"/>
+      <c r="W32" s="119"/>
+      <c r="X32" s="119"/>
+      <c r="Y32" s="119"/>
+      <c r="Z32" s="119"/>
+      <c r="AA32" s="119"/>
+      <c r="AB32" s="119"/>
       <c r="AC32" s="18"/>
       <c r="AD32" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE32" s="81">
+      <c r="AE32" s="143">
         <v>1800</v>
       </c>
-      <c r="AF32" s="82"/>
+      <c r="AF32" s="162"/>
     </row>
     <row r="33" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
@@ -3224,26 +3218,26 @@
       <c r="Q33" s="19"/>
       <c r="R33" s="19"/>
       <c r="S33" s="19"/>
-      <c r="T33" s="79" t="s">
+      <c r="T33" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="U33" s="80"/>
-      <c r="V33" s="80"/>
-      <c r="W33" s="80"/>
-      <c r="X33" s="80"/>
-      <c r="Y33" s="80"/>
-      <c r="Z33" s="80"/>
-      <c r="AA33" s="80"/>
-      <c r="AB33" s="80"/>
+      <c r="U33" s="119"/>
+      <c r="V33" s="119"/>
+      <c r="W33" s="119"/>
+      <c r="X33" s="119"/>
+      <c r="Y33" s="119"/>
+      <c r="Z33" s="119"/>
+      <c r="AA33" s="119"/>
+      <c r="AB33" s="119"/>
       <c r="AC33" s="19"/>
       <c r="AD33" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE33" s="113">
+      <c r="AE33" s="158">
         <f>AE23+AE29+AE31</f>
         <v>226630</v>
       </c>
-      <c r="AF33" s="113"/>
+      <c r="AF33" s="158"/>
     </row>
     <row r="34" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
@@ -3315,41 +3309,41 @@
     </row>
     <row r="36" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="89" t="s">
+      <c r="B36" s="169" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="89"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="89"/>
-      <c r="F36" s="89"/>
-      <c r="G36" s="90" t="s">
+      <c r="C36" s="169"/>
+      <c r="D36" s="169"/>
+      <c r="E36" s="169"/>
+      <c r="F36" s="169"/>
+      <c r="G36" s="170" t="s">
         <v>47</v>
       </c>
-      <c r="H36" s="90"/>
-      <c r="I36" s="90"/>
-      <c r="J36" s="90"/>
-      <c r="K36" s="90"/>
-      <c r="L36" s="90"/>
-      <c r="M36" s="90"/>
-      <c r="N36" s="90"/>
-      <c r="O36" s="90"/>
-      <c r="P36" s="90"/>
-      <c r="Q36" s="90"/>
-      <c r="R36" s="90"/>
-      <c r="S36" s="90"/>
-      <c r="T36" s="90"/>
-      <c r="U36" s="90"/>
-      <c r="V36" s="90"/>
-      <c r="W36" s="90"/>
-      <c r="X36" s="90"/>
-      <c r="Y36" s="90"/>
-      <c r="Z36" s="90"/>
-      <c r="AA36" s="90"/>
-      <c r="AB36" s="90"/>
-      <c r="AC36" s="90"/>
-      <c r="AD36" s="90"/>
-      <c r="AE36" s="90"/>
-      <c r="AF36" s="90"/>
+      <c r="H36" s="170"/>
+      <c r="I36" s="170"/>
+      <c r="J36" s="170"/>
+      <c r="K36" s="170"/>
+      <c r="L36" s="170"/>
+      <c r="M36" s="170"/>
+      <c r="N36" s="170"/>
+      <c r="O36" s="170"/>
+      <c r="P36" s="170"/>
+      <c r="Q36" s="170"/>
+      <c r="R36" s="170"/>
+      <c r="S36" s="170"/>
+      <c r="T36" s="170"/>
+      <c r="U36" s="170"/>
+      <c r="V36" s="170"/>
+      <c r="W36" s="170"/>
+      <c r="X36" s="170"/>
+      <c r="Y36" s="170"/>
+      <c r="Z36" s="170"/>
+      <c r="AA36" s="170"/>
+      <c r="AB36" s="170"/>
+      <c r="AC36" s="170"/>
+      <c r="AD36" s="170"/>
+      <c r="AE36" s="170"/>
+      <c r="AF36" s="170"/>
     </row>
     <row r="37" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
@@ -3481,108 +3475,108 @@
       <c r="Y40" s="48"/>
       <c r="Z40" s="48"/>
       <c r="AA40" s="48"/>
-      <c r="AB40" s="97" t="s">
+      <c r="AB40" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="AC40" s="97"/>
-      <c r="AD40" s="97"/>
-      <c r="AE40" s="97"/>
-      <c r="AF40" s="97"/>
+      <c r="AC40" s="137"/>
+      <c r="AD40" s="137"/>
+      <c r="AE40" s="137"/>
+      <c r="AF40" s="137"/>
     </row>
     <row r="41" spans="1:32" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
-      <c r="B41" s="88" t="s">
+      <c r="B41" s="168" t="s">
         <v>76</v>
       </c>
-      <c r="C41" s="88"/>
-      <c r="D41" s="88"/>
-      <c r="E41" s="88"/>
-      <c r="F41" s="88"/>
-      <c r="G41" s="88"/>
-      <c r="H41" s="88"/>
-      <c r="I41" s="88"/>
-      <c r="J41" s="88"/>
-      <c r="K41" s="88"/>
-      <c r="L41" s="88"/>
-      <c r="M41" s="88"/>
-      <c r="N41" s="88"/>
-      <c r="O41" s="88"/>
-      <c r="P41" s="88"/>
-      <c r="Q41" s="88"/>
-      <c r="R41" s="88"/>
-      <c r="S41" s="88"/>
-      <c r="T41" s="88"/>
-      <c r="U41" s="88"/>
-      <c r="V41" s="88"/>
-      <c r="W41" s="88"/>
+      <c r="C41" s="168"/>
+      <c r="D41" s="168"/>
+      <c r="E41" s="168"/>
+      <c r="F41" s="168"/>
+      <c r="G41" s="168"/>
+      <c r="H41" s="168"/>
+      <c r="I41" s="168"/>
+      <c r="J41" s="168"/>
+      <c r="K41" s="168"/>
+      <c r="L41" s="168"/>
+      <c r="M41" s="168"/>
+      <c r="N41" s="168"/>
+      <c r="O41" s="168"/>
+      <c r="P41" s="168"/>
+      <c r="Q41" s="168"/>
+      <c r="R41" s="168"/>
+      <c r="S41" s="168"/>
+      <c r="T41" s="168"/>
+      <c r="U41" s="168"/>
+      <c r="V41" s="168"/>
+      <c r="W41" s="168"/>
       <c r="X41" s="73"/>
       <c r="Y41" s="48"/>
       <c r="Z41" s="48"/>
       <c r="AA41" s="48"/>
-      <c r="AB41" s="97"/>
-      <c r="AC41" s="97"/>
-      <c r="AD41" s="97"/>
-      <c r="AE41" s="97"/>
-      <c r="AF41" s="97"/>
+      <c r="AB41" s="137"/>
+      <c r="AC41" s="137"/>
+      <c r="AD41" s="137"/>
+      <c r="AE41" s="137"/>
+      <c r="AF41" s="137"/>
     </row>
     <row r="42" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
-      <c r="B42" s="88"/>
-      <c r="C42" s="88"/>
-      <c r="D42" s="88"/>
-      <c r="E42" s="88"/>
-      <c r="F42" s="88"/>
-      <c r="G42" s="88"/>
-      <c r="H42" s="88"/>
-      <c r="I42" s="88"/>
-      <c r="J42" s="88"/>
-      <c r="K42" s="88"/>
-      <c r="L42" s="88"/>
-      <c r="M42" s="88"/>
-      <c r="N42" s="88"/>
-      <c r="O42" s="88"/>
-      <c r="P42" s="88"/>
-      <c r="Q42" s="88"/>
-      <c r="R42" s="88"/>
-      <c r="S42" s="88"/>
-      <c r="T42" s="88"/>
-      <c r="U42" s="88"/>
-      <c r="V42" s="88"/>
-      <c r="W42" s="88"/>
+      <c r="B42" s="168"/>
+      <c r="C42" s="168"/>
+      <c r="D42" s="168"/>
+      <c r="E42" s="168"/>
+      <c r="F42" s="168"/>
+      <c r="G42" s="168"/>
+      <c r="H42" s="168"/>
+      <c r="I42" s="168"/>
+      <c r="J42" s="168"/>
+      <c r="K42" s="168"/>
+      <c r="L42" s="168"/>
+      <c r="M42" s="168"/>
+      <c r="N42" s="168"/>
+      <c r="O42" s="168"/>
+      <c r="P42" s="168"/>
+      <c r="Q42" s="168"/>
+      <c r="R42" s="168"/>
+      <c r="S42" s="168"/>
+      <c r="T42" s="168"/>
+      <c r="U42" s="168"/>
+      <c r="V42" s="168"/>
+      <c r="W42" s="168"/>
       <c r="X42" s="73"/>
       <c r="Y42" s="48"/>
       <c r="Z42" s="48"/>
       <c r="AA42" s="48"/>
-      <c r="AB42" s="97"/>
-      <c r="AC42" s="97"/>
-      <c r="AD42" s="97"/>
-      <c r="AE42" s="97"/>
-      <c r="AF42" s="97"/>
+      <c r="AB42" s="137"/>
+      <c r="AC42" s="137"/>
+      <c r="AD42" s="137"/>
+      <c r="AE42" s="137"/>
+      <c r="AF42" s="137"/>
     </row>
     <row r="43" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
-      <c r="B43" s="88"/>
-      <c r="C43" s="88"/>
-      <c r="D43" s="88"/>
-      <c r="E43" s="88"/>
-      <c r="F43" s="88"/>
-      <c r="G43" s="88"/>
-      <c r="H43" s="88"/>
-      <c r="I43" s="88"/>
-      <c r="J43" s="88"/>
-      <c r="K43" s="88"/>
-      <c r="L43" s="88"/>
-      <c r="M43" s="88"/>
-      <c r="N43" s="88"/>
-      <c r="O43" s="88"/>
-      <c r="P43" s="88"/>
-      <c r="Q43" s="88"/>
-      <c r="R43" s="88"/>
-      <c r="S43" s="88"/>
-      <c r="T43" s="88"/>
-      <c r="U43" s="88"/>
-      <c r="V43" s="88"/>
-      <c r="W43" s="88"/>
+      <c r="B43" s="168"/>
+      <c r="C43" s="168"/>
+      <c r="D43" s="168"/>
+      <c r="E43" s="168"/>
+      <c r="F43" s="168"/>
+      <c r="G43" s="168"/>
+      <c r="H43" s="168"/>
+      <c r="I43" s="168"/>
+      <c r="J43" s="168"/>
+      <c r="K43" s="168"/>
+      <c r="L43" s="168"/>
+      <c r="M43" s="168"/>
+      <c r="N43" s="168"/>
+      <c r="O43" s="168"/>
+      <c r="P43" s="168"/>
+      <c r="Q43" s="168"/>
+      <c r="R43" s="168"/>
+      <c r="S43" s="168"/>
+      <c r="T43" s="168"/>
+      <c r="U43" s="168"/>
+      <c r="V43" s="168"/>
+      <c r="W43" s="168"/>
       <c r="X43" s="73"/>
       <c r="Y43" s="48"/>
       <c r="Z43" s="48"/>
@@ -3595,28 +3589,28 @@
     </row>
     <row r="44" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
-      <c r="B44" s="88"/>
-      <c r="C44" s="88"/>
-      <c r="D44" s="88"/>
-      <c r="E44" s="88"/>
-      <c r="F44" s="88"/>
-      <c r="G44" s="88"/>
-      <c r="H44" s="88"/>
-      <c r="I44" s="88"/>
-      <c r="J44" s="88"/>
-      <c r="K44" s="88"/>
-      <c r="L44" s="88"/>
-      <c r="M44" s="88"/>
-      <c r="N44" s="88"/>
-      <c r="O44" s="88"/>
-      <c r="P44" s="88"/>
-      <c r="Q44" s="88"/>
-      <c r="R44" s="88"/>
-      <c r="S44" s="88"/>
-      <c r="T44" s="88"/>
-      <c r="U44" s="88"/>
-      <c r="V44" s="88"/>
-      <c r="W44" s="88"/>
+      <c r="B44" s="168"/>
+      <c r="C44" s="168"/>
+      <c r="D44" s="168"/>
+      <c r="E44" s="168"/>
+      <c r="F44" s="168"/>
+      <c r="G44" s="168"/>
+      <c r="H44" s="168"/>
+      <c r="I44" s="168"/>
+      <c r="J44" s="168"/>
+      <c r="K44" s="168"/>
+      <c r="L44" s="168"/>
+      <c r="M44" s="168"/>
+      <c r="N44" s="168"/>
+      <c r="O44" s="168"/>
+      <c r="P44" s="168"/>
+      <c r="Q44" s="168"/>
+      <c r="R44" s="168"/>
+      <c r="S44" s="168"/>
+      <c r="T44" s="168"/>
+      <c r="U44" s="168"/>
+      <c r="V44" s="168"/>
+      <c r="W44" s="168"/>
       <c r="X44" s="73"/>
       <c r="Y44" s="48"/>
       <c r="Z44" s="48"/>
@@ -3629,28 +3623,28 @@
     </row>
     <row r="45" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
-      <c r="B45" s="88"/>
-      <c r="C45" s="88"/>
-      <c r="D45" s="88"/>
-      <c r="E45" s="88"/>
-      <c r="F45" s="88"/>
-      <c r="G45" s="88"/>
-      <c r="H45" s="88"/>
-      <c r="I45" s="88"/>
-      <c r="J45" s="88"/>
-      <c r="K45" s="88"/>
-      <c r="L45" s="88"/>
-      <c r="M45" s="88"/>
-      <c r="N45" s="88"/>
-      <c r="O45" s="88"/>
-      <c r="P45" s="88"/>
-      <c r="Q45" s="88"/>
-      <c r="R45" s="88"/>
-      <c r="S45" s="88"/>
-      <c r="T45" s="88"/>
-      <c r="U45" s="88"/>
-      <c r="V45" s="88"/>
-      <c r="W45" s="88"/>
+      <c r="B45" s="168"/>
+      <c r="C45" s="168"/>
+      <c r="D45" s="168"/>
+      <c r="E45" s="168"/>
+      <c r="F45" s="168"/>
+      <c r="G45" s="168"/>
+      <c r="H45" s="168"/>
+      <c r="I45" s="168"/>
+      <c r="J45" s="168"/>
+      <c r="K45" s="168"/>
+      <c r="L45" s="168"/>
+      <c r="M45" s="168"/>
+      <c r="N45" s="168"/>
+      <c r="O45" s="168"/>
+      <c r="P45" s="168"/>
+      <c r="Q45" s="168"/>
+      <c r="R45" s="168"/>
+      <c r="S45" s="168"/>
+      <c r="T45" s="168"/>
+      <c r="U45" s="168"/>
+      <c r="V45" s="168"/>
+      <c r="W45" s="168"/>
       <c r="X45" s="73"/>
       <c r="Y45" s="48"/>
       <c r="Z45" s="48"/>
@@ -3663,28 +3657,28 @@
     </row>
     <row r="46" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
-      <c r="B46" s="88"/>
-      <c r="C46" s="88"/>
-      <c r="D46" s="88"/>
-      <c r="E46" s="88"/>
-      <c r="F46" s="88"/>
-      <c r="G46" s="88"/>
-      <c r="H46" s="88"/>
-      <c r="I46" s="88"/>
-      <c r="J46" s="88"/>
-      <c r="K46" s="88"/>
-      <c r="L46" s="88"/>
-      <c r="M46" s="88"/>
-      <c r="N46" s="88"/>
-      <c r="O46" s="88"/>
-      <c r="P46" s="88"/>
-      <c r="Q46" s="88"/>
-      <c r="R46" s="88"/>
-      <c r="S46" s="88"/>
-      <c r="T46" s="88"/>
-      <c r="U46" s="88"/>
-      <c r="V46" s="88"/>
-      <c r="W46" s="88"/>
+      <c r="B46" s="168"/>
+      <c r="C46" s="168"/>
+      <c r="D46" s="168"/>
+      <c r="E46" s="168"/>
+      <c r="F46" s="168"/>
+      <c r="G46" s="168"/>
+      <c r="H46" s="168"/>
+      <c r="I46" s="168"/>
+      <c r="J46" s="168"/>
+      <c r="K46" s="168"/>
+      <c r="L46" s="168"/>
+      <c r="M46" s="168"/>
+      <c r="N46" s="168"/>
+      <c r="O46" s="168"/>
+      <c r="P46" s="168"/>
+      <c r="Q46" s="168"/>
+      <c r="R46" s="168"/>
+      <c r="S46" s="168"/>
+      <c r="T46" s="168"/>
+      <c r="U46" s="168"/>
+      <c r="V46" s="168"/>
+      <c r="W46" s="168"/>
       <c r="X46" s="73"/>
       <c r="Y46" s="48"/>
       <c r="Z46" s="48"/>
@@ -3697,39 +3691,39 @@
     </row>
     <row r="47" spans="1:32" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
-      <c r="B47" s="88"/>
-      <c r="C47" s="88"/>
-      <c r="D47" s="88"/>
-      <c r="E47" s="88"/>
-      <c r="F47" s="88"/>
-      <c r="G47" s="88"/>
-      <c r="H47" s="88"/>
-      <c r="I47" s="88"/>
-      <c r="J47" s="88"/>
-      <c r="K47" s="88"/>
-      <c r="L47" s="88"/>
-      <c r="M47" s="88"/>
-      <c r="N47" s="88"/>
-      <c r="O47" s="88"/>
-      <c r="P47" s="88"/>
-      <c r="Q47" s="88"/>
-      <c r="R47" s="88"/>
-      <c r="S47" s="88"/>
-      <c r="T47" s="88"/>
-      <c r="U47" s="88"/>
-      <c r="V47" s="88"/>
-      <c r="W47" s="88"/>
+      <c r="B47" s="168"/>
+      <c r="C47" s="168"/>
+      <c r="D47" s="168"/>
+      <c r="E47" s="168"/>
+      <c r="F47" s="168"/>
+      <c r="G47" s="168"/>
+      <c r="H47" s="168"/>
+      <c r="I47" s="168"/>
+      <c r="J47" s="168"/>
+      <c r="K47" s="168"/>
+      <c r="L47" s="168"/>
+      <c r="M47" s="168"/>
+      <c r="N47" s="168"/>
+      <c r="O47" s="168"/>
+      <c r="P47" s="168"/>
+      <c r="Q47" s="168"/>
+      <c r="R47" s="168"/>
+      <c r="S47" s="168"/>
+      <c r="T47" s="168"/>
+      <c r="U47" s="168"/>
+      <c r="V47" s="168"/>
+      <c r="W47" s="168"/>
       <c r="X47" s="73"/>
       <c r="Y47" s="49"/>
       <c r="Z47" s="49"/>
       <c r="AA47" s="49"/>
-      <c r="AB47" s="98" t="s">
+      <c r="AB47" s="152" t="s">
         <v>39</v>
       </c>
-      <c r="AC47" s="98"/>
-      <c r="AD47" s="98"/>
-      <c r="AE47" s="98"/>
-      <c r="AF47" s="98"/>
+      <c r="AC47" s="152"/>
+      <c r="AD47" s="152"/>
+      <c r="AE47" s="152"/>
+      <c r="AF47" s="152"/>
     </row>
     <row r="48" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
@@ -3801,12 +3795,12 @@
     </row>
     <row r="50" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
-      <c r="B50" s="86" t="s">
+      <c r="B50" s="166" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="86"/>
-      <c r="D50" s="86"/>
-      <c r="E50" s="86"/>
+      <c r="C50" s="166"/>
+      <c r="D50" s="166"/>
+      <c r="E50" s="166"/>
       <c r="F50" s="31"/>
       <c r="G50" s="31"/>
       <c r="H50" s="31"/>
@@ -3837,311 +3831,324 @@
     </row>
     <row r="51" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="32"/>
-      <c r="B51" s="87" t="s">
+      <c r="B51" s="167" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="87"/>
-      <c r="D51" s="87" t="s">
+      <c r="C51" s="167"/>
+      <c r="D51" s="167" t="s">
         <v>58</v>
       </c>
-      <c r="E51" s="87"/>
-      <c r="F51" s="87"/>
-      <c r="G51" s="87"/>
-      <c r="H51" s="87" t="s">
+      <c r="E51" s="167"/>
+      <c r="F51" s="167"/>
+      <c r="G51" s="167"/>
+      <c r="H51" s="167" t="s">
         <v>59</v>
       </c>
-      <c r="I51" s="87"/>
-      <c r="J51" s="87"/>
-      <c r="K51" s="87"/>
-      <c r="L51" s="87"/>
-      <c r="M51" s="87"/>
-      <c r="N51" s="87"/>
-      <c r="O51" s="87" t="s">
+      <c r="I51" s="167"/>
+      <c r="J51" s="167"/>
+      <c r="K51" s="167"/>
+      <c r="L51" s="167"/>
+      <c r="M51" s="167"/>
+      <c r="N51" s="167"/>
+      <c r="O51" s="167" t="s">
         <v>60</v>
       </c>
-      <c r="P51" s="87"/>
-      <c r="Q51" s="87"/>
-      <c r="R51" s="87"/>
-      <c r="S51" s="87"/>
-      <c r="T51" s="87"/>
-      <c r="U51" s="87"/>
-      <c r="V51" s="87"/>
-      <c r="W51" s="87"/>
+      <c r="P51" s="167"/>
+      <c r="Q51" s="167"/>
+      <c r="R51" s="167"/>
+      <c r="S51" s="167"/>
+      <c r="T51" s="167"/>
+      <c r="U51" s="167"/>
+      <c r="V51" s="167"/>
+      <c r="W51" s="167"/>
     </row>
     <row r="52" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="74" t="s">
+      <c r="B52" s="171" t="s">
         <v>61</v>
       </c>
-      <c r="C52" s="74"/>
-      <c r="D52" s="78" t="s">
+      <c r="C52" s="171"/>
+      <c r="D52" s="175" t="s">
         <v>62</v>
       </c>
-      <c r="E52" s="78"/>
-      <c r="F52" s="78"/>
-      <c r="G52" s="78"/>
-      <c r="H52" s="78" t="s">
+      <c r="E52" s="175"/>
+      <c r="F52" s="175"/>
+      <c r="G52" s="175"/>
+      <c r="H52" s="175" t="s">
         <v>63</v>
       </c>
-      <c r="I52" s="78"/>
-      <c r="J52" s="78"/>
-      <c r="K52" s="78"/>
-      <c r="L52" s="78"/>
-      <c r="M52" s="78"/>
-      <c r="N52" s="78"/>
-      <c r="O52" s="78" t="s">
+      <c r="I52" s="175"/>
+      <c r="J52" s="175"/>
+      <c r="K52" s="175"/>
+      <c r="L52" s="175"/>
+      <c r="M52" s="175"/>
+      <c r="N52" s="175"/>
+      <c r="O52" s="175" t="s">
         <v>64</v>
       </c>
-      <c r="P52" s="78"/>
-      <c r="Q52" s="78"/>
-      <c r="R52" s="78"/>
-      <c r="S52" s="78"/>
-      <c r="T52" s="78"/>
-      <c r="U52" s="78"/>
-      <c r="V52" s="78"/>
-      <c r="W52" s="78"/>
+      <c r="P52" s="175"/>
+      <c r="Q52" s="175"/>
+      <c r="R52" s="175"/>
+      <c r="S52" s="175"/>
+      <c r="T52" s="175"/>
+      <c r="U52" s="175"/>
+      <c r="V52" s="175"/>
+      <c r="W52" s="175"/>
     </row>
     <row r="53" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="74" t="s">
+      <c r="B53" s="171" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="74"/>
-      <c r="D53" s="78" t="s">
+      <c r="C53" s="171"/>
+      <c r="D53" s="175" t="s">
         <v>66</v>
       </c>
-      <c r="E53" s="78"/>
-      <c r="F53" s="78"/>
-      <c r="G53" s="78"/>
-      <c r="H53" s="78" t="s">
+      <c r="E53" s="175"/>
+      <c r="F53" s="175"/>
+      <c r="G53" s="175"/>
+      <c r="H53" s="175" t="s">
         <v>67</v>
       </c>
-      <c r="I53" s="78"/>
-      <c r="J53" s="78"/>
-      <c r="K53" s="78"/>
-      <c r="L53" s="78"/>
-      <c r="M53" s="78"/>
-      <c r="N53" s="78"/>
-      <c r="O53" s="78" t="s">
+      <c r="I53" s="175"/>
+      <c r="J53" s="175"/>
+      <c r="K53" s="175"/>
+      <c r="L53" s="175"/>
+      <c r="M53" s="175"/>
+      <c r="N53" s="175"/>
+      <c r="O53" s="175" t="s">
         <v>68</v>
       </c>
-      <c r="P53" s="78"/>
-      <c r="Q53" s="78"/>
-      <c r="R53" s="78"/>
-      <c r="S53" s="78"/>
-      <c r="T53" s="78"/>
-      <c r="U53" s="78"/>
-      <c r="V53" s="78"/>
-      <c r="W53" s="78"/>
+      <c r="P53" s="175"/>
+      <c r="Q53" s="175"/>
+      <c r="R53" s="175"/>
+      <c r="S53" s="175"/>
+      <c r="T53" s="175"/>
+      <c r="U53" s="175"/>
+      <c r="V53" s="175"/>
+      <c r="W53" s="175"/>
     </row>
     <row r="54" spans="1:33" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="74" t="s">
+      <c r="B54" s="171" t="s">
         <v>69</v>
       </c>
-      <c r="C54" s="74"/>
-      <c r="D54" s="75" t="s">
+      <c r="C54" s="171"/>
+      <c r="D54" s="172" t="s">
         <v>70</v>
       </c>
-      <c r="E54" s="75"/>
-      <c r="F54" s="75"/>
-      <c r="G54" s="75"/>
-      <c r="H54" s="76" t="s">
+      <c r="E54" s="172"/>
+      <c r="F54" s="172"/>
+      <c r="G54" s="172"/>
+      <c r="H54" s="173" t="s">
         <v>71</v>
       </c>
-      <c r="I54" s="76"/>
-      <c r="J54" s="76"/>
-      <c r="K54" s="76"/>
-      <c r="L54" s="76"/>
-      <c r="M54" s="76"/>
-      <c r="N54" s="76"/>
-      <c r="O54" s="76" t="s">
+      <c r="I54" s="173"/>
+      <c r="J54" s="173"/>
+      <c r="K54" s="173"/>
+      <c r="L54" s="173"/>
+      <c r="M54" s="173"/>
+      <c r="N54" s="173"/>
+      <c r="O54" s="173" t="s">
         <v>72</v>
       </c>
-      <c r="P54" s="76"/>
-      <c r="Q54" s="76"/>
-      <c r="R54" s="76"/>
-      <c r="S54" s="76"/>
-      <c r="T54" s="76"/>
-      <c r="U54" s="76"/>
-      <c r="V54" s="76"/>
-      <c r="W54" s="76"/>
+      <c r="P54" s="173"/>
+      <c r="Q54" s="173"/>
+      <c r="R54" s="173"/>
+      <c r="S54" s="173"/>
+      <c r="T54" s="173"/>
+      <c r="U54" s="173"/>
+      <c r="V54" s="173"/>
+      <c r="W54" s="173"/>
     </row>
     <row r="55" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="32"/>
-      <c r="B55" s="77" t="s">
+      <c r="B55" s="174" t="s">
         <v>73</v>
       </c>
-      <c r="C55" s="77"/>
-      <c r="D55" s="77"/>
-      <c r="E55" s="77"/>
-      <c r="F55" s="77"/>
-      <c r="G55" s="77"/>
-      <c r="H55" s="77"/>
-      <c r="I55" s="77"/>
-      <c r="J55" s="77"/>
-      <c r="K55" s="77"/>
-      <c r="L55" s="77"/>
-      <c r="M55" s="77"/>
-      <c r="N55" s="77"/>
-      <c r="O55" s="77"/>
-      <c r="P55" s="77"/>
-      <c r="Q55" s="77"/>
-      <c r="R55" s="77"/>
-      <c r="S55" s="77"/>
-      <c r="T55" s="77"/>
-      <c r="U55" s="77"/>
-      <c r="V55" s="77"/>
-      <c r="W55" s="77"/>
+      <c r="C55" s="174"/>
+      <c r="D55" s="174"/>
+      <c r="E55" s="174"/>
+      <c r="F55" s="174"/>
+      <c r="G55" s="174"/>
+      <c r="H55" s="174"/>
+      <c r="I55" s="174"/>
+      <c r="J55" s="174"/>
+      <c r="K55" s="174"/>
+      <c r="L55" s="174"/>
+      <c r="M55" s="174"/>
+      <c r="N55" s="174"/>
+      <c r="O55" s="174"/>
+      <c r="P55" s="174"/>
+      <c r="Q55" s="174"/>
+      <c r="R55" s="174"/>
+      <c r="S55" s="174"/>
+      <c r="T55" s="174"/>
+      <c r="U55" s="174"/>
+      <c r="V55" s="174"/>
+      <c r="W55" s="174"/>
     </row>
     <row r="61" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="62" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="91" t="s">
+      <c r="A62" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="B62" s="91"/>
-      <c r="C62" s="91"/>
-      <c r="D62" s="91"/>
-      <c r="E62" s="91"/>
-      <c r="F62" s="91"/>
-      <c r="G62" s="91"/>
-      <c r="H62" s="91"/>
-      <c r="I62" s="91"/>
-      <c r="J62" s="91"/>
-      <c r="K62" s="91"/>
-      <c r="L62" s="91"/>
-      <c r="M62" s="91"/>
-      <c r="N62" s="91"/>
-      <c r="O62" s="91"/>
-      <c r="P62" s="91"/>
-      <c r="Q62" s="91"/>
-      <c r="R62" s="91"/>
-      <c r="S62" s="91"/>
-      <c r="T62" s="91"/>
-      <c r="U62" s="91"/>
-      <c r="V62" s="91"/>
-      <c r="W62" s="91"/>
-      <c r="X62" s="91"/>
-      <c r="Y62" s="91"/>
-      <c r="Z62" s="91"/>
-      <c r="AA62" s="91"/>
-      <c r="AB62" s="91"/>
-      <c r="AC62" s="91"/>
-      <c r="AD62" s="91"/>
-      <c r="AE62" s="91"/>
-      <c r="AF62" s="91"/>
-      <c r="AG62" s="91"/>
+      <c r="B62" s="148"/>
+      <c r="C62" s="148"/>
+      <c r="D62" s="148"/>
+      <c r="E62" s="148"/>
+      <c r="F62" s="148"/>
+      <c r="G62" s="148"/>
+      <c r="H62" s="148"/>
+      <c r="I62" s="148"/>
+      <c r="J62" s="148"/>
+      <c r="K62" s="148"/>
+      <c r="L62" s="148"/>
+      <c r="M62" s="148"/>
+      <c r="N62" s="148"/>
+      <c r="O62" s="148"/>
+      <c r="P62" s="148"/>
+      <c r="Q62" s="148"/>
+      <c r="R62" s="148"/>
+      <c r="S62" s="148"/>
+      <c r="T62" s="148"/>
+      <c r="U62" s="148"/>
+      <c r="V62" s="148"/>
+      <c r="W62" s="148"/>
+      <c r="X62" s="148"/>
+      <c r="Y62" s="148"/>
+      <c r="Z62" s="148"/>
+      <c r="AA62" s="148"/>
+      <c r="AB62" s="148"/>
+      <c r="AC62" s="148"/>
+      <c r="AD62" s="148"/>
+      <c r="AE62" s="148"/>
+      <c r="AF62" s="148"/>
+      <c r="AG62" s="148"/>
     </row>
     <row r="63" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="92" t="s">
+      <c r="A63" s="149" t="s">
         <v>25</v>
       </c>
-      <c r="B63" s="92"/>
-      <c r="C63" s="92"/>
-      <c r="D63" s="92"/>
-      <c r="E63" s="92"/>
-      <c r="F63" s="92"/>
-      <c r="G63" s="92"/>
-      <c r="H63" s="92"/>
-      <c r="I63" s="92"/>
-      <c r="J63" s="92"/>
-      <c r="K63" s="92"/>
-      <c r="L63" s="92"/>
-      <c r="M63" s="92"/>
-      <c r="N63" s="92"/>
-      <c r="O63" s="92"/>
-      <c r="P63" s="92"/>
-      <c r="Q63" s="92"/>
-      <c r="R63" s="92"/>
-      <c r="S63" s="92"/>
-      <c r="T63" s="92"/>
-      <c r="U63" s="92"/>
-      <c r="V63" s="92"/>
-      <c r="W63" s="92"/>
-      <c r="X63" s="92"/>
-      <c r="Y63" s="92"/>
-      <c r="Z63" s="92"/>
-      <c r="AA63" s="92"/>
-      <c r="AB63" s="92"/>
-      <c r="AC63" s="92"/>
-      <c r="AD63" s="92"/>
-      <c r="AE63" s="92"/>
-      <c r="AF63" s="92"/>
-      <c r="AG63" s="92"/>
+      <c r="B63" s="149"/>
+      <c r="C63" s="149"/>
+      <c r="D63" s="149"/>
+      <c r="E63" s="149"/>
+      <c r="F63" s="149"/>
+      <c r="G63" s="149"/>
+      <c r="H63" s="149"/>
+      <c r="I63" s="149"/>
+      <c r="J63" s="149"/>
+      <c r="K63" s="149"/>
+      <c r="L63" s="149"/>
+      <c r="M63" s="149"/>
+      <c r="N63" s="149"/>
+      <c r="O63" s="149"/>
+      <c r="P63" s="149"/>
+      <c r="Q63" s="149"/>
+      <c r="R63" s="149"/>
+      <c r="S63" s="149"/>
+      <c r="T63" s="149"/>
+      <c r="U63" s="149"/>
+      <c r="V63" s="149"/>
+      <c r="W63" s="149"/>
+      <c r="X63" s="149"/>
+      <c r="Y63" s="149"/>
+      <c r="Z63" s="149"/>
+      <c r="AA63" s="149"/>
+      <c r="AB63" s="149"/>
+      <c r="AC63" s="149"/>
+      <c r="AD63" s="149"/>
+      <c r="AE63" s="149"/>
+      <c r="AF63" s="149"/>
+      <c r="AG63" s="149"/>
     </row>
     <row r="64" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="92" t="s">
+      <c r="A64" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="B64" s="92"/>
-      <c r="C64" s="92"/>
-      <c r="D64" s="92"/>
-      <c r="E64" s="92"/>
-      <c r="F64" s="92"/>
-      <c r="G64" s="92"/>
-      <c r="H64" s="92"/>
-      <c r="I64" s="92"/>
-      <c r="J64" s="92"/>
-      <c r="K64" s="92"/>
-      <c r="L64" s="92"/>
-      <c r="M64" s="92"/>
-      <c r="N64" s="92"/>
-      <c r="O64" s="92"/>
-      <c r="P64" s="92"/>
-      <c r="Q64" s="92"/>
-      <c r="R64" s="92"/>
-      <c r="S64" s="92"/>
-      <c r="T64" s="92"/>
-      <c r="U64" s="92"/>
-      <c r="V64" s="92"/>
-      <c r="W64" s="92"/>
-      <c r="X64" s="92"/>
-      <c r="Y64" s="92"/>
-      <c r="Z64" s="92"/>
-      <c r="AA64" s="92"/>
-      <c r="AB64" s="92"/>
-      <c r="AC64" s="92"/>
-      <c r="AD64" s="92"/>
-      <c r="AE64" s="92"/>
-      <c r="AF64" s="92"/>
-      <c r="AG64" s="92"/>
+      <c r="B64" s="149"/>
+      <c r="C64" s="149"/>
+      <c r="D64" s="149"/>
+      <c r="E64" s="149"/>
+      <c r="F64" s="149"/>
+      <c r="G64" s="149"/>
+      <c r="H64" s="149"/>
+      <c r="I64" s="149"/>
+      <c r="J64" s="149"/>
+      <c r="K64" s="149"/>
+      <c r="L64" s="149"/>
+      <c r="M64" s="149"/>
+      <c r="N64" s="149"/>
+      <c r="O64" s="149"/>
+      <c r="P64" s="149"/>
+      <c r="Q64" s="149"/>
+      <c r="R64" s="149"/>
+      <c r="S64" s="149"/>
+      <c r="T64" s="149"/>
+      <c r="U64" s="149"/>
+      <c r="V64" s="149"/>
+      <c r="W64" s="149"/>
+      <c r="X64" s="149"/>
+      <c r="Y64" s="149"/>
+      <c r="Z64" s="149"/>
+      <c r="AA64" s="149"/>
+      <c r="AB64" s="149"/>
+      <c r="AC64" s="149"/>
+      <c r="AD64" s="149"/>
+      <c r="AE64" s="149"/>
+      <c r="AF64" s="149"/>
+      <c r="AG64" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="AA19:AC19"/>
-    <mergeCell ref="K20:W21"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="K25:O25"/>
-    <mergeCell ref="Q25:W25"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="K18:W18"/>
-    <mergeCell ref="D19:J19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="X19:Z19"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="S24:W24"/>
-    <mergeCell ref="AA13:AC14"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="S16:W16"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="AD8:AF9"/>
-    <mergeCell ref="Y8:AC9"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="I5:Z5"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="X20:Z21"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="K22:W22"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="H54:N54"/>
+    <mergeCell ref="O54:W54"/>
+    <mergeCell ref="B55:W55"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="H52:N52"/>
+    <mergeCell ref="O52:W52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="H53:N53"/>
+    <mergeCell ref="O53:W53"/>
+    <mergeCell ref="T33:AB33"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="AA26:AC26"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="H51:N51"/>
+    <mergeCell ref="O51:W51"/>
+    <mergeCell ref="B41:W47"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="G36:AF36"/>
+    <mergeCell ref="A62:AG62"/>
+    <mergeCell ref="A63:AG63"/>
+    <mergeCell ref="A64:AG64"/>
+    <mergeCell ref="AA20:AC21"/>
+    <mergeCell ref="AD20:AD21"/>
+    <mergeCell ref="AE20:AF21"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="X26:Z26"/>
+    <mergeCell ref="AB40:AF42"/>
+    <mergeCell ref="AB47:AF47"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="T32:AB32"/>
+    <mergeCell ref="K28:W28"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="K27:W27"/>
+    <mergeCell ref="T31:AB31"/>
     <mergeCell ref="B2:AF3"/>
     <mergeCell ref="R6:W6"/>
     <mergeCell ref="B24:C28"/>
@@ -4166,56 +4173,43 @@
     <mergeCell ref="AE23:AF23"/>
     <mergeCell ref="Y10:AC11"/>
     <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="A62:AG62"/>
-    <mergeCell ref="A63:AG63"/>
-    <mergeCell ref="A64:AG64"/>
-    <mergeCell ref="AA20:AC21"/>
-    <mergeCell ref="AD20:AD21"/>
-    <mergeCell ref="AE20:AF21"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="X26:Z26"/>
-    <mergeCell ref="AB40:AF42"/>
-    <mergeCell ref="AB47:AF47"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="T32:AB32"/>
-    <mergeCell ref="K28:W28"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="K27:W27"/>
-    <mergeCell ref="T31:AB31"/>
-    <mergeCell ref="T33:AB33"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="AA26:AC26"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="H51:N51"/>
-    <mergeCell ref="O51:W51"/>
-    <mergeCell ref="B41:W47"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="G36:AF36"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="H54:N54"/>
-    <mergeCell ref="O54:W54"/>
-    <mergeCell ref="B55:W55"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="H52:N52"/>
-    <mergeCell ref="O52:W52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="H53:N53"/>
-    <mergeCell ref="O53:W53"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="S24:W24"/>
+    <mergeCell ref="AA13:AC14"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="S16:W16"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="AD8:AF9"/>
+    <mergeCell ref="Y8:AC9"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="I5:Z5"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="X20:Z21"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="K22:W22"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="AA19:AC19"/>
+    <mergeCell ref="K20:W21"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="K25:O25"/>
+    <mergeCell ref="Q25:W25"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="K18:W18"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="X19:Z19"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E11:H11" xr:uid="{7FD8B4C7-42A0-4993-86BF-E5604E228F87}"/>
@@ -4234,8 +4228,8 @@
   </sheetPr>
   <dimension ref="A1:AG65"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE27" sqref="AE27:AF27"/>
+    <sheetView view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE17" sqref="AD17:AF18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4273,163 +4267,163 @@
     <row r="1" spans="1:32" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:32" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="129"/>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="129"/>
-      <c r="R2" s="129"/>
-      <c r="S2" s="129"/>
-      <c r="T2" s="129"/>
-      <c r="U2" s="129"/>
-      <c r="V2" s="129"/>
-      <c r="W2" s="129"/>
-      <c r="X2" s="129"/>
-      <c r="Y2" s="129"/>
-      <c r="Z2" s="129"/>
-      <c r="AA2" s="129"/>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="129"/>
-      <c r="AD2" s="129"/>
-      <c r="AE2" s="129"/>
-      <c r="AF2" s="129"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="107"/>
+      <c r="V2" s="107"/>
+      <c r="W2" s="107"/>
+      <c r="X2" s="107"/>
+      <c r="Y2" s="107"/>
+      <c r="Z2" s="107"/>
+      <c r="AA2" s="107"/>
+      <c r="AB2" s="107"/>
+      <c r="AC2" s="107"/>
+      <c r="AD2" s="107"/>
+      <c r="AE2" s="107"/>
+      <c r="AF2" s="107"/>
     </row>
     <row r="3" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
-      <c r="B3" s="129"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="129"/>
-      <c r="L3" s="129"/>
-      <c r="M3" s="129"/>
-      <c r="N3" s="129"/>
-      <c r="O3" s="129"/>
-      <c r="P3" s="129"/>
-      <c r="Q3" s="129"/>
-      <c r="R3" s="129"/>
-      <c r="S3" s="129"/>
-      <c r="T3" s="129"/>
-      <c r="U3" s="129"/>
-      <c r="V3" s="129"/>
-      <c r="W3" s="129"/>
-      <c r="X3" s="129"/>
-      <c r="Y3" s="129"/>
-      <c r="Z3" s="129"/>
-      <c r="AA3" s="129"/>
-      <c r="AB3" s="129"/>
-      <c r="AC3" s="129"/>
-      <c r="AD3" s="129"/>
-      <c r="AE3" s="129"/>
-      <c r="AF3" s="129"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
+      <c r="U3" s="107"/>
+      <c r="V3" s="107"/>
+      <c r="W3" s="107"/>
+      <c r="X3" s="107"/>
+      <c r="Y3" s="107"/>
+      <c r="Z3" s="107"/>
+      <c r="AA3" s="107"/>
+      <c r="AB3" s="107"/>
+      <c r="AC3" s="107"/>
+      <c r="AD3" s="107"/>
+      <c r="AE3" s="107"/>
+      <c r="AF3" s="107"/>
     </row>
     <row r="4" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="137" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="129"/>
-      <c r="D4" s="129"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="129"/>
-      <c r="J4" s="129"/>
-      <c r="K4" s="129"/>
-      <c r="L4" s="129"/>
-      <c r="M4" s="129"/>
-      <c r="N4" s="129"/>
-      <c r="O4" s="129"/>
-      <c r="P4" s="129"/>
-      <c r="Q4" s="129"/>
-      <c r="R4" s="129"/>
-      <c r="S4" s="129"/>
-      <c r="T4" s="129"/>
-      <c r="U4" s="129"/>
-      <c r="V4" s="129"/>
-      <c r="W4" s="129"/>
-      <c r="X4" s="129"/>
-      <c r="Y4" s="129"/>
-      <c r="Z4" s="129"/>
-      <c r="AA4" s="129"/>
-      <c r="AB4" s="129"/>
-      <c r="AC4" s="129"/>
-      <c r="AD4" s="129"/>
-      <c r="AE4" s="129"/>
-      <c r="AF4" s="129"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="107"/>
+      <c r="R4" s="107"/>
+      <c r="S4" s="107"/>
+      <c r="T4" s="107"/>
+      <c r="U4" s="107"/>
+      <c r="V4" s="107"/>
+      <c r="W4" s="107"/>
+      <c r="X4" s="107"/>
+      <c r="Y4" s="107"/>
+      <c r="Z4" s="107"/>
+      <c r="AA4" s="107"/>
+      <c r="AB4" s="107"/>
+      <c r="AC4" s="107"/>
+      <c r="AD4" s="107"/>
+      <c r="AE4" s="107"/>
+      <c r="AF4" s="107"/>
     </row>
     <row r="5" spans="1:32" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="153" t="s">
+      <c r="B5" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="159" t="s">
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="129"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="129"/>
-      <c r="M5" s="129"/>
-      <c r="N5" s="129"/>
-      <c r="O5" s="129"/>
-      <c r="P5" s="129"/>
-      <c r="Q5" s="129"/>
-      <c r="R5" s="129"/>
-      <c r="S5" s="129"/>
-      <c r="T5" s="129"/>
-      <c r="U5" s="129"/>
-      <c r="V5" s="129"/>
-      <c r="W5" s="129"/>
-      <c r="X5" s="129"/>
-      <c r="Y5" s="129"/>
-      <c r="Z5" s="129"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="107"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="107"/>
+      <c r="T5" s="107"/>
+      <c r="U5" s="107"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
+      <c r="X5" s="107"/>
+      <c r="Y5" s="107"/>
+      <c r="Z5" s="107"/>
       <c r="AA5" s="7"/>
-      <c r="AB5" s="247" t="s">
+      <c r="AB5" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="AC5" s="149"/>
-      <c r="AD5" s="149"/>
-      <c r="AE5" s="149"/>
+      <c r="AC5" s="118"/>
+      <c r="AD5" s="118"/>
+      <c r="AE5" s="118"/>
       <c r="AF5" s="46" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="128" t="s">
+      <c r="B6" s="134" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -4439,35 +4433,35 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
-      <c r="R6" s="117"/>
-      <c r="S6" s="129"/>
-      <c r="T6" s="129"/>
-      <c r="U6" s="129"/>
-      <c r="V6" s="129"/>
-      <c r="W6" s="129"/>
-      <c r="X6" s="156"/>
-      <c r="Y6" s="129"/>
+      <c r="R6" s="125"/>
+      <c r="S6" s="107"/>
+      <c r="T6" s="107"/>
+      <c r="U6" s="107"/>
+      <c r="V6" s="107"/>
+      <c r="W6" s="107"/>
+      <c r="X6" s="109"/>
+      <c r="Y6" s="107"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="7"/>
-      <c r="AB6" s="152" t="s">
+      <c r="AB6" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="AC6" s="129"/>
-      <c r="AD6" s="129"/>
-      <c r="AE6" s="129"/>
+      <c r="AC6" s="107"/>
+      <c r="AD6" s="107"/>
+      <c r="AE6" s="107"/>
       <c r="AF6" s="45" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="129"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -4495,13 +4489,13 @@
     </row>
     <row r="8" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="129"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="129"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -4510,38 +4504,38 @@
       <c r="N8" s="9"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
-      <c r="Q8" s="133" t="s">
+      <c r="Q8" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="242"/>
-      <c r="S8" s="242"/>
-      <c r="T8" s="242"/>
-      <c r="U8" s="242"/>
-      <c r="V8" s="242"/>
-      <c r="W8" s="242"/>
-      <c r="X8" s="244"/>
-      <c r="Y8" s="133" t="s">
+      <c r="R8" s="199"/>
+      <c r="S8" s="199"/>
+      <c r="T8" s="199"/>
+      <c r="U8" s="199"/>
+      <c r="V8" s="199"/>
+      <c r="W8" s="199"/>
+      <c r="X8" s="201"/>
+      <c r="Y8" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="Z8" s="242"/>
-      <c r="AA8" s="242"/>
-      <c r="AB8" s="242"/>
-      <c r="AC8" s="244"/>
-      <c r="AD8" s="133" t="s">
+      <c r="Z8" s="199"/>
+      <c r="AA8" s="199"/>
+      <c r="AB8" s="199"/>
+      <c r="AC8" s="201"/>
+      <c r="AD8" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="AE8" s="242"/>
-      <c r="AF8" s="244"/>
+      <c r="AE8" s="199"/>
+      <c r="AF8" s="201"/>
     </row>
     <row r="9" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="129"/>
-      <c r="C9" s="129"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="129"/>
-      <c r="F9" s="129"/>
-      <c r="G9" s="129"/>
-      <c r="H9" s="129"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -4550,22 +4544,22 @@
       <c r="N9" s="9"/>
       <c r="O9" s="6"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="245"/>
-      <c r="R9" s="243"/>
-      <c r="S9" s="243"/>
-      <c r="T9" s="243"/>
-      <c r="U9" s="243"/>
-      <c r="V9" s="243"/>
-      <c r="W9" s="243"/>
-      <c r="X9" s="246"/>
-      <c r="Y9" s="245"/>
-      <c r="Z9" s="243"/>
-      <c r="AA9" s="243"/>
-      <c r="AB9" s="243"/>
-      <c r="AC9" s="246"/>
-      <c r="AD9" s="245"/>
-      <c r="AE9" s="243"/>
-      <c r="AF9" s="246"/>
+      <c r="Q9" s="202"/>
+      <c r="R9" s="200"/>
+      <c r="S9" s="200"/>
+      <c r="T9" s="200"/>
+      <c r="U9" s="200"/>
+      <c r="V9" s="200"/>
+      <c r="W9" s="200"/>
+      <c r="X9" s="203"/>
+      <c r="Y9" s="202"/>
+      <c r="Z9" s="200"/>
+      <c r="AA9" s="200"/>
+      <c r="AB9" s="200"/>
+      <c r="AC9" s="203"/>
+      <c r="AD9" s="202"/>
+      <c r="AE9" s="200"/>
+      <c r="AF9" s="203"/>
     </row>
     <row r="10" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -4587,41 +4581,41 @@
       <c r="Q10" s="144">
         <v>44986</v>
       </c>
-      <c r="R10" s="134"/>
-      <c r="S10" s="134"/>
-      <c r="T10" s="134"/>
-      <c r="U10" s="134"/>
-      <c r="V10" s="134"/>
-      <c r="W10" s="134"/>
-      <c r="X10" s="135"/>
-      <c r="Y10" s="148">
+      <c r="R10" s="113"/>
+      <c r="S10" s="113"/>
+      <c r="T10" s="113"/>
+      <c r="U10" s="113"/>
+      <c r="V10" s="113"/>
+      <c r="W10" s="113"/>
+      <c r="X10" s="114"/>
+      <c r="Y10" s="147">
         <v>0</v>
       </c>
-      <c r="Z10" s="134"/>
-      <c r="AA10" s="134"/>
-      <c r="AB10" s="134"/>
-      <c r="AC10" s="135"/>
-      <c r="AD10" s="139" t="s">
+      <c r="Z10" s="113"/>
+      <c r="AA10" s="113"/>
+      <c r="AB10" s="113"/>
+      <c r="AC10" s="114"/>
+      <c r="AD10" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="AE10" s="134"/>
-      <c r="AF10" s="135"/>
+      <c r="AE10" s="113"/>
+      <c r="AF10" s="114"/>
     </row>
     <row r="11" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="153" t="s">
+      <c r="B11" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="129"/>
+      <c r="C11" s="107"/>
       <c r="D11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="153" t="s">
+      <c r="E11" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="129"/>
-      <c r="G11" s="129"/>
-      <c r="H11" s="129"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -4630,22 +4624,22 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="136"/>
-      <c r="R11" s="137"/>
-      <c r="S11" s="137"/>
-      <c r="T11" s="137"/>
-      <c r="U11" s="137"/>
-      <c r="V11" s="137"/>
-      <c r="W11" s="137"/>
-      <c r="X11" s="138"/>
-      <c r="Y11" s="136"/>
-      <c r="Z11" s="137"/>
-      <c r="AA11" s="137"/>
-      <c r="AB11" s="137"/>
-      <c r="AC11" s="138"/>
-      <c r="AD11" s="136"/>
-      <c r="AE11" s="137"/>
-      <c r="AF11" s="138"/>
+      <c r="Q11" s="115"/>
+      <c r="R11" s="116"/>
+      <c r="S11" s="116"/>
+      <c r="T11" s="116"/>
+      <c r="U11" s="116"/>
+      <c r="V11" s="116"/>
+      <c r="W11" s="116"/>
+      <c r="X11" s="117"/>
+      <c r="Y11" s="115"/>
+      <c r="Z11" s="116"/>
+      <c r="AA11" s="116"/>
+      <c r="AB11" s="116"/>
+      <c r="AC11" s="117"/>
+      <c r="AD11" s="115"/>
+      <c r="AE11" s="116"/>
+      <c r="AF11" s="117"/>
     </row>
     <row r="12" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -4686,72 +4680,72 @@
       <c r="B13" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="242"/>
-      <c r="D13" s="242"/>
-      <c r="E13" s="242"/>
-      <c r="F13" s="242"/>
-      <c r="G13" s="242"/>
-      <c r="H13" s="242"/>
-      <c r="I13" s="242"/>
-      <c r="J13" s="242"/>
-      <c r="K13" s="242"/>
-      <c r="L13" s="242"/>
-      <c r="M13" s="242"/>
-      <c r="N13" s="242"/>
-      <c r="O13" s="242"/>
-      <c r="P13" s="242"/>
-      <c r="Q13" s="242"/>
-      <c r="R13" s="242"/>
-      <c r="S13" s="242"/>
-      <c r="T13" s="242"/>
-      <c r="U13" s="242"/>
-      <c r="V13" s="242"/>
-      <c r="W13" s="242"/>
-      <c r="X13" s="242"/>
-      <c r="Y13" s="242"/>
-      <c r="Z13" s="242"/>
-      <c r="AA13" s="242"/>
-      <c r="AB13" s="242"/>
+      <c r="C13" s="199"/>
+      <c r="D13" s="199"/>
+      <c r="E13" s="199"/>
+      <c r="F13" s="199"/>
+      <c r="G13" s="199"/>
+      <c r="H13" s="199"/>
+      <c r="I13" s="199"/>
+      <c r="J13" s="199"/>
+      <c r="K13" s="199"/>
+      <c r="L13" s="199"/>
+      <c r="M13" s="199"/>
+      <c r="N13" s="199"/>
+      <c r="O13" s="199"/>
+      <c r="P13" s="199"/>
+      <c r="Q13" s="199"/>
+      <c r="R13" s="199"/>
+      <c r="S13" s="199"/>
+      <c r="T13" s="199"/>
+      <c r="U13" s="199"/>
+      <c r="V13" s="199"/>
+      <c r="W13" s="199"/>
+      <c r="X13" s="199"/>
+      <c r="Y13" s="199"/>
+      <c r="Z13" s="199"/>
+      <c r="AA13" s="199"/>
+      <c r="AB13" s="199"/>
       <c r="AC13" s="33"/>
       <c r="AD13" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="AE13" s="242"/>
-      <c r="AF13" s="242"/>
+      <c r="AE13" s="199"/>
+      <c r="AF13" s="199"/>
     </row>
     <row r="14" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="B14" s="243"/>
-      <c r="C14" s="243"/>
-      <c r="D14" s="243"/>
-      <c r="E14" s="243"/>
-      <c r="F14" s="243"/>
-      <c r="G14" s="243"/>
-      <c r="H14" s="243"/>
-      <c r="I14" s="243"/>
-      <c r="J14" s="243"/>
-      <c r="K14" s="243"/>
-      <c r="L14" s="243"/>
-      <c r="M14" s="243"/>
-      <c r="N14" s="243"/>
-      <c r="O14" s="243"/>
-      <c r="P14" s="243"/>
-      <c r="Q14" s="243"/>
-      <c r="R14" s="243"/>
-      <c r="S14" s="243"/>
-      <c r="T14" s="243"/>
-      <c r="U14" s="243"/>
-      <c r="V14" s="243"/>
-      <c r="W14" s="243"/>
-      <c r="X14" s="243"/>
-      <c r="Y14" s="243"/>
-      <c r="Z14" s="243"/>
-      <c r="AA14" s="243"/>
-      <c r="AB14" s="243"/>
+      <c r="B14" s="200"/>
+      <c r="C14" s="200"/>
+      <c r="D14" s="200"/>
+      <c r="E14" s="200"/>
+      <c r="F14" s="200"/>
+      <c r="G14" s="200"/>
+      <c r="H14" s="200"/>
+      <c r="I14" s="200"/>
+      <c r="J14" s="200"/>
+      <c r="K14" s="200"/>
+      <c r="L14" s="200"/>
+      <c r="M14" s="200"/>
+      <c r="N14" s="200"/>
+      <c r="O14" s="200"/>
+      <c r="P14" s="200"/>
+      <c r="Q14" s="200"/>
+      <c r="R14" s="200"/>
+      <c r="S14" s="200"/>
+      <c r="T14" s="200"/>
+      <c r="U14" s="200"/>
+      <c r="V14" s="200"/>
+      <c r="W14" s="200"/>
+      <c r="X14" s="200"/>
+      <c r="Y14" s="200"/>
+      <c r="Z14" s="200"/>
+      <c r="AA14" s="200"/>
+      <c r="AB14" s="200"/>
       <c r="AC14" s="34"/>
-      <c r="AD14" s="243"/>
-      <c r="AE14" s="243"/>
-      <c r="AF14" s="243"/>
+      <c r="AD14" s="200"/>
+      <c r="AE14" s="200"/>
+      <c r="AF14" s="200"/>
     </row>
     <row r="15" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -4788,84 +4782,84 @@
       <c r="AF15" s="14"/>
     </row>
     <row r="16" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="99"/>
-      <c r="B16" s="130" t="s">
+      <c r="A16" s="74"/>
+      <c r="B16" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="209"/>
-      <c r="D16" s="209"/>
-      <c r="E16" s="210"/>
-      <c r="F16" s="239" t="s">
+      <c r="C16" s="180"/>
+      <c r="D16" s="180"/>
+      <c r="E16" s="204"/>
+      <c r="F16" s="223" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="237"/>
-      <c r="H16" s="237"/>
-      <c r="I16" s="237"/>
-      <c r="J16" s="238"/>
-      <c r="K16" s="248" t="s">
+      <c r="G16" s="184"/>
+      <c r="H16" s="184"/>
+      <c r="I16" s="184"/>
+      <c r="J16" s="185"/>
+      <c r="K16" s="183" t="s">
         <v>40</v>
       </c>
-      <c r="L16" s="237"/>
-      <c r="M16" s="237"/>
-      <c r="N16" s="237"/>
-      <c r="O16" s="237"/>
-      <c r="P16" s="237"/>
-      <c r="Q16" s="237"/>
-      <c r="R16" s="237"/>
-      <c r="S16" s="237"/>
-      <c r="T16" s="237"/>
-      <c r="U16" s="237"/>
-      <c r="V16" s="237"/>
-      <c r="W16" s="237"/>
-      <c r="X16" s="237"/>
-      <c r="Y16" s="237"/>
-      <c r="Z16" s="237"/>
-      <c r="AA16" s="237"/>
-      <c r="AB16" s="238"/>
+      <c r="L16" s="184"/>
+      <c r="M16" s="184"/>
+      <c r="N16" s="184"/>
+      <c r="O16" s="184"/>
+      <c r="P16" s="184"/>
+      <c r="Q16" s="184"/>
+      <c r="R16" s="184"/>
+      <c r="S16" s="184"/>
+      <c r="T16" s="184"/>
+      <c r="U16" s="184"/>
+      <c r="V16" s="184"/>
+      <c r="W16" s="184"/>
+      <c r="X16" s="184"/>
+      <c r="Y16" s="184"/>
+      <c r="Z16" s="184"/>
+      <c r="AA16" s="184"/>
+      <c r="AB16" s="185"/>
       <c r="AC16" s="38"/>
       <c r="AD16" s="42"/>
-      <c r="AE16" s="149"/>
-      <c r="AF16" s="205"/>
+      <c r="AE16" s="118"/>
+      <c r="AF16" s="178"/>
     </row>
     <row r="17" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="99"/>
-      <c r="B17" s="232"/>
-      <c r="C17" s="212"/>
-      <c r="D17" s="212"/>
-      <c r="E17" s="213"/>
-      <c r="F17" s="222" t="s">
+      <c r="A17" s="74"/>
+      <c r="B17" s="220"/>
+      <c r="C17" s="206"/>
+      <c r="D17" s="206"/>
+      <c r="E17" s="207"/>
+      <c r="F17" s="214" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="223"/>
-      <c r="H17" s="223"/>
-      <c r="I17" s="223"/>
-      <c r="J17" s="224"/>
-      <c r="K17" s="228" t="s">
+      <c r="G17" s="215"/>
+      <c r="H17" s="215"/>
+      <c r="I17" s="215"/>
+      <c r="J17" s="216"/>
+      <c r="K17" s="176" t="s">
         <v>41</v>
       </c>
-      <c r="L17" s="229"/>
-      <c r="M17" s="229"/>
-      <c r="N17" s="229"/>
-      <c r="O17" s="229"/>
-      <c r="P17" s="229"/>
-      <c r="Q17" s="229"/>
-      <c r="R17" s="252" t="s">
+      <c r="L17" s="177"/>
+      <c r="M17" s="177"/>
+      <c r="N17" s="177"/>
+      <c r="O17" s="177"/>
+      <c r="P17" s="177"/>
+      <c r="Q17" s="177"/>
+      <c r="R17" s="181" t="s">
         <v>32</v>
       </c>
-      <c r="S17" s="230" t="s">
+      <c r="S17" s="187" t="s">
         <v>42</v>
       </c>
-      <c r="T17" s="230"/>
-      <c r="U17" s="230"/>
-      <c r="V17" s="230"/>
-      <c r="W17" s="230"/>
-      <c r="X17" s="230"/>
-      <c r="Y17" s="230"/>
-      <c r="Z17" s="230"/>
-      <c r="AA17" s="230"/>
-      <c r="AB17" s="231"/>
+      <c r="T17" s="187"/>
+      <c r="U17" s="187"/>
+      <c r="V17" s="187"/>
+      <c r="W17" s="187"/>
+      <c r="X17" s="187"/>
+      <c r="Y17" s="187"/>
+      <c r="Z17" s="187"/>
+      <c r="AA17" s="187"/>
+      <c r="AB17" s="188"/>
       <c r="AC17" s="38"/>
-      <c r="AD17" s="190" t="s">
+      <c r="AD17" s="150" t="s">
         <v>17</v>
       </c>
       <c r="AE17" s="253">
@@ -4875,86 +4869,86 @@
       <c r="AF17" s="253"/>
     </row>
     <row r="18" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="129"/>
-      <c r="B18" s="214"/>
-      <c r="C18" s="205"/>
-      <c r="D18" s="205"/>
-      <c r="E18" s="213"/>
-      <c r="F18" s="225"/>
-      <c r="G18" s="226"/>
-      <c r="H18" s="226"/>
-      <c r="I18" s="226"/>
-      <c r="J18" s="227"/>
-      <c r="K18" s="154">
+      <c r="A18" s="107"/>
+      <c r="B18" s="208"/>
+      <c r="C18" s="178"/>
+      <c r="D18" s="178"/>
+      <c r="E18" s="207"/>
+      <c r="F18" s="217"/>
+      <c r="G18" s="218"/>
+      <c r="H18" s="218"/>
+      <c r="I18" s="218"/>
+      <c r="J18" s="219"/>
+      <c r="K18" s="89">
         <v>16000</v>
       </c>
-      <c r="L18" s="209"/>
-      <c r="M18" s="209"/>
-      <c r="N18" s="209"/>
-      <c r="O18" s="209"/>
-      <c r="P18" s="209"/>
-      <c r="Q18" s="209"/>
-      <c r="R18" s="252"/>
-      <c r="S18" s="168">
+      <c r="L18" s="180"/>
+      <c r="M18" s="180"/>
+      <c r="N18" s="180"/>
+      <c r="O18" s="180"/>
+      <c r="P18" s="180"/>
+      <c r="Q18" s="180"/>
+      <c r="R18" s="181"/>
+      <c r="S18" s="82">
         <v>68.69</v>
       </c>
-      <c r="T18" s="209"/>
-      <c r="U18" s="209"/>
-      <c r="V18" s="209"/>
-      <c r="W18" s="209"/>
-      <c r="X18" s="209"/>
-      <c r="Y18" s="209"/>
-      <c r="Z18" s="209"/>
-      <c r="AA18" s="209"/>
-      <c r="AB18" s="210"/>
+      <c r="T18" s="180"/>
+      <c r="U18" s="180"/>
+      <c r="V18" s="180"/>
+      <c r="W18" s="180"/>
+      <c r="X18" s="180"/>
+      <c r="Y18" s="180"/>
+      <c r="Z18" s="180"/>
+      <c r="AA18" s="180"/>
+      <c r="AB18" s="204"/>
       <c r="AC18" s="38"/>
-      <c r="AD18" s="190"/>
+      <c r="AD18" s="150"/>
       <c r="AE18" s="253"/>
       <c r="AF18" s="253"/>
     </row>
     <row r="19" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="215"/>
-      <c r="C19" s="206"/>
-      <c r="D19" s="206"/>
-      <c r="E19" s="216"/>
-      <c r="F19" s="143" t="s">
+      <c r="B19" s="209"/>
+      <c r="C19" s="210"/>
+      <c r="D19" s="210"/>
+      <c r="E19" s="211"/>
+      <c r="F19" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="234"/>
-      <c r="H19" s="234"/>
-      <c r="I19" s="234"/>
-      <c r="J19" s="235"/>
-      <c r="K19" s="217">
+      <c r="G19" s="191"/>
+      <c r="H19" s="191"/>
+      <c r="I19" s="191"/>
+      <c r="J19" s="193"/>
+      <c r="K19" s="194">
         <f>ROUND(AE17*11%,0)</f>
         <v>120894</v>
       </c>
-      <c r="L19" s="218"/>
-      <c r="M19" s="218"/>
-      <c r="N19" s="218"/>
-      <c r="O19" s="218"/>
-      <c r="P19" s="218"/>
-      <c r="Q19" s="218"/>
-      <c r="R19" s="218"/>
-      <c r="S19" s="218"/>
-      <c r="T19" s="218"/>
-      <c r="U19" s="218"/>
-      <c r="V19" s="218"/>
-      <c r="W19" s="218"/>
-      <c r="X19" s="218"/>
-      <c r="Y19" s="218"/>
-      <c r="Z19" s="218"/>
-      <c r="AA19" s="218"/>
-      <c r="AB19" s="219"/>
+      <c r="L19" s="195"/>
+      <c r="M19" s="195"/>
+      <c r="N19" s="195"/>
+      <c r="O19" s="195"/>
+      <c r="P19" s="195"/>
+      <c r="Q19" s="195"/>
+      <c r="R19" s="195"/>
+      <c r="S19" s="195"/>
+      <c r="T19" s="195"/>
+      <c r="U19" s="195"/>
+      <c r="V19" s="195"/>
+      <c r="W19" s="195"/>
+      <c r="X19" s="195"/>
+      <c r="Y19" s="195"/>
+      <c r="Z19" s="195"/>
+      <c r="AA19" s="195"/>
+      <c r="AB19" s="196"/>
       <c r="AC19" s="38"/>
       <c r="AD19" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE19" s="240">
+      <c r="AE19" s="197">
         <f>K19</f>
         <v>120894</v>
       </c>
-      <c r="AF19" s="241"/>
+      <c r="AF19" s="198"/>
     </row>
     <row r="20" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
@@ -4962,24 +4956,24 @@
       <c r="C20" s="11"/>
       <c r="D20" s="68"/>
       <c r="E20" s="38"/>
-      <c r="F20" s="221"/>
-      <c r="G20" s="205"/>
-      <c r="H20" s="205"/>
-      <c r="I20" s="205"/>
+      <c r="F20" s="213"/>
+      <c r="G20" s="178"/>
+      <c r="H20" s="178"/>
+      <c r="I20" s="178"/>
       <c r="J20" s="52"/>
-      <c r="K20" s="255"/>
-      <c r="L20" s="205"/>
-      <c r="M20" s="205"/>
-      <c r="N20" s="205"/>
-      <c r="O20" s="160"/>
-      <c r="P20" s="205"/>
-      <c r="Q20" s="254"/>
-      <c r="R20" s="205"/>
-      <c r="S20" s="205"/>
-      <c r="T20" s="205"/>
-      <c r="U20" s="205"/>
-      <c r="V20" s="205"/>
-      <c r="W20" s="205"/>
+      <c r="K20" s="186"/>
+      <c r="L20" s="178"/>
+      <c r="M20" s="178"/>
+      <c r="N20" s="178"/>
+      <c r="O20" s="86"/>
+      <c r="P20" s="178"/>
+      <c r="Q20" s="182"/>
+      <c r="R20" s="178"/>
+      <c r="S20" s="178"/>
+      <c r="T20" s="178"/>
+      <c r="U20" s="178"/>
+      <c r="V20" s="178"/>
+      <c r="W20" s="178"/>
       <c r="X20" s="52"/>
       <c r="Y20" s="52"/>
       <c r="Z20" s="52"/>
@@ -4989,207 +4983,207 @@
       <c r="AD20" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE20" s="251">
+      <c r="AE20" s="179">
         <f>AE17+AE19</f>
         <v>1219934</v>
       </c>
-      <c r="AF20" s="209"/>
+      <c r="AF20" s="180"/>
     </row>
     <row r="21" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="118" t="s">
+      <c r="B21" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="209"/>
-      <c r="D21" s="209"/>
-      <c r="E21" s="210"/>
-      <c r="F21" s="236" t="s">
+      <c r="C21" s="180"/>
+      <c r="D21" s="180"/>
+      <c r="E21" s="204"/>
+      <c r="F21" s="222" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="237"/>
-      <c r="H21" s="237"/>
-      <c r="I21" s="237"/>
-      <c r="J21" s="238"/>
-      <c r="K21" s="248" t="s">
+      <c r="G21" s="184"/>
+      <c r="H21" s="184"/>
+      <c r="I21" s="184"/>
+      <c r="J21" s="185"/>
+      <c r="K21" s="183" t="s">
         <v>40</v>
       </c>
-      <c r="L21" s="237"/>
-      <c r="M21" s="237"/>
-      <c r="N21" s="237"/>
-      <c r="O21" s="237"/>
-      <c r="P21" s="237"/>
-      <c r="Q21" s="237"/>
-      <c r="R21" s="237"/>
-      <c r="S21" s="237"/>
-      <c r="T21" s="237"/>
-      <c r="U21" s="237"/>
-      <c r="V21" s="237"/>
-      <c r="W21" s="237"/>
-      <c r="X21" s="237"/>
-      <c r="Y21" s="237"/>
-      <c r="Z21" s="237"/>
-      <c r="AA21" s="237"/>
-      <c r="AB21" s="238"/>
+      <c r="L21" s="184"/>
+      <c r="M21" s="184"/>
+      <c r="N21" s="184"/>
+      <c r="O21" s="184"/>
+      <c r="P21" s="184"/>
+      <c r="Q21" s="184"/>
+      <c r="R21" s="184"/>
+      <c r="S21" s="184"/>
+      <c r="T21" s="184"/>
+      <c r="U21" s="184"/>
+      <c r="V21" s="184"/>
+      <c r="W21" s="184"/>
+      <c r="X21" s="184"/>
+      <c r="Y21" s="184"/>
+      <c r="Z21" s="184"/>
+      <c r="AA21" s="184"/>
+      <c r="AB21" s="185"/>
       <c r="AC21" s="18"/>
       <c r="AD21" s="42"/>
-      <c r="AE21" s="95"/>
-      <c r="AF21" s="205"/>
+      <c r="AE21" s="151"/>
+      <c r="AF21" s="178"/>
     </row>
     <row r="22" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="211"/>
-      <c r="C22" s="212"/>
-      <c r="D22" s="212"/>
-      <c r="E22" s="213"/>
-      <c r="F22" s="182" t="s">
+      <c r="B22" s="205"/>
+      <c r="C22" s="206"/>
+      <c r="D22" s="206"/>
+      <c r="E22" s="207"/>
+      <c r="F22" s="233" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="183"/>
-      <c r="H22" s="183"/>
-      <c r="I22" s="183"/>
-      <c r="J22" s="184"/>
-      <c r="K22" s="228" t="s">
+      <c r="G22" s="234"/>
+      <c r="H22" s="234"/>
+      <c r="I22" s="234"/>
+      <c r="J22" s="235"/>
+      <c r="K22" s="176" t="s">
         <v>41</v>
       </c>
-      <c r="L22" s="229"/>
-      <c r="M22" s="229"/>
-      <c r="N22" s="229"/>
-      <c r="O22" s="229"/>
-      <c r="P22" s="229"/>
-      <c r="Q22" s="229"/>
-      <c r="R22" s="188" t="s">
+      <c r="L22" s="177"/>
+      <c r="M22" s="177"/>
+      <c r="N22" s="177"/>
+      <c r="O22" s="177"/>
+      <c r="P22" s="177"/>
+      <c r="Q22" s="177"/>
+      <c r="R22" s="239" t="s">
         <v>32</v>
       </c>
-      <c r="S22" s="230" t="s">
+      <c r="S22" s="187" t="s">
         <v>42</v>
       </c>
-      <c r="T22" s="230"/>
-      <c r="U22" s="230"/>
-      <c r="V22" s="230"/>
-      <c r="W22" s="230"/>
-      <c r="X22" s="230"/>
-      <c r="Y22" s="230"/>
-      <c r="Z22" s="230"/>
-      <c r="AA22" s="230"/>
-      <c r="AB22" s="231"/>
+      <c r="T22" s="187"/>
+      <c r="U22" s="187"/>
+      <c r="V22" s="187"/>
+      <c r="W22" s="187"/>
+      <c r="X22" s="187"/>
+      <c r="Y22" s="187"/>
+      <c r="Z22" s="187"/>
+      <c r="AA22" s="187"/>
+      <c r="AB22" s="188"/>
       <c r="AC22" s="18"/>
-      <c r="AD22" s="190" t="s">
+      <c r="AD22" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="AE22" s="191">
+      <c r="AE22" s="146">
         <f>K23*S23</f>
         <v>109904</v>
       </c>
-      <c r="AF22" s="191"/>
+      <c r="AF22" s="146"/>
     </row>
     <row r="23" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="214"/>
-      <c r="C23" s="205"/>
-      <c r="D23" s="205"/>
-      <c r="E23" s="213"/>
-      <c r="F23" s="185"/>
-      <c r="G23" s="186"/>
-      <c r="H23" s="186"/>
-      <c r="I23" s="186"/>
-      <c r="J23" s="187"/>
-      <c r="K23" s="249">
+      <c r="B23" s="208"/>
+      <c r="C23" s="178"/>
+      <c r="D23" s="178"/>
+      <c r="E23" s="207"/>
+      <c r="F23" s="236"/>
+      <c r="G23" s="237"/>
+      <c r="H23" s="237"/>
+      <c r="I23" s="237"/>
+      <c r="J23" s="238"/>
+      <c r="K23" s="190">
         <f>IF(K18&lt;&gt;0,K18*10%,VLOOKUP(E11,[1]!SCSF_Billings[#Data],6,FALSE))</f>
         <v>1600</v>
       </c>
-      <c r="L23" s="234"/>
-      <c r="M23" s="234"/>
-      <c r="N23" s="234"/>
-      <c r="O23" s="234"/>
-      <c r="P23" s="234"/>
-      <c r="Q23" s="234"/>
-      <c r="R23" s="189"/>
-      <c r="S23" s="233">
+      <c r="L23" s="191"/>
+      <c r="M23" s="191"/>
+      <c r="N23" s="191"/>
+      <c r="O23" s="191"/>
+      <c r="P23" s="191"/>
+      <c r="Q23" s="191"/>
+      <c r="R23" s="240"/>
+      <c r="S23" s="221">
         <f>S18</f>
         <v>68.69</v>
       </c>
-      <c r="T23" s="234"/>
-      <c r="U23" s="234"/>
-      <c r="V23" s="234"/>
-      <c r="W23" s="234"/>
-      <c r="X23" s="234"/>
-      <c r="Y23" s="234"/>
-      <c r="Z23" s="234"/>
-      <c r="AA23" s="234"/>
-      <c r="AB23" s="235"/>
+      <c r="T23" s="191"/>
+      <c r="U23" s="191"/>
+      <c r="V23" s="191"/>
+      <c r="W23" s="191"/>
+      <c r="X23" s="191"/>
+      <c r="Y23" s="191"/>
+      <c r="Z23" s="191"/>
+      <c r="AA23" s="191"/>
+      <c r="AB23" s="193"/>
       <c r="AC23" s="18"/>
-      <c r="AD23" s="190"/>
-      <c r="AE23" s="191"/>
-      <c r="AF23" s="191"/>
+      <c r="AD23" s="150"/>
+      <c r="AE23" s="146"/>
+      <c r="AF23" s="146"/>
     </row>
     <row r="24" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="215"/>
-      <c r="C24" s="206"/>
-      <c r="D24" s="206"/>
-      <c r="E24" s="216"/>
-      <c r="F24" s="250" t="s">
+      <c r="B24" s="209"/>
+      <c r="C24" s="210"/>
+      <c r="D24" s="210"/>
+      <c r="E24" s="211"/>
+      <c r="F24" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="234"/>
-      <c r="H24" s="234"/>
-      <c r="I24" s="234"/>
-      <c r="J24" s="235"/>
-      <c r="K24" s="217">
+      <c r="G24" s="191"/>
+      <c r="H24" s="191"/>
+      <c r="I24" s="191"/>
+      <c r="J24" s="193"/>
+      <c r="K24" s="194">
         <f>ROUND(AE22*11%,0)</f>
         <v>12089</v>
       </c>
-      <c r="L24" s="218"/>
-      <c r="M24" s="218"/>
-      <c r="N24" s="218"/>
-      <c r="O24" s="218"/>
-      <c r="P24" s="218"/>
-      <c r="Q24" s="218"/>
-      <c r="R24" s="218"/>
-      <c r="S24" s="218"/>
-      <c r="T24" s="218"/>
-      <c r="U24" s="218"/>
-      <c r="V24" s="218"/>
-      <c r="W24" s="218"/>
-      <c r="X24" s="218"/>
-      <c r="Y24" s="218"/>
-      <c r="Z24" s="218"/>
-      <c r="AA24" s="218"/>
-      <c r="AB24" s="219"/>
+      <c r="L24" s="195"/>
+      <c r="M24" s="195"/>
+      <c r="N24" s="195"/>
+      <c r="O24" s="195"/>
+      <c r="P24" s="195"/>
+      <c r="Q24" s="195"/>
+      <c r="R24" s="195"/>
+      <c r="S24" s="195"/>
+      <c r="T24" s="195"/>
+      <c r="U24" s="195"/>
+      <c r="V24" s="195"/>
+      <c r="W24" s="195"/>
+      <c r="X24" s="195"/>
+      <c r="Y24" s="195"/>
+      <c r="Z24" s="195"/>
+      <c r="AA24" s="195"/>
+      <c r="AB24" s="196"/>
       <c r="AC24" s="18"/>
       <c r="AD24" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE24" s="115">
+      <c r="AE24" s="160">
         <f>K24</f>
         <v>12089</v>
       </c>
-      <c r="AF24" s="206"/>
-    </row>
-    <row r="25" spans="1:32" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="99"/>
+      <c r="AF24" s="210"/>
+    </row>
+    <row r="25" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="74"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>
-      <c r="F25" s="220"/>
-      <c r="G25" s="206"/>
-      <c r="H25" s="206"/>
-      <c r="I25" s="206"/>
+      <c r="F25" s="212"/>
+      <c r="G25" s="210"/>
+      <c r="H25" s="210"/>
+      <c r="I25" s="210"/>
       <c r="J25" s="69"/>
-      <c r="K25" s="207"/>
-      <c r="L25" s="206"/>
-      <c r="M25" s="206"/>
-      <c r="N25" s="206"/>
-      <c r="O25" s="206"/>
-      <c r="P25" s="206"/>
-      <c r="Q25" s="206"/>
-      <c r="R25" s="206"/>
-      <c r="S25" s="206"/>
-      <c r="T25" s="206"/>
-      <c r="U25" s="206"/>
-      <c r="V25" s="206"/>
-      <c r="W25" s="206"/>
+      <c r="K25" s="224"/>
+      <c r="L25" s="210"/>
+      <c r="M25" s="210"/>
+      <c r="N25" s="210"/>
+      <c r="O25" s="210"/>
+      <c r="P25" s="210"/>
+      <c r="Q25" s="210"/>
+      <c r="R25" s="210"/>
+      <c r="S25" s="210"/>
+      <c r="T25" s="210"/>
+      <c r="U25" s="210"/>
+      <c r="V25" s="210"/>
+      <c r="W25" s="210"/>
       <c r="X25" s="36"/>
       <c r="Y25" s="36"/>
       <c r="Z25" s="36"/>
@@ -5199,14 +5193,14 @@
       <c r="AD25" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="AE25" s="203">
+      <c r="AE25" s="231">
         <f>AE22+AE24</f>
         <v>121993</v>
       </c>
-      <c r="AF25" s="204"/>
+      <c r="AF25" s="232"/>
     </row>
     <row r="26" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="129"/>
+      <c r="A26" s="107"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
@@ -5240,7 +5234,7 @@
       <c r="AF26" s="59"/>
     </row>
     <row r="27" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="129"/>
+      <c r="A27" s="107"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="52"/>
@@ -5259,29 +5253,29 @@
       <c r="Q27" s="52"/>
       <c r="R27" s="52"/>
       <c r="S27" s="52"/>
-      <c r="T27" s="106" t="s">
+      <c r="T27" s="154" t="s">
         <v>74</v>
       </c>
-      <c r="U27" s="205"/>
-      <c r="V27" s="205"/>
-      <c r="W27" s="205"/>
-      <c r="X27" s="205"/>
-      <c r="Y27" s="205"/>
-      <c r="Z27" s="205"/>
-      <c r="AA27" s="205"/>
-      <c r="AB27" s="205"/>
+      <c r="U27" s="178"/>
+      <c r="V27" s="178"/>
+      <c r="W27" s="178"/>
+      <c r="X27" s="178"/>
+      <c r="Y27" s="178"/>
+      <c r="Z27" s="178"/>
+      <c r="AA27" s="178"/>
+      <c r="AB27" s="178"/>
       <c r="AC27" s="18"/>
       <c r="AD27" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE27" s="208">
+      <c r="AE27" s="227">
         <f>AE20*5%</f>
         <v>60996.700000000004</v>
       </c>
-      <c r="AF27" s="202"/>
+      <c r="AF27" s="226"/>
     </row>
     <row r="28" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="129"/>
+      <c r="A28" s="107"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="52"/>
@@ -5300,28 +5294,28 @@
       <c r="Q28" s="52"/>
       <c r="R28" s="52"/>
       <c r="S28" s="52"/>
-      <c r="T28" s="106" t="s">
+      <c r="T28" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="U28" s="80"/>
-      <c r="V28" s="80"/>
-      <c r="W28" s="80"/>
-      <c r="X28" s="80"/>
-      <c r="Y28" s="80"/>
-      <c r="Z28" s="80"/>
-      <c r="AA28" s="80"/>
-      <c r="AB28" s="80"/>
+      <c r="U28" s="119"/>
+      <c r="V28" s="119"/>
+      <c r="W28" s="119"/>
+      <c r="X28" s="119"/>
+      <c r="Y28" s="119"/>
+      <c r="Z28" s="119"/>
+      <c r="AA28" s="119"/>
+      <c r="AB28" s="119"/>
       <c r="AC28" s="28"/>
       <c r="AD28" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE28" s="201">
+      <c r="AE28" s="225">
         <v>0</v>
       </c>
-      <c r="AF28" s="202"/>
+      <c r="AF28" s="226"/>
     </row>
     <row r="29" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="129"/>
+      <c r="A29" s="107"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -5340,25 +5334,25 @@
       <c r="Q29" s="9"/>
       <c r="R29" s="9"/>
       <c r="S29" s="9"/>
-      <c r="T29" s="106" t="s">
+      <c r="T29" s="154" t="s">
         <v>22</v>
       </c>
-      <c r="U29" s="205"/>
-      <c r="V29" s="205"/>
-      <c r="W29" s="205"/>
-      <c r="X29" s="205"/>
-      <c r="Y29" s="205"/>
-      <c r="Z29" s="205"/>
-      <c r="AA29" s="205"/>
-      <c r="AB29" s="205"/>
+      <c r="U29" s="178"/>
+      <c r="V29" s="178"/>
+      <c r="W29" s="178"/>
+      <c r="X29" s="178"/>
+      <c r="Y29" s="178"/>
+      <c r="Z29" s="178"/>
+      <c r="AA29" s="178"/>
+      <c r="AB29" s="178"/>
       <c r="AC29" s="28"/>
       <c r="AD29" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE29" s="201">
+      <c r="AE29" s="225">
         <v>10000</v>
       </c>
-      <c r="AF29" s="202"/>
+      <c r="AF29" s="226"/>
     </row>
     <row r="30" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
@@ -5380,26 +5374,26 @@
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
       <c r="S30" s="19"/>
-      <c r="T30" s="79" t="s">
+      <c r="T30" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="U30" s="205"/>
-      <c r="V30" s="205"/>
-      <c r="W30" s="205"/>
-      <c r="X30" s="205"/>
-      <c r="Y30" s="205"/>
-      <c r="Z30" s="205"/>
-      <c r="AA30" s="205"/>
-      <c r="AB30" s="205"/>
+      <c r="U30" s="178"/>
+      <c r="V30" s="178"/>
+      <c r="W30" s="178"/>
+      <c r="X30" s="178"/>
+      <c r="Y30" s="178"/>
+      <c r="Z30" s="178"/>
+      <c r="AA30" s="178"/>
+      <c r="AB30" s="178"/>
       <c r="AC30" s="19"/>
       <c r="AD30" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE30" s="108">
+      <c r="AE30" s="146">
         <f>AE20+AE25+AE27+AE29</f>
         <v>1412923.7</v>
       </c>
-      <c r="AF30" s="205"/>
+      <c r="AF30" s="178"/>
     </row>
     <row r="31" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
@@ -5471,41 +5465,41 @@
     </row>
     <row r="33" spans="1:32" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="89" t="s">
+      <c r="B33" s="169" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="89"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="196" t="s">
+      <c r="C33" s="169"/>
+      <c r="D33" s="169"/>
+      <c r="E33" s="169"/>
+      <c r="F33" s="169"/>
+      <c r="G33" s="248" t="s">
         <v>47</v>
       </c>
-      <c r="H33" s="196"/>
-      <c r="I33" s="196"/>
-      <c r="J33" s="196"/>
-      <c r="K33" s="196"/>
-      <c r="L33" s="196"/>
-      <c r="M33" s="196"/>
-      <c r="N33" s="196"/>
-      <c r="O33" s="196"/>
-      <c r="P33" s="196"/>
-      <c r="Q33" s="196"/>
-      <c r="R33" s="196"/>
-      <c r="S33" s="196"/>
-      <c r="T33" s="196"/>
-      <c r="U33" s="196"/>
-      <c r="V33" s="196"/>
-      <c r="W33" s="196"/>
-      <c r="X33" s="196"/>
-      <c r="Y33" s="196"/>
-      <c r="Z33" s="196"/>
-      <c r="AA33" s="196"/>
-      <c r="AB33" s="196"/>
-      <c r="AC33" s="196"/>
-      <c r="AD33" s="196"/>
-      <c r="AE33" s="196"/>
-      <c r="AF33" s="196"/>
+      <c r="H33" s="248"/>
+      <c r="I33" s="248"/>
+      <c r="J33" s="248"/>
+      <c r="K33" s="248"/>
+      <c r="L33" s="248"/>
+      <c r="M33" s="248"/>
+      <c r="N33" s="248"/>
+      <c r="O33" s="248"/>
+      <c r="P33" s="248"/>
+      <c r="Q33" s="248"/>
+      <c r="R33" s="248"/>
+      <c r="S33" s="248"/>
+      <c r="T33" s="248"/>
+      <c r="U33" s="248"/>
+      <c r="V33" s="248"/>
+      <c r="W33" s="248"/>
+      <c r="X33" s="248"/>
+      <c r="Y33" s="248"/>
+      <c r="Z33" s="248"/>
+      <c r="AA33" s="248"/>
+      <c r="AB33" s="248"/>
+      <c r="AC33" s="248"/>
+      <c r="AD33" s="248"/>
+      <c r="AE33" s="248"/>
+      <c r="AF33" s="248"/>
     </row>
     <row r="34" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
@@ -5634,207 +5628,207 @@
       <c r="V37" s="6"/>
       <c r="W37" s="6"/>
       <c r="X37" s="48"/>
-      <c r="AB37" s="197" t="s">
+      <c r="AB37" s="249" t="s">
         <v>38</v>
       </c>
-      <c r="AC37" s="197"/>
-      <c r="AD37" s="197"/>
-      <c r="AE37" s="197"/>
-      <c r="AF37" s="197"/>
+      <c r="AC37" s="249"/>
+      <c r="AD37" s="249"/>
+      <c r="AE37" s="249"/>
+      <c r="AF37" s="249"/>
     </row>
     <row r="38" spans="1:32" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
-      <c r="B38" s="88" t="s">
+      <c r="B38" s="168" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="88"/>
-      <c r="D38" s="88"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="88"/>
-      <c r="G38" s="88"/>
-      <c r="H38" s="88"/>
-      <c r="I38" s="88"/>
-      <c r="J38" s="88"/>
-      <c r="K38" s="88"/>
-      <c r="L38" s="88"/>
-      <c r="M38" s="88"/>
-      <c r="N38" s="88"/>
-      <c r="O38" s="88"/>
-      <c r="P38" s="88"/>
-      <c r="Q38" s="88"/>
-      <c r="R38" s="88"/>
-      <c r="S38" s="88"/>
-      <c r="T38" s="88"/>
-      <c r="U38" s="88"/>
-      <c r="V38" s="88"/>
-      <c r="W38" s="88"/>
-      <c r="AB38" s="197"/>
-      <c r="AC38" s="197"/>
-      <c r="AD38" s="197"/>
-      <c r="AE38" s="197"/>
-      <c r="AF38" s="197"/>
+      <c r="C38" s="168"/>
+      <c r="D38" s="168"/>
+      <c r="E38" s="168"/>
+      <c r="F38" s="168"/>
+      <c r="G38" s="168"/>
+      <c r="H38" s="168"/>
+      <c r="I38" s="168"/>
+      <c r="J38" s="168"/>
+      <c r="K38" s="168"/>
+      <c r="L38" s="168"/>
+      <c r="M38" s="168"/>
+      <c r="N38" s="168"/>
+      <c r="O38" s="168"/>
+      <c r="P38" s="168"/>
+      <c r="Q38" s="168"/>
+      <c r="R38" s="168"/>
+      <c r="S38" s="168"/>
+      <c r="T38" s="168"/>
+      <c r="U38" s="168"/>
+      <c r="V38" s="168"/>
+      <c r="W38" s="168"/>
+      <c r="AB38" s="249"/>
+      <c r="AC38" s="249"/>
+      <c r="AD38" s="249"/>
+      <c r="AE38" s="249"/>
+      <c r="AF38" s="249"/>
     </row>
     <row r="39" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
-      <c r="B39" s="88"/>
-      <c r="C39" s="88"/>
-      <c r="D39" s="88"/>
-      <c r="E39" s="88"/>
-      <c r="F39" s="88"/>
-      <c r="G39" s="88"/>
-      <c r="H39" s="88"/>
-      <c r="I39" s="88"/>
-      <c r="J39" s="88"/>
-      <c r="K39" s="88"/>
-      <c r="L39" s="88"/>
-      <c r="M39" s="88"/>
-      <c r="N39" s="88"/>
-      <c r="O39" s="88"/>
-      <c r="P39" s="88"/>
-      <c r="Q39" s="88"/>
-      <c r="R39" s="88"/>
-      <c r="S39" s="88"/>
-      <c r="T39" s="88"/>
-      <c r="U39" s="88"/>
-      <c r="V39" s="88"/>
-      <c r="W39" s="88"/>
-      <c r="AB39" s="197"/>
-      <c r="AC39" s="197"/>
-      <c r="AD39" s="197"/>
-      <c r="AE39" s="197"/>
-      <c r="AF39" s="197"/>
+      <c r="B39" s="168"/>
+      <c r="C39" s="168"/>
+      <c r="D39" s="168"/>
+      <c r="E39" s="168"/>
+      <c r="F39" s="168"/>
+      <c r="G39" s="168"/>
+      <c r="H39" s="168"/>
+      <c r="I39" s="168"/>
+      <c r="J39" s="168"/>
+      <c r="K39" s="168"/>
+      <c r="L39" s="168"/>
+      <c r="M39" s="168"/>
+      <c r="N39" s="168"/>
+      <c r="O39" s="168"/>
+      <c r="P39" s="168"/>
+      <c r="Q39" s="168"/>
+      <c r="R39" s="168"/>
+      <c r="S39" s="168"/>
+      <c r="T39" s="168"/>
+      <c r="U39" s="168"/>
+      <c r="V39" s="168"/>
+      <c r="W39" s="168"/>
+      <c r="AB39" s="249"/>
+      <c r="AC39" s="249"/>
+      <c r="AD39" s="249"/>
+      <c r="AE39" s="249"/>
+      <c r="AF39" s="249"/>
     </row>
     <row r="40" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
-      <c r="B40" s="88"/>
-      <c r="C40" s="88"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="88"/>
-      <c r="I40" s="88"/>
-      <c r="J40" s="88"/>
-      <c r="K40" s="88"/>
-      <c r="L40" s="88"/>
-      <c r="M40" s="88"/>
-      <c r="N40" s="88"/>
-      <c r="O40" s="88"/>
-      <c r="P40" s="88"/>
-      <c r="Q40" s="88"/>
-      <c r="R40" s="88"/>
-      <c r="S40" s="88"/>
-      <c r="T40" s="88"/>
-      <c r="U40" s="88"/>
-      <c r="V40" s="88"/>
-      <c r="W40" s="88"/>
+      <c r="B40" s="168"/>
+      <c r="C40" s="168"/>
+      <c r="D40" s="168"/>
+      <c r="E40" s="168"/>
+      <c r="F40" s="168"/>
+      <c r="G40" s="168"/>
+      <c r="H40" s="168"/>
+      <c r="I40" s="168"/>
+      <c r="J40" s="168"/>
+      <c r="K40" s="168"/>
+      <c r="L40" s="168"/>
+      <c r="M40" s="168"/>
+      <c r="N40" s="168"/>
+      <c r="O40" s="168"/>
+      <c r="P40" s="168"/>
+      <c r="Q40" s="168"/>
+      <c r="R40" s="168"/>
+      <c r="S40" s="168"/>
+      <c r="T40" s="168"/>
+      <c r="U40" s="168"/>
+      <c r="V40" s="168"/>
+      <c r="W40" s="168"/>
     </row>
     <row r="41" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
-      <c r="B41" s="88"/>
-      <c r="C41" s="88"/>
-      <c r="D41" s="88"/>
-      <c r="E41" s="88"/>
-      <c r="F41" s="88"/>
-      <c r="G41" s="88"/>
-      <c r="H41" s="88"/>
-      <c r="I41" s="88"/>
-      <c r="J41" s="88"/>
-      <c r="K41" s="88"/>
-      <c r="L41" s="88"/>
-      <c r="M41" s="88"/>
-      <c r="N41" s="88"/>
-      <c r="O41" s="88"/>
-      <c r="P41" s="88"/>
-      <c r="Q41" s="88"/>
-      <c r="R41" s="88"/>
-      <c r="S41" s="88"/>
-      <c r="T41" s="88"/>
-      <c r="U41" s="88"/>
-      <c r="V41" s="88"/>
-      <c r="W41" s="88"/>
+      <c r="B41" s="168"/>
+      <c r="C41" s="168"/>
+      <c r="D41" s="168"/>
+      <c r="E41" s="168"/>
+      <c r="F41" s="168"/>
+      <c r="G41" s="168"/>
+      <c r="H41" s="168"/>
+      <c r="I41" s="168"/>
+      <c r="J41" s="168"/>
+      <c r="K41" s="168"/>
+      <c r="L41" s="168"/>
+      <c r="M41" s="168"/>
+      <c r="N41" s="168"/>
+      <c r="O41" s="168"/>
+      <c r="P41" s="168"/>
+      <c r="Q41" s="168"/>
+      <c r="R41" s="168"/>
+      <c r="S41" s="168"/>
+      <c r="T41" s="168"/>
+      <c r="U41" s="168"/>
+      <c r="V41" s="168"/>
+      <c r="W41" s="168"/>
     </row>
     <row r="42" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
-      <c r="B42" s="88"/>
-      <c r="C42" s="88"/>
-      <c r="D42" s="88"/>
-      <c r="E42" s="88"/>
-      <c r="F42" s="88"/>
-      <c r="G42" s="88"/>
-      <c r="H42" s="88"/>
-      <c r="I42" s="88"/>
-      <c r="J42" s="88"/>
-      <c r="K42" s="88"/>
-      <c r="L42" s="88"/>
-      <c r="M42" s="88"/>
-      <c r="N42" s="88"/>
-      <c r="O42" s="88"/>
-      <c r="P42" s="88"/>
-      <c r="Q42" s="88"/>
-      <c r="R42" s="88"/>
-      <c r="S42" s="88"/>
-      <c r="T42" s="88"/>
-      <c r="U42" s="88"/>
-      <c r="V42" s="88"/>
-      <c r="W42" s="88"/>
+      <c r="B42" s="168"/>
+      <c r="C42" s="168"/>
+      <c r="D42" s="168"/>
+      <c r="E42" s="168"/>
+      <c r="F42" s="168"/>
+      <c r="G42" s="168"/>
+      <c r="H42" s="168"/>
+      <c r="I42" s="168"/>
+      <c r="J42" s="168"/>
+      <c r="K42" s="168"/>
+      <c r="L42" s="168"/>
+      <c r="M42" s="168"/>
+      <c r="N42" s="168"/>
+      <c r="O42" s="168"/>
+      <c r="P42" s="168"/>
+      <c r="Q42" s="168"/>
+      <c r="R42" s="168"/>
+      <c r="S42" s="168"/>
+      <c r="T42" s="168"/>
+      <c r="U42" s="168"/>
+      <c r="V42" s="168"/>
+      <c r="W42" s="168"/>
     </row>
     <row r="43" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
-      <c r="B43" s="88"/>
-      <c r="C43" s="88"/>
-      <c r="D43" s="88"/>
-      <c r="E43" s="88"/>
-      <c r="F43" s="88"/>
-      <c r="G43" s="88"/>
-      <c r="H43" s="88"/>
-      <c r="I43" s="88"/>
-      <c r="J43" s="88"/>
-      <c r="K43" s="88"/>
-      <c r="L43" s="88"/>
-      <c r="M43" s="88"/>
-      <c r="N43" s="88"/>
-      <c r="O43" s="88"/>
-      <c r="P43" s="88"/>
-      <c r="Q43" s="88"/>
-      <c r="R43" s="88"/>
-      <c r="S43" s="88"/>
-      <c r="T43" s="88"/>
-      <c r="U43" s="88"/>
-      <c r="V43" s="88"/>
-      <c r="W43" s="88"/>
+      <c r="B43" s="168"/>
+      <c r="C43" s="168"/>
+      <c r="D43" s="168"/>
+      <c r="E43" s="168"/>
+      <c r="F43" s="168"/>
+      <c r="G43" s="168"/>
+      <c r="H43" s="168"/>
+      <c r="I43" s="168"/>
+      <c r="J43" s="168"/>
+      <c r="K43" s="168"/>
+      <c r="L43" s="168"/>
+      <c r="M43" s="168"/>
+      <c r="N43" s="168"/>
+      <c r="O43" s="168"/>
+      <c r="P43" s="168"/>
+      <c r="Q43" s="168"/>
+      <c r="R43" s="168"/>
+      <c r="S43" s="168"/>
+      <c r="T43" s="168"/>
+      <c r="U43" s="168"/>
+      <c r="V43" s="168"/>
+      <c r="W43" s="168"/>
     </row>
     <row r="44" spans="1:32" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
-      <c r="B44" s="88"/>
-      <c r="C44" s="88"/>
-      <c r="D44" s="88"/>
-      <c r="E44" s="88"/>
-      <c r="F44" s="88"/>
-      <c r="G44" s="88"/>
-      <c r="H44" s="88"/>
-      <c r="I44" s="88"/>
-      <c r="J44" s="88"/>
-      <c r="K44" s="88"/>
-      <c r="L44" s="88"/>
-      <c r="M44" s="88"/>
-      <c r="N44" s="88"/>
-      <c r="O44" s="88"/>
-      <c r="P44" s="88"/>
-      <c r="Q44" s="88"/>
-      <c r="R44" s="88"/>
-      <c r="S44" s="88"/>
-      <c r="T44" s="88"/>
-      <c r="U44" s="88"/>
-      <c r="V44" s="88"/>
-      <c r="W44" s="88"/>
-      <c r="AB44" s="194" t="s">
+      <c r="B44" s="168"/>
+      <c r="C44" s="168"/>
+      <c r="D44" s="168"/>
+      <c r="E44" s="168"/>
+      <c r="F44" s="168"/>
+      <c r="G44" s="168"/>
+      <c r="H44" s="168"/>
+      <c r="I44" s="168"/>
+      <c r="J44" s="168"/>
+      <c r="K44" s="168"/>
+      <c r="L44" s="168"/>
+      <c r="M44" s="168"/>
+      <c r="N44" s="168"/>
+      <c r="O44" s="168"/>
+      <c r="P44" s="168"/>
+      <c r="Q44" s="168"/>
+      <c r="R44" s="168"/>
+      <c r="S44" s="168"/>
+      <c r="T44" s="168"/>
+      <c r="U44" s="168"/>
+      <c r="V44" s="168"/>
+      <c r="W44" s="168"/>
+      <c r="AB44" s="246" t="s">
         <v>39</v>
       </c>
-      <c r="AC44" s="195"/>
-      <c r="AD44" s="195"/>
-      <c r="AE44" s="195"/>
-      <c r="AF44" s="195"/>
+      <c r="AC44" s="247"/>
+      <c r="AD44" s="247"/>
+      <c r="AE44" s="247"/>
+      <c r="AF44" s="247"/>
     </row>
     <row r="45" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
@@ -5860,11 +5854,11 @@
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
       <c r="W45" s="6"/>
-      <c r="AB45" s="192"/>
-      <c r="AC45" s="193"/>
-      <c r="AD45" s="193"/>
-      <c r="AE45" s="193"/>
-      <c r="AF45" s="193"/>
+      <c r="AB45" s="244"/>
+      <c r="AC45" s="245"/>
+      <c r="AD45" s="245"/>
+      <c r="AE45" s="245"/>
+      <c r="AF45" s="245"/>
     </row>
     <row r="46" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
@@ -5902,12 +5896,12 @@
     </row>
     <row r="47" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
-      <c r="B47" s="86" t="s">
+      <c r="B47" s="166" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="86"/>
-      <c r="D47" s="86"/>
-      <c r="E47" s="86"/>
+      <c r="C47" s="166"/>
+      <c r="D47" s="166"/>
+      <c r="E47" s="166"/>
       <c r="F47" s="31"/>
       <c r="G47" s="31"/>
       <c r="H47" s="31"/>
@@ -5938,36 +5932,36 @@
     </row>
     <row r="48" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
-      <c r="B48" s="87" t="s">
+      <c r="B48" s="167" t="s">
         <v>57</v>
       </c>
-      <c r="C48" s="87"/>
-      <c r="D48" s="87" t="s">
+      <c r="C48" s="167"/>
+      <c r="D48" s="167" t="s">
         <v>58</v>
       </c>
-      <c r="E48" s="87"/>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
-      <c r="H48" s="198" t="s">
+      <c r="E48" s="167"/>
+      <c r="F48" s="167"/>
+      <c r="G48" s="167"/>
+      <c r="H48" s="228" t="s">
         <v>59</v>
       </c>
-      <c r="I48" s="199"/>
-      <c r="J48" s="199"/>
-      <c r="K48" s="199"/>
-      <c r="L48" s="199"/>
-      <c r="M48" s="199"/>
-      <c r="N48" s="200"/>
-      <c r="O48" s="198" t="s">
+      <c r="I48" s="229"/>
+      <c r="J48" s="229"/>
+      <c r="K48" s="229"/>
+      <c r="L48" s="229"/>
+      <c r="M48" s="229"/>
+      <c r="N48" s="230"/>
+      <c r="O48" s="228" t="s">
         <v>60</v>
       </c>
-      <c r="P48" s="199"/>
-      <c r="Q48" s="199"/>
-      <c r="R48" s="199"/>
-      <c r="S48" s="199"/>
-      <c r="T48" s="199"/>
-      <c r="U48" s="199"/>
-      <c r="V48" s="199"/>
-      <c r="W48" s="200"/>
+      <c r="P48" s="229"/>
+      <c r="Q48" s="229"/>
+      <c r="R48" s="229"/>
+      <c r="S48" s="229"/>
+      <c r="T48" s="229"/>
+      <c r="U48" s="229"/>
+      <c r="V48" s="229"/>
+      <c r="W48" s="230"/>
       <c r="X48" s="2"/>
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
@@ -5980,36 +5974,36 @@
     </row>
     <row r="49" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
-      <c r="B49" s="74" t="s">
+      <c r="B49" s="171" t="s">
         <v>61</v>
       </c>
-      <c r="C49" s="74"/>
-      <c r="D49" s="78" t="s">
+      <c r="C49" s="171"/>
+      <c r="D49" s="175" t="s">
         <v>62</v>
       </c>
-      <c r="E49" s="78"/>
-      <c r="F49" s="78"/>
-      <c r="G49" s="78"/>
-      <c r="H49" s="176" t="s">
+      <c r="E49" s="175"/>
+      <c r="F49" s="175"/>
+      <c r="G49" s="175"/>
+      <c r="H49" s="241" t="s">
         <v>63</v>
       </c>
-      <c r="I49" s="177"/>
-      <c r="J49" s="177"/>
-      <c r="K49" s="177"/>
-      <c r="L49" s="177"/>
-      <c r="M49" s="177"/>
-      <c r="N49" s="178"/>
-      <c r="O49" s="176" t="s">
+      <c r="I49" s="242"/>
+      <c r="J49" s="242"/>
+      <c r="K49" s="242"/>
+      <c r="L49" s="242"/>
+      <c r="M49" s="242"/>
+      <c r="N49" s="243"/>
+      <c r="O49" s="241" t="s">
         <v>64</v>
       </c>
-      <c r="P49" s="177"/>
-      <c r="Q49" s="177"/>
-      <c r="R49" s="177"/>
-      <c r="S49" s="177"/>
-      <c r="T49" s="177"/>
-      <c r="U49" s="177"/>
-      <c r="V49" s="177"/>
-      <c r="W49" s="178"/>
+      <c r="P49" s="242"/>
+      <c r="Q49" s="242"/>
+      <c r="R49" s="242"/>
+      <c r="S49" s="242"/>
+      <c r="T49" s="242"/>
+      <c r="U49" s="242"/>
+      <c r="V49" s="242"/>
+      <c r="W49" s="243"/>
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
@@ -6022,36 +6016,36 @@
     </row>
     <row r="50" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
-      <c r="B50" s="74" t="s">
+      <c r="B50" s="171" t="s">
         <v>65</v>
       </c>
-      <c r="C50" s="74"/>
-      <c r="D50" s="78" t="s">
+      <c r="C50" s="171"/>
+      <c r="D50" s="175" t="s">
         <v>66</v>
       </c>
-      <c r="E50" s="78"/>
-      <c r="F50" s="78"/>
-      <c r="G50" s="78"/>
-      <c r="H50" s="176" t="s">
+      <c r="E50" s="175"/>
+      <c r="F50" s="175"/>
+      <c r="G50" s="175"/>
+      <c r="H50" s="241" t="s">
         <v>67</v>
       </c>
-      <c r="I50" s="177"/>
-      <c r="J50" s="177"/>
-      <c r="K50" s="177"/>
-      <c r="L50" s="177"/>
-      <c r="M50" s="177"/>
-      <c r="N50" s="178"/>
-      <c r="O50" s="176" t="s">
+      <c r="I50" s="242"/>
+      <c r="J50" s="242"/>
+      <c r="K50" s="242"/>
+      <c r="L50" s="242"/>
+      <c r="M50" s="242"/>
+      <c r="N50" s="243"/>
+      <c r="O50" s="241" t="s">
         <v>68</v>
       </c>
-      <c r="P50" s="177"/>
-      <c r="Q50" s="177"/>
-      <c r="R50" s="177"/>
-      <c r="S50" s="177"/>
-      <c r="T50" s="177"/>
-      <c r="U50" s="177"/>
-      <c r="V50" s="177"/>
-      <c r="W50" s="178"/>
+      <c r="P50" s="242"/>
+      <c r="Q50" s="242"/>
+      <c r="R50" s="242"/>
+      <c r="S50" s="242"/>
+      <c r="T50" s="242"/>
+      <c r="U50" s="242"/>
+      <c r="V50" s="242"/>
+      <c r="W50" s="243"/>
       <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
@@ -6064,36 +6058,36 @@
     </row>
     <row r="51" spans="1:32" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
-      <c r="B51" s="74" t="s">
+      <c r="B51" s="171" t="s">
         <v>69</v>
       </c>
-      <c r="C51" s="74"/>
-      <c r="D51" s="75" t="s">
+      <c r="C51" s="171"/>
+      <c r="D51" s="172" t="s">
         <v>70</v>
       </c>
-      <c r="E51" s="75"/>
-      <c r="F51" s="75"/>
-      <c r="G51" s="75"/>
-      <c r="H51" s="179" t="s">
+      <c r="E51" s="172"/>
+      <c r="F51" s="172"/>
+      <c r="G51" s="172"/>
+      <c r="H51" s="250" t="s">
         <v>71</v>
       </c>
-      <c r="I51" s="180"/>
-      <c r="J51" s="180"/>
-      <c r="K51" s="180"/>
-      <c r="L51" s="180"/>
-      <c r="M51" s="180"/>
-      <c r="N51" s="181"/>
-      <c r="O51" s="179" t="s">
+      <c r="I51" s="251"/>
+      <c r="J51" s="251"/>
+      <c r="K51" s="251"/>
+      <c r="L51" s="251"/>
+      <c r="M51" s="251"/>
+      <c r="N51" s="252"/>
+      <c r="O51" s="250" t="s">
         <v>72</v>
       </c>
-      <c r="P51" s="180"/>
-      <c r="Q51" s="180"/>
-      <c r="R51" s="180"/>
-      <c r="S51" s="180"/>
-      <c r="T51" s="180"/>
-      <c r="U51" s="180"/>
-      <c r="V51" s="180"/>
-      <c r="W51" s="181"/>
+      <c r="P51" s="251"/>
+      <c r="Q51" s="251"/>
+      <c r="R51" s="251"/>
+      <c r="S51" s="251"/>
+      <c r="T51" s="251"/>
+      <c r="U51" s="251"/>
+      <c r="V51" s="251"/>
+      <c r="W51" s="252"/>
       <c r="X51" s="6"/>
       <c r="Y51" s="6"/>
       <c r="Z51" s="6"/>
@@ -6106,30 +6100,30 @@
     </row>
     <row r="52" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
-      <c r="B52" s="77" t="s">
+      <c r="B52" s="174" t="s">
         <v>73</v>
       </c>
-      <c r="C52" s="77"/>
-      <c r="D52" s="77"/>
-      <c r="E52" s="77"/>
-      <c r="F52" s="77"/>
-      <c r="G52" s="77"/>
-      <c r="H52" s="77"/>
-      <c r="I52" s="77"/>
-      <c r="J52" s="77"/>
-      <c r="K52" s="77"/>
-      <c r="L52" s="77"/>
-      <c r="M52" s="77"/>
-      <c r="N52" s="77"/>
-      <c r="O52" s="77"/>
-      <c r="P52" s="77"/>
-      <c r="Q52" s="77"/>
-      <c r="R52" s="77"/>
-      <c r="S52" s="77"/>
-      <c r="T52" s="77"/>
-      <c r="U52" s="77"/>
-      <c r="V52" s="77"/>
-      <c r="W52" s="77"/>
+      <c r="C52" s="174"/>
+      <c r="D52" s="174"/>
+      <c r="E52" s="174"/>
+      <c r="F52" s="174"/>
+      <c r="G52" s="174"/>
+      <c r="H52" s="174"/>
+      <c r="I52" s="174"/>
+      <c r="J52" s="174"/>
+      <c r="K52" s="174"/>
+      <c r="L52" s="174"/>
+      <c r="M52" s="174"/>
+      <c r="N52" s="174"/>
+      <c r="O52" s="174"/>
+      <c r="P52" s="174"/>
+      <c r="Q52" s="174"/>
+      <c r="R52" s="174"/>
+      <c r="S52" s="174"/>
+      <c r="T52" s="174"/>
+      <c r="U52" s="174"/>
+      <c r="V52" s="174"/>
+      <c r="W52" s="174"/>
       <c r="X52" s="6"/>
       <c r="Y52" s="6"/>
       <c r="Z52" s="6"/>
@@ -6140,123 +6134,181 @@
       <c r="AE52" s="6"/>
       <c r="AF52" s="6"/>
     </row>
-    <row r="63" spans="1:32" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B63" s="91" t="s">
+    <row r="63" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C63" s="129"/>
-      <c r="D63" s="129"/>
-      <c r="E63" s="129"/>
-      <c r="F63" s="129"/>
-      <c r="G63" s="129"/>
-      <c r="H63" s="129"/>
-      <c r="I63" s="129"/>
-      <c r="J63" s="129"/>
-      <c r="K63" s="129"/>
-      <c r="L63" s="129"/>
-      <c r="M63" s="129"/>
-      <c r="N63" s="129"/>
-      <c r="O63" s="129"/>
-      <c r="P63" s="129"/>
-      <c r="Q63" s="129"/>
-      <c r="R63" s="129"/>
-      <c r="S63" s="129"/>
-      <c r="T63" s="129"/>
-      <c r="U63" s="129"/>
-      <c r="V63" s="129"/>
-      <c r="W63" s="129"/>
-      <c r="X63" s="129"/>
-      <c r="Y63" s="129"/>
-      <c r="Z63" s="129"/>
-      <c r="AA63" s="129"/>
-      <c r="AB63" s="129"/>
-      <c r="AC63" s="129"/>
-      <c r="AD63" s="129"/>
-      <c r="AE63" s="129"/>
-      <c r="AF63" s="129"/>
+      <c r="C63" s="107"/>
+      <c r="D63" s="107"/>
+      <c r="E63" s="107"/>
+      <c r="F63" s="107"/>
+      <c r="G63" s="107"/>
+      <c r="H63" s="107"/>
+      <c r="I63" s="107"/>
+      <c r="J63" s="107"/>
+      <c r="K63" s="107"/>
+      <c r="L63" s="107"/>
+      <c r="M63" s="107"/>
+      <c r="N63" s="107"/>
+      <c r="O63" s="107"/>
+      <c r="P63" s="107"/>
+      <c r="Q63" s="107"/>
+      <c r="R63" s="107"/>
+      <c r="S63" s="107"/>
+      <c r="T63" s="107"/>
+      <c r="U63" s="107"/>
+      <c r="V63" s="107"/>
+      <c r="W63" s="107"/>
+      <c r="X63" s="107"/>
+      <c r="Y63" s="107"/>
+      <c r="Z63" s="107"/>
+      <c r="AA63" s="107"/>
+      <c r="AB63" s="107"/>
+      <c r="AC63" s="107"/>
+      <c r="AD63" s="107"/>
+      <c r="AE63" s="107"/>
+      <c r="AF63" s="107"/>
     </row>
     <row r="64" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="92" t="s">
+      <c r="B64" s="149" t="s">
         <v>25</v>
       </c>
-      <c r="C64" s="129"/>
-      <c r="D64" s="129"/>
-      <c r="E64" s="129"/>
-      <c r="F64" s="129"/>
-      <c r="G64" s="129"/>
-      <c r="H64" s="129"/>
-      <c r="I64" s="129"/>
-      <c r="J64" s="129"/>
-      <c r="K64" s="129"/>
-      <c r="L64" s="129"/>
-      <c r="M64" s="129"/>
-      <c r="N64" s="129"/>
-      <c r="O64" s="129"/>
-      <c r="P64" s="129"/>
-      <c r="Q64" s="129"/>
-      <c r="R64" s="129"/>
-      <c r="S64" s="129"/>
-      <c r="T64" s="129"/>
-      <c r="U64" s="129"/>
-      <c r="V64" s="129"/>
-      <c r="W64" s="129"/>
-      <c r="X64" s="129"/>
-      <c r="Y64" s="129"/>
-      <c r="Z64" s="129"/>
-      <c r="AA64" s="129"/>
-      <c r="AB64" s="129"/>
-      <c r="AC64" s="129"/>
-      <c r="AD64" s="129"/>
-      <c r="AE64" s="129"/>
-      <c r="AF64" s="129"/>
+      <c r="C64" s="107"/>
+      <c r="D64" s="107"/>
+      <c r="E64" s="107"/>
+      <c r="F64" s="107"/>
+      <c r="G64" s="107"/>
+      <c r="H64" s="107"/>
+      <c r="I64" s="107"/>
+      <c r="J64" s="107"/>
+      <c r="K64" s="107"/>
+      <c r="L64" s="107"/>
+      <c r="M64" s="107"/>
+      <c r="N64" s="107"/>
+      <c r="O64" s="107"/>
+      <c r="P64" s="107"/>
+      <c r="Q64" s="107"/>
+      <c r="R64" s="107"/>
+      <c r="S64" s="107"/>
+      <c r="T64" s="107"/>
+      <c r="U64" s="107"/>
+      <c r="V64" s="107"/>
+      <c r="W64" s="107"/>
+      <c r="X64" s="107"/>
+      <c r="Y64" s="107"/>
+      <c r="Z64" s="107"/>
+      <c r="AA64" s="107"/>
+      <c r="AB64" s="107"/>
+      <c r="AC64" s="107"/>
+      <c r="AD64" s="107"/>
+      <c r="AE64" s="107"/>
+      <c r="AF64" s="107"/>
     </row>
     <row r="65" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="92" t="s">
+      <c r="B65" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="C65" s="129"/>
-      <c r="D65" s="129"/>
-      <c r="E65" s="129"/>
-      <c r="F65" s="129"/>
-      <c r="G65" s="129"/>
-      <c r="H65" s="129"/>
-      <c r="I65" s="129"/>
-      <c r="J65" s="129"/>
-      <c r="K65" s="129"/>
-      <c r="L65" s="129"/>
-      <c r="M65" s="129"/>
-      <c r="N65" s="129"/>
-      <c r="O65" s="129"/>
-      <c r="P65" s="129"/>
-      <c r="Q65" s="129"/>
-      <c r="R65" s="129"/>
-      <c r="S65" s="129"/>
-      <c r="T65" s="129"/>
-      <c r="U65" s="129"/>
-      <c r="V65" s="129"/>
-      <c r="W65" s="129"/>
-      <c r="X65" s="129"/>
-      <c r="Y65" s="129"/>
-      <c r="Z65" s="129"/>
-      <c r="AA65" s="129"/>
-      <c r="AB65" s="129"/>
-      <c r="AC65" s="129"/>
-      <c r="AD65" s="129"/>
-      <c r="AE65" s="129"/>
-      <c r="AF65" s="129"/>
+      <c r="C65" s="107"/>
+      <c r="D65" s="107"/>
+      <c r="E65" s="107"/>
+      <c r="F65" s="107"/>
+      <c r="G65" s="107"/>
+      <c r="H65" s="107"/>
+      <c r="I65" s="107"/>
+      <c r="J65" s="107"/>
+      <c r="K65" s="107"/>
+      <c r="L65" s="107"/>
+      <c r="M65" s="107"/>
+      <c r="N65" s="107"/>
+      <c r="O65" s="107"/>
+      <c r="P65" s="107"/>
+      <c r="Q65" s="107"/>
+      <c r="R65" s="107"/>
+      <c r="S65" s="107"/>
+      <c r="T65" s="107"/>
+      <c r="U65" s="107"/>
+      <c r="V65" s="107"/>
+      <c r="W65" s="107"/>
+      <c r="X65" s="107"/>
+      <c r="Y65" s="107"/>
+      <c r="Z65" s="107"/>
+      <c r="AA65" s="107"/>
+      <c r="AB65" s="107"/>
+      <c r="AC65" s="107"/>
+      <c r="AD65" s="107"/>
+      <c r="AE65" s="107"/>
+      <c r="AF65" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="K22:Q22"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="AD17:AD18"/>
-    <mergeCell ref="AE17:AF18"/>
-    <mergeCell ref="Q20:W20"/>
-    <mergeCell ref="K16:AB16"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="S22:AB22"/>
+    <mergeCell ref="B52:W52"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="H50:N50"/>
+    <mergeCell ref="O50:W50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="H51:N51"/>
+    <mergeCell ref="O51:W51"/>
+    <mergeCell ref="F22:J23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="AD22:AD23"/>
+    <mergeCell ref="AE22:AF23"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="H49:N49"/>
+    <mergeCell ref="O49:W49"/>
+    <mergeCell ref="AB45:AF45"/>
+    <mergeCell ref="AB44:AF44"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="G33:AF33"/>
+    <mergeCell ref="AB37:AF39"/>
+    <mergeCell ref="B38:W44"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="H48:N48"/>
+    <mergeCell ref="O48:W48"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="K25:W25"/>
+    <mergeCell ref="T28:AB28"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B21:E24"/>
+    <mergeCell ref="K24:AB24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="T27:AB27"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F17:J18"/>
+    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="S17:AB17"/>
+    <mergeCell ref="B16:E19"/>
+    <mergeCell ref="S23:AB23"/>
+    <mergeCell ref="T29:AB29"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="B4:AF4"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="K19:AB19"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="I5:Z5"/>
+    <mergeCell ref="B13:AB14"/>
+    <mergeCell ref="AD8:AF9"/>
+    <mergeCell ref="AD13:AF14"/>
+    <mergeCell ref="Q8:X9"/>
+    <mergeCell ref="S18:AB18"/>
+    <mergeCell ref="Y8:AC9"/>
+    <mergeCell ref="Q10:X11"/>
+    <mergeCell ref="AD10:AF11"/>
+    <mergeCell ref="B6:H9"/>
     <mergeCell ref="B2:AF3"/>
     <mergeCell ref="AB5:AE5"/>
     <mergeCell ref="B65:AF65"/>
@@ -6273,81 +6325,23 @@
     <mergeCell ref="B64:AF64"/>
     <mergeCell ref="T30:AB30"/>
     <mergeCell ref="F24:J24"/>
-    <mergeCell ref="B4:AF4"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="K19:AB19"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="I5:Z5"/>
-    <mergeCell ref="B13:AB14"/>
-    <mergeCell ref="AD8:AF9"/>
-    <mergeCell ref="AD13:AF14"/>
-    <mergeCell ref="Q8:X9"/>
-    <mergeCell ref="S18:AB18"/>
-    <mergeCell ref="Y8:AC9"/>
-    <mergeCell ref="Q10:X11"/>
-    <mergeCell ref="AD10:AF11"/>
-    <mergeCell ref="B6:H9"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B21:E24"/>
-    <mergeCell ref="K24:AB24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="T27:AB27"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F17:J18"/>
-    <mergeCell ref="K17:Q17"/>
-    <mergeCell ref="S17:AB17"/>
-    <mergeCell ref="B16:E19"/>
-    <mergeCell ref="S23:AB23"/>
-    <mergeCell ref="T29:AB29"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="K25:W25"/>
-    <mergeCell ref="T28:AB28"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="H48:N48"/>
-    <mergeCell ref="O48:W48"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="F22:J23"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="AD22:AD23"/>
-    <mergeCell ref="AE22:AF23"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="H49:N49"/>
-    <mergeCell ref="O49:W49"/>
-    <mergeCell ref="AB45:AF45"/>
-    <mergeCell ref="AB44:AF44"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="G33:AF33"/>
-    <mergeCell ref="AB37:AF39"/>
-    <mergeCell ref="B38:W44"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B52:W52"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="H50:N50"/>
-    <mergeCell ref="O50:W50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="H51:N51"/>
-    <mergeCell ref="O51:W51"/>
+    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="AD17:AD18"/>
+    <mergeCell ref="AE17:AF18"/>
+    <mergeCell ref="Q20:W20"/>
+    <mergeCell ref="K16:AB16"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="S22:AB22"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E11:H11" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.27559055118110237" right="0.27559055118110237" top="0.6692913385826772" bottom="0.39370078740157483" header="0" footer="0"/>
-  <pageSetup scale="73" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup scale="74" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>